--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -962,7 +962,7 @@
   <dimension ref="A1:CP6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="205">
   <si>
     <t>Codice</t>
   </si>
@@ -628,6 +628,9 @@
   </si>
   <si>
     <t>TUSA MAURIZIO</t>
+  </si>
+  <si>
+    <t>Bianco Luca</t>
   </si>
 </sst>
 </file>
@@ -663,8 +666,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -959,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP6"/>
+  <dimension ref="A1:CP7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2671,6 +2675,290 @@
         <v>104</v>
       </c>
       <c r="CP6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:94">
+      <c r="A7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7">
+        <v>92225649</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N7" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" s="1">
+        <v>45889</v>
+      </c>
+      <c r="P7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>191</v>
+      </c>
+      <c r="R7" t="s">
+        <v>110</v>
+      </c>
+      <c r="S7" t="s">
+        <v>111</v>
+      </c>
+      <c r="T7" t="s">
+        <v>204</v>
+      </c>
+      <c r="U7" t="s">
+        <v>192</v>
+      </c>
+      <c r="V7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W7" t="s">
+        <v>114</v>
+      </c>
+      <c r="X7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>198</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>200</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>201</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP7" t="s">
         <v>104</v>
       </c>
     </row>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="206">
   <si>
     <t>Codice</t>
   </si>
@@ -631,6 +631,9 @@
   </si>
   <si>
     <t>Bianco Luca</t>
+  </si>
+  <si>
+    <t>Maramao Percheseimorto</t>
   </si>
 </sst>
 </file>
@@ -963,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP7"/>
+  <dimension ref="A1:CP8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2959,6 +2962,290 @@
         <v>104</v>
       </c>
       <c r="CP7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:94">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>164</v>
+      </c>
+      <c r="M8" t="s">
+        <v>106</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>104</v>
+      </c>
+      <c r="R8" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" t="s">
+        <v>165</v>
+      </c>
+      <c r="T8" t="s">
+        <v>205</v>
+      </c>
+      <c r="U8" t="s">
+        <v>166</v>
+      </c>
+      <c r="V8" t="s">
+        <v>104</v>
+      </c>
+      <c r="W8" t="s">
+        <v>114</v>
+      </c>
+      <c r="X8" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP8" t="s">
         <v>104</v>
       </c>
     </row>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="204">
   <si>
     <t>Codice</t>
   </si>
@@ -628,12 +628,6 @@
   </si>
   <si>
     <t>TUSA MAURIZIO</t>
-  </si>
-  <si>
-    <t>Bianco Luca</t>
-  </si>
-  <si>
-    <t>Maramao Percheseimorto</t>
   </si>
 </sst>
 </file>
@@ -669,9 +663,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -966,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP8"/>
+  <dimension ref="A1:CP6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2678,574 +2671,6 @@
         <v>104</v>
       </c>
       <c r="CP6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:94">
-      <c r="A7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7">
-        <v>92225649</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M7" t="s">
-        <v>106</v>
-      </c>
-      <c r="N7" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" s="1">
-        <v>45889</v>
-      </c>
-      <c r="P7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>191</v>
-      </c>
-      <c r="R7" t="s">
-        <v>110</v>
-      </c>
-      <c r="S7" t="s">
-        <v>111</v>
-      </c>
-      <c r="T7" t="s">
-        <v>204</v>
-      </c>
-      <c r="U7" t="s">
-        <v>192</v>
-      </c>
-      <c r="V7" t="s">
-        <v>104</v>
-      </c>
-      <c r="W7" t="s">
-        <v>114</v>
-      </c>
-      <c r="X7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>196</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>173</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>198</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>104</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>128</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>199</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>200</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>110</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>104</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>131</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>104</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>104</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>99</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>99</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>104</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>104</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>133</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>114</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>114</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>104</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>134</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>104</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>104</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>104</v>
-      </c>
-      <c r="CC7" t="s">
-        <v>201</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>99</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>114</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>104</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>104</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>104</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>102</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>104</v>
-      </c>
-      <c r="CK7" t="s">
-        <v>104</v>
-      </c>
-      <c r="CL7" t="s">
-        <v>104</v>
-      </c>
-      <c r="CM7" t="s">
-        <v>202</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>104</v>
-      </c>
-      <c r="CO7" t="s">
-        <v>104</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:94">
-      <c r="A8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" t="s">
-        <v>163</v>
-      </c>
-      <c r="H8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" t="s">
-        <v>164</v>
-      </c>
-      <c r="M8" t="s">
-        <v>106</v>
-      </c>
-      <c r="N8" t="s">
-        <v>104</v>
-      </c>
-      <c r="O8" t="s">
-        <v>104</v>
-      </c>
-      <c r="P8" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>104</v>
-      </c>
-      <c r="R8" t="s">
-        <v>110</v>
-      </c>
-      <c r="S8" t="s">
-        <v>165</v>
-      </c>
-      <c r="T8" t="s">
-        <v>205</v>
-      </c>
-      <c r="U8" t="s">
-        <v>166</v>
-      </c>
-      <c r="V8" t="s">
-        <v>104</v>
-      </c>
-      <c r="W8" t="s">
-        <v>114</v>
-      </c>
-      <c r="X8" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>172</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>174</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>128</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>175</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>131</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>110</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>98</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>99</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>133</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>114</v>
-      </c>
-      <c r="BW8" t="s">
-        <v>102</v>
-      </c>
-      <c r="BX8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>134</v>
-      </c>
-      <c r="BZ8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CA8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CC8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CD8" t="s">
-        <v>99</v>
-      </c>
-      <c r="CE8" t="s">
-        <v>102</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CG8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CH8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CI8" t="s">
-        <v>102</v>
-      </c>
-      <c r="CJ8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CK8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CL8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CM8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CN8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CO8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CP8" t="s">
         <v>104</v>
       </c>
     </row>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="229">
   <si>
     <t>Codice</t>
   </si>
@@ -628,6 +628,81 @@
   </si>
   <si>
     <t>TUSA MAURIZIO</t>
+  </si>
+  <si>
+    <t>TT1004687510</t>
+  </si>
+  <si>
+    <t>92134291</t>
+  </si>
+  <si>
+    <t>CRNCLINDG-</t>
+  </si>
+  <si>
+    <t>21/08/2025 12:30</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081381627171 </t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>SWADW5041421484</t>
+  </si>
+  <si>
+    <t>093114720819</t>
+  </si>
+  <si>
+    <t>20/08/2025 21:56</t>
+  </si>
+  <si>
+    <t>21/08/2025 12:12</t>
+  </si>
+  <si>
+    <t>INFOSTRADA S.D.</t>
+  </si>
+  <si>
+    <t>STC ADSL IV WS</t>
+  </si>
+  <si>
+    <t>VULA WIND</t>
+  </si>
+  <si>
+    <t>15/08/2025 23:06</t>
+  </si>
+  <si>
+    <t>WIN2406VFT</t>
+  </si>
+  <si>
+    <t>RA - Degrado Linea Instabile</t>
+  </si>
+  <si>
+    <t>DEGRADO BITSTREAM FTTC</t>
+  </si>
+  <si>
+    <t>13/08/2025 23:06</t>
+  </si>
+  <si>
+    <t>DEG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box Codice collaudo: tk202508130067539519 </t>
+  </si>
+  <si>
+    <t>ASSENZA RANDOMICA DI PORTANTE **CPE_SN:PX5G1I4101472**</t>
+  </si>
+  <si>
+    <t>Sostituita presa certificato con supporto pin 9787 Codice collaudo: tk202508190067624985</t>
+  </si>
+  <si>
+    <t>OUT SLA</t>
+  </si>
+  <si>
+    <t>GANCI CORRADO</t>
   </si>
 </sst>
 </file>
@@ -959,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP6"/>
+  <dimension ref="A1:CP8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2671,6 +2746,574 @@
         <v>104</v>
       </c>
       <c r="CP6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:94">
+      <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N7" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>144</v>
+      </c>
+      <c r="R7" t="s">
+        <v>110</v>
+      </c>
+      <c r="S7" t="s">
+        <v>179</v>
+      </c>
+      <c r="T7" t="s">
+        <v>228</v>
+      </c>
+      <c r="U7" t="s">
+        <v>209</v>
+      </c>
+      <c r="V7" t="s">
+        <v>104</v>
+      </c>
+      <c r="W7" t="s">
+        <v>114</v>
+      </c>
+      <c r="X7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>212</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>218</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>222</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>160</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>224</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>225</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:94">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="s">
+        <v>106</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>207</v>
+      </c>
+      <c r="P8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>144</v>
+      </c>
+      <c r="R8" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" t="s">
+        <v>179</v>
+      </c>
+      <c r="T8" t="s">
+        <v>203</v>
+      </c>
+      <c r="U8" t="s">
+        <v>180</v>
+      </c>
+      <c r="V8" t="s">
+        <v>104</v>
+      </c>
+      <c r="W8" t="s">
+        <v>114</v>
+      </c>
+      <c r="X8" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>227</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP8" t="s">
         <v>104</v>
       </c>
     </row>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="362">
   <si>
     <t>Codice</t>
   </si>
@@ -696,13 +696,412 @@
     <t>ASSENZA RANDOMICA DI PORTANTE **CPE_SN:PX5G1I4101472**</t>
   </si>
   <si>
-    <t>Sostituita presa certificato con supporto pin 9787 Codice collaudo: tk202508190067624985</t>
-  </si>
-  <si>
     <t>OUT SLA</t>
   </si>
   <si>
     <t>GANCI CORRADO</t>
+  </si>
+  <si>
+    <t>TT1004685482</t>
+  </si>
+  <si>
+    <t>92123116</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>AVOLA</t>
+  </si>
+  <si>
+    <t>CRNCLINAP-</t>
+  </si>
+  <si>
+    <t>19/08/2025 10:00</t>
+  </si>
+  <si>
+    <t>19/08/2025 11:00</t>
+  </si>
+  <si>
+    <t>SVESPERTINO.111927</t>
+  </si>
+  <si>
+    <t>VESPERTINO SIMONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081281308539 </t>
+  </si>
+  <si>
+    <t>14/08/2025 00:00</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>SWADW5041413383</t>
+  </si>
+  <si>
+    <t>093114755786</t>
+  </si>
+  <si>
+    <t>22/08/2025 00:00</t>
+  </si>
+  <si>
+    <t>19/08/2025 14:29</t>
+  </si>
+  <si>
+    <t>93102A</t>
+  </si>
+  <si>
+    <t>FW CMC</t>
+  </si>
+  <si>
+    <t>13/08/2025 06:40</t>
+  </si>
+  <si>
+    <t>MTW2327DTS</t>
+  </si>
+  <si>
+    <t>HD - Verifica permute</t>
+  </si>
+  <si>
+    <t>13/08/2025 14:18</t>
+  </si>
+  <si>
+    <t>ATT.CLIENT - INDISPONIBILITA' CLIENTE</t>
+  </si>
+  <si>
+    <t>Necessitano verifiche all'interno della sede. Trattasi di banca. App.to al 14/08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codice collaudo: tk202508130067528344 Sostituito coppia di secondaria zona 1.04 box 34 cp 1 (new) box 31 cp 5 (old) allineamento stabilità servizi ok provato con il cliente e certificato con supporto Fastweb Mattia </t>
+  </si>
+  <si>
+    <t>TT1004692322</t>
+  </si>
+  <si>
+    <t>92165862</t>
+  </si>
+  <si>
+    <t>18/08/2025</t>
+  </si>
+  <si>
+    <t>MELILLI</t>
+  </si>
+  <si>
+    <t>400340</t>
+  </si>
+  <si>
+    <t>18/08/2025 12:00</t>
+  </si>
+  <si>
+    <t>18/08/2025 14:00</t>
+  </si>
+  <si>
+    <t>GUASTELLA STEFANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIETRO MARCHICA </t>
+  </si>
+  <si>
+    <t>CRV000102234270</t>
+  </si>
+  <si>
+    <t>0931955392</t>
+  </si>
+  <si>
+    <t>19/08/2025 00:08</t>
+  </si>
+  <si>
+    <t>18/08/2025 11:40</t>
+  </si>
+  <si>
+    <t>93103A</t>
+  </si>
+  <si>
+    <t>16/08/2025 12:52</t>
+  </si>
+  <si>
+    <t>CRV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eseguito cambio coppia secondaria zona 1.07. Vecchia box 21d1 coppia 3. Nuova box 21d1 coppia 8 Codice collaudo: tk202508160067571088 </t>
+  </si>
+  <si>
+    <t>TT1004694036</t>
+  </si>
+  <si>
+    <t>92174362</t>
+  </si>
+  <si>
+    <t>AVOLA LIDO</t>
+  </si>
+  <si>
+    <t>19/08/2025 13:30</t>
+  </si>
+  <si>
+    <t>19/08/2025 14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081782048850 </t>
+  </si>
+  <si>
+    <t>SWADW5041432038</t>
+  </si>
+  <si>
+    <t>093114728692</t>
+  </si>
+  <si>
+    <t>18/08/2025 20:18</t>
+  </si>
+  <si>
+    <t>19/08/2025 15:12</t>
+  </si>
+  <si>
+    <t>93102B</t>
+  </si>
+  <si>
+    <t>18/08/2025 13:30</t>
+  </si>
+  <si>
+    <t>17/08/2025 13:30</t>
+  </si>
+  <si>
+    <t>W18090002286971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collaudo: tk202508170067579587 Sostituito modem vodafone station revolution sn:w1809002286971 con vodafone power sn:r2201000123204 allineamento stabilità servizi ok provato con mylink </t>
+  </si>
+  <si>
+    <t>TT1004710782</t>
+  </si>
+  <si>
+    <t>92275266</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>21/08/2025 18:00</t>
+  </si>
+  <si>
+    <t>21/08/2025 18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081481722271 </t>
+  </si>
+  <si>
+    <t>SWADW5041424132</t>
+  </si>
+  <si>
+    <t>093114721787</t>
+  </si>
+  <si>
+    <t>22/08/2025 23:59</t>
+  </si>
+  <si>
+    <t>21/08/2025 16:24</t>
+  </si>
+  <si>
+    <t>15/08/2025 13:55</t>
+  </si>
+  <si>
+    <t>TISCALI S.D.</t>
+  </si>
+  <si>
+    <t>Supporto BTS</t>
+  </si>
+  <si>
+    <t>TIS24TIS1I</t>
+  </si>
+  <si>
+    <t>21/08/2025 12:28</t>
+  </si>
+  <si>
+    <t>ok isofia Si riscontra guasto di cavo secondaria 1.19 box 38. Coppie in corto verso Terra.</t>
+  </si>
+  <si>
+    <t>TT1004712552</t>
+  </si>
+  <si>
+    <t>92285532</t>
+  </si>
+  <si>
+    <t>22/08/2025</t>
+  </si>
+  <si>
+    <t>22/08/2025 17:00</t>
+  </si>
+  <si>
+    <t>22/08/2025 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081381626306 </t>
+  </si>
+  <si>
+    <t>0800</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>SWRTW5041421432</t>
+  </si>
+  <si>
+    <t>0931801154</t>
+  </si>
+  <si>
+    <t>14/08/2025 23:59</t>
+  </si>
+  <si>
+    <t>22/08/2025 19:40</t>
+  </si>
+  <si>
+    <t>INFOSTRADA</t>
+  </si>
+  <si>
+    <t>RCC_IVREA_1</t>
+  </si>
+  <si>
+    <t>ADSL</t>
+  </si>
+  <si>
+    <t>21/08/2025 16:14</t>
+  </si>
+  <si>
+    <t>guasto di cavo secondaria. Box in basso isolamento verso Terra. 1.64 box 33</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>LINEA MUTA CON TRAFF TELEFONICO GIA EFFETTUATO</t>
+  </si>
+  <si>
+    <t>TT1004713429</t>
+  </si>
+  <si>
+    <t>92290132</t>
+  </si>
+  <si>
+    <t>FLORIDIA</t>
+  </si>
+  <si>
+    <t>GRUSSO.111927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081882185983 </t>
+  </si>
+  <si>
+    <t>SWADW5041436119</t>
+  </si>
+  <si>
+    <t>093114726996</t>
+  </si>
+  <si>
+    <t>26/08/2025 13:02</t>
+  </si>
+  <si>
+    <t>22/08/2025 16:47</t>
+  </si>
+  <si>
+    <t>93102L</t>
+  </si>
+  <si>
+    <t>19/08/2025 15:06</t>
+  </si>
+  <si>
+    <t>21/08/2025 18:36</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202508210067695340 certificato con giusy fastweb pin 478 riparato al box</t>
+  </si>
+  <si>
+    <t>TT1004716312</t>
+  </si>
+  <si>
+    <t>92308508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025082282980212 </t>
+  </si>
+  <si>
+    <t>SWADW5041460685</t>
+  </si>
+  <si>
+    <t>093114727143</t>
+  </si>
+  <si>
+    <t>29/08/2025 12:26</t>
+  </si>
+  <si>
+    <t>22/08/2025 18:46</t>
+  </si>
+  <si>
+    <t>24/08/2025 13:36</t>
+  </si>
+  <si>
+    <t>22/08/2025 13:36</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202508220067713712 riparato al box</t>
+  </si>
+  <si>
+    <t>TT1004717690</t>
+  </si>
+  <si>
+    <t>92316628</t>
+  </si>
+  <si>
+    <t>23/08/2025</t>
+  </si>
+  <si>
+    <t>23/08/2025 15:30</t>
+  </si>
+  <si>
+    <t>23/08/2025 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081882248678 </t>
+  </si>
+  <si>
+    <t>SWADW5041438157</t>
+  </si>
+  <si>
+    <t>093114753813</t>
+  </si>
+  <si>
+    <t>26/08/2025 23:37</t>
+  </si>
+  <si>
+    <t>23/08/2025 15:36</t>
+  </si>
+  <si>
+    <t>20/08/2025 19:00</t>
+  </si>
+  <si>
+    <t>22/08/2025 16:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box eseguita prova telefonica Codice collaudo: tk202508220067721830 </t>
+  </si>
+  <si>
+    <t>ASSENZA RANDOMICA DI PORTANTE **CPE_SN:9G9JM8N02592**</t>
+  </si>
+  <si>
+    <t>FUCILE FRANCESCO</t>
+  </si>
+  <si>
+    <t>#DATA ESEC. 18/24 AGOSTO</t>
   </si>
 </sst>
 </file>
@@ -738,13 +1137,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -1034,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP8"/>
+  <dimension ref="A1:CP28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2808,7 +3221,7 @@
         <v>179</v>
       </c>
       <c r="T7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U7" t="s">
         <v>209</v>
@@ -3033,291 +3446,2287 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:94">
-      <c r="A8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="8" spans="1:94" s="1" customFormat="1">
+      <c r="A8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BW8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BX8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CC8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="CD8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP8" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:94">
+      <c r="A9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="s">
+        <v>106</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>261</v>
+      </c>
+      <c r="R9" t="s">
+        <v>110</v>
+      </c>
+      <c r="S9" t="s">
+        <v>179</v>
+      </c>
+      <c r="T9" t="s">
+        <v>262</v>
+      </c>
+      <c r="U9" t="s">
+        <v>263</v>
+      </c>
+      <c r="V9" t="s">
+        <v>104</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>265</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>267</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>266</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>269</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>271</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:94">
+      <c r="A10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>275</v>
+      </c>
+      <c r="P10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>276</v>
+      </c>
+      <c r="R10" t="s">
+        <v>110</v>
+      </c>
+      <c r="S10" t="s">
+        <v>235</v>
+      </c>
+      <c r="T10" t="s">
+        <v>360</v>
+      </c>
+      <c r="U10" t="s">
+        <v>277</v>
+      </c>
+      <c r="V10" t="s">
+        <v>104</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>280</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>284</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>285</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>286</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>286</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:94">
+      <c r="A11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" t="s">
         <v>138</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>259</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" t="s">
+        <v>290</v>
+      </c>
+      <c r="P11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>291</v>
+      </c>
+      <c r="R11" t="s">
+        <v>110</v>
+      </c>
+      <c r="S11" t="s">
+        <v>111</v>
+      </c>
+      <c r="T11" t="s">
+        <v>112</v>
+      </c>
+      <c r="U11" t="s">
+        <v>292</v>
+      </c>
+      <c r="V11" t="s">
+        <v>104</v>
+      </c>
+      <c r="W11" t="s">
+        <v>114</v>
+      </c>
+      <c r="X11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF11" t="s">
         <v>97</v>
       </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="AG11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>98</v>
       </c>
-      <c r="G8" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="AK11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM11" t="s">
         <v>108</v>
       </c>
-      <c r="J8" t="s">
+      <c r="AN11" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>294</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>295</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>296</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>297</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>300</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>301</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>289</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>157</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>302</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:94">
+      <c r="A12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
         <v>103</v>
       </c>
-      <c r="K8" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s">
         <v>105</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M12" t="s">
         <v>106</v>
       </c>
-      <c r="N8" t="s">
-        <v>104</v>
-      </c>
-      <c r="O8" t="s">
-        <v>207</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="N12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" t="s">
+        <v>306</v>
+      </c>
+      <c r="P12" t="s">
         <v>108</v>
       </c>
-      <c r="Q8" t="s">
-        <v>144</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="Q12" t="s">
+        <v>307</v>
+      </c>
+      <c r="R12" t="s">
         <v>110</v>
       </c>
-      <c r="S8" t="s">
-        <v>179</v>
-      </c>
-      <c r="T8" t="s">
-        <v>203</v>
-      </c>
-      <c r="U8" t="s">
-        <v>180</v>
-      </c>
-      <c r="V8" t="s">
-        <v>104</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="S12" t="s">
+        <v>111</v>
+      </c>
+      <c r="T12" t="s">
+        <v>112</v>
+      </c>
+      <c r="U12" t="s">
+        <v>308</v>
+      </c>
+      <c r="V12" t="s">
+        <v>104</v>
+      </c>
+      <c r="W12" t="s">
         <v>114</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X12" t="s">
         <v>115</v>
       </c>
-      <c r="Y8" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="Y12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC12" t="s">
         <v>114</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AD12" t="s">
         <v>116</v>
       </c>
-      <c r="AE8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF8" t="s">
+      <c r="AE12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF12" t="s">
         <v>97</v>
       </c>
-      <c r="AG8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI8" t="s">
+      <c r="AG12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI12" t="s">
         <v>117</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>208</v>
-      </c>
-      <c r="AM8" t="s">
+      <c r="AJ12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM12" t="s">
         <v>108</v>
       </c>
-      <c r="AN8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>144</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>184</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>178</v>
-      </c>
-      <c r="AU8" t="s">
+      <c r="AN12" t="s">
+        <v>311</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>313</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>315</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>316</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>317</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>318</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>289</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>319</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>320</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>321</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:94">
+      <c r="A13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" t="s">
+        <v>324</v>
+      </c>
+      <c r="H13" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" t="s">
+        <v>320</v>
+      </c>
+      <c r="J13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13" t="s">
+        <v>306</v>
+      </c>
+      <c r="P13" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>307</v>
+      </c>
+      <c r="R13" t="s">
+        <v>110</v>
+      </c>
+      <c r="S13" t="s">
+        <v>325</v>
+      </c>
+      <c r="T13" t="s">
+        <v>262</v>
+      </c>
+      <c r="U13" t="s">
+        <v>326</v>
+      </c>
+      <c r="V13" t="s">
+        <v>104</v>
+      </c>
+      <c r="W13" t="s">
+        <v>114</v>
+      </c>
+      <c r="X13" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>327</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>328</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>329</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>330</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU13" t="s">
         <v>171</v>
       </c>
-      <c r="AV8" t="s">
-        <v>172</v>
-      </c>
-      <c r="AW8" t="s">
+      <c r="AV13" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW13" t="s">
         <v>173</v>
       </c>
-      <c r="AX8" t="s">
-        <v>185</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BA8" t="s">
+      <c r="AX13" t="s">
+        <v>332</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA13" t="s">
         <v>127</v>
       </c>
-      <c r="BB8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>128</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>186</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>187</v>
-      </c>
-      <c r="BJ8" t="s">
+      <c r="BB13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>333</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG13" t="s">
         <v>110</v>
       </c>
-      <c r="BK8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BL8" t="s">
+      <c r="BH13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL13" t="s">
         <v>131</v>
       </c>
-      <c r="BM8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>99</v>
-      </c>
-      <c r="BQ8" t="s">
+      <c r="BM13" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ13" t="s">
         <v>132</v>
       </c>
-      <c r="BR8" t="s">
-        <v>99</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BU8" t="s">
+      <c r="BR13" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU13" t="s">
         <v>133</v>
       </c>
-      <c r="BV8" t="s">
+      <c r="BV13" t="s">
         <v>114</v>
       </c>
-      <c r="BW8" t="s">
+      <c r="BW13" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>334</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:94">
+      <c r="A14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" t="s">
+        <v>324</v>
+      </c>
+      <c r="H14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" t="s">
+        <v>106</v>
+      </c>
+      <c r="N14" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" t="s">
+        <v>306</v>
+      </c>
+      <c r="P14" t="s">
         <v>108</v>
       </c>
-      <c r="BX8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>134</v>
-      </c>
-      <c r="BZ8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CA8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CC8" t="s">
-        <v>226</v>
-      </c>
-      <c r="CD8" t="s">
-        <v>99</v>
-      </c>
-      <c r="CE8" t="s">
+      <c r="Q14" t="s">
+        <v>307</v>
+      </c>
+      <c r="R14" t="s">
+        <v>110</v>
+      </c>
+      <c r="S14" t="s">
+        <v>325</v>
+      </c>
+      <c r="T14" t="s">
+        <v>360</v>
+      </c>
+      <c r="U14" t="s">
+        <v>337</v>
+      </c>
+      <c r="V14" t="s">
+        <v>104</v>
+      </c>
+      <c r="W14" t="s">
         <v>114</v>
       </c>
-      <c r="CF8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CG8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CH8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CI8" t="s">
+      <c r="X14" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL14" t="s">
         <v>102</v>
       </c>
-      <c r="CJ8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CK8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CL8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CM8" t="s">
-        <v>227</v>
-      </c>
-      <c r="CN8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CO8" t="s">
-        <v>104</v>
-      </c>
-      <c r="CP8" t="s">
-        <v>104</v>
+      <c r="AM14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>338</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>339</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>342</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>343</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>344</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>345</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:94">
+      <c r="A15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" t="s">
+        <v>347</v>
+      </c>
+      <c r="C15" t="s">
+        <v>348</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" t="s">
+        <v>106</v>
+      </c>
+      <c r="N15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O15" t="s">
+        <v>349</v>
+      </c>
+      <c r="P15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>350</v>
+      </c>
+      <c r="R15" t="s">
+        <v>110</v>
+      </c>
+      <c r="S15" t="s">
+        <v>111</v>
+      </c>
+      <c r="T15" t="s">
+        <v>112</v>
+      </c>
+      <c r="U15" t="s">
+        <v>351</v>
+      </c>
+      <c r="V15" t="s">
+        <v>104</v>
+      </c>
+      <c r="W15" t="s">
+        <v>114</v>
+      </c>
+      <c r="X15" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>352</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>353</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>354</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>355</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>356</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>357</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>160</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>358</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>359</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="12:12">
+      <c r="L28" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="402">
   <si>
     <t>Codice</t>
   </si>
@@ -1101,7 +1101,127 @@
     <t>FUCILE FRANCESCO</t>
   </si>
   <si>
-    <t>#DATA ESEC. 18/24 AGOSTO</t>
+    <t>TT1004722263</t>
+  </si>
+  <si>
+    <t>92338419</t>
+  </si>
+  <si>
+    <t>25/08/2025</t>
+  </si>
+  <si>
+    <t>25/08/2025 12:00</t>
+  </si>
+  <si>
+    <t>25/08/2025 12:30</t>
+  </si>
+  <si>
+    <t>FFUCILE.111927</t>
+  </si>
+  <si>
+    <t>31/08/2025 07:44</t>
+  </si>
+  <si>
+    <t>25/08/2025 12:09</t>
+  </si>
+  <si>
+    <t>24/08/2025 15:16</t>
+  </si>
+  <si>
+    <t>zona 1.42 box 2 coppia 6 si riscontra guasto cavo secondaria causa cadute di connessione al box ok in armadio</t>
+  </si>
+  <si>
+    <t>27/08/2025</t>
+  </si>
+  <si>
+    <t>27/08/2025 11:00</t>
+  </si>
+  <si>
+    <t>27/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>27/08/2025 12:00</t>
+  </si>
+  <si>
+    <t>GCANNARELLA.111927</t>
+  </si>
+  <si>
+    <t>27/08/2025 13:00</t>
+  </si>
+  <si>
+    <t>TT1004731384</t>
+  </si>
+  <si>
+    <t>92397538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCA DE JACO </t>
+  </si>
+  <si>
+    <t>CRV000102474902</t>
+  </si>
+  <si>
+    <t>0931861031</t>
+  </si>
+  <si>
+    <t>30/08/2025 23:59</t>
+  </si>
+  <si>
+    <t>27/08/2025 11:15</t>
+  </si>
+  <si>
+    <t>26/08/2025 16:46</t>
+  </si>
+  <si>
+    <t>92116971</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sostituita secondaria vecchia box 18 coppia 6 nuova box 18 coppia 10 Eseguita prova telefonica Codice collaudo: tk202508260067802726 </t>
+  </si>
+  <si>
+    <t>TT1004733480</t>
+  </si>
+  <si>
+    <t>92410334</t>
+  </si>
+  <si>
+    <t>s:ServiceOptimization.ErrorNumbers.55001-È necessario effettuare la certificazione della linea eseguendo il Collaudo mediante l’applicazione ONE. Eseguire tale operazione su ONE ed accertarsi abbia ricevuto esito positivo prima di procedere alla chiusura della WR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081681956843 </t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>SWADW5041429679</t>
+  </si>
+  <si>
+    <t>093113772470</t>
+  </si>
+  <si>
+    <t>17/08/2025 22:30</t>
+  </si>
+  <si>
+    <t>27/08/2025 11:51</t>
+  </si>
+  <si>
+    <t>TIS2017CME</t>
+  </si>
+  <si>
+    <t>TIS</t>
+  </si>
+  <si>
+    <t>27/08/2025 10:20</t>
+  </si>
+  <si>
+    <t>utente rifiuta intervento perché ha eseguito disdetta per passare con altro gestore, certificato con supporto Tiscali codice 18292 Emanuela</t>
+  </si>
+  <si>
+    <t>#DATA ESEC. 18/27 AGOSTO</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1570,7 @@
   <dimension ref="A1:CP28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5718,9 +5838,861 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="12:12">
+    <row r="16" spans="1:94" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AY16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE16" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="BF16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY16" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC16" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="CD16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP16" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:94">
+      <c r="A17" t="s">
+        <v>388</v>
+      </c>
+      <c r="B17" t="s">
+        <v>389</v>
+      </c>
+      <c r="C17" t="s">
+        <v>371</v>
+      </c>
+      <c r="D17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" t="s">
+        <v>259</v>
+      </c>
+      <c r="K17" t="s">
+        <v>390</v>
+      </c>
+      <c r="L17" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" t="s">
+        <v>106</v>
+      </c>
+      <c r="N17" t="s">
+        <v>104</v>
+      </c>
+      <c r="O17" t="s">
+        <v>374</v>
+      </c>
+      <c r="P17" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>376</v>
+      </c>
+      <c r="R17" t="s">
+        <v>110</v>
+      </c>
+      <c r="S17" t="s">
+        <v>366</v>
+      </c>
+      <c r="T17" t="s">
+        <v>262</v>
+      </c>
+      <c r="U17" t="s">
+        <v>391</v>
+      </c>
+      <c r="V17" t="s">
+        <v>104</v>
+      </c>
+      <c r="W17" t="s">
+        <v>114</v>
+      </c>
+      <c r="X17" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>393</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>394</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>395</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>396</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>395</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>397</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>398</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>399</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>160</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>400</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:94">
+      <c r="A18" t="s">
+        <v>377</v>
+      </c>
+      <c r="B18" t="s">
+        <v>378</v>
+      </c>
+      <c r="C18" t="s">
+        <v>371</v>
+      </c>
+      <c r="D18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" t="s">
+        <v>206</v>
+      </c>
+      <c r="I18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" t="s">
+        <v>259</v>
+      </c>
+      <c r="K18" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" t="s">
+        <v>105</v>
+      </c>
+      <c r="M18" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" t="s">
+        <v>104</v>
+      </c>
+      <c r="O18" t="s">
+        <v>372</v>
+      </c>
+      <c r="P18" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>373</v>
+      </c>
+      <c r="R18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S18" t="s">
+        <v>375</v>
+      </c>
+      <c r="T18" t="s">
+        <v>360</v>
+      </c>
+      <c r="U18" t="s">
+        <v>379</v>
+      </c>
+      <c r="V18" t="s">
+        <v>104</v>
+      </c>
+      <c r="W18" t="s">
+        <v>114</v>
+      </c>
+      <c r="X18" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>380</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>381</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>382</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>382</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>384</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>385</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>387</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ18" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL18" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM18" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN18" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:94">
       <c r="L28" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18732" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="422">
   <si>
     <t>Codice</t>
   </si>
@@ -1221,7 +1221,67 @@
     <t>utente rifiuta intervento perché ha eseguito disdetta per passare con altro gestore, certificato con supporto Tiscali codice 18292 Emanuela</t>
   </si>
   <si>
-    <t>#DATA ESEC. 18/27 AGOSTO</t>
+    <t>TT1004721181</t>
+  </si>
+  <si>
+    <t>92333185</t>
+  </si>
+  <si>
+    <t>28/08/2025</t>
+  </si>
+  <si>
+    <t>28/08/2025 15:00</t>
+  </si>
+  <si>
+    <t>28/08/2025 15:30</t>
+  </si>
+  <si>
+    <t>28/08/2025 17:11</t>
+  </si>
+  <si>
+    <t>23/08/2025 19:22</t>
+  </si>
+  <si>
+    <t>si riscontra in centrale pachino sala olo k.o tutti gli utenti risultano allineati ma non navigano certificato con supporto vodafone eugenio pin:55855</t>
+  </si>
+  <si>
+    <t>28/08/2025 23:59</t>
+  </si>
+  <si>
+    <t>TT1004734696</t>
+  </si>
+  <si>
+    <t>92419055</t>
+  </si>
+  <si>
+    <t>28/08/2025 18:00</t>
+  </si>
+  <si>
+    <t>28/08/2025 18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025082683707118 </t>
+  </si>
+  <si>
+    <t>SWADW5041481322</t>
+  </si>
+  <si>
+    <t>093114736610</t>
+  </si>
+  <si>
+    <t>28/08/2025 14:07</t>
+  </si>
+  <si>
+    <t>27/08/2025 18:11</t>
+  </si>
+  <si>
+    <t>27/08/2025 13:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@roditori Eseguita sostituzione trecciola da sezionatore a prima presa e riparato al box, eseguita prova telefonica Codice collaudo: tk202508270067824243 </t>
+  </si>
+  <si>
+    <t>#DATA ESEC. FINO AL 31 AGOSTO</t>
   </si>
 </sst>
 </file>
@@ -1567,15 +1627,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP28"/>
+  <dimension ref="A1:CP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="20" max="20" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94">
@@ -6690,9 +6750,577 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:94">
-      <c r="L28" t="s">
+    <row r="19" spans="1:94" s="1" customFormat="1">
+      <c r="A19" s="1" t="s">
         <v>401</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE19" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="BF19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW19" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BX19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="CA19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC19" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="CD19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="CF19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN19" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="CO19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP19" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:94" s="1" customFormat="1">
+      <c r="A20" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC20" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE20" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="BF20" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC20" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="CD20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP20" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:94">
+      <c r="L27" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -6710,7 +7338,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6723,7 +7351,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18732" windowHeight="11700"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3855" uniqueCount="699">
   <si>
     <t>Codice</t>
   </si>
@@ -1281,7 +1281,838 @@
     <t xml:space="preserve">@roditori Eseguita sostituzione trecciola da sezionatore a prima presa e riparato al box, eseguita prova telefonica Codice collaudo: tk202508270067824243 </t>
   </si>
   <si>
-    <t>#DATA ESEC. FINO AL 31 AGOSTO</t>
+    <t>TT1004734320</t>
+  </si>
+  <si>
+    <t>92416060</t>
+  </si>
+  <si>
+    <t>02/09/2025</t>
+  </si>
+  <si>
+    <t>CALABERNARDO</t>
+  </si>
+  <si>
+    <t>02/09/2025 12:30</t>
+  </si>
+  <si>
+    <t>02/09/2025 13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANNARELLA GIUSEPPE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025082783879339 </t>
+  </si>
+  <si>
+    <t>SWADW5041485492</t>
+  </si>
+  <si>
+    <t>093114756550</t>
+  </si>
+  <si>
+    <t>03/09/2025 11:10</t>
+  </si>
+  <si>
+    <t>02/09/2025 14:44</t>
+  </si>
+  <si>
+    <t>93102E</t>
+  </si>
+  <si>
+    <t>28/08/2025 13:20</t>
+  </si>
+  <si>
+    <t>27/08/2025 12:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si riscontra modem guasto al eseguita prova in sede utente codice collaudo tk202508270067821247 </t>
+  </si>
+  <si>
+    <t>TT1004738796</t>
+  </si>
+  <si>
+    <t>92445631</t>
+  </si>
+  <si>
+    <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>CRRGLINTE-</t>
+  </si>
+  <si>
+    <t>01/09/2025 18:00</t>
+  </si>
+  <si>
+    <t>01/09/2025 18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALVATORE CAPPELLO </t>
+  </si>
+  <si>
+    <t>CRR000102395608</t>
+  </si>
+  <si>
+    <t>0931501406</t>
+  </si>
+  <si>
+    <t>23/08/2025 23:59</t>
+  </si>
+  <si>
+    <t>01/09/2025 17:45</t>
+  </si>
+  <si>
+    <t>RA - Contatto</t>
+  </si>
+  <si>
+    <t>28/08/2025 11:58</t>
+  </si>
+  <si>
+    <t>RTG</t>
+  </si>
+  <si>
+    <t>CRR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eseguito cambio coppia secondaria vecchia 1/7 nuova 1/4 eseguita prova telefonica Codice Collaudo: tk202508280067850802 </t>
+  </si>
+  <si>
+    <t>TT1004747276</t>
+  </si>
+  <si>
+    <t>92499233</t>
+  </si>
+  <si>
+    <t>CRURLIAAP-</t>
+  </si>
+  <si>
+    <t>01/09/2025 16:00</t>
+  </si>
+  <si>
+    <t>01/09/2025 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025082683757448 </t>
+  </si>
+  <si>
+    <t>SWRTW5041483020</t>
+  </si>
+  <si>
+    <t>0931859691</t>
+  </si>
+  <si>
+    <t>07/09/2025 02:42</t>
+  </si>
+  <si>
+    <t>01/09/2025 18:46</t>
+  </si>
+  <si>
+    <t>RA - Indisp. Prove</t>
+  </si>
+  <si>
+    <t>DEGRADO ULLR/NP</t>
+  </si>
+  <si>
+    <t>29/08/2025 19:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al permutatore eseguita prova telefonica, mylink ok. Codice collaudo: tk202508290067904392 </t>
+  </si>
+  <si>
+    <t>TT1004755741</t>
+  </si>
+  <si>
+    <t>92548683</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>SR - ISOLA</t>
+  </si>
+  <si>
+    <t>02/09/2025 10:30</t>
+  </si>
+  <si>
+    <t>02/09/2025 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025082683766180 </t>
+  </si>
+  <si>
+    <t>SWADW5041483277</t>
+  </si>
+  <si>
+    <t>093114739452</t>
+  </si>
+  <si>
+    <t>04/09/2025 20:34</t>
+  </si>
+  <si>
+    <t>02/09/2025 11:29</t>
+  </si>
+  <si>
+    <t>93100E</t>
+  </si>
+  <si>
+    <t>WIN1921VLA</t>
+  </si>
+  <si>
+    <t>01/09/2025 15:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codice collaudo: tk202509010067953832 Eseguito cambio porta vdsl pm8 ( 502 a 16) new Pm15 (502 a 30) old allineamento stabilità servizi ok eseguito con il cliente </t>
+  </si>
+  <si>
+    <t>TT1004761981</t>
+  </si>
+  <si>
+    <t>92589687</t>
+  </si>
+  <si>
+    <t>03/09/2025</t>
+  </si>
+  <si>
+    <t>03/09/2025 10:00</t>
+  </si>
+  <si>
+    <t>03/09/2025 10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025090285097222 </t>
+  </si>
+  <si>
+    <t>SWADW5041523561</t>
+  </si>
+  <si>
+    <t>093114741179</t>
+  </si>
+  <si>
+    <t>09/09/2025 16:07</t>
+  </si>
+  <si>
+    <t>03/09/2025 10:35</t>
+  </si>
+  <si>
+    <t>03/09/2025 18:16</t>
+  </si>
+  <si>
+    <t>02/09/2025 17:16</t>
+  </si>
+  <si>
+    <t>Riparato al box Codice collaudo: tk202509020067994824 Certificato con il supporto pin 262</t>
+  </si>
+  <si>
+    <t>TT1004764502</t>
+  </si>
+  <si>
+    <t>92605004</t>
+  </si>
+  <si>
+    <t>s:ServiceOptimization.ErrorNumbers.55001-ACT_COMPL_DT deve essere dopo ACT_DISPATCH_DT</t>
+  </si>
+  <si>
+    <t>03/09/2025 17:30</t>
+  </si>
+  <si>
+    <t>03/09/2025 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025090385215745 </t>
+  </si>
+  <si>
+    <t>SWADW5041526912</t>
+  </si>
+  <si>
+    <t>093114725648</t>
+  </si>
+  <si>
+    <t>10/09/2025 09:31</t>
+  </si>
+  <si>
+    <t>03/09/2025 17:07</t>
+  </si>
+  <si>
+    <t>04/09/2025 11:40</t>
+  </si>
+  <si>
+    <t>03/09/2025 10:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box eseguita prova telefonica certificato con supporto Fastweb pin 038 codice collaudo tk202509030068010138 </t>
+  </si>
+  <si>
+    <t>TT1004764781</t>
+  </si>
+  <si>
+    <t>92607199</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
+  </si>
+  <si>
+    <t>04/09/2025 12:30</t>
+  </si>
+  <si>
+    <t>04/09/2025 13:00</t>
+  </si>
+  <si>
+    <t>05/09/2025 19:59</t>
+  </si>
+  <si>
+    <t>04/09/2025 12:29</t>
+  </si>
+  <si>
+    <t>03/09/2025 11:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codice collaudo: tk202509030068012333 Sostituito cp di secondario zona 9.16 box 8 cp 4 (new) cp8 (old) allineamento stabilità servizi ok </t>
+  </si>
+  <si>
+    <t>TT1004767388</t>
+  </si>
+  <si>
+    <t>92625924</t>
+  </si>
+  <si>
+    <t>04/09/2025 11:00</t>
+  </si>
+  <si>
+    <t>04/09/2025 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025090385316705 </t>
+  </si>
+  <si>
+    <t>SWADW5041530691</t>
+  </si>
+  <si>
+    <t>093114744425</t>
+  </si>
+  <si>
+    <t>10/09/2025 15:46</t>
+  </si>
+  <si>
+    <t>04/09/2025 10:09</t>
+  </si>
+  <si>
+    <t>05/09/2025 16:54</t>
+  </si>
+  <si>
+    <t>WIN21IVRTI</t>
+  </si>
+  <si>
+    <t>03/09/2025 16:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riparato al box testato con l'utente codice tk202509030068031056 </t>
+  </si>
+  <si>
+    <t>AGGANCIO DEGRADATO **CPE_SN:EG9JM1L09124**</t>
+  </si>
+  <si>
+    <t>TT1004770559</t>
+  </si>
+  <si>
+    <t>92647777</t>
+  </si>
+  <si>
+    <t>06/09/2025</t>
+  </si>
+  <si>
+    <t>06/09/2025 14:30</t>
+  </si>
+  <si>
+    <t>06/09/2025 15:00</t>
+  </si>
+  <si>
+    <t>AROCCELLA.111927</t>
+  </si>
+  <si>
+    <t>ROCCELLA ALBERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025090285090936 </t>
+  </si>
+  <si>
+    <t>SWRTW5041523301</t>
+  </si>
+  <si>
+    <t>U502250190</t>
+  </si>
+  <si>
+    <t>13/09/2025 16:01</t>
+  </si>
+  <si>
+    <t>06/09/2025 14:52</t>
+  </si>
+  <si>
+    <t>DEGRADO ULLR</t>
+  </si>
+  <si>
+    <t>04/09/2025 12:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box ab&gt;500at&gt;500bt&gt;500 </t>
+  </si>
+  <si>
+    <t>ASSENZA RANDOMICA DI PORTANTE</t>
+  </si>
+  <si>
+    <t>TT1004775561</t>
+  </si>
+  <si>
+    <t>92683547</t>
+  </si>
+  <si>
+    <t>05/09/2025</t>
+  </si>
+  <si>
+    <t>05/09/2025 14:30</t>
+  </si>
+  <si>
+    <t>05/09/2025 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025090184831548 </t>
+  </si>
+  <si>
+    <t>06/09/2025 00:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>SWADW5041514444</t>
+  </si>
+  <si>
+    <t>093114720826</t>
+  </si>
+  <si>
+    <t>06/09/2025 19:20</t>
+  </si>
+  <si>
+    <t>05/09/2025 14:26</t>
+  </si>
+  <si>
+    <t>POSTEPAY S.D.</t>
+  </si>
+  <si>
+    <t>BELLERINO PAOLA</t>
+  </si>
+  <si>
+    <t>PMO2104CLM</t>
+  </si>
+  <si>
+    <t>DISSERVIZIO EASY IP UBB FTTC</t>
+  </si>
+  <si>
+    <t>05/09/2025 12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sostituita presa testato con l'utente codice collaudo tk202509050068088664 </t>
+  </si>
+  <si>
+    <t>TT1004776156</t>
+  </si>
+  <si>
+    <t>92687322</t>
+  </si>
+  <si>
+    <t>08/09/2025</t>
+  </si>
+  <si>
+    <t>NOTO C</t>
+  </si>
+  <si>
+    <t>08/09/2025 16:30</t>
+  </si>
+  <si>
+    <t>08/09/2025 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025090585712384 </t>
+  </si>
+  <si>
+    <t>SWADW5041541714</t>
+  </si>
+  <si>
+    <t>093114733713</t>
+  </si>
+  <si>
+    <t>12/09/2025 12:45</t>
+  </si>
+  <si>
+    <t>08/09/2025 17:30</t>
+  </si>
+  <si>
+    <t>93102G</t>
+  </si>
+  <si>
+    <t>06/09/2025 14:56</t>
+  </si>
+  <si>
+    <t>05/09/2025 13:56</t>
+  </si>
+  <si>
+    <t>sostituito pth eseguita prova in sede utente certificato con supporto FW Codice collaudo: tk202509050068092438 pin:8942</t>
+  </si>
+  <si>
+    <t>TT1004776563</t>
+  </si>
+  <si>
+    <t>92690082</t>
+  </si>
+  <si>
+    <t>SR-DAMMA</t>
+  </si>
+  <si>
+    <t>06/09/2025 10:00</t>
+  </si>
+  <si>
+    <t>06/09/2025 10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025090485528748 </t>
+  </si>
+  <si>
+    <t>SWADW5041536566</t>
+  </si>
+  <si>
+    <t>093114742525</t>
+  </si>
+  <si>
+    <t>05/09/2025 14:46</t>
+  </si>
+  <si>
+    <t>06/09/2025 10:14</t>
+  </si>
+  <si>
+    <t>93100H</t>
+  </si>
+  <si>
+    <t>06/09/2025 09:52</t>
+  </si>
+  <si>
+    <t>MTW2103MGS</t>
+  </si>
+  <si>
+    <t>05/09/2025 14:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guasto cavo secondario, zona 6,15 box 23-26d2 tutte le coppie in corto circuito. Certificano con Thomas Fastweb </t>
+  </si>
+  <si>
+    <t>TT1004776578</t>
+  </si>
+  <si>
+    <t>92690229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025090485522246 </t>
+  </si>
+  <si>
+    <t>SWADW5041536320</t>
+  </si>
+  <si>
+    <t>093114759019</t>
+  </si>
+  <si>
+    <t>05/09/2025 14:22</t>
+  </si>
+  <si>
+    <t>06/09/2025 09:56</t>
+  </si>
+  <si>
+    <t>MTW2509DES</t>
+  </si>
+  <si>
+    <t>05/09/2025 14:56</t>
+  </si>
+  <si>
+    <t>89201422</t>
+  </si>
+  <si>
+    <t>R.CANINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guasto cavo secondario, zona 6,15 box 23-26d2 tutte le coppie in corto circuito. Certificano con Tgomas Fastweb </t>
+  </si>
+  <si>
+    <t>TT1004779092</t>
+  </si>
+  <si>
+    <t>92705192</t>
+  </si>
+  <si>
+    <t>06/09/2025 11:30</t>
+  </si>
+  <si>
+    <t>06/09/2025 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025090685855675 </t>
+  </si>
+  <si>
+    <t>SWADW5041545340</t>
+  </si>
+  <si>
+    <t>13/09/2025 08:51</t>
+  </si>
+  <si>
+    <t>06/09/2025 11:27</t>
+  </si>
+  <si>
+    <t>07/09/2025 11:00</t>
+  </si>
+  <si>
+    <t>Riparato al box certificato con supporto pin 013 Codice collaudo: tk202509060068110304</t>
+  </si>
+  <si>
+    <t>TT1004779823</t>
+  </si>
+  <si>
+    <t>92709188</t>
+  </si>
+  <si>
+    <t>09/09/2025</t>
+  </si>
+  <si>
+    <t>CRADLININ-</t>
+  </si>
+  <si>
+    <t>09/09/2025 11:00</t>
+  </si>
+  <si>
+    <t>09/09/2025 11:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSA CICERO </t>
+  </si>
+  <si>
+    <t>11/09/2025 00:00</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>CRR000101913016</t>
+  </si>
+  <si>
+    <t>0931858647</t>
+  </si>
+  <si>
+    <t>26/07/2025 00:00</t>
+  </si>
+  <si>
+    <t>09/09/2025 10:43</t>
+  </si>
+  <si>
+    <t>26/07/2025 23:59</t>
+  </si>
+  <si>
+    <t>06/09/2025 13:06</t>
+  </si>
+  <si>
+    <t>ATTESAPA</t>
+  </si>
+  <si>
+    <t>s.sorbello</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Attesa permessi privati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sostituita secondaria vecchia box 13d2/3 nuova box 13d2/6 eseguita prova telefonica codice collaudo tk202509060068114299 </t>
+  </si>
+  <si>
+    <t>TT1004781748</t>
+  </si>
+  <si>
+    <t>92718870</t>
+  </si>
+  <si>
+    <t>08/09/2025 09:00</t>
+  </si>
+  <si>
+    <t>08/09/2025 09:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIUSY LEONARDI </t>
+  </si>
+  <si>
+    <t>CRV001030488168</t>
+  </si>
+  <si>
+    <t>0931861856</t>
+  </si>
+  <si>
+    <t>09/09/2025 23:59</t>
+  </si>
+  <si>
+    <t>08/09/2025 11:20</t>
+  </si>
+  <si>
+    <t>07/09/2025 14:12</t>
+  </si>
+  <si>
+    <t>92263698</t>
+  </si>
+  <si>
+    <t>FTTC</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box testato con l'utente codice collaudo tk202509070068123980 </t>
+  </si>
+  <si>
+    <t>TT1004783247</t>
+  </si>
+  <si>
+    <t>92728637</t>
+  </si>
+  <si>
+    <t>09/09/2025 16:00</t>
+  </si>
+  <si>
+    <t>09/09/2025 16:30</t>
+  </si>
+  <si>
+    <t>15/09/2025 11:54</t>
+  </si>
+  <si>
+    <t>09/09/2025 15:41</t>
+  </si>
+  <si>
+    <t>08/09/2025 10:46</t>
+  </si>
+  <si>
+    <t>Attenuazione 36 Rumore 10 Allineamento 11000 Sostituita Secondaria , Zona 1.26 box 43 Old 5 New 10 . Trattasi di linea di Centrale ADSL . Linea non migliorabile causa eccessiva distanza dalla centrale</t>
+  </si>
+  <si>
+    <t>TT1004786663</t>
+  </si>
+  <si>
+    <t>92752011</t>
+  </si>
+  <si>
+    <t>09/09/2025 17:00</t>
+  </si>
+  <si>
+    <t>09/09/2025 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025090585745464 </t>
+  </si>
+  <si>
+    <t>SWADW5041542767</t>
+  </si>
+  <si>
+    <t>093114752119</t>
+  </si>
+  <si>
+    <t>14/09/2025 23:01</t>
+  </si>
+  <si>
+    <t>09/09/2025 17:08</t>
+  </si>
+  <si>
+    <t>07/09/2025 15:20</t>
+  </si>
+  <si>
+    <t>WIN1911VTA</t>
+  </si>
+  <si>
+    <t>08/09/2025 19:28</t>
+  </si>
+  <si>
+    <t>Riparato al box Codice collaudo: tk202509080068157109</t>
+  </si>
+  <si>
+    <t>ASSENZA RANDOMICA DI PORTANTE **CPE_SN:S220Y22070319**</t>
+  </si>
+  <si>
+    <t>TT1004754813</t>
+  </si>
+  <si>
+    <t>92541858</t>
+  </si>
+  <si>
+    <t>CRV000102572390</t>
+  </si>
+  <si>
+    <t>02/09/2025 23:59</t>
+  </si>
+  <si>
+    <t>01/09/2025 17:43</t>
+  </si>
+  <si>
+    <t>01/09/2025 13:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box, ok prove cliente cc tk202509010067947007  </t>
+  </si>
+  <si>
+    <t>TT1004780079</t>
+  </si>
+  <si>
+    <t>92710733</t>
+  </si>
+  <si>
+    <t>CRNHONT---</t>
+  </si>
+  <si>
+    <t>08/09/2025 18:00</t>
+  </si>
+  <si>
+    <t>08/09/2025 18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025090685914311 </t>
+  </si>
+  <si>
+    <t>SWADW5041546905</t>
+  </si>
+  <si>
+    <t>093114744963</t>
+  </si>
+  <si>
+    <t>07/09/2025 22:21</t>
+  </si>
+  <si>
+    <t>08/09/2025 14:31</t>
+  </si>
+  <si>
+    <t>MTW2332ZXA</t>
+  </si>
+  <si>
+    <t>HD - Mancato allineamento FTTH</t>
+  </si>
+  <si>
+    <t>DISSERVIZIO BITSTREAM FTTH</t>
+  </si>
+  <si>
+    <t>06/09/2025 14:24</t>
+  </si>
+  <si>
+    <t>92518035</t>
+  </si>
+  <si>
+    <t>NGAN-H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@roditori rifatto giunto su borchia ottica testato con l'utente codice collaudo tk202509060068115844 </t>
+  </si>
+  <si>
+    <t>#DATA ESEC. FINO AL 10 SETTEMBRE</t>
   </si>
 </sst>
 </file>
@@ -1297,12 +2128,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1317,9 +2154,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1627,15 +2465,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP27"/>
+  <dimension ref="A1:CP46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="20" max="20" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94">
@@ -1696,7 +2535,7 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="U1" t="s">
@@ -1759,7 +2598,7 @@
       <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
       <c r="AP1" t="s">
@@ -1980,7 +2819,7 @@
       <c r="S2" t="s">
         <v>111</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="2" t="s">
         <v>112</v>
       </c>
       <c r="U2" t="s">
@@ -2043,7 +2882,7 @@
       <c r="AN2" t="s">
         <v>118</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>119</v>
       </c>
       <c r="AP2" t="s">
@@ -2264,7 +3103,7 @@
       <c r="S3" t="s">
         <v>111</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="2" t="s">
         <v>112</v>
       </c>
       <c r="U3" t="s">
@@ -2327,7 +3166,7 @@
       <c r="AN3" t="s">
         <v>147</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AO3" s="2" t="s">
         <v>148</v>
       </c>
       <c r="AP3" t="s">
@@ -2548,7 +3387,7 @@
       <c r="S4" t="s">
         <v>165</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="2" t="s">
         <v>112</v>
       </c>
       <c r="U4" t="s">
@@ -2611,7 +3450,7 @@
       <c r="AN4" t="s">
         <v>167</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AO4" s="2" t="s">
         <v>168</v>
       </c>
       <c r="AP4" t="s">
@@ -2832,7 +3671,7 @@
       <c r="S5" t="s">
         <v>179</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="2" t="s">
         <v>203</v>
       </c>
       <c r="U5" t="s">
@@ -2895,7 +3734,7 @@
       <c r="AN5" t="s">
         <v>181</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AO5" s="2" t="s">
         <v>182</v>
       </c>
       <c r="AP5" t="s">
@@ -3116,7 +3955,7 @@
       <c r="S6" t="s">
         <v>111</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="2" t="s">
         <v>112</v>
       </c>
       <c r="U6" t="s">
@@ -3179,7 +4018,7 @@
       <c r="AN6" t="s">
         <v>193</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AO6" s="2" t="s">
         <v>194</v>
       </c>
       <c r="AP6" t="s">
@@ -3400,7 +4239,7 @@
       <c r="S7" t="s">
         <v>179</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="2" t="s">
         <v>227</v>
       </c>
       <c r="U7" t="s">
@@ -3463,7 +4302,7 @@
       <c r="AN7" t="s">
         <v>211</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AO7" s="2" t="s">
         <v>212</v>
       </c>
       <c r="AP7" t="s">
@@ -3684,7 +4523,7 @@
       <c r="S8" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="2" t="s">
         <v>236</v>
       </c>
       <c r="U8" s="1" t="s">
@@ -3747,7 +4586,7 @@
       <c r="AN8" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AO8" s="2" t="s">
         <v>243</v>
       </c>
       <c r="AP8" s="1" t="s">
@@ -3968,7 +4807,7 @@
       <c r="S9" t="s">
         <v>179</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="2" t="s">
         <v>262</v>
       </c>
       <c r="U9" t="s">
@@ -4031,7 +4870,7 @@
       <c r="AN9" t="s">
         <v>264</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AO9" s="2" t="s">
         <v>265</v>
       </c>
       <c r="AP9" t="s">
@@ -4252,7 +5091,7 @@
       <c r="S10" t="s">
         <v>235</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="2" t="s">
         <v>360</v>
       </c>
       <c r="U10" t="s">
@@ -4315,7 +5154,7 @@
       <c r="AN10" t="s">
         <v>278</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AO10" s="2" t="s">
         <v>279</v>
       </c>
       <c r="AP10" t="s">
@@ -4536,7 +5375,7 @@
       <c r="S11" t="s">
         <v>111</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="2" t="s">
         <v>112</v>
       </c>
       <c r="U11" t="s">
@@ -4599,7 +5438,7 @@
       <c r="AN11" t="s">
         <v>293</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AO11" s="2" t="s">
         <v>294</v>
       </c>
       <c r="AP11" t="s">
@@ -4820,7 +5659,7 @@
       <c r="S12" t="s">
         <v>111</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="2" t="s">
         <v>112</v>
       </c>
       <c r="U12" t="s">
@@ -4883,7 +5722,7 @@
       <c r="AN12" t="s">
         <v>311</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AO12" s="2" t="s">
         <v>312</v>
       </c>
       <c r="AP12" t="s">
@@ -5104,7 +5943,7 @@
       <c r="S13" t="s">
         <v>325</v>
       </c>
-      <c r="T13" t="s">
+      <c r="T13" s="2" t="s">
         <v>262</v>
       </c>
       <c r="U13" t="s">
@@ -5167,7 +6006,7 @@
       <c r="AN13" t="s">
         <v>327</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AO13" s="2" t="s">
         <v>328</v>
       </c>
       <c r="AP13" t="s">
@@ -5388,7 +6227,7 @@
       <c r="S14" t="s">
         <v>325</v>
       </c>
-      <c r="T14" t="s">
+      <c r="T14" s="2" t="s">
         <v>360</v>
       </c>
       <c r="U14" t="s">
@@ -5451,7 +6290,7 @@
       <c r="AN14" t="s">
         <v>338</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AO14" s="2" t="s">
         <v>339</v>
       </c>
       <c r="AP14" t="s">
@@ -5672,7 +6511,7 @@
       <c r="S15" t="s">
         <v>111</v>
       </c>
-      <c r="T15" t="s">
+      <c r="T15" s="2" t="s">
         <v>112</v>
       </c>
       <c r="U15" t="s">
@@ -5735,7 +6574,7 @@
       <c r="AN15" t="s">
         <v>352</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AO15" s="2" t="s">
         <v>353</v>
       </c>
       <c r="AP15" t="s">
@@ -5956,7 +6795,7 @@
       <c r="S16" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="2" t="s">
         <v>360</v>
       </c>
       <c r="U16" s="1" t="s">
@@ -6019,7 +6858,7 @@
       <c r="AN16" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="AO16" s="1" t="s">
+      <c r="AO16" s="2" t="s">
         <v>339</v>
       </c>
       <c r="AP16" s="1" t="s">
@@ -6240,7 +7079,7 @@
       <c r="S17" t="s">
         <v>366</v>
       </c>
-      <c r="T17" t="s">
+      <c r="T17" s="2" t="s">
         <v>262</v>
       </c>
       <c r="U17" t="s">
@@ -6303,7 +7142,7 @@
       <c r="AN17" t="s">
         <v>393</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AO17" s="2" t="s">
         <v>394</v>
       </c>
       <c r="AP17" t="s">
@@ -6524,7 +7363,7 @@
       <c r="S18" t="s">
         <v>375</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T18" s="2" t="s">
         <v>360</v>
       </c>
       <c r="U18" t="s">
@@ -6587,7 +7426,7 @@
       <c r="AN18" t="s">
         <v>380</v>
       </c>
-      <c r="AO18" t="s">
+      <c r="AO18" s="2" t="s">
         <v>381</v>
       </c>
       <c r="AP18" t="s">
@@ -6808,7 +7647,7 @@
       <c r="S19" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="2" t="s">
         <v>112</v>
       </c>
       <c r="U19" s="1" t="s">
@@ -6871,7 +7710,7 @@
       <c r="AN19" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AO19" s="1" t="s">
+      <c r="AO19" s="2" t="s">
         <v>148</v>
       </c>
       <c r="AP19" s="1" t="s">
@@ -7092,7 +7931,7 @@
       <c r="S20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="2" t="s">
         <v>112</v>
       </c>
       <c r="U20" s="1" t="s">
@@ -7155,7 +7994,7 @@
       <c r="AN20" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="AO20" s="1" t="s">
+      <c r="AO20" s="2" t="s">
         <v>416</v>
       </c>
       <c r="AP20" s="1" t="s">
@@ -7318,9 +8157,5973 @@
         <v>104</v>
       </c>
     </row>
+    <row r="21" spans="1:94" s="1" customFormat="1">
+      <c r="A21" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL21" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN21" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AR21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS21" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AT21" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AU21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV21" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX21" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AY21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD21" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE21" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="BF21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BX21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC21" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="CD21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE21" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="CF21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN21" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="CO21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP21" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:94">
+      <c r="A22" t="s">
+        <v>437</v>
+      </c>
+      <c r="B22" t="s">
+        <v>438</v>
+      </c>
+      <c r="C22" t="s">
+        <v>439</v>
+      </c>
+      <c r="D22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" t="s">
+        <v>440</v>
+      </c>
+      <c r="I22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" t="s">
+        <v>259</v>
+      </c>
+      <c r="K22" t="s">
+        <v>104</v>
+      </c>
+      <c r="L22" t="s">
+        <v>105</v>
+      </c>
+      <c r="M22" t="s">
+        <v>106</v>
+      </c>
+      <c r="N22" t="s">
+        <v>104</v>
+      </c>
+      <c r="O22" t="s">
+        <v>441</v>
+      </c>
+      <c r="P22" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>442</v>
+      </c>
+      <c r="R22" t="s">
+        <v>110</v>
+      </c>
+      <c r="S22" t="s">
+        <v>111</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U22" t="s">
+        <v>443</v>
+      </c>
+      <c r="V22" t="s">
+        <v>104</v>
+      </c>
+      <c r="W22" t="s">
+        <v>114</v>
+      </c>
+      <c r="X22" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>444</v>
+      </c>
+      <c r="AO22" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>446</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>447</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>446</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>448</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>449</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>450</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>160</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>452</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI22" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ22" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK22" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL22" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM22" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN22" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:94">
+      <c r="A23" t="s">
+        <v>453</v>
+      </c>
+      <c r="B23" t="s">
+        <v>454</v>
+      </c>
+      <c r="C23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" t="s">
+        <v>455</v>
+      </c>
+      <c r="I23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" t="s">
+        <v>105</v>
+      </c>
+      <c r="M23" t="s">
+        <v>106</v>
+      </c>
+      <c r="N23" t="s">
+        <v>104</v>
+      </c>
+      <c r="O23" t="s">
+        <v>456</v>
+      </c>
+      <c r="P23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>457</v>
+      </c>
+      <c r="R23" t="s">
+        <v>110</v>
+      </c>
+      <c r="S23" t="s">
+        <v>375</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U23" t="s">
+        <v>458</v>
+      </c>
+      <c r="V23" t="s">
+        <v>104</v>
+      </c>
+      <c r="W23" t="s">
+        <v>114</v>
+      </c>
+      <c r="X23" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>459</v>
+      </c>
+      <c r="AO23" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>461</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>462</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>317</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>463</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>464</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>465</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>160</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC23" t="s">
+        <v>466</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG23" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH23" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI23" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ23" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK23" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL23" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM23" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN23" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO23" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:94">
+      <c r="A24" t="s">
+        <v>467</v>
+      </c>
+      <c r="B24" t="s">
+        <v>468</v>
+      </c>
+      <c r="C24" t="s">
+        <v>423</v>
+      </c>
+      <c r="D24" t="s">
+        <v>469</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" t="s">
+        <v>470</v>
+      </c>
+      <c r="H24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" t="s">
+        <v>259</v>
+      </c>
+      <c r="K24" t="s">
+        <v>104</v>
+      </c>
+      <c r="L24" t="s">
+        <v>105</v>
+      </c>
+      <c r="M24" t="s">
+        <v>106</v>
+      </c>
+      <c r="N24" t="s">
+        <v>104</v>
+      </c>
+      <c r="O24" t="s">
+        <v>471</v>
+      </c>
+      <c r="P24" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>472</v>
+      </c>
+      <c r="R24" t="s">
+        <v>110</v>
+      </c>
+      <c r="S24" t="s">
+        <v>235</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U24" t="s">
+        <v>473</v>
+      </c>
+      <c r="V24" t="s">
+        <v>104</v>
+      </c>
+      <c r="W24" t="s">
+        <v>114</v>
+      </c>
+      <c r="X24" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>474</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>476</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>477</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>476</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>479</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>480</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC24" t="s">
+        <v>481</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE24" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF24" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG24" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH24" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI24" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ24" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK24" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL24" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM24" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN24" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO24" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:94">
+      <c r="A25" t="s">
+        <v>482</v>
+      </c>
+      <c r="B25" t="s">
+        <v>483</v>
+      </c>
+      <c r="C25" t="s">
+        <v>484</v>
+      </c>
+      <c r="D25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" t="s">
+        <v>105</v>
+      </c>
+      <c r="M25" t="s">
+        <v>106</v>
+      </c>
+      <c r="N25" t="s">
+        <v>104</v>
+      </c>
+      <c r="O25" t="s">
+        <v>485</v>
+      </c>
+      <c r="P25" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>486</v>
+      </c>
+      <c r="R25" t="s">
+        <v>110</v>
+      </c>
+      <c r="S25" t="s">
+        <v>111</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U25" t="s">
+        <v>487</v>
+      </c>
+      <c r="V25" t="s">
+        <v>104</v>
+      </c>
+      <c r="W25" t="s">
+        <v>114</v>
+      </c>
+      <c r="X25" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>488</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>490</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>491</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>492</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>493</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC25" t="s">
+        <v>494</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE25" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF25" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG25" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH25" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI25" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ25" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK25" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL25" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM25" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN25" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO25" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:94">
+      <c r="A26" t="s">
+        <v>495</v>
+      </c>
+      <c r="B26" t="s">
+        <v>496</v>
+      </c>
+      <c r="C26" t="s">
+        <v>484</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" t="s">
+        <v>206</v>
+      </c>
+      <c r="I26" t="s">
+        <v>114</v>
+      </c>
+      <c r="J26" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" t="s">
+        <v>497</v>
+      </c>
+      <c r="L26" t="s">
+        <v>105</v>
+      </c>
+      <c r="M26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N26" t="s">
+        <v>104</v>
+      </c>
+      <c r="O26" t="s">
+        <v>498</v>
+      </c>
+      <c r="P26" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>499</v>
+      </c>
+      <c r="R26" t="s">
+        <v>110</v>
+      </c>
+      <c r="S26" t="s">
+        <v>375</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U26" t="s">
+        <v>500</v>
+      </c>
+      <c r="V26" t="s">
+        <v>104</v>
+      </c>
+      <c r="W26" t="s">
+        <v>114</v>
+      </c>
+      <c r="X26" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>501</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>503</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>504</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>505</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>506</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX26" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY26" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC26" t="s">
+        <v>507</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE26" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF26" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG26" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH26" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI26" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ26" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK26" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL26" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM26" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN26" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO26" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP26" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="27" spans="1:94">
+      <c r="A27" t="s">
+        <v>508</v>
+      </c>
+      <c r="B27" t="s">
+        <v>509</v>
+      </c>
+      <c r="C27" t="s">
+        <v>510</v>
+      </c>
+      <c r="D27" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" t="s">
+        <v>470</v>
+      </c>
+      <c r="H27" t="s">
+        <v>206</v>
+      </c>
+      <c r="I27" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" t="s">
+        <v>259</v>
+      </c>
+      <c r="K27" t="s">
+        <v>104</v>
+      </c>
       <c r="L27" t="s">
-        <v>421</v>
+        <v>105</v>
+      </c>
+      <c r="M27" t="s">
+        <v>106</v>
+      </c>
+      <c r="N27" t="s">
+        <v>104</v>
+      </c>
+      <c r="O27" t="s">
+        <v>511</v>
+      </c>
+      <c r="P27" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>512</v>
+      </c>
+      <c r="R27" t="s">
+        <v>110</v>
+      </c>
+      <c r="S27" t="s">
+        <v>235</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U27" t="s">
+        <v>473</v>
+      </c>
+      <c r="V27" t="s">
+        <v>104</v>
+      </c>
+      <c r="W27" t="s">
+        <v>114</v>
+      </c>
+      <c r="X27" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>474</v>
+      </c>
+      <c r="AO27" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>513</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>514</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>513</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>479</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>515</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX27" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY27" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB27" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC27" t="s">
+        <v>516</v>
+      </c>
+      <c r="CD27" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE27" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF27" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG27" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH27" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI27" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ27" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK27" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL27" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM27" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN27" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO27" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:94">
+      <c r="A28" t="s">
+        <v>517</v>
+      </c>
+      <c r="B28" t="s">
+        <v>518</v>
+      </c>
+      <c r="C28" t="s">
+        <v>510</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" t="s">
+        <v>274</v>
+      </c>
+      <c r="H28" t="s">
+        <v>206</v>
+      </c>
+      <c r="I28" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" t="s">
+        <v>105</v>
+      </c>
+      <c r="M28" t="s">
+        <v>106</v>
+      </c>
+      <c r="N28" t="s">
+        <v>104</v>
+      </c>
+      <c r="O28" t="s">
+        <v>519</v>
+      </c>
+      <c r="P28" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>520</v>
+      </c>
+      <c r="R28" t="s">
+        <v>110</v>
+      </c>
+      <c r="S28" t="s">
+        <v>366</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U28" t="s">
+        <v>521</v>
+      </c>
+      <c r="V28" t="s">
+        <v>104</v>
+      </c>
+      <c r="W28" t="s">
+        <v>114</v>
+      </c>
+      <c r="X28" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>522</v>
+      </c>
+      <c r="AO28" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>524</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>526</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>527</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>528</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN28" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU28" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW28" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX28" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY28" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ28" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA28" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB28" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC28" t="s">
+        <v>529</v>
+      </c>
+      <c r="CD28" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE28" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF28" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG28" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH28" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI28" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ28" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK28" t="s">
+        <v>530</v>
+      </c>
+      <c r="CL28" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM28" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN28" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO28" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:94">
+      <c r="A29" t="s">
+        <v>531</v>
+      </c>
+      <c r="B29" t="s">
+        <v>532</v>
+      </c>
+      <c r="C29" t="s">
+        <v>533</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" t="s">
+        <v>324</v>
+      </c>
+      <c r="H29" t="s">
+        <v>455</v>
+      </c>
+      <c r="I29" t="s">
+        <v>320</v>
+      </c>
+      <c r="J29" t="s">
+        <v>103</v>
+      </c>
+      <c r="K29" t="s">
+        <v>104</v>
+      </c>
+      <c r="L29" t="s">
+        <v>105</v>
+      </c>
+      <c r="M29" t="s">
+        <v>106</v>
+      </c>
+      <c r="N29" t="s">
+        <v>104</v>
+      </c>
+      <c r="O29" t="s">
+        <v>534</v>
+      </c>
+      <c r="P29" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>535</v>
+      </c>
+      <c r="R29" t="s">
+        <v>110</v>
+      </c>
+      <c r="S29" t="s">
+        <v>536</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U29" t="s">
+        <v>538</v>
+      </c>
+      <c r="V29" t="s">
+        <v>104</v>
+      </c>
+      <c r="W29" t="s">
+        <v>114</v>
+      </c>
+      <c r="X29" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>539</v>
+      </c>
+      <c r="AO29" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>541</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>542</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>315</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>316</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>317</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>463</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>543</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>544</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN29" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO29" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU29" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV29" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW29" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX29" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY29" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ29" t="s">
+        <v>108</v>
+      </c>
+      <c r="CA29" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB29" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC29" t="s">
+        <v>545</v>
+      </c>
+      <c r="CD29" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE29" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF29" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG29" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH29" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI29" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ29" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK29" t="s">
+        <v>546</v>
+      </c>
+      <c r="CL29" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM29" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN29" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO29" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:94">
+      <c r="A30" t="s">
+        <v>547</v>
+      </c>
+      <c r="B30" t="s">
+        <v>548</v>
+      </c>
+      <c r="C30" t="s">
+        <v>549</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" t="s">
+        <v>274</v>
+      </c>
+      <c r="H30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" t="s">
+        <v>114</v>
+      </c>
+      <c r="J30" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s">
+        <v>104</v>
+      </c>
+      <c r="L30" t="s">
+        <v>105</v>
+      </c>
+      <c r="M30" t="s">
+        <v>106</v>
+      </c>
+      <c r="N30" t="s">
+        <v>104</v>
+      </c>
+      <c r="O30" t="s">
+        <v>550</v>
+      </c>
+      <c r="P30" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>551</v>
+      </c>
+      <c r="R30" t="s">
+        <v>110</v>
+      </c>
+      <c r="S30" t="s">
+        <v>366</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U30" t="s">
+        <v>552</v>
+      </c>
+      <c r="V30" t="s">
+        <v>104</v>
+      </c>
+      <c r="W30" t="s">
+        <v>114</v>
+      </c>
+      <c r="X30" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>553</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>554</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>555</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>556</v>
+      </c>
+      <c r="AO30" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>558</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>559</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>558</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>560</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>561</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>562</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>563</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>564</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY30" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ30" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA30" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB30" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC30" t="s">
+        <v>565</v>
+      </c>
+      <c r="CD30" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE30" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF30" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG30" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH30" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI30" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ30" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK30" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL30" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM30" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN30" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO30" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:94">
+      <c r="A31" t="s">
+        <v>566</v>
+      </c>
+      <c r="B31" t="s">
+        <v>567</v>
+      </c>
+      <c r="C31" t="s">
+        <v>568</v>
+      </c>
+      <c r="D31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" t="s">
+        <v>569</v>
+      </c>
+      <c r="H31" t="s">
+        <v>206</v>
+      </c>
+      <c r="I31" t="s">
+        <v>108</v>
+      </c>
+      <c r="J31" t="s">
+        <v>103</v>
+      </c>
+      <c r="K31" t="s">
+        <v>104</v>
+      </c>
+      <c r="L31" t="s">
+        <v>105</v>
+      </c>
+      <c r="M31" t="s">
+        <v>106</v>
+      </c>
+      <c r="N31" t="s">
+        <v>104</v>
+      </c>
+      <c r="O31" t="s">
+        <v>570</v>
+      </c>
+      <c r="P31" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>571</v>
+      </c>
+      <c r="R31" t="s">
+        <v>110</v>
+      </c>
+      <c r="S31" t="s">
+        <v>375</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U31" t="s">
+        <v>572</v>
+      </c>
+      <c r="V31" t="s">
+        <v>104</v>
+      </c>
+      <c r="W31" t="s">
+        <v>114</v>
+      </c>
+      <c r="X31" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>573</v>
+      </c>
+      <c r="AO31" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>575</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>576</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>577</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>569</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>578</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>579</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ31" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR31" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS31" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT31" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV31" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW31" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX31" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY31" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ31" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA31" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB31" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC31" t="s">
+        <v>580</v>
+      </c>
+      <c r="CD31" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE31" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF31" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG31" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH31" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI31" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ31" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK31" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL31" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM31" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN31" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO31" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:94">
+      <c r="A32" t="s">
+        <v>581</v>
+      </c>
+      <c r="B32" t="s">
+        <v>582</v>
+      </c>
+      <c r="C32" t="s">
+        <v>533</v>
+      </c>
+      <c r="D32" t="s">
+        <v>289</v>
+      </c>
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" t="s">
+        <v>583</v>
+      </c>
+      <c r="H32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" t="s">
+        <v>102</v>
+      </c>
+      <c r="J32" t="s">
+        <v>103</v>
+      </c>
+      <c r="K32" t="s">
+        <v>104</v>
+      </c>
+      <c r="L32" t="s">
+        <v>105</v>
+      </c>
+      <c r="M32" t="s">
+        <v>106</v>
+      </c>
+      <c r="N32" t="s">
+        <v>104</v>
+      </c>
+      <c r="O32" t="s">
+        <v>584</v>
+      </c>
+      <c r="P32" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>585</v>
+      </c>
+      <c r="R32" t="s">
+        <v>110</v>
+      </c>
+      <c r="S32" t="s">
+        <v>536</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U32" t="s">
+        <v>586</v>
+      </c>
+      <c r="V32" t="s">
+        <v>104</v>
+      </c>
+      <c r="W32" t="s">
+        <v>114</v>
+      </c>
+      <c r="X32" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>587</v>
+      </c>
+      <c r="AO32" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>589</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>590</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>591</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>583</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>247</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>592</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>593</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>594</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ32" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR32" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>595</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH32" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI32" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ32" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK32" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL32" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:94">
+      <c r="A33" t="s">
+        <v>596</v>
+      </c>
+      <c r="B33" t="s">
+        <v>597</v>
+      </c>
+      <c r="C33" t="s">
+        <v>533</v>
+      </c>
+      <c r="D33" t="s">
+        <v>289</v>
+      </c>
+      <c r="E33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" t="s">
+        <v>583</v>
+      </c>
+      <c r="H33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" t="s">
+        <v>103</v>
+      </c>
+      <c r="K33" t="s">
+        <v>104</v>
+      </c>
+      <c r="L33" t="s">
+        <v>105</v>
+      </c>
+      <c r="M33" t="s">
+        <v>106</v>
+      </c>
+      <c r="N33" t="s">
+        <v>104</v>
+      </c>
+      <c r="O33" t="s">
+        <v>584</v>
+      </c>
+      <c r="P33" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>585</v>
+      </c>
+      <c r="R33" t="s">
+        <v>110</v>
+      </c>
+      <c r="S33" t="s">
+        <v>536</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U33" t="s">
+        <v>598</v>
+      </c>
+      <c r="V33" t="s">
+        <v>104</v>
+      </c>
+      <c r="W33" t="s">
+        <v>114</v>
+      </c>
+      <c r="X33" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>599</v>
+      </c>
+      <c r="AO33" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>601</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>590</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>591</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>583</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>247</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>602</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>603</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>604</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>605</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>606</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ33" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT33" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU33" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV33" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW33" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>607</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG33" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH33" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ33" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK33" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL33" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN33" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:94">
+      <c r="A34" t="s">
+        <v>608</v>
+      </c>
+      <c r="B34" t="s">
+        <v>609</v>
+      </c>
+      <c r="C34" t="s">
+        <v>533</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" t="s">
+        <v>206</v>
+      </c>
+      <c r="I34" t="s">
+        <v>114</v>
+      </c>
+      <c r="J34" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" t="s">
+        <v>104</v>
+      </c>
+      <c r="L34" t="s">
+        <v>105</v>
+      </c>
+      <c r="M34" t="s">
+        <v>106</v>
+      </c>
+      <c r="N34" t="s">
+        <v>104</v>
+      </c>
+      <c r="O34" t="s">
+        <v>610</v>
+      </c>
+      <c r="P34" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>611</v>
+      </c>
+      <c r="R34" t="s">
+        <v>110</v>
+      </c>
+      <c r="S34" t="s">
+        <v>179</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="U34" t="s">
+        <v>612</v>
+      </c>
+      <c r="V34" t="s">
+        <v>104</v>
+      </c>
+      <c r="W34" t="s">
+        <v>114</v>
+      </c>
+      <c r="X34" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>613</v>
+      </c>
+      <c r="AO34" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>614</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>615</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>616</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>584</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT34" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU34" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV34" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW34" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX34" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>617</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG34" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH34" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ34" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL34" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM34" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN34" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:94">
+      <c r="A35" t="s">
+        <v>618</v>
+      </c>
+      <c r="B35" t="s">
+        <v>619</v>
+      </c>
+      <c r="C35" t="s">
+        <v>620</v>
+      </c>
+      <c r="D35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" t="s">
+        <v>621</v>
+      </c>
+      <c r="I35" t="s">
+        <v>114</v>
+      </c>
+      <c r="J35" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" t="s">
+        <v>104</v>
+      </c>
+      <c r="L35" t="s">
+        <v>105</v>
+      </c>
+      <c r="M35" t="s">
+        <v>106</v>
+      </c>
+      <c r="N35" t="s">
+        <v>104</v>
+      </c>
+      <c r="O35" t="s">
+        <v>622</v>
+      </c>
+      <c r="P35" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>623</v>
+      </c>
+      <c r="R35" t="s">
+        <v>110</v>
+      </c>
+      <c r="S35" t="s">
+        <v>375</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U35" t="s">
+        <v>624</v>
+      </c>
+      <c r="V35" t="s">
+        <v>104</v>
+      </c>
+      <c r="W35" t="s">
+        <v>114</v>
+      </c>
+      <c r="X35" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>625</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>554</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>555</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>626</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>627</v>
+      </c>
+      <c r="AO35" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>629</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>630</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>631</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>632</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>633</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>317</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>634</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>108</v>
+      </c>
+      <c r="BW35" t="s">
+        <v>635</v>
+      </c>
+      <c r="BX35" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY35" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ35" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA35" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB35" t="s">
+        <v>636</v>
+      </c>
+      <c r="CC35" t="s">
+        <v>637</v>
+      </c>
+      <c r="CD35" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE35" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF35" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG35" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH35" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI35" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ35" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK35" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL35" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM35" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN35" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO35" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:94">
+      <c r="A36" t="s">
+        <v>638</v>
+      </c>
+      <c r="B36" t="s">
+        <v>639</v>
+      </c>
+      <c r="C36" t="s">
+        <v>568</v>
+      </c>
+      <c r="D36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" t="s">
+        <v>324</v>
+      </c>
+      <c r="H36" t="s">
+        <v>206</v>
+      </c>
+      <c r="I36" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" t="s">
+        <v>259</v>
+      </c>
+      <c r="K36" t="s">
+        <v>104</v>
+      </c>
+      <c r="L36" t="s">
+        <v>105</v>
+      </c>
+      <c r="M36" t="s">
+        <v>106</v>
+      </c>
+      <c r="N36" t="s">
+        <v>104</v>
+      </c>
+      <c r="O36" t="s">
+        <v>640</v>
+      </c>
+      <c r="P36" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>641</v>
+      </c>
+      <c r="R36" t="s">
+        <v>110</v>
+      </c>
+      <c r="S36" t="s">
+        <v>366</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U36" t="s">
+        <v>642</v>
+      </c>
+      <c r="V36" t="s">
+        <v>104</v>
+      </c>
+      <c r="W36" t="s">
+        <v>114</v>
+      </c>
+      <c r="X36" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>643</v>
+      </c>
+      <c r="AO36" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>645</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>646</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>645</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>647</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>648</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW36" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX36" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC36" t="s">
+        <v>651</v>
+      </c>
+      <c r="CD36" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE36" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF36" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG36" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH36" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI36" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ36" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK36" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL36" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM36" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN36" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO36" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:94">
+      <c r="A37" t="s">
+        <v>652</v>
+      </c>
+      <c r="B37" t="s">
+        <v>653</v>
+      </c>
+      <c r="C37" t="s">
+        <v>620</v>
+      </c>
+      <c r="D37" t="s">
+        <v>344</v>
+      </c>
+      <c r="E37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" t="s">
+        <v>324</v>
+      </c>
+      <c r="H37" t="s">
+        <v>455</v>
+      </c>
+      <c r="I37" t="s">
+        <v>157</v>
+      </c>
+      <c r="J37" t="s">
+        <v>103</v>
+      </c>
+      <c r="K37" t="s">
+        <v>104</v>
+      </c>
+      <c r="L37" t="s">
+        <v>105</v>
+      </c>
+      <c r="M37" t="s">
+        <v>106</v>
+      </c>
+      <c r="N37" t="s">
+        <v>104</v>
+      </c>
+      <c r="O37" t="s">
+        <v>654</v>
+      </c>
+      <c r="P37" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>655</v>
+      </c>
+      <c r="R37" t="s">
+        <v>110</v>
+      </c>
+      <c r="S37" t="s">
+        <v>536</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U37" t="s">
+        <v>538</v>
+      </c>
+      <c r="V37" t="s">
+        <v>104</v>
+      </c>
+      <c r="W37" t="s">
+        <v>114</v>
+      </c>
+      <c r="X37" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>539</v>
+      </c>
+      <c r="AO37" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>656</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>657</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>315</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>316</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>317</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>463</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>543</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>658</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>157</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY37" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA37" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB37" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC37" t="s">
+        <v>659</v>
+      </c>
+      <c r="CD37" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE37" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF37" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG37" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH37" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI37" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ37" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK37" t="s">
+        <v>546</v>
+      </c>
+      <c r="CL37" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM37" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN37" t="s">
+        <v>659</v>
+      </c>
+      <c r="CO37" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:94">
+      <c r="A38" t="s">
+        <v>660</v>
+      </c>
+      <c r="B38" t="s">
+        <v>661</v>
+      </c>
+      <c r="C38" t="s">
+        <v>620</v>
+      </c>
+      <c r="D38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" t="s">
+        <v>206</v>
+      </c>
+      <c r="I38" t="s">
+        <v>208</v>
+      </c>
+      <c r="J38" t="s">
+        <v>103</v>
+      </c>
+      <c r="K38" t="s">
+        <v>104</v>
+      </c>
+      <c r="L38" t="s">
+        <v>105</v>
+      </c>
+      <c r="M38" t="s">
+        <v>106</v>
+      </c>
+      <c r="N38" t="s">
+        <v>104</v>
+      </c>
+      <c r="O38" t="s">
+        <v>662</v>
+      </c>
+      <c r="P38" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>663</v>
+      </c>
+      <c r="R38" t="s">
+        <v>110</v>
+      </c>
+      <c r="S38" t="s">
+        <v>179</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U38" t="s">
+        <v>664</v>
+      </c>
+      <c r="V38" t="s">
+        <v>104</v>
+      </c>
+      <c r="W38" t="s">
+        <v>114</v>
+      </c>
+      <c r="X38" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>665</v>
+      </c>
+      <c r="AO38" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>667</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>668</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>669</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>670</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>671</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP38" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ38" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR38" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU38" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV38" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW38" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX38" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY38" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ38" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA38" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB38" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC38" t="s">
+        <v>672</v>
+      </c>
+      <c r="CD38" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE38" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF38" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG38" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH38" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI38" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ38" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK38" t="s">
+        <v>673</v>
+      </c>
+      <c r="CL38" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM38" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN38" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO38" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:94">
+      <c r="A39" t="s">
+        <v>674</v>
+      </c>
+      <c r="B39" t="s">
+        <v>675</v>
+      </c>
+      <c r="C39" t="s">
+        <v>439</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" t="s">
+        <v>324</v>
+      </c>
+      <c r="H39" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" t="s">
+        <v>114</v>
+      </c>
+      <c r="J39" t="s">
+        <v>259</v>
+      </c>
+      <c r="K39" t="s">
+        <v>104</v>
+      </c>
+      <c r="L39" t="s">
+        <v>105</v>
+      </c>
+      <c r="M39" t="s">
+        <v>106</v>
+      </c>
+      <c r="N39" t="s">
+        <v>104</v>
+      </c>
+      <c r="O39" t="s">
+        <v>441</v>
+      </c>
+      <c r="P39" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>442</v>
+      </c>
+      <c r="R39" t="s">
+        <v>110</v>
+      </c>
+      <c r="S39" t="s">
+        <v>536</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="U39" t="s">
+        <v>642</v>
+      </c>
+      <c r="V39" t="s">
+        <v>104</v>
+      </c>
+      <c r="W39" t="s">
+        <v>114</v>
+      </c>
+      <c r="X39" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>676</v>
+      </c>
+      <c r="AO39" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>677</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>678</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>677</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>679</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG39" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>648</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP39" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ39" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS39" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV39" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW39" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX39" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY39" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ39" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA39" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB39" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC39" t="s">
+        <v>680</v>
+      </c>
+      <c r="CD39" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE39" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF39" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG39" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH39" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI39" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ39" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK39" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL39" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM39" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN39" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO39" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:94">
+      <c r="A40" t="s">
+        <v>681</v>
+      </c>
+      <c r="B40" t="s">
+        <v>682</v>
+      </c>
+      <c r="C40" t="s">
+        <v>568</v>
+      </c>
+      <c r="D40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" t="s">
+        <v>324</v>
+      </c>
+      <c r="H40" t="s">
+        <v>683</v>
+      </c>
+      <c r="I40" t="s">
+        <v>114</v>
+      </c>
+      <c r="J40" t="s">
+        <v>259</v>
+      </c>
+      <c r="K40" t="s">
+        <v>104</v>
+      </c>
+      <c r="L40" t="s">
+        <v>105</v>
+      </c>
+      <c r="M40" t="s">
+        <v>106</v>
+      </c>
+      <c r="N40" t="s">
+        <v>104</v>
+      </c>
+      <c r="O40" t="s">
+        <v>684</v>
+      </c>
+      <c r="P40" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>685</v>
+      </c>
+      <c r="R40" t="s">
+        <v>110</v>
+      </c>
+      <c r="S40" t="s">
+        <v>366</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U40" t="s">
+        <v>686</v>
+      </c>
+      <c r="V40" t="s">
+        <v>104</v>
+      </c>
+      <c r="W40" t="s">
+        <v>114</v>
+      </c>
+      <c r="X40" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>687</v>
+      </c>
+      <c r="AO40" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>689</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>690</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>689</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>691</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>694</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG40" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH40" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI40" t="s">
+        <v>695</v>
+      </c>
+      <c r="BJ40" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK40" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL40" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN40" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO40" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP40" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ40" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR40" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS40" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT40" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU40" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV40" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW40" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX40" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY40" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ40" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA40" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB40" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC40" t="s">
+        <v>697</v>
+      </c>
+      <c r="CD40" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE40" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF40" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG40" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH40" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI40" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ40" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK40" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL40" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM40" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN40" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO40" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:94">
+      <c r="A41" t="s">
+        <v>638</v>
+      </c>
+      <c r="B41" t="s">
+        <v>639</v>
+      </c>
+      <c r="C41" t="s">
+        <v>568</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" t="s">
+        <v>324</v>
+      </c>
+      <c r="H41" t="s">
+        <v>206</v>
+      </c>
+      <c r="I41" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41" t="s">
+        <v>259</v>
+      </c>
+      <c r="K41" t="s">
+        <v>104</v>
+      </c>
+      <c r="L41" t="s">
+        <v>105</v>
+      </c>
+      <c r="M41" t="s">
+        <v>106</v>
+      </c>
+      <c r="N41" t="s">
+        <v>104</v>
+      </c>
+      <c r="O41" t="s">
+        <v>640</v>
+      </c>
+      <c r="P41" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>641</v>
+      </c>
+      <c r="R41" t="s">
+        <v>110</v>
+      </c>
+      <c r="S41" t="s">
+        <v>366</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="U41" t="s">
+        <v>642</v>
+      </c>
+      <c r="V41" t="s">
+        <v>104</v>
+      </c>
+      <c r="W41" t="s">
+        <v>114</v>
+      </c>
+      <c r="X41" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>643</v>
+      </c>
+      <c r="AO41" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>645</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>646</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>645</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>647</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG41" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>648</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR41" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU41" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW41" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX41" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY41" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ41" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA41" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB41" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC41" t="s">
+        <v>651</v>
+      </c>
+      <c r="CD41" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE41" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF41" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG41" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH41" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI41" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ41" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK41" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL41" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM41" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN41" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO41" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:94">
+      <c r="L46" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -7338,7 +14141,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7351,7 +14154,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3855" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5265" uniqueCount="877">
   <si>
     <t>Codice</t>
   </si>
@@ -2112,7 +2112,541 @@
     <t xml:space="preserve">@roditori rifatto giunto su borchia ottica testato con l'utente codice collaudo tk202509060068115844 </t>
   </si>
   <si>
-    <t>#DATA ESEC. FINO AL 10 SETTEMBRE</t>
+    <t>TT1004770962</t>
+  </si>
+  <si>
+    <t>92650827</t>
+  </si>
+  <si>
+    <t>11/09/2025</t>
+  </si>
+  <si>
+    <t>11/09/2025 14:30</t>
+  </si>
+  <si>
+    <t>11/09/2025 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025090285077709 </t>
+  </si>
+  <si>
+    <t>SWADW5041522783</t>
+  </si>
+  <si>
+    <t>093114730470</t>
+  </si>
+  <si>
+    <t>09/09/2025 14:47</t>
+  </si>
+  <si>
+    <t>11/09/2025 14:41</t>
+  </si>
+  <si>
+    <t>04/09/2025 13:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codice collaudo: tk202509040068055951 Sostituto presa allineamento stabilità servizi ok, certificato con supporto fw Monica pin 7146 </t>
+  </si>
+  <si>
+    <t>TT1004784299</t>
+  </si>
+  <si>
+    <t>92736023</t>
+  </si>
+  <si>
+    <t>SR-SCALA GRECA</t>
+  </si>
+  <si>
+    <t>11/09/2025 13:00</t>
+  </si>
+  <si>
+    <t>11/09/2025 13:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025090886142288 </t>
+  </si>
+  <si>
+    <t>SWADW5041552391</t>
+  </si>
+  <si>
+    <t>093114720596</t>
+  </si>
+  <si>
+    <t>15/09/2025 12:00</t>
+  </si>
+  <si>
+    <t>11/09/2025 12:45</t>
+  </si>
+  <si>
+    <t>93100D</t>
+  </si>
+  <si>
+    <t>RCC Ivrea SME Mono</t>
+  </si>
+  <si>
+    <t>10/09/2025 13:10</t>
+  </si>
+  <si>
+    <t>08/09/2025 13:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box Codice collaudo: tk202509080068141125 </t>
+  </si>
+  <si>
+    <t>ASSENZA RANDOMICA DI PORTANTE **CPE_SN:**</t>
+  </si>
+  <si>
+    <t>TT1004795549</t>
+  </si>
+  <si>
+    <t>92812682</t>
+  </si>
+  <si>
+    <t>CRNCLINRP-</t>
+  </si>
+  <si>
+    <t>11/09/2025 09:30</t>
+  </si>
+  <si>
+    <t>11/09/2025 10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025091086597812 </t>
+  </si>
+  <si>
+    <t>SWADW5041566269</t>
+  </si>
+  <si>
+    <t>093114756842</t>
+  </si>
+  <si>
+    <t>11/09/2025 12:40</t>
+  </si>
+  <si>
+    <t>11/09/2025 09:47</t>
+  </si>
+  <si>
+    <t>11/09/2025 08:50</t>
+  </si>
+  <si>
+    <t>RA - Ripetuti Linea</t>
+  </si>
+  <si>
+    <t>10/09/2025 15:16</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>riparato in armadio eseguita prova telefonica Codice collaudo: tk202509100068217768</t>
+  </si>
+  <si>
+    <t>TT1004797073</t>
+  </si>
+  <si>
+    <t>92827146</t>
+  </si>
+  <si>
+    <t>11/09/2025 17:30</t>
+  </si>
+  <si>
+    <t>11/09/2025 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025091086668636 </t>
+  </si>
+  <si>
+    <t>SWADW5041568889</t>
+  </si>
+  <si>
+    <t>093114725601</t>
+  </si>
+  <si>
+    <t>17/09/2025 17:09</t>
+  </si>
+  <si>
+    <t>11/09/2025 17:11</t>
+  </si>
+  <si>
+    <t>11/09/2025 19:20</t>
+  </si>
+  <si>
+    <t>10/09/2025 18:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sostituita prima  presa testato con l'utente codice collaudo tk202509100068232228 </t>
+  </si>
+  <si>
+    <t>TT1004799894</t>
+  </si>
+  <si>
+    <t>92846222</t>
+  </si>
+  <si>
+    <t>11/09/2025 16:00</t>
+  </si>
+  <si>
+    <t>11/09/2025 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025091186805473 </t>
+  </si>
+  <si>
+    <t>SWADW5041573305</t>
+  </si>
+  <si>
+    <t>093114745615</t>
+  </si>
+  <si>
+    <t>12/09/2025 11:13</t>
+  </si>
+  <si>
+    <t>11/09/2025 16:22</t>
+  </si>
+  <si>
+    <t>12/09/2025 07:20</t>
+  </si>
+  <si>
+    <t>11/09/2025 12:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sostituito cavetto rj11 eseguita prova in sede utente Codice collaudo: tk202509110068251302 Certificato con supporto fastweb pin 2557 </t>
+  </si>
+  <si>
+    <t>TT1004802217</t>
+  </si>
+  <si>
+    <t>92862504</t>
+  </si>
+  <si>
+    <t>12/09/2025</t>
+  </si>
+  <si>
+    <t>PORTOPALO</t>
+  </si>
+  <si>
+    <t>12/09/2025 12:00</t>
+  </si>
+  <si>
+    <t>12/09/2025 12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEBASTIANO IULIANO </t>
+  </si>
+  <si>
+    <t>CRV001030824856</t>
+  </si>
+  <si>
+    <t>0931842642</t>
+  </si>
+  <si>
+    <t>12/09/2025 05:52</t>
+  </si>
+  <si>
+    <t>12/09/2025 15:05</t>
+  </si>
+  <si>
+    <t>93103E</t>
+  </si>
+  <si>
+    <t>11/09/2025 17:20</t>
+  </si>
+  <si>
+    <t>Sostituita secondaria vecchia box 2d2/4 nuova box 2d2/10 eseguita prova telefonica codice collaudo tk202509110068267581</t>
+  </si>
+  <si>
+    <t>TT1004806101</t>
+  </si>
+  <si>
+    <t>92888092</t>
+  </si>
+  <si>
+    <t>13/09/2025</t>
+  </si>
+  <si>
+    <t>13/09/2025 08:30</t>
+  </si>
+  <si>
+    <t>13/09/2025 09:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025091287067299 </t>
+  </si>
+  <si>
+    <t>SWADW5041581364</t>
+  </si>
+  <si>
+    <t>093114738656</t>
+  </si>
+  <si>
+    <t>19/09/2025 13:30</t>
+  </si>
+  <si>
+    <t>13/09/2025 09:18</t>
+  </si>
+  <si>
+    <t>14/09/2025 14:40</t>
+  </si>
+  <si>
+    <t>WIN2020IVR</t>
+  </si>
+  <si>
+    <t>12/09/2025 14:40</t>
+  </si>
+  <si>
+    <t>Riparato al box codice collaudo tk202509120068293166</t>
+  </si>
+  <si>
+    <t>ASSENZA RANDOMICA DI PORTANTE **CPE_SN:S202V04002911**</t>
+  </si>
+  <si>
+    <t>TT1004807537</t>
+  </si>
+  <si>
+    <t>92897122</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>13/09/2025 15:00</t>
+  </si>
+  <si>
+    <t>13/09/2025 15:30</t>
+  </si>
+  <si>
+    <t>18/09/2025 17:09</t>
+  </si>
+  <si>
+    <t>13/09/2025 14:58</t>
+  </si>
+  <si>
+    <t>12/09/2025 18:20</t>
+  </si>
+  <si>
+    <t>Guasto non riscontrato il cliente ci comunica tutto ok codice collaudo tk202509120068302195</t>
+  </si>
+  <si>
+    <t>TT1004807649</t>
+  </si>
+  <si>
+    <t>92897879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025091287128966 </t>
+  </si>
+  <si>
+    <t>SWADW5041583575</t>
+  </si>
+  <si>
+    <t>093114742097</t>
+  </si>
+  <si>
+    <t>19/09/2025 17:46</t>
+  </si>
+  <si>
+    <t>13/09/2025 09:51</t>
+  </si>
+  <si>
+    <t>RCC IVREA SME</t>
+  </si>
+  <si>
+    <t>14/09/2025 18:54</t>
+  </si>
+  <si>
+    <t>WIN2517CPS</t>
+  </si>
+  <si>
+    <t>12/09/2025 18:54</t>
+  </si>
+  <si>
+    <t>Riparato in armadio codice collaudo tk202509120068302952</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>TT1004820931</t>
+  </si>
+  <si>
+    <t>92987292</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>17/09/2025 15:30</t>
+  </si>
+  <si>
+    <t>17/09/2025 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINA MARIA ALZATE </t>
+  </si>
+  <si>
+    <t>CRV000102708413</t>
+  </si>
+  <si>
+    <t>0931580941</t>
+  </si>
+  <si>
+    <t>17/09/2025 16:24</t>
+  </si>
+  <si>
+    <t>16/09/2025 16:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riparato al box eseguita prova in sede utente codice collaudo: tk202509160068392347 </t>
+  </si>
+  <si>
+    <t>TT1004821236</t>
+  </si>
+  <si>
+    <t>92988624</t>
+  </si>
+  <si>
+    <t>17/09/2025 14:00</t>
+  </si>
+  <si>
+    <t>17/09/2025 14:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025091687792776 </t>
+  </si>
+  <si>
+    <t>SWADW5041601880</t>
+  </si>
+  <si>
+    <t>093114740130</t>
+  </si>
+  <si>
+    <t>23/09/2025 16:09</t>
+  </si>
+  <si>
+    <t>17/09/2025 14:02</t>
+  </si>
+  <si>
+    <t>17/09/2025 18:20</t>
+  </si>
+  <si>
+    <t>16/09/2025 17:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eseguito cambio porta vdsl zona 1.11 vecchia porta morsettiera 70 nuova c2-43 testato con l'utente codice collaudo tk202509160068393679 certificato con supporto fastweb pin 9978 </t>
+  </si>
+  <si>
+    <t>TT1004824952</t>
+  </si>
+  <si>
+    <t>93012510</t>
+  </si>
+  <si>
+    <t>17/09/2025 17:00</t>
+  </si>
+  <si>
+    <t>17/09/2025 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025091787939994 </t>
+  </si>
+  <si>
+    <t>SWADW5041605632</t>
+  </si>
+  <si>
+    <t>093114731536</t>
+  </si>
+  <si>
+    <t>24/09/2025 11:27</t>
+  </si>
+  <si>
+    <t>17/09/2025 16:57</t>
+  </si>
+  <si>
+    <t>18/09/2025 14:28</t>
+  </si>
+  <si>
+    <t>17/09/2025 13:28</t>
+  </si>
+  <si>
+    <t>92587091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linea non migliorabile causa box parallelo e eccessiva distanza val al box att 21 rum 5.8 vel 43 mega val casa utente att 22 rum 6.1 velocità 44 mega val in armadio att 1 rum 61 vel 216 mega codice collaudo tk202509170068417561 certificato con supporto fastweb pin 9512 </t>
+  </si>
+  <si>
+    <t>TT1004805182</t>
+  </si>
+  <si>
+    <t>92882143</t>
+  </si>
+  <si>
+    <t>13/09/2025 10:30</t>
+  </si>
+  <si>
+    <t>13/09/2025 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025091287032740 </t>
+  </si>
+  <si>
+    <t>SWADW5041580172</t>
+  </si>
+  <si>
+    <t>19/09/2025 11:13</t>
+  </si>
+  <si>
+    <t>13/09/2025 11:14</t>
+  </si>
+  <si>
+    <t>13/09/2025 13:20</t>
+  </si>
+  <si>
+    <t>12/09/2025 12:20</t>
+  </si>
+  <si>
+    <t>Sostituzione porta morsettiera old c1-77 New C2_2 box 43 coppia 4 codice collaudo tk202509120068287215 certificato con Oracle</t>
+  </si>
+  <si>
+    <t>TT1004817688</t>
+  </si>
+  <si>
+    <t>92964880</t>
+  </si>
+  <si>
+    <t>16/09/2025 15:30</t>
+  </si>
+  <si>
+    <t>16/09/2025 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025091687678849 </t>
+  </si>
+  <si>
+    <t>SWADW5041597618</t>
+  </si>
+  <si>
+    <t>093114732669</t>
+  </si>
+  <si>
+    <t>17/09/2025 08:43</t>
+  </si>
+  <si>
+    <t>16/09/2025 15:39</t>
+  </si>
+  <si>
+    <t>MTW23020MN</t>
+  </si>
+  <si>
+    <t>16/09/2025 09:54</t>
+  </si>
+  <si>
+    <t>92423918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non riscontrato . Codice collaudo: tk202509160068369942 </t>
+  </si>
+  <si>
+    <t>#data esec. al 17/09</t>
   </si>
 </sst>
 </file>
@@ -2465,10 +2999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP46"/>
+  <dimension ref="A1:CP60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11907,7 +12441,7 @@
       <c r="S34" t="s">
         <v>179</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="T34" s="2" t="s">
         <v>112</v>
       </c>
       <c r="U34" t="s">
@@ -14121,9 +14655,4269 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:94">
-      <c r="L46" t="s">
+    <row r="42" spans="1:94" s="1" customFormat="1">
+      <c r="A42" s="1" t="s">
         <v>698</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL42" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN42" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="AO42" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="AP42" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="AQ42" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="AR42" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="AS42" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT42" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC42" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD42" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE42" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="BF42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY42" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC42" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="CD42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP42" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:94" s="1" customFormat="1">
+      <c r="A43" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL43" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN43" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="AO43" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="AP43" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="AQ43" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="AR43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS43" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="AT43" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="AU43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV43" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="AW43" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX43" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="AY43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ43" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="BA43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC43" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE43" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="BF43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW43" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY43" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ43" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="CA43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC43" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="CD43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE43" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="CF43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK43" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="CL43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP43" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:94" s="1" customFormat="1">
+      <c r="A44" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN44" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="AO44" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="AP44" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="AQ44" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="AR44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV44" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX44" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="AY44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC44" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="BD44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE44" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="BF44" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="BG44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC44" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="CD44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM44" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP44" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:94" s="1" customFormat="1">
+      <c r="A45" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN45" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="AO45" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="AP45" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AQ45" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="AR45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS45" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT45" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU45" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV45" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX45" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="AY45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC45" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD45" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE45" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="BF45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY45" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC45" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="CD45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM45" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP45" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:94" s="1" customFormat="1">
+      <c r="A46" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN46" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="AO46" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="AP46" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="AQ46" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="AR46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV46" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX46" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="AY46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE46" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="BF46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC46" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="CD46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM46" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP46" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:94" s="1" customFormat="1">
+      <c r="A47" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL47" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN47" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="AO47" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="AP47" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="AQ47" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="AR47" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="AS47" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="AT47" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="AU47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC47" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE47" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="BF47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL47" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY47" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC47" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="CD47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP47" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:94" s="1" customFormat="1">
+      <c r="A48" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN48" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="AO48" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="AP48" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="AQ48" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="AR48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS48" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="AT48" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="AU48" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW48" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX48" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="AY48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ48" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="BA48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC48" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD48" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE48" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="BF48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY48" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC48" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="CD48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK48" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="CL48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP48" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:94" s="1" customFormat="1">
+      <c r="A49" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL49" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN49" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="AO49" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="AP49" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="AQ49" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="AR49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS49" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT49" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV49" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX49" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="AY49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC49" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD49" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE49" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="BF49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW49" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY49" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC49" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="CD49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM49" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN49" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="CO49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP49" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:94" s="1" customFormat="1">
+      <c r="A50" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN50" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="AO50" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="AP50" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="AQ50" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="AR50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS50" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="AT50" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="AU50" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV50" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="AW50" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX50" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="AY50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ50" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="BA50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC50" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD50" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE50" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="BF50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY50" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC50" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="CD50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP50" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:94" s="1" customFormat="1">
+      <c r="A51" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL51" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN51" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="AO51" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="AP51" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AQ51" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="AR51" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AS51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE51" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="BF51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY51" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC51" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="CD51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP51" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:94" s="1" customFormat="1">
+      <c r="A52" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN52" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="AO52" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="AP52" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="AQ52" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="AR52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS52" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT52" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW52" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX52" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="AY52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC52" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD52" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE52" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="BF52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU52" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY52" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC52" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="CD52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM52" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP52" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:94" s="1" customFormat="1">
+      <c r="A53" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN53" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="AO53" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="AP53" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="AQ53" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="AR53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS53" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT53" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV53" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW53" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX53" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="AY53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC53" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD53" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE53" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="BF53" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI53" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="BJ53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY53" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC53" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="CD53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM53" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP53" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:94" s="1" customFormat="1">
+      <c r="A54" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN54" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="AO54" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="AP54" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="AQ54" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="AR54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS54" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT54" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU54" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV54" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX54" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="AY54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC54" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD54" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE54" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="BF54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI54" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="BJ54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ54" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY54" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC54" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="CD54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM54" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP54" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:94" s="1" customFormat="1">
+      <c r="A55" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN55" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="AO55" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="AP55" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="AQ55" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="AR55" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="AS55" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ55" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="BA55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC55" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD55" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE55" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="BF55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI55" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="BJ55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL55" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW55" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC55" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="CD55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO55" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP55" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:94" s="1" customFormat="1">
+      <c r="A56" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN56" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="AO56" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="AP56" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="AQ56" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="AR56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS56" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT56" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV56" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX56" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="AY56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC56" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD56" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE56" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="BF56" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI56" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="BJ56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY56" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC56" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="CD56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM56" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP56" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:94">
+      <c r="N60" t="s">
+        <v>876</v>
       </c>
     </row>
   </sheetData>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18732" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5265" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7512" uniqueCount="1168">
   <si>
     <t>Codice</t>
   </si>
@@ -2646,7 +2646,880 @@
     <t xml:space="preserve">Non riscontrato . Codice collaudo: tk202509160068369942 </t>
   </si>
   <si>
-    <t>#data esec. al 17/09</t>
+    <t>TT1004812558</t>
+  </si>
+  <si>
+    <t>92928749</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>SR-CASSIBILE</t>
+  </si>
+  <si>
+    <t>18/09/2025 09:30</t>
+  </si>
+  <si>
+    <t>18/09/2025 10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA PIA RICCIARDETTO </t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>CRH001030549936</t>
+  </si>
+  <si>
+    <t>0931314774</t>
+  </si>
+  <si>
+    <t>16/09/2025 00:00</t>
+  </si>
+  <si>
+    <t>18/09/2025 09:38</t>
+  </si>
+  <si>
+    <t>16/09/2025 13:17</t>
+  </si>
+  <si>
+    <t>93100B</t>
+  </si>
+  <si>
+    <t>15/09/2025 09:22</t>
+  </si>
+  <si>
+    <t>FTTH</t>
+  </si>
+  <si>
+    <t>CRH</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202509150068333816 Sostiuto monofibra esterno mt160 palifica. E tubazione da roe a borchia cliente [ causa roditori ], segnale ottico e servizi ok provato in sede cliente</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t>19/09/2025 12:00</t>
+  </si>
+  <si>
+    <t>19/09/2025 12:30</t>
+  </si>
+  <si>
+    <t>TT1004818478</t>
+  </si>
+  <si>
+    <t>92971211</t>
+  </si>
+  <si>
+    <t>18/09/2025 10:30</t>
+  </si>
+  <si>
+    <t>CRV001031380304</t>
+  </si>
+  <si>
+    <t>19/09/2025 23:59</t>
+  </si>
+  <si>
+    <t>18/09/2025 10:18</t>
+  </si>
+  <si>
+    <t>16/09/2025 11:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riparato al box eseguita prova in sede utente Codice collaudo: tk202509160068376269 </t>
+  </si>
+  <si>
+    <t>TT1004819482</t>
+  </si>
+  <si>
+    <t>92977115</t>
+  </si>
+  <si>
+    <t>18/09/2025 15:00</t>
+  </si>
+  <si>
+    <t>18/09/2025 15:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025091687738459 </t>
+  </si>
+  <si>
+    <t>SWADW5041599932</t>
+  </si>
+  <si>
+    <t>093114752509</t>
+  </si>
+  <si>
+    <t>17/09/2025 12:32</t>
+  </si>
+  <si>
+    <t>18/09/2025 14:41</t>
+  </si>
+  <si>
+    <t>17/09/2025 08:46</t>
+  </si>
+  <si>
+    <t>16/09/2025 13:46</t>
+  </si>
+  <si>
+    <t>Riparato al box eseguita prova telefonica codice collaudo tk202509160068382172</t>
+  </si>
+  <si>
+    <t>19/09/2025 16:37</t>
+  </si>
+  <si>
+    <t>TT1004820478</t>
+  </si>
+  <si>
+    <t>92984490</t>
+  </si>
+  <si>
+    <t>18/09/2025 11:30</t>
+  </si>
+  <si>
+    <t>18/09/2025 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025091687771394 </t>
+  </si>
+  <si>
+    <t>SWADW5041601003</t>
+  </si>
+  <si>
+    <t>093114728855</t>
+  </si>
+  <si>
+    <t>17/09/2025 14:40</t>
+  </si>
+  <si>
+    <t>18/09/2025 12:40</t>
+  </si>
+  <si>
+    <t>17/09/2025 15:50</t>
+  </si>
+  <si>
+    <t>16/09/2025 15:50</t>
+  </si>
+  <si>
+    <t>Sostituita prima presa eseguita prova in sede utente Codice collaudo: tk202509160068389547</t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:9G9JMAK09998**</t>
+  </si>
+  <si>
+    <t>23/09/2025</t>
+  </si>
+  <si>
+    <t>19/09/2025 16:00</t>
+  </si>
+  <si>
+    <t>19/09/2025 16:30</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>CRA</t>
+  </si>
+  <si>
+    <t>SR-FONTANE B</t>
+  </si>
+  <si>
+    <t>93100I</t>
+  </si>
+  <si>
+    <t>20/09/2025</t>
+  </si>
+  <si>
+    <t>20/09/2025 10:30</t>
+  </si>
+  <si>
+    <t>20/09/2025 11:00</t>
+  </si>
+  <si>
+    <t>TT1004824956</t>
+  </si>
+  <si>
+    <t>93012561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025091787955364 </t>
+  </si>
+  <si>
+    <t>SWADW5041606114</t>
+  </si>
+  <si>
+    <t>24/09/2025 12:22</t>
+  </si>
+  <si>
+    <t>20/09/2025 10:37</t>
+  </si>
+  <si>
+    <t>17/09/2025 13:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box Codice collaudo: tk202509170068417612 </t>
+  </si>
+  <si>
+    <t>23/09/2025 15:30</t>
+  </si>
+  <si>
+    <t>CRNHLINDG-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025091186912624 </t>
+  </si>
+  <si>
+    <t>22/09/2025 00:00</t>
+  </si>
+  <si>
+    <t>SWADW5041577035</t>
+  </si>
+  <si>
+    <t>093114758952</t>
+  </si>
+  <si>
+    <t>DEGRADO BITSTREAM FTTH</t>
+  </si>
+  <si>
+    <t>TT1004827613</t>
+  </si>
+  <si>
+    <t>93028709</t>
+  </si>
+  <si>
+    <t>20/09/2025 08:00</t>
+  </si>
+  <si>
+    <t>20/09/2025 09:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025091788054234 </t>
+  </si>
+  <si>
+    <t>SWADW5041609574</t>
+  </si>
+  <si>
+    <t>093113769126</t>
+  </si>
+  <si>
+    <t>24/09/2025 19:13</t>
+  </si>
+  <si>
+    <t>20/09/2025 14:04</t>
+  </si>
+  <si>
+    <t>19/09/2025 20:20</t>
+  </si>
+  <si>
+    <t>17/09/2025 20:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato in armadio, eseguita prova telefonica utente conferma servizi Codice collaudo: tk202509170068433758 </t>
+  </si>
+  <si>
+    <t>TT1004828387</t>
+  </si>
+  <si>
+    <t>93032407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025091186839668 </t>
+  </si>
+  <si>
+    <t>SWADW5041574455</t>
+  </si>
+  <si>
+    <t>093114746175</t>
+  </si>
+  <si>
+    <t>19/09/2025 00:21</t>
+  </si>
+  <si>
+    <t>18/09/2025 08:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sostituita secondaria zona 4.05 box 35 vecchia coppia 1 nuova 6 testato con l'utente codice collaudo tk202509180068437456 </t>
+  </si>
+  <si>
+    <t>22/09/2025</t>
+  </si>
+  <si>
+    <t>FW Micro Business OPER</t>
+  </si>
+  <si>
+    <t>TT1004831075</t>
+  </si>
+  <si>
+    <t>93052329</t>
+  </si>
+  <si>
+    <t>26/09/2025</t>
+  </si>
+  <si>
+    <t>26/09/2025 12:00</t>
+  </si>
+  <si>
+    <t>26/09/2025 12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025091888201566 </t>
+  </si>
+  <si>
+    <t>SWADW5041613258</t>
+  </si>
+  <si>
+    <t>093114740703</t>
+  </si>
+  <si>
+    <t>25/09/2025 13:46</t>
+  </si>
+  <si>
+    <t>26/09/2025 12:15</t>
+  </si>
+  <si>
+    <t>19/09/2025 15:56</t>
+  </si>
+  <si>
+    <t>18/09/2025 14:56</t>
+  </si>
+  <si>
+    <t>92777566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sostituita presa testato con l'utente codice collaudo tk202509180068457375 certificato con supporto fastweb pin 5275 </t>
+  </si>
+  <si>
+    <t>22/09/2025 18:00</t>
+  </si>
+  <si>
+    <t>TT1004832850</t>
+  </si>
+  <si>
+    <t>93063653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025091888268829 </t>
+  </si>
+  <si>
+    <t>SWADW5041615443</t>
+  </si>
+  <si>
+    <t>20/09/2025 02:33</t>
+  </si>
+  <si>
+    <t>19/09/2025 11:41</t>
+  </si>
+  <si>
+    <t>19/09/2025 14:46</t>
+  </si>
+  <si>
+    <t>18/09/2025 19:46</t>
+  </si>
+  <si>
+    <t>92864432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box eseguita prova telefonica Codice collaudo: tk202509180068468695 certificato tramite Oracle. </t>
+  </si>
+  <si>
+    <t>22/09/2025 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025091988368626 </t>
+  </si>
+  <si>
+    <t>SWADW5041617882</t>
+  </si>
+  <si>
+    <t>093114733321</t>
+  </si>
+  <si>
+    <t>FW SME SMALL NORD</t>
+  </si>
+  <si>
+    <t>20/09/2025 12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025091988382531 </t>
+  </si>
+  <si>
+    <t>SWADW5041618303</t>
+  </si>
+  <si>
+    <t>093113781844</t>
+  </si>
+  <si>
+    <t>21/09/2025 12:20</t>
+  </si>
+  <si>
+    <t>23/09/2025 16:00</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>26/09/2025 17:00</t>
+  </si>
+  <si>
+    <t>24/09/2025</t>
+  </si>
+  <si>
+    <t>TT1004839036</t>
+  </si>
+  <si>
+    <t>93102851</t>
+  </si>
+  <si>
+    <t>22/09/2025 14:30</t>
+  </si>
+  <si>
+    <t>22/09/2025 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025092088572125 </t>
+  </si>
+  <si>
+    <t>SWADW5041623920</t>
+  </si>
+  <si>
+    <t>21/09/2025 18:13</t>
+  </si>
+  <si>
+    <t>22/09/2025 14:13</t>
+  </si>
+  <si>
+    <t>21/09/2025 06:20</t>
+  </si>
+  <si>
+    <t>20/09/2025 11:20</t>
+  </si>
+  <si>
+    <t>92832838</t>
+  </si>
+  <si>
+    <t>Riparato al box eseguita prova telefonica Codice collaudo: tk202509200068507880</t>
+  </si>
+  <si>
+    <t>CRIBLININ-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOLA DELLA NATURA SOC. COOP. AGRICOLA A R.L. (IN SIGLA ISOLA DEL LA NATURA S.C.A. A R.L.) </t>
+  </si>
+  <si>
+    <t>AHF000102897128</t>
+  </si>
+  <si>
+    <t>0931545033</t>
+  </si>
+  <si>
+    <t>ISDNAB</t>
+  </si>
+  <si>
+    <t>AHF</t>
+  </si>
+  <si>
+    <t>22/09/2025 11:45</t>
+  </si>
+  <si>
+    <t>26/09/2025 15:30</t>
+  </si>
+  <si>
+    <t>26/09/2025 16:00</t>
+  </si>
+  <si>
+    <t>TT1004841240</t>
+  </si>
+  <si>
+    <t>93114707</t>
+  </si>
+  <si>
+    <t>22/09/2025 13:00</t>
+  </si>
+  <si>
+    <t>23/09/2025 20:21</t>
+  </si>
+  <si>
+    <t>21/09/2025 15:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rifacimento giunto al Roe Codice collaudo: tk202509210068519736 </t>
+  </si>
+  <si>
+    <t>TT1004842877</t>
+  </si>
+  <si>
+    <t>93125513</t>
+  </si>
+  <si>
+    <t>28/09/2025 05:57</t>
+  </si>
+  <si>
+    <t>23/09/2025 15:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box certificato con Ciso fastweb Pin 2151CA9032 codice collaudo: tk202509220068530538 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025092288810008 </t>
+  </si>
+  <si>
+    <t>SWADW5041628856</t>
+  </si>
+  <si>
+    <t>093114759310</t>
+  </si>
+  <si>
+    <t>23/09/2025 09:54</t>
+  </si>
+  <si>
+    <t>23/09/2025 06:06</t>
+  </si>
+  <si>
+    <t>TT1004844875</t>
+  </si>
+  <si>
+    <t>93139843</t>
+  </si>
+  <si>
+    <t>24/09/2025 18:00</t>
+  </si>
+  <si>
+    <t>24/09/2025 19:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025092288903469 </t>
+  </si>
+  <si>
+    <t>SWADW5041632141</t>
+  </si>
+  <si>
+    <t>093114753739</t>
+  </si>
+  <si>
+    <t>23/09/2025 15:36</t>
+  </si>
+  <si>
+    <t>24/09/2025 17:51</t>
+  </si>
+  <si>
+    <t>22/09/2025 15:38</t>
+  </si>
+  <si>
+    <t>93094713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@roditori Rifatta giunzione al pte eseguita prova in sede utente certificato con supporto Fastweb Maria codice collaudo : tk202509220068544867 </t>
+  </si>
+  <si>
+    <t>29/09/2025</t>
+  </si>
+  <si>
+    <t>29/09/2025 15:00</t>
+  </si>
+  <si>
+    <t>29/09/2025 00:00</t>
+  </si>
+  <si>
+    <t>26/09/2025 16:30</t>
+  </si>
+  <si>
+    <t>27/09/2025</t>
+  </si>
+  <si>
+    <t>27/09/2025 11:30</t>
+  </si>
+  <si>
+    <t>TT1004856046</t>
+  </si>
+  <si>
+    <t>93216159</t>
+  </si>
+  <si>
+    <t>26/09/2025 16:06</t>
+  </si>
+  <si>
+    <t>24/09/2025 15:34</t>
+  </si>
+  <si>
+    <t>ripaarto in armadio Codice collaudo: tk202509240068621155  certificato tramite oracle, UTENTE SPEGNE IL MODEM PERCHE' E' TUTTO IN FASE DI RISTRUTTURAZIONE E NON ABITA LI'</t>
+  </si>
+  <si>
+    <t>27/09/2025 11:34</t>
+  </si>
+  <si>
+    <t>26/09/2025 16:13</t>
+  </si>
+  <si>
+    <t>27/09/2025 12:30</t>
+  </si>
+  <si>
+    <t>27/09/2025 12:28</t>
+  </si>
+  <si>
+    <t>TT1004860488</t>
+  </si>
+  <si>
+    <t>93244158</t>
+  </si>
+  <si>
+    <t>27/09/2025 14:00</t>
+  </si>
+  <si>
+    <t>27/09/2025 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025092589501059 </t>
+  </si>
+  <si>
+    <t>SWADW5041651065</t>
+  </si>
+  <si>
+    <t>26/09/2025 09:39</t>
+  </si>
+  <si>
+    <t>27/09/2025 14:57</t>
+  </si>
+  <si>
+    <t>25/09/2025 13:06</t>
+  </si>
+  <si>
+    <t>92906967</t>
+  </si>
+  <si>
+    <t>Collegamenti errati da parte utente certificato con supporto Fastweb pin 797 codice collaudo tk202509250068649147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRUNO GENOVA </t>
+  </si>
+  <si>
+    <t>CRA001031987339</t>
+  </si>
+  <si>
+    <t>0931835687</t>
+  </si>
+  <si>
+    <t>TT1004862974</t>
+  </si>
+  <si>
+    <t>93259800</t>
+  </si>
+  <si>
+    <t>26/09/2025 15:40</t>
+  </si>
+  <si>
+    <t>25/09/2025 18:40</t>
+  </si>
+  <si>
+    <t>Riparato al box ripulito puntali polo A e B eseguita prova telefonica codice collaudotk202509250068664787</t>
+  </si>
+  <si>
+    <t>TT1004863305</t>
+  </si>
+  <si>
+    <t>93261697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025092589669589 </t>
+  </si>
+  <si>
+    <t>SWADW5041656305</t>
+  </si>
+  <si>
+    <t>27/09/2025 03:30</t>
+  </si>
+  <si>
+    <t>25/09/2025 19:54</t>
+  </si>
+  <si>
+    <t>Riparato al pte eseguita prova telefonica certificato con supporto Fastweb Maria codice collaudo tk202509250068666684</t>
+  </si>
+  <si>
+    <t>27/09/2025 12:00</t>
+  </si>
+  <si>
+    <t>TT1004867330</t>
+  </si>
+  <si>
+    <t>93287039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025092689838974 </t>
+  </si>
+  <si>
+    <t>SWADW5041661854</t>
+  </si>
+  <si>
+    <t>03/10/2025 15:19</t>
+  </si>
+  <si>
+    <t>26/09/2025 15:22</t>
+  </si>
+  <si>
+    <t>93153341</t>
+  </si>
+  <si>
+    <t>rifatta giunzione a presa, certificato con supporto wind, modem guasto verrà spedito al cliente, pin 859 Codice collaudo: tk202509260068692020</t>
+  </si>
+  <si>
+    <t>29/09/2025 14:09</t>
+  </si>
+  <si>
+    <t>29/09/2025 13:00</t>
+  </si>
+  <si>
+    <t>29/09/2025 13:59</t>
+  </si>
+  <si>
+    <t>TT1004868594</t>
+  </si>
+  <si>
+    <t>93294509</t>
+  </si>
+  <si>
+    <t>29/09/2025 09:00</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>29/09/2025 15:45</t>
+  </si>
+  <si>
+    <t>29/09/2025 16:49</t>
+  </si>
+  <si>
+    <t>26/09/2025 18:22</t>
+  </si>
+  <si>
+    <t>sostituita borchia Codice Collaudo: tk202509260068699482</t>
+  </si>
+  <si>
+    <t>TT1004869065</t>
+  </si>
+  <si>
+    <t>93297302</t>
+  </si>
+  <si>
+    <t>29/09/2025 08:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025092689893030 </t>
+  </si>
+  <si>
+    <t>SWADW5041663644</t>
+  </si>
+  <si>
+    <t>28/09/2025 03:24</t>
+  </si>
+  <si>
+    <t>29/09/2025 09:25</t>
+  </si>
+  <si>
+    <t>27/09/2025 15:36</t>
+  </si>
+  <si>
+    <t>26/09/2025 20:36</t>
+  </si>
+  <si>
+    <t>92755457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eseguito cambio porta vdsl zona 2.22 vecchia porta morsettiera 47 nuova 4 testato con l'utente codice collaudo tk202509260068702274 certificato con supporto fastweb pin 2451 </t>
+  </si>
+  <si>
+    <t>29/09/2025 18:00</t>
+  </si>
+  <si>
+    <t>29/09/2025 19:00</t>
+  </si>
+  <si>
+    <t>TT1004870744</t>
+  </si>
+  <si>
+    <t>93306095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025092789994903 </t>
+  </si>
+  <si>
+    <t>SWADW5041665987</t>
+  </si>
+  <si>
+    <t>28/09/2025 20:49</t>
+  </si>
+  <si>
+    <t>29/09/2025 13:56</t>
+  </si>
+  <si>
+    <t>TARTAGLIA TAMARA</t>
+  </si>
+  <si>
+    <t>PMO2102CLI</t>
+  </si>
+  <si>
+    <t>PMO</t>
+  </si>
+  <si>
+    <t>27/09/2025 13:54</t>
+  </si>
+  <si>
+    <t>93253216</t>
+  </si>
+  <si>
+    <t>@roditori Riparato al box + eseguito cambio porta vdsl zona 2.17 nuova porta morsettiera c2 porta 8 più sostituita secondaria zona 2. 17 box 25 vecchia coppia 5 nuova 10 testato con l'utente codice collaudo tk202509270068711062</t>
+  </si>
+  <si>
+    <t>TT1004871622</t>
+  </si>
+  <si>
+    <t>93310164</t>
+  </si>
+  <si>
+    <t>CRADLINDG-</t>
+  </si>
+  <si>
+    <t>29/09/2025 12:30</t>
+  </si>
+  <si>
+    <t>29/09/2025 01:43</t>
+  </si>
+  <si>
+    <t>27/09/2025 17:56</t>
+  </si>
+  <si>
+    <t>rifatta permuta in armadio eseguita prova telefonica Codice Collaudo: tk202509270068715130</t>
+  </si>
+  <si>
+    <t>TT1004873919</t>
+  </si>
+  <si>
+    <t>93320158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025092689792925 </t>
+  </si>
+  <si>
+    <t>SWADW5041659779</t>
+  </si>
+  <si>
+    <t>30/09/2025 01:16</t>
+  </si>
+  <si>
+    <t>29/09/2025 07:04</t>
+  </si>
+  <si>
+    <t>92931419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rifacimento giunto in borchia. Codice collaudo: tk202509290068725123 </t>
+  </si>
+  <si>
+    <t>#data esec. al 29/09</t>
   </si>
 </sst>
 </file>
@@ -2999,16 +3872,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP60"/>
+  <dimension ref="A1:CP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+    <sheetView tabSelected="1" topLeftCell="S55" workbookViewId="0">
+      <selection activeCell="Z86" sqref="Z86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="20" max="20" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94">
@@ -18915,9 +19789,6825 @@
         <v>104</v>
       </c>
     </row>
+    <row r="57" spans="1:94">
+      <c r="A57" t="s">
+        <v>876</v>
+      </c>
+      <c r="B57" t="s">
+        <v>877</v>
+      </c>
+      <c r="C57" t="s">
+        <v>878</v>
+      </c>
+      <c r="D57" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57" t="s">
+        <v>879</v>
+      </c>
+      <c r="H57" t="s">
+        <v>683</v>
+      </c>
+      <c r="I57" t="s">
+        <v>114</v>
+      </c>
+      <c r="J57" t="s">
+        <v>259</v>
+      </c>
+      <c r="K57" t="s">
+        <v>104</v>
+      </c>
+      <c r="L57" t="s">
+        <v>105</v>
+      </c>
+      <c r="M57" t="s">
+        <v>106</v>
+      </c>
+      <c r="N57" t="s">
+        <v>104</v>
+      </c>
+      <c r="O57" t="s">
+        <v>880</v>
+      </c>
+      <c r="P57" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>881</v>
+      </c>
+      <c r="R57" t="s">
+        <v>110</v>
+      </c>
+      <c r="S57" t="s">
+        <v>235</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U57" t="s">
+        <v>882</v>
+      </c>
+      <c r="V57" t="s">
+        <v>104</v>
+      </c>
+      <c r="W57" t="s">
+        <v>114</v>
+      </c>
+      <c r="X57" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>883</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>884</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>885</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>886</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>887</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>888</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>889</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>879</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW57" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY57" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ57" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA57" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB57" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC57" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE57" t="s">
+        <v>890</v>
+      </c>
+      <c r="BF57" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG57" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH57" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI57" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ57" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK57" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL57" t="s">
+        <v>891</v>
+      </c>
+      <c r="BM57" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN57" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO57" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP57" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ57" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR57" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS57" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT57" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU57" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV57" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW57" t="s">
+        <v>241</v>
+      </c>
+      <c r="BX57" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY57" t="s">
+        <v>892</v>
+      </c>
+      <c r="BZ57" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA57" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB57" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC57" t="s">
+        <v>893</v>
+      </c>
+      <c r="CD57" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE57" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF57" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG57" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH57" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI57" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ57" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK57" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL57" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM57" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN57" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO57" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:94">
+      <c r="A58" t="s">
+        <v>897</v>
+      </c>
+      <c r="B58" t="s">
+        <v>898</v>
+      </c>
+      <c r="C58" t="s">
+        <v>878</v>
+      </c>
+      <c r="D58" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" t="s">
+        <v>99</v>
+      </c>
+      <c r="G58" t="s">
+        <v>768</v>
+      </c>
+      <c r="H58" t="s">
+        <v>206</v>
+      </c>
+      <c r="I58" t="s">
+        <v>114</v>
+      </c>
+      <c r="J58" t="s">
+        <v>259</v>
+      </c>
+      <c r="K58" t="s">
+        <v>104</v>
+      </c>
+      <c r="L58" t="s">
+        <v>105</v>
+      </c>
+      <c r="M58" t="s">
+        <v>106</v>
+      </c>
+      <c r="N58" t="s">
+        <v>104</v>
+      </c>
+      <c r="O58" t="s">
+        <v>881</v>
+      </c>
+      <c r="P58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>899</v>
+      </c>
+      <c r="R58" t="s">
+        <v>110</v>
+      </c>
+      <c r="S58" t="s">
+        <v>375</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U58" t="s">
+        <v>771</v>
+      </c>
+      <c r="V58" t="s">
+        <v>104</v>
+      </c>
+      <c r="W58" t="s">
+        <v>114</v>
+      </c>
+      <c r="X58" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>900</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>773</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>901</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>902</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>901</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>776</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>768</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW58" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX58" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY58" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ58" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA58" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB58" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC58" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD58" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE58" t="s">
+        <v>903</v>
+      </c>
+      <c r="BF58" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG58" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH58" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI58" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ58" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK58" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL58" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM58" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN58" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO58" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP58" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ58" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR58" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS58" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT58" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU58" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV58" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW58" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX58" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY58" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ58" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA58" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB58" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC58" t="s">
+        <v>904</v>
+      </c>
+      <c r="CD58" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE58" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF58" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG58" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH58" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI58" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ58" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK58" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL58" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM58" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN58" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO58" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:94">
+      <c r="A59" t="s">
+        <v>905</v>
+      </c>
+      <c r="B59" t="s">
+        <v>906</v>
+      </c>
+      <c r="C59" t="s">
+        <v>878</v>
+      </c>
+      <c r="D59" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" t="s">
+        <v>139</v>
+      </c>
+      <c r="H59" t="s">
+        <v>101</v>
+      </c>
+      <c r="I59" t="s">
+        <v>108</v>
+      </c>
+      <c r="J59" t="s">
+        <v>103</v>
+      </c>
+      <c r="K59" t="s">
+        <v>104</v>
+      </c>
+      <c r="L59" t="s">
+        <v>105</v>
+      </c>
+      <c r="M59" t="s">
+        <v>106</v>
+      </c>
+      <c r="N59" t="s">
+        <v>104</v>
+      </c>
+      <c r="O59" t="s">
+        <v>907</v>
+      </c>
+      <c r="P59" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>908</v>
+      </c>
+      <c r="R59" t="s">
+        <v>110</v>
+      </c>
+      <c r="S59" t="s">
+        <v>375</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U59" t="s">
+        <v>909</v>
+      </c>
+      <c r="V59" t="s">
+        <v>104</v>
+      </c>
+      <c r="W59" t="s">
+        <v>114</v>
+      </c>
+      <c r="X59" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>910</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>911</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>912</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>913</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT59" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU59" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV59" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW59" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX59" t="s">
+        <v>914</v>
+      </c>
+      <c r="AY59" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ59" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA59" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB59" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC59" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD59" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE59" t="s">
+        <v>915</v>
+      </c>
+      <c r="BF59" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG59" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH59" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI59" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ59" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK59" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL59" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM59" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN59" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO59" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP59" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ59" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR59" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS59" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT59" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU59" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV59" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW59" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX59" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY59" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ59" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA59" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB59" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC59" t="s">
+        <v>916</v>
+      </c>
+      <c r="CD59" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE59" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF59" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG59" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH59" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI59" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ59" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK59" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL59" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM59" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN59" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO59" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP59" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="60" spans="1:94">
+      <c r="A60" t="s">
+        <v>918</v>
+      </c>
+      <c r="B60" t="s">
+        <v>919</v>
+      </c>
+      <c r="C60" t="s">
+        <v>878</v>
+      </c>
+      <c r="D60" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" t="s">
+        <v>139</v>
+      </c>
+      <c r="H60" t="s">
+        <v>101</v>
+      </c>
+      <c r="I60" t="s">
+        <v>108</v>
+      </c>
+      <c r="J60" t="s">
+        <v>103</v>
+      </c>
+      <c r="K60" t="s">
+        <v>104</v>
+      </c>
+      <c r="L60" t="s">
+        <v>105</v>
+      </c>
+      <c r="M60" t="s">
+        <v>106</v>
+      </c>
       <c r="N60" t="s">
-        <v>876</v>
+        <v>104</v>
+      </c>
+      <c r="O60" t="s">
+        <v>920</v>
+      </c>
+      <c r="P60" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>921</v>
+      </c>
+      <c r="R60" t="s">
+        <v>110</v>
+      </c>
+      <c r="S60" t="s">
+        <v>375</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U60" t="s">
+        <v>922</v>
+      </c>
+      <c r="V60" t="s">
+        <v>104</v>
+      </c>
+      <c r="W60" t="s">
+        <v>114</v>
+      </c>
+      <c r="X60" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>923</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>924</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>925</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>926</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU60" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW60" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX60" t="s">
+        <v>927</v>
+      </c>
+      <c r="AY60" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ60" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA60" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB60" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC60" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD60" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE60" t="s">
+        <v>928</v>
+      </c>
+      <c r="BF60" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG60" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH60" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI60" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ60" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK60" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL60" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM60" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN60" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO60" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP60" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ60" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR60" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS60" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT60" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU60" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV60" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW60" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX60" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY60" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ60" t="s">
+        <v>108</v>
+      </c>
+      <c r="CA60" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB60" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC60" t="s">
+        <v>929</v>
+      </c>
+      <c r="CD60" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE60" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF60" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG60" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH60" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI60" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ60" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK60" t="s">
+        <v>930</v>
+      </c>
+      <c r="CL60" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM60" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN60" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO60" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:94">
+      <c r="A61" t="s">
+        <v>941</v>
+      </c>
+      <c r="B61" t="s">
+        <v>942</v>
+      </c>
+      <c r="C61" t="s">
+        <v>938</v>
+      </c>
+      <c r="D61" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" t="s">
+        <v>712</v>
+      </c>
+      <c r="H61" t="s">
+        <v>206</v>
+      </c>
+      <c r="I61" t="s">
+        <v>208</v>
+      </c>
+      <c r="J61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K61" t="s">
+        <v>104</v>
+      </c>
+      <c r="L61" t="s">
+        <v>105</v>
+      </c>
+      <c r="M61" t="s">
+        <v>106</v>
+      </c>
+      <c r="N61" t="s">
+        <v>104</v>
+      </c>
+      <c r="O61" t="s">
+        <v>939</v>
+      </c>
+      <c r="P61" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>940</v>
+      </c>
+      <c r="R61" t="s">
+        <v>110</v>
+      </c>
+      <c r="S61" t="s">
+        <v>179</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U61" t="s">
+        <v>943</v>
+      </c>
+      <c r="V61" t="s">
+        <v>104</v>
+      </c>
+      <c r="W61" t="s">
+        <v>114</v>
+      </c>
+      <c r="X61" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>944</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>786</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>945</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>946</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>720</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>712</v>
+      </c>
+      <c r="AU61" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW61" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>787</v>
+      </c>
+      <c r="AY61" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ61" t="s">
+        <v>790</v>
+      </c>
+      <c r="BA61" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB61" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC61" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD61" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE61" t="s">
+        <v>947</v>
+      </c>
+      <c r="BF61" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG61" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH61" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI61" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ61" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK61" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL61" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM61" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN61" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO61" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP61" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ61" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR61" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS61" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT61" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU61" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV61" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW61" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX61" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY61" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ61" t="s">
+        <v>208</v>
+      </c>
+      <c r="CA61" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB61" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC61" t="s">
+        <v>948</v>
+      </c>
+      <c r="CD61" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE61" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF61" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG61" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH61" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI61" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ61" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK61" t="s">
+        <v>793</v>
+      </c>
+      <c r="CL61" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM61" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN61" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO61" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:94">
+      <c r="A62" t="s">
+        <v>956</v>
+      </c>
+      <c r="B62" t="s">
+        <v>957</v>
+      </c>
+      <c r="C62" t="s">
+        <v>938</v>
+      </c>
+      <c r="D62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" t="s">
+        <v>98</v>
+      </c>
+      <c r="F62" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" t="s">
+        <v>100</v>
+      </c>
+      <c r="H62" t="s">
+        <v>206</v>
+      </c>
+      <c r="I62" t="s">
+        <v>208</v>
+      </c>
+      <c r="J62" t="s">
+        <v>103</v>
+      </c>
+      <c r="K62" t="s">
+        <v>104</v>
+      </c>
+      <c r="L62" t="s">
+        <v>105</v>
+      </c>
+      <c r="M62" t="s">
+        <v>106</v>
+      </c>
+      <c r="N62" t="s">
+        <v>104</v>
+      </c>
+      <c r="O62" t="s">
+        <v>958</v>
+      </c>
+      <c r="P62" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>959</v>
+      </c>
+      <c r="R62" t="s">
+        <v>110</v>
+      </c>
+      <c r="S62" t="s">
+        <v>111</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U62" t="s">
+        <v>960</v>
+      </c>
+      <c r="V62" t="s">
+        <v>104</v>
+      </c>
+      <c r="W62" t="s">
+        <v>114</v>
+      </c>
+      <c r="X62" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>961</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>962</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>963</v>
+      </c>
+      <c r="AQ62" t="s">
+        <v>964</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT62" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU62" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW62" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX62" t="s">
+        <v>965</v>
+      </c>
+      <c r="AY62" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ62" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA62" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB62" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC62" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD62" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE62" t="s">
+        <v>966</v>
+      </c>
+      <c r="BF62" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG62" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH62" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI62" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ62" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK62" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL62" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM62" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN62" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO62" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP62" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ62" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR62" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS62" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT62" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU62" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV62" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW62" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX62" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY62" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ62" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA62" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB62" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC62" t="s">
+        <v>967</v>
+      </c>
+      <c r="CD62" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE62" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF62" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG62" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH62" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI62" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ62" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK62" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL62" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM62" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN62" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO62" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:94">
+      <c r="A63" t="s">
+        <v>968</v>
+      </c>
+      <c r="B63" t="s">
+        <v>969</v>
+      </c>
+      <c r="C63" t="s">
+        <v>894</v>
+      </c>
+      <c r="D63" t="s">
+        <v>230</v>
+      </c>
+      <c r="E63" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63" t="s">
+        <v>879</v>
+      </c>
+      <c r="H63" t="s">
+        <v>101</v>
+      </c>
+      <c r="I63" t="s">
+        <v>114</v>
+      </c>
+      <c r="J63" t="s">
+        <v>259</v>
+      </c>
+      <c r="K63" t="s">
+        <v>104</v>
+      </c>
+      <c r="L63" t="s">
+        <v>105</v>
+      </c>
+      <c r="M63" t="s">
+        <v>106</v>
+      </c>
+      <c r="N63" t="s">
+        <v>104</v>
+      </c>
+      <c r="O63" t="s">
+        <v>932</v>
+      </c>
+      <c r="P63" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>933</v>
+      </c>
+      <c r="R63" t="s">
+        <v>110</v>
+      </c>
+      <c r="S63" t="s">
+        <v>366</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U63" t="s">
+        <v>970</v>
+      </c>
+      <c r="V63" t="s">
+        <v>104</v>
+      </c>
+      <c r="W63" t="s">
+        <v>114</v>
+      </c>
+      <c r="X63" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK63" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>971</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>972</v>
+      </c>
+      <c r="AP63" t="s">
+        <v>973</v>
+      </c>
+      <c r="AQ63" t="s">
+        <v>917</v>
+      </c>
+      <c r="AR63" t="s">
+        <v>973</v>
+      </c>
+      <c r="AS63" t="s">
+        <v>889</v>
+      </c>
+      <c r="AT63" t="s">
+        <v>879</v>
+      </c>
+      <c r="AU63" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW63" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX63" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY63" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ63" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA63" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB63" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC63" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD63" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE63" t="s">
+        <v>974</v>
+      </c>
+      <c r="BF63" t="s">
+        <v>289</v>
+      </c>
+      <c r="BG63" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH63" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI63" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ63" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK63" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL63" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM63" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN63" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO63" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP63" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ63" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR63" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS63" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT63" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU63" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV63" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW63" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX63" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY63" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ63" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA63" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB63" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC63" t="s">
+        <v>975</v>
+      </c>
+      <c r="CD63" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE63" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF63" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG63" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH63" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI63" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ63" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK63" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL63" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM63" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN63" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO63" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:94">
+      <c r="A64" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C64" t="s">
+        <v>976</v>
+      </c>
+      <c r="D64" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" t="s">
+        <v>98</v>
+      </c>
+      <c r="F64" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" t="s">
+        <v>324</v>
+      </c>
+      <c r="H64" t="s">
+        <v>950</v>
+      </c>
+      <c r="I64" t="s">
+        <v>114</v>
+      </c>
+      <c r="J64" t="s">
+        <v>259</v>
+      </c>
+      <c r="K64" t="s">
+        <v>104</v>
+      </c>
+      <c r="L64" t="s">
+        <v>105</v>
+      </c>
+      <c r="M64" t="s">
+        <v>106</v>
+      </c>
+      <c r="N64" t="s">
+        <v>104</v>
+      </c>
+      <c r="O64" t="s">
+        <v>1040</v>
+      </c>
+      <c r="P64" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>992</v>
+      </c>
+      <c r="R64" t="s">
+        <v>110</v>
+      </c>
+      <c r="S64" t="s">
+        <v>536</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U64" t="s">
+        <v>951</v>
+      </c>
+      <c r="V64" t="s">
+        <v>104</v>
+      </c>
+      <c r="W64" t="s">
+        <v>114</v>
+      </c>
+      <c r="X64" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>952</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>554</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>952</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>555</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>953</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>954</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AQ64" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AR64" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AS64" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT64" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU64" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW64" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX64" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY64" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ64" t="s">
+        <v>872</v>
+      </c>
+      <c r="BA64" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB64" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC64" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD64" t="s">
+        <v>955</v>
+      </c>
+      <c r="BE64" t="s">
+        <v>1042</v>
+      </c>
+      <c r="BF64" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG64" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH64" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI64" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ64" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK64" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL64" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM64" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN64" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO64" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP64" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ64" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR64" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS64" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT64" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU64" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV64" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW64" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX64" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY64" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ64" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA64" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB64" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC64" t="s">
+        <v>1043</v>
+      </c>
+      <c r="CD64" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE64" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF64" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG64" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH64" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI64" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ64" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK64" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL64" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM64" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN64" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO64" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:94">
+      <c r="A65" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C65" t="s">
+        <v>931</v>
+      </c>
+      <c r="D65" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" t="s">
+        <v>98</v>
+      </c>
+      <c r="F65" t="s">
+        <v>99</v>
+      </c>
+      <c r="G65" t="s">
+        <v>324</v>
+      </c>
+      <c r="H65" t="s">
+        <v>206</v>
+      </c>
+      <c r="I65" t="s">
+        <v>208</v>
+      </c>
+      <c r="J65" t="s">
+        <v>103</v>
+      </c>
+      <c r="K65" t="s">
+        <v>104</v>
+      </c>
+      <c r="L65" t="s">
+        <v>105</v>
+      </c>
+      <c r="M65" t="s">
+        <v>106</v>
+      </c>
+      <c r="N65" t="s">
+        <v>104</v>
+      </c>
+      <c r="O65" t="s">
+        <v>949</v>
+      </c>
+      <c r="P65" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R65" t="s">
+        <v>110</v>
+      </c>
+      <c r="S65" t="s">
+        <v>536</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U65" t="s">
+        <v>1004</v>
+      </c>
+      <c r="V65" t="s">
+        <v>104</v>
+      </c>
+      <c r="W65" t="s">
+        <v>114</v>
+      </c>
+      <c r="X65" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AQ65" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AR65" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS65" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT65" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU65" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV65" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AW65" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX65" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AY65" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ65" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA65" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB65" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC65" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD65" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE65" t="s">
+        <v>1003</v>
+      </c>
+      <c r="BF65" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG65" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH65" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI65" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ65" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK65" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL65" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM65" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN65" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO65" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP65" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ65" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR65" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS65" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT65" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU65" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV65" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW65" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX65" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY65" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ65" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA65" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB65" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC65" t="s">
+        <v>1048</v>
+      </c>
+      <c r="CD65" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE65" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF65" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG65" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH65" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI65" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ65" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK65" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL65" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM65" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN65" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO65" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:94">
+      <c r="A66" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C66" t="s">
+        <v>980</v>
+      </c>
+      <c r="D66" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" t="s">
+        <v>98</v>
+      </c>
+      <c r="F66" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" t="s">
+        <v>324</v>
+      </c>
+      <c r="H66" t="s">
+        <v>101</v>
+      </c>
+      <c r="I66" t="s">
+        <v>320</v>
+      </c>
+      <c r="J66" t="s">
+        <v>103</v>
+      </c>
+      <c r="K66" t="s">
+        <v>104</v>
+      </c>
+      <c r="L66" t="s">
+        <v>105</v>
+      </c>
+      <c r="M66" t="s">
+        <v>106</v>
+      </c>
+      <c r="N66" t="s">
+        <v>104</v>
+      </c>
+      <c r="O66" t="s">
+        <v>1036</v>
+      </c>
+      <c r="P66" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>1037</v>
+      </c>
+      <c r="R66" t="s">
+        <v>110</v>
+      </c>
+      <c r="S66" t="s">
+        <v>536</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U66" t="s">
+        <v>1049</v>
+      </c>
+      <c r="V66" t="s">
+        <v>104</v>
+      </c>
+      <c r="W66" t="s">
+        <v>114</v>
+      </c>
+      <c r="X66" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AQ66" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AR66" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS66" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT66" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU66" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV66" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW66" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX66" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AY66" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ66" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA66" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB66" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC66" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD66" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE66" t="s">
+        <v>1075</v>
+      </c>
+      <c r="BF66" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG66" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH66" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI66" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ66" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK66" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL66" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM66" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN66" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO66" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP66" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ66" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR66" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS66" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT66" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU66" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV66" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW66" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX66" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY66" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ66" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA66" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB66" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC66" t="s">
+        <v>1076</v>
+      </c>
+      <c r="CD66" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE66" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF66" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG66" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH66" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI66" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ66" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK66" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL66" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM66" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN66" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO66" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:94">
+      <c r="A67" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D67" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" t="s">
+        <v>98</v>
+      </c>
+      <c r="F67" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" t="s">
+        <v>139</v>
+      </c>
+      <c r="H67" t="s">
+        <v>206</v>
+      </c>
+      <c r="I67" t="s">
+        <v>344</v>
+      </c>
+      <c r="J67" t="s">
+        <v>103</v>
+      </c>
+      <c r="K67" t="s">
+        <v>104</v>
+      </c>
+      <c r="L67" t="s">
+        <v>105</v>
+      </c>
+      <c r="M67" t="s">
+        <v>106</v>
+      </c>
+      <c r="N67" t="s">
+        <v>104</v>
+      </c>
+      <c r="O67" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P67" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>1079</v>
+      </c>
+      <c r="R67" t="s">
+        <v>110</v>
+      </c>
+      <c r="S67" t="s">
+        <v>375</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U67" t="s">
+        <v>1009</v>
+      </c>
+      <c r="V67" t="s">
+        <v>104</v>
+      </c>
+      <c r="W67" t="s">
+        <v>114</v>
+      </c>
+      <c r="X67" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK67" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN67" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AO67" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AP67" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AQ67" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AR67" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS67" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT67" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU67" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV67" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW67" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX67" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AY67" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ67" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA67" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB67" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC67" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD67" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE67" t="s">
+        <v>1098</v>
+      </c>
+      <c r="BF67" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG67" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH67" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI67" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ67" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK67" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL67" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM67" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN67" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO67" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP67" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ67" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR67" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS67" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT67" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU67" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV67" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW67" t="s">
+        <v>344</v>
+      </c>
+      <c r="BX67" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY67" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ67" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA67" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB67" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC67" t="s">
+        <v>1099</v>
+      </c>
+      <c r="CD67" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE67" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF67" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG67" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH67" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI67" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ67" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK67" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL67" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM67" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN67" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO67" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:94">
+      <c r="A68" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C68" t="s">
+        <v>980</v>
+      </c>
+      <c r="D68" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" t="s">
+        <v>98</v>
+      </c>
+      <c r="F68" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" t="s">
+        <v>163</v>
+      </c>
+      <c r="H68" t="s">
+        <v>683</v>
+      </c>
+      <c r="I68" t="s">
+        <v>114</v>
+      </c>
+      <c r="J68" t="s">
+        <v>259</v>
+      </c>
+      <c r="K68" t="s">
+        <v>104</v>
+      </c>
+      <c r="L68" t="s">
+        <v>105</v>
+      </c>
+      <c r="M68" t="s">
+        <v>106</v>
+      </c>
+      <c r="N68" t="s">
+        <v>104</v>
+      </c>
+      <c r="O68" t="s">
+        <v>1069</v>
+      </c>
+      <c r="P68" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>1015</v>
+      </c>
+      <c r="R68" t="s">
+        <v>110</v>
+      </c>
+      <c r="S68" t="s">
+        <v>375</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U68" t="s">
+        <v>1102</v>
+      </c>
+      <c r="V68" t="s">
+        <v>104</v>
+      </c>
+      <c r="W68" t="s">
+        <v>114</v>
+      </c>
+      <c r="X68" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AO68" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AP68" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AQ68" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AR68" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AS68" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT68" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU68" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV68" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ68" t="s">
+        <v>872</v>
+      </c>
+      <c r="BA68" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB68" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC68" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD68" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE68" t="s">
+        <v>1105</v>
+      </c>
+      <c r="BF68" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG68" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH68" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI68" t="s">
+        <v>1064</v>
+      </c>
+      <c r="BJ68" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK68" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL68" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM68" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN68" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO68" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP68" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ68" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR68" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS68" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT68" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU68" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV68" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW68" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX68" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY68" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ68" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA68" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB68" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC68" t="s">
+        <v>1106</v>
+      </c>
+      <c r="CD68" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE68" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF68" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG68" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH68" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI68" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ68" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK68" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL68" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM68" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN68" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO68" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:94">
+      <c r="A69" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" t="s">
+        <v>98</v>
+      </c>
+      <c r="F69" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69" t="s">
+        <v>324</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I69" t="s">
+        <v>114</v>
+      </c>
+      <c r="J69" t="s">
+        <v>259</v>
+      </c>
+      <c r="K69" t="s">
+        <v>104</v>
+      </c>
+      <c r="L69" t="s">
+        <v>105</v>
+      </c>
+      <c r="M69" t="s">
+        <v>106</v>
+      </c>
+      <c r="N69" t="s">
+        <v>104</v>
+      </c>
+      <c r="O69" t="s">
+        <v>1121</v>
+      </c>
+      <c r="P69" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>1117</v>
+      </c>
+      <c r="R69" t="s">
+        <v>110</v>
+      </c>
+      <c r="S69" t="s">
+        <v>536</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U69" t="s">
+        <v>1030</v>
+      </c>
+      <c r="V69" t="s">
+        <v>104</v>
+      </c>
+      <c r="W69" t="s">
+        <v>114</v>
+      </c>
+      <c r="X69" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>554</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AO69" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AQ69" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AR69" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AS69" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT69" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU69" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV69" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW69" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX69" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY69" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ69" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA69" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB69" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC69" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD69" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE69" t="s">
+        <v>1125</v>
+      </c>
+      <c r="BF69" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG69" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH69" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI69" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ69" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK69" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL69" t="s">
+        <v>1033</v>
+      </c>
+      <c r="BM69" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN69" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO69" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP69" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ69" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR69" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS69" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT69" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU69" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV69" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW69" t="s">
+        <v>157</v>
+      </c>
+      <c r="BX69" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY69" t="s">
+        <v>1034</v>
+      </c>
+      <c r="BZ69" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA69" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB69" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC69" t="s">
+        <v>1126</v>
+      </c>
+      <c r="CD69" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE69" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF69" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG69" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH69" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI69" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ69" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK69" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL69" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM69" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN69" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO69" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:94">
+      <c r="A70" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D70" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" t="s">
+        <v>98</v>
+      </c>
+      <c r="F70" t="s">
+        <v>99</v>
+      </c>
+      <c r="G70" t="s">
+        <v>569</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I70" t="s">
+        <v>114</v>
+      </c>
+      <c r="J70" t="s">
+        <v>259</v>
+      </c>
+      <c r="K70" t="s">
+        <v>104</v>
+      </c>
+      <c r="L70" t="s">
+        <v>105</v>
+      </c>
+      <c r="M70" t="s">
+        <v>106</v>
+      </c>
+      <c r="N70" t="s">
+        <v>104</v>
+      </c>
+      <c r="O70" t="s">
+        <v>1155</v>
+      </c>
+      <c r="P70" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>1117</v>
+      </c>
+      <c r="R70" t="s">
+        <v>110</v>
+      </c>
+      <c r="S70" t="s">
+        <v>375</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U70" t="s">
+        <v>1092</v>
+      </c>
+      <c r="V70" t="s">
+        <v>104</v>
+      </c>
+      <c r="W70" t="s">
+        <v>114</v>
+      </c>
+      <c r="X70" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AP70" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AQ70" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AR70" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AS70" t="s">
+        <v>577</v>
+      </c>
+      <c r="AT70" t="s">
+        <v>569</v>
+      </c>
+      <c r="AU70" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV70" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW70" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX70" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY70" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ70" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA70" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB70" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC70" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD70" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE70" t="s">
+        <v>1157</v>
+      </c>
+      <c r="BF70" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG70" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH70" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI70" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ70" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK70" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL70" t="s">
+        <v>317</v>
+      </c>
+      <c r="BM70" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN70" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO70" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP70" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ70" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR70" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS70" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT70" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU70" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV70" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW70" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX70" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY70" t="s">
+        <v>935</v>
+      </c>
+      <c r="BZ70" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA70" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB70" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC70" t="s">
+        <v>1158</v>
+      </c>
+      <c r="CD70" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE70" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF70" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG70" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH70" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI70" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ70" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK70" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL70" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM70" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN70" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO70" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:94">
+      <c r="A71" t="s">
+        <v>978</v>
+      </c>
+      <c r="B71" t="s">
+        <v>979</v>
+      </c>
+      <c r="C71" t="s">
+        <v>980</v>
+      </c>
+      <c r="D71" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" t="s">
+        <v>98</v>
+      </c>
+      <c r="G71" t="s">
+        <v>936</v>
+      </c>
+      <c r="H71" t="s">
+        <v>206</v>
+      </c>
+      <c r="I71" t="s">
+        <v>344</v>
+      </c>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+      <c r="K71" t="s">
+        <v>104</v>
+      </c>
+      <c r="L71" t="s">
+        <v>105</v>
+      </c>
+      <c r="M71" t="s">
+        <v>106</v>
+      </c>
+      <c r="N71" t="s">
+        <v>104</v>
+      </c>
+      <c r="O71" t="s">
+        <v>981</v>
+      </c>
+      <c r="P71" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>982</v>
+      </c>
+      <c r="R71" t="s">
+        <v>110</v>
+      </c>
+      <c r="S71" t="s">
+        <v>366</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U71" t="s">
+        <v>983</v>
+      </c>
+      <c r="V71" t="s">
+        <v>104</v>
+      </c>
+      <c r="W71" t="s">
+        <v>114</v>
+      </c>
+      <c r="X71" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK71" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>984</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>985</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>986</v>
+      </c>
+      <c r="AQ71" t="s">
+        <v>987</v>
+      </c>
+      <c r="AR71" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>937</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>936</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV71" t="s">
+        <v>977</v>
+      </c>
+      <c r="AW71" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX71" t="s">
+        <v>988</v>
+      </c>
+      <c r="AY71" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ71" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA71" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB71" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC71" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD71" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE71" t="s">
+        <v>989</v>
+      </c>
+      <c r="BF71" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG71" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH71" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI71" t="s">
+        <v>990</v>
+      </c>
+      <c r="BJ71" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK71" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL71" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM71" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN71" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO71" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP71" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ71" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR71" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS71" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT71" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU71" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV71" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW71" t="s">
+        <v>344</v>
+      </c>
+      <c r="BX71" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY71" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ71" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA71" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB71" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC71" t="s">
+        <v>991</v>
+      </c>
+      <c r="CD71" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE71" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF71" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG71" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH71" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI71" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ71" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK71" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL71" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM71" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN71" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO71" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:94">
+      <c r="A72" t="s">
+        <v>993</v>
+      </c>
+      <c r="B72" t="s">
+        <v>994</v>
+      </c>
+      <c r="C72" t="s">
+        <v>894</v>
+      </c>
+      <c r="D72" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" t="s">
+        <v>569</v>
+      </c>
+      <c r="H72" t="s">
+        <v>101</v>
+      </c>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+      <c r="J72" t="s">
+        <v>103</v>
+      </c>
+      <c r="K72" t="s">
+        <v>104</v>
+      </c>
+      <c r="L72" t="s">
+        <v>105</v>
+      </c>
+      <c r="M72" t="s">
+        <v>106</v>
+      </c>
+      <c r="N72" t="s">
+        <v>104</v>
+      </c>
+      <c r="O72" t="s">
+        <v>895</v>
+      </c>
+      <c r="P72" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>896</v>
+      </c>
+      <c r="R72" t="s">
+        <v>110</v>
+      </c>
+      <c r="S72" t="s">
+        <v>111</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U72" t="s">
+        <v>995</v>
+      </c>
+      <c r="V72" t="s">
+        <v>104</v>
+      </c>
+      <c r="W72" t="s">
+        <v>114</v>
+      </c>
+      <c r="X72" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>996</v>
+      </c>
+      <c r="AO72">
+        <v>93114749810</v>
+      </c>
+      <c r="AP72" t="s">
+        <v>997</v>
+      </c>
+      <c r="AQ72" t="s">
+        <v>998</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>577</v>
+      </c>
+      <c r="AT72" t="s">
+        <v>569</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX72" t="s">
+        <v>999</v>
+      </c>
+      <c r="AY72" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ72" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA72" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB72" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC72" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD72" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE72" t="s">
+        <v>1000</v>
+      </c>
+      <c r="BF72" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG72" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH72" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI72" t="s">
+        <v>1001</v>
+      </c>
+      <c r="BJ72" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK72" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL72" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM72" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN72" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO72" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP72" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ72" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR72" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS72" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT72" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU72" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV72" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW72" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX72" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY72" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ72" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA72" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB72" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC72" t="s">
+        <v>1002</v>
+      </c>
+      <c r="CD72" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE72" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF72" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG72" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH72" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI72" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ72" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK72" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL72" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM72" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN72" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO72" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:94">
+      <c r="A73" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C73" t="s">
+        <v>976</v>
+      </c>
+      <c r="D73" t="s">
+        <v>97</v>
+      </c>
+      <c r="E73" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" t="s">
+        <v>98</v>
+      </c>
+      <c r="G73" t="s">
+        <v>768</v>
+      </c>
+      <c r="H73" t="s">
+        <v>101</v>
+      </c>
+      <c r="I73" t="s">
+        <v>102</v>
+      </c>
+      <c r="J73" t="s">
+        <v>103</v>
+      </c>
+      <c r="K73" t="s">
+        <v>497</v>
+      </c>
+      <c r="L73" t="s">
+        <v>105</v>
+      </c>
+      <c r="M73" t="s">
+        <v>106</v>
+      </c>
+      <c r="N73" t="s">
+        <v>104</v>
+      </c>
+      <c r="O73" t="s">
+        <v>1019</v>
+      </c>
+      <c r="P73" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>1020</v>
+      </c>
+      <c r="R73" t="s">
+        <v>110</v>
+      </c>
+      <c r="S73" t="s">
+        <v>111</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U73" t="s">
+        <v>1021</v>
+      </c>
+      <c r="V73" t="s">
+        <v>104</v>
+      </c>
+      <c r="W73" t="s">
+        <v>114</v>
+      </c>
+      <c r="X73" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AO73">
+        <v>93114759526</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>776</v>
+      </c>
+      <c r="AT73" t="s">
+        <v>768</v>
+      </c>
+      <c r="AU73" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV73" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW73" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX73" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AY73" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ73" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA73" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB73" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC73" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD73" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE73" t="s">
+        <v>1026</v>
+      </c>
+      <c r="BF73" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG73" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH73" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI73" t="s">
+        <v>1027</v>
+      </c>
+      <c r="BJ73" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK73" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL73" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM73" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN73" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO73" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP73" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ73" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR73" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS73" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT73" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU73" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV73" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW73" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX73" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY73" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ73" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA73" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB73" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC73" t="s">
+        <v>1028</v>
+      </c>
+      <c r="CD73" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE73" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF73" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG73" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH73" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI73" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ73" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK73" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL73" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM73" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN73" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO73" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:94">
+      <c r="A74" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D74" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" t="s">
+        <v>99</v>
+      </c>
+      <c r="F74" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" t="s">
+        <v>163</v>
+      </c>
+      <c r="H74" t="s">
+        <v>683</v>
+      </c>
+      <c r="I74" t="s">
+        <v>114</v>
+      </c>
+      <c r="J74" t="s">
+        <v>259</v>
+      </c>
+      <c r="K74" t="s">
+        <v>104</v>
+      </c>
+      <c r="L74" t="s">
+        <v>105</v>
+      </c>
+      <c r="M74" t="s">
+        <v>106</v>
+      </c>
+      <c r="N74" t="s">
+        <v>104</v>
+      </c>
+      <c r="O74" t="s">
+        <v>1056</v>
+      </c>
+      <c r="P74" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>1057</v>
+      </c>
+      <c r="R74" t="s">
+        <v>110</v>
+      </c>
+      <c r="S74" t="s">
+        <v>375</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U74" t="s">
+        <v>1058</v>
+      </c>
+      <c r="V74" t="s">
+        <v>104</v>
+      </c>
+      <c r="W74" t="s">
+        <v>114</v>
+      </c>
+      <c r="X74" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AO74">
+        <v>93114753739</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT74" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU74" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW74" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX74" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY74" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ74" t="s">
+        <v>872</v>
+      </c>
+      <c r="BA74" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB74" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC74" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD74" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE74" t="s">
+        <v>1063</v>
+      </c>
+      <c r="BF74" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG74" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH74" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI74" t="s">
+        <v>1064</v>
+      </c>
+      <c r="BJ74" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK74" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL74" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM74" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN74" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO74" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP74" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ74" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR74" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS74" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT74" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU74" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV74" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW74" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX74" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY74" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ74" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA74" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB74" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC74" t="s">
+        <v>1065</v>
+      </c>
+      <c r="CD74" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE74" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF74" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG74" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH74" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI74" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ74" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK74" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL74" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM74" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN74" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO74" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:94">
+      <c r="A75" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D75" t="s">
+        <v>157</v>
+      </c>
+      <c r="E75" t="s">
+        <v>99</v>
+      </c>
+      <c r="F75" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" t="s">
+        <v>139</v>
+      </c>
+      <c r="H75" t="s">
+        <v>683</v>
+      </c>
+      <c r="I75" t="s">
+        <v>114</v>
+      </c>
+      <c r="J75" t="s">
+        <v>259</v>
+      </c>
+      <c r="K75" t="s">
+        <v>104</v>
+      </c>
+      <c r="L75" t="s">
+        <v>105</v>
+      </c>
+      <c r="M75" t="s">
+        <v>106</v>
+      </c>
+      <c r="N75" t="s">
+        <v>104</v>
+      </c>
+      <c r="O75" t="s">
+        <v>1083</v>
+      </c>
+      <c r="P75" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>1084</v>
+      </c>
+      <c r="R75" t="s">
+        <v>110</v>
+      </c>
+      <c r="S75" t="s">
+        <v>375</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U75" t="s">
+        <v>1085</v>
+      </c>
+      <c r="V75" t="s">
+        <v>104</v>
+      </c>
+      <c r="W75" t="s">
+        <v>114</v>
+      </c>
+      <c r="X75" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK75" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AO75">
+        <v>93114753751</v>
+      </c>
+      <c r="AP75" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AQ75" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AR75" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AS75" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT75" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU75" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV75" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW75" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX75" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY75" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ75" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA75" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB75" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC75" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD75" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE75" t="s">
+        <v>1089</v>
+      </c>
+      <c r="BF75" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG75" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH75" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI75" t="s">
+        <v>1090</v>
+      </c>
+      <c r="BJ75" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK75" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL75" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM75" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN75" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO75" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP75" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ75" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR75" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS75" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT75" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU75" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV75" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW75" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX75" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY75" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ75" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA75" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB75" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC75" t="s">
+        <v>1091</v>
+      </c>
+      <c r="CD75" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE75" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF75" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG75" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH75" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI75" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ75" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK75" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL75" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM75" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN75" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO75" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:94">
+      <c r="A76" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C76" t="s">
+        <v>980</v>
+      </c>
+      <c r="D76" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" t="s">
+        <v>98</v>
+      </c>
+      <c r="F76" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" t="s">
+        <v>163</v>
+      </c>
+      <c r="H76" t="s">
+        <v>683</v>
+      </c>
+      <c r="I76" t="s">
+        <v>114</v>
+      </c>
+      <c r="J76" t="s">
+        <v>259</v>
+      </c>
+      <c r="K76" t="s">
+        <v>104</v>
+      </c>
+      <c r="L76" t="s">
+        <v>105</v>
+      </c>
+      <c r="M76" t="s">
+        <v>106</v>
+      </c>
+      <c r="N76" t="s">
+        <v>104</v>
+      </c>
+      <c r="O76" t="s">
+        <v>1069</v>
+      </c>
+      <c r="P76" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>1015</v>
+      </c>
+      <c r="R76" t="s">
+        <v>110</v>
+      </c>
+      <c r="S76" t="s">
+        <v>375</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U76" t="s">
+        <v>1102</v>
+      </c>
+      <c r="V76" t="s">
+        <v>104</v>
+      </c>
+      <c r="W76" t="s">
+        <v>114</v>
+      </c>
+      <c r="X76" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK76" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AO76">
+        <v>93114753739</v>
+      </c>
+      <c r="AP76" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AQ76" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW76" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX76" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY76" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ76" t="s">
+        <v>872</v>
+      </c>
+      <c r="BA76" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB76" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC76" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD76" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE76" t="s">
+        <v>1105</v>
+      </c>
+      <c r="BF76" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG76" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH76" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI76" t="s">
+        <v>1064</v>
+      </c>
+      <c r="BJ76" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK76" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL76" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM76" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN76" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO76" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP76" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ76" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR76" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS76" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT76" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU76" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV76" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW76" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX76" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY76" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ76" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA76" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB76" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC76" t="s">
+        <v>1106</v>
+      </c>
+      <c r="CD76" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE76" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF76" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG76" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH76" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI76" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ76" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK76" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL76" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM76" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN76" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO76" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:94">
+      <c r="A77" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D77" t="s">
+        <v>157</v>
+      </c>
+      <c r="E77" t="s">
+        <v>99</v>
+      </c>
+      <c r="F77" t="s">
+        <v>98</v>
+      </c>
+      <c r="G77" t="s">
+        <v>274</v>
+      </c>
+      <c r="H77" t="s">
+        <v>950</v>
+      </c>
+      <c r="I77" t="s">
+        <v>114</v>
+      </c>
+      <c r="J77" t="s">
+        <v>259</v>
+      </c>
+      <c r="K77" t="s">
+        <v>104</v>
+      </c>
+      <c r="L77" t="s">
+        <v>105</v>
+      </c>
+      <c r="M77" t="s">
+        <v>106</v>
+      </c>
+      <c r="N77" t="s">
+        <v>104</v>
+      </c>
+      <c r="O77" t="s">
+        <v>1107</v>
+      </c>
+      <c r="P77" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>1079</v>
+      </c>
+      <c r="R77" t="s">
+        <v>110</v>
+      </c>
+      <c r="S77" t="s">
+        <v>235</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U77" t="s">
+        <v>1110</v>
+      </c>
+      <c r="V77" t="s">
+        <v>104</v>
+      </c>
+      <c r="W77" t="s">
+        <v>114</v>
+      </c>
+      <c r="X77" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AO77">
+        <v>93114742490</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AQ77" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AR77" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT77" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU77" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV77" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW77" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX77" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY77" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ77" t="s">
+        <v>691</v>
+      </c>
+      <c r="BA77" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB77" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC77" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD77" t="s">
+        <v>955</v>
+      </c>
+      <c r="BE77" t="s">
+        <v>1113</v>
+      </c>
+      <c r="BF77" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG77" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH77" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI77" t="s">
+        <v>1114</v>
+      </c>
+      <c r="BJ77" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK77" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL77" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM77" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN77" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO77" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP77" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ77" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR77" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS77" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT77" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU77" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV77" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW77" t="s">
+        <v>1014</v>
+      </c>
+      <c r="BX77" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY77" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ77" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA77" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB77" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC77" t="s">
+        <v>1115</v>
+      </c>
+      <c r="CD77" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE77" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF77" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG77" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH77" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI77" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ77" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK77" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL77" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM77" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN77" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO77" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:94">
+      <c r="A78" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D78" t="s">
+        <v>469</v>
+      </c>
+      <c r="E78" t="s">
+        <v>99</v>
+      </c>
+      <c r="F78" t="s">
+        <v>98</v>
+      </c>
+      <c r="G78" t="s">
+        <v>274</v>
+      </c>
+      <c r="H78" t="s">
+        <v>101</v>
+      </c>
+      <c r="I78" t="s">
+        <v>102</v>
+      </c>
+      <c r="J78" t="s">
+        <v>103</v>
+      </c>
+      <c r="K78" t="s">
+        <v>104</v>
+      </c>
+      <c r="L78" t="s">
+        <v>105</v>
+      </c>
+      <c r="M78" t="s">
+        <v>106</v>
+      </c>
+      <c r="N78" t="s">
+        <v>104</v>
+      </c>
+      <c r="O78" t="s">
+        <v>1129</v>
+      </c>
+      <c r="P78" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>1121</v>
+      </c>
+      <c r="R78" t="s">
+        <v>110</v>
+      </c>
+      <c r="S78" t="s">
+        <v>366</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U78" t="s">
+        <v>1130</v>
+      </c>
+      <c r="V78" t="s">
+        <v>104</v>
+      </c>
+      <c r="W78" t="s">
+        <v>114</v>
+      </c>
+      <c r="X78" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN78" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AO78">
+        <v>93114731739</v>
+      </c>
+      <c r="AP78" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AQ78" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AR78" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS78" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT78" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU78" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV78" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW78" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX78" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AY78" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ78" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA78" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB78" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC78" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD78" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE78" t="s">
+        <v>1135</v>
+      </c>
+      <c r="BF78" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG78" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH78" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI78" t="s">
+        <v>1136</v>
+      </c>
+      <c r="BJ78" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK78" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL78" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM78" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN78" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO78" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP78" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ78" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR78" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS78" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT78" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU78" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV78" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW78" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX78" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY78" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ78" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA78" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB78" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC78" t="s">
+        <v>1137</v>
+      </c>
+      <c r="CD78" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE78" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF78" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG78" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH78" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI78" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ78" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK78" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL78" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM78" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN78" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO78" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:94">
+      <c r="A79" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" t="s">
+        <v>99</v>
+      </c>
+      <c r="F79" t="s">
+        <v>98</v>
+      </c>
+      <c r="G79" t="s">
+        <v>274</v>
+      </c>
+      <c r="H79" t="s">
+        <v>206</v>
+      </c>
+      <c r="I79" t="s">
+        <v>114</v>
+      </c>
+      <c r="J79" t="s">
+        <v>259</v>
+      </c>
+      <c r="K79" t="s">
+        <v>104</v>
+      </c>
+      <c r="L79" t="s">
+        <v>105</v>
+      </c>
+      <c r="M79" t="s">
+        <v>106</v>
+      </c>
+      <c r="N79" t="s">
+        <v>104</v>
+      </c>
+      <c r="O79" t="s">
+        <v>1138</v>
+      </c>
+      <c r="P79" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>1139</v>
+      </c>
+      <c r="R79" t="s">
+        <v>110</v>
+      </c>
+      <c r="S79" t="s">
+        <v>366</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U79" t="s">
+        <v>1142</v>
+      </c>
+      <c r="V79" t="s">
+        <v>104</v>
+      </c>
+      <c r="W79" t="s">
+        <v>114</v>
+      </c>
+      <c r="X79" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ79" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK79" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN79" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AO79">
+        <v>93114759376</v>
+      </c>
+      <c r="AP79" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AQ79" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AR79" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AS79" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT79" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU79" t="s">
+        <v>560</v>
+      </c>
+      <c r="AV79" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AW79" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX79" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY79" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ79" t="s">
+        <v>1147</v>
+      </c>
+      <c r="BA79" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB79" t="s">
+        <v>1148</v>
+      </c>
+      <c r="BC79" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD79" t="s">
+        <v>563</v>
+      </c>
+      <c r="BE79" t="s">
+        <v>1149</v>
+      </c>
+      <c r="BF79" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG79" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH79" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI79" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BJ79" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK79" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL79" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM79" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN79" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO79" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP79" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ79" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR79" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS79" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT79" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU79" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV79" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW79" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX79" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY79" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ79" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA79" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB79" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC79" t="s">
+        <v>1151</v>
+      </c>
+      <c r="CD79" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE79" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF79" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG79" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH79" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI79" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ79" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK79" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL79" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM79" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN79" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO79" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:94">
+      <c r="A80" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D80" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" t="s">
+        <v>99</v>
+      </c>
+      <c r="F80" t="s">
+        <v>98</v>
+      </c>
+      <c r="G80" t="s">
+        <v>324</v>
+      </c>
+      <c r="H80" t="s">
+        <v>683</v>
+      </c>
+      <c r="I80" t="s">
+        <v>114</v>
+      </c>
+      <c r="J80" t="s">
+        <v>259</v>
+      </c>
+      <c r="K80" t="s">
+        <v>104</v>
+      </c>
+      <c r="L80" t="s">
+        <v>105</v>
+      </c>
+      <c r="M80" t="s">
+        <v>106</v>
+      </c>
+      <c r="N80" t="s">
+        <v>104</v>
+      </c>
+      <c r="O80" t="s">
+        <v>1121</v>
+      </c>
+      <c r="P80" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>1067</v>
+      </c>
+      <c r="R80" t="s">
+        <v>110</v>
+      </c>
+      <c r="S80" t="s">
+        <v>536</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U80" t="s">
+        <v>1161</v>
+      </c>
+      <c r="V80" t="s">
+        <v>104</v>
+      </c>
+      <c r="W80" t="s">
+        <v>114</v>
+      </c>
+      <c r="X80" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>934</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ80" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN80" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AO80">
+        <v>93114746606</v>
+      </c>
+      <c r="AP80" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AQ80" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AR80" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AS80" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT80" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU80" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV80" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW80" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX80" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY80" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ80" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA80" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB80" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC80" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD80" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE80" t="s">
+        <v>1164</v>
+      </c>
+      <c r="BF80" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG80" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH80" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI80" t="s">
+        <v>1165</v>
+      </c>
+      <c r="BJ80" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK80" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL80" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM80" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN80" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO80" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP80" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ80" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR80" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS80" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT80" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU80" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV80" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW80" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX80" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY80" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ80" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA80" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB80" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC80" t="s">
+        <v>1166</v>
+      </c>
+      <c r="CD80" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE80" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF80" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG80" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH80" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI80" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ80" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK80" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL80" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM80" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN80" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO80" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="26:26">
+      <c r="Z85" t="s">
+        <v>1167</v>
       </c>
     </row>
   </sheetData>
@@ -18935,7 +26625,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -18948,7 +26638,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7512" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7888" uniqueCount="1213">
   <si>
     <t>Codice</t>
   </si>
@@ -3520,6 +3520,141 @@
   </si>
   <si>
     <t>#data esec. al 29/09</t>
+  </si>
+  <si>
+    <t>TT1004874540</t>
+  </si>
+  <si>
+    <t>93326209</t>
+  </si>
+  <si>
+    <t>30/09/2025</t>
+  </si>
+  <si>
+    <t>30/09/2025 10:00</t>
+  </si>
+  <si>
+    <t>30/09/2025 10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDILINFISSI S.R.L. SEMPLIFICA </t>
+  </si>
+  <si>
+    <t>CBV001032764459</t>
+  </si>
+  <si>
+    <t>0931941101</t>
+  </si>
+  <si>
+    <t>03/10/2025 23:59</t>
+  </si>
+  <si>
+    <t>30/09/2025 10:22</t>
+  </si>
+  <si>
+    <t>29/09/2025 10:14</t>
+  </si>
+  <si>
+    <t>CBV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rifacimento puntali in armadio codice collaudo tk202509290068731173 </t>
+  </si>
+  <si>
+    <t>TT1004874937</t>
+  </si>
+  <si>
+    <t>93329323</t>
+  </si>
+  <si>
+    <t>30/09/2025 12:00</t>
+  </si>
+  <si>
+    <t>30/09/2025 12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025092088667786 </t>
+  </si>
+  <si>
+    <t>SWADW5041626070</t>
+  </si>
+  <si>
+    <t>093114738391</t>
+  </si>
+  <si>
+    <t>30/09/2025 17:03</t>
+  </si>
+  <si>
+    <t>30/09/2025 11:58</t>
+  </si>
+  <si>
+    <t>22/09/2025 23:20</t>
+  </si>
+  <si>
+    <t>29/09/2025 11:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box Codice collaudo: tk202509290068734284 </t>
+  </si>
+  <si>
+    <t>ASSENZA RANDOMICA DI PORTANTE **CPE_SN:S182V48006517**</t>
+  </si>
+  <si>
+    <t>TT1004877025</t>
+  </si>
+  <si>
+    <t>93343541</t>
+  </si>
+  <si>
+    <t>30/09/2025 09:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025092389165951 </t>
+  </si>
+  <si>
+    <t>SWADW5041640612</t>
+  </si>
+  <si>
+    <t>093114723943</t>
+  </si>
+  <si>
+    <t>30/09/2025 17:37</t>
+  </si>
+  <si>
+    <t>30/09/2025 16:23</t>
+  </si>
+  <si>
+    <t>01/10/2025 15:48</t>
+  </si>
+  <si>
+    <t>29/09/2025 15:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tratta esterna ok probabile guasto interno in sede cliente. cliente fuorisede fino a metà ottobre farà una nuova segnalazione di guasto al proprio rientroCodice collaudo: tk202509290068748497    </t>
+  </si>
+  <si>
+    <t>AGGANCIO DEGRADATO **CPE_SN:22450M5002937**</t>
+  </si>
+  <si>
+    <t>TT1004879456</t>
+  </si>
+  <si>
+    <t>93355935</t>
+  </si>
+  <si>
+    <t>30/09/2025 13:00</t>
+  </si>
+  <si>
+    <t>093114759376</t>
+  </si>
+  <si>
+    <t>30/09/2025 11:27</t>
+  </si>
+  <si>
+    <t>30/09/2025 08:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eseguite prove di allineamento alla prima presa valori di linea ok modem utente si spegne e si riaccende da solo probabile alimentatore guasto occorre sostituzione modem codice collaudo tk202509300068760889 </t>
   </si>
 </sst>
 </file>
@@ -3874,8 +4009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S55" workbookViewId="0">
-      <selection activeCell="Z86" sqref="Z86"/>
+    <sheetView tabSelected="1" topLeftCell="R55" workbookViewId="0">
+      <selection activeCell="T86" sqref="T86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26605,7 +26740,1143 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="26:26">
+    <row r="81" spans="1:94">
+      <c r="A81" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D81" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" t="s">
+        <v>98</v>
+      </c>
+      <c r="F81" t="s">
+        <v>99</v>
+      </c>
+      <c r="G81" t="s">
+        <v>324</v>
+      </c>
+      <c r="H81" t="s">
+        <v>101</v>
+      </c>
+      <c r="I81" t="s">
+        <v>114</v>
+      </c>
+      <c r="J81" t="s">
+        <v>259</v>
+      </c>
+      <c r="K81" t="s">
+        <v>104</v>
+      </c>
+      <c r="L81" t="s">
+        <v>105</v>
+      </c>
+      <c r="M81" t="s">
+        <v>106</v>
+      </c>
+      <c r="N81" t="s">
+        <v>104</v>
+      </c>
+      <c r="O81" t="s">
+        <v>1171</v>
+      </c>
+      <c r="P81" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>1172</v>
+      </c>
+      <c r="R81" t="s">
+        <v>110</v>
+      </c>
+      <c r="S81" t="s">
+        <v>165</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U81" t="s">
+        <v>1173</v>
+      </c>
+      <c r="V81" t="s">
+        <v>104</v>
+      </c>
+      <c r="W81" t="s">
+        <v>114</v>
+      </c>
+      <c r="X81" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN81" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AO81" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AP81" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AQ81" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AR81" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AS81" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT81" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU81" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV81" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW81" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX81" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY81" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ81" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA81" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB81" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC81" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD81" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE81" t="s">
+        <v>1178</v>
+      </c>
+      <c r="BF81" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG81" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH81" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI81" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ81" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK81" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL81" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM81" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN81" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO81" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP81" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ81" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR81" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS81" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT81" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU81" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV81" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW81" t="s">
+        <v>386</v>
+      </c>
+      <c r="BX81" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY81" t="s">
+        <v>1179</v>
+      </c>
+      <c r="BZ81" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA81" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB81" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC81" t="s">
+        <v>1180</v>
+      </c>
+      <c r="CD81" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE81" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF81" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG81" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH81" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI81" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ81" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK81" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL81" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM81" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN81" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO81" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:94">
+      <c r="A82" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D82" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" t="s">
+        <v>98</v>
+      </c>
+      <c r="F82" t="s">
+        <v>99</v>
+      </c>
+      <c r="G82" t="s">
+        <v>178</v>
+      </c>
+      <c r="H82" t="s">
+        <v>206</v>
+      </c>
+      <c r="I82" t="s">
+        <v>157</v>
+      </c>
+      <c r="J82" t="s">
+        <v>103</v>
+      </c>
+      <c r="K82" t="s">
+        <v>104</v>
+      </c>
+      <c r="L82" t="s">
+        <v>105</v>
+      </c>
+      <c r="M82" t="s">
+        <v>106</v>
+      </c>
+      <c r="N82" t="s">
+        <v>104</v>
+      </c>
+      <c r="O82" t="s">
+        <v>1183</v>
+      </c>
+      <c r="P82" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>1184</v>
+      </c>
+      <c r="R82" t="s">
+        <v>110</v>
+      </c>
+      <c r="S82" t="s">
+        <v>179</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U82" t="s">
+        <v>1185</v>
+      </c>
+      <c r="V82" t="s">
+        <v>104</v>
+      </c>
+      <c r="W82" t="s">
+        <v>114</v>
+      </c>
+      <c r="X82" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ82" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK82" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>883</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN82" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AO82" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AP82" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AQ82" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AR82" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS82" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT82" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU82" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV82" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW82" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX82" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AY82" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ82" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA82" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB82" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC82" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD82" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE82" t="s">
+        <v>1191</v>
+      </c>
+      <c r="BF82" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG82" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH82" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI82" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ82" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK82" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL82" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM82" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN82" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO82" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP82" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ82" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR82" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS82" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT82" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU82" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV82" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW82" t="s">
+        <v>157</v>
+      </c>
+      <c r="BX82" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY82" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ82" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA82" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB82" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC82" t="s">
+        <v>1192</v>
+      </c>
+      <c r="CD82" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE82" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF82" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG82" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH82" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI82" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ82" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK82" t="s">
+        <v>1193</v>
+      </c>
+      <c r="CL82" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM82" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN82" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO82" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:94">
+      <c r="A83" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D83" t="s">
+        <v>157</v>
+      </c>
+      <c r="E83" t="s">
+        <v>98</v>
+      </c>
+      <c r="F83" t="s">
+        <v>99</v>
+      </c>
+      <c r="G83" t="s">
+        <v>324</v>
+      </c>
+      <c r="H83" t="s">
+        <v>206</v>
+      </c>
+      <c r="I83" t="s">
+        <v>157</v>
+      </c>
+      <c r="J83" t="s">
+        <v>103</v>
+      </c>
+      <c r="K83" t="s">
+        <v>104</v>
+      </c>
+      <c r="L83" t="s">
+        <v>105</v>
+      </c>
+      <c r="M83" t="s">
+        <v>106</v>
+      </c>
+      <c r="N83" t="s">
+        <v>104</v>
+      </c>
+      <c r="O83" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P83" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>1171</v>
+      </c>
+      <c r="R83" t="s">
+        <v>110</v>
+      </c>
+      <c r="S83" t="s">
+        <v>165</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U83" t="s">
+        <v>1197</v>
+      </c>
+      <c r="V83" t="s">
+        <v>104</v>
+      </c>
+      <c r="W83" t="s">
+        <v>114</v>
+      </c>
+      <c r="X83" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK83" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN83" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AP83" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AQ83" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AR83" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS83" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT83" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU83" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV83" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW83" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX83" t="s">
+        <v>1202</v>
+      </c>
+      <c r="AY83" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ83" t="s">
+        <v>670</v>
+      </c>
+      <c r="BA83" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB83" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC83" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD83" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE83" t="s">
+        <v>1203</v>
+      </c>
+      <c r="BF83" t="s">
+        <v>289</v>
+      </c>
+      <c r="BG83" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH83" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI83" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ83" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK83" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL83" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM83" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN83" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO83" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP83" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ83" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR83" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS83" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT83" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU83" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV83" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW83" t="s">
+        <v>157</v>
+      </c>
+      <c r="BX83" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY83" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ83" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA83" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB83" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC83" t="s">
+        <v>1204</v>
+      </c>
+      <c r="CD83" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE83" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF83" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG83" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH83" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI83" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ83" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK83" t="s">
+        <v>1205</v>
+      </c>
+      <c r="CL83" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM83" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN83" t="s">
+        <v>1204</v>
+      </c>
+      <c r="CO83" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:94">
+      <c r="A84" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D84" t="s">
+        <v>157</v>
+      </c>
+      <c r="E84" t="s">
+        <v>98</v>
+      </c>
+      <c r="F84" t="s">
+        <v>98</v>
+      </c>
+      <c r="G84" t="s">
+        <v>274</v>
+      </c>
+      <c r="H84" t="s">
+        <v>101</v>
+      </c>
+      <c r="I84" t="s">
+        <v>114</v>
+      </c>
+      <c r="J84" t="s">
+        <v>259</v>
+      </c>
+      <c r="K84" t="s">
+        <v>104</v>
+      </c>
+      <c r="L84" t="s">
+        <v>105</v>
+      </c>
+      <c r="M84" t="s">
+        <v>106</v>
+      </c>
+      <c r="N84" t="s">
+        <v>104</v>
+      </c>
+      <c r="O84" t="s">
+        <v>1183</v>
+      </c>
+      <c r="P84" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>1208</v>
+      </c>
+      <c r="R84" t="s">
+        <v>110</v>
+      </c>
+      <c r="S84" t="s">
+        <v>366</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U84" t="s">
+        <v>1142</v>
+      </c>
+      <c r="V84" t="s">
+        <v>104</v>
+      </c>
+      <c r="W84" t="s">
+        <v>114</v>
+      </c>
+      <c r="X84" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN84" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AO84" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AP84" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AQ84" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AR84" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AS84" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT84" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU84" t="s">
+        <v>560</v>
+      </c>
+      <c r="AV84" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AW84" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX84" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY84" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ84" t="s">
+        <v>1147</v>
+      </c>
+      <c r="BA84" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB84" t="s">
+        <v>1148</v>
+      </c>
+      <c r="BC84" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD84" t="s">
+        <v>563</v>
+      </c>
+      <c r="BE84" t="s">
+        <v>1211</v>
+      </c>
+      <c r="BF84" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG84" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH84" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI84" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BJ84" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK84" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL84" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM84" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN84" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO84" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP84" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ84" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR84" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS84" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT84" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU84" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV84" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW84" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX84" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY84" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ84" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA84" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB84" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC84" t="s">
+        <v>1212</v>
+      </c>
+      <c r="CD84" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE84" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF84" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG84" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH84" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI84" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ84" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK84" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL84" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM84" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN84" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO84" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:94">
       <c r="Z85" t="s">
         <v>1167</v>
       </c>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7888" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8639" uniqueCount="1254">
   <si>
     <t>Codice</t>
   </si>
@@ -3519,9 +3519,6 @@
     <t xml:space="preserve">Rifacimento giunto in borchia. Codice collaudo: tk202509290068725123 </t>
   </si>
   <si>
-    <t>#data esec. al 29/09</t>
-  </si>
-  <si>
     <t>TT1004874540</t>
   </si>
   <si>
@@ -3655,6 +3652,132 @@
   </si>
   <si>
     <t xml:space="preserve">eseguite prove di allineamento alla prima presa valori di linea ok modem utente si spegne e si riaccende da solo probabile alimentatore guasto occorre sostituzione modem codice collaudo tk202509300068760889 </t>
+  </si>
+  <si>
+    <t>TT1004879582</t>
+  </si>
+  <si>
+    <t>93357577</t>
+  </si>
+  <si>
+    <t>02/10/2025</t>
+  </si>
+  <si>
+    <t>02/10/2025 17:30</t>
+  </si>
+  <si>
+    <t>02/10/2025 18:00</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>26/09/2025 20:58</t>
+  </si>
+  <si>
+    <t>02/10/2025 17:26</t>
+  </si>
+  <si>
+    <t>30/09/2025 09:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rifatto puntali al box Codice Collaudo: tk202509300068762531 </t>
+  </si>
+  <si>
+    <t>TT1004882578</t>
+  </si>
+  <si>
+    <t>93378582</t>
+  </si>
+  <si>
+    <t>02/10/2025 15:30</t>
+  </si>
+  <si>
+    <t>02/10/2025 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025092790036096 </t>
+  </si>
+  <si>
+    <t>SWADW5041667375</t>
+  </si>
+  <si>
+    <t>093114743236</t>
+  </si>
+  <si>
+    <t>05/10/2025 23:00</t>
+  </si>
+  <si>
+    <t>30/09/2025 17:30</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riparato in armadio rifatta permuta testato con l'utente codice collaudo tk202509300068783522 </t>
+  </si>
+  <si>
+    <t>TT1004882965</t>
+  </si>
+  <si>
+    <t>93380627</t>
+  </si>
+  <si>
+    <t>02/10/2025 08:00</t>
+  </si>
+  <si>
+    <t>02/10/2025 09:00</t>
+  </si>
+  <si>
+    <t>30/09/2025 23:32</t>
+  </si>
+  <si>
+    <t>02/10/2025 10:05</t>
+  </si>
+  <si>
+    <t>01/10/2025 11:12</t>
+  </si>
+  <si>
+    <t>30/09/2025 19:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato in armadio riciclaggio permuta su blocchetto di secondaria, inoltre si riscontra box con buono ma degradato al box codice collaudo tk202509300068785567 </t>
+  </si>
+  <si>
+    <t>TT1004883035</t>
+  </si>
+  <si>
+    <t>93380953</t>
+  </si>
+  <si>
+    <t>01/10/2025</t>
+  </si>
+  <si>
+    <t>01/10/2025 17:00</t>
+  </si>
+  <si>
+    <t>01/10/2025 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025093090570389 </t>
+  </si>
+  <si>
+    <t>SWADW5041681995</t>
+  </si>
+  <si>
+    <t>093114742490</t>
+  </si>
+  <si>
+    <t>02/10/2025 01:56</t>
+  </si>
+  <si>
+    <t>01/10/2025 17:07</t>
+  </si>
+  <si>
+    <t>30/09/2025 19:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trattasi di modem guasto, sostituzione di competenza del gestore, Codice collaudo: tk202509300068785893 </t>
   </si>
 </sst>
 </file>
@@ -4007,10 +4130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP85"/>
+  <dimension ref="A1:CP92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R55" workbookViewId="0">
-      <selection activeCell="T86" sqref="T86"/>
+    <sheetView tabSelected="1" topLeftCell="Q55" workbookViewId="0">
+      <selection activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26742,13 +26865,13 @@
     </row>
     <row r="81" spans="1:94">
       <c r="A81" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B81" t="s">
         <v>1168</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>1169</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1170</v>
       </c>
       <c r="D81" t="s">
         <v>97</v>
@@ -26784,13 +26907,13 @@
         <v>104</v>
       </c>
       <c r="O81" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="P81" t="s">
         <v>108</v>
       </c>
       <c r="Q81" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="R81" t="s">
         <v>110</v>
@@ -26802,7 +26925,7 @@
         <v>262</v>
       </c>
       <c r="U81" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="V81" t="s">
         <v>104</v>
@@ -26859,19 +26982,19 @@
         <v>108</v>
       </c>
       <c r="AN81" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AO81" t="s">
         <v>1174</v>
       </c>
-      <c r="AO81" t="s">
+      <c r="AP81" t="s">
         <v>1175</v>
       </c>
-      <c r="AP81" t="s">
+      <c r="AQ81" t="s">
         <v>1176</v>
       </c>
-      <c r="AQ81" t="s">
-        <v>1177</v>
-      </c>
       <c r="AR81" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AS81" t="s">
         <v>331</v>
@@ -26910,7 +27033,7 @@
         <v>104</v>
       </c>
       <c r="BE81" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="BF81" t="s">
         <v>104</v>
@@ -26970,19 +27093,19 @@
         <v>104</v>
       </c>
       <c r="BY81" t="s">
+        <v>1178</v>
+      </c>
+      <c r="BZ81" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA81" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB81" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC81" t="s">
         <v>1179</v>
-      </c>
-      <c r="BZ81" t="s">
-        <v>104</v>
-      </c>
-      <c r="CA81" t="s">
-        <v>104</v>
-      </c>
-      <c r="CB81" t="s">
-        <v>104</v>
-      </c>
-      <c r="CC81" t="s">
-        <v>1180</v>
       </c>
       <c r="CD81" t="s">
         <v>99</v>
@@ -27026,13 +27149,13 @@
     </row>
     <row r="82" spans="1:94">
       <c r="A82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B82" t="s">
         <v>1181</v>
       </c>
-      <c r="B82" t="s">
-        <v>1182</v>
-      </c>
       <c r="C82" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D82" t="s">
         <v>97</v>
@@ -27068,13 +27191,13 @@
         <v>104</v>
       </c>
       <c r="O82" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="P82" t="s">
         <v>108</v>
       </c>
       <c r="Q82" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="R82" t="s">
         <v>110</v>
@@ -27086,7 +27209,7 @@
         <v>227</v>
       </c>
       <c r="U82" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="V82" t="s">
         <v>104</v>
@@ -27143,16 +27266,16 @@
         <v>108</v>
       </c>
       <c r="AN82" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AO82" t="s">
         <v>1186</v>
       </c>
-      <c r="AO82" t="s">
+      <c r="AP82" t="s">
         <v>1187</v>
       </c>
-      <c r="AP82" t="s">
+      <c r="AQ82" t="s">
         <v>1188</v>
-      </c>
-      <c r="AQ82" t="s">
-        <v>1189</v>
       </c>
       <c r="AR82" t="s">
         <v>104</v>
@@ -27173,7 +27296,7 @@
         <v>217</v>
       </c>
       <c r="AX82" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AY82" t="s">
         <v>104</v>
@@ -27194,7 +27317,7 @@
         <v>221</v>
       </c>
       <c r="BE82" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="BF82" t="s">
         <v>230</v>
@@ -27266,7 +27389,7 @@
         <v>104</v>
       </c>
       <c r="CC82" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="CD82" t="s">
         <v>99</v>
@@ -27290,7 +27413,7 @@
         <v>114</v>
       </c>
       <c r="CK82" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="CL82" t="s">
         <v>104</v>
@@ -27310,13 +27433,13 @@
     </row>
     <row r="83" spans="1:94">
       <c r="A83" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B83" t="s">
         <v>1194</v>
       </c>
-      <c r="B83" t="s">
-        <v>1195</v>
-      </c>
       <c r="C83" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D83" t="s">
         <v>157</v>
@@ -27352,13 +27475,13 @@
         <v>104</v>
       </c>
       <c r="O83" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="P83" t="s">
         <v>108</v>
       </c>
       <c r="Q83" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="R83" t="s">
         <v>110</v>
@@ -27370,7 +27493,7 @@
         <v>227</v>
       </c>
       <c r="U83" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="V83" t="s">
         <v>104</v>
@@ -27427,16 +27550,16 @@
         <v>108</v>
       </c>
       <c r="AN83" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AO83" t="s">
         <v>1198</v>
       </c>
-      <c r="AO83" t="s">
+      <c r="AP83" t="s">
         <v>1199</v>
       </c>
-      <c r="AP83" t="s">
+      <c r="AQ83" t="s">
         <v>1200</v>
-      </c>
-      <c r="AQ83" t="s">
-        <v>1201</v>
       </c>
       <c r="AR83" t="s">
         <v>104</v>
@@ -27457,7 +27580,7 @@
         <v>217</v>
       </c>
       <c r="AX83" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AY83" t="s">
         <v>104</v>
@@ -27478,7 +27601,7 @@
         <v>221</v>
       </c>
       <c r="BE83" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="BF83" t="s">
         <v>289</v>
@@ -27550,7 +27673,7 @@
         <v>104</v>
       </c>
       <c r="CC83" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="CD83" t="s">
         <v>99</v>
@@ -27574,7 +27697,7 @@
         <v>114</v>
       </c>
       <c r="CK83" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="CL83" t="s">
         <v>104</v>
@@ -27583,7 +27706,7 @@
         <v>104</v>
       </c>
       <c r="CN83" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="CO83" t="s">
         <v>104</v>
@@ -27594,13 +27717,13 @@
     </row>
     <row r="84" spans="1:94">
       <c r="A84" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B84" t="s">
         <v>1206</v>
       </c>
-      <c r="B84" t="s">
-        <v>1207</v>
-      </c>
       <c r="C84" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D84" t="s">
         <v>157</v>
@@ -27636,13 +27759,13 @@
         <v>104</v>
       </c>
       <c r="O84" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="P84" t="s">
         <v>108</v>
       </c>
       <c r="Q84" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="R84" t="s">
         <v>110</v>
@@ -27714,13 +27837,13 @@
         <v>1143</v>
       </c>
       <c r="AO84" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AP84" t="s">
         <v>1144</v>
       </c>
       <c r="AQ84" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AR84" t="s">
         <v>1144</v>
@@ -27762,7 +27885,7 @@
         <v>563</v>
       </c>
       <c r="BE84" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="BF84" t="s">
         <v>97</v>
@@ -27834,7 +27957,7 @@
         <v>104</v>
       </c>
       <c r="CC84" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="CD84" t="s">
         <v>99</v>
@@ -27877,8 +28000,2275 @@
       </c>
     </row>
     <row r="85" spans="1:94">
+      <c r="A85" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D85" t="s">
+        <v>97</v>
+      </c>
+      <c r="E85" t="s">
+        <v>98</v>
+      </c>
+      <c r="F85" t="s">
+        <v>99</v>
+      </c>
+      <c r="G85" t="s">
+        <v>324</v>
+      </c>
+      <c r="H85" t="s">
+        <v>101</v>
+      </c>
+      <c r="I85" t="s">
+        <v>114</v>
+      </c>
+      <c r="J85" t="s">
+        <v>259</v>
+      </c>
+      <c r="K85" t="s">
+        <v>104</v>
+      </c>
+      <c r="L85" t="s">
+        <v>105</v>
+      </c>
+      <c r="M85" t="s">
+        <v>106</v>
+      </c>
+      <c r="N85" t="s">
+        <v>104</v>
+      </c>
+      <c r="O85" t="s">
+        <v>1170</v>
+      </c>
+      <c r="P85" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>1171</v>
+      </c>
+      <c r="R85" t="s">
+        <v>110</v>
+      </c>
+      <c r="S85" t="s">
+        <v>165</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U85" t="s">
+        <v>1172</v>
+      </c>
+      <c r="V85" t="s">
+        <v>104</v>
+      </c>
+      <c r="W85" t="s">
+        <v>114</v>
+      </c>
+      <c r="X85" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>104</v>
+      </c>
       <c r="Z85" t="s">
-        <v>1167</v>
+        <v>104</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK85" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL85" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN85" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AO85" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AP85" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AQ85" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AR85" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AS85" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT85" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU85" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV85" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW85" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX85" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY85" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ85" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA85" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB85" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC85" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD85" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE85" t="s">
+        <v>1177</v>
+      </c>
+      <c r="BF85" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG85" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH85" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI85" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ85" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK85" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL85" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM85" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN85" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO85" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP85" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ85" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR85" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS85" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT85" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU85" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV85" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW85" t="s">
+        <v>386</v>
+      </c>
+      <c r="BX85" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY85" t="s">
+        <v>1178</v>
+      </c>
+      <c r="BZ85" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA85" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB85" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC85" t="s">
+        <v>1179</v>
+      </c>
+      <c r="CD85" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE85" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF85" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG85" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH85" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI85" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ85" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK85" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL85" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM85" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN85" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO85" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:94">
+      <c r="A86" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D86" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86" t="s">
+        <v>178</v>
+      </c>
+      <c r="H86" t="s">
+        <v>206</v>
+      </c>
+      <c r="I86" t="s">
+        <v>157</v>
+      </c>
+      <c r="J86" t="s">
+        <v>103</v>
+      </c>
+      <c r="K86" t="s">
+        <v>104</v>
+      </c>
+      <c r="L86" t="s">
+        <v>105</v>
+      </c>
+      <c r="M86" t="s">
+        <v>106</v>
+      </c>
+      <c r="N86" t="s">
+        <v>104</v>
+      </c>
+      <c r="O86" t="s">
+        <v>1182</v>
+      </c>
+      <c r="P86" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>1183</v>
+      </c>
+      <c r="R86" t="s">
+        <v>110</v>
+      </c>
+      <c r="S86" t="s">
+        <v>179</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U86" t="s">
+        <v>1184</v>
+      </c>
+      <c r="V86" t="s">
+        <v>104</v>
+      </c>
+      <c r="W86" t="s">
+        <v>114</v>
+      </c>
+      <c r="X86" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF86" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ86" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK86" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL86" t="s">
+        <v>883</v>
+      </c>
+      <c r="AM86" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN86" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AO86" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AP86" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AQ86" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AR86" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS86" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT86" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU86" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV86" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW86" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX86" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AY86" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ86" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA86" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB86" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC86" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD86" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE86" t="s">
+        <v>1190</v>
+      </c>
+      <c r="BF86" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG86" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH86" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI86" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ86" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK86" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL86" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM86" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN86" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO86" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP86" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ86" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR86" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS86" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT86" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU86" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV86" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW86" t="s">
+        <v>157</v>
+      </c>
+      <c r="BX86" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY86" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ86" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA86" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB86" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC86" t="s">
+        <v>1191</v>
+      </c>
+      <c r="CD86" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE86" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF86" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG86" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH86" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI86" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ86" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK86" t="s">
+        <v>1192</v>
+      </c>
+      <c r="CL86" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM86" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN86" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO86" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:94">
+      <c r="A87" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D87" t="s">
+        <v>157</v>
+      </c>
+      <c r="E87" t="s">
+        <v>98</v>
+      </c>
+      <c r="F87" t="s">
+        <v>99</v>
+      </c>
+      <c r="G87" t="s">
+        <v>324</v>
+      </c>
+      <c r="H87" t="s">
+        <v>206</v>
+      </c>
+      <c r="I87" t="s">
+        <v>157</v>
+      </c>
+      <c r="J87" t="s">
+        <v>103</v>
+      </c>
+      <c r="K87" t="s">
+        <v>104</v>
+      </c>
+      <c r="L87" t="s">
+        <v>105</v>
+      </c>
+      <c r="M87" t="s">
+        <v>106</v>
+      </c>
+      <c r="N87" t="s">
+        <v>104</v>
+      </c>
+      <c r="O87" t="s">
+        <v>1195</v>
+      </c>
+      <c r="P87" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>1170</v>
+      </c>
+      <c r="R87" t="s">
+        <v>110</v>
+      </c>
+      <c r="S87" t="s">
+        <v>165</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U87" t="s">
+        <v>1196</v>
+      </c>
+      <c r="V87" t="s">
+        <v>104</v>
+      </c>
+      <c r="W87" t="s">
+        <v>114</v>
+      </c>
+      <c r="X87" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD87" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL87" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM87" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN87" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AO87" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AP87" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AQ87" t="s">
+        <v>1200</v>
+      </c>
+      <c r="AR87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS87" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT87" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU87" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV87" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW87" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX87" t="s">
+        <v>1201</v>
+      </c>
+      <c r="AY87" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ87" t="s">
+        <v>670</v>
+      </c>
+      <c r="BA87" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB87" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC87" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD87" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE87" t="s">
+        <v>1202</v>
+      </c>
+      <c r="BF87" t="s">
+        <v>289</v>
+      </c>
+      <c r="BG87" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH87" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI87" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ87" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK87" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL87" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM87" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN87" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO87" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP87" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ87" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR87" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS87" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT87" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU87" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV87" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW87" t="s">
+        <v>157</v>
+      </c>
+      <c r="BX87" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY87" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ87" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA87" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB87" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC87" t="s">
+        <v>1203</v>
+      </c>
+      <c r="CD87" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE87" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF87" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG87" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH87" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI87" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ87" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK87" t="s">
+        <v>1204</v>
+      </c>
+      <c r="CL87" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM87" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN87" t="s">
+        <v>1203</v>
+      </c>
+      <c r="CO87" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:94">
+      <c r="A88" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D88" t="s">
+        <v>157</v>
+      </c>
+      <c r="E88" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88" t="s">
+        <v>98</v>
+      </c>
+      <c r="G88" t="s">
+        <v>274</v>
+      </c>
+      <c r="H88" t="s">
+        <v>101</v>
+      </c>
+      <c r="I88" t="s">
+        <v>114</v>
+      </c>
+      <c r="J88" t="s">
+        <v>259</v>
+      </c>
+      <c r="K88" t="s">
+        <v>104</v>
+      </c>
+      <c r="L88" t="s">
+        <v>105</v>
+      </c>
+      <c r="M88" t="s">
+        <v>106</v>
+      </c>
+      <c r="N88" t="s">
+        <v>104</v>
+      </c>
+      <c r="O88" t="s">
+        <v>1182</v>
+      </c>
+      <c r="P88" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>1207</v>
+      </c>
+      <c r="R88" t="s">
+        <v>110</v>
+      </c>
+      <c r="S88" t="s">
+        <v>366</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U88" t="s">
+        <v>1142</v>
+      </c>
+      <c r="V88" t="s">
+        <v>104</v>
+      </c>
+      <c r="W88" t="s">
+        <v>114</v>
+      </c>
+      <c r="X88" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL88" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM88" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN88" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AO88" t="s">
+        <v>1208</v>
+      </c>
+      <c r="AP88" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AQ88" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AR88" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AS88" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT88" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU88" t="s">
+        <v>560</v>
+      </c>
+      <c r="AV88" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AW88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ88" t="s">
+        <v>1147</v>
+      </c>
+      <c r="BA88" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB88" t="s">
+        <v>1148</v>
+      </c>
+      <c r="BC88" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD88" t="s">
+        <v>563</v>
+      </c>
+      <c r="BE88" t="s">
+        <v>1210</v>
+      </c>
+      <c r="BF88" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG88" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH88" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI88" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BJ88" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK88" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL88" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM88" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN88" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO88" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP88" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ88" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR88" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS88" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT88" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU88" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV88" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW88" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX88" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY88" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ88" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA88" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB88" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC88" t="s">
+        <v>1211</v>
+      </c>
+      <c r="CD88" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE88" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF88" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG88" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH88" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI88" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ88" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK88" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL88" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM88" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN88" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO88" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP88" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:94">
+      <c r="A89" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D89" t="s">
+        <v>97</v>
+      </c>
+      <c r="E89" t="s">
+        <v>98</v>
+      </c>
+      <c r="F89" t="s">
+        <v>99</v>
+      </c>
+      <c r="G89" t="s">
+        <v>324</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I89" t="s">
+        <v>114</v>
+      </c>
+      <c r="J89" t="s">
+        <v>259</v>
+      </c>
+      <c r="K89" t="s">
+        <v>104</v>
+      </c>
+      <c r="L89" t="s">
+        <v>105</v>
+      </c>
+      <c r="M89" t="s">
+        <v>106</v>
+      </c>
+      <c r="N89" t="s">
+        <v>104</v>
+      </c>
+      <c r="O89" t="s">
+        <v>1215</v>
+      </c>
+      <c r="P89" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>1216</v>
+      </c>
+      <c r="R89" t="s">
+        <v>110</v>
+      </c>
+      <c r="S89" t="s">
+        <v>536</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U89" t="s">
+        <v>1030</v>
+      </c>
+      <c r="V89" t="s">
+        <v>104</v>
+      </c>
+      <c r="W89" t="s">
+        <v>114</v>
+      </c>
+      <c r="X89" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF89" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ89" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL89" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AM89" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN89" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AO89" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AP89" t="s">
+        <v>1218</v>
+      </c>
+      <c r="AQ89" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AR89" t="s">
+        <v>1218</v>
+      </c>
+      <c r="AS89" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT89" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY89" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ89" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA89" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB89" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC89" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD89" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE89" t="s">
+        <v>1220</v>
+      </c>
+      <c r="BF89" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG89" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH89" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI89" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ89" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK89" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL89" t="s">
+        <v>1033</v>
+      </c>
+      <c r="BM89" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN89" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO89" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP89" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ89" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR89" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS89" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT89" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU89" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV89" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW89" t="s">
+        <v>210</v>
+      </c>
+      <c r="BX89" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY89" t="s">
+        <v>1034</v>
+      </c>
+      <c r="BZ89" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA89" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB89" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC89" t="s">
+        <v>1221</v>
+      </c>
+      <c r="CD89" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE89" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF89" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG89" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH89" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI89" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ89" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK89" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL89" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM89" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN89" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO89" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP89" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:94">
+      <c r="A90" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D90" t="s">
+        <v>97</v>
+      </c>
+      <c r="E90" t="s">
+        <v>98</v>
+      </c>
+      <c r="F90" t="s">
+        <v>99</v>
+      </c>
+      <c r="G90" t="s">
+        <v>258</v>
+      </c>
+      <c r="H90" t="s">
+        <v>206</v>
+      </c>
+      <c r="I90" t="s">
+        <v>114</v>
+      </c>
+      <c r="J90" t="s">
+        <v>259</v>
+      </c>
+      <c r="K90" t="s">
+        <v>104</v>
+      </c>
+      <c r="L90" t="s">
+        <v>105</v>
+      </c>
+      <c r="M90" t="s">
+        <v>106</v>
+      </c>
+      <c r="N90" t="s">
+        <v>104</v>
+      </c>
+      <c r="O90" t="s">
+        <v>1224</v>
+      </c>
+      <c r="P90" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R90" t="s">
+        <v>110</v>
+      </c>
+      <c r="S90" t="s">
+        <v>366</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U90" t="s">
+        <v>1226</v>
+      </c>
+      <c r="V90" t="s">
+        <v>104</v>
+      </c>
+      <c r="W90" t="s">
+        <v>114</v>
+      </c>
+      <c r="X90" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF90" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ90" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK90" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL90" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM90" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN90" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AO90" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AP90" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AQ90" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AR90" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AS90" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT90" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU90" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV90" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW90" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX90" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY90" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ90" t="s">
+        <v>479</v>
+      </c>
+      <c r="BA90" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB90" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC90" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD90" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE90" t="s">
+        <v>1230</v>
+      </c>
+      <c r="BF90" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG90" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH90" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI90" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ90" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK90" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL90" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM90" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN90" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO90" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP90" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ90" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR90" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS90" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT90" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU90" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV90" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW90" t="s">
+        <v>1231</v>
+      </c>
+      <c r="BX90" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY90" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ90" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA90" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB90" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC90" t="s">
+        <v>1232</v>
+      </c>
+      <c r="CD90" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE90" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF90" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG90" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH90" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI90" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ90" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK90" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL90" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM90" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN90" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO90" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP90" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:94">
+      <c r="A91" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D91" t="s">
+        <v>97</v>
+      </c>
+      <c r="E91" t="s">
+        <v>98</v>
+      </c>
+      <c r="F91" t="s">
+        <v>99</v>
+      </c>
+      <c r="G91" t="s">
+        <v>178</v>
+      </c>
+      <c r="H91" t="s">
+        <v>206</v>
+      </c>
+      <c r="I91" t="s">
+        <v>241</v>
+      </c>
+      <c r="J91" t="s">
+        <v>103</v>
+      </c>
+      <c r="K91" t="s">
+        <v>104</v>
+      </c>
+      <c r="L91" t="s">
+        <v>105</v>
+      </c>
+      <c r="M91" t="s">
+        <v>106</v>
+      </c>
+      <c r="N91" t="s">
+        <v>104</v>
+      </c>
+      <c r="O91" t="s">
+        <v>1235</v>
+      </c>
+      <c r="P91" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>1236</v>
+      </c>
+      <c r="R91" t="s">
+        <v>110</v>
+      </c>
+      <c r="S91" t="s">
+        <v>165</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U91" t="s">
+        <v>1184</v>
+      </c>
+      <c r="V91" t="s">
+        <v>104</v>
+      </c>
+      <c r="W91" t="s">
+        <v>114</v>
+      </c>
+      <c r="X91" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH91" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ91" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK91" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL91" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN91" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AO91" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AP91" t="s">
+        <v>1237</v>
+      </c>
+      <c r="AQ91" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AR91" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS91" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT91" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU91" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV91" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW91" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX91" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AY91" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ91" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA91" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB91" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC91" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD91" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE91" t="s">
+        <v>1240</v>
+      </c>
+      <c r="BF91" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG91" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH91" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI91" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ91" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK91" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL91" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM91" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN91" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO91" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP91" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ91" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR91" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS91" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT91" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU91" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV91" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW91" t="s">
+        <v>241</v>
+      </c>
+      <c r="BX91" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY91" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ91" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA91" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB91" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC91" t="s">
+        <v>1241</v>
+      </c>
+      <c r="CD91" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE91" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF91" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG91" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH91" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI91" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ91" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK91" t="s">
+        <v>1192</v>
+      </c>
+      <c r="CL91" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM91" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN91" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO91" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP91" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:94">
+      <c r="A92" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D92" t="s">
+        <v>157</v>
+      </c>
+      <c r="E92" t="s">
+        <v>98</v>
+      </c>
+      <c r="F92" t="s">
+        <v>98</v>
+      </c>
+      <c r="G92" t="s">
+        <v>274</v>
+      </c>
+      <c r="H92" t="s">
+        <v>683</v>
+      </c>
+      <c r="I92" t="s">
+        <v>114</v>
+      </c>
+      <c r="J92" t="s">
+        <v>259</v>
+      </c>
+      <c r="K92" t="s">
+        <v>104</v>
+      </c>
+      <c r="L92" t="s">
+        <v>105</v>
+      </c>
+      <c r="M92" t="s">
+        <v>106</v>
+      </c>
+      <c r="N92" t="s">
+        <v>104</v>
+      </c>
+      <c r="O92" t="s">
+        <v>1245</v>
+      </c>
+      <c r="P92" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>1246</v>
+      </c>
+      <c r="R92" t="s">
+        <v>110</v>
+      </c>
+      <c r="S92" t="s">
+        <v>235</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U92" t="s">
+        <v>1247</v>
+      </c>
+      <c r="V92" t="s">
+        <v>104</v>
+      </c>
+      <c r="W92" t="s">
+        <v>114</v>
+      </c>
+      <c r="X92" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD92" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF92" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH92" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ92" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK92" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL92" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM92" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN92" t="s">
+        <v>1248</v>
+      </c>
+      <c r="AO92" t="s">
+        <v>1249</v>
+      </c>
+      <c r="AP92" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AQ92" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AR92" t="s">
+        <v>1250</v>
+      </c>
+      <c r="AS92" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT92" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU92" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV92" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW92" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX92" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY92" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ92" t="s">
+        <v>691</v>
+      </c>
+      <c r="BA92" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB92" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC92" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD92" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE92" t="s">
+        <v>1252</v>
+      </c>
+      <c r="BF92" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG92" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH92" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI92" t="s">
+        <v>1114</v>
+      </c>
+      <c r="BJ92" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK92" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL92" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM92" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN92" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO92" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP92" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ92" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR92" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS92" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT92" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU92" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV92" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW92" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX92" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY92" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ92" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA92" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB92" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC92" t="s">
+        <v>1253</v>
+      </c>
+      <c r="CD92" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE92" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF92" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG92" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH92" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI92" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ92" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK92" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL92" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM92" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN92" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO92" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP92" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8639" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10509" uniqueCount="1490">
   <si>
     <t>Codice</t>
   </si>
@@ -3778,6 +3778,714 @@
   </si>
   <si>
     <t xml:space="preserve">trattasi di modem guasto, sostituzione di competenza del gestore, Codice collaudo: tk202509300068785893 </t>
+  </si>
+  <si>
+    <t>TT1004881099</t>
+  </si>
+  <si>
+    <t>93368383</t>
+  </si>
+  <si>
+    <t>06/10/2025</t>
+  </si>
+  <si>
+    <t>MARZAMEMI</t>
+  </si>
+  <si>
+    <t>CRFWROU---</t>
+  </si>
+  <si>
+    <t>01/10/2025 11:30</t>
+  </si>
+  <si>
+    <t>01/10/2025 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTONIO GAROFALO </t>
+  </si>
+  <si>
+    <t>FWB001032840608</t>
+  </si>
+  <si>
+    <t>0931972821</t>
+  </si>
+  <si>
+    <t>01/10/2025 04:31</t>
+  </si>
+  <si>
+    <t>06/10/2025 14:37</t>
+  </si>
+  <si>
+    <t>93103G</t>
+  </si>
+  <si>
+    <t>FWA_WILL_PROBLEMI SUL PRODOTTO</t>
+  </si>
+  <si>
+    <t>30/09/2025 13:32</t>
+  </si>
+  <si>
+    <t>93012854</t>
+  </si>
+  <si>
+    <t>FWA</t>
+  </si>
+  <si>
+    <t>FWB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sostituito kit fwa Codice collaudo: tk202510030068892478 </t>
+  </si>
+  <si>
+    <t>TT1004910276</t>
+  </si>
+  <si>
+    <t>93551506</t>
+  </si>
+  <si>
+    <t>09/10/2025</t>
+  </si>
+  <si>
+    <t>09/10/2025 11:00</t>
+  </si>
+  <si>
+    <t>09/10/2025 11:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025100691724569 </t>
+  </si>
+  <si>
+    <t>SWADW5041714540</t>
+  </si>
+  <si>
+    <t>093114723782</t>
+  </si>
+  <si>
+    <t>13/10/2025 17:31</t>
+  </si>
+  <si>
+    <t>09/10/2025 11:41</t>
+  </si>
+  <si>
+    <t>07/10/2025 19:40</t>
+  </si>
+  <si>
+    <t>06/10/2025 18:40</t>
+  </si>
+  <si>
+    <t>93085210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sostituita prima presa eseguita prova in sede utente codice collaudo:tk202510060068956378 certificato su oracle </t>
+  </si>
+  <si>
+    <t>TT1004912679</t>
+  </si>
+  <si>
+    <t>93568381</t>
+  </si>
+  <si>
+    <t>08/10/2025</t>
+  </si>
+  <si>
+    <t>08/10/2025 19:00</t>
+  </si>
+  <si>
+    <t>08/10/2025 19:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025100791868502 </t>
+  </si>
+  <si>
+    <t>SWADW5041718167</t>
+  </si>
+  <si>
+    <t>08/10/2025 12:01</t>
+  </si>
+  <si>
+    <t>08/10/2025 12:00</t>
+  </si>
+  <si>
+    <t>07/10/2025 12:04</t>
+  </si>
+  <si>
+    <t>92731903</t>
+  </si>
+  <si>
+    <t>@roditori Riparato al Roe rifacimento giunto codice collaudo tk202510070068973248</t>
+  </si>
+  <si>
+    <t>TT1004913541</t>
+  </si>
+  <si>
+    <t>93574621</t>
+  </si>
+  <si>
+    <t>08/10/2025 17:30</t>
+  </si>
+  <si>
+    <t>08/10/2025 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025100290989020 </t>
+  </si>
+  <si>
+    <t>SWADW5041693634</t>
+  </si>
+  <si>
+    <t>03/10/2025 15:40</t>
+  </si>
+  <si>
+    <t>08/10/2025 17:14</t>
+  </si>
+  <si>
+    <t>08/10/2025 09:14</t>
+  </si>
+  <si>
+    <t>07/10/2025 14:14</t>
+  </si>
+  <si>
+    <t>92992619</t>
+  </si>
+  <si>
+    <t>Rifatti puntali ossidati al box eseguita prova telefonica Codice collaudo: tk202510070068979486</t>
+  </si>
+  <si>
+    <t>TT1004895070</t>
+  </si>
+  <si>
+    <t>93457773</t>
+  </si>
+  <si>
+    <t>03/10/2025</t>
+  </si>
+  <si>
+    <t>03/10/2025 13:00</t>
+  </si>
+  <si>
+    <t>03/10/2025 13:30</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>03/10/2025 12:39</t>
+  </si>
+  <si>
+    <t>02/10/2025 19:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eseguito cambio porta secondo da porta 8 a 4 del box 44. Codice collaudo: tk202510020068862682 </t>
+  </si>
+  <si>
+    <t>TT1004897175</t>
+  </si>
+  <si>
+    <t>93471189</t>
+  </si>
+  <si>
+    <t>08/10/2025 14:00</t>
+  </si>
+  <si>
+    <t>08/10/2025 14:30</t>
+  </si>
+  <si>
+    <t>06/10/2025 16:15</t>
+  </si>
+  <si>
+    <t>08/10/2025 14:47</t>
+  </si>
+  <si>
+    <t>03/10/2025 11:04</t>
+  </si>
+  <si>
+    <t>eseguito cambio porta vdsl zona 1.17 vecchia porta c2-41 nuova c2-1 testato con l'utente codice collaudo tk202510030068876095</t>
+  </si>
+  <si>
+    <t>TT1004898084</t>
+  </si>
+  <si>
+    <t>93477026</t>
+  </si>
+  <si>
+    <t>04/10/2025</t>
+  </si>
+  <si>
+    <t>04/10/2025 09:30</t>
+  </si>
+  <si>
+    <t>04/10/2025 10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025100190839198 </t>
+  </si>
+  <si>
+    <t>SWADW5041689550</t>
+  </si>
+  <si>
+    <t>09/10/2025 16:53</t>
+  </si>
+  <si>
+    <t>04/10/2025 09:32</t>
+  </si>
+  <si>
+    <t>03/10/2025 00:36</t>
+  </si>
+  <si>
+    <t>03/10/2025 12:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non riscontrato Codice collaudo: tk202510030068881930 </t>
+  </si>
+  <si>
+    <t>TT1004898935</t>
+  </si>
+  <si>
+    <t>93482769</t>
+  </si>
+  <si>
+    <t>CRADLINAP-</t>
+  </si>
+  <si>
+    <t>04/10/2025 15:30</t>
+  </si>
+  <si>
+    <t>04/10/2025 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEBASTIANO ROSSITTO </t>
+  </si>
+  <si>
+    <t>CRR001033312287</t>
+  </si>
+  <si>
+    <t>0931781930</t>
+  </si>
+  <si>
+    <t>04/10/2025 23:59</t>
+  </si>
+  <si>
+    <t>04/10/2025 16:24</t>
+  </si>
+  <si>
+    <t>03/10/2025 14:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si riscontra guasto di cavo di primaria zona8.35  primaria e10 e9 e11 e 12. </t>
+  </si>
+  <si>
+    <t>TT1004900347</t>
+  </si>
+  <si>
+    <t>93491355</t>
+  </si>
+  <si>
+    <t>07/10/2025</t>
+  </si>
+  <si>
+    <t>07/10/2025 15:30</t>
+  </si>
+  <si>
+    <t>07/10/2025 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025100391235713 </t>
+  </si>
+  <si>
+    <t>07/10/2025 00:00</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>SWADW5041701562</t>
+  </si>
+  <si>
+    <t>15/10/2025 00:00</t>
+  </si>
+  <si>
+    <t>07/10/2025 14:47</t>
+  </si>
+  <si>
+    <t>06/10/2025 01:42</t>
+  </si>
+  <si>
+    <t>OPI2268AKT</t>
+  </si>
+  <si>
+    <t>03/10/2025 17:32</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appuntamento per il 07/10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sostituita fibra fatte prove con l'utente Codice collaudo: tk202510030068896245 </t>
+  </si>
+  <si>
+    <t>TT1004900387</t>
+  </si>
+  <si>
+    <t>93491547</t>
+  </si>
+  <si>
+    <t>04/10/2025 14:30</t>
+  </si>
+  <si>
+    <t>04/10/2025 15:00</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>04/10/2025 14:32</t>
+  </si>
+  <si>
+    <t>04/10/2025 19:02</t>
+  </si>
+  <si>
+    <t>03/10/2025 17:40</t>
+  </si>
+  <si>
+    <t>Il cliente non ha fatto nessuna segnalazione dall ultimo intervento. Linea prettamente funzionante. Non riscontrato Codice collaudo: tk202510030068896437 supporto non risponde per certifica</t>
+  </si>
+  <si>
+    <t>TT1004901421</t>
+  </si>
+  <si>
+    <t>93496555</t>
+  </si>
+  <si>
+    <t>08/10/2025 08:00</t>
+  </si>
+  <si>
+    <t>08/10/2025 09:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025100391273688 </t>
+  </si>
+  <si>
+    <t>SWADW5041702628</t>
+  </si>
+  <si>
+    <t>10/10/2025 20:44</t>
+  </si>
+  <si>
+    <t>08/10/2025 15:07</t>
+  </si>
+  <si>
+    <t>05/10/2025 21:56</t>
+  </si>
+  <si>
+    <t>03/10/2025 21:56</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202510030068901442 Rifatti puntali ossidati al box eseguita allineamento stabilità servizi ok</t>
+  </si>
+  <si>
+    <t>TT1004904859</t>
+  </si>
+  <si>
+    <t>93516022</t>
+  </si>
+  <si>
+    <t>07/10/2025 12:30</t>
+  </si>
+  <si>
+    <t>07/10/2025 13:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025100391209979 </t>
+  </si>
+  <si>
+    <t>SWADW5041700809</t>
+  </si>
+  <si>
+    <t>093114733933</t>
+  </si>
+  <si>
+    <t>11/10/2025 20:47</t>
+  </si>
+  <si>
+    <t>07/10/2025 15:42</t>
+  </si>
+  <si>
+    <t>05/10/2025 16:40</t>
+  </si>
+  <si>
+    <t>05/10/2025 16:00</t>
+  </si>
+  <si>
+    <t>Non riscontrato Codice collaudo: tk202510050068920905</t>
+  </si>
+  <si>
+    <t>TT1004906660</t>
+  </si>
+  <si>
+    <t>93527362</t>
+  </si>
+  <si>
+    <t>CRRGLININ-</t>
+  </si>
+  <si>
+    <t>08/10/2025 09:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEBASTIANA CAPODICASA </t>
+  </si>
+  <si>
+    <t>17/10/2025 00:00</t>
+  </si>
+  <si>
+    <t>CRR000103106060</t>
+  </si>
+  <si>
+    <t>0931717347</t>
+  </si>
+  <si>
+    <t>08/10/2025 09:58</t>
+  </si>
+  <si>
+    <t>07/10/2025 23:59</t>
+  </si>
+  <si>
+    <t>06/10/2025 10:56</t>
+  </si>
+  <si>
+    <t>ATT.CLIENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLIENTE IRREPERIBILE AI RECAPITI ASSENTE ALL'INDIRIZZO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">eseguito cambio porta Rtg nuove posizioni M4-L2-10 testato con l'utente codice collaudo tk202510060068932241 </t>
+  </si>
+  <si>
+    <t>TT1004912596</t>
+  </si>
+  <si>
+    <t>93567216</t>
+  </si>
+  <si>
+    <t>07/10/2025 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025100691758023 </t>
+  </si>
+  <si>
+    <t>SWADW5041715609</t>
+  </si>
+  <si>
+    <t>08/10/2025 04:33</t>
+  </si>
+  <si>
+    <t>07/10/2025 17:01</t>
+  </si>
+  <si>
+    <t>Fw Micro Business OPER</t>
+  </si>
+  <si>
+    <t>MTW23041MN</t>
+  </si>
+  <si>
+    <t>07/10/2025 11:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rifacimento giunto al Roe Codice collaudo: tk202510070068972083 </t>
+  </si>
+  <si>
+    <t>TT1004913284</t>
+  </si>
+  <si>
+    <t>93572717</t>
+  </si>
+  <si>
+    <t>08/10/2025 13:00</t>
+  </si>
+  <si>
+    <t>08/10/2025 13:30</t>
+  </si>
+  <si>
+    <t>08/10/2025 00:00</t>
+  </si>
+  <si>
+    <t>08/10/2025 14:48</t>
+  </si>
+  <si>
+    <t>Riparato al box Codice Collaudo: tk202510070068977583</t>
+  </si>
+  <si>
+    <t>TT1004915014</t>
+  </si>
+  <si>
+    <t>93585791</t>
+  </si>
+  <si>
+    <t>11/10/2025</t>
+  </si>
+  <si>
+    <t>11/10/2025 10:30</t>
+  </si>
+  <si>
+    <t>11/10/2025 11:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081381592832 </t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>SWADW5041420508</t>
+  </si>
+  <si>
+    <t>15/08/2025 01:13</t>
+  </si>
+  <si>
+    <t>11/10/2025 10:16</t>
+  </si>
+  <si>
+    <t>08/10/2025 18:24</t>
+  </si>
+  <si>
+    <t>07/10/2025 18:24</t>
+  </si>
+  <si>
+    <t>Sostituita prima presa eseguita prova telefonica Codice collaudo: tk202510070068990648</t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:S210Y34057146**</t>
+  </si>
+  <si>
+    <t>TT1004918820</t>
+  </si>
+  <si>
+    <t>93612021</t>
+  </si>
+  <si>
+    <t>09/10/2025 09:30</t>
+  </si>
+  <si>
+    <t>09/10/2025 10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025100892118351 </t>
+  </si>
+  <si>
+    <t>SWADW5041725902</t>
+  </si>
+  <si>
+    <t>09/10/2025 14:14</t>
+  </si>
+  <si>
+    <t>09/10/2025 10:02</t>
+  </si>
+  <si>
+    <t>09/10/2025 14:30</t>
+  </si>
+  <si>
+    <t>Eseguito cambio porta morsettiera . Old C1 69 New C1 53 . Codice collaudo : "tk202510080069016867"</t>
+  </si>
+  <si>
+    <t>TT1004922869</t>
+  </si>
+  <si>
+    <t>93640026</t>
+  </si>
+  <si>
+    <t>11/10/2025 08:30</t>
+  </si>
+  <si>
+    <t>11/10/2025 09:00</t>
+  </si>
+  <si>
+    <t>09/10/2025 12:26</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202510090069044867 Riparato al box rifatto puntali AeB zona 1.17 box 8 cp 8 allineamento stabilità sevizi ok</t>
+  </si>
+  <si>
+    <t>TT1004926068</t>
+  </si>
+  <si>
+    <t>93661306</t>
+  </si>
+  <si>
+    <t>10/10/2025</t>
+  </si>
+  <si>
+    <t>10/10/2025 12:00</t>
+  </si>
+  <si>
+    <t>10/10/2025 12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025100992423650 </t>
+  </si>
+  <si>
+    <t>SWADW5041734676</t>
+  </si>
+  <si>
+    <t>11/10/2025 03:56</t>
+  </si>
+  <si>
+    <t>10/10/2025 12:35</t>
+  </si>
+  <si>
+    <t>HELPDESK SOHO</t>
+  </si>
+  <si>
+    <t>10/10/2025 21:14</t>
+  </si>
+  <si>
+    <t>09/10/2025 21:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codice collaudo: tk202510090069066142 Sostituito coppia di secondaria zona 1.04 box 13 cp 7 NEW / 10 OLD allineamento stabilità servizi ok provato con il cliente </t>
+  </si>
+  <si>
+    <t>TT1004932420</t>
+  </si>
+  <si>
+    <t>93701723</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>11/10/2025 14:00</t>
+  </si>
+  <si>
+    <t>11/10/2025 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEBASTIANA CARUSO </t>
+  </si>
+  <si>
+    <t>CRR000103191079</t>
+  </si>
+  <si>
+    <t>0931592207</t>
+  </si>
+  <si>
+    <t>14/10/2025 23:59</t>
+  </si>
+  <si>
+    <t>11/10/2025 14:25</t>
+  </si>
+  <si>
+    <t>11/10/2025 12:42</t>
+  </si>
+  <si>
+    <t>Presente Master in centrale su blocchetto RTG, presente tensione ma porte mute. Certificato con Salvatore presidio.</t>
+  </si>
+  <si>
+    <t>#data esec al 12/10</t>
   </si>
 </sst>
 </file>
@@ -3793,7 +4501,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3803,6 +4511,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3819,10 +4533,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -4130,10 +4845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP92"/>
+  <dimension ref="A1:CP116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q55" workbookViewId="0">
-      <selection activeCell="T62" sqref="T62"/>
+    <sheetView tabSelected="1" topLeftCell="H84" workbookViewId="0">
+      <selection activeCell="S116" sqref="S116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30269,6 +30984,5691 @@
       </c>
       <c r="CP92" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:94">
+      <c r="A93" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D93" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" t="s">
+        <v>99</v>
+      </c>
+      <c r="F93" t="s">
+        <v>98</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I93" t="s">
+        <v>114</v>
+      </c>
+      <c r="J93" t="s">
+        <v>259</v>
+      </c>
+      <c r="K93" t="s">
+        <v>104</v>
+      </c>
+      <c r="L93" t="s">
+        <v>105</v>
+      </c>
+      <c r="M93" t="s">
+        <v>106</v>
+      </c>
+      <c r="N93" t="s">
+        <v>104</v>
+      </c>
+      <c r="O93" t="s">
+        <v>1259</v>
+      </c>
+      <c r="P93" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>1260</v>
+      </c>
+      <c r="R93" t="s">
+        <v>110</v>
+      </c>
+      <c r="S93" t="s">
+        <v>111</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U93" t="s">
+        <v>1261</v>
+      </c>
+      <c r="V93" t="s">
+        <v>104</v>
+      </c>
+      <c r="W93" t="s">
+        <v>114</v>
+      </c>
+      <c r="X93" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD93" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF93" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH93" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ93" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK93" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL93" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM93" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN93" t="s">
+        <v>1262</v>
+      </c>
+      <c r="AO93" t="s">
+        <v>1263</v>
+      </c>
+      <c r="AP93" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AQ93" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AR93" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AS93" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AT93" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AU93" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV93" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW93" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX93" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY93" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ93" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA93" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB93" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC93" t="s">
+        <v>1267</v>
+      </c>
+      <c r="BD93" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE93" t="s">
+        <v>1268</v>
+      </c>
+      <c r="BF93" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG93" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH93" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI93" t="s">
+        <v>1269</v>
+      </c>
+      <c r="BJ93" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK93" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL93" t="s">
+        <v>1270</v>
+      </c>
+      <c r="BM93" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN93" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO93" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP93" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ93" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR93" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS93" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT93" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU93" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV93" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW93" t="s">
+        <v>160</v>
+      </c>
+      <c r="BX93" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY93" t="s">
+        <v>1271</v>
+      </c>
+      <c r="BZ93" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA93" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB93" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC93" t="s">
+        <v>1272</v>
+      </c>
+      <c r="CD93" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE93" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF93" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG93" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH93" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI93" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ93" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK93" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL93" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM93" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN93" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO93" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP93" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:94">
+      <c r="A94" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D94" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" t="s">
+        <v>99</v>
+      </c>
+      <c r="F94" t="s">
+        <v>98</v>
+      </c>
+      <c r="G94" t="s">
+        <v>139</v>
+      </c>
+      <c r="H94" t="s">
+        <v>206</v>
+      </c>
+      <c r="I94" t="s">
+        <v>208</v>
+      </c>
+      <c r="J94" t="s">
+        <v>103</v>
+      </c>
+      <c r="K94" t="s">
+        <v>104</v>
+      </c>
+      <c r="L94" t="s">
+        <v>105</v>
+      </c>
+      <c r="M94" t="s">
+        <v>106</v>
+      </c>
+      <c r="N94" t="s">
+        <v>104</v>
+      </c>
+      <c r="O94" t="s">
+        <v>1276</v>
+      </c>
+      <c r="P94" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>1277</v>
+      </c>
+      <c r="R94" t="s">
+        <v>110</v>
+      </c>
+      <c r="S94" t="s">
+        <v>375</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="U94" t="s">
+        <v>1278</v>
+      </c>
+      <c r="V94" t="s">
+        <v>104</v>
+      </c>
+      <c r="W94" t="s">
+        <v>114</v>
+      </c>
+      <c r="X94" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF94" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ94" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK94" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL94" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM94" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN94" t="s">
+        <v>1279</v>
+      </c>
+      <c r="AO94" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AP94" t="s">
+        <v>1281</v>
+      </c>
+      <c r="AQ94" t="s">
+        <v>1282</v>
+      </c>
+      <c r="AR94" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS94" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT94" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU94" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV94" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW94" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX94" t="s">
+        <v>1283</v>
+      </c>
+      <c r="AY94" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ94" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA94" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB94" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC94" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD94" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE94" t="s">
+        <v>1284</v>
+      </c>
+      <c r="BF94" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG94" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH94" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI94" t="s">
+        <v>1285</v>
+      </c>
+      <c r="BJ94" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK94" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL94" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM94" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN94" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO94" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP94" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ94" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR94" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS94" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT94" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU94" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV94" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW94" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX94" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY94" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ94" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA94" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB94" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC94" t="s">
+        <v>1286</v>
+      </c>
+      <c r="CD94" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE94" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF94" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG94" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH94" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI94" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ94" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK94" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL94" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM94" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN94" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO94" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP94" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:94">
+      <c r="A95" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D95" t="s">
+        <v>97</v>
+      </c>
+      <c r="E95" t="s">
+        <v>99</v>
+      </c>
+      <c r="F95" t="s">
+        <v>98</v>
+      </c>
+      <c r="G95" t="s">
+        <v>470</v>
+      </c>
+      <c r="H95" t="s">
+        <v>683</v>
+      </c>
+      <c r="I95" t="s">
+        <v>114</v>
+      </c>
+      <c r="J95" t="s">
+        <v>259</v>
+      </c>
+      <c r="K95" t="s">
+        <v>104</v>
+      </c>
+      <c r="L95" t="s">
+        <v>105</v>
+      </c>
+      <c r="M95" t="s">
+        <v>106</v>
+      </c>
+      <c r="N95" t="s">
+        <v>104</v>
+      </c>
+      <c r="O95" t="s">
+        <v>1290</v>
+      </c>
+      <c r="P95" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>1291</v>
+      </c>
+      <c r="R95" t="s">
+        <v>110</v>
+      </c>
+      <c r="S95" t="s">
+        <v>165</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U95" t="s">
+        <v>1292</v>
+      </c>
+      <c r="V95" t="s">
+        <v>104</v>
+      </c>
+      <c r="W95" t="s">
+        <v>114</v>
+      </c>
+      <c r="X95" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ95" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK95" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL95" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN95" t="s">
+        <v>1293</v>
+      </c>
+      <c r="AO95">
+        <v>93114749569</v>
+      </c>
+      <c r="AP95" t="s">
+        <v>1294</v>
+      </c>
+      <c r="AQ95" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AR95" t="s">
+        <v>1294</v>
+      </c>
+      <c r="AS95" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT95" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU95" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV95" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW95" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX95" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY95" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ95" t="s">
+        <v>691</v>
+      </c>
+      <c r="BA95" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB95" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC95" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD95" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE95" t="s">
+        <v>1296</v>
+      </c>
+      <c r="BF95" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG95" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH95" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI95" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ95" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK95" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL95" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM95" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN95" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO95" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP95" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ95" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR95" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS95" t="s">
+        <v>1297</v>
+      </c>
+      <c r="BT95" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU95" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV95" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW95" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX95" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY95" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ95" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA95" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB95" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC95" t="s">
+        <v>1298</v>
+      </c>
+      <c r="CD95" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE95" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF95" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG95" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH95" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI95" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ95" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK95" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL95" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM95" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN95" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO95" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:94">
+      <c r="A96" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D96" t="s">
+        <v>97</v>
+      </c>
+      <c r="E96" t="s">
+        <v>99</v>
+      </c>
+      <c r="F96" t="s">
+        <v>98</v>
+      </c>
+      <c r="G96" t="s">
+        <v>139</v>
+      </c>
+      <c r="H96" t="s">
+        <v>232</v>
+      </c>
+      <c r="I96" t="s">
+        <v>102</v>
+      </c>
+      <c r="J96" t="s">
+        <v>103</v>
+      </c>
+      <c r="K96" t="s">
+        <v>104</v>
+      </c>
+      <c r="L96" t="s">
+        <v>105</v>
+      </c>
+      <c r="M96" t="s">
+        <v>106</v>
+      </c>
+      <c r="N96" t="s">
+        <v>104</v>
+      </c>
+      <c r="O96" t="s">
+        <v>1301</v>
+      </c>
+      <c r="P96" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>1302</v>
+      </c>
+      <c r="R96" t="s">
+        <v>110</v>
+      </c>
+      <c r="S96" t="s">
+        <v>111</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U96" t="s">
+        <v>1303</v>
+      </c>
+      <c r="V96" t="s">
+        <v>104</v>
+      </c>
+      <c r="W96" t="s">
+        <v>114</v>
+      </c>
+      <c r="X96" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ96" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK96" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL96" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM96" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN96" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AO96">
+        <v>93114736546</v>
+      </c>
+      <c r="AP96" t="s">
+        <v>1305</v>
+      </c>
+      <c r="AQ96" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AR96" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS96" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT96" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU96" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV96" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW96" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX96" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AY96" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ96" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA96" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB96" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC96" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD96" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE96" t="s">
+        <v>1308</v>
+      </c>
+      <c r="BF96" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG96" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH96" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI96" t="s">
+        <v>1309</v>
+      </c>
+      <c r="BJ96" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK96" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL96" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM96" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN96" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO96" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP96" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ96" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR96" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS96" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT96" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU96" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV96" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW96" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX96" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY96" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ96" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA96" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB96" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC96" t="s">
+        <v>1310</v>
+      </c>
+      <c r="CD96" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE96" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF96" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG96" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH96" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI96" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ96" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK96" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL96" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM96" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN96" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO96" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP96" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:94">
+      <c r="A97" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D97" t="s">
+        <v>469</v>
+      </c>
+      <c r="E97" t="s">
+        <v>98</v>
+      </c>
+      <c r="F97" t="s">
+        <v>99</v>
+      </c>
+      <c r="G97" t="s">
+        <v>178</v>
+      </c>
+      <c r="H97" t="s">
+        <v>206</v>
+      </c>
+      <c r="I97" t="s">
+        <v>210</v>
+      </c>
+      <c r="J97" t="s">
+        <v>103</v>
+      </c>
+      <c r="K97" t="s">
+        <v>104</v>
+      </c>
+      <c r="L97" t="s">
+        <v>105</v>
+      </c>
+      <c r="M97" t="s">
+        <v>106</v>
+      </c>
+      <c r="N97" t="s">
+        <v>104</v>
+      </c>
+      <c r="O97" t="s">
+        <v>1314</v>
+      </c>
+      <c r="P97" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>1315</v>
+      </c>
+      <c r="R97" t="s">
+        <v>110</v>
+      </c>
+      <c r="S97" t="s">
+        <v>536</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U97" t="s">
+        <v>1184</v>
+      </c>
+      <c r="V97" t="s">
+        <v>104</v>
+      </c>
+      <c r="W97" t="s">
+        <v>114</v>
+      </c>
+      <c r="X97" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF97" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG97" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH97" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI97" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ97" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK97" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL97" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AM97" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN97" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AO97" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AP97" t="s">
+        <v>1237</v>
+      </c>
+      <c r="AQ97" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AR97" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS97" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT97" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU97" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV97" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW97" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX97" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AY97" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ97" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA97" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB97" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC97" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD97" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE97" t="s">
+        <v>1318</v>
+      </c>
+      <c r="BF97" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG97" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH97" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI97" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ97" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK97" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL97" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM97" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN97" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO97" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP97" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ97" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR97" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS97" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT97" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU97" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV97" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW97" t="s">
+        <v>210</v>
+      </c>
+      <c r="BX97" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY97" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ97" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA97" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB97" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC97" t="s">
+        <v>1319</v>
+      </c>
+      <c r="CD97" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE97" t="s">
+        <v>320</v>
+      </c>
+      <c r="CF97" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG97" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH97" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI97" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ97" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK97" t="s">
+        <v>1192</v>
+      </c>
+      <c r="CL97" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM97" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN97" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO97" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP97" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:94">
+      <c r="A98" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D98" t="s">
+        <v>469</v>
+      </c>
+      <c r="E98" t="s">
+        <v>98</v>
+      </c>
+      <c r="F98" t="s">
+        <v>99</v>
+      </c>
+      <c r="G98" t="s">
+        <v>258</v>
+      </c>
+      <c r="H98" t="s">
+        <v>206</v>
+      </c>
+      <c r="I98" t="s">
+        <v>114</v>
+      </c>
+      <c r="J98" t="s">
+        <v>259</v>
+      </c>
+      <c r="K98" t="s">
+        <v>104</v>
+      </c>
+      <c r="L98" t="s">
+        <v>105</v>
+      </c>
+      <c r="M98" t="s">
+        <v>106</v>
+      </c>
+      <c r="N98" t="s">
+        <v>104</v>
+      </c>
+      <c r="O98" t="s">
+        <v>1322</v>
+      </c>
+      <c r="P98" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>1323</v>
+      </c>
+      <c r="R98" t="s">
+        <v>110</v>
+      </c>
+      <c r="S98" t="s">
+        <v>366</v>
+      </c>
+      <c r="T98" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U98" t="s">
+        <v>1226</v>
+      </c>
+      <c r="V98" t="s">
+        <v>104</v>
+      </c>
+      <c r="W98" t="s">
+        <v>114</v>
+      </c>
+      <c r="X98" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF98" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH98" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ98" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK98" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL98" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM98" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN98" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AO98">
+        <v>93114743236</v>
+      </c>
+      <c r="AP98" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AQ98" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AR98" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AS98" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT98" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU98" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV98" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW98" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX98" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY98" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ98" t="s">
+        <v>479</v>
+      </c>
+      <c r="BA98" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB98" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC98" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD98" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE98" t="s">
+        <v>1326</v>
+      </c>
+      <c r="BF98" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG98" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH98" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI98" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ98" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK98" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL98" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM98" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN98" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO98" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP98" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ98" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR98" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS98" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT98" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU98" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV98" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW98" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX98" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY98" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ98" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA98" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB98" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC98" t="s">
+        <v>1327</v>
+      </c>
+      <c r="CD98" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE98" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF98" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG98" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH98" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI98" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ98" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK98" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL98" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM98" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN98" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO98" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP98" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:94">
+      <c r="A99" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D99" t="s">
+        <v>796</v>
+      </c>
+      <c r="E99" t="s">
+        <v>98</v>
+      </c>
+      <c r="F99" t="s">
+        <v>99</v>
+      </c>
+      <c r="G99" t="s">
+        <v>324</v>
+      </c>
+      <c r="H99" t="s">
+        <v>206</v>
+      </c>
+      <c r="I99" t="s">
+        <v>108</v>
+      </c>
+      <c r="J99" t="s">
+        <v>103</v>
+      </c>
+      <c r="K99" t="s">
+        <v>104</v>
+      </c>
+      <c r="L99" t="s">
+        <v>105</v>
+      </c>
+      <c r="M99" t="s">
+        <v>106</v>
+      </c>
+      <c r="N99" t="s">
+        <v>104</v>
+      </c>
+      <c r="O99" t="s">
+        <v>1331</v>
+      </c>
+      <c r="P99" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>1332</v>
+      </c>
+      <c r="R99" t="s">
+        <v>110</v>
+      </c>
+      <c r="S99" t="s">
+        <v>536</v>
+      </c>
+      <c r="T99" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U99" t="s">
+        <v>1333</v>
+      </c>
+      <c r="V99" t="s">
+        <v>104</v>
+      </c>
+      <c r="W99" t="s">
+        <v>114</v>
+      </c>
+      <c r="X99" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ99" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK99" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL99" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM99" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN99" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AO99">
+        <v>93114742906</v>
+      </c>
+      <c r="AP99" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AQ99" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AR99" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS99" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT99" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU99" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV99" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW99" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX99" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AY99" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ99" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA99" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB99" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC99" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD99" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE99" t="s">
+        <v>1338</v>
+      </c>
+      <c r="BF99" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG99" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH99" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI99" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ99" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK99" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL99" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM99" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN99" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO99" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP99" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ99" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR99" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS99" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT99" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU99" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV99" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW99" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX99" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY99" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ99" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA99" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB99" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC99" t="s">
+        <v>1339</v>
+      </c>
+      <c r="CD99" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE99" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF99" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG99" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH99" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI99" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ99" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK99" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL99" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM99" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN99" t="s">
+        <v>1339</v>
+      </c>
+      <c r="CO99" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP99" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:94">
+      <c r="A100" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D100" t="s">
+        <v>289</v>
+      </c>
+      <c r="E100" t="s">
+        <v>98</v>
+      </c>
+      <c r="F100" t="s">
+        <v>99</v>
+      </c>
+      <c r="G100" t="s">
+        <v>178</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I100" t="s">
+        <v>114</v>
+      </c>
+      <c r="J100" t="s">
+        <v>259</v>
+      </c>
+      <c r="K100" t="s">
+        <v>104</v>
+      </c>
+      <c r="L100" t="s">
+        <v>105</v>
+      </c>
+      <c r="M100" t="s">
+        <v>106</v>
+      </c>
+      <c r="N100" t="s">
+        <v>104</v>
+      </c>
+      <c r="O100" t="s">
+        <v>1343</v>
+      </c>
+      <c r="P100" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>1344</v>
+      </c>
+      <c r="R100" t="s">
+        <v>110</v>
+      </c>
+      <c r="S100" t="s">
+        <v>536</v>
+      </c>
+      <c r="T100" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U100" t="s">
+        <v>1345</v>
+      </c>
+      <c r="V100" t="s">
+        <v>104</v>
+      </c>
+      <c r="W100" t="s">
+        <v>114</v>
+      </c>
+      <c r="X100" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH100" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ100" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK100" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL100" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM100" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN100" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AO100" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AP100" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AQ100" t="s">
+        <v>1349</v>
+      </c>
+      <c r="AR100" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AS100" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT100" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU100" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV100" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW100" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX100" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY100" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ100" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA100" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB100" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC100" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD100" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE100" t="s">
+        <v>1350</v>
+      </c>
+      <c r="BF100" t="s">
+        <v>796</v>
+      </c>
+      <c r="BG100" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH100" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI100" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ100" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK100" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL100" t="s">
+        <v>317</v>
+      </c>
+      <c r="BM100" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN100" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO100" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP100" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ100" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR100" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS100" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT100" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU100" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV100" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW100" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX100" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY100" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ100" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA100" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB100" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC100" t="s">
+        <v>1351</v>
+      </c>
+      <c r="CD100" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE100" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF100" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG100" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH100" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI100" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ100" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK100" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL100" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM100" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN100" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO100" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP100" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:94">
+      <c r="A101" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D101" t="s">
+        <v>97</v>
+      </c>
+      <c r="E101" t="s">
+        <v>98</v>
+      </c>
+      <c r="F101" t="s">
+        <v>99</v>
+      </c>
+      <c r="G101" t="s">
+        <v>569</v>
+      </c>
+      <c r="H101" t="s">
+        <v>683</v>
+      </c>
+      <c r="I101" t="s">
+        <v>114</v>
+      </c>
+      <c r="J101" t="s">
+        <v>259</v>
+      </c>
+      <c r="K101" t="s">
+        <v>104</v>
+      </c>
+      <c r="L101" t="s">
+        <v>105</v>
+      </c>
+      <c r="M101" t="s">
+        <v>106</v>
+      </c>
+      <c r="N101" t="s">
+        <v>104</v>
+      </c>
+      <c r="O101" t="s">
+        <v>1355</v>
+      </c>
+      <c r="P101" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>1356</v>
+      </c>
+      <c r="R101" t="s">
+        <v>110</v>
+      </c>
+      <c r="S101" t="s">
+        <v>536</v>
+      </c>
+      <c r="T101" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U101" t="s">
+        <v>1357</v>
+      </c>
+      <c r="V101" t="s">
+        <v>104</v>
+      </c>
+      <c r="W101" t="s">
+        <v>114</v>
+      </c>
+      <c r="X101" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF101" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH101" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ101" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK101" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL101" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM101" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN101" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AO101">
+        <v>93114738088</v>
+      </c>
+      <c r="AP101" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AQ101" t="s">
+        <v>1363</v>
+      </c>
+      <c r="AR101" t="s">
+        <v>1364</v>
+      </c>
+      <c r="AS101" t="s">
+        <v>577</v>
+      </c>
+      <c r="AT101" t="s">
+        <v>569</v>
+      </c>
+      <c r="AU101" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV101" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW101" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX101" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY101" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ101" t="s">
+        <v>1365</v>
+      </c>
+      <c r="BA101" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB101" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC101" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD101" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE101" t="s">
+        <v>1366</v>
+      </c>
+      <c r="BF101" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG101" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH101" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI101" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ101" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK101" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL101" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM101" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN101" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO101" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP101" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ101" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR101" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS101" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT101" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU101" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV101" t="s">
+        <v>108</v>
+      </c>
+      <c r="BW101" t="s">
+        <v>1367</v>
+      </c>
+      <c r="BX101" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY101" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ101" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA101" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB101" t="s">
+        <v>1368</v>
+      </c>
+      <c r="CC101" t="s">
+        <v>1369</v>
+      </c>
+      <c r="CD101" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE101" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF101" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG101" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH101" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI101" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ101" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK101" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL101" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM101" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN101" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO101" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP101" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:94">
+      <c r="A102" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D102" t="s">
+        <v>796</v>
+      </c>
+      <c r="E102" t="s">
+        <v>98</v>
+      </c>
+      <c r="F102" t="s">
+        <v>99</v>
+      </c>
+      <c r="G102" t="s">
+        <v>178</v>
+      </c>
+      <c r="H102" t="s">
+        <v>206</v>
+      </c>
+      <c r="I102" t="s">
+        <v>310</v>
+      </c>
+      <c r="J102" t="s">
+        <v>103</v>
+      </c>
+      <c r="K102" t="s">
+        <v>104</v>
+      </c>
+      <c r="L102" t="s">
+        <v>105</v>
+      </c>
+      <c r="M102" t="s">
+        <v>106</v>
+      </c>
+      <c r="N102" t="s">
+        <v>104</v>
+      </c>
+      <c r="O102" t="s">
+        <v>1372</v>
+      </c>
+      <c r="P102" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>1373</v>
+      </c>
+      <c r="R102" t="s">
+        <v>110</v>
+      </c>
+      <c r="S102" t="s">
+        <v>536</v>
+      </c>
+      <c r="T102" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U102" t="s">
+        <v>1184</v>
+      </c>
+      <c r="V102" t="s">
+        <v>104</v>
+      </c>
+      <c r="W102" t="s">
+        <v>114</v>
+      </c>
+      <c r="X102" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF102" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG102" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH102" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ102" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK102" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL102" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AM102" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN102" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AO102" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AP102" t="s">
+        <v>1237</v>
+      </c>
+      <c r="AQ102" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AR102" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS102" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT102" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU102" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV102" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW102" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX102" t="s">
+        <v>1376</v>
+      </c>
+      <c r="AY102" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ102" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA102" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB102" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC102" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD102" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE102" t="s">
+        <v>1377</v>
+      </c>
+      <c r="BF102" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG102" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH102" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI102" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ102" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK102" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL102" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM102" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN102" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO102" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP102" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ102" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR102" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS102" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT102" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU102" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV102" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW102" t="s">
+        <v>310</v>
+      </c>
+      <c r="BX102" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY102" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ102" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA102" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB102" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC102" t="s">
+        <v>1378</v>
+      </c>
+      <c r="CD102" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE102" t="s">
+        <v>160</v>
+      </c>
+      <c r="CF102" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG102" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH102" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI102" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ102" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK102" t="s">
+        <v>1192</v>
+      </c>
+      <c r="CL102" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM102" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN102" t="s">
+        <v>1378</v>
+      </c>
+      <c r="CO102" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:94">
+      <c r="A103" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D103" t="s">
+        <v>97</v>
+      </c>
+      <c r="E103" t="s">
+        <v>98</v>
+      </c>
+      <c r="F103" t="s">
+        <v>99</v>
+      </c>
+      <c r="G103" t="s">
+        <v>274</v>
+      </c>
+      <c r="H103" t="s">
+        <v>206</v>
+      </c>
+      <c r="I103" t="s">
+        <v>208</v>
+      </c>
+      <c r="J103" t="s">
+        <v>103</v>
+      </c>
+      <c r="K103" t="s">
+        <v>104</v>
+      </c>
+      <c r="L103" t="s">
+        <v>105</v>
+      </c>
+      <c r="M103" t="s">
+        <v>106</v>
+      </c>
+      <c r="N103" t="s">
+        <v>104</v>
+      </c>
+      <c r="O103" t="s">
+        <v>1381</v>
+      </c>
+      <c r="P103" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>1382</v>
+      </c>
+      <c r="R103" t="s">
+        <v>110</v>
+      </c>
+      <c r="S103" t="s">
+        <v>235</v>
+      </c>
+      <c r="T103" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U103" t="s">
+        <v>1383</v>
+      </c>
+      <c r="V103" t="s">
+        <v>104</v>
+      </c>
+      <c r="W103" t="s">
+        <v>114</v>
+      </c>
+      <c r="X103" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF103" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG103" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH103" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ103" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK103" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL103" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM103" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN103" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AO103">
+        <v>93114753807</v>
+      </c>
+      <c r="AP103" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AQ103" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AR103" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS103" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT103" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU103" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV103" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW103" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX103" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AY103" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ103" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA103" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB103" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC103" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD103" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE103" t="s">
+        <v>1388</v>
+      </c>
+      <c r="BF103" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG103" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH103" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI103" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ103" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK103" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL103" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM103" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN103" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO103" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP103" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ103" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR103" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS103" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT103" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU103" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV103" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW103" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX103" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY103" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ103" t="s">
+        <v>108</v>
+      </c>
+      <c r="CA103" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB103" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC103" t="s">
+        <v>1389</v>
+      </c>
+      <c r="CD103" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE103" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF103" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG103" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH103" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI103" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ103" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK103" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL103" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM103" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN103" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO103" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:94">
+      <c r="A104" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D104" t="s">
+        <v>796</v>
+      </c>
+      <c r="E104" t="s">
+        <v>98</v>
+      </c>
+      <c r="F104" t="s">
+        <v>99</v>
+      </c>
+      <c r="G104" t="s">
+        <v>324</v>
+      </c>
+      <c r="H104" t="s">
+        <v>206</v>
+      </c>
+      <c r="I104" t="s">
+        <v>208</v>
+      </c>
+      <c r="J104" t="s">
+        <v>103</v>
+      </c>
+      <c r="K104" t="s">
+        <v>104</v>
+      </c>
+      <c r="L104" t="s">
+        <v>105</v>
+      </c>
+      <c r="M104" t="s">
+        <v>106</v>
+      </c>
+      <c r="N104" t="s">
+        <v>104</v>
+      </c>
+      <c r="O104" t="s">
+        <v>1392</v>
+      </c>
+      <c r="P104" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>1393</v>
+      </c>
+      <c r="R104" t="s">
+        <v>110</v>
+      </c>
+      <c r="S104" t="s">
+        <v>536</v>
+      </c>
+      <c r="T104" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U104" t="s">
+        <v>1394</v>
+      </c>
+      <c r="V104" t="s">
+        <v>104</v>
+      </c>
+      <c r="W104" t="s">
+        <v>114</v>
+      </c>
+      <c r="X104" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE104" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF104" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG104" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH104" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI104" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ104" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK104" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL104" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM104" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN104" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AO104">
+        <v>93114733933</v>
+      </c>
+      <c r="AP104" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AQ104" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AR104" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS104" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT104" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU104" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV104" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW104" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX104" t="s">
+        <v>1399</v>
+      </c>
+      <c r="AY104" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ104" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA104" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB104" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC104" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD104" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE104" t="s">
+        <v>1400</v>
+      </c>
+      <c r="BF104" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG104" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH104" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI104" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ104" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK104" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL104" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM104" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN104" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO104" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP104" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ104" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR104" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS104" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT104" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU104" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV104" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW104" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX104" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY104" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ104" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA104" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB104" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC104" t="s">
+        <v>1401</v>
+      </c>
+      <c r="CD104" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE104" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF104" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG104" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH104" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI104" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ104" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK104" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL104" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM104" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN104" t="s">
+        <v>1401</v>
+      </c>
+      <c r="CO104" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:94">
+      <c r="A105" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D105" t="s">
+        <v>469</v>
+      </c>
+      <c r="E105" t="s">
+        <v>98</v>
+      </c>
+      <c r="F105" t="s">
+        <v>99</v>
+      </c>
+      <c r="G105" t="s">
+        <v>583</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I105" t="s">
+        <v>114</v>
+      </c>
+      <c r="J105" t="s">
+        <v>259</v>
+      </c>
+      <c r="K105" t="s">
+        <v>104</v>
+      </c>
+      <c r="L105" t="s">
+        <v>105</v>
+      </c>
+      <c r="M105" t="s">
+        <v>106</v>
+      </c>
+      <c r="N105" t="s">
+        <v>104</v>
+      </c>
+      <c r="O105" t="s">
+        <v>1382</v>
+      </c>
+      <c r="P105" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>1405</v>
+      </c>
+      <c r="R105" t="s">
+        <v>110</v>
+      </c>
+      <c r="S105" t="s">
+        <v>366</v>
+      </c>
+      <c r="T105" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U105" t="s">
+        <v>1406</v>
+      </c>
+      <c r="V105" t="s">
+        <v>104</v>
+      </c>
+      <c r="W105" t="s">
+        <v>114</v>
+      </c>
+      <c r="X105" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>1407</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>934</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF105" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH105" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ105" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK105" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL105" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM105" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN105" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AO105" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AP105" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AQ105" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AR105" t="s">
+        <v>1411</v>
+      </c>
+      <c r="AS105" t="s">
+        <v>591</v>
+      </c>
+      <c r="AT105" t="s">
+        <v>583</v>
+      </c>
+      <c r="AU105" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV105" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW105" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX105" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY105" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ105" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA105" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB105" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC105" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD105" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE105" t="s">
+        <v>1412</v>
+      </c>
+      <c r="BF105" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG105" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH105" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI105" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ105" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK105" t="s">
+        <v>1413</v>
+      </c>
+      <c r="BL105" t="s">
+        <v>450</v>
+      </c>
+      <c r="BM105" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN105" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO105" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP105" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ105" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR105" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS105" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT105" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU105" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV105" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW105" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX105" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY105" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ105" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA105" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB105" t="s">
+        <v>1414</v>
+      </c>
+      <c r="CC105" t="s">
+        <v>1415</v>
+      </c>
+      <c r="CD105" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE105" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF105" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG105" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH105" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI105" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ105" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK105" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL105" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM105" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN105" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO105" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:94">
+      <c r="A106" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D106" t="s">
+        <v>97</v>
+      </c>
+      <c r="E106" t="s">
+        <v>98</v>
+      </c>
+      <c r="F106" t="s">
+        <v>99</v>
+      </c>
+      <c r="G106" t="s">
+        <v>324</v>
+      </c>
+      <c r="H106" t="s">
+        <v>683</v>
+      </c>
+      <c r="I106" t="s">
+        <v>114</v>
+      </c>
+      <c r="J106" t="s">
+        <v>259</v>
+      </c>
+      <c r="K106" t="s">
+        <v>104</v>
+      </c>
+      <c r="L106" t="s">
+        <v>105</v>
+      </c>
+      <c r="M106" t="s">
+        <v>106</v>
+      </c>
+      <c r="N106" t="s">
+        <v>104</v>
+      </c>
+      <c r="O106" t="s">
+        <v>1356</v>
+      </c>
+      <c r="P106" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>1418</v>
+      </c>
+      <c r="R106" t="s">
+        <v>110</v>
+      </c>
+      <c r="S106" t="s">
+        <v>536</v>
+      </c>
+      <c r="T106" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U106" t="s">
+        <v>1419</v>
+      </c>
+      <c r="V106" t="s">
+        <v>104</v>
+      </c>
+      <c r="W106" t="s">
+        <v>114</v>
+      </c>
+      <c r="X106" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD106" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE106" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF106" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG106" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH106" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI106" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ106" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK106" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL106" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM106" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN106" t="s">
+        <v>1420</v>
+      </c>
+      <c r="AO106">
+        <v>93114730395</v>
+      </c>
+      <c r="AP106" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AQ106" t="s">
+        <v>1422</v>
+      </c>
+      <c r="AR106" t="s">
+        <v>1421</v>
+      </c>
+      <c r="AS106" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT106" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU106" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV106" t="s">
+        <v>1423</v>
+      </c>
+      <c r="AW106" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX106" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY106" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ106" t="s">
+        <v>1424</v>
+      </c>
+      <c r="BA106" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB106" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC106" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD106" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE106" t="s">
+        <v>1425</v>
+      </c>
+      <c r="BF106" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG106" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH106" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI106" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ106" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK106" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL106" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM106" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN106" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO106" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP106" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ106" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR106" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS106" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT106" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU106" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV106" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW106" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX106" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY106" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ106" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA106" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB106" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC106" t="s">
+        <v>1426</v>
+      </c>
+      <c r="CD106" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE106" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF106" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG106" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH106" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI106" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ106" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK106" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL106" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM106" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN106" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO106" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:94">
+      <c r="A107" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D107" t="s">
+        <v>97</v>
+      </c>
+      <c r="E107" t="s">
+        <v>98</v>
+      </c>
+      <c r="F107" t="s">
+        <v>99</v>
+      </c>
+      <c r="G107" t="s">
+        <v>178</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I107" t="s">
+        <v>114</v>
+      </c>
+      <c r="J107" t="s">
+        <v>259</v>
+      </c>
+      <c r="K107" t="s">
+        <v>104</v>
+      </c>
+      <c r="L107" t="s">
+        <v>105</v>
+      </c>
+      <c r="M107" t="s">
+        <v>106</v>
+      </c>
+      <c r="N107" t="s">
+        <v>104</v>
+      </c>
+      <c r="O107" t="s">
+        <v>1429</v>
+      </c>
+      <c r="P107" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>1430</v>
+      </c>
+      <c r="R107" t="s">
+        <v>110</v>
+      </c>
+      <c r="S107" t="s">
+        <v>179</v>
+      </c>
+      <c r="T107" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U107" t="s">
+        <v>1345</v>
+      </c>
+      <c r="V107" t="s">
+        <v>104</v>
+      </c>
+      <c r="W107" t="s">
+        <v>114</v>
+      </c>
+      <c r="X107" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD107" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF107" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG107" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH107" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI107" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ107" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK107" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL107" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM107" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN107" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AO107" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AP107" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AQ107" t="s">
+        <v>1432</v>
+      </c>
+      <c r="AR107" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AS107" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT107" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU107" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV107" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW107" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX107" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY107" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ107" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA107" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB107" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC107" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD107" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE107" t="s">
+        <v>1393</v>
+      </c>
+      <c r="BF107" t="s">
+        <v>289</v>
+      </c>
+      <c r="BG107" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH107" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI107" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ107" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK107" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL107" t="s">
+        <v>317</v>
+      </c>
+      <c r="BM107" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN107" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO107" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP107" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ107" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR107" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS107" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT107" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU107" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV107" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW107" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX107" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY107" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ107" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA107" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB107" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC107" t="s">
+        <v>1433</v>
+      </c>
+      <c r="CD107" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE107" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF107" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG107" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH107" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI107" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ107" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK107" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL107" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM107" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN107" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO107" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP107" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:94">
+      <c r="A108" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D108" t="s">
+        <v>97</v>
+      </c>
+      <c r="E108" t="s">
+        <v>98</v>
+      </c>
+      <c r="F108" t="s">
+        <v>99</v>
+      </c>
+      <c r="G108" t="s">
+        <v>139</v>
+      </c>
+      <c r="H108" t="s">
+        <v>101</v>
+      </c>
+      <c r="I108" t="s">
+        <v>210</v>
+      </c>
+      <c r="J108" t="s">
+        <v>103</v>
+      </c>
+      <c r="K108" t="s">
+        <v>104</v>
+      </c>
+      <c r="L108" t="s">
+        <v>105</v>
+      </c>
+      <c r="M108" t="s">
+        <v>106</v>
+      </c>
+      <c r="N108" t="s">
+        <v>104</v>
+      </c>
+      <c r="O108" t="s">
+        <v>1437</v>
+      </c>
+      <c r="P108" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>1438</v>
+      </c>
+      <c r="R108" t="s">
+        <v>110</v>
+      </c>
+      <c r="S108" t="s">
+        <v>111</v>
+      </c>
+      <c r="T108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U108" t="s">
+        <v>1439</v>
+      </c>
+      <c r="V108" t="s">
+        <v>104</v>
+      </c>
+      <c r="W108" t="s">
+        <v>114</v>
+      </c>
+      <c r="X108" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD108" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF108" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG108" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH108" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ108" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK108" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL108" t="s">
+        <v>1440</v>
+      </c>
+      <c r="AM108" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN108" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AO108">
+        <v>93113779055</v>
+      </c>
+      <c r="AP108" t="s">
+        <v>1442</v>
+      </c>
+      <c r="AQ108" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AR108" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS108" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT108" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU108" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV108" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW108" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX108" t="s">
+        <v>1444</v>
+      </c>
+      <c r="AY108" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ108" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA108" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB108" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC108" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD108" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE108" t="s">
+        <v>1445</v>
+      </c>
+      <c r="BF108" t="s">
+        <v>289</v>
+      </c>
+      <c r="BG108" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH108" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI108" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ108" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK108" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL108" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM108" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN108" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO108" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP108" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ108" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR108" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS108" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT108" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU108" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV108" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW108" t="s">
+        <v>210</v>
+      </c>
+      <c r="BX108" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY108" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ108" t="s">
+        <v>208</v>
+      </c>
+      <c r="CA108" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB108" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC108" t="s">
+        <v>1446</v>
+      </c>
+      <c r="CD108" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE108" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF108" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG108" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH108" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI108" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ108" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK108" t="s">
+        <v>1447</v>
+      </c>
+      <c r="CL108" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM108" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN108" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO108" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP108" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:94">
+      <c r="A109" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D109" t="s">
+        <v>469</v>
+      </c>
+      <c r="E109" t="s">
+        <v>98</v>
+      </c>
+      <c r="F109" t="s">
+        <v>99</v>
+      </c>
+      <c r="G109" t="s">
+        <v>324</v>
+      </c>
+      <c r="H109" t="s">
+        <v>101</v>
+      </c>
+      <c r="I109" t="s">
+        <v>102</v>
+      </c>
+      <c r="J109" t="s">
+        <v>103</v>
+      </c>
+      <c r="K109" t="s">
+        <v>104</v>
+      </c>
+      <c r="L109" t="s">
+        <v>105</v>
+      </c>
+      <c r="M109" t="s">
+        <v>106</v>
+      </c>
+      <c r="N109" t="s">
+        <v>104</v>
+      </c>
+      <c r="O109" t="s">
+        <v>1450</v>
+      </c>
+      <c r="P109" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>1451</v>
+      </c>
+      <c r="R109" t="s">
+        <v>110</v>
+      </c>
+      <c r="S109" t="s">
+        <v>366</v>
+      </c>
+      <c r="T109" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U109" t="s">
+        <v>1452</v>
+      </c>
+      <c r="V109" t="s">
+        <v>104</v>
+      </c>
+      <c r="W109" t="s">
+        <v>114</v>
+      </c>
+      <c r="X109" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF109" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH109" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ109" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK109" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL109" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM109" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN109" t="s">
+        <v>1453</v>
+      </c>
+      <c r="AO109" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AP109" t="s">
+        <v>1454</v>
+      </c>
+      <c r="AQ109" t="s">
+        <v>1455</v>
+      </c>
+      <c r="AR109" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS109" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT109" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU109" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV109" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW109" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX109" t="s">
+        <v>1456</v>
+      </c>
+      <c r="AY109" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ109" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA109" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB109" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC109" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD109" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE109" t="s">
+        <v>1323</v>
+      </c>
+      <c r="BF109" t="s">
+        <v>796</v>
+      </c>
+      <c r="BG109" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH109" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI109" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ109" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK109" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL109" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM109" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN109" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO109" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP109" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ109" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR109" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS109" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT109" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU109" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV109" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW109" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX109" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY109" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ109" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA109" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB109" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC109" t="s">
+        <v>1457</v>
+      </c>
+      <c r="CD109" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE109" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF109" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG109" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH109" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI109" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ109" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK109" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL109" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM109" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN109" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO109" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP109" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:94">
+      <c r="A110" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D110" t="s">
+        <v>97</v>
+      </c>
+      <c r="E110" t="s">
+        <v>98</v>
+      </c>
+      <c r="F110" t="s">
+        <v>99</v>
+      </c>
+      <c r="G110" t="s">
+        <v>258</v>
+      </c>
+      <c r="H110" t="s">
+        <v>206</v>
+      </c>
+      <c r="I110" t="s">
+        <v>114</v>
+      </c>
+      <c r="J110" t="s">
+        <v>259</v>
+      </c>
+      <c r="K110" t="s">
+        <v>104</v>
+      </c>
+      <c r="L110" t="s">
+        <v>105</v>
+      </c>
+      <c r="M110" t="s">
+        <v>106</v>
+      </c>
+      <c r="N110" t="s">
+        <v>104</v>
+      </c>
+      <c r="O110" t="s">
+        <v>1460</v>
+      </c>
+      <c r="P110" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>1461</v>
+      </c>
+      <c r="R110" t="s">
+        <v>110</v>
+      </c>
+      <c r="S110" t="s">
+        <v>165</v>
+      </c>
+      <c r="T110" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U110" t="s">
+        <v>1226</v>
+      </c>
+      <c r="V110" t="s">
+        <v>104</v>
+      </c>
+      <c r="W110" t="s">
+        <v>114</v>
+      </c>
+      <c r="X110" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF110" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG110" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH110" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI110" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ110" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK110" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL110" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AM110" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN110" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AO110">
+        <v>93114743236</v>
+      </c>
+      <c r="AP110" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AQ110" t="s">
+        <v>1443</v>
+      </c>
+      <c r="AR110" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AS110" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT110" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU110" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV110" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW110" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX110" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY110" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ110" t="s">
+        <v>479</v>
+      </c>
+      <c r="BA110" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB110" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC110" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD110" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE110" t="s">
+        <v>1462</v>
+      </c>
+      <c r="BF110" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG110" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH110" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI110" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ110" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK110" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL110" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM110" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN110" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO110" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP110" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ110" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR110" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS110" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT110" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU110" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV110" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW110" t="s">
+        <v>344</v>
+      </c>
+      <c r="BX110" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY110" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ110" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA110" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB110" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC110" t="s">
+        <v>1463</v>
+      </c>
+      <c r="CD110" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE110" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF110" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG110" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH110" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI110" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ110" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK110" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL110" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM110" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN110" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO110" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP110" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="1:94">
+      <c r="A111" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D111" t="s">
+        <v>230</v>
+      </c>
+      <c r="E111" t="s">
+        <v>98</v>
+      </c>
+      <c r="F111" t="s">
+        <v>99</v>
+      </c>
+      <c r="G111" t="s">
+        <v>231</v>
+      </c>
+      <c r="H111" t="s">
+        <v>101</v>
+      </c>
+      <c r="I111" t="s">
+        <v>114</v>
+      </c>
+      <c r="J111" t="s">
+        <v>103</v>
+      </c>
+      <c r="K111" t="s">
+        <v>104</v>
+      </c>
+      <c r="L111" t="s">
+        <v>105</v>
+      </c>
+      <c r="M111" t="s">
+        <v>106</v>
+      </c>
+      <c r="N111" t="s">
+        <v>104</v>
+      </c>
+      <c r="O111" t="s">
+        <v>1467</v>
+      </c>
+      <c r="P111" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>1468</v>
+      </c>
+      <c r="R111" t="s">
+        <v>110</v>
+      </c>
+      <c r="S111" t="s">
+        <v>235</v>
+      </c>
+      <c r="T111" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U111" t="s">
+        <v>1469</v>
+      </c>
+      <c r="V111" t="s">
+        <v>104</v>
+      </c>
+      <c r="W111" t="s">
+        <v>114</v>
+      </c>
+      <c r="X111" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD111" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF111" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG111" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH111" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI111" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ111" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK111" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL111" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM111" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN111" t="s">
+        <v>1470</v>
+      </c>
+      <c r="AO111">
+        <v>93114750694</v>
+      </c>
+      <c r="AP111" t="s">
+        <v>1471</v>
+      </c>
+      <c r="AQ111" t="s">
+        <v>1472</v>
+      </c>
+      <c r="AR111" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS111" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT111" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU111" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV111" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AW111" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX111" t="s">
+        <v>1474</v>
+      </c>
+      <c r="AY111" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ111" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA111" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB111" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC111" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD111" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE111" t="s">
+        <v>1475</v>
+      </c>
+      <c r="BF111" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG111" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH111" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI111" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ111" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK111" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL111" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM111" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN111" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO111" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP111" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ111" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR111" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS111" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT111" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU111" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV111" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW111" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX111" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY111" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ111" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA111" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB111" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC111" t="s">
+        <v>1476</v>
+      </c>
+      <c r="CD111" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE111" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF111" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG111" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH111" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI111" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ111" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK111" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL111" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM111" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN111" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO111" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP111" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:94">
+      <c r="A112" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E112" t="s">
+        <v>98</v>
+      </c>
+      <c r="F112" t="s">
+        <v>99</v>
+      </c>
+      <c r="G112" t="s">
+        <v>139</v>
+      </c>
+      <c r="H112" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I112" t="s">
+        <v>114</v>
+      </c>
+      <c r="J112" t="s">
+        <v>259</v>
+      </c>
+      <c r="K112" t="s">
+        <v>104</v>
+      </c>
+      <c r="L112" t="s">
+        <v>105</v>
+      </c>
+      <c r="M112" t="s">
+        <v>106</v>
+      </c>
+      <c r="N112" t="s">
+        <v>104</v>
+      </c>
+      <c r="O112" t="s">
+        <v>1480</v>
+      </c>
+      <c r="P112" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>1481</v>
+      </c>
+      <c r="R112" t="s">
+        <v>110</v>
+      </c>
+      <c r="S112" t="s">
+        <v>111</v>
+      </c>
+      <c r="T112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U112" t="s">
+        <v>1482</v>
+      </c>
+      <c r="V112" t="s">
+        <v>104</v>
+      </c>
+      <c r="W112" t="s">
+        <v>114</v>
+      </c>
+      <c r="X112" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF112" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG112" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH112" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI112" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ112" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK112" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL112" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM112" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN112" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AO112" t="s">
+        <v>1484</v>
+      </c>
+      <c r="AP112" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AQ112" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AR112" t="s">
+        <v>1485</v>
+      </c>
+      <c r="AS112" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT112" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU112" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV112" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW112" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX112" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY112" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ112" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA112" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB112" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC112" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD112" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE112" t="s">
+        <v>1487</v>
+      </c>
+      <c r="BF112" t="s">
+        <v>1479</v>
+      </c>
+      <c r="BG112" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH112" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI112" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ112" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK112" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL112" t="s">
+        <v>450</v>
+      </c>
+      <c r="BM112" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN112" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO112" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP112" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ112" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR112" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS112" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT112" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU112" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV112" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW112" t="s">
+        <v>386</v>
+      </c>
+      <c r="BX112" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY112" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ112" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA112" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB112" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC112" t="s">
+        <v>1488</v>
+      </c>
+      <c r="CD112" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE112" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF112" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG112" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH112" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI112" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ112" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK112" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL112" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM112" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN112" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO112" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP112" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="19:19">
+      <c r="S116" s="3" t="s">
+        <v>1489</v>
       </c>
     </row>
   </sheetData>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18732" windowHeight="11700"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10509" uniqueCount="1490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11261" uniqueCount="1583">
   <si>
     <t>Codice</t>
   </si>
@@ -4485,7 +4485,286 @@
     <t>Presente Master in centrale su blocchetto RTG, presente tensione ma porte mute. Certificato con Salvatore presidio.</t>
   </si>
   <si>
-    <t>#data esec al 12/10</t>
+    <t>TT1004930736</t>
+  </si>
+  <si>
+    <t>93693264</t>
+  </si>
+  <si>
+    <t>15/10/2025</t>
+  </si>
+  <si>
+    <t>15/10/2025 11:00</t>
+  </si>
+  <si>
+    <t>15/10/2025 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025101092622483 </t>
+  </si>
+  <si>
+    <t>SWADW5041740626</t>
+  </si>
+  <si>
+    <t>093114743304</t>
+  </si>
+  <si>
+    <t>17/10/2025 18:09</t>
+  </si>
+  <si>
+    <t>15/10/2025 11:51</t>
+  </si>
+  <si>
+    <t>12/10/2025 19:20</t>
+  </si>
+  <si>
+    <t>10/10/2025 19:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guasto di cavo secondario zona 4.16 box 0d1 tutto in basso isolamento il nostro utente è testato sulla coppia 10 </t>
+  </si>
+  <si>
+    <t>ASSENZA RANDOMICA DI PORTANTE **CPE_SN:S202V51011089**</t>
+  </si>
+  <si>
+    <t>TT1004934478</t>
+  </si>
+  <si>
+    <t>93712902</t>
+  </si>
+  <si>
+    <t>13/10/2025</t>
+  </si>
+  <si>
+    <t>13/10/2025 14:00</t>
+  </si>
+  <si>
+    <t>13/10/2025 14:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025101192709987 </t>
+  </si>
+  <si>
+    <t>SWADW5041742857</t>
+  </si>
+  <si>
+    <t>093114723647</t>
+  </si>
+  <si>
+    <t>19/10/2025 12:31</t>
+  </si>
+  <si>
+    <t>13/10/2025 17:18</t>
+  </si>
+  <si>
+    <t>13/10/2025 11:40</t>
+  </si>
+  <si>
+    <t>12/10/2025 19:06</t>
+  </si>
+  <si>
+    <t>Riparato in armadio codice collaudo tk202510120069117714</t>
+  </si>
+  <si>
+    <t>TT1004936066</t>
+  </si>
+  <si>
+    <t>93724276</t>
+  </si>
+  <si>
+    <t>16/10/2025</t>
+  </si>
+  <si>
+    <t>16/10/2025 09:00</t>
+  </si>
+  <si>
+    <t>16/10/2025 09:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025101392949482 </t>
+  </si>
+  <si>
+    <t>SWADW5041748136</t>
+  </si>
+  <si>
+    <t>20/10/2025 10:35</t>
+  </si>
+  <si>
+    <t>16/10/2025 09:20</t>
+  </si>
+  <si>
+    <t>13/10/2025 11:28</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>Guasto non riscontrato, tutti i parametri sono nella norma, parlato con l'utente che ci comunica che già da qualche giorno naviga tranquillamente, codice collaudo tk202510130069129083</t>
+  </si>
+  <si>
+    <t>TT1004937412</t>
+  </si>
+  <si>
+    <t>93733131</t>
+  </si>
+  <si>
+    <t>15/10/2025 17:00</t>
+  </si>
+  <si>
+    <t>15/10/2025 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAETANO SANTO </t>
+  </si>
+  <si>
+    <t>CRV001034165037</t>
+  </si>
+  <si>
+    <t>0931861826</t>
+  </si>
+  <si>
+    <t>17/10/2025 23:59</t>
+  </si>
+  <si>
+    <t>15/10/2025 17:06</t>
+  </si>
+  <si>
+    <t>13/10/2025 14:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codice collaudo: tk202510130069137936 Riparato al box zona 7.12 box 1 cp 5 rifatto puntali A e B allineamento stabilità servizi ok </t>
+  </si>
+  <si>
+    <t>TT1004938331</t>
+  </si>
+  <si>
+    <t>93739873</t>
+  </si>
+  <si>
+    <t>14/10/2025</t>
+  </si>
+  <si>
+    <t>14/10/2025 13:00</t>
+  </si>
+  <si>
+    <t>14/10/2025 13:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025101092638421 </t>
+  </si>
+  <si>
+    <t>SWADW5041741511</t>
+  </si>
+  <si>
+    <t>093114727327</t>
+  </si>
+  <si>
+    <t>19/10/2025 23:02</t>
+  </si>
+  <si>
+    <t>14/10/2025 13:23</t>
+  </si>
+  <si>
+    <t>13/10/2025 00:04</t>
+  </si>
+  <si>
+    <t>13/10/2025 16:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codice collaudo: tk202510130069144676 eseguito reset modem, allineamento stabilità e servizi ok provato in sede con il sig.Partesano </t>
+  </si>
+  <si>
+    <t>ASSENZA RANDOMICA DI PORTANTE **CPE_SN:2249827000767**</t>
+  </si>
+  <si>
+    <t>TT1004942340</t>
+  </si>
+  <si>
+    <t>93769251</t>
+  </si>
+  <si>
+    <t>15/10/2025 16:00</t>
+  </si>
+  <si>
+    <t>15/10/2025 16:30</t>
+  </si>
+  <si>
+    <t>CRR001034260159</t>
+  </si>
+  <si>
+    <t>16/10/2025 23:59</t>
+  </si>
+  <si>
+    <t>15/10/2025 15:42</t>
+  </si>
+  <si>
+    <t>14/10/2025 13:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	  guasto cavo di secondaria si riscontra tutta la decade 0/9 tutta in corto circuito zona 1.07 box utente 7/4</t>
+  </si>
+  <si>
+    <t>TT1004943960</t>
+  </si>
+  <si>
+    <t>93782431</t>
+  </si>
+  <si>
+    <t>IAVOLA.111927</t>
+  </si>
+  <si>
+    <t>20/10/2025 01:35</t>
+  </si>
+  <si>
+    <t>15/10/2025 16:09</t>
+  </si>
+  <si>
+    <t>15/10/2025 16:10</t>
+  </si>
+  <si>
+    <t>14/10/2025 16:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rifatti puntali A e B al box eseguita prova telefonica Codice collaudo: tk202510140069187213 </t>
+  </si>
+  <si>
+    <t>TT1004949287</t>
+  </si>
+  <si>
+    <t>93816880</t>
+  </si>
+  <si>
+    <t>16/10/2025 11:30</t>
+  </si>
+  <si>
+    <t>16/10/2025 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025101593479610 </t>
+  </si>
+  <si>
+    <t>SWADW5041763316</t>
+  </si>
+  <si>
+    <t>093114735543</t>
+  </si>
+  <si>
+    <t>16/10/2025 15:18</t>
+  </si>
+  <si>
+    <t>16/10/2025 11:19</t>
+  </si>
+  <si>
+    <t>16/10/2025 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rifatta permuta in armadio codice collaudo tk202510150069221643 </t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:PX5G1I1043320**</t>
+  </si>
+  <si>
+    <t>#data esec al 16/10</t>
   </si>
 </sst>
 </file>
@@ -4845,17 +5124,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP116"/>
+  <dimension ref="A1:CP132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H84" workbookViewId="0">
-      <selection activeCell="S116" sqref="S116"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="T120" sqref="T120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94">
@@ -36666,9 +36945,2281 @@
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="19:19">
-      <c r="S116" s="3" t="s">
+    <row r="113" spans="1:94">
+      <c r="A113" t="s">
         <v>1489</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D113" t="s">
+        <v>289</v>
+      </c>
+      <c r="E113" t="s">
+        <v>98</v>
+      </c>
+      <c r="F113" t="s">
+        <v>99</v>
+      </c>
+      <c r="G113" t="s">
+        <v>163</v>
+      </c>
+      <c r="H113" t="s">
+        <v>206</v>
+      </c>
+      <c r="I113" t="s">
+        <v>320</v>
+      </c>
+      <c r="J113" t="s">
+        <v>103</v>
+      </c>
+      <c r="K113" t="s">
+        <v>104</v>
+      </c>
+      <c r="L113" t="s">
+        <v>105</v>
+      </c>
+      <c r="M113" t="s">
+        <v>106</v>
+      </c>
+      <c r="N113" t="s">
+        <v>104</v>
+      </c>
+      <c r="O113" t="s">
+        <v>1492</v>
+      </c>
+      <c r="P113" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>1493</v>
+      </c>
+      <c r="R113" t="s">
+        <v>110</v>
+      </c>
+      <c r="S113" t="s">
+        <v>366</v>
+      </c>
+      <c r="T113" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U113" t="s">
+        <v>1494</v>
+      </c>
+      <c r="V113" t="s">
+        <v>104</v>
+      </c>
+      <c r="W113" t="s">
+        <v>114</v>
+      </c>
+      <c r="X113" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF113" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG113" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH113" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI113" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ113" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK113" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL113" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM113" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN113" t="s">
+        <v>1495</v>
+      </c>
+      <c r="AO113" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AP113" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AQ113" t="s">
+        <v>1498</v>
+      </c>
+      <c r="AR113" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS113" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT113" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU113" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV113" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW113" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX113" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AY113" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ113" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA113" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB113" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC113" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD113" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE113" t="s">
+        <v>1500</v>
+      </c>
+      <c r="BF113" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG113" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH113" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI113" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ113" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK113" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL113" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM113" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN113" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO113" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP113" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ113" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR113" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS113" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT113" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU113" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV113" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW113" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX113" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY113" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ113" t="s">
+        <v>208</v>
+      </c>
+      <c r="CA113" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB113" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC113" t="s">
+        <v>1501</v>
+      </c>
+      <c r="CD113" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE113" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF113" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG113" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH113" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI113" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ113" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK113" t="s">
+        <v>1502</v>
+      </c>
+      <c r="CL113" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM113" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN113" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO113" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP113" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:94">
+      <c r="A114" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D114" t="s">
+        <v>97</v>
+      </c>
+      <c r="E114" t="s">
+        <v>98</v>
+      </c>
+      <c r="F114" t="s">
+        <v>99</v>
+      </c>
+      <c r="G114" t="s">
+        <v>139</v>
+      </c>
+      <c r="H114" t="s">
+        <v>206</v>
+      </c>
+      <c r="I114" t="s">
+        <v>102</v>
+      </c>
+      <c r="J114" t="s">
+        <v>103</v>
+      </c>
+      <c r="K114" t="s">
+        <v>104</v>
+      </c>
+      <c r="L114" t="s">
+        <v>105</v>
+      </c>
+      <c r="M114" t="s">
+        <v>106</v>
+      </c>
+      <c r="N114" t="s">
+        <v>104</v>
+      </c>
+      <c r="O114" t="s">
+        <v>1506</v>
+      </c>
+      <c r="P114" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>1507</v>
+      </c>
+      <c r="R114" t="s">
+        <v>110</v>
+      </c>
+      <c r="S114" t="s">
+        <v>165</v>
+      </c>
+      <c r="T114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U114" t="s">
+        <v>1508</v>
+      </c>
+      <c r="V114" t="s">
+        <v>104</v>
+      </c>
+      <c r="W114" t="s">
+        <v>114</v>
+      </c>
+      <c r="X114" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD114" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF114" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG114" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH114" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI114" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ114" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK114" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL114" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM114" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN114" t="s">
+        <v>1509</v>
+      </c>
+      <c r="AO114" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AP114" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AQ114" t="s">
+        <v>1512</v>
+      </c>
+      <c r="AR114" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS114" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT114" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU114" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV114" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW114" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX114" t="s">
+        <v>1513</v>
+      </c>
+      <c r="AY114" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ114" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA114" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB114" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC114" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD114" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE114" t="s">
+        <v>1514</v>
+      </c>
+      <c r="BF114" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG114" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH114" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI114" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ114" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK114" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL114" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM114" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN114" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO114" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP114" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ114" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR114" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS114" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT114" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU114" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV114" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW114" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX114" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY114" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ114" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA114" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB114" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC114" t="s">
+        <v>1515</v>
+      </c>
+      <c r="CD114" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE114" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF114" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG114" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH114" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI114" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ114" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK114" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL114" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM114" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN114" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO114" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP114" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:94">
+      <c r="A115" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D115" t="s">
+        <v>796</v>
+      </c>
+      <c r="E115" t="s">
+        <v>98</v>
+      </c>
+      <c r="F115" t="s">
+        <v>99</v>
+      </c>
+      <c r="G115" t="s">
+        <v>258</v>
+      </c>
+      <c r="H115" t="s">
+        <v>206</v>
+      </c>
+      <c r="I115" t="s">
+        <v>114</v>
+      </c>
+      <c r="J115" t="s">
+        <v>259</v>
+      </c>
+      <c r="K115" t="s">
+        <v>104</v>
+      </c>
+      <c r="L115" t="s">
+        <v>105</v>
+      </c>
+      <c r="M115" t="s">
+        <v>106</v>
+      </c>
+      <c r="N115" t="s">
+        <v>104</v>
+      </c>
+      <c r="O115" t="s">
+        <v>1519</v>
+      </c>
+      <c r="P115" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>1520</v>
+      </c>
+      <c r="R115" t="s">
+        <v>110</v>
+      </c>
+      <c r="S115" t="s">
+        <v>165</v>
+      </c>
+      <c r="T115" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U115" t="s">
+        <v>1521</v>
+      </c>
+      <c r="V115" t="s">
+        <v>104</v>
+      </c>
+      <c r="W115" t="s">
+        <v>114</v>
+      </c>
+      <c r="X115" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD115" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE115" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF115" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG115" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH115" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI115" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ115" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK115" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL115" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM115" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN115" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AO115" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AP115" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AQ115" t="s">
+        <v>1524</v>
+      </c>
+      <c r="AR115" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AS115" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT115" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU115" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV115" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW115" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX115" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY115" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ115" t="s">
+        <v>479</v>
+      </c>
+      <c r="BA115" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB115" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC115" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD115" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE115" t="s">
+        <v>1525</v>
+      </c>
+      <c r="BF115" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG115" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH115" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI115" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ115" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK115" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL115" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM115" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN115" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO115" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP115" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ115" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR115" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS115" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT115" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU115" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV115" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW115" t="s">
+        <v>1526</v>
+      </c>
+      <c r="BX115" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY115" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ115" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA115" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB115" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC115" t="s">
+        <v>1527</v>
+      </c>
+      <c r="CD115" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE115" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF115" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG115" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH115" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI115" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ115" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK115" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL115" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM115" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN115" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO115" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP115" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:94">
+      <c r="A116" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D116" t="s">
+        <v>97</v>
+      </c>
+      <c r="E116" t="s">
+        <v>98</v>
+      </c>
+      <c r="F116" t="s">
+        <v>99</v>
+      </c>
+      <c r="G116" t="s">
+        <v>936</v>
+      </c>
+      <c r="H116" t="s">
+        <v>206</v>
+      </c>
+      <c r="I116" t="s">
+        <v>114</v>
+      </c>
+      <c r="J116" t="s">
+        <v>259</v>
+      </c>
+      <c r="K116" t="s">
+        <v>104</v>
+      </c>
+      <c r="L116" t="s">
+        <v>105</v>
+      </c>
+      <c r="M116" t="s">
+        <v>106</v>
+      </c>
+      <c r="N116" t="s">
+        <v>104</v>
+      </c>
+      <c r="O116" t="s">
+        <v>1530</v>
+      </c>
+      <c r="P116" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>1531</v>
+      </c>
+      <c r="R116" t="s">
+        <v>110</v>
+      </c>
+      <c r="S116" t="s">
+        <v>235</v>
+      </c>
+      <c r="T116" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U116" t="s">
+        <v>1532</v>
+      </c>
+      <c r="V116" t="s">
+        <v>104</v>
+      </c>
+      <c r="W116" t="s">
+        <v>114</v>
+      </c>
+      <c r="X116" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD116" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE116" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF116" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG116" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH116" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ116" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK116" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL116" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM116" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN116" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AO116" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AP116" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AQ116" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AR116" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AS116" t="s">
+        <v>937</v>
+      </c>
+      <c r="AT116" t="s">
+        <v>936</v>
+      </c>
+      <c r="AU116" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV116" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW116" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX116" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY116" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ116" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA116" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB116" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC116" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD116" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE116" t="s">
+        <v>1537</v>
+      </c>
+      <c r="BF116" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG116" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH116" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI116" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ116" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK116" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL116" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM116" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN116" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO116" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP116" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ116" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR116" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS116" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT116" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU116" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV116" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW116" t="s">
+        <v>1231</v>
+      </c>
+      <c r="BX116" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY116" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ116" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA116" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB116" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC116" t="s">
+        <v>1538</v>
+      </c>
+      <c r="CD116" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE116" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF116" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG116" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH116" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI116" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ116" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK116" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL116" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM116" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN116" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO116" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP116" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117" spans="1:94">
+      <c r="A117" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D117" t="s">
+        <v>157</v>
+      </c>
+      <c r="E117" t="s">
+        <v>98</v>
+      </c>
+      <c r="F117" t="s">
+        <v>99</v>
+      </c>
+      <c r="G117" t="s">
+        <v>324</v>
+      </c>
+      <c r="H117" t="s">
+        <v>206</v>
+      </c>
+      <c r="I117" t="s">
+        <v>108</v>
+      </c>
+      <c r="J117" t="s">
+        <v>103</v>
+      </c>
+      <c r="K117" t="s">
+        <v>104</v>
+      </c>
+      <c r="L117" t="s">
+        <v>105</v>
+      </c>
+      <c r="M117" t="s">
+        <v>106</v>
+      </c>
+      <c r="N117" t="s">
+        <v>104</v>
+      </c>
+      <c r="O117" t="s">
+        <v>1542</v>
+      </c>
+      <c r="P117" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>1543</v>
+      </c>
+      <c r="R117" t="s">
+        <v>110</v>
+      </c>
+      <c r="S117" t="s">
+        <v>235</v>
+      </c>
+      <c r="T117" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U117" t="s">
+        <v>1544</v>
+      </c>
+      <c r="V117" t="s">
+        <v>104</v>
+      </c>
+      <c r="W117" t="s">
+        <v>114</v>
+      </c>
+      <c r="X117" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE117" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF117" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG117" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH117" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI117" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ117" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK117" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL117" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM117" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN117" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AO117" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AP117" t="s">
+        <v>1547</v>
+      </c>
+      <c r="AQ117" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AR117" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS117" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT117" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU117" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV117" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW117" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX117" t="s">
+        <v>1549</v>
+      </c>
+      <c r="AY117" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ117" t="s">
+        <v>670</v>
+      </c>
+      <c r="BA117" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB117" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC117" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD117" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE117" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BF117" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG117" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH117" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI117" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ117" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK117" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL117" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM117" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN117" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO117" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP117" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ117" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR117" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS117" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT117" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU117" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV117" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW117" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX117" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY117" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ117" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA117" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB117" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC117" t="s">
+        <v>1551</v>
+      </c>
+      <c r="CD117" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE117" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF117" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG117" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH117" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI117" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ117" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK117" t="s">
+        <v>1552</v>
+      </c>
+      <c r="CL117" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM117" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN117" t="s">
+        <v>1551</v>
+      </c>
+      <c r="CO117" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP117" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:94">
+      <c r="A118" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D118" t="s">
+        <v>289</v>
+      </c>
+      <c r="E118" t="s">
+        <v>98</v>
+      </c>
+      <c r="F118" t="s">
+        <v>99</v>
+      </c>
+      <c r="G118" t="s">
+        <v>139</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I118" t="s">
+        <v>114</v>
+      </c>
+      <c r="J118" t="s">
+        <v>259</v>
+      </c>
+      <c r="K118" t="s">
+        <v>104</v>
+      </c>
+      <c r="L118" t="s">
+        <v>105</v>
+      </c>
+      <c r="M118" t="s">
+        <v>106</v>
+      </c>
+      <c r="N118" t="s">
+        <v>104</v>
+      </c>
+      <c r="O118" t="s">
+        <v>1555</v>
+      </c>
+      <c r="P118" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>1556</v>
+      </c>
+      <c r="R118" t="s">
+        <v>110</v>
+      </c>
+      <c r="S118" t="s">
+        <v>375</v>
+      </c>
+      <c r="T118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U118" t="s">
+        <v>1482</v>
+      </c>
+      <c r="V118" t="s">
+        <v>104</v>
+      </c>
+      <c r="W118" t="s">
+        <v>114</v>
+      </c>
+      <c r="X118" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF118" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG118" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH118" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI118" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ118" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK118" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL118" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM118" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN118" t="s">
+        <v>1557</v>
+      </c>
+      <c r="AO118" t="s">
+        <v>1484</v>
+      </c>
+      <c r="AP118" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AQ118" t="s">
+        <v>1559</v>
+      </c>
+      <c r="AR118" t="s">
+        <v>1558</v>
+      </c>
+      <c r="AS118" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT118" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU118" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV118" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW118" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX118" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY118" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ118" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA118" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB118" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC118" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD118" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE118" t="s">
+        <v>1560</v>
+      </c>
+      <c r="BF118" t="s">
+        <v>1479</v>
+      </c>
+      <c r="BG118" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH118" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI118" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ118" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK118" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL118" t="s">
+        <v>450</v>
+      </c>
+      <c r="BM118" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN118" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO118" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP118" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ118" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR118" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS118" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT118" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU118" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV118" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW118" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX118" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY118" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ118" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA118" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB118" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC118" t="s">
+        <v>1561</v>
+      </c>
+      <c r="CD118" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE118" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF118" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG118" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH118" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI118" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ118" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK118" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL118" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM118" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN118" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO118" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP118" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:94">
+      <c r="A119" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D119" t="s">
+        <v>97</v>
+      </c>
+      <c r="E119" t="s">
+        <v>98</v>
+      </c>
+      <c r="F119" t="s">
+        <v>99</v>
+      </c>
+      <c r="G119" t="s">
+        <v>324</v>
+      </c>
+      <c r="H119" t="s">
+        <v>206</v>
+      </c>
+      <c r="I119" t="s">
+        <v>208</v>
+      </c>
+      <c r="J119" t="s">
+        <v>103</v>
+      </c>
+      <c r="K119" t="s">
+        <v>104</v>
+      </c>
+      <c r="L119" t="s">
+        <v>105</v>
+      </c>
+      <c r="M119" t="s">
+        <v>106</v>
+      </c>
+      <c r="N119" t="s">
+        <v>104</v>
+      </c>
+      <c r="O119" t="s">
+        <v>1556</v>
+      </c>
+      <c r="P119" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>1530</v>
+      </c>
+      <c r="R119" t="s">
+        <v>110</v>
+      </c>
+      <c r="S119" t="s">
+        <v>1564</v>
+      </c>
+      <c r="T119" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U119" t="s">
+        <v>1544</v>
+      </c>
+      <c r="V119" t="s">
+        <v>104</v>
+      </c>
+      <c r="W119" t="s">
+        <v>114</v>
+      </c>
+      <c r="X119" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF119" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG119" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH119" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI119" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ119" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK119" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL119" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM119" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN119" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AO119" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AP119" t="s">
+        <v>1565</v>
+      </c>
+      <c r="AQ119" t="s">
+        <v>1566</v>
+      </c>
+      <c r="AR119" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS119" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT119" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU119" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV119" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW119" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX119" t="s">
+        <v>1567</v>
+      </c>
+      <c r="AY119" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ119" t="s">
+        <v>670</v>
+      </c>
+      <c r="BA119" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB119" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC119" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD119" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE119" t="s">
+        <v>1568</v>
+      </c>
+      <c r="BF119" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG119" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH119" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI119" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ119" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK119" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL119" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM119" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN119" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO119" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP119" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ119" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR119" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS119" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT119" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU119" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV119" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW119" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX119" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY119" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ119" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA119" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB119" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC119" t="s">
+        <v>1569</v>
+      </c>
+      <c r="CD119" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE119" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF119" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG119" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH119" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI119" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ119" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK119" t="s">
+        <v>1552</v>
+      </c>
+      <c r="CL119" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM119" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN119" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO119" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP119" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="120" spans="1:94">
+      <c r="A120" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D120" t="s">
+        <v>97</v>
+      </c>
+      <c r="E120" t="s">
+        <v>98</v>
+      </c>
+      <c r="F120" t="s">
+        <v>99</v>
+      </c>
+      <c r="G120" t="s">
+        <v>324</v>
+      </c>
+      <c r="H120" t="s">
+        <v>101</v>
+      </c>
+      <c r="I120" t="s">
+        <v>102</v>
+      </c>
+      <c r="J120" t="s">
+        <v>103</v>
+      </c>
+      <c r="K120" t="s">
+        <v>104</v>
+      </c>
+      <c r="L120" t="s">
+        <v>105</v>
+      </c>
+      <c r="M120" t="s">
+        <v>106</v>
+      </c>
+      <c r="N120" t="s">
+        <v>104</v>
+      </c>
+      <c r="O120" t="s">
+        <v>1572</v>
+      </c>
+      <c r="P120" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>1573</v>
+      </c>
+      <c r="R120" t="s">
+        <v>110</v>
+      </c>
+      <c r="S120" t="s">
+        <v>165</v>
+      </c>
+      <c r="T120" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U120" t="s">
+        <v>1574</v>
+      </c>
+      <c r="V120" t="s">
+        <v>104</v>
+      </c>
+      <c r="W120" t="s">
+        <v>114</v>
+      </c>
+      <c r="X120" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD120" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE120" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF120" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG120" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH120" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI120" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ120" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK120" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL120" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM120" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN120" t="s">
+        <v>1575</v>
+      </c>
+      <c r="AO120" t="s">
+        <v>1576</v>
+      </c>
+      <c r="AP120" t="s">
+        <v>1577</v>
+      </c>
+      <c r="AQ120" t="s">
+        <v>1578</v>
+      </c>
+      <c r="AR120" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS120" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT120" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU120" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV120" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW120" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX120" t="s">
+        <v>1579</v>
+      </c>
+      <c r="AY120" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ120" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA120" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB120" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC120" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD120" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE120" t="s">
+        <v>1556</v>
+      </c>
+      <c r="BF120" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG120" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH120" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI120" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ120" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK120" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL120" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM120" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN120" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO120" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP120" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ120" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR120" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS120" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT120" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU120" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV120" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW120" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX120" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY120" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ120" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA120" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB120" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC120" t="s">
+        <v>1580</v>
+      </c>
+      <c r="CD120" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE120" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF120" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG120" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH120" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI120" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ120" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK120" t="s">
+        <v>1581</v>
+      </c>
+      <c r="CL120" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM120" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN120" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO120" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP120" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="132" spans="19:19">
+      <c r="S132" s="3" t="s">
+        <v>1582</v>
       </c>
     </row>
   </sheetData>
@@ -36686,7 +39237,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -36699,7 +39250,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11261" uniqueCount="1583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12013" uniqueCount="1684">
   <si>
     <t>Codice</t>
   </si>
@@ -4764,7 +4764,310 @@
     <t>ASSENZA DI PORTANTE **CPE_SN:PX5G1I1043320**</t>
   </si>
   <si>
-    <t>#data esec al 16/10</t>
+    <t>TT1004954827</t>
+  </si>
+  <si>
+    <t>93853852</t>
+  </si>
+  <si>
+    <t>18/10/2025</t>
+  </si>
+  <si>
+    <t>18/10/2025 11:30</t>
+  </si>
+  <si>
+    <t>18/10/2025 12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONCETTINA ROMANO </t>
+  </si>
+  <si>
+    <t>31/10/2025 00:00</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>CRR001034408865</t>
+  </si>
+  <si>
+    <t>0931801729</t>
+  </si>
+  <si>
+    <t>04/11/2025 00:00</t>
+  </si>
+  <si>
+    <t>18/10/2025 11:33</t>
+  </si>
+  <si>
+    <t>16/10/2025 16:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box eseguita prova telefonica codice collaudo tk202510160069258597 </t>
+  </si>
+  <si>
+    <t>TT1004956824</t>
+  </si>
+  <si>
+    <t>93864631</t>
+  </si>
+  <si>
+    <t>20/10/2025</t>
+  </si>
+  <si>
+    <t>CRRGLINAP-</t>
+  </si>
+  <si>
+    <t>20/10/2025 17:00</t>
+  </si>
+  <si>
+    <t>20/10/2025 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIOVANNA CATAUDELLA </t>
+  </si>
+  <si>
+    <t>CRR000103264707</t>
+  </si>
+  <si>
+    <t>0931859163</t>
+  </si>
+  <si>
+    <t>20/10/2025 23:59</t>
+  </si>
+  <si>
+    <t>20/10/2025 17:29</t>
+  </si>
+  <si>
+    <t>RA - Linea in basso isolamento</t>
+  </si>
+  <si>
+    <t>17/10/2025 08:48</t>
+  </si>
+  <si>
+    <t>Guasto cavo secondario zona 1,23 box 28 tutte le coppie in corto netto</t>
+  </si>
+  <si>
+    <t>TT1004959721</t>
+  </si>
+  <si>
+    <t>93885383</t>
+  </si>
+  <si>
+    <t>18/10/2025 13:00</t>
+  </si>
+  <si>
+    <t>18/10/2025 13:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025101793915998 </t>
+  </si>
+  <si>
+    <t>SWADW5041776213</t>
+  </si>
+  <si>
+    <t>093114722161</t>
+  </si>
+  <si>
+    <t>24/10/2025 15:11</t>
+  </si>
+  <si>
+    <t>18/10/2025 12:40</t>
+  </si>
+  <si>
+    <t>18/10/2025 16:26</t>
+  </si>
+  <si>
+    <t>17/10/2025 15:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato in armadio eseguita prova telefonica codice collaudo tk202510170069290114 </t>
+  </si>
+  <si>
+    <t>TT1004962290</t>
+  </si>
+  <si>
+    <t>93899429</t>
+  </si>
+  <si>
+    <t>21/10/2025</t>
+  </si>
+  <si>
+    <t>21/10/2025 16:00</t>
+  </si>
+  <si>
+    <t>21/10/2025 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025101493325753 </t>
+  </si>
+  <si>
+    <t>SWADW5041759150</t>
+  </si>
+  <si>
+    <t>093114732632</t>
+  </si>
+  <si>
+    <t>23/10/2025 06:55</t>
+  </si>
+  <si>
+    <t>21/10/2025 18:09</t>
+  </si>
+  <si>
+    <t>16/10/2025 22:00</t>
+  </si>
+  <si>
+    <t>18/10/2025 10:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rifatti puntali ossidati al box eseguita prova telefonica Codice collaudo: tk202510180069304156 </t>
+  </si>
+  <si>
+    <t>TT1004963519</t>
+  </si>
+  <si>
+    <t>93906016</t>
+  </si>
+  <si>
+    <t>20/10/2025 19:00</t>
+  </si>
+  <si>
+    <t>20/10/2025 19:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025101593497667 </t>
+  </si>
+  <si>
+    <t>SWADW5041763853</t>
+  </si>
+  <si>
+    <t>093114752789</t>
+  </si>
+  <si>
+    <t>17/10/2025 00:30</t>
+  </si>
+  <si>
+    <t>20/10/2025 11:50</t>
+  </si>
+  <si>
+    <t>18/10/2025 16:42</t>
+  </si>
+  <si>
+    <t>@roditori Riferimento giunto al pte codice collaudo tk202510180069310742</t>
+  </si>
+  <si>
+    <t>TT1004969170</t>
+  </si>
+  <si>
+    <t>93942512</t>
+  </si>
+  <si>
+    <t>21/10/2025 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCESCO CASTELLO </t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>CRR001033229988</t>
+  </si>
+  <si>
+    <t>0931813420</t>
+  </si>
+  <si>
+    <t>06/10/2025 14:42</t>
+  </si>
+  <si>
+    <t>21/10/2025 14:50</t>
+  </si>
+  <si>
+    <t>20/10/2025 17:24</t>
+  </si>
+  <si>
+    <t>Rifatti puntali ossidati al box eseguita prova telefonica Codice Collaudo: tk202510200069347230</t>
+  </si>
+  <si>
+    <t>TT1004962579</t>
+  </si>
+  <si>
+    <t>93901032</t>
+  </si>
+  <si>
+    <t>18/10/2025 15:30</t>
+  </si>
+  <si>
+    <t>18/10/2025 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025101894056954 </t>
+  </si>
+  <si>
+    <t>SWADW5041779620</t>
+  </si>
+  <si>
+    <t>093114752858</t>
+  </si>
+  <si>
+    <t>19/10/2025 19:59</t>
+  </si>
+  <si>
+    <t>18/10/2025 15:20</t>
+  </si>
+  <si>
+    <t>MTW2203SMC</t>
+  </si>
+  <si>
+    <t>18/10/2025 12:02</t>
+  </si>
+  <si>
+    <t>93542231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rifatta giunzione alla presa eseguita prova in sede utente certificato con supporto Fastweb pin 643 codice collaudo tk202510180069305759 </t>
+  </si>
+  <si>
+    <t>TT1004963087</t>
+  </si>
+  <si>
+    <t>93903869</t>
+  </si>
+  <si>
+    <t>21/10/2025 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025101894072996 </t>
+  </si>
+  <si>
+    <t>SWADW5041779987</t>
+  </si>
+  <si>
+    <t>093114757576</t>
+  </si>
+  <si>
+    <t>19/10/2025 21:20</t>
+  </si>
+  <si>
+    <t>21/10/2025 15:40</t>
+  </si>
+  <si>
+    <t>19/10/2025 09:30</t>
+  </si>
+  <si>
+    <t>18/10/2025 14:30</t>
+  </si>
+  <si>
+    <t>93650975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sostituita prima presa testato con l'utente codice collaudo tk202510180069308596 eseguito collaudo su Oracle </t>
+  </si>
+  <si>
+    <t>#data esec al 21/10</t>
   </si>
 </sst>
 </file>
@@ -5124,10 +5427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP132"/>
+  <dimension ref="A1:CP137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="T120" sqref="T120"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39217,9 +39520,2281 @@
         <v>104</v>
       </c>
     </row>
-    <row r="132" spans="19:19">
-      <c r="S132" s="3" t="s">
+    <row r="121" spans="1:94" s="1" customFormat="1">
+      <c r="A121" s="1" t="s">
         <v>1582</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q121" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="R121" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S121" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T121" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U121" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="V121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W121" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X121" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y121" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="Z121" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="AA121" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="AB121" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="AC121" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD121" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE121" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF121" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG121" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH121" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI121" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ121" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL121" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM121" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN121" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="AO121" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="AP121" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="AQ121" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="AR121" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AS121" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT121" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA121" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC121" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE121" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="BF121" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="BG121" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK121" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="BL121" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="BM121" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN121" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP121" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ121" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR121" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU121" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV121" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW121" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY121" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB121" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="CC121" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="CD121" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI121" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO121" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP121" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="122" spans="1:94" s="1" customFormat="1">
+      <c r="A122" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S122" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="T122" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U122" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="V122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W122" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X122" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC122" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD122" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE122" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF122" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG122" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH122" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI122" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ122" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL122" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM122" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN122" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="AO122" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="AP122" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="AQ122" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="AR122" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="AS122" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT122" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC122" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="BD122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE122" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="BF122" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG122" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL122" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="BM122" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN122" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP122" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ122" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR122" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU122" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV122" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW122" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY122" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC122" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="CD122" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI122" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP122" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:94" s="1" customFormat="1">
+      <c r="A123" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="R123" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S123" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T123" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U123" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="V123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W123" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X123" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC123" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD123" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE123" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF123" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG123" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH123" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI123" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ123" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL123" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM123" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN123" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AO123" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="AP123" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="AQ123" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="AR123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS123" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT123" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU123" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV123" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW123" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX123" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="AY123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA123" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC123" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD123" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE123" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="BF123" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG123" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL123" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM123" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP123" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ123" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR123" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU123" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV123" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW123" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY123" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC123" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="CD123" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE123" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI123" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM123" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP123" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="1:94" s="1" customFormat="1">
+      <c r="A124" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S124" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T124" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U124" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="V124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W124" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X124" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC124" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD124" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE124" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF124" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG124" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH124" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI124" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ124" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL124" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM124" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN124" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="AO124" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="AP124" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="AQ124" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="AR124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS124" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT124" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV124" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX124" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="AY124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC124" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD124" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE124" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="BF124" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG124" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL124" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM124" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP124" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ124" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR124" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU124" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV124" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW124" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY124" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ124" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC124" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="CD124" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE124" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI124" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO124" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP124" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="125" spans="1:94" s="1" customFormat="1">
+      <c r="A125" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="R125" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S125" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T125" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U125" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="V125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W125" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X125" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC125" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD125" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE125" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF125" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG125" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH125" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI125" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ125" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL125" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM125" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN125" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AO125" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="AP125" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AQ125" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="AR125" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AS125" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT125" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU125" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ125" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="BA125" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC125" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD125" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE125" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="BF125" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL125" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM125" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP125" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ125" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR125" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU125" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV125" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW125" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY125" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA125" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC125" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="CD125" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI125" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO125" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP125" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" spans="1:94" s="1" customFormat="1">
+      <c r="A126" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q126" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="R126" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S126" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T126" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U126" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="V126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W126" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X126" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC126" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD126" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE126" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF126" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG126" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH126" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI126" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ126" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL126" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="AM126" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN126" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="AO126" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="AP126" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="AQ126" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AR126" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="AS126" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="AT126" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="AU126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC126" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE126" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="BF126" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL126" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="BM126" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP126" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ126" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR126" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU126" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV126" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW126" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="BX126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY126" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC126" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="CD126" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI126" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO126" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP126" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:94" s="1" customFormat="1">
+      <c r="A127" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q127" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="R127" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S127" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T127" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U127" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="V127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W127" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X127" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC127" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD127" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE127" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF127" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG127" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH127" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI127" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ127" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL127" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM127" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN127" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AO127" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="AP127" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AQ127" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AR127" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AS127" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT127" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU127" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV127" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ127" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="BA127" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC127" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD127" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE127" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="BF127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI127" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="BJ127" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL127" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN127" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP127" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ127" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR127" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU127" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV127" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW127" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY127" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC127" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="CD127" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI127" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP127" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128" spans="1:94" s="1" customFormat="1">
+      <c r="A128" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="R128" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S128" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="T128" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="U128" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="V128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W128" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X128" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC128" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD128" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE128" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF128" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG128" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH128" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI128" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ128" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL128" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM128" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN128" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="AO128" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AP128" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AQ128" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="AR128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS128" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT128" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU128" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV128" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW128" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX128" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="AY128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA128" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE128" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="BF128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI128" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="BJ128" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL128" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP128" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ128" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR128" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU128" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV128" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW128" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY128" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC128" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="CD128" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE128" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI128" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM128" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP128" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="19:19">
+      <c r="S137" s="3" t="s">
+        <v>1683</v>
       </c>
     </row>
   </sheetData>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12013" uniqueCount="1684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13891" uniqueCount="1910">
   <si>
     <t>Codice</t>
   </si>
@@ -5067,7 +5067,685 @@
     <t xml:space="preserve">sostituita prima presa testato con l'utente codice collaudo tk202510180069308596 eseguito collaudo su Oracle </t>
   </si>
   <si>
-    <t>#data esec al 21/10</t>
+    <t>#data esec al 29/10</t>
+  </si>
+  <si>
+    <t>TT1004969619</t>
+  </si>
+  <si>
+    <t>93945290</t>
+  </si>
+  <si>
+    <t>22/10/2025</t>
+  </si>
+  <si>
+    <t>22/10/2025 18:00</t>
+  </si>
+  <si>
+    <t>22/10/2025 18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025102094417687 </t>
+  </si>
+  <si>
+    <t>SWADW5041789312</t>
+  </si>
+  <si>
+    <t>093114759768</t>
+  </si>
+  <si>
+    <t>22/10/2025 03:01</t>
+  </si>
+  <si>
+    <t>22/10/2025 12:39</t>
+  </si>
+  <si>
+    <t>MTW2202SMB</t>
+  </si>
+  <si>
+    <t>20/10/2025 19:04</t>
+  </si>
+  <si>
+    <t>93818886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@roditori Sostituito monofibra Codice collaudo: tk202510200069350006 </t>
+  </si>
+  <si>
+    <t>TT1004979988</t>
+  </si>
+  <si>
+    <t>94020399</t>
+  </si>
+  <si>
+    <t>27/10/2025</t>
+  </si>
+  <si>
+    <t>27/10/2025 15:00</t>
+  </si>
+  <si>
+    <t>27/10/2025 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025102294845047 </t>
+  </si>
+  <si>
+    <t>SWADW5041800482</t>
+  </si>
+  <si>
+    <t>093114737763</t>
+  </si>
+  <si>
+    <t>24/10/2025 01:54</t>
+  </si>
+  <si>
+    <t>27/10/2025 15:42</t>
+  </si>
+  <si>
+    <t>23/10/2025 14:06</t>
+  </si>
+  <si>
+    <t>22/10/2025 19:06</t>
+  </si>
+  <si>
+    <t>93732789</t>
+  </si>
+  <si>
+    <t>Riparato in armadio. Codice collaudo: tk202510220069425097 PIN : 7343 parlato con Luisa Fastweb</t>
+  </si>
+  <si>
+    <t>TT1004981764</t>
+  </si>
+  <si>
+    <t>94031376</t>
+  </si>
+  <si>
+    <t>24/10/2025</t>
+  </si>
+  <si>
+    <t>24/10/2025 08:30</t>
+  </si>
+  <si>
+    <t>24/10/2025 13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025102294853645 </t>
+  </si>
+  <si>
+    <t>24/10/2025 00:00</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>SWADW5041800727</t>
+  </si>
+  <si>
+    <t>25/10/2025 17:11</t>
+  </si>
+  <si>
+    <t>24/10/2025 11:32</t>
+  </si>
+  <si>
+    <t>24/10/2025 05:14</t>
+  </si>
+  <si>
+    <t>23/10/2025 10:14</t>
+  </si>
+  <si>
+    <t>93590066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eseguito reset modem testato il funzionamento con l'utente codice collaudo tk202510230069436071 </t>
+  </si>
+  <si>
+    <t>TT1004967090</t>
+  </si>
+  <si>
+    <t>93928488</t>
+  </si>
+  <si>
+    <t>27/10/2025 00:00</t>
+  </si>
+  <si>
+    <t>22/10/2025 17:29</t>
+  </si>
+  <si>
+    <t>20/10/2025 13:06</t>
+  </si>
+  <si>
+    <t>attesa cliente</t>
+  </si>
+  <si>
+    <t>riscontriamo la filatura del cliente tutta mangiata dai cani. utente farà lavori di tubazione per evitare che si verifichi nuovamente il problema. .Codice collaudo: tk202510200069333211</t>
+  </si>
+  <si>
+    <t>TT1004967796</t>
+  </si>
+  <si>
+    <t>93933256</t>
+  </si>
+  <si>
+    <t>22/10/2025 16:00</t>
+  </si>
+  <si>
+    <t>22/10/2025 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025101693750890 </t>
+  </si>
+  <si>
+    <t>SWRTW5041771409</t>
+  </si>
+  <si>
+    <t>0931594392</t>
+  </si>
+  <si>
+    <t>22/10/2025 16:21</t>
+  </si>
+  <si>
+    <t>20/10/2025 14:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sostituita primaria vecchia F01/69 nuova F09/38 eseguita prova telefonica codice collaudo tk202510200069337979 </t>
+  </si>
+  <si>
+    <t>LINEA MUTA</t>
+  </si>
+  <si>
+    <t>TT1004974013</t>
+  </si>
+  <si>
+    <t>93977291</t>
+  </si>
+  <si>
+    <t>22/10/2025 12:30</t>
+  </si>
+  <si>
+    <t>22/10/2025 13:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025102194603473 </t>
+  </si>
+  <si>
+    <t>SWADW5041794129</t>
+  </si>
+  <si>
+    <t>093114732686</t>
+  </si>
+  <si>
+    <t>23/10/2025 00:12</t>
+  </si>
+  <si>
+    <t>22/10/2025 12:35</t>
+  </si>
+  <si>
+    <t>22/10/2025 17:20</t>
+  </si>
+  <si>
+    <t>21/10/2025 17:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riparato al box Codice collaudo: tk202510210069381995 </t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:**</t>
+  </si>
+  <si>
+    <t>TT1004974469</t>
+  </si>
+  <si>
+    <t>93979680</t>
+  </si>
+  <si>
+    <t>24/10/2025 11:30</t>
+  </si>
+  <si>
+    <t>24/10/2025 12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSARIO CARUSO </t>
+  </si>
+  <si>
+    <t>APR000103279418</t>
+  </si>
+  <si>
+    <t>0931317077</t>
+  </si>
+  <si>
+    <t>29/10/2025 01:11</t>
+  </si>
+  <si>
+    <t>24/10/2025 11:22</t>
+  </si>
+  <si>
+    <t>21/10/2025 18:40</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>APR</t>
+  </si>
+  <si>
+    <t>rifatti puntali al box testato con l'utente Codice collaudo: tk202510210069384384</t>
+  </si>
+  <si>
+    <t>TT1004976220</t>
+  </si>
+  <si>
+    <t>93988590</t>
+  </si>
+  <si>
+    <t>22/10/2025 16:30</t>
+  </si>
+  <si>
+    <t>CRV001034975130</t>
+  </si>
+  <si>
+    <t>27/10/2025 23:59</t>
+  </si>
+  <si>
+    <t>22/10/2025 16:43</t>
+  </si>
+  <si>
+    <t>22/10/2025 09:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sostituita secondaria zona zona 7.12 box 1 vecchia coppia 5 nuova 6 testato con l'utente codice collaudo tk202510220069393290 </t>
+  </si>
+  <si>
+    <t>TT1004977915</t>
+  </si>
+  <si>
+    <t>94002030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025102294785488 </t>
+  </si>
+  <si>
+    <t>SWADW5041798521</t>
+  </si>
+  <si>
+    <t>093113776528</t>
+  </si>
+  <si>
+    <t>23/10/2025 13:50</t>
+  </si>
+  <si>
+    <t>22/10/2025 16:45</t>
+  </si>
+  <si>
+    <t>SME CPE</t>
+  </si>
+  <si>
+    <t>22/10/2025 14:06</t>
+  </si>
+  <si>
+    <t>S.SORBELLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	Si riscontra box 34,35,36 in basso isolamento verso Terra e 37/38/39 in corto totale zona 1.19</t>
+  </si>
+  <si>
+    <t>TT1004978346</t>
+  </si>
+  <si>
+    <t>94006006</t>
+  </si>
+  <si>
+    <t>23/10/2025</t>
+  </si>
+  <si>
+    <t>23/10/2025 16:30</t>
+  </si>
+  <si>
+    <t>23/10/2025 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025102094396749 </t>
+  </si>
+  <si>
+    <t>SWADW5041788860</t>
+  </si>
+  <si>
+    <t>093114743942</t>
+  </si>
+  <si>
+    <t>22/10/2025 01:37</t>
+  </si>
+  <si>
+    <t>23/10/2025 16:43</t>
+  </si>
+  <si>
+    <t>21/10/2025 18:46</t>
+  </si>
+  <si>
+    <t>22/10/2025 15:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentito il cliente che ci comunica di aver fatto disdetta della suddetta linea, eseguita prova di allineamento su RL 12.60 porta morsettiera c1-40 codice collaudo tk202510220069410704 La signora Frasca ci rifiuta l'intervento. </t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:S210Y14035907**</t>
+  </si>
+  <si>
+    <t>TT1004981941</t>
+  </si>
+  <si>
+    <t>94032985</t>
+  </si>
+  <si>
+    <t>24/10/2025 16:45</t>
+  </si>
+  <si>
+    <t>23/10/2025 10:44</t>
+  </si>
+  <si>
+    <t>Cliente non in sede, non sa fornire data di rientro. Necessita sostituzione monofibra da pte fino a prima presa. Certificato con Marcella Vodafone. Il cliente rifarà richiesta.</t>
+  </si>
+  <si>
+    <t>TT1004983407</t>
+  </si>
+  <si>
+    <t>94043339</t>
+  </si>
+  <si>
+    <t>25/10/2025</t>
+  </si>
+  <si>
+    <t>25/10/2025 10:00</t>
+  </si>
+  <si>
+    <t>25/10/2025 10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025102395015031 </t>
+  </si>
+  <si>
+    <t>SWADW5041804814</t>
+  </si>
+  <si>
+    <t>24/10/2025 13:47</t>
+  </si>
+  <si>
+    <t>25/10/2025 10:23</t>
+  </si>
+  <si>
+    <t>24/10/2025 14:02</t>
+  </si>
+  <si>
+    <t>23/10/2025 14:02</t>
+  </si>
+  <si>
+    <t>Sostituita secondaria vecchia zona 1,42 box 54,4 nuova box 54,10 Codice collaudo: tk202510230069448033</t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:22450M5002937**</t>
+  </si>
+  <si>
+    <t>TT1004987325</t>
+  </si>
+  <si>
+    <t>94074883</t>
+  </si>
+  <si>
+    <t>25/10/2025 13:30</t>
+  </si>
+  <si>
+    <t>25/10/2025 14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025102495177944 </t>
+  </si>
+  <si>
+    <t>SWADW5041810170</t>
+  </si>
+  <si>
+    <t>25/10/2025 10:17</t>
+  </si>
+  <si>
+    <t>25/10/2025 13:51</t>
+  </si>
+  <si>
+    <t>25/10/2025 11:24</t>
+  </si>
+  <si>
+    <t>24/10/2025 11:24</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202510240069479570 eseguito cambio porta vdsl su zona 1.53 p.m 41(new) p.m 36(old), allineamento e stabilità ok</t>
+  </si>
+  <si>
+    <t>TT1004989051</t>
+  </si>
+  <si>
+    <t>94086725</t>
+  </si>
+  <si>
+    <t>25/10/2025 11:00</t>
+  </si>
+  <si>
+    <t>25/10/2025 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025101092613428 </t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>SWADW5041740341</t>
+  </si>
+  <si>
+    <t>093114721285</t>
+  </si>
+  <si>
+    <t>17/10/2025 17:29</t>
+  </si>
+  <si>
+    <t>25/10/2025 11:07</t>
+  </si>
+  <si>
+    <t>26/10/2025 15:14</t>
+  </si>
+  <si>
+    <t>24/10/2025 15:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> guasto di cavo secondaria 1.02 box 5d2 coppie in basso isolamento verso Terra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vox3.0-R21070000019332 </t>
+  </si>
+  <si>
+    <t>25/10/2025 14:05</t>
+  </si>
+  <si>
+    <t>TT1004991658</t>
+  </si>
+  <si>
+    <t>94101329</t>
+  </si>
+  <si>
+    <t>27/10/2025 10:00</t>
+  </si>
+  <si>
+    <t>27/10/2025 10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025102395103072 </t>
+  </si>
+  <si>
+    <t>SWADW5041808213</t>
+  </si>
+  <si>
+    <t>093114743200</t>
+  </si>
+  <si>
+    <t>31/10/2025 13:51</t>
+  </si>
+  <si>
+    <t>27/10/2025 11:42</t>
+  </si>
+  <si>
+    <t>25/10/2025 10:48</t>
+  </si>
+  <si>
+    <t>Riparato in armadio certificato con supporto pin 6554 Codice collaudo: tk202510250069506009</t>
+  </si>
+  <si>
+    <t>TT1004991779</t>
+  </si>
+  <si>
+    <t>94102007</t>
+  </si>
+  <si>
+    <t>25/10/2025 15:00</t>
+  </si>
+  <si>
+    <t>27/10/2025 11:30</t>
+  </si>
+  <si>
+    <t>25/10/2025 11:30</t>
+  </si>
+  <si>
+    <t>Linea non migliorabile, presente box derivato 3 volte, isolamento coppie 15 Mohm. Allineamento in armadio 31/3 srn16/15 attivo 0/0 box 10/2 srn5.6/6 att27/31 sede 10/2 srn5.6/6 att27/32  Codice collaudo: tk202510250069506687 certificato con presidio PIN:72771.</t>
+  </si>
+  <si>
+    <t>TT1004992329</t>
+  </si>
+  <si>
+    <t>94104683</t>
+  </si>
+  <si>
+    <t>25/10/2025 16:00</t>
+  </si>
+  <si>
+    <t>25/10/2025 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025102595397581 </t>
+  </si>
+  <si>
+    <t>SWADW5041816745</t>
+  </si>
+  <si>
+    <t>093114723227</t>
+  </si>
+  <si>
+    <t>26/10/2025 20:51</t>
+  </si>
+  <si>
+    <t>25/10/2025 16:43</t>
+  </si>
+  <si>
+    <t>26/10/2025 14:00</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202510250069509363 eseguito cambio porta vdsl con supporto Tim Elisa su altra piastra della zona 1.21 p.m C2/82(new) C2/10(old), allineamento stabilità e servizi ok provato con il cliente</t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:ZTEEGA0N9F09286**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025102094378586 </t>
+  </si>
+  <si>
+    <t>SWADW5041788364</t>
+  </si>
+  <si>
+    <t>093114752086</t>
+  </si>
+  <si>
+    <t>TT1004993011</t>
+  </si>
+  <si>
+    <t>94108881</t>
+  </si>
+  <si>
+    <t>27/10/2025 08:30</t>
+  </si>
+  <si>
+    <t>27/10/2025 13:00</t>
+  </si>
+  <si>
+    <t>27/10/2025 17:36</t>
+  </si>
+  <si>
+    <t>25/10/2025 17:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@roditori Codice collaudo: tk202510250069513561 Sostituito raccordo monofibra esterno in tubazione da roe a borchia ottica, causa cavo in tubazione mangiato dai cani del cliente , segnale ottico e servizi ok provato in sede cliente </t>
+  </si>
+  <si>
+    <t>TT1004993272</t>
+  </si>
+  <si>
+    <t>94110138</t>
+  </si>
+  <si>
+    <t>28/10/2025</t>
+  </si>
+  <si>
+    <t>29/10/2025 08:00</t>
+  </si>
+  <si>
+    <t>29/10/2025 09:00</t>
+  </si>
+  <si>
+    <t>28/10/2025 01:41</t>
+  </si>
+  <si>
+    <t>27/10/2025 16:00</t>
+  </si>
+  <si>
+    <t>25/10/2025 23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rifatti puntali al box . Codice collaudo: tk202510250069514817  </t>
+  </si>
+  <si>
+    <t>TT1005001034</t>
+  </si>
+  <si>
+    <t>94163834</t>
+  </si>
+  <si>
+    <t>28/10/2025 14:30</t>
+  </si>
+  <si>
+    <t>28/10/2025 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025102895818539 </t>
+  </si>
+  <si>
+    <t>SWADW5041829142</t>
+  </si>
+  <si>
+    <t>093114720657</t>
+  </si>
+  <si>
+    <t>04/11/2025 10:07</t>
+  </si>
+  <si>
+    <t>28/10/2025 14:15</t>
+  </si>
+  <si>
+    <t>30/10/2025 11:16</t>
+  </si>
+  <si>
+    <t>28/10/2025 11:16</t>
+  </si>
+  <si>
+    <t>eseguito cambio profilo con supporto Sielte onucab 2.01 fino a 100 mega nuovo profilo I2010_1002 testato con l'utente codice collaudo tk202510280069568494</t>
+  </si>
+  <si>
+    <t>PROFILO ERRATO **CPE_SN:223C809004552**</t>
+  </si>
+  <si>
+    <t>AVOLA IVAN</t>
   </si>
 </sst>
 </file>
@@ -5427,10 +6105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP137"/>
+  <dimension ref="A1:CP164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView tabSelected="1" topLeftCell="S127" workbookViewId="0">
+      <selection activeCell="T148" sqref="T148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41792,8 +42470,5688 @@
         <v>104</v>
       </c>
     </row>
-    <row r="137" spans="19:19">
-      <c r="S137" s="3" t="s">
+    <row r="129" spans="1:94">
+      <c r="A129" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="R129" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S129" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T129" s="2" t="s">
+        <v>1909</v>
+      </c>
+      <c r="U129" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="V129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W129" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X129" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC129" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD129" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE129" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF129" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG129" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH129" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI129" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ129" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL129" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM129" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN129" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="AO129" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="AP129" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="AQ129" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AR129" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="AS129" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT129" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU129" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV129" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ129" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="BA129" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC129" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD129" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE129" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="BF129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI129" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="BJ129" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL129" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN129" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP129" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ129" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR129" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU129" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV129" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW129" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY129" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA129" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC129" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="CD129" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI129" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP129" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="1:94">
+      <c r="A130" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q130" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="R130" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S130" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="T130" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="U130" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="V130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W130" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X130" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC130" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD130" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE130" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF130" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG130" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH130" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI130" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ130" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL130" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM130" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN130" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="AO130" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="AP130" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="AQ130" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="AR130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS130" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT130" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU130" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV130" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW130" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX130" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="AY130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA130" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC130" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE130" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="BF130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI130" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="BJ130" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL130" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP130" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ130" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR130" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU130" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV130" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW130" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY130" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC130" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="CD130" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE130" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI130" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM130" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP130" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="131" spans="1:94">
+      <c r="A131" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="P131" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q131" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="R131" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S131" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="T131" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="U131" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="V131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W131" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X131" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y131" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="Z131" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="AA131" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AB131" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="AC131" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD131" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE131" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF131" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG131" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH131" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI131" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ131" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL131" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM131" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN131" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AO131" s="1">
+        <v>93114749490</v>
+      </c>
+      <c r="AP131" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="AQ131" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="AR131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS131" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT131" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU131" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV131" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW131" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX131" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="AY131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA131" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC131" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD131" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE131" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="BF131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI131" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="BJ131" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL131" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP131" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ131" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR131" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU131" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV131" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW131" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY131" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC131" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="CD131" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE131" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI131" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM131" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN131" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="CO131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP131" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="132" spans="1:94">
+      <c r="A132" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q132" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="R132" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S132" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T132" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U132" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="V132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W132" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X132" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y132" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="Z132" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="AA132" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="AB132" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="AC132" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD132" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE132" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF132" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG132" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH132" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI132" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ132" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL132" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM132" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN132" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AO132" s="1">
+        <v>93114752789</v>
+      </c>
+      <c r="AP132" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AQ132" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="AR132" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AS132" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT132" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU132" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV132" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ132" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="BA132" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC132" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD132" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE132" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="BF132" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK132" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL132" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM132" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP132" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ132" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR132" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU132" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV132" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW132" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY132" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA132" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB132" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="CC132" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="CD132" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI132" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP132" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="133" spans="1:94">
+      <c r="A133" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="R133" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S133" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T133" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U133" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="V133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W133" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X133" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC133" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD133" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE133" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF133" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG133" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH133" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI133" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ133" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK133" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL133" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM133" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN133" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="AO133" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="AP133" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AQ133" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="AR133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS133" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT133" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU133" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AV133" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="AW133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY133" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AZ133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA133" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC133" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD133" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE133" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="BF133" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG133" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL133" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM133" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP133" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ133" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR133" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU133" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV133" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW133" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BX133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ133" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CA133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC133" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="CD133" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE133" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI133" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK133" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="CL133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP133" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="134" spans="1:94">
+      <c r="A134" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q134" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="R134" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S134" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="T134" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U134" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="V134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W134" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X134" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC134" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD134" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE134" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF134" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG134" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH134" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI134" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ134" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL134" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM134" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN134" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="AO134" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="AP134" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="AQ134" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="AR134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS134" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT134" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU134" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV134" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="AW134" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX134" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="AY134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA134" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC134" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD134" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE134" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="BF134" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG134" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL134" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM134" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP134" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ134" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR134" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU134" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV134" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW134" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY134" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ134" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC134" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="CD134" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE134" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI134" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ134" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK134" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="CL134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO134" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP134" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="135" spans="1:94">
+      <c r="A135" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="R135" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S135" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T135" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U135" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="V135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W135" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X135" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC135" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD135" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE135" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF135" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG135" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH135" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI135" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ135" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL135" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM135" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN135" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="AO135" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="AP135" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="AQ135" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="AR135" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="AS135" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="AT135" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="AU135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA135" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC135" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE135" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="BF135" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG135" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL135" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM135" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN135" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP135" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ135" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR135" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU135" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV135" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW135" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="BX135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY135" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="BZ135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC135" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="CD135" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI135" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP135" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="136" spans="1:94">
+      <c r="A136" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="R136" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S136" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="T136" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U136" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="V136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W136" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X136" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC136" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD136" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE136" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF136" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG136" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH136" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI136" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ136" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL136" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM136" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN136" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="AO136" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AP136" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="AQ136" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="AR136" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="AS136" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="AT136" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="AU136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA136" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC136" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE136" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="BF136" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG136" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL136" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM136" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN136" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP136" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ136" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR136" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU136" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV136" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW136" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="BX136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY136" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC136" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="CD136" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI136" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO136" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP136" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="1:94">
+      <c r="A137" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q137" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="R137" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S137" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T137" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U137" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="V137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W137" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X137" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC137" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD137" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE137" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF137" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG137" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH137" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI137" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ137" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL137" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM137" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN137" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="AO137" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="AP137" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="AQ137" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="AR137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS137" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT137" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU137" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV137" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="AW137" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX137" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="AY137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA137" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC137" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD137" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE137" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="BF137" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG137" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="BH137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL137" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM137" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="BN137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP137" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ137" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR137" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU137" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV137" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW137" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY137" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ137" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC137" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="CD137" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE137" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="CF137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI137" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP137" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="138" spans="1:94">
+      <c r="A138" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q138" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="R138" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S138" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T138" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U138" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="V138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W138" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X138" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC138" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD138" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE138" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF138" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG138" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH138" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI138" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ138" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL138" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM138" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN138" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="AO138" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="AP138" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="AQ138" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="AR138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS138" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="AT138" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="AU138" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV138" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW138" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX138" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="AY138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ138" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="BA138" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC138" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD138" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE138" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="BF138" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG138" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL138" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM138" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP138" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ138" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR138" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU138" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV138" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW138" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY138" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ138" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC138" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="CD138" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE138" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI138" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ138" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK138" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="CL138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN138" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="CO138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP138" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="139" spans="1:94">
+      <c r="A139" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q139" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="R139" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S139" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T139" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U139" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="V139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W139" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X139" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y139" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="Z139" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="AA139" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AB139" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="AC139" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD139" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE139" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF139" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG139" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH139" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI139" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ139" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL139" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM139" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN139" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AO139" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="AP139" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AQ139" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="AR139" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AS139" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT139" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU139" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV139" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ139" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="BA139" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC139" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD139" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE139" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="BF139" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL139" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM139" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP139" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ139" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR139" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU139" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV139" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW139" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY139" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA139" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC139" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="CD139" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI139" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP139" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="140" spans="1:94">
+      <c r="A140" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q140" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="R140" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S140" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="T140" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U140" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="V140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W140" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X140" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC140" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD140" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE140" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF140" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG140" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH140" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI140" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ140" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL140" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM140" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN140" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AO140" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AP140" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="AQ140" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="AR140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS140" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT140" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU140" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV140" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW140" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX140" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="AY140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ140" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="BA140" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC140" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD140" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE140" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="BF140" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG140" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL140" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM140" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP140" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ140" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR140" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU140" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV140" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW140" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY140" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ140" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CA140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC140" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="CD140" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE140" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI140" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ140" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK140" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="CL140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO140" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP140" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="141" spans="1:94">
+      <c r="A141" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q141" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="R141" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S141" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T141" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U141" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="V141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W141" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X141" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC141" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD141" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE141" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF141" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG141" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH141" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI141" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ141" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL141" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM141" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN141" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="AO141" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="AP141" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="AQ141" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="AR141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS141" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT141" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU141" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV141" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="AW141" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX141" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="AY141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA141" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC141" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD141" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE141" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="BF141" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG141" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL141" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM141" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP141" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ141" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR141" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU141" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV141" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW141" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY141" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ141" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC141" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="CD141" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE141" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="CF141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI141" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ141" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK141" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="CL141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP141" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="142" spans="1:94">
+      <c r="A142" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q142" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="R142" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S142" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T142" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U142" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="V142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W142" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X142" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC142" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD142" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE142" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF142" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG142" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH142" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI142" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ142" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL142" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="AM142" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN142" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AO142" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="AP142" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="AQ142" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="AR142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS142" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT142" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU142" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV142" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW142" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX142" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="AY142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA142" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC142" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD142" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE142" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="BF142" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BG142" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL142" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM142" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP142" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ142" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR142" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU142" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV142" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW142" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BX142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY142" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ142" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC142" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="CD142" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE142" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI142" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK142" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="CL142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO142" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP142" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:94">
+      <c r="A143" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q143" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="R143" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S143" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T143" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U143" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="V143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W143" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X143" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC143" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD143" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE143" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF143" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG143" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH143" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI143" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ143" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL143" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM143" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN143" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="AO143" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="AP143" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AQ143" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AR143" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AS143" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT143" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU143" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV143" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA143" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC143" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD143" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE143" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="BF143" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL143" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM143" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP143" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ143" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR143" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU143" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV143" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW143" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="BX143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY143" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC143" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="CD143" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI143" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP143" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="144" spans="1:94">
+      <c r="A144" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="P144" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q144" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="R144" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S144" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T144" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U144" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="V144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W144" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X144" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC144" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD144" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE144" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF144" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG144" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH144" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI144" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ144" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL144" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="AM144" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN144" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AO144" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="AP144" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="AQ144" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="AR144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS144" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT144" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU144" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV144" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW144" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX144" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="AY144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA144" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC144" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD144" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE144" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="BF144" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="BG144" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL144" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM144" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP144" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ144" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR144" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU144" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV144" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW144" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BX144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY144" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ144" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC144" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="CD144" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE144" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI144" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK144" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="CL144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN144" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="CO144" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP144" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="145" spans="1:94">
+      <c r="A145" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O145" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="P145" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q145" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="R145" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S145" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T145" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U145" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="V145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W145" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X145" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC145" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD145" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE145" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF145" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG145" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH145" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI145" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ145" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL145" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM145" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN145" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="AO145" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="AP145" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="AQ145" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="AR145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS145" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT145" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU145" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV145" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW145" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX145" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="AY145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA145" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC145" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD145" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE145" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="BF145" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG145" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL145" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM145" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP145" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ145" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR145" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU145" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV145" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW145" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY145" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ145" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC145" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="CD145" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE145" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI145" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ145" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK145" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="CL145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP145" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="146" spans="1:94">
+      <c r="A146" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="P146" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q146" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="R146" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S146" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T146" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U146" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="V146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W146" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X146" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y146" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="Z146" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="AA146" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="AB146" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="AC146" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD146" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE146" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF146" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG146" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH146" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI146" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ146" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL146" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AM146" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN146" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AO146" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="AP146" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AQ146" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="AR146" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AS146" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT146" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU146" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV146" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ146" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="BA146" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC146" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD146" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE146" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="BF146" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL146" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM146" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP146" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ146" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR146" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU146" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV146" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW146" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="BX146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY146" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA146" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC146" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="CD146" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI146" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO146" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP146" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="147" spans="1:94">
+      <c r="A147" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q147" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="R147" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S147" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="T147" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U147" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="V147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W147" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X147" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC147" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD147" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE147" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF147" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG147" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH147" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI147" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ147" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL147" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM147" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN147" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="AO147" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AP147" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="AQ147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS147" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT147" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU147" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV147" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW147" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX147" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="AY147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA147" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC147" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD147" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE147" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="BF147" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG147" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL147" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM147" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP147" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ147" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR147" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU147" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV147" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW147" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BX147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY147" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ147" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CA147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC147" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="CD147" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE147" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI147" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO147" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP147" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="148" spans="1:94">
+      <c r="A148" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q148" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S148" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="T148" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U148" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="V148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W148" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X148" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC148" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD148" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE148" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF148" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG148" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH148" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI148" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ148" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL148" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM148" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN148" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="AO148" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="AP148" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="AQ148" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="AR148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS148" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT148" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU148" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV148" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW148" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX148" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="AY148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA148" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC148" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD148" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE148" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="BF148" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG148" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL148" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM148" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP148" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ148" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR148" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU148" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV148" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW148" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY148" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ148" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC148" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="CD148" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE148" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI148" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ148" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK148" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="CL148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO148" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP148" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="164" spans="19:19">
+      <c r="S164" s="3" t="s">
         <v>1683</v>
       </c>
     </row>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13891" uniqueCount="1910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15484" uniqueCount="2099">
   <si>
     <t>Codice</t>
   </si>
@@ -5067,9 +5067,6 @@
     <t xml:space="preserve">sostituita prima presa testato con l'utente codice collaudo tk202510180069308596 eseguito collaudo su Oracle </t>
   </si>
   <si>
-    <t>#data esec al 29/10</t>
-  </si>
-  <si>
     <t>TT1004969619</t>
   </si>
   <si>
@@ -5746,6 +5743,576 @@
   </si>
   <si>
     <t>AVOLA IVAN</t>
+  </si>
+  <si>
+    <t>TT1004993288</t>
+  </si>
+  <si>
+    <t>94110172</t>
+  </si>
+  <si>
+    <t>30/10/2025</t>
+  </si>
+  <si>
+    <t>30/10/2025 16:30</t>
+  </si>
+  <si>
+    <t>30/10/2025 17:00</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>30/10/2025 19:41</t>
+  </si>
+  <si>
+    <t>Linea non migliorabile per eccessiva distanza, utente dista da armadio 1km e box D3. Allineamento in Armadio 31.5/3.14 srn12/13 att0/0 box 3.14/28 srn6/6 att19/28 sede 3/28 srn6/5.9 att19/28 eseguire dwgrade 30Mb Codice collaudo: tk202510250069514858 pin 75358</t>
+  </si>
+  <si>
+    <t>TT1004997925</t>
+  </si>
+  <si>
+    <t>94143464</t>
+  </si>
+  <si>
+    <t>31/10/2025</t>
+  </si>
+  <si>
+    <t>31/10/2025 14:30</t>
+  </si>
+  <si>
+    <t>31/10/2025 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025100791912058 </t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>SWADW5041719668</t>
+  </si>
+  <si>
+    <t>093114744408</t>
+  </si>
+  <si>
+    <t>31/10/2025 14:53</t>
+  </si>
+  <si>
+    <t>28/10/2025 16:40</t>
+  </si>
+  <si>
+    <t>27/10/2025 16:40</t>
+  </si>
+  <si>
+    <t>Sostituito modem vodafone eseguita prova in sede utente codice collaudo tk202510270069548135</t>
+  </si>
+  <si>
+    <t>TT1005007043</t>
+  </si>
+  <si>
+    <t>94203245</t>
+  </si>
+  <si>
+    <t>30/10/2025 12:00</t>
+  </si>
+  <si>
+    <t>30/10/2025 12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025102996073637 </t>
+  </si>
+  <si>
+    <t>SWADW5041837947</t>
+  </si>
+  <si>
+    <t>093113756416</t>
+  </si>
+  <si>
+    <t>05/11/2025 13:27</t>
+  </si>
+  <si>
+    <t>30/10/2025 11:50</t>
+  </si>
+  <si>
+    <t>29/10/2025 13:46</t>
+  </si>
+  <si>
+    <t>RIFATTI PUNTALI AL BOX Codice collaudo: tk202510290069607902</t>
+  </si>
+  <si>
+    <t>TT1005007627</t>
+  </si>
+  <si>
+    <t>94206865</t>
+  </si>
+  <si>
+    <t>31/10/2025 10:00</t>
+  </si>
+  <si>
+    <t>31/10/2025 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERESA SCHIAVONE </t>
+  </si>
+  <si>
+    <t>14/11/2025 00:00</t>
+  </si>
+  <si>
+    <t>CRR001035729349</t>
+  </si>
+  <si>
+    <t>0931782503</t>
+  </si>
+  <si>
+    <t>18/11/2025 00:00</t>
+  </si>
+  <si>
+    <t>31/10/2025 09:55</t>
+  </si>
+  <si>
+    <t>30/10/2025 23:59</t>
+  </si>
+  <si>
+    <t>29/10/2025 14:50</t>
+  </si>
+  <si>
+    <t>CLIENTE IRREPERIBILE</t>
+  </si>
+  <si>
+    <t>Riparato al box Codice Collaudo: tk202510290069611502</t>
+  </si>
+  <si>
+    <t>TT1005011027</t>
+  </si>
+  <si>
+    <t>94228659</t>
+  </si>
+  <si>
+    <t>04/11/2025</t>
+  </si>
+  <si>
+    <t>04/11/2025 09:30</t>
+  </si>
+  <si>
+    <t>04/11/2025 10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025103096237616 </t>
+  </si>
+  <si>
+    <t>SWADW5041843798</t>
+  </si>
+  <si>
+    <t>093114748336</t>
+  </si>
+  <si>
+    <t>31/10/2025 10:03</t>
+  </si>
+  <si>
+    <t>04/11/2025 11:37</t>
+  </si>
+  <si>
+    <t>31/10/2025 11:16</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202510300069633284 eseguito ricrea circuito con supporto fibercoop su zona 1.16 p.m C1/50 + eliminato falso contatto sostituendo la presa in sede cliente, allineamento stabilità e servizi ok provato con il cliente.</t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:ZTEEGA0N5911813**</t>
+  </si>
+  <si>
+    <t>TT1005013104</t>
+  </si>
+  <si>
+    <t>94242473</t>
+  </si>
+  <si>
+    <t>05/11/2025 16:56</t>
+  </si>
+  <si>
+    <t>31/10/2025 14:22</t>
+  </si>
+  <si>
+    <t>30/10/2025 15:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box odice collaudo: tk202510300069647093 </t>
+  </si>
+  <si>
+    <t>TT1005013577</t>
+  </si>
+  <si>
+    <t>94245990</t>
+  </si>
+  <si>
+    <t>30/10/2025 17:30</t>
+  </si>
+  <si>
+    <t>30/10/2025 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025103096285145 </t>
+  </si>
+  <si>
+    <t>SWADW5041845373</t>
+  </si>
+  <si>
+    <t>093114758818</t>
+  </si>
+  <si>
+    <t>31/10/2025 14:54</t>
+  </si>
+  <si>
+    <t>30/10/2025 17:35</t>
+  </si>
+  <si>
+    <t>31/10/2025 17:00</t>
+  </si>
+  <si>
+    <t>non riscontrato Codice collaudo: tk202510300069650607</t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:S220Y22077634**</t>
+  </si>
+  <si>
+    <t>TT1005014291</t>
+  </si>
+  <si>
+    <t>94249496</t>
+  </si>
+  <si>
+    <t>31/10/2025 12:30</t>
+  </si>
+  <si>
+    <t>31/10/2025 13:00</t>
+  </si>
+  <si>
+    <t>06/11/2025 13:52</t>
+  </si>
+  <si>
+    <t>31/10/2025 12:16</t>
+  </si>
+  <si>
+    <t>30/10/2025 19:06</t>
+  </si>
+  <si>
+    <t>eseguito cambio profilo come richiesto da Wind con supporto Sielte da 17a / a 35b testato con l'utente codice collaudo tk202510300069654113</t>
+  </si>
+  <si>
+    <t>TT1005014793</t>
+  </si>
+  <si>
+    <t>94251645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025103096370438 </t>
+  </si>
+  <si>
+    <t>SWADW5041848577</t>
+  </si>
+  <si>
+    <t>093113718124</t>
+  </si>
+  <si>
+    <t>01/11/2025 03:51</t>
+  </si>
+  <si>
+    <t>04/11/2025 11:38</t>
+  </si>
+  <si>
+    <t>31/10/2025 21:00</t>
+  </si>
+  <si>
+    <t>30/10/2025 21:00</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202510300069656262 eseguito cambio porta vdsl e ricostruzione circuito con supporto fibercoop su zona 1.16 p.m C1/81(new) C1/56(old), allineamento stabilità e servizi ok provato in sede cliente</t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:S202V05014211**</t>
+  </si>
+  <si>
+    <t>TT1005020713</t>
+  </si>
+  <si>
+    <t>94285285</t>
+  </si>
+  <si>
+    <t>04/11/2025 12:00</t>
+  </si>
+  <si>
+    <t>04/11/2025 13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIUSEPPE CALVO </t>
+  </si>
+  <si>
+    <t>CRV001035880706</t>
+  </si>
+  <si>
+    <t>0931861735</t>
+  </si>
+  <si>
+    <t>15/11/2025 00:00</t>
+  </si>
+  <si>
+    <t>04/11/2025 12:26</t>
+  </si>
+  <si>
+    <t>03/11/2025 18:22</t>
+  </si>
+  <si>
+    <t>01/11/2025 11:20</t>
+  </si>
+  <si>
+    <t>Impostato profilo target 9Db eseguita prova telefonica Codice collaudo: tk202511010069689879</t>
+  </si>
+  <si>
+    <t>TT1005006889</t>
+  </si>
+  <si>
+    <t>94202455</t>
+  </si>
+  <si>
+    <t>30/10/2025 18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XIBINIA C. S. I. SRL </t>
+  </si>
+  <si>
+    <t>CBH001035730735</t>
+  </si>
+  <si>
+    <t>0931596808</t>
+  </si>
+  <si>
+    <t>31/10/2025 00:10</t>
+  </si>
+  <si>
+    <t>30/10/2025 17:43</t>
+  </si>
+  <si>
+    <t>HD - Guasto ONT</t>
+  </si>
+  <si>
+    <t>29/10/2025 13:24</t>
+  </si>
+  <si>
+    <t>93591789</t>
+  </si>
+  <si>
+    <t>CBH</t>
+  </si>
+  <si>
+    <t>Rifatta giunzione al pte eseguita prova telefonica codice collaudo tk202510290069607113</t>
+  </si>
+  <si>
+    <t>TT1005016666</t>
+  </si>
+  <si>
+    <t>94264894</t>
+  </si>
+  <si>
+    <t>31/10/2025 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025103196460890 </t>
+  </si>
+  <si>
+    <t>SWADW5041850903</t>
+  </si>
+  <si>
+    <t>093114746918</t>
+  </si>
+  <si>
+    <t>01/11/2025 11:13</t>
+  </si>
+  <si>
+    <t>31/10/2025 16:56</t>
+  </si>
+  <si>
+    <t>01/11/2025 07:20</t>
+  </si>
+  <si>
+    <t>31/10/2025 12:20</t>
+  </si>
+  <si>
+    <t>94059261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riparato al box Codice collaudo: tk202510310069669503  </t>
+  </si>
+  <si>
+    <t>TT1005021415</t>
+  </si>
+  <si>
+    <t>94288545</t>
+  </si>
+  <si>
+    <t>04/11/2025 12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025110196659595 </t>
+  </si>
+  <si>
+    <t>SWADW5041856903</t>
+  </si>
+  <si>
+    <t>02/11/2025 23:57</t>
+  </si>
+  <si>
+    <t>04/11/2025 13:23</t>
+  </si>
+  <si>
+    <t>02/11/2025 17:06</t>
+  </si>
+  <si>
+    <t>01/11/2025 17:06</t>
+  </si>
+  <si>
+    <t>94095251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codice collaudo: tk202511010069693138 riparato al box rifatto puntali a/b, allineamento stabilità e servizi ok provato in sede cliente </t>
+  </si>
+  <si>
+    <t>TT1005021530</t>
+  </si>
+  <si>
+    <t>94289008</t>
+  </si>
+  <si>
+    <t>04/11/2025 16:00</t>
+  </si>
+  <si>
+    <t>04/11/2025 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025110196664719 </t>
+  </si>
+  <si>
+    <t>SWADW5041857074</t>
+  </si>
+  <si>
+    <t>03/11/2025 00:58</t>
+  </si>
+  <si>
+    <t>04/11/2025 16:52</t>
+  </si>
+  <si>
+    <t>02/11/2025 18:06</t>
+  </si>
+  <si>
+    <t>01/11/2025 18:06</t>
+  </si>
+  <si>
+    <t>94095208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codice collaudo: tk202511010069693601 Riparato al box, allineamento stabilità e servizi ok provato con la sig.ra Liotta </t>
+  </si>
+  <si>
+    <t>TT1005021531</t>
+  </si>
+  <si>
+    <t>94289009</t>
+  </si>
+  <si>
+    <t>04/11/2025 17:00</t>
+  </si>
+  <si>
+    <t>04/11/2025 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025110196664456 </t>
+  </si>
+  <si>
+    <t>SWADW5041857061</t>
+  </si>
+  <si>
+    <t>03/11/2025 00:54</t>
+  </si>
+  <si>
+    <t>04/11/2025 18:27</t>
+  </si>
+  <si>
+    <t>94127959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codice collaudo: tk202511010069693602 riparato al box rifatto puntali a/b su box 30 coppia 4 della zona 2.50(percorso aggiornato su Navweb), allineamento stabilità e servizi ok provato con il cliente </t>
+  </si>
+  <si>
+    <t>TT1005021709</t>
+  </si>
+  <si>
+    <t>94289855</t>
+  </si>
+  <si>
+    <t>05/11/2025</t>
+  </si>
+  <si>
+    <t>05/11/2025 16:00</t>
+  </si>
+  <si>
+    <t>05/11/2025 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025110196677401 </t>
+  </si>
+  <si>
+    <t>SWADW5041857398</t>
+  </si>
+  <si>
+    <t>03/11/2025 03:11</t>
+  </si>
+  <si>
+    <t>05/11/2025 17:00</t>
+  </si>
+  <si>
+    <t>02/11/2025 20:20</t>
+  </si>
+  <si>
+    <t>01/11/2025 20:20</t>
+  </si>
+  <si>
+    <t>94095219</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202511010069694446 riparato in armadio rifatta permuta aggiornato percorso di rete allineamento stabilità servizi ok provato in sede cliente</t>
+  </si>
+  <si>
+    <t>TT1005026988</t>
+  </si>
+  <si>
+    <t>94324933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025110396920188 </t>
+  </si>
+  <si>
+    <t>SWADW5041864225</t>
+  </si>
+  <si>
+    <t>05/11/2025 00:15</t>
+  </si>
+  <si>
+    <t>05/11/2025 17:48</t>
+  </si>
+  <si>
+    <t>04/11/2025 17:24</t>
+  </si>
+  <si>
+    <t>03/11/2025 17:24</t>
+  </si>
+  <si>
+    <t>94095216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codice collaudo: tk202511030069729498 Riparato in armadio rifatta permuta allineamento stabilità servizi ok testato da my link </t>
+  </si>
+  <si>
+    <t>#data esec al 05/11</t>
   </si>
 </sst>
 </file>
@@ -6105,10 +6672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP164"/>
+  <dimension ref="A1:CP170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S127" workbookViewId="0">
-      <selection activeCell="T148" sqref="T148"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="T165" sqref="T165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42472,13 +43039,13 @@
     </row>
     <row r="129" spans="1:94">
       <c r="A129" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>1684</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>1685</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>1686</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>97</v>
@@ -42514,13 +43081,13 @@
         <v>104</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="P129" s="1" t="s">
         <v>208</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="R129" s="1" t="s">
         <v>110</v>
@@ -42529,10 +43096,10 @@
         <v>179</v>
       </c>
       <c r="T129" s="2" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="V129" s="1" t="s">
         <v>104</v>
@@ -42589,19 +43156,19 @@
         <v>108</v>
       </c>
       <c r="AN129" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="AO129" s="1" t="s">
         <v>1690</v>
       </c>
-      <c r="AO129" s="1" t="s">
+      <c r="AP129" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="AP129" s="1" t="s">
+      <c r="AQ129" s="1" t="s">
         <v>1692</v>
       </c>
-      <c r="AQ129" s="1" t="s">
-        <v>1693</v>
-      </c>
       <c r="AR129" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="AS129" s="1" t="s">
         <v>184</v>
@@ -42625,7 +43192,7 @@
         <v>104</v>
       </c>
       <c r="AZ129" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="BA129" s="1" t="s">
         <v>127</v>
@@ -42640,19 +43207,19 @@
         <v>693</v>
       </c>
       <c r="BE129" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="BF129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH129" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI129" s="1" t="s">
         <v>1695</v>
-      </c>
-      <c r="BF129" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG129" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH129" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI129" s="1" t="s">
-        <v>1696</v>
       </c>
       <c r="BJ129" s="1" t="s">
         <v>110</v>
@@ -42712,7 +43279,7 @@
         <v>104</v>
       </c>
       <c r="CC129" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="CD129" s="1" t="s">
         <v>99</v>
@@ -42756,13 +43323,13 @@
     </row>
     <row r="130" spans="1:94">
       <c r="A130" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>1698</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>1699</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>1700</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>97</v>
@@ -42798,13 +43365,13 @@
         <v>104</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="P130" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="R130" s="1" t="s">
         <v>110</v>
@@ -42816,7 +43383,7 @@
         <v>203</v>
       </c>
       <c r="U130" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="V130" s="1" t="s">
         <v>104</v>
@@ -42873,16 +43440,16 @@
         <v>108</v>
       </c>
       <c r="AN130" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="AO130" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="AO130" s="1" t="s">
+      <c r="AP130" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="AP130" s="1" t="s">
+      <c r="AQ130" s="1" t="s">
         <v>1706</v>
-      </c>
-      <c r="AQ130" s="1" t="s">
-        <v>1707</v>
       </c>
       <c r="AR130" s="1" t="s">
         <v>104</v>
@@ -42903,7 +43470,7 @@
         <v>173</v>
       </c>
       <c r="AX130" s="1" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="AY130" s="1" t="s">
         <v>104</v>
@@ -42924,19 +43491,19 @@
         <v>129</v>
       </c>
       <c r="BE130" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="BF130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH130" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI130" s="1" t="s">
         <v>1709</v>
-      </c>
-      <c r="BF130" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG130" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH130" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI130" s="1" t="s">
-        <v>1710</v>
       </c>
       <c r="BJ130" s="1" t="s">
         <v>110</v>
@@ -42996,7 +43563,7 @@
         <v>104</v>
       </c>
       <c r="CC130" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="CD130" s="1" t="s">
         <v>99</v>
@@ -43040,13 +43607,13 @@
     </row>
     <row r="131" spans="1:94">
       <c r="A131" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>1713</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>1714</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>157</v>
@@ -43082,13 +43649,13 @@
         <v>104</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="P131" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="R131" s="1" t="s">
         <v>110</v>
@@ -43100,7 +43667,7 @@
         <v>203</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="V131" s="1" t="s">
         <v>104</v>
@@ -43112,13 +43679,13 @@
         <v>115</v>
       </c>
       <c r="Y131" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="Z131" s="1" t="s">
         <v>1718</v>
       </c>
-      <c r="Z131" s="1" t="s">
-        <v>1719</v>
-      </c>
       <c r="AA131" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="AB131" s="1" t="s">
         <v>554</v>
@@ -43157,16 +43724,16 @@
         <v>108</v>
       </c>
       <c r="AN131" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="AO131" s="1">
         <v>93114749490</v>
       </c>
       <c r="AP131" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AQ131" s="1" t="s">
         <v>1721</v>
-      </c>
-      <c r="AQ131" s="1" t="s">
-        <v>1722</v>
       </c>
       <c r="AR131" s="1" t="s">
         <v>104</v>
@@ -43187,7 +43754,7 @@
         <v>173</v>
       </c>
       <c r="AX131" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="AY131" s="1" t="s">
         <v>104</v>
@@ -43208,19 +43775,19 @@
         <v>129</v>
       </c>
       <c r="BE131" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="BF131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI131" s="1" t="s">
         <v>1724</v>
-      </c>
-      <c r="BF131" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG131" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH131" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI131" s="1" t="s">
-        <v>1725</v>
       </c>
       <c r="BJ131" s="1" t="s">
         <v>110</v>
@@ -43280,7 +43847,7 @@
         <v>104</v>
       </c>
       <c r="CC131" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="CD131" s="1" t="s">
         <v>99</v>
@@ -43313,7 +43880,7 @@
         <v>226</v>
       </c>
       <c r="CN131" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="CO131" s="1" t="s">
         <v>104</v>
@@ -43324,13 +43891,13 @@
     </row>
     <row r="132" spans="1:94">
       <c r="A132" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>1727</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>1728</v>
-      </c>
       <c r="C132" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>157</v>
@@ -43366,13 +43933,13 @@
         <v>104</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="P132" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="R132" s="1" t="s">
         <v>110</v>
@@ -43396,13 +43963,13 @@
         <v>115</v>
       </c>
       <c r="Y132" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="Z132" s="1" t="s">
         <v>934</v>
       </c>
       <c r="AA132" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="AB132" s="1" t="s">
         <v>555</v>
@@ -43450,7 +44017,7 @@
         <v>1407</v>
       </c>
       <c r="AQ132" s="1" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="AR132" s="1" t="s">
         <v>1643</v>
@@ -43492,7 +44059,7 @@
         <v>693</v>
       </c>
       <c r="BE132" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="BF132" s="1" t="s">
         <v>97</v>
@@ -43561,10 +44128,10 @@
         <v>99</v>
       </c>
       <c r="CB132" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="CC132" s="1" t="s">
         <v>1732</v>
-      </c>
-      <c r="CC132" s="1" t="s">
-        <v>1733</v>
       </c>
       <c r="CD132" s="1" t="s">
         <v>99</v>
@@ -43608,13 +44175,13 @@
     </row>
     <row r="133" spans="1:94">
       <c r="A133" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>1734</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>1735</v>
-      </c>
       <c r="C133" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>230</v>
@@ -43650,13 +44217,13 @@
         <v>104</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="P133" s="1" t="s">
         <v>208</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="R133" s="1" t="s">
         <v>110</v>
@@ -43668,7 +44235,7 @@
         <v>427</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="V133" s="1" t="s">
         <v>104</v>
@@ -43725,16 +44292,16 @@
         <v>108</v>
       </c>
       <c r="AN133" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="AO133" s="1" t="s">
         <v>1739</v>
-      </c>
-      <c r="AO133" s="1" t="s">
-        <v>1740</v>
       </c>
       <c r="AP133" s="1" t="s">
         <v>1535</v>
       </c>
       <c r="AQ133" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="AR133" s="1" t="s">
         <v>104</v>
@@ -43776,7 +44343,7 @@
         <v>155</v>
       </c>
       <c r="BE133" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="BF133" s="1" t="s">
         <v>97</v>
@@ -43848,7 +44415,7 @@
         <v>104</v>
       </c>
       <c r="CC133" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="CD133" s="1" t="s">
         <v>99</v>
@@ -43872,7 +44439,7 @@
         <v>104</v>
       </c>
       <c r="CK133" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="CL133" s="1" t="s">
         <v>104</v>
@@ -43892,13 +44459,13 @@
     </row>
     <row r="134" spans="1:94">
       <c r="A134" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>1745</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>1746</v>
-      </c>
       <c r="C134" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>97</v>
@@ -43934,13 +44501,13 @@
         <v>104</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="P134" s="1" t="s">
         <v>102</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="R134" s="1" t="s">
         <v>110</v>
@@ -43952,7 +44519,7 @@
         <v>360</v>
       </c>
       <c r="U134" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="V134" s="1" t="s">
         <v>104</v>
@@ -44009,16 +44576,16 @@
         <v>108</v>
       </c>
       <c r="AN134" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="AO134" s="1" t="s">
         <v>1750</v>
       </c>
-      <c r="AO134" s="1" t="s">
+      <c r="AP134" s="1" t="s">
         <v>1751</v>
       </c>
-      <c r="AP134" s="1" t="s">
+      <c r="AQ134" s="1" t="s">
         <v>1752</v>
-      </c>
-      <c r="AQ134" s="1" t="s">
-        <v>1753</v>
       </c>
       <c r="AR134" s="1" t="s">
         <v>104</v>
@@ -44039,7 +44606,7 @@
         <v>217</v>
       </c>
       <c r="AX134" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="AY134" s="1" t="s">
         <v>104</v>
@@ -44060,7 +44627,7 @@
         <v>129</v>
       </c>
       <c r="BE134" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="BF134" s="1" t="s">
         <v>97</v>
@@ -44132,7 +44699,7 @@
         <v>104</v>
       </c>
       <c r="CC134" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="CD134" s="1" t="s">
         <v>99</v>
@@ -44156,7 +44723,7 @@
         <v>114</v>
       </c>
       <c r="CK134" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="CL134" s="1" t="s">
         <v>104</v>
@@ -44176,13 +44743,13 @@
     </row>
     <row r="135" spans="1:94">
       <c r="A135" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>1758</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>1759</v>
-      </c>
       <c r="C135" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>97</v>
@@ -44218,13 +44785,13 @@
         <v>104</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="P135" s="1" t="s">
         <v>102</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="R135" s="1" t="s">
         <v>110</v>
@@ -44236,7 +44803,7 @@
         <v>236</v>
       </c>
       <c r="U135" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="V135" s="1" t="s">
         <v>104</v>
@@ -44293,19 +44860,19 @@
         <v>108</v>
       </c>
       <c r="AN135" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="AO135" s="1" t="s">
         <v>1763</v>
       </c>
-      <c r="AO135" s="1" t="s">
+      <c r="AP135" s="1" t="s">
         <v>1764</v>
       </c>
-      <c r="AP135" s="1" t="s">
+      <c r="AQ135" s="1" t="s">
         <v>1765</v>
       </c>
-      <c r="AQ135" s="1" t="s">
-        <v>1766</v>
-      </c>
       <c r="AR135" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="AS135" s="1" t="s">
         <v>889</v>
@@ -44344,7 +44911,7 @@
         <v>104</v>
       </c>
       <c r="BE135" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="BF135" s="1" t="s">
         <v>230</v>
@@ -44398,25 +44965,25 @@
         <v>114</v>
       </c>
       <c r="BW135" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="BX135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY135" s="1" t="s">
         <v>1768</v>
       </c>
-      <c r="BX135" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BY135" s="1" t="s">
+      <c r="BZ135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB135" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC135" s="1" t="s">
         <v>1769</v>
-      </c>
-      <c r="BZ135" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CA135" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CB135" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CC135" s="1" t="s">
-        <v>1770</v>
       </c>
       <c r="CD135" s="1" t="s">
         <v>99</v>
@@ -44460,13 +45027,13 @@
     </row>
     <row r="136" spans="1:94">
       <c r="A136" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>1771</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>1772</v>
-      </c>
       <c r="C136" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>230</v>
@@ -44502,13 +45069,13 @@
         <v>104</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="P136" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="R136" s="1" t="s">
         <v>110</v>
@@ -44577,19 +45144,19 @@
         <v>108</v>
       </c>
       <c r="AN136" s="1" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="AO136" s="1" t="s">
         <v>1534</v>
       </c>
       <c r="AP136" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="AQ136" s="1" t="s">
         <v>1775</v>
       </c>
-      <c r="AQ136" s="1" t="s">
-        <v>1776</v>
-      </c>
       <c r="AR136" s="1" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="AS136" s="1" t="s">
         <v>937</v>
@@ -44628,7 +45195,7 @@
         <v>104</v>
       </c>
       <c r="BE136" s="1" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="BF136" s="1" t="s">
         <v>97</v>
@@ -44682,7 +45249,7 @@
         <v>114</v>
       </c>
       <c r="BW136" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="BX136" s="1" t="s">
         <v>104</v>
@@ -44700,7 +45267,7 @@
         <v>104</v>
       </c>
       <c r="CC136" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="CD136" s="1" t="s">
         <v>98</v>
@@ -44744,13 +45311,13 @@
     </row>
     <row r="137" spans="1:94">
       <c r="A137" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>1779</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>1780</v>
-      </c>
       <c r="C137" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>289</v>
@@ -44786,13 +45353,13 @@
         <v>104</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="P137" s="1" t="s">
         <v>102</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="R137" s="1" t="s">
         <v>110</v>
@@ -44804,7 +45371,7 @@
         <v>112</v>
       </c>
       <c r="U137" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="V137" s="1" t="s">
         <v>104</v>
@@ -44861,16 +45428,16 @@
         <v>108</v>
       </c>
       <c r="AN137" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="AO137" s="1" t="s">
         <v>1782</v>
       </c>
-      <c r="AO137" s="1" t="s">
+      <c r="AP137" s="1" t="s">
         <v>1783</v>
       </c>
-      <c r="AP137" s="1" t="s">
+      <c r="AQ137" s="1" t="s">
         <v>1784</v>
-      </c>
-      <c r="AQ137" s="1" t="s">
-        <v>1785</v>
       </c>
       <c r="AR137" s="1" t="s">
         <v>104</v>
@@ -44885,13 +45452,13 @@
         <v>123</v>
       </c>
       <c r="AV137" s="1" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="AW137" s="1" t="s">
         <v>125</v>
       </c>
       <c r="AX137" s="1" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="AY137" s="1" t="s">
         <v>104</v>
@@ -44912,13 +45479,13 @@
         <v>129</v>
       </c>
       <c r="BE137" s="1" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="BF137" s="1" t="s">
         <v>97</v>
       </c>
       <c r="BG137" s="1" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="BH137" s="1" t="s">
         <v>104</v>
@@ -44984,7 +45551,7 @@
         <v>104</v>
       </c>
       <c r="CC137" s="1" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="CD137" s="1" t="s">
         <v>98</v>
@@ -45028,13 +45595,13 @@
     </row>
     <row r="138" spans="1:94">
       <c r="A138" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>1790</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>1791</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>1792</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>157</v>
@@ -45070,13 +45637,13 @@
         <v>104</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="P138" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="R138" s="1" t="s">
         <v>110</v>
@@ -45088,7 +45655,7 @@
         <v>262</v>
       </c>
       <c r="U138" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="V138" s="1" t="s">
         <v>104</v>
@@ -45145,16 +45712,16 @@
         <v>108</v>
       </c>
       <c r="AN138" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="AO138" s="1" t="s">
         <v>1796</v>
       </c>
-      <c r="AO138" s="1" t="s">
+      <c r="AP138" s="1" t="s">
         <v>1797</v>
       </c>
-      <c r="AP138" s="1" t="s">
+      <c r="AQ138" s="1" t="s">
         <v>1798</v>
-      </c>
-      <c r="AQ138" s="1" t="s">
-        <v>1799</v>
       </c>
       <c r="AR138" s="1" t="s">
         <v>104</v>
@@ -45175,7 +45742,7 @@
         <v>217</v>
       </c>
       <c r="AX138" s="1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="AY138" s="1" t="s">
         <v>104</v>
@@ -45196,7 +45763,7 @@
         <v>129</v>
       </c>
       <c r="BE138" s="1" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="BF138" s="1" t="s">
         <v>97</v>
@@ -45268,7 +45835,7 @@
         <v>104</v>
       </c>
       <c r="CC138" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="CD138" s="1" t="s">
         <v>99</v>
@@ -45292,7 +45859,7 @@
         <v>114</v>
       </c>
       <c r="CK138" s="1" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="CL138" s="1" t="s">
         <v>104</v>
@@ -45301,7 +45868,7 @@
         <v>104</v>
       </c>
       <c r="CN138" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="CO138" s="1" t="s">
         <v>104</v>
@@ -45312,13 +45879,13 @@
     </row>
     <row r="139" spans="1:94">
       <c r="A139" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>1805</v>
-      </c>
       <c r="C139" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>157</v>
@@ -45354,13 +45921,13 @@
         <v>104</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="P139" s="1" t="s">
         <v>102</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="R139" s="1" t="s">
         <v>110</v>
@@ -45384,13 +45951,13 @@
         <v>115</v>
       </c>
       <c r="Y139" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="Z139" s="1" t="s">
         <v>1718</v>
       </c>
-      <c r="Z139" s="1" t="s">
-        <v>1719</v>
-      </c>
       <c r="AA139" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="AB139" s="1" t="s">
         <v>554</v>
@@ -45438,7 +46005,7 @@
         <v>1643</v>
       </c>
       <c r="AQ139" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="AR139" s="1" t="s">
         <v>1643</v>
@@ -45480,7 +46047,7 @@
         <v>693</v>
       </c>
       <c r="BE139" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="BF139" s="1" t="s">
         <v>157</v>
@@ -45552,7 +46119,7 @@
         <v>104</v>
       </c>
       <c r="CC139" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="CD139" s="1" t="s">
         <v>99</v>
@@ -45596,13 +46163,13 @@
     </row>
     <row r="140" spans="1:94">
       <c r="A140" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>1810</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>1811</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>230</v>
@@ -45638,13 +46205,13 @@
         <v>104</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="P140" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="R140" s="1" t="s">
         <v>110</v>
@@ -45656,7 +46223,7 @@
         <v>227</v>
       </c>
       <c r="U140" s="1" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="V140" s="1" t="s">
         <v>104</v>
@@ -45713,16 +46280,16 @@
         <v>108</v>
       </c>
       <c r="AN140" s="1" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="AO140" s="1" t="s">
         <v>1198</v>
       </c>
       <c r="AP140" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AQ140" s="1" t="s">
         <v>1816</v>
-      </c>
-      <c r="AQ140" s="1" t="s">
-        <v>1817</v>
       </c>
       <c r="AR140" s="1" t="s">
         <v>104</v>
@@ -45743,7 +46310,7 @@
         <v>217</v>
       </c>
       <c r="AX140" s="1" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="AY140" s="1" t="s">
         <v>104</v>
@@ -45764,7 +46331,7 @@
         <v>129</v>
       </c>
       <c r="BE140" s="1" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="BF140" s="1" t="s">
         <v>97</v>
@@ -45836,7 +46403,7 @@
         <v>104</v>
       </c>
       <c r="CC140" s="1" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="CD140" s="1" t="s">
         <v>98</v>
@@ -45860,7 +46427,7 @@
         <v>114</v>
       </c>
       <c r="CK140" s="1" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="CL140" s="1" t="s">
         <v>104</v>
@@ -45880,13 +46447,13 @@
     </row>
     <row r="141" spans="1:94">
       <c r="A141" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>1822</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>1823</v>
-      </c>
       <c r="C141" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>469</v>
@@ -45922,13 +46489,13 @@
         <v>104</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="P141" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="R141" s="1" t="s">
         <v>110</v>
@@ -45940,7 +46507,7 @@
         <v>360</v>
       </c>
       <c r="U141" s="1" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="V141" s="1" t="s">
         <v>104</v>
@@ -45997,16 +46564,16 @@
         <v>108</v>
       </c>
       <c r="AN141" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="AO141" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="AP141" s="1" t="s">
         <v>1827</v>
       </c>
-      <c r="AO141" s="1" t="s">
-        <v>1751</v>
-      </c>
-      <c r="AP141" s="1" t="s">
+      <c r="AQ141" s="1" t="s">
         <v>1828</v>
-      </c>
-      <c r="AQ141" s="1" t="s">
-        <v>1829</v>
       </c>
       <c r="AR141" s="1" t="s">
         <v>104</v>
@@ -46027,7 +46594,7 @@
         <v>217</v>
       </c>
       <c r="AX141" s="1" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="AY141" s="1" t="s">
         <v>104</v>
@@ -46048,7 +46615,7 @@
         <v>129</v>
       </c>
       <c r="BE141" s="1" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="BF141" s="1" t="s">
         <v>97</v>
@@ -46120,7 +46687,7 @@
         <v>104</v>
       </c>
       <c r="CC141" s="1" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="CD141" s="1" t="s">
         <v>98</v>
@@ -46144,7 +46711,7 @@
         <v>114</v>
       </c>
       <c r="CK141" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="CL141" s="1" t="s">
         <v>104</v>
@@ -46164,13 +46731,13 @@
     </row>
     <row r="142" spans="1:94">
       <c r="A142" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>1833</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>1834</v>
-      </c>
       <c r="C142" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>289</v>
@@ -46206,13 +46773,13 @@
         <v>104</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="P142" s="1" t="s">
         <v>102</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="R142" s="1" t="s">
         <v>110</v>
@@ -46224,7 +46791,7 @@
         <v>112</v>
       </c>
       <c r="U142" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="V142" s="1" t="s">
         <v>104</v>
@@ -46275,22 +46842,22 @@
         <v>104</v>
       </c>
       <c r="AL142" s="1" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="AM142" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AN142" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="AO142" s="1" t="s">
         <v>1839</v>
       </c>
-      <c r="AO142" s="1" t="s">
+      <c r="AP142" s="1" t="s">
         <v>1840</v>
       </c>
-      <c r="AP142" s="1" t="s">
+      <c r="AQ142" s="1" t="s">
         <v>1841</v>
-      </c>
-      <c r="AQ142" s="1" t="s">
-        <v>1842</v>
       </c>
       <c r="AR142" s="1" t="s">
         <v>104</v>
@@ -46311,7 +46878,7 @@
         <v>125</v>
       </c>
       <c r="AX142" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="AY142" s="1" t="s">
         <v>104</v>
@@ -46332,7 +46899,7 @@
         <v>221</v>
       </c>
       <c r="BE142" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="BF142" s="1" t="s">
         <v>289</v>
@@ -46404,7 +46971,7 @@
         <v>104</v>
       </c>
       <c r="CC142" s="1" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="CD142" s="1" t="s">
         <v>99</v>
@@ -46428,7 +46995,7 @@
         <v>104</v>
       </c>
       <c r="CK142" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="CL142" s="1" t="s">
         <v>104</v>
@@ -46448,13 +47015,13 @@
     </row>
     <row r="143" spans="1:94">
       <c r="A143" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>1848</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>1849</v>
-      </c>
       <c r="C143" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>97</v>
@@ -46490,13 +47057,13 @@
         <v>104</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="P143" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="R143" s="1" t="s">
         <v>110</v>
@@ -46508,7 +47075,7 @@
         <v>262</v>
       </c>
       <c r="U143" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="V143" s="1" t="s">
         <v>104</v>
@@ -46565,19 +47132,19 @@
         <v>108</v>
       </c>
       <c r="AN143" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="AO143" s="1" t="s">
         <v>1853</v>
       </c>
-      <c r="AO143" s="1" t="s">
+      <c r="AP143" s="1" t="s">
         <v>1854</v>
       </c>
-      <c r="AP143" s="1" t="s">
+      <c r="AQ143" s="1" t="s">
         <v>1855</v>
       </c>
-      <c r="AQ143" s="1" t="s">
-        <v>1856</v>
-      </c>
       <c r="AR143" s="1" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="AS143" s="1" t="s">
         <v>268</v>
@@ -46616,7 +47183,7 @@
         <v>221</v>
       </c>
       <c r="BE143" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="BF143" s="1" t="s">
         <v>97</v>
@@ -46688,7 +47255,7 @@
         <v>104</v>
       </c>
       <c r="CC143" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="CD143" s="1" t="s">
         <v>99</v>
@@ -46732,13 +47299,13 @@
     </row>
     <row r="144" spans="1:94">
       <c r="A144" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>1859</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>1860</v>
-      </c>
       <c r="C144" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>344</v>
@@ -46774,13 +47341,13 @@
         <v>104</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="P144" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="R144" s="1" t="s">
         <v>110</v>
@@ -46792,7 +47359,7 @@
         <v>112</v>
       </c>
       <c r="U144" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="V144" s="1" t="s">
         <v>104</v>
@@ -46843,22 +47410,22 @@
         <v>104</v>
       </c>
       <c r="AL144" s="1" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="AM144" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AN144" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="AO144" s="1" t="s">
         <v>1839</v>
       </c>
-      <c r="AO144" s="1" t="s">
+      <c r="AP144" s="1" t="s">
         <v>1840</v>
       </c>
-      <c r="AP144" s="1" t="s">
-        <v>1841</v>
-      </c>
       <c r="AQ144" s="1" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="AR144" s="1" t="s">
         <v>104</v>
@@ -46879,7 +47446,7 @@
         <v>125</v>
       </c>
       <c r="AX144" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="AY144" s="1" t="s">
         <v>104</v>
@@ -46900,7 +47467,7 @@
         <v>221</v>
       </c>
       <c r="BE144" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="BF144" s="1" t="s">
         <v>289</v>
@@ -46972,7 +47539,7 @@
         <v>104</v>
       </c>
       <c r="CC144" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="CD144" s="1" t="s">
         <v>98</v>
@@ -46996,7 +47563,7 @@
         <v>104</v>
       </c>
       <c r="CK144" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="CL144" s="1" t="s">
         <v>104</v>
@@ -47005,7 +47572,7 @@
         <v>104</v>
       </c>
       <c r="CN144" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="CO144" s="1" t="s">
         <v>104</v>
@@ -47016,13 +47583,13 @@
     </row>
     <row r="145" spans="1:94">
       <c r="A145" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>1865</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>1866</v>
-      </c>
       <c r="C145" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>469</v>
@@ -47058,13 +47625,13 @@
         <v>104</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="P145" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="R145" s="1" t="s">
         <v>110</v>
@@ -47076,7 +47643,7 @@
         <v>262</v>
       </c>
       <c r="U145" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="V145" s="1" t="s">
         <v>104</v>
@@ -47133,16 +47700,16 @@
         <v>108</v>
       </c>
       <c r="AN145" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="AO145" s="1" t="s">
         <v>1870</v>
       </c>
-      <c r="AO145" s="1" t="s">
+      <c r="AP145" s="1" t="s">
         <v>1871</v>
       </c>
-      <c r="AP145" s="1" t="s">
+      <c r="AQ145" s="1" t="s">
         <v>1872</v>
-      </c>
-      <c r="AQ145" s="1" t="s">
-        <v>1873</v>
       </c>
       <c r="AR145" s="1" t="s">
         <v>104</v>
@@ -47163,7 +47730,7 @@
         <v>217</v>
       </c>
       <c r="AX145" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="AY145" s="1" t="s">
         <v>104</v>
@@ -47184,7 +47751,7 @@
         <v>129</v>
       </c>
       <c r="BE145" s="1" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="BF145" s="1" t="s">
         <v>469</v>
@@ -47256,7 +47823,7 @@
         <v>104</v>
       </c>
       <c r="CC145" s="1" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="CD145" s="1" t="s">
         <v>99</v>
@@ -47280,7 +47847,7 @@
         <v>114</v>
       </c>
       <c r="CK145" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="CL145" s="1" t="s">
         <v>104</v>
@@ -47300,13 +47867,13 @@
     </row>
     <row r="146" spans="1:94">
       <c r="A146" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>1880</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>1881</v>
-      </c>
       <c r="C146" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>97</v>
@@ -47342,13 +47909,13 @@
         <v>104</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="P146" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="R146" s="1" t="s">
         <v>110</v>
@@ -47372,13 +47939,13 @@
         <v>115</v>
       </c>
       <c r="Y146" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="Z146" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="AA146" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="AB146" s="1" t="s">
         <v>554</v>
@@ -47426,7 +47993,7 @@
         <v>1643</v>
       </c>
       <c r="AQ146" s="1" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="AR146" s="1" t="s">
         <v>1643</v>
@@ -47468,7 +48035,7 @@
         <v>693</v>
       </c>
       <c r="BE146" s="1" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="BF146" s="1" t="s">
         <v>157</v>
@@ -47540,7 +48107,7 @@
         <v>104</v>
       </c>
       <c r="CC146" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="CD146" s="1" t="s">
         <v>99</v>
@@ -47584,13 +48151,13 @@
     </row>
     <row r="147" spans="1:94">
       <c r="A147" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>1887</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>1888</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>1889</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>97</v>
@@ -47626,13 +48193,13 @@
         <v>104</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="P147" s="1" t="s">
         <v>208</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="R147" s="1" t="s">
         <v>110</v>
@@ -47644,7 +48211,7 @@
         <v>236</v>
       </c>
       <c r="U147" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="V147" s="1" t="s">
         <v>104</v>
@@ -47701,13 +48268,13 @@
         <v>108</v>
       </c>
       <c r="AN147" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="AO147" s="1" t="s">
         <v>1878</v>
       </c>
-      <c r="AO147" s="1" t="s">
-        <v>1879</v>
-      </c>
       <c r="AP147" s="1" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="AQ147" s="1" t="s">
         <v>104</v>
@@ -47731,7 +48298,7 @@
         <v>125</v>
       </c>
       <c r="AX147" s="1" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="AY147" s="1" t="s">
         <v>104</v>
@@ -47752,7 +48319,7 @@
         <v>221</v>
       </c>
       <c r="BE147" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="BF147" s="1" t="s">
         <v>97</v>
@@ -47824,7 +48391,7 @@
         <v>104</v>
       </c>
       <c r="CC147" s="1" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="CD147" s="1" t="s">
         <v>98</v>
@@ -47868,13 +48435,13 @@
     </row>
     <row r="148" spans="1:94">
       <c r="A148" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>1896</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>1897</v>
-      </c>
       <c r="C148" s="1" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>469</v>
@@ -47910,13 +48477,13 @@
         <v>104</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="P148" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="R148" s="1" t="s">
         <v>110</v>
@@ -47928,7 +48495,7 @@
         <v>360</v>
       </c>
       <c r="U148" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="V148" s="1" t="s">
         <v>104</v>
@@ -47985,16 +48552,16 @@
         <v>108</v>
       </c>
       <c r="AN148" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="AO148" s="1" t="s">
         <v>1901</v>
       </c>
-      <c r="AO148" s="1" t="s">
+      <c r="AP148" s="1" t="s">
         <v>1902</v>
       </c>
-      <c r="AP148" s="1" t="s">
+      <c r="AQ148" s="1" t="s">
         <v>1903</v>
-      </c>
-      <c r="AQ148" s="1" t="s">
-        <v>1904</v>
       </c>
       <c r="AR148" s="1" t="s">
         <v>104</v>
@@ -48015,7 +48582,7 @@
         <v>217</v>
       </c>
       <c r="AX148" s="1" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="AY148" s="1" t="s">
         <v>104</v>
@@ -48036,7 +48603,7 @@
         <v>221</v>
       </c>
       <c r="BE148" s="1" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="BF148" s="1" t="s">
         <v>97</v>
@@ -48108,7 +48675,7 @@
         <v>104</v>
       </c>
       <c r="CC148" s="1" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="CD148" s="1" t="s">
         <v>99</v>
@@ -48132,7 +48699,7 @@
         <v>114</v>
       </c>
       <c r="CK148" s="1" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="CL148" s="1" t="s">
         <v>104</v>
@@ -48150,9 +48717,4837 @@
         <v>104</v>
       </c>
     </row>
-    <row r="164" spans="19:19">
-      <c r="S164" s="3" t="s">
-        <v>1683</v>
+    <row r="149" spans="1:94">
+      <c r="A149" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D149" t="s">
+        <v>344</v>
+      </c>
+      <c r="E149" t="s">
+        <v>98</v>
+      </c>
+      <c r="F149" t="s">
+        <v>99</v>
+      </c>
+      <c r="G149" t="s">
+        <v>100</v>
+      </c>
+      <c r="H149" t="s">
+        <v>206</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J149" t="s">
+        <v>103</v>
+      </c>
+      <c r="K149" t="s">
+        <v>104</v>
+      </c>
+      <c r="L149" t="s">
+        <v>105</v>
+      </c>
+      <c r="M149" t="s">
+        <v>106</v>
+      </c>
+      <c r="N149" t="s">
+        <v>104</v>
+      </c>
+      <c r="O149" t="s">
+        <v>1912</v>
+      </c>
+      <c r="P149" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>1913</v>
+      </c>
+      <c r="R149" t="s">
+        <v>110</v>
+      </c>
+      <c r="S149" t="s">
+        <v>111</v>
+      </c>
+      <c r="T149" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U149" t="s">
+        <v>1836</v>
+      </c>
+      <c r="V149" t="s">
+        <v>104</v>
+      </c>
+      <c r="W149" t="s">
+        <v>114</v>
+      </c>
+      <c r="X149" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z149" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA149" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB149" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC149" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD149" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE149" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF149" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG149" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH149" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI149" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ149" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK149" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL149" t="s">
+        <v>1914</v>
+      </c>
+      <c r="AM149" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN149" t="s">
+        <v>1838</v>
+      </c>
+      <c r="AO149" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AP149" t="s">
+        <v>1840</v>
+      </c>
+      <c r="AQ149" t="s">
+        <v>1915</v>
+      </c>
+      <c r="AR149" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS149" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT149" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU149" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV149" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW149" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX149" t="s">
+        <v>1861</v>
+      </c>
+      <c r="AY149" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ149" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA149" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB149" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC149" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD149" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE149" t="s">
+        <v>1893</v>
+      </c>
+      <c r="BF149" t="s">
+        <v>344</v>
+      </c>
+      <c r="BG149" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH149" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI149" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ149" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK149" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL149" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM149" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN149" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO149" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP149" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ149" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR149" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS149" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT149" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU149" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV149" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW149" t="s">
+        <v>1316</v>
+      </c>
+      <c r="BX149" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY149" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ149" t="s">
+        <v>208</v>
+      </c>
+      <c r="CA149" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB149" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC149" t="s">
+        <v>1916</v>
+      </c>
+      <c r="CD149" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE149" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF149" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG149" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH149" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI149" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ149" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK149" t="s">
+        <v>1845</v>
+      </c>
+      <c r="CL149" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM149" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN149" t="s">
+        <v>1916</v>
+      </c>
+      <c r="CO149" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP149" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="150" spans="1:94">
+      <c r="A150" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D150" t="s">
+        <v>157</v>
+      </c>
+      <c r="E150" t="s">
+        <v>98</v>
+      </c>
+      <c r="F150" t="s">
+        <v>99</v>
+      </c>
+      <c r="G150" t="s">
+        <v>139</v>
+      </c>
+      <c r="H150" t="s">
+        <v>101</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J150" t="s">
+        <v>103</v>
+      </c>
+      <c r="K150" t="s">
+        <v>104</v>
+      </c>
+      <c r="L150" t="s">
+        <v>105</v>
+      </c>
+      <c r="M150" t="s">
+        <v>106</v>
+      </c>
+      <c r="N150" t="s">
+        <v>104</v>
+      </c>
+      <c r="O150" t="s">
+        <v>1920</v>
+      </c>
+      <c r="P150" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>1921</v>
+      </c>
+      <c r="R150" t="s">
+        <v>110</v>
+      </c>
+      <c r="S150" t="s">
+        <v>375</v>
+      </c>
+      <c r="T150" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U150" t="s">
+        <v>1922</v>
+      </c>
+      <c r="V150" t="s">
+        <v>104</v>
+      </c>
+      <c r="W150" t="s">
+        <v>114</v>
+      </c>
+      <c r="X150" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y150" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z150" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA150" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB150" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC150" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD150" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE150" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF150" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG150" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH150" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI150" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ150" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK150" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL150" t="s">
+        <v>1923</v>
+      </c>
+      <c r="AM150" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN150" t="s">
+        <v>1924</v>
+      </c>
+      <c r="AO150" s="2" t="s">
+        <v>1925</v>
+      </c>
+      <c r="AP150" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AQ150" t="s">
+        <v>1926</v>
+      </c>
+      <c r="AR150" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS150" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT150" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU150" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV150" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AW150" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX150" t="s">
+        <v>1927</v>
+      </c>
+      <c r="AY150" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ150" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA150" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB150" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC150" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD150" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE150" t="s">
+        <v>1928</v>
+      </c>
+      <c r="BF150" t="s">
+        <v>289</v>
+      </c>
+      <c r="BG150" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH150" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI150" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ150" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK150" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL150" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM150" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN150" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO150" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP150" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ150" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR150" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS150" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT150" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU150" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV150" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW150" t="s">
+        <v>1837</v>
+      </c>
+      <c r="BX150" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY150" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ150" t="s">
+        <v>208</v>
+      </c>
+      <c r="CA150" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB150" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC150" t="s">
+        <v>1929</v>
+      </c>
+      <c r="CD150" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE150" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF150" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG150" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH150" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI150" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ150" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK150" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL150" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM150" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN150" t="s">
+        <v>1929</v>
+      </c>
+      <c r="CO150" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP150" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="151" spans="1:94">
+      <c r="A151" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D151" t="s">
+        <v>97</v>
+      </c>
+      <c r="E151" t="s">
+        <v>98</v>
+      </c>
+      <c r="F151" t="s">
+        <v>99</v>
+      </c>
+      <c r="G151" t="s">
+        <v>258</v>
+      </c>
+      <c r="H151" t="s">
+        <v>206</v>
+      </c>
+      <c r="I151" t="s">
+        <v>114</v>
+      </c>
+      <c r="J151" t="s">
+        <v>259</v>
+      </c>
+      <c r="K151" t="s">
+        <v>104</v>
+      </c>
+      <c r="L151" t="s">
+        <v>105</v>
+      </c>
+      <c r="M151" t="s">
+        <v>106</v>
+      </c>
+      <c r="N151" t="s">
+        <v>104</v>
+      </c>
+      <c r="O151" t="s">
+        <v>1932</v>
+      </c>
+      <c r="P151" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>1933</v>
+      </c>
+      <c r="R151" t="s">
+        <v>110</v>
+      </c>
+      <c r="S151" t="s">
+        <v>536</v>
+      </c>
+      <c r="T151" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U151" t="s">
+        <v>1934</v>
+      </c>
+      <c r="V151" t="s">
+        <v>104</v>
+      </c>
+      <c r="W151" t="s">
+        <v>114</v>
+      </c>
+      <c r="X151" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y151" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z151" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA151" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB151" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC151" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD151" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE151" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF151" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG151" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH151" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI151" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ151" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK151" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL151" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM151" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN151" t="s">
+        <v>1935</v>
+      </c>
+      <c r="AO151" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="AP151" t="s">
+        <v>1937</v>
+      </c>
+      <c r="AQ151" t="s">
+        <v>1938</v>
+      </c>
+      <c r="AR151" t="s">
+        <v>1937</v>
+      </c>
+      <c r="AS151" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT151" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU151" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV151" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW151" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX151" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY151" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ151" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA151" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB151" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC151" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD151" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE151" t="s">
+        <v>1939</v>
+      </c>
+      <c r="BF151" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG151" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH151" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI151" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ151" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK151" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL151" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM151" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN151" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO151" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP151" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ151" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR151" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS151" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT151" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU151" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV151" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW151" t="s">
+        <v>1014</v>
+      </c>
+      <c r="BX151" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY151" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ151" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA151" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB151" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC151" t="s">
+        <v>1940</v>
+      </c>
+      <c r="CD151" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE151" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF151" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG151" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH151" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI151" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ151" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK151" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL151" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM151" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN151" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO151" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP151" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="152" spans="1:94">
+      <c r="A152" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D152" t="s">
+        <v>97</v>
+      </c>
+      <c r="E152" t="s">
+        <v>98</v>
+      </c>
+      <c r="F152" t="s">
+        <v>99</v>
+      </c>
+      <c r="G152" t="s">
+        <v>178</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I152" t="s">
+        <v>114</v>
+      </c>
+      <c r="J152" t="s">
+        <v>259</v>
+      </c>
+      <c r="K152" t="s">
+        <v>104</v>
+      </c>
+      <c r="L152" t="s">
+        <v>105</v>
+      </c>
+      <c r="M152" t="s">
+        <v>106</v>
+      </c>
+      <c r="N152" t="s">
+        <v>104</v>
+      </c>
+      <c r="O152" t="s">
+        <v>1943</v>
+      </c>
+      <c r="P152" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>1944</v>
+      </c>
+      <c r="R152" t="s">
+        <v>110</v>
+      </c>
+      <c r="S152" t="s">
+        <v>536</v>
+      </c>
+      <c r="T152" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U152" t="s">
+        <v>1945</v>
+      </c>
+      <c r="V152" t="s">
+        <v>104</v>
+      </c>
+      <c r="W152" t="s">
+        <v>114</v>
+      </c>
+      <c r="X152" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y152" t="s">
+        <v>1946</v>
+      </c>
+      <c r="Z152" t="s">
+        <v>934</v>
+      </c>
+      <c r="AA152" t="s">
+        <v>1946</v>
+      </c>
+      <c r="AB152" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AC152" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD152" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE152" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF152" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG152" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH152" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI152" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ152" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK152" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL152" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM152" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN152" t="s">
+        <v>1947</v>
+      </c>
+      <c r="AO152" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="AP152" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AQ152" t="s">
+        <v>1950</v>
+      </c>
+      <c r="AR152" t="s">
+        <v>1951</v>
+      </c>
+      <c r="AS152" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT152" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU152" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV152" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW152" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX152" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY152" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ152" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA152" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB152" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC152" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD152" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE152" t="s">
+        <v>1952</v>
+      </c>
+      <c r="BF152" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG152" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH152" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI152" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ152" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK152" t="s">
+        <v>1413</v>
+      </c>
+      <c r="BL152" t="s">
+        <v>450</v>
+      </c>
+      <c r="BM152" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN152" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO152" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP152" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ152" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR152" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS152" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT152" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU152" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV152" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW152" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX152" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY152" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ152" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA152" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB152" t="s">
+        <v>1953</v>
+      </c>
+      <c r="CC152" t="s">
+        <v>1954</v>
+      </c>
+      <c r="CD152" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE152" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF152" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG152" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH152" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI152" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ152" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK152" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL152" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM152" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN152" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO152" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP152" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="153" spans="1:94">
+      <c r="A153" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D153" t="s">
+        <v>97</v>
+      </c>
+      <c r="E153" t="s">
+        <v>98</v>
+      </c>
+      <c r="F153" t="s">
+        <v>99</v>
+      </c>
+      <c r="G153" t="s">
+        <v>231</v>
+      </c>
+      <c r="H153" t="s">
+        <v>101</v>
+      </c>
+      <c r="I153" t="s">
+        <v>208</v>
+      </c>
+      <c r="J153" t="s">
+        <v>103</v>
+      </c>
+      <c r="K153" t="s">
+        <v>104</v>
+      </c>
+      <c r="L153" t="s">
+        <v>105</v>
+      </c>
+      <c r="M153" t="s">
+        <v>106</v>
+      </c>
+      <c r="N153" t="s">
+        <v>104</v>
+      </c>
+      <c r="O153" t="s">
+        <v>1958</v>
+      </c>
+      <c r="P153" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>1959</v>
+      </c>
+      <c r="R153" t="s">
+        <v>110</v>
+      </c>
+      <c r="S153" t="s">
+        <v>235</v>
+      </c>
+      <c r="T153" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U153" t="s">
+        <v>1960</v>
+      </c>
+      <c r="V153" t="s">
+        <v>104</v>
+      </c>
+      <c r="W153" t="s">
+        <v>114</v>
+      </c>
+      <c r="X153" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA153" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC153" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD153" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE153" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF153" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG153" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH153" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI153" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ153" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK153" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL153" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM153" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN153" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AO153" s="2" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AP153" t="s">
+        <v>1963</v>
+      </c>
+      <c r="AQ153" t="s">
+        <v>1964</v>
+      </c>
+      <c r="AR153" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS153" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT153" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU153" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV153" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW153" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX153" t="s">
+        <v>1965</v>
+      </c>
+      <c r="AY153" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ153" t="s">
+        <v>670</v>
+      </c>
+      <c r="BA153" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB153" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC153" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD153" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE153" t="s">
+        <v>1904</v>
+      </c>
+      <c r="BF153" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG153" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH153" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI153" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ153" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK153" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL153" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM153" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN153" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO153" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP153" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ153" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR153" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS153" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT153" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU153" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV153" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW153" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX153" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY153" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ153" t="s">
+        <v>208</v>
+      </c>
+      <c r="CA153" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB153" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC153" t="s">
+        <v>1966</v>
+      </c>
+      <c r="CD153" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE153" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF153" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG153" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH153" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI153" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ153" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK153" t="s">
+        <v>1967</v>
+      </c>
+      <c r="CL153" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM153" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN153" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO153" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP153" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="154" spans="1:94">
+      <c r="A154" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D154" t="s">
+        <v>97</v>
+      </c>
+      <c r="E154" t="s">
+        <v>98</v>
+      </c>
+      <c r="F154" t="s">
+        <v>99</v>
+      </c>
+      <c r="G154" t="s">
+        <v>258</v>
+      </c>
+      <c r="H154" t="s">
+        <v>101</v>
+      </c>
+      <c r="I154" t="s">
+        <v>114</v>
+      </c>
+      <c r="J154" t="s">
+        <v>259</v>
+      </c>
+      <c r="K154" t="s">
+        <v>104</v>
+      </c>
+      <c r="L154" t="s">
+        <v>105</v>
+      </c>
+      <c r="M154" t="s">
+        <v>106</v>
+      </c>
+      <c r="N154" t="s">
+        <v>104</v>
+      </c>
+      <c r="O154" t="s">
+        <v>1920</v>
+      </c>
+      <c r="P154" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>1921</v>
+      </c>
+      <c r="R154" t="s">
+        <v>110</v>
+      </c>
+      <c r="S154" t="s">
+        <v>536</v>
+      </c>
+      <c r="T154" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U154" t="s">
+        <v>1934</v>
+      </c>
+      <c r="V154" t="s">
+        <v>104</v>
+      </c>
+      <c r="W154" t="s">
+        <v>114</v>
+      </c>
+      <c r="X154" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z154" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA154" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB154" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC154" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD154" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE154" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF154" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG154" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH154" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI154" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ154" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK154" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL154" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM154" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN154" t="s">
+        <v>1935</v>
+      </c>
+      <c r="AO154" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="AP154" t="s">
+        <v>1970</v>
+      </c>
+      <c r="AQ154" t="s">
+        <v>1971</v>
+      </c>
+      <c r="AR154" t="s">
+        <v>1970</v>
+      </c>
+      <c r="AS154" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT154" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU154" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV154" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW154" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX154" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY154" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ154" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA154" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB154" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC154" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD154" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE154" t="s">
+        <v>1972</v>
+      </c>
+      <c r="BF154" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG154" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH154" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI154" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ154" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK154" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL154" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM154" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN154" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO154" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP154" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ154" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR154" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS154" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT154" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU154" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV154" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW154" t="s">
+        <v>1767</v>
+      </c>
+      <c r="BX154" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY154" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ154" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA154" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB154" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC154" t="s">
+        <v>1973</v>
+      </c>
+      <c r="CD154" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE154" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF154" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG154" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH154" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI154" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ154" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK154" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL154" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM154" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN154" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO154" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP154" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="155" spans="1:94">
+      <c r="A155" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D155" t="s">
+        <v>796</v>
+      </c>
+      <c r="E155" t="s">
+        <v>98</v>
+      </c>
+      <c r="F155" t="s">
+        <v>99</v>
+      </c>
+      <c r="G155" t="s">
+        <v>231</v>
+      </c>
+      <c r="H155" t="s">
+        <v>101</v>
+      </c>
+      <c r="I155" t="s">
+        <v>114</v>
+      </c>
+      <c r="J155" t="s">
+        <v>103</v>
+      </c>
+      <c r="K155" t="s">
+        <v>104</v>
+      </c>
+      <c r="L155" t="s">
+        <v>105</v>
+      </c>
+      <c r="M155" t="s">
+        <v>106</v>
+      </c>
+      <c r="N155" t="s">
+        <v>104</v>
+      </c>
+      <c r="O155" t="s">
+        <v>1976</v>
+      </c>
+      <c r="P155" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>1977</v>
+      </c>
+      <c r="R155" t="s">
+        <v>110</v>
+      </c>
+      <c r="S155" t="s">
+        <v>366</v>
+      </c>
+      <c r="T155" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U155" t="s">
+        <v>1978</v>
+      </c>
+      <c r="V155" t="s">
+        <v>104</v>
+      </c>
+      <c r="W155" t="s">
+        <v>114</v>
+      </c>
+      <c r="X155" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y155" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z155" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA155" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB155" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC155" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD155" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE155" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF155" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG155" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH155" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI155" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ155" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK155" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL155" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM155" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN155" t="s">
+        <v>1979</v>
+      </c>
+      <c r="AO155" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="AP155" t="s">
+        <v>1981</v>
+      </c>
+      <c r="AQ155" t="s">
+        <v>1982</v>
+      </c>
+      <c r="AR155" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS155" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT155" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU155" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV155" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW155" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX155" t="s">
+        <v>1983</v>
+      </c>
+      <c r="AY155" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ155" t="s">
+        <v>670</v>
+      </c>
+      <c r="BA155" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB155" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC155" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD155" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE155" t="s">
+        <v>1913</v>
+      </c>
+      <c r="BF155" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG155" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH155" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI155" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ155" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK155" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL155" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM155" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN155" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO155" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP155" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ155" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR155" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS155" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT155" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU155" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV155" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW155" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX155" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY155" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ155" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA155" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB155" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC155" t="s">
+        <v>1984</v>
+      </c>
+      <c r="CD155" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE155" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF155" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG155" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH155" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI155" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ155" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK155" t="s">
+        <v>1985</v>
+      </c>
+      <c r="CL155" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM155" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN155" t="s">
+        <v>1984</v>
+      </c>
+      <c r="CO155" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP155" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="156" spans="1:94">
+      <c r="A156" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D156" t="s">
+        <v>469</v>
+      </c>
+      <c r="E156" t="s">
+        <v>98</v>
+      </c>
+      <c r="F156" t="s">
+        <v>99</v>
+      </c>
+      <c r="G156" t="s">
+        <v>274</v>
+      </c>
+      <c r="H156" t="s">
+        <v>206</v>
+      </c>
+      <c r="I156" t="s">
+        <v>108</v>
+      </c>
+      <c r="J156" t="s">
+        <v>103</v>
+      </c>
+      <c r="K156" t="s">
+        <v>104</v>
+      </c>
+      <c r="L156" t="s">
+        <v>105</v>
+      </c>
+      <c r="M156" t="s">
+        <v>106</v>
+      </c>
+      <c r="N156" t="s">
+        <v>104</v>
+      </c>
+      <c r="O156" t="s">
+        <v>1988</v>
+      </c>
+      <c r="P156" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>1989</v>
+      </c>
+      <c r="R156" t="s">
+        <v>110</v>
+      </c>
+      <c r="S156" t="s">
+        <v>366</v>
+      </c>
+      <c r="T156" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U156" t="s">
+        <v>1899</v>
+      </c>
+      <c r="V156" t="s">
+        <v>104</v>
+      </c>
+      <c r="W156" t="s">
+        <v>114</v>
+      </c>
+      <c r="X156" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y156" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z156" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA156" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC156" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD156" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE156" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF156" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG156" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH156" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI156" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ156" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK156" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL156" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM156" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN156" t="s">
+        <v>1900</v>
+      </c>
+      <c r="AO156" s="2" t="s">
+        <v>1901</v>
+      </c>
+      <c r="AP156" t="s">
+        <v>1990</v>
+      </c>
+      <c r="AQ156" t="s">
+        <v>1991</v>
+      </c>
+      <c r="AR156" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS156" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT156" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU156" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV156" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW156" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX156" t="s">
+        <v>1904</v>
+      </c>
+      <c r="AY156" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ156" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA156" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB156" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC156" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD156" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE156" t="s">
+        <v>1992</v>
+      </c>
+      <c r="BF156" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG156" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH156" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI156" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ156" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK156" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL156" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM156" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN156" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO156" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP156" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ156" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR156" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS156" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT156" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU156" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV156" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW156" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX156" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY156" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ156" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA156" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB156" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC156" t="s">
+        <v>1993</v>
+      </c>
+      <c r="CD156" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE156" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF156" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG156" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH156" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI156" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ156" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK156" t="s">
+        <v>1907</v>
+      </c>
+      <c r="CL156" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM156" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN156" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO156" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP156" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="157" spans="1:94">
+      <c r="A157" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D157" t="s">
+        <v>469</v>
+      </c>
+      <c r="E157" t="s">
+        <v>98</v>
+      </c>
+      <c r="F157" t="s">
+        <v>99</v>
+      </c>
+      <c r="G157" t="s">
+        <v>231</v>
+      </c>
+      <c r="H157" t="s">
+        <v>101</v>
+      </c>
+      <c r="I157" t="s">
+        <v>108</v>
+      </c>
+      <c r="J157" t="s">
+        <v>103</v>
+      </c>
+      <c r="K157" t="s">
+        <v>104</v>
+      </c>
+      <c r="L157" t="s">
+        <v>105</v>
+      </c>
+      <c r="M157" t="s">
+        <v>106</v>
+      </c>
+      <c r="N157" t="s">
+        <v>104</v>
+      </c>
+      <c r="O157" t="s">
+        <v>1958</v>
+      </c>
+      <c r="P157" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>1959</v>
+      </c>
+      <c r="R157" t="s">
+        <v>110</v>
+      </c>
+      <c r="S157" t="s">
+        <v>235</v>
+      </c>
+      <c r="T157" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U157" t="s">
+        <v>1996</v>
+      </c>
+      <c r="V157" t="s">
+        <v>104</v>
+      </c>
+      <c r="W157" t="s">
+        <v>114</v>
+      </c>
+      <c r="X157" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y157" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z157" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA157" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB157" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC157" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD157" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE157" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF157" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG157" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH157" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI157" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ157" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK157" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL157" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM157" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN157" t="s">
+        <v>1997</v>
+      </c>
+      <c r="AO157" s="2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="AP157" t="s">
+        <v>1999</v>
+      </c>
+      <c r="AQ157" t="s">
+        <v>2000</v>
+      </c>
+      <c r="AR157" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS157" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT157" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU157" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV157" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW157" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX157" t="s">
+        <v>2001</v>
+      </c>
+      <c r="AY157" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ157" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA157" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB157" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC157" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD157" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE157" t="s">
+        <v>2002</v>
+      </c>
+      <c r="BF157" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG157" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH157" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI157" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ157" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK157" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL157" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM157" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN157" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO157" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP157" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ157" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR157" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS157" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT157" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU157" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV157" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW157" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX157" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY157" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ157" t="s">
+        <v>108</v>
+      </c>
+      <c r="CA157" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB157" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC157" t="s">
+        <v>2003</v>
+      </c>
+      <c r="CD157" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE157" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF157" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG157" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH157" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI157" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ157" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK157" t="s">
+        <v>2004</v>
+      </c>
+      <c r="CL157" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM157" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN157" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO157" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP157" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="158" spans="1:94">
+      <c r="A158" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D158" t="s">
+        <v>469</v>
+      </c>
+      <c r="E158" t="s">
+        <v>98</v>
+      </c>
+      <c r="F158" t="s">
+        <v>99</v>
+      </c>
+      <c r="G158" t="s">
+        <v>139</v>
+      </c>
+      <c r="H158" t="s">
+        <v>206</v>
+      </c>
+      <c r="I158" t="s">
+        <v>114</v>
+      </c>
+      <c r="J158" t="s">
+        <v>259</v>
+      </c>
+      <c r="K158" t="s">
+        <v>104</v>
+      </c>
+      <c r="L158" t="s">
+        <v>105</v>
+      </c>
+      <c r="M158" t="s">
+        <v>106</v>
+      </c>
+      <c r="N158" t="s">
+        <v>104</v>
+      </c>
+      <c r="O158" t="s">
+        <v>2007</v>
+      </c>
+      <c r="P158" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>2008</v>
+      </c>
+      <c r="R158" t="s">
+        <v>110</v>
+      </c>
+      <c r="S158" t="s">
+        <v>111</v>
+      </c>
+      <c r="T158" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U158" t="s">
+        <v>2009</v>
+      </c>
+      <c r="V158" t="s">
+        <v>104</v>
+      </c>
+      <c r="W158" t="s">
+        <v>114</v>
+      </c>
+      <c r="X158" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y158" t="s">
+        <v>1946</v>
+      </c>
+      <c r="Z158" t="s">
+        <v>934</v>
+      </c>
+      <c r="AA158" t="s">
+        <v>1946</v>
+      </c>
+      <c r="AB158" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AC158" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD158" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE158" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF158" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG158" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH158" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI158" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ158" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK158" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL158" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM158" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN158" t="s">
+        <v>2010</v>
+      </c>
+      <c r="AO158" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="AP158" t="s">
+        <v>2012</v>
+      </c>
+      <c r="AQ158" t="s">
+        <v>2013</v>
+      </c>
+      <c r="AR158" t="s">
+        <v>2014</v>
+      </c>
+      <c r="AS158" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT158" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU158" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV158" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW158" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX158" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY158" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ158" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA158" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB158" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC158" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD158" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE158" t="s">
+        <v>2015</v>
+      </c>
+      <c r="BF158" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG158" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH158" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI158" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ158" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK158" t="s">
+        <v>1413</v>
+      </c>
+      <c r="BL158" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM158" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN158" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO158" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP158" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ158" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR158" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS158" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT158" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU158" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV158" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW158" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX158" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY158" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ158" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA158" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB158" t="s">
+        <v>1953</v>
+      </c>
+      <c r="CC158" t="s">
+        <v>2016</v>
+      </c>
+      <c r="CD158" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE158" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF158" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG158" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH158" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI158" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ158" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK158" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL158" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM158" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN158" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO158" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP158" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="159" spans="1:94">
+      <c r="A159" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D159" t="s">
+        <v>97</v>
+      </c>
+      <c r="E159" t="s">
+        <v>99</v>
+      </c>
+      <c r="F159" t="s">
+        <v>98</v>
+      </c>
+      <c r="G159" t="s">
+        <v>139</v>
+      </c>
+      <c r="H159" t="s">
+        <v>683</v>
+      </c>
+      <c r="I159" t="s">
+        <v>114</v>
+      </c>
+      <c r="J159" t="s">
+        <v>259</v>
+      </c>
+      <c r="K159" t="s">
+        <v>104</v>
+      </c>
+      <c r="L159" t="s">
+        <v>105</v>
+      </c>
+      <c r="M159" t="s">
+        <v>106</v>
+      </c>
+      <c r="N159" t="s">
+        <v>104</v>
+      </c>
+      <c r="O159" t="s">
+        <v>1976</v>
+      </c>
+      <c r="P159" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>2019</v>
+      </c>
+      <c r="R159" t="s">
+        <v>110</v>
+      </c>
+      <c r="S159" t="s">
+        <v>375</v>
+      </c>
+      <c r="T159" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U159" t="s">
+        <v>2020</v>
+      </c>
+      <c r="V159" t="s">
+        <v>104</v>
+      </c>
+      <c r="W159" t="s">
+        <v>114</v>
+      </c>
+      <c r="X159" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y159" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z159" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA159" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB159" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC159" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD159" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE159" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF159" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG159" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH159" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI159" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ159" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK159" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL159" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM159" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN159" t="s">
+        <v>2021</v>
+      </c>
+      <c r="AO159" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="AP159" t="s">
+        <v>2023</v>
+      </c>
+      <c r="AQ159" t="s">
+        <v>2024</v>
+      </c>
+      <c r="AR159" t="s">
+        <v>2023</v>
+      </c>
+      <c r="AS159" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT159" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU159" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV159" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW159" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX159" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY159" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ159" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA159" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB159" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC159" t="s">
+        <v>2025</v>
+      </c>
+      <c r="BD159" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE159" t="s">
+        <v>2026</v>
+      </c>
+      <c r="BF159" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG159" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH159" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI159" t="s">
+        <v>2027</v>
+      </c>
+      <c r="BJ159" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK159" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL159" t="s">
+        <v>891</v>
+      </c>
+      <c r="BM159" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN159" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO159" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP159" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ159" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR159" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS159" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT159" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU159" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV159" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW159" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX159" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY159" t="s">
+        <v>2028</v>
+      </c>
+      <c r="BZ159" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA159" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB159" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC159" t="s">
+        <v>2029</v>
+      </c>
+      <c r="CD159" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE159" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF159" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG159" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH159" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI159" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ159" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK159" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL159" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM159" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN159" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO159" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP159" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="160" spans="1:94">
+      <c r="A160" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D160" t="s">
+        <v>97</v>
+      </c>
+      <c r="E160" t="s">
+        <v>99</v>
+      </c>
+      <c r="F160" t="s">
+        <v>98</v>
+      </c>
+      <c r="G160" t="s">
+        <v>231</v>
+      </c>
+      <c r="H160" t="s">
+        <v>101</v>
+      </c>
+      <c r="I160" t="s">
+        <v>114</v>
+      </c>
+      <c r="J160" t="s">
+        <v>103</v>
+      </c>
+      <c r="K160" t="s">
+        <v>104</v>
+      </c>
+      <c r="L160" t="s">
+        <v>105</v>
+      </c>
+      <c r="M160" t="s">
+        <v>106</v>
+      </c>
+      <c r="N160" t="s">
+        <v>104</v>
+      </c>
+      <c r="O160" t="s">
+        <v>1983</v>
+      </c>
+      <c r="P160" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>2032</v>
+      </c>
+      <c r="R160" t="s">
+        <v>110</v>
+      </c>
+      <c r="S160" t="s">
+        <v>366</v>
+      </c>
+      <c r="T160" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U160" t="s">
+        <v>2033</v>
+      </c>
+      <c r="V160" t="s">
+        <v>104</v>
+      </c>
+      <c r="W160" t="s">
+        <v>114</v>
+      </c>
+      <c r="X160" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z160" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA160" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB160" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC160" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD160" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE160" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF160" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG160" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH160" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI160" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ160" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK160" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL160" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM160" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN160" t="s">
+        <v>2034</v>
+      </c>
+      <c r="AO160" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="AP160" t="s">
+        <v>2036</v>
+      </c>
+      <c r="AQ160" t="s">
+        <v>2037</v>
+      </c>
+      <c r="AR160" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS160" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT160" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU160" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV160" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW160" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX160" t="s">
+        <v>2038</v>
+      </c>
+      <c r="AY160" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ160" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA160" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB160" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC160" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD160" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE160" t="s">
+        <v>2039</v>
+      </c>
+      <c r="BF160" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG160" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH160" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI160" t="s">
+        <v>2040</v>
+      </c>
+      <c r="BJ160" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK160" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL160" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM160" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN160" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO160" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP160" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ160" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR160" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS160" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT160" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU160" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV160" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW160" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX160" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY160" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ160" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA160" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB160" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC160" t="s">
+        <v>2041</v>
+      </c>
+      <c r="CD160" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE160" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF160" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG160" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH160" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI160" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ160" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK160" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL160" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM160" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN160" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO160" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP160" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="161" spans="1:94">
+      <c r="A161" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D161" t="s">
+        <v>97</v>
+      </c>
+      <c r="E161" t="s">
+        <v>99</v>
+      </c>
+      <c r="F161" t="s">
+        <v>98</v>
+      </c>
+      <c r="G161" t="s">
+        <v>274</v>
+      </c>
+      <c r="H161" t="s">
+        <v>101</v>
+      </c>
+      <c r="I161" t="s">
+        <v>102</v>
+      </c>
+      <c r="J161" t="s">
+        <v>103</v>
+      </c>
+      <c r="K161" t="s">
+        <v>104</v>
+      </c>
+      <c r="L161" t="s">
+        <v>105</v>
+      </c>
+      <c r="M161" t="s">
+        <v>106</v>
+      </c>
+      <c r="N161" t="s">
+        <v>104</v>
+      </c>
+      <c r="O161" t="s">
+        <v>2044</v>
+      </c>
+      <c r="P161" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>2008</v>
+      </c>
+      <c r="R161" t="s">
+        <v>110</v>
+      </c>
+      <c r="S161" t="s">
+        <v>235</v>
+      </c>
+      <c r="T161" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U161" t="s">
+        <v>2045</v>
+      </c>
+      <c r="V161" t="s">
+        <v>104</v>
+      </c>
+      <c r="W161" t="s">
+        <v>114</v>
+      </c>
+      <c r="X161" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y161" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z161" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA161" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB161" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC161" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD161" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE161" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF161" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG161" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH161" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI161" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ161" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK161" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL161" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM161" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN161" t="s">
+        <v>2046</v>
+      </c>
+      <c r="AO161" s="2">
+        <v>93114759944</v>
+      </c>
+      <c r="AP161" t="s">
+        <v>2047</v>
+      </c>
+      <c r="AQ161" t="s">
+        <v>2048</v>
+      </c>
+      <c r="AR161" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS161" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT161" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU161" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV161" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW161" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX161" t="s">
+        <v>2049</v>
+      </c>
+      <c r="AY161" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ161" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA161" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB161" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC161" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD161" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE161" t="s">
+        <v>2050</v>
+      </c>
+      <c r="BF161" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG161" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH161" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI161" t="s">
+        <v>2051</v>
+      </c>
+      <c r="BJ161" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK161" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL161" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM161" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN161" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO161" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP161" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ161" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR161" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS161" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT161" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU161" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV161" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW161" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX161" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY161" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ161" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA161" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB161" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC161" t="s">
+        <v>2052</v>
+      </c>
+      <c r="CD161" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE161" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF161" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG161" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH161" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI161" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ161" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK161" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL161" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM161" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN161" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO161" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP161" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="162" spans="1:94">
+      <c r="A162" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D162" t="s">
+        <v>97</v>
+      </c>
+      <c r="E162" t="s">
+        <v>99</v>
+      </c>
+      <c r="F162" t="s">
+        <v>98</v>
+      </c>
+      <c r="G162" t="s">
+        <v>274</v>
+      </c>
+      <c r="H162" t="s">
+        <v>101</v>
+      </c>
+      <c r="I162" t="s">
+        <v>102</v>
+      </c>
+      <c r="J162" t="s">
+        <v>103</v>
+      </c>
+      <c r="K162" t="s">
+        <v>104</v>
+      </c>
+      <c r="L162" t="s">
+        <v>105</v>
+      </c>
+      <c r="M162" t="s">
+        <v>106</v>
+      </c>
+      <c r="N162" t="s">
+        <v>104</v>
+      </c>
+      <c r="O162" t="s">
+        <v>2055</v>
+      </c>
+      <c r="P162" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>2056</v>
+      </c>
+      <c r="R162" t="s">
+        <v>110</v>
+      </c>
+      <c r="S162" t="s">
+        <v>235</v>
+      </c>
+      <c r="T162" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U162" t="s">
+        <v>2057</v>
+      </c>
+      <c r="V162" t="s">
+        <v>104</v>
+      </c>
+      <c r="W162" t="s">
+        <v>114</v>
+      </c>
+      <c r="X162" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y162" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z162" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA162" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB162" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC162" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD162" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE162" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF162" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG162" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH162" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI162" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ162" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK162" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL162" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM162" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN162" t="s">
+        <v>2058</v>
+      </c>
+      <c r="AO162" s="2">
+        <v>93114759943</v>
+      </c>
+      <c r="AP162" t="s">
+        <v>2059</v>
+      </c>
+      <c r="AQ162" t="s">
+        <v>2060</v>
+      </c>
+      <c r="AR162" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS162" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT162" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU162" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV162" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW162" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX162" t="s">
+        <v>2061</v>
+      </c>
+      <c r="AY162" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ162" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA162" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB162" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC162" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD162" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE162" t="s">
+        <v>2062</v>
+      </c>
+      <c r="BF162" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG162" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH162" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI162" t="s">
+        <v>2063</v>
+      </c>
+      <c r="BJ162" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK162" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL162" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM162" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN162" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO162" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP162" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ162" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR162" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS162" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT162" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU162" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV162" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW162" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX162" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY162" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ162" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA162" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB162" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC162" t="s">
+        <v>2064</v>
+      </c>
+      <c r="CD162" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE162" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF162" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG162" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH162" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI162" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ162" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK162" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL162" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM162" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN162" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO162" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP162" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="163" spans="1:94">
+      <c r="A163" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D163" t="s">
+        <v>97</v>
+      </c>
+      <c r="E163" t="s">
+        <v>99</v>
+      </c>
+      <c r="F163" t="s">
+        <v>98</v>
+      </c>
+      <c r="G163" t="s">
+        <v>274</v>
+      </c>
+      <c r="H163" t="s">
+        <v>101</v>
+      </c>
+      <c r="I163" t="s">
+        <v>102</v>
+      </c>
+      <c r="J163" t="s">
+        <v>103</v>
+      </c>
+      <c r="K163" t="s">
+        <v>104</v>
+      </c>
+      <c r="L163" t="s">
+        <v>105</v>
+      </c>
+      <c r="M163" t="s">
+        <v>106</v>
+      </c>
+      <c r="N163" t="s">
+        <v>104</v>
+      </c>
+      <c r="O163" t="s">
+        <v>2067</v>
+      </c>
+      <c r="P163" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>2068</v>
+      </c>
+      <c r="R163" t="s">
+        <v>110</v>
+      </c>
+      <c r="S163" t="s">
+        <v>235</v>
+      </c>
+      <c r="T163" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U163" t="s">
+        <v>2069</v>
+      </c>
+      <c r="V163" t="s">
+        <v>104</v>
+      </c>
+      <c r="W163" t="s">
+        <v>114</v>
+      </c>
+      <c r="X163" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y163" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z163" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA163" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB163" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC163" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD163" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE163" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF163" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG163" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH163" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI163" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ163" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK163" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL163" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM163" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN163" t="s">
+        <v>2070</v>
+      </c>
+      <c r="AO163" s="2">
+        <v>93114759937</v>
+      </c>
+      <c r="AP163" t="s">
+        <v>2071</v>
+      </c>
+      <c r="AQ163" t="s">
+        <v>2072</v>
+      </c>
+      <c r="AR163" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS163" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT163" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU163" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV163" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW163" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX163" t="s">
+        <v>2061</v>
+      </c>
+      <c r="AY163" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ163" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA163" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB163" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC163" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD163" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE163" t="s">
+        <v>2062</v>
+      </c>
+      <c r="BF163" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG163" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH163" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI163" t="s">
+        <v>2073</v>
+      </c>
+      <c r="BJ163" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK163" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL163" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM163" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN163" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO163" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP163" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ163" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR163" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS163" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT163" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU163" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV163" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW163" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX163" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY163" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ163" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA163" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB163" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC163" t="s">
+        <v>2074</v>
+      </c>
+      <c r="CD163" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE163" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF163" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG163" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH163" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI163" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ163" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK163" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL163" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM163" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN163" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO163" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP163" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="164" spans="1:94">
+      <c r="A164" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D164" t="s">
+        <v>97</v>
+      </c>
+      <c r="E164" t="s">
+        <v>99</v>
+      </c>
+      <c r="F164" t="s">
+        <v>98</v>
+      </c>
+      <c r="G164" t="s">
+        <v>274</v>
+      </c>
+      <c r="H164" t="s">
+        <v>101</v>
+      </c>
+      <c r="I164" t="s">
+        <v>108</v>
+      </c>
+      <c r="J164" t="s">
+        <v>103</v>
+      </c>
+      <c r="K164" t="s">
+        <v>104</v>
+      </c>
+      <c r="L164" t="s">
+        <v>105</v>
+      </c>
+      <c r="M164" t="s">
+        <v>106</v>
+      </c>
+      <c r="N164" t="s">
+        <v>104</v>
+      </c>
+      <c r="O164" t="s">
+        <v>2078</v>
+      </c>
+      <c r="P164" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>2079</v>
+      </c>
+      <c r="R164" t="s">
+        <v>110</v>
+      </c>
+      <c r="S164" t="s">
+        <v>235</v>
+      </c>
+      <c r="T164" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U164" t="s">
+        <v>2080</v>
+      </c>
+      <c r="V164" t="s">
+        <v>104</v>
+      </c>
+      <c r="W164" t="s">
+        <v>114</v>
+      </c>
+      <c r="X164" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y164" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA164" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB164" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC164" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD164" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE164" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF164" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG164" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH164" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI164" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ164" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK164" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL164" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM164" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN164" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AO164" s="2">
+        <v>93114759947</v>
+      </c>
+      <c r="AP164" t="s">
+        <v>2082</v>
+      </c>
+      <c r="AQ164" t="s">
+        <v>2083</v>
+      </c>
+      <c r="AR164" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS164" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT164" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU164" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV164" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW164" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX164" t="s">
+        <v>2084</v>
+      </c>
+      <c r="AY164" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ164" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA164" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB164" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC164" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD164" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE164" t="s">
+        <v>2085</v>
+      </c>
+      <c r="BF164" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG164" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH164" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI164" t="s">
+        <v>2086</v>
+      </c>
+      <c r="BJ164" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK164" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL164" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM164" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN164" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO164" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP164" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ164" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR164" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS164" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT164" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU164" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV164" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW164" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX164" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY164" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ164" t="s">
+        <v>108</v>
+      </c>
+      <c r="CA164" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB164" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC164" t="s">
+        <v>2087</v>
+      </c>
+      <c r="CD164" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE164" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF164" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG164" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH164" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI164" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ164" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK164" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL164" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM164" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN164" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO164" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP164" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="165" spans="1:94">
+      <c r="A165" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D165" t="s">
+        <v>97</v>
+      </c>
+      <c r="E165" t="s">
+        <v>99</v>
+      </c>
+      <c r="F165" t="s">
+        <v>98</v>
+      </c>
+      <c r="G165" t="s">
+        <v>274</v>
+      </c>
+      <c r="H165" t="s">
+        <v>101</v>
+      </c>
+      <c r="I165" t="s">
+        <v>108</v>
+      </c>
+      <c r="J165" t="s">
+        <v>103</v>
+      </c>
+      <c r="K165" t="s">
+        <v>104</v>
+      </c>
+      <c r="L165" t="s">
+        <v>105</v>
+      </c>
+      <c r="M165" t="s">
+        <v>106</v>
+      </c>
+      <c r="N165" t="s">
+        <v>104</v>
+      </c>
+      <c r="O165" t="s">
+        <v>2079</v>
+      </c>
+      <c r="P165" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>2083</v>
+      </c>
+      <c r="R165" t="s">
+        <v>110</v>
+      </c>
+      <c r="S165" t="s">
+        <v>235</v>
+      </c>
+      <c r="T165" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U165" t="s">
+        <v>2090</v>
+      </c>
+      <c r="V165" t="s">
+        <v>104</v>
+      </c>
+      <c r="W165" t="s">
+        <v>114</v>
+      </c>
+      <c r="X165" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y165" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA165" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB165" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC165" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD165" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE165" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF165" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG165" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH165" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI165" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ165" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK165" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL165" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM165" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN165" t="s">
+        <v>2091</v>
+      </c>
+      <c r="AO165" s="2">
+        <v>93114759946</v>
+      </c>
+      <c r="AP165" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AQ165" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AR165" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS165" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT165" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU165" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV165" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW165" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX165" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AY165" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ165" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA165" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB165" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC165" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD165" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE165" t="s">
+        <v>2095</v>
+      </c>
+      <c r="BF165" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG165" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH165" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI165" t="s">
+        <v>2096</v>
+      </c>
+      <c r="BJ165" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK165" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL165" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM165" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN165" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO165" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP165" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ165" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR165" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS165" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT165" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU165" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV165" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW165" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX165" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY165" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ165" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA165" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB165" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC165" t="s">
+        <v>2097</v>
+      </c>
+      <c r="CD165" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE165" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF165" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG165" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH165" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI165" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ165" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK165" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL165" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM165" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN165" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO165" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP165" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="170" spans="1:94">
+      <c r="S170" s="3" t="s">
+        <v>2098</v>
       </c>
     </row>
   </sheetData>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15484" uniqueCount="2099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16612" uniqueCount="2246">
   <si>
     <t>Codice</t>
   </si>
@@ -6312,7 +6312,448 @@
     <t xml:space="preserve">Codice collaudo: tk202511030069729498 Riparato in armadio rifatta permuta allineamento stabilità servizi ok testato da my link </t>
   </si>
   <si>
-    <t>#data esec al 05/11</t>
+    <t>08/11/2025</t>
+  </si>
+  <si>
+    <t>08/11/2025 15:00</t>
+  </si>
+  <si>
+    <t>TT1005022124</t>
+  </si>
+  <si>
+    <t>94292207</t>
+  </si>
+  <si>
+    <t>07/11/2025</t>
+  </si>
+  <si>
+    <t>07/11/2025 16:00</t>
+  </si>
+  <si>
+    <t>07/11/2025 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025110296722091 </t>
+  </si>
+  <si>
+    <t>SWADW5041858097</t>
+  </si>
+  <si>
+    <t>093113767119</t>
+  </si>
+  <si>
+    <t>03/11/2025 18:36</t>
+  </si>
+  <si>
+    <t>07/11/2025 16:04</t>
+  </si>
+  <si>
+    <t>03/11/2025 11:44</t>
+  </si>
+  <si>
+    <t>02/11/2025 11:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utente non più attivo in fttc passato in ftth vecchio contratto dismesso. Codice collaudo: tk202511020069696787 </t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:H46264000042539**</t>
+  </si>
+  <si>
+    <t>TT1005033433</t>
+  </si>
+  <si>
+    <t>94364349</t>
+  </si>
+  <si>
+    <t>06/11/2025</t>
+  </si>
+  <si>
+    <t>06/11/2025 10:00</t>
+  </si>
+  <si>
+    <t>06/11/2025 11:00</t>
+  </si>
+  <si>
+    <t>CRV001036391294</t>
+  </si>
+  <si>
+    <t>10/11/2025 23:59</t>
+  </si>
+  <si>
+    <t>06/11/2025 09:18</t>
+  </si>
+  <si>
+    <t>04/11/2025 21:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rifatti puntali ossidati al box eseguita prova telefonica Codice collaudo: tk202511040069768895 </t>
+  </si>
+  <si>
+    <t>TT1005036330</t>
+  </si>
+  <si>
+    <t>94385542</t>
+  </si>
+  <si>
+    <t>06/11/2025 09:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIETRO RUSCICA </t>
+  </si>
+  <si>
+    <t>CRH001036467622</t>
+  </si>
+  <si>
+    <t>0931968387</t>
+  </si>
+  <si>
+    <t>06/11/2025 23:59</t>
+  </si>
+  <si>
+    <t>06/11/2025 09:35</t>
+  </si>
+  <si>
+    <t>05/11/2025 14:50</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Rifatta giunzione al pte eseguita prova telefonica codice collaudo tk202511050069790083</t>
+  </si>
+  <si>
+    <t>07/11/2025 17:30</t>
+  </si>
+  <si>
+    <t>11/11/2025 18:00</t>
+  </si>
+  <si>
+    <t>GCASSARINO.111927</t>
+  </si>
+  <si>
+    <t>TT1005038214</t>
+  </si>
+  <si>
+    <t>94398034</t>
+  </si>
+  <si>
+    <t>06/11/2025 10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIOVANNA IEMMOLO </t>
+  </si>
+  <si>
+    <t>CRV001036515090</t>
+  </si>
+  <si>
+    <t>0931501771</t>
+  </si>
+  <si>
+    <t>07/11/2025 23:59</t>
+  </si>
+  <si>
+    <t>06/11/2025 10:09</t>
+  </si>
+  <si>
+    <t>05/11/2025 20:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box eseguita prova telefonica Codice collaudo: tk202511050069802573 </t>
+  </si>
+  <si>
+    <t>TT1005043989</t>
+  </si>
+  <si>
+    <t>94434040</t>
+  </si>
+  <si>
+    <t>07/11/2025 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025110697602036 </t>
+  </si>
+  <si>
+    <t>SWADW5041888927</t>
+  </si>
+  <si>
+    <t>08/11/2025 05:44</t>
+  </si>
+  <si>
+    <t>07/11/2025 16:58</t>
+  </si>
+  <si>
+    <t>07/11/2025 23:00</t>
+  </si>
+  <si>
+    <t>06/11/2025 23:00</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202511060069838565 eseguito cambio porta vdsl New c1/69. Old c1/81 Allineamento stabilità servizi ok</t>
+  </si>
+  <si>
+    <t>TT1005045915</t>
+  </si>
+  <si>
+    <t>94449103</t>
+  </si>
+  <si>
+    <t>08/11/2025 08:00</t>
+  </si>
+  <si>
+    <t>08/11/2025 09:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025110497177217 </t>
+  </si>
+  <si>
+    <t>07/11/2025 00:00</t>
+  </si>
+  <si>
+    <t>SWADW5041872435</t>
+  </si>
+  <si>
+    <t>093114754436</t>
+  </si>
+  <si>
+    <t>12/11/2025 21:29</t>
+  </si>
+  <si>
+    <t>08/11/2025 12:31</t>
+  </si>
+  <si>
+    <t>06/11/2025 21:26</t>
+  </si>
+  <si>
+    <t>OPI2441FLA</t>
+  </si>
+  <si>
+    <t>07/11/2025 12:56</t>
+  </si>
+  <si>
+    <t>Linea non migliorabile per eccessiva distanza 1km da ONU. 1.02 box 4d2. Allineamento in armadio 31/3 srn31/31 att0/0 box=sede 20/3 srn6/6 att22/26 Codice collaudo: tk202511070069853613 certificato PIN:45269</t>
+  </si>
+  <si>
+    <t>TT1005048553</t>
+  </si>
+  <si>
+    <t>94465261</t>
+  </si>
+  <si>
+    <t>11/11/2025</t>
+  </si>
+  <si>
+    <t>11/11/2025 15:00</t>
+  </si>
+  <si>
+    <t>11/11/2025 15:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025110797785396 </t>
+  </si>
+  <si>
+    <t>SWADW5041894308</t>
+  </si>
+  <si>
+    <t>093114746673</t>
+  </si>
+  <si>
+    <t>14/11/2025 19:32</t>
+  </si>
+  <si>
+    <t>11/11/2025 15:27</t>
+  </si>
+  <si>
+    <t>08/11/2025 21:46</t>
+  </si>
+  <si>
+    <t>MTW2137VUL</t>
+  </si>
+  <si>
+    <t>07/11/2025 20:46</t>
+  </si>
+  <si>
+    <t>Riparato al box eseguita prova telefonica certificato con supporto Fastweb pin 8083 codice collaudo tk202511070069869763</t>
+  </si>
+  <si>
+    <t>TT1005051557</t>
+  </si>
+  <si>
+    <t>94479958</t>
+  </si>
+  <si>
+    <t>11/11/2025 16:30</t>
+  </si>
+  <si>
+    <t>11/11/2025 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINZIA MACCARONE </t>
+  </si>
+  <si>
+    <t>CRV001036510792</t>
+  </si>
+  <si>
+    <t>0931721283</t>
+  </si>
+  <si>
+    <t>12/11/2025 19:44</t>
+  </si>
+  <si>
+    <t>11/11/2025 16:26</t>
+  </si>
+  <si>
+    <t>09/11/2025 10:32</t>
+  </si>
+  <si>
+    <t>Rifatti puntali al box. Codice collaudo: tk202511090069884457</t>
+  </si>
+  <si>
+    <t>TT1005053456</t>
+  </si>
+  <si>
+    <t>94491259</t>
+  </si>
+  <si>
+    <t>13/11/2025</t>
+  </si>
+  <si>
+    <t>13/11/2025 15:30</t>
+  </si>
+  <si>
+    <t>13/11/2025 16:00</t>
+  </si>
+  <si>
+    <t>26/11/2025 00:00</t>
+  </si>
+  <si>
+    <t>CRH001036885077</t>
+  </si>
+  <si>
+    <t>28/11/2025 00:00</t>
+  </si>
+  <si>
+    <t>13/11/2025 15:57</t>
+  </si>
+  <si>
+    <t>11/11/2025 23:59</t>
+  </si>
+  <si>
+    <t>10/11/2025 10:12</t>
+  </si>
+  <si>
+    <t>-15</t>
+  </si>
+  <si>
+    <t>Riparato al roe eseguita prova telefonica codice collaudo tk202511100069895756</t>
+  </si>
+  <si>
+    <t>TT1005002674</t>
+  </si>
+  <si>
+    <t>94175453</t>
+  </si>
+  <si>
+    <t>08/11/2025 15:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025102895877022 </t>
+  </si>
+  <si>
+    <t>SWADW5041831145</t>
+  </si>
+  <si>
+    <t>093114736942</t>
+  </si>
+  <si>
+    <t>29/10/2025 13:57</t>
+  </si>
+  <si>
+    <t>08/11/2025 16:42</t>
+  </si>
+  <si>
+    <t>Caserini Paolo</t>
+  </si>
+  <si>
+    <t>29/10/2025 10:04</t>
+  </si>
+  <si>
+    <t>28/10/2025 15:04</t>
+  </si>
+  <si>
+    <t>93842957</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202510280069580113 Sostituito prima presa allineamento stabilità servizi ok provato con il cliente e gestita con oracle</t>
+  </si>
+  <si>
+    <t>TT1005039065</t>
+  </si>
+  <si>
+    <t>94401694</t>
+  </si>
+  <si>
+    <t>06/11/2025 16:30</t>
+  </si>
+  <si>
+    <t>06/11/2025 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMILIO CORRENTI </t>
+  </si>
+  <si>
+    <t>CRV001036509612</t>
+  </si>
+  <si>
+    <t>0931948402</t>
+  </si>
+  <si>
+    <t>06/11/2025 16:13</t>
+  </si>
+  <si>
+    <t>06/11/2025 08:50</t>
+  </si>
+  <si>
+    <t>94228470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rifatto giunto al pte testato con l'utente codice collaudo tk202511060069806230 </t>
+  </si>
+  <si>
+    <t>TT1005039579</t>
+  </si>
+  <si>
+    <t>94406788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025110697454630 </t>
+  </si>
+  <si>
+    <t>SWADW5041881500</t>
+  </si>
+  <si>
+    <t>093114757269</t>
+  </si>
+  <si>
+    <t>13/11/2025 10:03</t>
+  </si>
+  <si>
+    <t>07/11/2025 17:10</t>
+  </si>
+  <si>
+    <t>07/11/2025 11:38</t>
+  </si>
+  <si>
+    <t>06/11/2025 10:38</t>
+  </si>
+  <si>
+    <t>93911041</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202511060069811322 Riparato al box.</t>
+  </si>
+  <si>
+    <t>#data esec al 13/11</t>
   </si>
 </sst>
 </file>
@@ -6672,10 +7113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP170"/>
+  <dimension ref="A1:CP193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="T165" sqref="T165"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="X173" sqref="X173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53545,9 +53986,3417 @@
         <v>104</v>
       </c>
     </row>
+    <row r="166" spans="1:94">
+      <c r="A166" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="T166" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U166" s="1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="V166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W166" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X166" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC166" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD166" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE166" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF166" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG166" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH166" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI166" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ166" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL166" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM166" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN166" s="1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="AO166" s="2" t="s">
+        <v>2107</v>
+      </c>
+      <c r="AP166" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="AQ166" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="AR166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS166" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT166" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU166" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV166" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW166" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX166" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="AY166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ166" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA166" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC166" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD166" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE166" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="BF166" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG166" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL166" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM166" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP166" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ166" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR166" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU166" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV166" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW166" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY166" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ166" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="CA166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC166" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="CD166" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE166" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI166" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ166" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK166" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="CL166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN166" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="CO166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP166" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="167" spans="1:94">
+      <c r="A167" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S167" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T167" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U167" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="V167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W167" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X167" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC167" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD167" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE167" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF167" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG167" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH167" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI167" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ167" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL167" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM167" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN167" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="AO167" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="AP167" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="AQ167" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="AR167" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="AS167" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT167" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA167" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC167" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE167" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="BF167" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG167" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL167" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM167" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN167" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP167" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ167" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR167" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU167" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV167" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW167" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="BX167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY167" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC167" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="CD167" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI167" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP167" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="168" spans="1:94">
+      <c r="A168" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q168" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="R168" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S168" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T168" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U168" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="V168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W168" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X168" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC168" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD168" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE168" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF168" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG168" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH168" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI168" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ168" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL168" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM168" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN168" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="AO168" s="2" t="s">
+        <v>2129</v>
+      </c>
+      <c r="AP168" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="AQ168" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="AR168" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="AS168" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT168" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA168" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC168" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE168" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="BF168" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="BG168" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL168" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="BM168" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN168" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP168" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ168" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR168" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU168" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV168" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW168" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY168" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="BZ168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC168" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="CD168" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI168" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO168" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP168" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="169" spans="1:94">
+      <c r="A169" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q169" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="R169" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S169" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T169" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U169" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="V169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W169" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X169" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC169" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD169" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE169" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF169" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG169" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH169" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI169" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ169" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL169" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM169" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN169" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="AO169" s="2" t="s">
+        <v>2143</v>
+      </c>
+      <c r="AP169" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="AQ169" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="AR169" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="AS169" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT169" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA169" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC169" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE169" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="BF169" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG169" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL169" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM169" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN169" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP169" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ169" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR169" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU169" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV169" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW169" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY169" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC169" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="CD169" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI169" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO169" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP169" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="170" spans="1:94">
-      <c r="S170" s="3" t="s">
+      <c r="A170" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O170" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="P170" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q170" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S170" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T170" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U170" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="V170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W170" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X170" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC170" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD170" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE170" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF170" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG170" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH170" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI170" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ170" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL170" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM170" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN170" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="AO170" s="2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="AP170" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="AQ170" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="AR170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS170" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT170" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU170" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV170" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW170" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX170" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="AY170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA170" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC170" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD170" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE170" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="BF170" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG170" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL170" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM170" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP170" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ170" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR170" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU170" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV170" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW170" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY170" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ170" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC170" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="CD170" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE170" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI170" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ170" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK170" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="CL170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO170" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP170" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="171" spans="1:94">
+      <c r="A171" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>2098</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q171" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="R171" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S171" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T171" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U171" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="V171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W171" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X171" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y171" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="Z171" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="AA171" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="AB171" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AC171" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD171" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE171" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF171" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG171" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH171" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI171" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ171" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL171" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM171" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN171" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="AO171" s="2" t="s">
+        <v>2165</v>
+      </c>
+      <c r="AP171" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="AQ171" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="AR171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS171" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT171" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU171" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV171" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW171" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX171" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="AY171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ171" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="BA171" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC171" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD171" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE171" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="BF171" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG171" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL171" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM171" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP171" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ171" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR171" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU171" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV171" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW171" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY171" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ171" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC171" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="CD171" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE171" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI171" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN171" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="CO171" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP171" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="172" spans="1:94">
+      <c r="A172" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q172" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T172" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U172" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="V172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W172" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X172" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC172" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD172" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE172" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF172" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG172" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH172" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI172" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ172" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL172" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM172" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN172" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="AO172" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="AP172" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="AQ172" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="AR172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS172" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT172" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU172" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV172" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW172" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX172" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="AY172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ172" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="BA172" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC172" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD172" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE172" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="BF172" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG172" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL172" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM172" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP172" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ172" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR172" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU172" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV172" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW172" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY172" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC172" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="CD172" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE172" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI172" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM172" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP172" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="173" spans="1:94">
+      <c r="A173" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q173" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="R173" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S173" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="T173" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U173" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="V173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W173" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X173" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC173" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD173" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE173" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF173" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG173" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH173" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI173" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ173" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL173" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM173" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN173" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="AO173" s="2" t="s">
+        <v>2192</v>
+      </c>
+      <c r="AP173" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="AQ173" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="AR173" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="AS173" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT173" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA173" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC173" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE173" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="BF173" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL173" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM173" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP173" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ173" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR173" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU173" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV173" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW173" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY173" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC173" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="CD173" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI173" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO173" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP173" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="174" spans="1:94">
+      <c r="A174" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q174" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="R174" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S174" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T174" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U174" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="V174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W174" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X174" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y174" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="Z174" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="AA174" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="AB174" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AC174" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD174" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE174" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF174" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG174" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH174" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI174" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ174" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL174" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM174" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN174" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AO174" s="2" t="s">
+        <v>2129</v>
+      </c>
+      <c r="AP174" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AQ174" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="AR174" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="AS174" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT174" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA174" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC174" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE174" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="BF174" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="BG174" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK174" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="BL174" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="BM174" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN174" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP174" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ174" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR174" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU174" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV174" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW174" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="BX174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY174" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="BZ174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB174" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="CC174" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="CD174" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI174" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO174" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP174" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="175" spans="1:94">
+      <c r="A175" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q175" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="R175" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S175" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T175" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U175" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="V175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W175" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X175" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC175" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD175" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE175" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF175" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG175" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH175" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI175" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ175" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL175" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM175" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN175" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="AO175" s="2" t="s">
+        <v>2215</v>
+      </c>
+      <c r="AP175" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="AQ175" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="AR175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS175" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT175" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU175" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV175" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW175" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX175" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="AY175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA175" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC175" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD175" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE175" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="BF175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI175" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="BJ175" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL175" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP175" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ175" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR175" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU175" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV175" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW175" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BX175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY175" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC175" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="CD175" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE175" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI175" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM175" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO175" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP175" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="176" spans="1:94">
+      <c r="A176" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S176" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="T176" s="2" t="s">
+        <v>1908</v>
+      </c>
+      <c r="U176" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="V176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W176" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X176" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC176" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD176" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE176" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF176" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG176" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH176" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI176" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ176" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL176" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM176" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN176" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="AO176" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="AP176" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="AQ176" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="AR176" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="AS176" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT176" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA176" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC176" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE176" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="BF176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI176" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="BJ176" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL176" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="BM176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN176" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP176" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ176" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR176" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU176" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV176" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW176" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY176" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="BZ176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC176" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="CD176" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI176" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP176" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="177" spans="1:94">
+      <c r="A177" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M177" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q177" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="R177" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="T177" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U177" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="V177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W177" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X177" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC177" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD177" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE177" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF177" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG177" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH177" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI177" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ177" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL177" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM177" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN177" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="AO177" s="2" t="s">
+        <v>2238</v>
+      </c>
+      <c r="AP177" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="AQ177" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="AR177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS177" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT177" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU177" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV177" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW177" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX177" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="AY177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA177" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC177" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD177" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE177" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="BF177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI177" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="BJ177" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL177" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP177" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ177" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR177" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU177" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV177" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW177" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY177" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC177" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="CD177" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE177" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI177" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM177" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO177" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP177" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="193" spans="19:19">
+      <c r="S193" s="3" t="s">
+        <v>2245</v>
       </c>
     </row>
   </sheetData>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16612" uniqueCount="2246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16988" uniqueCount="2296">
   <si>
     <t>Codice</t>
   </si>
@@ -6753,7 +6753,157 @@
     <t>Codice collaudo: tk202511060069811322 Riparato al box.</t>
   </si>
   <si>
-    <t>#data esec al 13/11</t>
+    <t>TT1005052496</t>
+  </si>
+  <si>
+    <t>94484588</t>
+  </si>
+  <si>
+    <t>14/11/2025</t>
+  </si>
+  <si>
+    <t>14/11/2025 10:00</t>
+  </si>
+  <si>
+    <t>14/11/2025 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025110998017889 </t>
+  </si>
+  <si>
+    <t>SWRTW5041900083</t>
+  </si>
+  <si>
+    <t>0931562702</t>
+  </si>
+  <si>
+    <t>14/11/2025 09:25</t>
+  </si>
+  <si>
+    <t>09/11/2025 21:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sostituita presa testato con l'utente codice collaudo tk202511090069889087 </t>
+  </si>
+  <si>
+    <t>TT1005071248</t>
+  </si>
+  <si>
+    <t>94610619</t>
+  </si>
+  <si>
+    <t>14/11/2025 12:00</t>
+  </si>
+  <si>
+    <t>14/11/2025 12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025110897839159 </t>
+  </si>
+  <si>
+    <t>SWADW5041895061</t>
+  </si>
+  <si>
+    <t>093114736546</t>
+  </si>
+  <si>
+    <t>09/11/2025 16:43</t>
+  </si>
+  <si>
+    <t>14/11/2025 11:40</t>
+  </si>
+  <si>
+    <t>09/11/2025 04:50</t>
+  </si>
+  <si>
+    <t>13/11/2025 16:36</t>
+  </si>
+  <si>
+    <t>CPE guasta elettricamente non si accende. tk202511080069873175 certificato PIN:845</t>
+  </si>
+  <si>
+    <t>14/11/2025 16:30</t>
+  </si>
+  <si>
+    <t>TT1005074526</t>
+  </si>
+  <si>
+    <t>94631027</t>
+  </si>
+  <si>
+    <t>14/11/2025 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025111498927362 </t>
+  </si>
+  <si>
+    <t>SWADW5041927351</t>
+  </si>
+  <si>
+    <t>093114741332</t>
+  </si>
+  <si>
+    <t>21/11/2025 11:32</t>
+  </si>
+  <si>
+    <t>14/11/2025 16:35</t>
+  </si>
+  <si>
+    <t>15/11/2025 13:40</t>
+  </si>
+  <si>
+    <t>14/11/2025 12:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rifatti puntali ossidati al box provato con utente certificato con oracle Codice collaudo: tk202511140070035465  </t>
+  </si>
+  <si>
+    <t>TT1005075918</t>
+  </si>
+  <si>
+    <t>94639905</t>
+  </si>
+  <si>
+    <t>17/11/2025</t>
+  </si>
+  <si>
+    <t>17/11/2025 10:00</t>
+  </si>
+  <si>
+    <t>17/11/2025 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025111498984654 </t>
+  </si>
+  <si>
+    <t>SWRTW5041929373</t>
+  </si>
+  <si>
+    <t>U613812412</t>
+  </si>
+  <si>
+    <t>14/11/2025 23:59</t>
+  </si>
+  <si>
+    <t>17/11/2025 09:56</t>
+  </si>
+  <si>
+    <t>POSTPROV CONS ULL</t>
+  </si>
+  <si>
+    <t>DISSERVIZIO ULLR</t>
+  </si>
+  <si>
+    <t>14/11/2025 16:00</t>
+  </si>
+  <si>
+    <t>94258614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rifatti puntali ossidati al box eseguita prova telefonica </t>
+  </si>
+  <si>
+    <t>#data esec al 17/11</t>
   </si>
 </sst>
 </file>
@@ -7113,10 +7263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP193"/>
+  <dimension ref="A1:CP191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="X173" sqref="X173"/>
+      <selection activeCell="AC193" sqref="AC193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57394,9 +57544,1145 @@
         <v>104</v>
       </c>
     </row>
-    <row r="193" spans="19:19">
-      <c r="S193" s="3" t="s">
+    <row r="178" spans="1:94">
+      <c r="A178" s="1" t="s">
         <v>2245</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M178" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q178" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="R178" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S178" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="T178" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U178" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="V178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W178" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X178" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC178" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD178" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE178" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF178" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG178" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH178" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI178" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ178" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK178" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL178" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM178" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN178" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="AO178" s="2" t="s">
+        <v>2252</v>
+      </c>
+      <c r="AP178" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="AQ178" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="AR178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS178" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT178" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU178" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AV178" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AW178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY178" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AZ178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA178" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC178" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD178" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE178" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="BF178" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG178" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL178" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM178" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP178" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ178" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR178" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU178" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV178" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW178" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY178" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ178" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="CA178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC178" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="CD178" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE178" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI178" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK178" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="CL178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO178" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP178" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="179" spans="1:94">
+      <c r="A179" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M179" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q179" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="R179" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S179" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T179" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U179" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="V179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W179" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X179" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC179" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD179" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE179" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF179" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG179" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH179" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI179" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ179" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL179" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM179" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN179" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="AO179" s="2" t="s">
+        <v>2262</v>
+      </c>
+      <c r="AP179" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="AQ179" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="AR179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS179" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT179" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU179" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV179" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW179" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX179" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="AY179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA179" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC179" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD179" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE179" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="BF179" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG179" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL179" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM179" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP179" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ179" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR179" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU179" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV179" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW179" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BX179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY179" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC179" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="CD179" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE179" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI179" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM179" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN179" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="CO179" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP179" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="180" spans="1:94">
+      <c r="A180" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O180" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="P180" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q180" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S180" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T180" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U180" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="V180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W180" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X180" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC180" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD180" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE180" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF180" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG180" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH180" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI180" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ180" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL180" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM180" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN180" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="AO180" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="AP180" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="AQ180" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="AR180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS180" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT180" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU180" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV180" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW180" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX180" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="AY180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA180" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC180" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD180" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE180" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="BF180" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG180" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL180" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM180" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP180" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ180" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR180" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU180" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV180" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW180" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY180" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC180" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="CD180" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE180" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI180" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM180" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO180" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP180" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="181" spans="1:94">
+      <c r="A181" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O181" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="P181" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q181" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="R181" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S181" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T181" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U181" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="V181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W181" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X181" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC181" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD181" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE181" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF181" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG181" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH181" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI181" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ181" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK181" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL181" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM181" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN181" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="AO181" s="2" t="s">
+        <v>2287</v>
+      </c>
+      <c r="AP181" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="AQ181" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="AR181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS181" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT181" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU181" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV181" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="AW181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY181" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA181" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC181" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD181" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="BE181" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="BF181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ181" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL181" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP181" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ181" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR181" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS181" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="BT181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU181" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV181" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW181" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY181" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ181" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC181" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="CD181" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE181" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI181" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ181" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO181" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP181" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="191" spans="1:94">
+      <c r="S191" s="3" t="s">
+        <v>2295</v>
       </c>
     </row>
   </sheetData>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$CP$1</definedName>
+  </definedNames>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20079" uniqueCount="2709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22241" uniqueCount="2980">
   <si>
     <t>Codice</t>
   </si>
@@ -8142,7 +8145,820 @@
     <t>Rifatto giunto in prima presa eseguita prova in sede utente Codice collaudo: tk202512050070608521</t>
   </si>
   <si>
-    <t>#data esec al 08/12</t>
+    <t>#data esec al 21/12</t>
+  </si>
+  <si>
+    <t>TT1005155311</t>
+  </si>
+  <si>
+    <t>95151240</t>
+  </si>
+  <si>
+    <t>17/12/2025</t>
+  </si>
+  <si>
+    <t>17/12/2025 12:30</t>
+  </si>
+  <si>
+    <t>17/12/2025 13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTONINO ARMENIA </t>
+  </si>
+  <si>
+    <t>19/12/2025 00:00</t>
+  </si>
+  <si>
+    <t>CRR001039719176</t>
+  </si>
+  <si>
+    <t>0931501438</t>
+  </si>
+  <si>
+    <t>24/12/2025 00:00</t>
+  </si>
+  <si>
+    <t>17/12/2025 12:34</t>
+  </si>
+  <si>
+    <t>06/12/2025 23:59</t>
+  </si>
+  <si>
+    <t>04/12/2025 09:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guasto di cavo secondaria 1.46 box 11 coppie in corto e basso isolamento verso Terra. </t>
+  </si>
+  <si>
+    <t>TT1005168949</t>
+  </si>
+  <si>
+    <t>95231486</t>
+  </si>
+  <si>
+    <t>09/12/2025</t>
+  </si>
+  <si>
+    <t>09/12/2025 16:00</t>
+  </si>
+  <si>
+    <t>09/12/2025 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025120602899299 </t>
+  </si>
+  <si>
+    <t>SWADW5042050414</t>
+  </si>
+  <si>
+    <t>093114744925</t>
+  </si>
+  <si>
+    <t>15/12/2025 12:13</t>
+  </si>
+  <si>
+    <t>09/12/2025 16:38</t>
+  </si>
+  <si>
+    <t>07/12/2025 12:26</t>
+  </si>
+  <si>
+    <t>08/12/2025 17:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rifatti puntali al box. Certificato su Oracle . Codice collaudo: tk202512080070635138 </t>
+  </si>
+  <si>
+    <t>TT1005170255</t>
+  </si>
+  <si>
+    <t>95235785</t>
+  </si>
+  <si>
+    <t>10/12/2025</t>
+  </si>
+  <si>
+    <t>10/12/2025 15:30</t>
+  </si>
+  <si>
+    <t>10/12/2025 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025120502684271 </t>
+  </si>
+  <si>
+    <t>SWADW5042043994</t>
+  </si>
+  <si>
+    <t>093114750424</t>
+  </si>
+  <si>
+    <t>15/12/2025 03:32</t>
+  </si>
+  <si>
+    <t>06/12/2025 09:04</t>
+  </si>
+  <si>
+    <t>09/12/2025 08:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non riscontrato PIN : 788 parlato con Giuseppe Pagano Sky Codice collaudo: tk202512090070639435 </t>
+  </si>
+  <si>
+    <t>TT1005174290</t>
+  </si>
+  <si>
+    <t>95261430</t>
+  </si>
+  <si>
+    <t>10/12/2025 17:00</t>
+  </si>
+  <si>
+    <t>10/12/2025 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025120903325682 </t>
+  </si>
+  <si>
+    <t>SWADW5042061587</t>
+  </si>
+  <si>
+    <t>16/12/2025 17:40</t>
+  </si>
+  <si>
+    <t>10/12/2025 17:02</t>
+  </si>
+  <si>
+    <t>09/12/2025 18:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box . Codice collaudo: tk202512090070665050 </t>
+  </si>
+  <si>
+    <t>TT1005178527</t>
+  </si>
+  <si>
+    <t>95280856</t>
+  </si>
+  <si>
+    <t>11/12/2025</t>
+  </si>
+  <si>
+    <t>11/12/2025 10:00</t>
+  </si>
+  <si>
+    <t>12/12/2025 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA GRAZIA BELLASSAI </t>
+  </si>
+  <si>
+    <t>CRH001040257258</t>
+  </si>
+  <si>
+    <t>0931587069</t>
+  </si>
+  <si>
+    <t>11/12/2025 23:59</t>
+  </si>
+  <si>
+    <t>11/12/2025 10:19</t>
+  </si>
+  <si>
+    <t>10/12/2025 12:54</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eseguita sostituzione monofibra metri 250 codice collaudo tk202512100070684464 </t>
+  </si>
+  <si>
+    <t>TT1005185161</t>
+  </si>
+  <si>
+    <t>95321658</t>
+  </si>
+  <si>
+    <t>12/12/2025</t>
+  </si>
+  <si>
+    <t>12/12/2025 15:30</t>
+  </si>
+  <si>
+    <t>12/12/2025 16:30</t>
+  </si>
+  <si>
+    <t>17/12/2025 16:17</t>
+  </si>
+  <si>
+    <t>12/12/2025 15:43</t>
+  </si>
+  <si>
+    <t>11/12/2025 15:50</t>
+  </si>
+  <si>
+    <t>riparato in armadio Codice collaudo: tk202512110070725247</t>
+  </si>
+  <si>
+    <t>TT1005192047</t>
+  </si>
+  <si>
+    <t>95362665</t>
+  </si>
+  <si>
+    <t>13/12/2025</t>
+  </si>
+  <si>
+    <t>13/12/2025 16:30</t>
+  </si>
+  <si>
+    <t>13/12/2025 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025121303986141 </t>
+  </si>
+  <si>
+    <t>SWADW5042080363</t>
+  </si>
+  <si>
+    <t>093114734586</t>
+  </si>
+  <si>
+    <t>20/12/2025 09:15</t>
+  </si>
+  <si>
+    <t>13/12/2025 16:31</t>
+  </si>
+  <si>
+    <t>14/12/2025 11:24</t>
+  </si>
+  <si>
+    <t>13/12/2025 10:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guasto cavo di secondaria zona 1.20 box 20 coppie in corto </t>
+  </si>
+  <si>
+    <t>TT1005192057</t>
+  </si>
+  <si>
+    <t>95362699</t>
+  </si>
+  <si>
+    <t>16/12/2025</t>
+  </si>
+  <si>
+    <t>16/12/2025 12:00</t>
+  </si>
+  <si>
+    <t>16/12/2025 13:00</t>
+  </si>
+  <si>
+    <t>18/12/2025 10:29</t>
+  </si>
+  <si>
+    <t>16/12/2025 12:05</t>
+  </si>
+  <si>
+    <t>13/12/2025 10:28</t>
+  </si>
+  <si>
+    <t>riparato in armadio Codice collaudo: tk202512130070766261</t>
+  </si>
+  <si>
+    <t>20/12/2025 23:59</t>
+  </si>
+  <si>
+    <t>TT1005204029</t>
+  </si>
+  <si>
+    <t>95444691</t>
+  </si>
+  <si>
+    <t>18/12/2025</t>
+  </si>
+  <si>
+    <t>18/12/2025 14:30</t>
+  </si>
+  <si>
+    <t>18/12/2025 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025121604530839 </t>
+  </si>
+  <si>
+    <t>SWADW5042095350</t>
+  </si>
+  <si>
+    <t>23/12/2025 18:30</t>
+  </si>
+  <si>
+    <t>18/12/2025 14:29</t>
+  </si>
+  <si>
+    <t>16/12/2025 19:08</t>
+  </si>
+  <si>
+    <t>Occorre sostituire il modem in quanto causa le cadute , linea con valore HLOG 0.93 , Fec O CRC 0 , in 10 minuti di monitoraggio. Codice collaudo: tk202512160070848159</t>
+  </si>
+  <si>
+    <t>TT1005204045</t>
+  </si>
+  <si>
+    <t>95444833</t>
+  </si>
+  <si>
+    <t>17/12/2025 14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025121604527768 </t>
+  </si>
+  <si>
+    <t>SWADW5042095241</t>
+  </si>
+  <si>
+    <t>093114735537</t>
+  </si>
+  <si>
+    <t>23/12/2025 18:08</t>
+  </si>
+  <si>
+    <t>17/12/2025 13:30</t>
+  </si>
+  <si>
+    <t>17/12/2025 20:16</t>
+  </si>
+  <si>
+    <t>16/12/2025 19:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codice collaudo: tk202512160070848301 Riparato in armadio rifatta permuta allineamento stabilità servizi ok </t>
+  </si>
+  <si>
+    <t>TT1005206037</t>
+  </si>
+  <si>
+    <t>95457803</t>
+  </si>
+  <si>
+    <t>17/12/2025 16:00</t>
+  </si>
+  <si>
+    <t>17/12/2025 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONDA IONICA S.R.L. </t>
+  </si>
+  <si>
+    <t>CBF001040966671</t>
+  </si>
+  <si>
+    <t>0931823311</t>
+  </si>
+  <si>
+    <t>18/12/2025 23:59</t>
+  </si>
+  <si>
+    <t>17/12/2025 16:20</t>
+  </si>
+  <si>
+    <t>17/12/2025 11:50</t>
+  </si>
+  <si>
+    <t>CBF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codice Collaudo: tk202512170070861225 Disattivato trasferimento di chiamata con supporto, colludo negativo errore di sistema assenza di continuità gia al kk </t>
+  </si>
+  <si>
+    <t>TT1005206810</t>
+  </si>
+  <si>
+    <t>95462861</t>
+  </si>
+  <si>
+    <t>18/12/2025 15:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBINA SPANO </t>
+  </si>
+  <si>
+    <t>CRR001040944882</t>
+  </si>
+  <si>
+    <t>0931718705</t>
+  </si>
+  <si>
+    <t>18/12/2025 00:00</t>
+  </si>
+  <si>
+    <t>18/12/2025 15:08</t>
+  </si>
+  <si>
+    <t>17/12/2025 13:32</t>
+  </si>
+  <si>
+    <t>ATTESAPA - ATTESA PERMESSI/AUTORIZZAZIONI</t>
+  </si>
+  <si>
+    <t>guasto cavo di secondaria zona 4.13 cliente su box 14 cp 7, si riscontrano tutte le coppie di secondaria della decade 0/9 e 10/19 in corto circuito.</t>
+  </si>
+  <si>
+    <t>TT1005208368</t>
+  </si>
+  <si>
+    <t>95473367</t>
+  </si>
+  <si>
+    <t>20/12/2025</t>
+  </si>
+  <si>
+    <t>20/12/2025 15:00</t>
+  </si>
+  <si>
+    <t>20/12/2025 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCESCO SQUASI </t>
+  </si>
+  <si>
+    <t>02/01/2026 00:00</t>
+  </si>
+  <si>
+    <t>CRV001041016764</t>
+  </si>
+  <si>
+    <t>0931452830</t>
+  </si>
+  <si>
+    <t>09/01/2026 00:00</t>
+  </si>
+  <si>
+    <t>20/12/2025 14:35</t>
+  </si>
+  <si>
+    <t>17/12/2025 17:26</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>Sostituita prima presa eseguita prova in sede utente codice collaudo tk202512170070876706</t>
+  </si>
+  <si>
+    <t>TT1005210494</t>
+  </si>
+  <si>
+    <t>95485411</t>
+  </si>
+  <si>
+    <t>18/12/2025 16:30</t>
+  </si>
+  <si>
+    <t>18/12/2025 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025121304066211 </t>
+  </si>
+  <si>
+    <t>SWADW5042082790</t>
+  </si>
+  <si>
+    <t>093114721239</t>
+  </si>
+  <si>
+    <t>15/12/2025 02:38</t>
+  </si>
+  <si>
+    <t>18/12/2025 16:50</t>
+  </si>
+  <si>
+    <t>14/12/2025 19:44</t>
+  </si>
+  <si>
+    <t>18/12/2025 10:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utente rifiuta intervento in quanto ha eseguito disdetta della linea. Collaudo in armadio. Codice collaudo: tk202512180070888704 </t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:ZTEVGA0N5702083**</t>
+  </si>
+  <si>
+    <t>TT1005214886</t>
+  </si>
+  <si>
+    <t>95511934</t>
+  </si>
+  <si>
+    <t>19/12/2025</t>
+  </si>
+  <si>
+    <t>19/12/2025 16:00</t>
+  </si>
+  <si>
+    <t>19/12/2025 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARROCCHIA SANTA MARIA SCALA DEL PARADISO </t>
+  </si>
+  <si>
+    <t>CBV001041166119</t>
+  </si>
+  <si>
+    <t>0931813141</t>
+  </si>
+  <si>
+    <t>19/12/2025 17:10</t>
+  </si>
+  <si>
+    <t>19/12/2025 08:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box eseguita prova in sede utente codice collaudo tk202512190070915182 </t>
+  </si>
+  <si>
+    <t>TT1005215600</t>
+  </si>
+  <si>
+    <t>95516974</t>
+  </si>
+  <si>
+    <t>20/12/2025 08:00</t>
+  </si>
+  <si>
+    <t>20/12/2025 08:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAETANO MAIDA </t>
+  </si>
+  <si>
+    <t>CRV001041203070</t>
+  </si>
+  <si>
+    <t>0931561033</t>
+  </si>
+  <si>
+    <t>20/12/2025 09:03</t>
+  </si>
+  <si>
+    <t>19/12/2025 11:22</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202512190070920219 guasto non riscontrato a seguito ripristino master, allineamento stabilità e servizi ok</t>
+  </si>
+  <si>
+    <t>TT1005216272</t>
+  </si>
+  <si>
+    <t>95522322</t>
+  </si>
+  <si>
+    <t>20/12/2025 09:00</t>
+  </si>
+  <si>
+    <t>20/12/2025 09:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025121905013759 </t>
+  </si>
+  <si>
+    <t>SWADW5042109717</t>
+  </si>
+  <si>
+    <t>093114724475</t>
+  </si>
+  <si>
+    <t>20/12/2025 12:01</t>
+  </si>
+  <si>
+    <t>20/12/2025 09:29</t>
+  </si>
+  <si>
+    <t>20/12/2025 13:10</t>
+  </si>
+  <si>
+    <t>19/12/2025 13:10</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202512190070925561 guasto non riscontrato a seguito ripristino master, allineamento stabilità e servizi ok</t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:9G9JMBP02381**</t>
+  </si>
+  <si>
+    <t>TT1005188221</t>
+  </si>
+  <si>
+    <t>95340644</t>
+  </si>
+  <si>
+    <t>12/12/2025 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025121203819290 </t>
+  </si>
+  <si>
+    <t>SWADW5042076253</t>
+  </si>
+  <si>
+    <t>093114759644</t>
+  </si>
+  <si>
+    <t>13/12/2025 11:01</t>
+  </si>
+  <si>
+    <t>12/12/2025 15:09</t>
+  </si>
+  <si>
+    <t>13/12/2025 07:10</t>
+  </si>
+  <si>
+    <t>12/12/2025 12:10</t>
+  </si>
+  <si>
+    <t>95053334</t>
+  </si>
+  <si>
+    <t>riparato al box testato con l'utente Codice collaudo: tk202512120070744225</t>
+  </si>
+  <si>
+    <t>TT1005178114</t>
+  </si>
+  <si>
+    <t>95278182</t>
+  </si>
+  <si>
+    <t>11/12/2025 16:30</t>
+  </si>
+  <si>
+    <t>11/12/2025 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025121003427876 </t>
+  </si>
+  <si>
+    <t>SWADW5042064027</t>
+  </si>
+  <si>
+    <t>17/12/2025 10:50</t>
+  </si>
+  <si>
+    <t>11/12/2025 16:34</t>
+  </si>
+  <si>
+    <t>11/12/2025 13:00</t>
+  </si>
+  <si>
+    <t>10/12/2025 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riparato al box eseguita prova telefonica Codice collaudo: tk202512100070681791 certificato con supporto fw pin: 161 </t>
+  </si>
+  <si>
+    <t>TT1005184012</t>
+  </si>
+  <si>
+    <t>95314491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025121103646076 </t>
+  </si>
+  <si>
+    <t>SWADW5042070499</t>
+  </si>
+  <si>
+    <t>093114753194</t>
+  </si>
+  <si>
+    <t>12/12/2025 12:08</t>
+  </si>
+  <si>
+    <t>12/12/2025 14:47</t>
+  </si>
+  <si>
+    <t>12/12/2025 08:12</t>
+  </si>
+  <si>
+    <t>11/12/2025 13:12</t>
+  </si>
+  <si>
+    <t>95030952</t>
+  </si>
+  <si>
+    <t>riparato in armadio Codice collaudo: tk202512110070718083</t>
+  </si>
+  <si>
+    <t>TT1005192382</t>
+  </si>
+  <si>
+    <t>95364411</t>
+  </si>
+  <si>
+    <t>15/12/2025</t>
+  </si>
+  <si>
+    <t>15/12/2025 17:00</t>
+  </si>
+  <si>
+    <t>15/12/2025 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TATIANA MARIA TONIA MORALE </t>
+  </si>
+  <si>
+    <t>CRH001040581274</t>
+  </si>
+  <si>
+    <t>0931775210</t>
+  </si>
+  <si>
+    <t>15/12/2025 23:59</t>
+  </si>
+  <si>
+    <t>15/12/2025 17:10</t>
+  </si>
+  <si>
+    <t>13/12/2025 11:56</t>
+  </si>
+  <si>
+    <t>95290978</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202512130070767973 Rifatto connettore su borchia ottica, segnale ottico servizi ok provato con il cliente</t>
+  </si>
+  <si>
+    <t>TT1005207052</t>
+  </si>
+  <si>
+    <t>95464229</t>
+  </si>
+  <si>
+    <t>18/12/2025 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025121704648268 </t>
+  </si>
+  <si>
+    <t>SWADW5042099028</t>
+  </si>
+  <si>
+    <t>093114760375</t>
+  </si>
+  <si>
+    <t>18/12/2025 12:50</t>
+  </si>
+  <si>
+    <t>18/12/2025 16:45</t>
+  </si>
+  <si>
+    <t>18/12/2025 14:06</t>
+  </si>
+  <si>
+    <t>17/12/2025 14:06</t>
+  </si>
+  <si>
+    <t>95265334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riparato in armadio posizioni corrette box 2D3 coppia 1 porta morsettiera C2-42 codice collaudo tk202512170070867608 </t>
+  </si>
+  <si>
+    <t>TT1005218274</t>
+  </si>
+  <si>
+    <t>95534944</t>
+  </si>
+  <si>
+    <t>20/12/2025 10:00</t>
+  </si>
+  <si>
+    <t>20/12/2025 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSARIA BRUNO </t>
+  </si>
+  <si>
+    <t>CRV001041251788</t>
+  </si>
+  <si>
+    <t>0931580933</t>
+  </si>
+  <si>
+    <t>20/12/2025 10:13</t>
+  </si>
+  <si>
+    <t>19/12/2025 19:04</t>
+  </si>
+  <si>
+    <t>95353756</t>
+  </si>
+  <si>
+    <t>Sostituita prima presa eseguita prova in sede utente codice collaudo tk202512190070938175</t>
   </si>
 </sst>
 </file>
@@ -8502,10 +9318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP222"/>
+  <dimension ref="A1:CP241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q182" workbookViewId="0">
-      <selection activeCell="T214" sqref="T214"/>
+    <sheetView tabSelected="1" topLeftCell="I199" workbookViewId="0">
+      <selection activeCell="T235" sqref="T235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -69291,12 +70107,6545 @@
         <v>104</v>
       </c>
     </row>
-    <row r="222" spans="1:94">
-      <c r="S222" s="3" t="s">
+    <row r="215" spans="1:94" s="1" customFormat="1">
+      <c r="A215" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M215" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O215" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="P215" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q215" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="R215" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S215" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="T215" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U215" s="1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="V215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W215" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X215" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y215" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="Z215" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="AA215" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="AB215" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AC215" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD215" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE215" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF215" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG215" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH215" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI215" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ215" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL215" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AM215" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN215" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="AO215" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="AP215" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="AQ215" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="AR215" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="AS215" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT215" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA215" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC215" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE215" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="BF215" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG215" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK215" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="BL215" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="BM215" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN215" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP215" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ215" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR215" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU215" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV215" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BW215" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="BX215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY215" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB215" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="CC215" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="CD215" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF215" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI215" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO215" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP215" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="216" spans="1:94" s="1" customFormat="1">
+      <c r="A216" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M216" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O216" s="1" t="s">
+        <v>2726</v>
+      </c>
+      <c r="P216" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q216" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="R216" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S216" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="T216" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U216" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="V216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W216" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X216" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC216" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD216" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE216" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF216" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG216" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH216" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI216" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ216" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL216" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM216" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN216" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="AO216" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="AP216" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="AQ216" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="AR216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS216" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT216" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU216" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV216" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW216" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX216" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="AY216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA216" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC216" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD216" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE216" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="BF216" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG216" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL216" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM216" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP216" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ216" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR216" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU216" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV216" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW216" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY216" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC216" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="CD216" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE216" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI216" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM216" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO216" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP216" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="217" spans="1:94" s="1" customFormat="1">
+      <c r="A217" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M217" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O217" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="P217" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q217" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="R217" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S217" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="T217" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U217" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="V217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W217" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X217" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC217" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD217" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE217" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF217" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG217" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH217" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI217" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ217" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL217" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM217" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN217" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="AO217" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="AP217" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="AQ217" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="AR217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS217" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="AT217" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="AU217" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV217" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW217" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX217" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="AY217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA217" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC217" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD217" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE217" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="BF217" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG217" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL217" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM217" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP217" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ217" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR217" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU217" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV217" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW217" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY217" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC217" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="CD217" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE217" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="CF217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI217" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM217" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN217" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="CO217" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP217" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="218" spans="1:94" s="1" customFormat="1">
+      <c r="A218" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M218" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O218" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="P218" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q218" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="R218" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S218" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="T218" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U218" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="V218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W218" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X218" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC218" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD218" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE218" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF218" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG218" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH218" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI218" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ218" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL218" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM218" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN218" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="AO218" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AP218" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="AQ218" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="AR218" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="AS218" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT218" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU218" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV218" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ218" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="BA218" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC218" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD218" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE218" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="BF218" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="BG218" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL218" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM218" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN218" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP218" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ218" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR218" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU218" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV218" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW218" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="BX218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY218" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC218" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="CD218" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI218" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO218" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP218" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="219" spans="1:94" s="1" customFormat="1">
+      <c r="A219" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M219" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O219" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="P219" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q219" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="R219" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S219" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T219" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U219" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="V219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W219" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X219" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC219" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD219" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE219" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF219" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG219" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH219" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI219" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ219" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL219" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM219" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN219" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="AO219" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="AP219" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="AQ219" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="AR219" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="AS219" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="AT219" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="AU219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA219" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC219" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE219" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="BF219" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="BG219" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL219" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="BM219" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN219" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP219" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ219" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR219" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU219" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV219" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW219" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY219" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="BZ219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC219" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="CD219" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI219" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO219" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP219" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="220" spans="1:94" s="1" customFormat="1">
+      <c r="A220" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M220" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O220" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="P220" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q220" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="R220" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S220" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="T220" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U220" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="V220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W220" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X220" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC220" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD220" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE220" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF220" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG220" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH220" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI220" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ220" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL220" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM220" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN220" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="AO220" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AP220" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="AQ220" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="AR220" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="AS220" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT220" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU220" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV220" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ220" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="BA220" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC220" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD220" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE220" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="BF220" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG220" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL220" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM220" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP220" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ220" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR220" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU220" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV220" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW220" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="BX220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY220" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC220" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="CD220" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI220" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO220" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP220" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="221" spans="1:94" s="1" customFormat="1">
+      <c r="A221" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M221" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O221" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="P221" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q221" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="R221" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S221" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="T221" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U221" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="V221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W221" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X221" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC221" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD221" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE221" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF221" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG221" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH221" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI221" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ221" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL221" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM221" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN221" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="AO221" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="AP221" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="AQ221" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="AR221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS221" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT221" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU221" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV221" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW221" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX221" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="AY221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA221" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC221" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD221" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE221" s="1" t="s">
+        <v>2791</v>
+      </c>
+      <c r="BF221" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG221" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL221" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM221" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP221" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ221" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR221" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU221" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV221" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW221" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY221" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC221" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="CD221" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE221" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI221" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM221" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO221" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP221" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="222" spans="1:94" s="1" customFormat="1">
+      <c r="A222" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M222" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O222" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="P222" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q222" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="R222" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S222" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="T222" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U222" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="V222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W222" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X222" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC222" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD222" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE222" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF222" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG222" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH222" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI222" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ222" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL222" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM222" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN222" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="AO222" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AP222" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="AQ222" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="AR222" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="AS222" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT222" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU222" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV222" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ222" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="BA222" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC222" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD222" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE222" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="BF222" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG222" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL222" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM222" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP222" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ222" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR222" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU222" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV222" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW222" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY222" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC222" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="CD222" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI222" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO222" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP222" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="223" spans="1:94" s="1" customFormat="1">
+      <c r="A223" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M223" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O223" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="P223" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q223" s="1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="R223" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S223" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="T223" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U223" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="V223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W223" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X223" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC223" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD223" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE223" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF223" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG223" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH223" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI223" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ223" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL223" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM223" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN223" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="AO223" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AP223" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="AQ223" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="AR223" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="AS223" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT223" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU223" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV223" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ223" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="BA223" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC223" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD223" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE223" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="BF223" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG223" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL223" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM223" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN223" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP223" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ223" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR223" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU223" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV223" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW223" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="BX223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY223" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC223" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="CD223" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI223" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO223" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP223" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="224" spans="1:94" s="1" customFormat="1">
+      <c r="A224" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M224" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O224" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="P224" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q224" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="R224" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S224" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="T224" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U224" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="V224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W224" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X224" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC224" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD224" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE224" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF224" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG224" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH224" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI224" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ224" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL224" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM224" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN224" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="AO224" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="AP224" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="AQ224" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="AR224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS224" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="AT224" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="AU224" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV224" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW224" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX224" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="AY224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA224" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC224" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD224" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE224" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="BF224" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG224" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL224" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM224" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP224" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ224" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR224" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU224" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV224" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW224" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY224" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC224" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="CD224" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE224" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI224" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM224" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP224" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="225" spans="1:94" s="1" customFormat="1">
+      <c r="A225" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M225" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O225" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="P225" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q225" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="R225" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S225" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="T225" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U225" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="V225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W225" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X225" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC225" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD225" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE225" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF225" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG225" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH225" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI225" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ225" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL225" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM225" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN225" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="AO225" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="AP225" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="AQ225" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="AR225" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="AS225" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT225" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA225" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC225" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE225" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="BF225" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="BG225" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL225" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="BM225" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN225" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP225" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ225" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR225" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU225" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV225" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW225" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY225" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="BZ225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC225" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="CD225" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI225" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP225" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="226" spans="1:94" s="1" customFormat="1">
+      <c r="A226" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M226" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O226" s="1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="P226" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q226" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="R226" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S226" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="T226" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="U226" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="V226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W226" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X226" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC226" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD226" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE226" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF226" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG226" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH226" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI226" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ226" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL226" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM226" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN226" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="AO226" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="AP226" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="AQ226" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="AR226" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="AS226" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="AT226" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="AU226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA226" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC226" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE226" s="1" t="s">
+        <v>2845</v>
+      </c>
+      <c r="BF226" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG226" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK226" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="BL226" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="BM226" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN226" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP226" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ226" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR226" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU226" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV226" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW226" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY226" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB226" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="CC226" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF226" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI226" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO226" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP226" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="227" spans="1:94" s="1" customFormat="1">
+      <c r="A227" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M227" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O227" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="P227" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q227" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="R227" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S227" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T227" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U227" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="V227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W227" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X227" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y227" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="Z227" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="AA227" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="AB227" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AC227" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD227" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE227" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF227" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG227" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH227" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI227" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ227" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL227" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM227" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN227" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="AO227" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="AP227" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="AQ227" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="AR227" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="AS227" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AT227" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AU227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA227" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC227" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE227" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="BF227" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="BG227" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK227" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="BL227" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM227" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN227" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP227" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ227" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR227" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU227" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV227" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW227" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="BX227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY227" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB227" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="CC227" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="CD227" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI227" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO227" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP227" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="228" spans="1:94" s="1" customFormat="1">
+      <c r="A228" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M228" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O228" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="P228" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q228" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="R228" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S228" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T228" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U228" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="V228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W228" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X228" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC228" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD228" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE228" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF228" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG228" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH228" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI228" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ228" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL228" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM228" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN228" s="1" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AO228" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="AP228" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="AQ228" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="AR228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS228" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT228" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU228" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV228" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW228" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX228" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="AY228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ228" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="BA228" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC228" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD228" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE228" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="BF228" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG228" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL228" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM228" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP228" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ228" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR228" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU228" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV228" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW228" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY228" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ228" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC228" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="CD228" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE228" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI228" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ228" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK228" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="CL228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN228" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="CO228" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP228" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="229" spans="1:94" s="1" customFormat="1">
+      <c r="A229" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M229" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O229" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="P229" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q229" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="R229" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S229" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T229" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U229" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="V229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W229" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X229" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC229" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD229" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE229" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF229" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG229" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH229" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI229" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ229" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL229" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM229" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN229" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="AO229" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="AP229" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="AQ229" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="AR229" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="AS229" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="AT229" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="AU229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA229" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC229" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE229" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="BF229" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="BG229" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL229" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM229" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN229" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP229" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ229" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR229" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU229" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV229" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW229" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY229" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="BZ229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC229" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="CD229" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI229" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO229" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP229" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="230" spans="1:94" s="1" customFormat="1">
+      <c r="A230" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L230" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M230" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O230" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="P230" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q230" s="1" t="s">
+        <v>2889</v>
+      </c>
+      <c r="R230" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S230" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T230" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U230" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="V230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W230" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X230" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC230" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD230" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE230" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF230" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG230" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH230" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI230" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ230" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL230" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM230" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN230" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="AO230" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="AP230" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="AQ230" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="AR230" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="AS230" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT230" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA230" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC230" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE230" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="BF230" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="BG230" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL230" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM230" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN230" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP230" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ230" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR230" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU230" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV230" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW230" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY230" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC230" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="CD230" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI230" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO230" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP230" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="231" spans="1:94" s="1" customFormat="1">
+      <c r="A231" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M231" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O231" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="P231" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q231" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="R231" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S231" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T231" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U231" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="V231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W231" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X231" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC231" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD231" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE231" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF231" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG231" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH231" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI231" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ231" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL231" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM231" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN231" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="AO231" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="AP231" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="AQ231" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="AR231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS231" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT231" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU231" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV231" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW231" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX231" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="AY231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ231" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="BA231" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC231" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD231" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE231" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="BF231" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="BG231" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL231" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM231" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP231" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ231" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR231" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU231" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV231" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW231" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY231" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ231" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC231" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="CD231" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE231" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI231" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ231" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK231" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="CL231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN231" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="CO231" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP231" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="232" spans="1:94" s="1" customFormat="1">
+      <c r="A232" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M232" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O232" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="P232" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q232" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="R232" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S232" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="T232" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U232" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="V232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W232" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X232" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC232" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD232" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE232" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF232" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG232" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH232" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI232" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ232" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL232" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM232" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN232" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="AO232" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="AP232" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="AQ232" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="AR232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS232" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT232" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU232" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV232" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW232" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX232" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="AY232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA232" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC232" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD232" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE232" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="BF232" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG232" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI232" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="BJ232" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL232" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM232" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP232" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ232" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR232" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU232" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV232" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW232" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY232" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC232" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="CD232" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE232" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI232" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM232" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO232" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP232" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="233" spans="1:94" s="1" customFormat="1">
+      <c r="A233" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M233" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O233" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="P233" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q233" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="R233" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S233" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T233" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U233" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="V233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W233" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X233" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC233" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD233" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE233" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF233" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG233" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH233" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI233" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ233" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL233" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM233" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN233" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="AO233" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="AP233" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="AQ233" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="AR233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS233" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT233" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU233" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV233" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW233" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX233" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="AY233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA233" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC233" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD233" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE233" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="BF233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI233" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="BJ233" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL233" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP233" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ233" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR233" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU233" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV233" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW233" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY233" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC233" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="CD233" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE233" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI233" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM233" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO233" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP233" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="234" spans="1:94" s="1" customFormat="1">
+      <c r="A234" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M234" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O234" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="P234" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q234" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="R234" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S234" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T234" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="U234" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="V234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W234" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X234" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC234" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD234" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE234" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF234" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG234" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH234" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI234" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ234" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL234" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM234" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN234" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="AO234" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="AP234" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="AQ234" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="AR234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS234" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="AT234" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="AU234" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV234" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW234" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX234" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="AY234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA234" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC234" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD234" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE234" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="BF234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI234" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="BJ234" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL234" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP234" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ234" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR234" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU234" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV234" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW234" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY234" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC234" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="CD234" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE234" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI234" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM234" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP234" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="235" spans="1:94" s="1" customFormat="1">
+      <c r="A235" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M235" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O235" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="P235" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q235" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="R235" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S235" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T235" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U235" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="V235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W235" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X235" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC235" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD235" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE235" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF235" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG235" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH235" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI235" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ235" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL235" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM235" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN235" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="AO235" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="AP235" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="AQ235" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="AR235" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="AS235" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT235" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA235" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC235" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE235" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="BF235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI235" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="BJ235" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL235" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="BM235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN235" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP235" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ235" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR235" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU235" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV235" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW235" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY235" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="BZ235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC235" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="CD235" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI235" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP235" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="236" spans="1:94" s="1" customFormat="1">
+      <c r="A236" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M236" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O236" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="P236" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q236" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="R236" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S236" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T236" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="U236" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="V236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W236" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X236" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC236" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD236" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE236" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF236" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG236" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH236" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI236" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ236" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL236" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM236" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN236" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="AO236" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="AP236" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="AQ236" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="AR236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS236" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT236" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU236" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV236" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW236" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX236" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="AY236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA236" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC236" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD236" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE236" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="BF236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI236" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="BJ236" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL236" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP236" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ236" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR236" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU236" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV236" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW236" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY236" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ236" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC236" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="CD236" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE236" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI236" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP236" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="237" spans="1:94" s="1" customFormat="1">
+      <c r="A237" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L237" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M237" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O237" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="P237" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q237" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="R237" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S237" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="T237" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="U237" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="V237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W237" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X237" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC237" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD237" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE237" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF237" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG237" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH237" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI237" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ237" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL237" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM237" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN237" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="AO237" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="AP237" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="AQ237" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="AR237" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="AS237" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT237" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA237" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC237" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE237" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="BF237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI237" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="BJ237" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL237" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN237" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP237" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ237" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR237" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU237" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV237" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW237" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY237" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC237" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="CD237" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI237" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP237" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="241" spans="19:19">
+      <c r="S241" s="3" t="s">
         <v>2708</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CP1"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$CP$1</definedName>
   </definedNames>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22241" uniqueCount="2980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23555" uniqueCount="3140">
   <si>
     <t>Codice</t>
   </si>
@@ -8145,9 +8145,6 @@
     <t>Rifatto giunto in prima presa eseguita prova in sede utente Codice collaudo: tk202512050070608521</t>
   </si>
   <si>
-    <t>#data esec al 21/12</t>
-  </si>
-  <si>
     <t>TT1005155311</t>
   </si>
   <si>
@@ -8959,6 +8956,489 @@
   </si>
   <si>
     <t>Sostituita prima presa eseguita prova in sede utente codice collaudo tk202512190070938175</t>
+  </si>
+  <si>
+    <t>#data esec al 29/12</t>
+  </si>
+  <si>
+    <t>TT1005217206</t>
+  </si>
+  <si>
+    <t>95528991</t>
+  </si>
+  <si>
+    <t>22/12/2025</t>
+  </si>
+  <si>
+    <t>22/12/2025 16:00</t>
+  </si>
+  <si>
+    <t>22/12/2025 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025121905051711 </t>
+  </si>
+  <si>
+    <t>SWADW5042111124</t>
+  </si>
+  <si>
+    <t>093114734218</t>
+  </si>
+  <si>
+    <t>20/12/2025 15:06</t>
+  </si>
+  <si>
+    <t>22/12/2025 15:59</t>
+  </si>
+  <si>
+    <t>20/12/2025 10:32</t>
+  </si>
+  <si>
+    <t>19/12/2025 15:32</t>
+  </si>
+  <si>
+    <t>95121024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box eseguita prova telefonica Codice collaudo: tk202512190070932224 </t>
+  </si>
+  <si>
+    <t>TT1005219606</t>
+  </si>
+  <si>
+    <t>95541060</t>
+  </si>
+  <si>
+    <t>CRNHLINAP-</t>
+  </si>
+  <si>
+    <t>22/12/2025 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025122005174345 </t>
+  </si>
+  <si>
+    <t>SWRTW5042114469</t>
+  </si>
+  <si>
+    <t>0G600090701</t>
+  </si>
+  <si>
+    <t>24/12/2025 23:59</t>
+  </si>
+  <si>
+    <t>22/12/2025 16:54</t>
+  </si>
+  <si>
+    <t>ILIAD ITALIA</t>
+  </si>
+  <si>
+    <t>Pancera Patrizia</t>
+  </si>
+  <si>
+    <t>ILA2400KIT</t>
+  </si>
+  <si>
+    <t>DISSERVIZIO SEMIGPON</t>
+  </si>
+  <si>
+    <t>20/12/2025 11:26</t>
+  </si>
+  <si>
+    <t>95399530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al roe,fatte prove con l'utente. Codice collaudo: tk202512200070944286 </t>
+  </si>
+  <si>
+    <t>TT1005220542</t>
+  </si>
+  <si>
+    <t>95545979</t>
+  </si>
+  <si>
+    <t>22/12/2025 13:00</t>
+  </si>
+  <si>
+    <t>22/12/2025 14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARMELOSPATARO </t>
+  </si>
+  <si>
+    <t>CRH000103978944</t>
+  </si>
+  <si>
+    <t>0931591954</t>
+  </si>
+  <si>
+    <t>23/12/2025 00:10</t>
+  </si>
+  <si>
+    <t>22/12/2025 13:26</t>
+  </si>
+  <si>
+    <t>20/12/2025 16:20</t>
+  </si>
+  <si>
+    <t>95407877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eseguita riconfigurazione SN ont eseguita prova in sede Codice collaudo: tk202512200070949203 </t>
+  </si>
+  <si>
+    <t>TT1005231765</t>
+  </si>
+  <si>
+    <t>95608892</t>
+  </si>
+  <si>
+    <t>24/12/2025</t>
+  </si>
+  <si>
+    <t>24/12/2025 13:00</t>
+  </si>
+  <si>
+    <t>24/12/2025 13:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVAN GIUSEPPE GERMANO </t>
+  </si>
+  <si>
+    <t>CRH001041640723</t>
+  </si>
+  <si>
+    <t>0931586464</t>
+  </si>
+  <si>
+    <t>27/12/2025 23:59</t>
+  </si>
+  <si>
+    <t>24/12/2025 14:55</t>
+  </si>
+  <si>
+    <t>24/12/2025 10:38</t>
+  </si>
+  <si>
+    <t>95332785</t>
+  </si>
+  <si>
+    <t>Riparato al roe Codice collaudo: tk202512240071012070</t>
+  </si>
+  <si>
+    <t>TT1005231815</t>
+  </si>
+  <si>
+    <t>95609299</t>
+  </si>
+  <si>
+    <t>29/12/2025</t>
+  </si>
+  <si>
+    <t>29/12/2025 16:30</t>
+  </si>
+  <si>
+    <t>29/12/2025 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025122405731198 </t>
+  </si>
+  <si>
+    <t>SWADW5042130998</t>
+  </si>
+  <si>
+    <t>093114727535</t>
+  </si>
+  <si>
+    <t>25/12/2025 09:43</t>
+  </si>
+  <si>
+    <t>29/12/2025 16:31</t>
+  </si>
+  <si>
+    <t>25/12/2025 05:50</t>
+  </si>
+  <si>
+    <t>24/12/2025 10:50</t>
+  </si>
+  <si>
+    <t>95430272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPE da sostituire causa wifi ko Codice collaudo: tk202512240071012477 </t>
+  </si>
+  <si>
+    <t>TT1005216630</t>
+  </si>
+  <si>
+    <t>95524051</t>
+  </si>
+  <si>
+    <t>22/12/2025 17:30</t>
+  </si>
+  <si>
+    <t>22/12/2025 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025121905025446 </t>
+  </si>
+  <si>
+    <t>SWADW5042110141</t>
+  </si>
+  <si>
+    <t>26/12/2025 12:51</t>
+  </si>
+  <si>
+    <t>22/12/2025 19:18</t>
+  </si>
+  <si>
+    <t>21/12/2025 14:00</t>
+  </si>
+  <si>
+    <t>19/12/2025 14:00</t>
+  </si>
+  <si>
+    <t>non riscontrato Codice collaudo: tk202512190070927286</t>
+  </si>
+  <si>
+    <t>TT1005226295</t>
+  </si>
+  <si>
+    <t>95575356</t>
+  </si>
+  <si>
+    <t>23/12/2025</t>
+  </si>
+  <si>
+    <t>23/12/2025 13:00</t>
+  </si>
+  <si>
+    <t>23/12/2025 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025122205477173 </t>
+  </si>
+  <si>
+    <t>23/12/2025 00:00</t>
+  </si>
+  <si>
+    <t>SWADW5042124420</t>
+  </si>
+  <si>
+    <t>30/12/2025 17:14</t>
+  </si>
+  <si>
+    <t>23/12/2025 16:56</t>
+  </si>
+  <si>
+    <t>22/12/2025 18:26</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eseguito cambio coppia secondaria zona 1.17 porta c2 1. Vecchia box 8 coppia 8. Nuova box 8 coppia 6 Codice collaudo: tk202512220070978557 </t>
+  </si>
+  <si>
+    <t>TT1005227926</t>
+  </si>
+  <si>
+    <t>95585535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025121905031000 </t>
+  </si>
+  <si>
+    <t>SWADW5042110337</t>
+  </si>
+  <si>
+    <t>093114724016</t>
+  </si>
+  <si>
+    <t>20/12/2025 13:16</t>
+  </si>
+  <si>
+    <t>23/12/2025 19:45</t>
+  </si>
+  <si>
+    <t>20/12/2025 14:20</t>
+  </si>
+  <si>
+    <t>23/12/2025 10:58</t>
+  </si>
+  <si>
+    <t>per il guasto in oggetto il cliente non risponde al contatta cliente e da one esce come ragione sociale una banca.  L'indirizzo è errato perchè porta ad un centro commerciale che non c'entra nulla con il guasto e   il percorso di rete porta ad un box ad Avola centro che non corrisponde con le posizioni nè del centro commerciale nè della banca.</t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:2253627003592**</t>
+  </si>
+  <si>
+    <t>TT1005228214</t>
+  </si>
+  <si>
+    <t>95587576</t>
+  </si>
+  <si>
+    <t>23/12/2025 13:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025122305570023 </t>
+  </si>
+  <si>
+    <t>SWADW5042126596</t>
+  </si>
+  <si>
+    <t>093114756375</t>
+  </si>
+  <si>
+    <t>24/12/2025 10:39</t>
+  </si>
+  <si>
+    <t>23/12/2025 15:45</t>
+  </si>
+  <si>
+    <t>24/12/2025 11:52</t>
+  </si>
+  <si>
+    <t>23/12/2025 11:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sostituita presa testato con l'utente codice collaudo tk202512230070990759 </t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:ZTEEGA0PCR00325**</t>
+  </si>
+  <si>
+    <t>TT1005230423</t>
+  </si>
+  <si>
+    <t>95601042</t>
+  </si>
+  <si>
+    <t>24/12/2025 14:00</t>
+  </si>
+  <si>
+    <t>24/12/2025 14:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LALENA MELINDA KURTZ </t>
+  </si>
+  <si>
+    <t>CRR001041605653</t>
+  </si>
+  <si>
+    <t>0931458346</t>
+  </si>
+  <si>
+    <t>24/12/2025 14:57</t>
+  </si>
+  <si>
+    <t>23/12/2025 18:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato in armadio , rifatta permuta in armadio. Codice Collaudo: tk202512230071004222 </t>
+  </si>
+  <si>
+    <t>TT1005232431</t>
+  </si>
+  <si>
+    <t>95613260</t>
+  </si>
+  <si>
+    <t>27/12/2025</t>
+  </si>
+  <si>
+    <t>27/12/2025 15:30</t>
+  </si>
+  <si>
+    <t>27/12/2025 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025122205386330 </t>
+  </si>
+  <si>
+    <t>SWADW5042120121</t>
+  </si>
+  <si>
+    <t>093114720426</t>
+  </si>
+  <si>
+    <t>23/12/2025 10:11</t>
+  </si>
+  <si>
+    <t>27/12/2025 16:05</t>
+  </si>
+  <si>
+    <t>23/12/2025 06:20</t>
+  </si>
+  <si>
+    <t>24/12/2025 12:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eseguito cambio porta, vecchia porta c1-48, nuova porta c1-26.  Pin 873 con Icapo  Codice collaudo: tk202512240071016437 </t>
+  </si>
+  <si>
+    <t>TT1005233050</t>
+  </si>
+  <si>
+    <t>95616773</t>
+  </si>
+  <si>
+    <t>27/12/2025 12:30</t>
+  </si>
+  <si>
+    <t>27/12/2025 13:00</t>
+  </si>
+  <si>
+    <t>28/12/2025 06:01</t>
+  </si>
+  <si>
+    <t>27/12/2025 13:31</t>
+  </si>
+  <si>
+    <t>24/12/2025 14:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box Codice collaudo: tk202512240071019947 </t>
+  </si>
+  <si>
+    <t>TT1005233256</t>
+  </si>
+  <si>
+    <t>95618169</t>
+  </si>
+  <si>
+    <t>29/12/2025 11:30</t>
+  </si>
+  <si>
+    <t>29/12/2025 12:00</t>
+  </si>
+  <si>
+    <t>29/12/2025 11:20</t>
+  </si>
+  <si>
+    <t>24/12/2025 10:58</t>
+  </si>
+  <si>
+    <t>24/12/2025 15:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">il cliente ha richiesto migrazione della linea ma è stata aggiornata solo l'anagrafica del cliente, spostando il cliente da un indirizzo ad un altro senza un reale intervento tecnico. Pertanto il cliente risulta attestato nel nuovo indirizzo ma la linea è ancora nel vecchio indirizzo </t>
+  </si>
+  <si>
+    <t>TT1005233979</t>
+  </si>
+  <si>
+    <t>95621224</t>
+  </si>
+  <si>
+    <t>27/12/2025 03:23</t>
+  </si>
+  <si>
+    <t>24/12/2025 18:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box eseguita prova telefonica Codice Collaudo: tk202512240071024396 </t>
   </si>
 </sst>
 </file>
@@ -9318,10 +9798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP241"/>
+  <dimension ref="A1:CP257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I199" workbookViewId="0">
-      <selection activeCell="T235" sqref="T235"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="F257" sqref="F257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -70109,13 +70589,13 @@
     </row>
     <row r="215" spans="1:94" s="1" customFormat="1">
       <c r="A215" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>2709</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>2710</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>2711</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>289</v>
@@ -70151,13 +70631,13 @@
         <v>104</v>
       </c>
       <c r="O215" s="1" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="P215" s="1" t="s">
         <v>320</v>
       </c>
       <c r="Q215" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="R215" s="1" t="s">
         <v>110</v>
@@ -70169,7 +70649,7 @@
         <v>427</v>
       </c>
       <c r="U215" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="V215" s="1" t="s">
         <v>104</v>
@@ -70181,13 +70661,13 @@
         <v>115</v>
       </c>
       <c r="Y215" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="Z215" s="1" t="s">
         <v>934</v>
       </c>
       <c r="AA215" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="AB215" s="1" t="s">
         <v>1360</v>
@@ -70226,19 +70706,19 @@
         <v>108</v>
       </c>
       <c r="AN215" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="AO215" s="1" t="s">
         <v>2716</v>
       </c>
-      <c r="AO215" s="1" t="s">
+      <c r="AP215" s="1" t="s">
         <v>2717</v>
       </c>
-      <c r="AP215" s="1" t="s">
+      <c r="AQ215" s="1" t="s">
         <v>2718</v>
       </c>
-      <c r="AQ215" s="1" t="s">
+      <c r="AR215" s="1" t="s">
         <v>2719</v>
-      </c>
-      <c r="AR215" s="1" t="s">
-        <v>2720</v>
       </c>
       <c r="AS215" s="1" t="s">
         <v>122</v>
@@ -70277,7 +70757,7 @@
         <v>104</v>
       </c>
       <c r="BE215" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="BF215" s="1" t="s">
         <v>97</v>
@@ -70349,7 +70829,7 @@
         <v>1953</v>
       </c>
       <c r="CC215" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="CD215" s="1" t="s">
         <v>98</v>
@@ -70393,13 +70873,13 @@
     </row>
     <row r="216" spans="1:94" s="1" customFormat="1">
       <c r="A216" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>2723</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>2724</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>2725</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>97</v>
@@ -70435,13 +70915,13 @@
         <v>104</v>
       </c>
       <c r="O216" s="1" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="P216" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q216" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="R216" s="1" t="s">
         <v>110</v>
@@ -70453,7 +70933,7 @@
         <v>537</v>
       </c>
       <c r="U216" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="V216" s="1" t="s">
         <v>104</v>
@@ -70510,16 +70990,16 @@
         <v>108</v>
       </c>
       <c r="AN216" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="AO216" s="1" t="s">
         <v>2729</v>
       </c>
-      <c r="AO216" s="1" t="s">
+      <c r="AP216" s="1" t="s">
         <v>2730</v>
       </c>
-      <c r="AP216" s="1" t="s">
+      <c r="AQ216" s="1" t="s">
         <v>2731</v>
-      </c>
-      <c r="AQ216" s="1" t="s">
-        <v>2732</v>
       </c>
       <c r="AR216" s="1" t="s">
         <v>104</v>
@@ -70540,7 +71020,7 @@
         <v>173</v>
       </c>
       <c r="AX216" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="AY216" s="1" t="s">
         <v>104</v>
@@ -70561,7 +71041,7 @@
         <v>221</v>
       </c>
       <c r="BE216" s="1" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="BF216" s="1" t="s">
         <v>97</v>
@@ -70633,7 +71113,7 @@
         <v>104</v>
       </c>
       <c r="CC216" s="1" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="CD216" s="1" t="s">
         <v>99</v>
@@ -70677,13 +71157,13 @@
     </row>
     <row r="217" spans="1:94" s="1" customFormat="1">
       <c r="A217" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>2736</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>2737</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>2738</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>796</v>
@@ -70719,13 +71199,13 @@
         <v>104</v>
       </c>
       <c r="O217" s="1" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="P217" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q217" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="R217" s="1" t="s">
         <v>110</v>
@@ -70737,7 +71217,7 @@
         <v>537</v>
       </c>
       <c r="U217" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="V217" s="1" t="s">
         <v>104</v>
@@ -70794,16 +71274,16 @@
         <v>108</v>
       </c>
       <c r="AN217" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="AO217" s="1" t="s">
         <v>2742</v>
       </c>
-      <c r="AO217" s="1" t="s">
+      <c r="AP217" s="1" t="s">
         <v>2743</v>
       </c>
-      <c r="AP217" s="1" t="s">
-        <v>2744</v>
-      </c>
       <c r="AQ217" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="AR217" s="1" t="s">
         <v>104</v>
@@ -70824,7 +71304,7 @@
         <v>173</v>
       </c>
       <c r="AX217" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="AY217" s="1" t="s">
         <v>104</v>
@@ -70845,7 +71325,7 @@
         <v>221</v>
       </c>
       <c r="BE217" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="BF217" s="1" t="s">
         <v>469</v>
@@ -70917,7 +71397,7 @@
         <v>104</v>
       </c>
       <c r="CC217" s="1" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="CD217" s="1" t="s">
         <v>99</v>
@@ -70950,7 +71430,7 @@
         <v>226</v>
       </c>
       <c r="CN217" s="1" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="CO217" s="1" t="s">
         <v>104</v>
@@ -70961,13 +71441,13 @@
     </row>
     <row r="218" spans="1:94" s="1" customFormat="1">
       <c r="A218" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>2748</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>2749</v>
-      </c>
       <c r="C218" s="1" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>97</v>
@@ -71003,13 +71483,13 @@
         <v>104</v>
       </c>
       <c r="O218" s="1" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="P218" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q218" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="R218" s="1" t="s">
         <v>110</v>
@@ -71021,7 +71501,7 @@
         <v>537</v>
       </c>
       <c r="U218" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="V218" s="1" t="s">
         <v>104</v>
@@ -71078,19 +71558,19 @@
         <v>108</v>
       </c>
       <c r="AN218" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="AO218" s="1" t="s">
         <v>1228</v>
       </c>
       <c r="AP218" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="AQ218" s="1" t="s">
         <v>2754</v>
       </c>
-      <c r="AQ218" s="1" t="s">
-        <v>2755</v>
-      </c>
       <c r="AR218" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="AS218" s="1" t="s">
         <v>268</v>
@@ -71129,7 +71609,7 @@
         <v>221</v>
       </c>
       <c r="BE218" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="BF218" s="1" t="s">
         <v>796</v>
@@ -71201,7 +71681,7 @@
         <v>104</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>98</v>
@@ -71245,13 +71725,13 @@
     </row>
     <row r="219" spans="1:94" s="1" customFormat="1">
       <c r="A219" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>2758</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>2759</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>2760</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>97</v>
@@ -71287,13 +71767,13 @@
         <v>104</v>
       </c>
       <c r="O219" s="1" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="P219" s="1" t="s">
         <v>208</v>
       </c>
       <c r="Q219" s="1" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="R219" s="1" t="s">
         <v>110</v>
@@ -71305,7 +71785,7 @@
         <v>236</v>
       </c>
       <c r="U219" s="1" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="V219" s="1" t="s">
         <v>104</v>
@@ -71362,19 +71842,19 @@
         <v>108</v>
       </c>
       <c r="AN219" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="AO219" s="1" t="s">
         <v>2764</v>
       </c>
-      <c r="AO219" s="1" t="s">
+      <c r="AP219" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="AP219" s="1" t="s">
+      <c r="AQ219" s="1" t="s">
         <v>2766</v>
       </c>
-      <c r="AQ219" s="1" t="s">
-        <v>2767</v>
-      </c>
       <c r="AR219" s="1" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="AS219" s="1" t="s">
         <v>577</v>
@@ -71413,10 +71893,10 @@
         <v>104</v>
       </c>
       <c r="BE219" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="BF219" s="1" t="s">
         <v>2768</v>
-      </c>
-      <c r="BF219" s="1" t="s">
-        <v>2769</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>110</v>
@@ -71485,7 +71965,7 @@
         <v>104</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="CD219" s="1" t="s">
         <v>99</v>
@@ -71529,13 +72009,13 @@
     </row>
     <row r="220" spans="1:94" s="1" customFormat="1">
       <c r="A220" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>2771</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>2772</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>2773</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>97</v>
@@ -71571,13 +72051,13 @@
         <v>104</v>
       </c>
       <c r="O220" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="P220" s="1" t="s">
         <v>102</v>
       </c>
       <c r="Q220" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="R220" s="1" t="s">
         <v>110</v>
@@ -71589,7 +72069,7 @@
         <v>537</v>
       </c>
       <c r="U220" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="V220" s="1" t="s">
         <v>104</v>
@@ -71646,19 +72126,19 @@
         <v>108</v>
       </c>
       <c r="AN220" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="AO220" s="1" t="s">
         <v>1228</v>
       </c>
       <c r="AP220" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="AQ220" s="1" t="s">
         <v>2776</v>
       </c>
-      <c r="AQ220" s="1" t="s">
-        <v>2777</v>
-      </c>
       <c r="AR220" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="AS220" s="1" t="s">
         <v>268</v>
@@ -71697,7 +72177,7 @@
         <v>221</v>
       </c>
       <c r="BE220" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="BF220" s="1" t="s">
         <v>97</v>
@@ -71769,7 +72249,7 @@
         <v>104</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>98</v>
@@ -71813,13 +72293,13 @@
     </row>
     <row r="221" spans="1:94" s="1" customFormat="1">
       <c r="A221" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>2780</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>2781</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>2782</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>289</v>
@@ -71855,13 +72335,13 @@
         <v>104</v>
       </c>
       <c r="O221" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="P221" s="1" t="s">
         <v>208</v>
       </c>
       <c r="Q221" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="R221" s="1" t="s">
         <v>110</v>
@@ -71873,7 +72353,7 @@
         <v>537</v>
       </c>
       <c r="U221" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="V221" s="1" t="s">
         <v>104</v>
@@ -71930,16 +72410,16 @@
         <v>108</v>
       </c>
       <c r="AN221" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="AO221" s="1" t="s">
         <v>2786</v>
       </c>
-      <c r="AO221" s="1" t="s">
+      <c r="AP221" s="1" t="s">
         <v>2787</v>
       </c>
-      <c r="AP221" s="1" t="s">
+      <c r="AQ221" s="1" t="s">
         <v>2788</v>
-      </c>
-      <c r="AQ221" s="1" t="s">
-        <v>2789</v>
       </c>
       <c r="AR221" s="1" t="s">
         <v>104</v>
@@ -71960,7 +72440,7 @@
         <v>173</v>
       </c>
       <c r="AX221" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="AY221" s="1" t="s">
         <v>104</v>
@@ -71981,7 +72461,7 @@
         <v>221</v>
       </c>
       <c r="BE221" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="BF221" s="1" t="s">
         <v>97</v>
@@ -72053,7 +72533,7 @@
         <v>104</v>
       </c>
       <c r="CC221" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="CD221" s="1" t="s">
         <v>99</v>
@@ -72097,13 +72577,13 @@
     </row>
     <row r="222" spans="1:94" s="1" customFormat="1">
       <c r="A222" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>2794</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>2795</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>97</v>
@@ -72139,13 +72619,13 @@
         <v>104</v>
       </c>
       <c r="O222" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="P222" s="1" t="s">
         <v>208</v>
       </c>
       <c r="Q222" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="R222" s="1" t="s">
         <v>110</v>
@@ -72157,7 +72637,7 @@
         <v>537</v>
       </c>
       <c r="U222" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="V222" s="1" t="s">
         <v>104</v>
@@ -72214,19 +72694,19 @@
         <v>108</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="AO222" s="1" t="s">
         <v>1228</v>
       </c>
       <c r="AP222" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="AQ222" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="AQ222" s="1" t="s">
-        <v>2799</v>
-      </c>
       <c r="AR222" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="AS222" s="1" t="s">
         <v>268</v>
@@ -72265,7 +72745,7 @@
         <v>221</v>
       </c>
       <c r="BE222" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="BF222" s="1" t="s">
         <v>97</v>
@@ -72337,7 +72817,7 @@
         <v>104</v>
       </c>
       <c r="CC222" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="CD222" s="1" t="s">
         <v>98</v>
@@ -72381,13 +72861,13 @@
     </row>
     <row r="223" spans="1:94" s="1" customFormat="1">
       <c r="A223" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>2803</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>2804</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>2805</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>157</v>
@@ -72423,13 +72903,13 @@
         <v>104</v>
       </c>
       <c r="O223" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="P223" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q223" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="R223" s="1" t="s">
         <v>110</v>
@@ -72441,7 +72921,7 @@
         <v>537</v>
       </c>
       <c r="U223" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="V223" s="1" t="s">
         <v>104</v>
@@ -72498,19 +72978,19 @@
         <v>108</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="AO223" s="1" t="s">
         <v>1228</v>
       </c>
       <c r="AP223" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="AQ223" s="1" t="s">
         <v>2810</v>
       </c>
-      <c r="AQ223" s="1" t="s">
-        <v>2811</v>
-      </c>
       <c r="AR223" s="1" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="AS223" s="1" t="s">
         <v>268</v>
@@ -72549,7 +73029,7 @@
         <v>221</v>
       </c>
       <c r="BE223" s="1" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="BF223" s="1" t="s">
         <v>97</v>
@@ -72621,7 +73101,7 @@
         <v>104</v>
       </c>
       <c r="CC223" s="1" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="CD223" s="1" t="s">
         <v>98</v>
@@ -72665,13 +73145,13 @@
     </row>
     <row r="224" spans="1:94" s="1" customFormat="1">
       <c r="A224" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>2814</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>2815</v>
-      </c>
       <c r="C224" s="1" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>97</v>
@@ -72707,13 +73187,13 @@
         <v>104</v>
       </c>
       <c r="O224" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="P224" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q224" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="R224" s="1" t="s">
         <v>110</v>
@@ -72725,7 +73205,7 @@
         <v>112</v>
       </c>
       <c r="U224" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="V224" s="1" t="s">
         <v>104</v>
@@ -72782,16 +73262,16 @@
         <v>108</v>
       </c>
       <c r="AN224" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AO224" s="1" t="s">
         <v>2818</v>
       </c>
-      <c r="AO224" s="1" t="s">
+      <c r="AP224" s="1" t="s">
         <v>2819</v>
       </c>
-      <c r="AP224" s="1" t="s">
+      <c r="AQ224" s="1" t="s">
         <v>2820</v>
-      </c>
-      <c r="AQ224" s="1" t="s">
-        <v>2821</v>
       </c>
       <c r="AR224" s="1" t="s">
         <v>104</v>
@@ -72812,7 +73292,7 @@
         <v>173</v>
       </c>
       <c r="AX224" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="AY224" s="1" t="s">
         <v>104</v>
@@ -72833,7 +73313,7 @@
         <v>221</v>
       </c>
       <c r="BE224" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="BF224" s="1" t="s">
         <v>97</v>
@@ -72905,7 +73385,7 @@
         <v>104</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="CD224" s="1" t="s">
         <v>99</v>
@@ -72949,13 +73429,13 @@
     </row>
     <row r="225" spans="1:94" s="1" customFormat="1">
       <c r="A225" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>2825</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>2826</v>
-      </c>
       <c r="C225" s="1" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>796</v>
@@ -72991,13 +73471,13 @@
         <v>104</v>
       </c>
       <c r="O225" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="P225" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q225" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="R225" s="1" t="s">
         <v>110</v>
@@ -73009,7 +73489,7 @@
         <v>360</v>
       </c>
       <c r="U225" s="1" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="V225" s="1" t="s">
         <v>104</v>
@@ -73066,19 +73546,19 @@
         <v>108</v>
       </c>
       <c r="AN225" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="AO225" s="1" t="s">
         <v>2830</v>
       </c>
-      <c r="AO225" s="1" t="s">
+      <c r="AP225" s="1" t="s">
         <v>2831</v>
       </c>
-      <c r="AP225" s="1" t="s">
+      <c r="AQ225" s="1" t="s">
         <v>2832</v>
       </c>
-      <c r="AQ225" s="1" t="s">
-        <v>2833</v>
-      </c>
       <c r="AR225" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="AS225" s="1" t="s">
         <v>282</v>
@@ -73117,7 +73597,7 @@
         <v>104</v>
       </c>
       <c r="BE225" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="BF225" s="1" t="s">
         <v>796</v>
@@ -73177,19 +73657,19 @@
         <v>104</v>
       </c>
       <c r="BY225" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="BZ225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC225" s="1" t="s">
         <v>2835</v>
-      </c>
-      <c r="BZ225" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CA225" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CB225" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CC225" s="1" t="s">
-        <v>2836</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>99</v>
@@ -73233,13 +73713,13 @@
     </row>
     <row r="226" spans="1:94" s="1" customFormat="1">
       <c r="A226" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>2837</v>
       </c>
-      <c r="B226" s="1" t="s">
-        <v>2838</v>
-      </c>
       <c r="C226" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>289</v>
@@ -73275,13 +73755,13 @@
         <v>104</v>
       </c>
       <c r="O226" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="P226" s="1" t="s">
         <v>208</v>
       </c>
       <c r="Q226" s="1" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="R226" s="1" t="s">
         <v>110</v>
@@ -73293,7 +73773,7 @@
         <v>203</v>
       </c>
       <c r="U226" s="1" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="V226" s="1" t="s">
         <v>104</v>
@@ -73350,19 +73830,19 @@
         <v>108</v>
       </c>
       <c r="AN226" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="AO226" s="1" t="s">
         <v>2841</v>
       </c>
-      <c r="AO226" s="1" t="s">
+      <c r="AP226" s="1" t="s">
         <v>2842</v>
       </c>
-      <c r="AP226" s="1" t="s">
+      <c r="AQ226" s="1" t="s">
         <v>2843</v>
       </c>
-      <c r="AQ226" s="1" t="s">
-        <v>2844</v>
-      </c>
       <c r="AR226" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="AS226" s="1" t="s">
         <v>889</v>
@@ -73401,7 +73881,7 @@
         <v>104</v>
       </c>
       <c r="BE226" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="BF226" s="1" t="s">
         <v>97</v>
@@ -73419,7 +73899,7 @@
         <v>104</v>
       </c>
       <c r="BK226" s="1" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="BL226" s="1" t="s">
         <v>450</v>
@@ -73473,7 +73953,7 @@
         <v>2404</v>
       </c>
       <c r="CC226" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="CD226" s="1" t="s">
         <v>98</v>
@@ -73517,13 +73997,13 @@
     </row>
     <row r="227" spans="1:94" s="1" customFormat="1">
       <c r="A227" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>2848</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="C227" s="1" t="s">
         <v>2849</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>2850</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>97</v>
@@ -73559,13 +74039,13 @@
         <v>104</v>
       </c>
       <c r="O227" s="1" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="P227" s="1" t="s">
         <v>320</v>
       </c>
       <c r="Q227" s="1" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="R227" s="1" t="s">
         <v>110</v>
@@ -73577,7 +74057,7 @@
         <v>427</v>
       </c>
       <c r="U227" s="1" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="V227" s="1" t="s">
         <v>104</v>
@@ -73589,13 +74069,13 @@
         <v>115</v>
       </c>
       <c r="Y227" s="1" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="Z227" s="1" t="s">
         <v>934</v>
       </c>
       <c r="AA227" s="1" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="AB227" s="1" t="s">
         <v>1360</v>
@@ -73634,19 +74114,19 @@
         <v>108</v>
       </c>
       <c r="AN227" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="AO227" s="1" t="s">
         <v>2855</v>
       </c>
-      <c r="AO227" s="1" t="s">
+      <c r="AP227" s="1" t="s">
         <v>2856</v>
       </c>
-      <c r="AP227" s="1" t="s">
+      <c r="AQ227" s="1" t="s">
         <v>2857</v>
       </c>
-      <c r="AQ227" s="1" t="s">
-        <v>2858</v>
-      </c>
       <c r="AR227" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="AS227" s="1" t="s">
         <v>1266</v>
@@ -73685,10 +74165,10 @@
         <v>104</v>
       </c>
       <c r="BE227" s="1" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="BF227" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="BG227" s="1" t="s">
         <v>110</v>
@@ -73739,7 +74219,7 @@
         <v>102</v>
       </c>
       <c r="BW227" s="1" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="BX227" s="1" t="s">
         <v>104</v>
@@ -73757,7 +74237,7 @@
         <v>1953</v>
       </c>
       <c r="CC227" s="1" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="CD227" s="1" t="s">
         <v>99</v>
@@ -73801,13 +74281,13 @@
     </row>
     <row r="228" spans="1:94" s="1" customFormat="1">
       <c r="A228" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>2862</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>2863</v>
-      </c>
       <c r="C228" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>157</v>
@@ -73843,13 +74323,13 @@
         <v>104</v>
       </c>
       <c r="O228" s="1" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="P228" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q228" s="1" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="R228" s="1" t="s">
         <v>110</v>
@@ -73861,7 +74341,7 @@
         <v>262</v>
       </c>
       <c r="U228" s="1" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="V228" s="1" t="s">
         <v>104</v>
@@ -73918,16 +74398,16 @@
         <v>108</v>
       </c>
       <c r="AN228" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="AO228" s="1" t="s">
         <v>2867</v>
       </c>
-      <c r="AO228" s="1" t="s">
+      <c r="AP228" s="1" t="s">
         <v>2868</v>
       </c>
-      <c r="AP228" s="1" t="s">
+      <c r="AQ228" s="1" t="s">
         <v>2869</v>
-      </c>
-      <c r="AQ228" s="1" t="s">
-        <v>2870</v>
       </c>
       <c r="AR228" s="1" t="s">
         <v>104</v>
@@ -73948,7 +74428,7 @@
         <v>217</v>
       </c>
       <c r="AX228" s="1" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="AY228" s="1" t="s">
         <v>104</v>
@@ -73969,7 +74449,7 @@
         <v>129</v>
       </c>
       <c r="BE228" s="1" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="BF228" s="1" t="s">
         <v>97</v>
@@ -74041,7 +74521,7 @@
         <v>104</v>
       </c>
       <c r="CC228" s="1" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="CD228" s="1" t="s">
         <v>99</v>
@@ -74065,7 +74545,7 @@
         <v>114</v>
       </c>
       <c r="CK228" s="1" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="CL228" s="1" t="s">
         <v>104</v>
@@ -74074,7 +74554,7 @@
         <v>104</v>
       </c>
       <c r="CN228" s="1" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="CO228" s="1" t="s">
         <v>104</v>
@@ -74085,13 +74565,13 @@
     </row>
     <row r="229" spans="1:94" s="1" customFormat="1">
       <c r="A229" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>2875</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="C229" s="1" t="s">
         <v>2876</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>2877</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>97</v>
@@ -74127,13 +74607,13 @@
         <v>104</v>
       </c>
       <c r="O229" s="1" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="P229" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q229" s="1" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="R229" s="1" t="s">
         <v>110</v>
@@ -74145,7 +74625,7 @@
         <v>360</v>
       </c>
       <c r="U229" s="1" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="V229" s="1" t="s">
         <v>104</v>
@@ -74202,19 +74682,19 @@
         <v>108</v>
       </c>
       <c r="AN229" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="AO229" s="1" t="s">
         <v>2881</v>
       </c>
-      <c r="AO229" s="1" t="s">
+      <c r="AP229" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="AQ229" s="1" t="s">
         <v>2882</v>
       </c>
-      <c r="AP229" s="1" t="s">
-        <v>2802</v>
-      </c>
-      <c r="AQ229" s="1" t="s">
-        <v>2883</v>
-      </c>
       <c r="AR229" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="AS229" s="1" t="s">
         <v>577</v>
@@ -74253,7 +74733,7 @@
         <v>104</v>
       </c>
       <c r="BE229" s="1" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="BF229" s="1" t="s">
         <v>796</v>
@@ -74325,7 +74805,7 @@
         <v>104</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>98</v>
@@ -74369,13 +74849,13 @@
     </row>
     <row r="230" spans="1:94" s="1" customFormat="1">
       <c r="A230" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>2886</v>
       </c>
-      <c r="B230" s="1" t="s">
-        <v>2887</v>
-      </c>
       <c r="C230" s="1" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>796</v>
@@ -74411,13 +74891,13 @@
         <v>104</v>
       </c>
       <c r="O230" s="1" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="P230" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q230" s="1" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="R230" s="1" t="s">
         <v>110</v>
@@ -74429,7 +74909,7 @@
         <v>112</v>
       </c>
       <c r="U230" s="1" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="V230" s="1" t="s">
         <v>104</v>
@@ -74486,19 +74966,19 @@
         <v>108</v>
       </c>
       <c r="AN230" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="AO230" s="1" t="s">
         <v>2891</v>
       </c>
-      <c r="AO230" s="1" t="s">
+      <c r="AP230" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="AQ230" s="1" t="s">
         <v>2892</v>
       </c>
-      <c r="AP230" s="1" t="s">
-        <v>2802</v>
-      </c>
-      <c r="AQ230" s="1" t="s">
-        <v>2893</v>
-      </c>
       <c r="AR230" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="AS230" s="1" t="s">
         <v>282</v>
@@ -74537,10 +75017,10 @@
         <v>104</v>
       </c>
       <c r="BE230" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="BF230" s="1" t="s">
         <v>2894</v>
-      </c>
-      <c r="BF230" s="1" t="s">
-        <v>2895</v>
       </c>
       <c r="BG230" s="1" t="s">
         <v>110</v>
@@ -74609,7 +75089,7 @@
         <v>104</v>
       </c>
       <c r="CC230" s="1" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="CD230" s="1" t="s">
         <v>99</v>
@@ -74653,13 +75133,13 @@
     </row>
     <row r="231" spans="1:94" s="1" customFormat="1">
       <c r="A231" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>2897</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>2898</v>
-      </c>
       <c r="C231" s="1" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>796</v>
@@ -74695,13 +75175,13 @@
         <v>104</v>
       </c>
       <c r="O231" s="1" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="P231" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q231" s="1" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="R231" s="1" t="s">
         <v>110</v>
@@ -74713,7 +75193,7 @@
         <v>360</v>
       </c>
       <c r="U231" s="1" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="V231" s="1" t="s">
         <v>104</v>
@@ -74770,16 +75250,16 @@
         <v>108</v>
       </c>
       <c r="AN231" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="AO231" s="1" t="s">
         <v>2902</v>
       </c>
-      <c r="AO231" s="1" t="s">
+      <c r="AP231" s="1" t="s">
         <v>2903</v>
       </c>
-      <c r="AP231" s="1" t="s">
+      <c r="AQ231" s="1" t="s">
         <v>2904</v>
-      </c>
-      <c r="AQ231" s="1" t="s">
-        <v>2905</v>
       </c>
       <c r="AR231" s="1" t="s">
         <v>104</v>
@@ -74800,7 +75280,7 @@
         <v>217</v>
       </c>
       <c r="AX231" s="1" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="AY231" s="1" t="s">
         <v>104</v>
@@ -74821,10 +75301,10 @@
         <v>129</v>
       </c>
       <c r="BE231" s="1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="BF231" s="1" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="BG231" s="1" t="s">
         <v>110</v>
@@ -74893,7 +75373,7 @@
         <v>104</v>
       </c>
       <c r="CC231" s="1" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="CD231" s="1" t="s">
         <v>99</v>
@@ -74917,7 +75397,7 @@
         <v>114</v>
       </c>
       <c r="CK231" s="1" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="CL231" s="1" t="s">
         <v>104</v>
@@ -74926,7 +75406,7 @@
         <v>104</v>
       </c>
       <c r="CN231" s="1" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="CO231" s="1" t="s">
         <v>104</v>
@@ -74937,13 +75417,13 @@
     </row>
     <row r="232" spans="1:94" s="1" customFormat="1">
       <c r="A232" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>2910</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>2911</v>
-      </c>
       <c r="C232" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>97</v>
@@ -74979,13 +75459,13 @@
         <v>104</v>
       </c>
       <c r="O232" s="1" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="P232" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q232" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="R232" s="1" t="s">
         <v>110</v>
@@ -74997,7 +75477,7 @@
         <v>427</v>
       </c>
       <c r="U232" s="1" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="V232" s="1" t="s">
         <v>104</v>
@@ -75054,16 +75534,16 @@
         <v>108</v>
       </c>
       <c r="AN232" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="AO232" s="1" t="s">
         <v>2914</v>
       </c>
-      <c r="AO232" s="1" t="s">
+      <c r="AP232" s="1" t="s">
         <v>2915</v>
       </c>
-      <c r="AP232" s="1" t="s">
+      <c r="AQ232" s="1" t="s">
         <v>2916</v>
-      </c>
-      <c r="AQ232" s="1" t="s">
-        <v>2917</v>
       </c>
       <c r="AR232" s="1" t="s">
         <v>104</v>
@@ -75084,7 +75564,7 @@
         <v>173</v>
       </c>
       <c r="AX232" s="1" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="AY232" s="1" t="s">
         <v>104</v>
@@ -75105,7 +75585,7 @@
         <v>129</v>
       </c>
       <c r="BE232" s="1" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="BF232" s="1" t="s">
         <v>97</v>
@@ -75117,7 +75597,7 @@
         <v>104</v>
       </c>
       <c r="BI232" s="1" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="BJ232" s="1" t="s">
         <v>110</v>
@@ -75177,7 +75657,7 @@
         <v>104</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>99</v>
@@ -75221,13 +75701,13 @@
     </row>
     <row r="233" spans="1:94" s="1" customFormat="1">
       <c r="A233" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>2922</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>2923</v>
-      </c>
       <c r="C233" s="1" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>97</v>
@@ -75263,13 +75743,13 @@
         <v>104</v>
       </c>
       <c r="O233" s="1" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="P233" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q233" s="1" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="R233" s="1" t="s">
         <v>110</v>
@@ -75281,7 +75761,7 @@
         <v>427</v>
       </c>
       <c r="U233" s="1" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="V233" s="1" t="s">
         <v>104</v>
@@ -75338,16 +75818,16 @@
         <v>108</v>
       </c>
       <c r="AN233" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="AO233" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="AP233" s="1" t="s">
         <v>2927</v>
       </c>
-      <c r="AO233" s="1" t="s">
-        <v>2915</v>
-      </c>
-      <c r="AP233" s="1" t="s">
+      <c r="AQ233" s="1" t="s">
         <v>2928</v>
-      </c>
-      <c r="AQ233" s="1" t="s">
-        <v>2929</v>
       </c>
       <c r="AR233" s="1" t="s">
         <v>104</v>
@@ -75368,7 +75848,7 @@
         <v>173</v>
       </c>
       <c r="AX233" s="1" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="AY233" s="1" t="s">
         <v>104</v>
@@ -75389,7 +75869,7 @@
         <v>221</v>
       </c>
       <c r="BE233" s="1" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="BF233" s="1" t="s">
         <v>104</v>
@@ -75401,7 +75881,7 @@
         <v>104</v>
       </c>
       <c r="BI233" s="1" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="BJ233" s="1" t="s">
         <v>110</v>
@@ -75461,7 +75941,7 @@
         <v>104</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="CD233" s="1" t="s">
         <v>99</v>
@@ -75505,13 +75985,13 @@
     </row>
     <row r="234" spans="1:94" s="1" customFormat="1">
       <c r="A234" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>2933</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>2934</v>
-      </c>
       <c r="C234" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>97</v>
@@ -75547,13 +76027,13 @@
         <v>104</v>
       </c>
       <c r="O234" s="1" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="P234" s="1" t="s">
         <v>102</v>
       </c>
       <c r="Q234" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="R234" s="1" t="s">
         <v>110</v>
@@ -75565,7 +76045,7 @@
         <v>203</v>
       </c>
       <c r="U234" s="1" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="V234" s="1" t="s">
         <v>104</v>
@@ -75622,16 +76102,16 @@
         <v>108</v>
       </c>
       <c r="AN234" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="AO234" s="1" t="s">
         <v>2936</v>
       </c>
-      <c r="AO234" s="1" t="s">
+      <c r="AP234" s="1" t="s">
         <v>2937</v>
       </c>
-      <c r="AP234" s="1" t="s">
+      <c r="AQ234" s="1" t="s">
         <v>2938</v>
-      </c>
-      <c r="AQ234" s="1" t="s">
-        <v>2939</v>
       </c>
       <c r="AR234" s="1" t="s">
         <v>104</v>
@@ -75652,7 +76132,7 @@
         <v>173</v>
       </c>
       <c r="AX234" s="1" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="AY234" s="1" t="s">
         <v>104</v>
@@ -75673,19 +76153,19 @@
         <v>129</v>
       </c>
       <c r="BE234" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="BF234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH234" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI234" s="1" t="s">
         <v>2941</v>
-      </c>
-      <c r="BF234" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG234" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH234" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI234" s="1" t="s">
-        <v>2942</v>
       </c>
       <c r="BJ234" s="1" t="s">
         <v>110</v>
@@ -75745,7 +76225,7 @@
         <v>104</v>
       </c>
       <c r="CC234" s="1" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="CD234" s="1" t="s">
         <v>99</v>
@@ -75789,13 +76269,13 @@
     </row>
     <row r="235" spans="1:94" s="1" customFormat="1">
       <c r="A235" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>2944</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="C235" s="1" t="s">
         <v>2945</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>2946</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>97</v>
@@ -75831,13 +76311,13 @@
         <v>104</v>
       </c>
       <c r="O235" s="1" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="P235" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q235" s="1" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="R235" s="1" t="s">
         <v>110</v>
@@ -75849,7 +76329,7 @@
         <v>236</v>
       </c>
       <c r="U235" s="1" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="V235" s="1" t="s">
         <v>104</v>
@@ -75906,19 +76386,19 @@
         <v>108</v>
       </c>
       <c r="AN235" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="AO235" s="1" t="s">
         <v>2950</v>
       </c>
-      <c r="AO235" s="1" t="s">
+      <c r="AP235" s="1" t="s">
         <v>2951</v>
       </c>
-      <c r="AP235" s="1" t="s">
+      <c r="AQ235" s="1" t="s">
         <v>2952</v>
       </c>
-      <c r="AQ235" s="1" t="s">
-        <v>2953</v>
-      </c>
       <c r="AR235" s="1" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="AS235" s="1" t="s">
         <v>246</v>
@@ -75957,19 +76437,19 @@
         <v>104</v>
       </c>
       <c r="BE235" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="BF235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH235" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI235" s="1" t="s">
         <v>2954</v>
-      </c>
-      <c r="BF235" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG235" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH235" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI235" s="1" t="s">
-        <v>2955</v>
       </c>
       <c r="BJ235" s="1" t="s">
         <v>110</v>
@@ -76029,7 +76509,7 @@
         <v>104</v>
       </c>
       <c r="CC235" s="1" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="CD235" s="1" t="s">
         <v>99</v>
@@ -76073,13 +76553,13 @@
     </row>
     <row r="236" spans="1:94" s="1" customFormat="1">
       <c r="A236" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>2957</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>2958</v>
-      </c>
       <c r="C236" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>97</v>
@@ -76115,13 +76595,13 @@
         <v>104</v>
       </c>
       <c r="O236" s="1" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="P236" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q236" s="1" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="R236" s="1" t="s">
         <v>110</v>
@@ -76133,7 +76613,7 @@
         <v>203</v>
       </c>
       <c r="U236" s="1" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="V236" s="1" t="s">
         <v>104</v>
@@ -76190,16 +76670,16 @@
         <v>108</v>
       </c>
       <c r="AN236" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="AO236" s="1" t="s">
         <v>2961</v>
       </c>
-      <c r="AO236" s="1" t="s">
+      <c r="AP236" s="1" t="s">
         <v>2962</v>
       </c>
-      <c r="AP236" s="1" t="s">
+      <c r="AQ236" s="1" t="s">
         <v>2963</v>
-      </c>
-      <c r="AQ236" s="1" t="s">
-        <v>2964</v>
       </c>
       <c r="AR236" s="1" t="s">
         <v>104</v>
@@ -76220,7 +76700,7 @@
         <v>125</v>
       </c>
       <c r="AX236" s="1" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="AY236" s="1" t="s">
         <v>104</v>
@@ -76241,19 +76721,19 @@
         <v>129</v>
       </c>
       <c r="BE236" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="BF236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI236" s="1" t="s">
         <v>2966</v>
-      </c>
-      <c r="BF236" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG236" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH236" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI236" s="1" t="s">
-        <v>2967</v>
       </c>
       <c r="BJ236" s="1" t="s">
         <v>110</v>
@@ -76313,7 +76793,7 @@
         <v>104</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>99</v>
@@ -76357,13 +76837,13 @@
     </row>
     <row r="237" spans="1:94" s="1" customFormat="1">
       <c r="A237" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>2969</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>2970</v>
-      </c>
       <c r="C237" s="1" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>97</v>
@@ -76399,13 +76879,13 @@
         <v>104</v>
       </c>
       <c r="O237" s="1" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="P237" s="1" t="s">
         <v>108</v>
       </c>
       <c r="Q237" s="1" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="R237" s="1" t="s">
         <v>110</v>
@@ -76417,7 +76897,7 @@
         <v>203</v>
       </c>
       <c r="U237" s="1" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="V237" s="1" t="s">
         <v>104</v>
@@ -76474,19 +76954,19 @@
         <v>108</v>
       </c>
       <c r="AN237" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="AO237" s="1" t="s">
         <v>2974</v>
       </c>
-      <c r="AO237" s="1" t="s">
+      <c r="AP237" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="AQ237" s="1" t="s">
         <v>2975</v>
       </c>
-      <c r="AP237" s="1" t="s">
-        <v>2802</v>
-      </c>
-      <c r="AQ237" s="1" t="s">
-        <v>2976</v>
-      </c>
       <c r="AR237" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="AS237" s="1" t="s">
         <v>150</v>
@@ -76525,19 +77005,19 @@
         <v>104</v>
       </c>
       <c r="BE237" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="BF237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI237" s="1" t="s">
         <v>2977</v>
-      </c>
-      <c r="BF237" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG237" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH237" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI237" s="1" t="s">
-        <v>2978</v>
       </c>
       <c r="BJ237" s="1" t="s">
         <v>110</v>
@@ -76597,51 +77077,4027 @@
         <v>104</v>
       </c>
       <c r="CC237" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="CD237" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI237" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP237" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="238" spans="1:94">
+      <c r="A238" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B238" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C238" t="s">
+        <v>2982</v>
+      </c>
+      <c r="D238" t="s">
+        <v>97</v>
+      </c>
+      <c r="E238" t="s">
+        <v>99</v>
+      </c>
+      <c r="F238" t="s">
+        <v>98</v>
+      </c>
+      <c r="G238" t="s">
+        <v>100</v>
+      </c>
+      <c r="H238" t="s">
+        <v>232</v>
+      </c>
+      <c r="I238" t="s">
+        <v>108</v>
+      </c>
+      <c r="J238" t="s">
+        <v>103</v>
+      </c>
+      <c r="K238" t="s">
+        <v>104</v>
+      </c>
+      <c r="L238" t="s">
+        <v>105</v>
+      </c>
+      <c r="M238" t="s">
+        <v>106</v>
+      </c>
+      <c r="N238" t="s">
+        <v>104</v>
+      </c>
+      <c r="O238" t="s">
+        <v>2983</v>
+      </c>
+      <c r="P238" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>2984</v>
+      </c>
+      <c r="R238" t="s">
+        <v>110</v>
+      </c>
+      <c r="S238" t="s">
+        <v>111</v>
+      </c>
+      <c r="T238" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U238" t="s">
+        <v>2985</v>
+      </c>
+      <c r="V238" t="s">
+        <v>104</v>
+      </c>
+      <c r="W238" t="s">
+        <v>114</v>
+      </c>
+      <c r="X238" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y238" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z238" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA238" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB238" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC238" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD238" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE238" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF238" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG238" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH238" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI238" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ238" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK238" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL238" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM238" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN238" t="s">
+        <v>2986</v>
+      </c>
+      <c r="AO238" t="s">
+        <v>2987</v>
+      </c>
+      <c r="AP238" t="s">
+        <v>2988</v>
+      </c>
+      <c r="AQ238" t="s">
+        <v>2989</v>
+      </c>
+      <c r="AR238" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS238" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT238" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU238" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV238" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW238" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX238" t="s">
+        <v>2990</v>
+      </c>
+      <c r="AY238" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ238" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA238" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB238" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC238" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD238" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE238" t="s">
+        <v>2991</v>
+      </c>
+      <c r="BF238" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG238" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH238" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI238" t="s">
+        <v>2992</v>
+      </c>
+      <c r="BJ238" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK238" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL238" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM238" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN238" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO238" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP238" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ238" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR238" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS238" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT238" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU238" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV238" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW238" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX238" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY238" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ238" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA238" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB238" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC238" t="s">
+        <v>2993</v>
+      </c>
+      <c r="CD238" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE238" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF238" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG238" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH238" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI238" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ238" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK238" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL238" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM238" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN238" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO238" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP238" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="239" spans="1:94">
+      <c r="A239" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B239" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C239" t="s">
+        <v>2982</v>
+      </c>
+      <c r="D239" t="s">
+        <v>97</v>
+      </c>
+      <c r="E239" t="s">
+        <v>99</v>
+      </c>
+      <c r="F239" t="s">
+        <v>98</v>
+      </c>
+      <c r="G239" t="s">
+        <v>324</v>
+      </c>
+      <c r="H239" t="s">
+        <v>2996</v>
+      </c>
+      <c r="I239" t="s">
+        <v>114</v>
+      </c>
+      <c r="J239" t="s">
+        <v>259</v>
+      </c>
+      <c r="K239" t="s">
+        <v>104</v>
+      </c>
+      <c r="L239" t="s">
+        <v>105</v>
+      </c>
+      <c r="M239" t="s">
+        <v>106</v>
+      </c>
+      <c r="N239" t="s">
+        <v>104</v>
+      </c>
+      <c r="O239" t="s">
+        <v>2984</v>
+      </c>
+      <c r="P239" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>2997</v>
+      </c>
+      <c r="R239" t="s">
+        <v>110</v>
+      </c>
+      <c r="S239" t="s">
+        <v>179</v>
+      </c>
+      <c r="T239" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U239" t="s">
+        <v>2998</v>
+      </c>
+      <c r="V239" t="s">
+        <v>104</v>
+      </c>
+      <c r="W239" t="s">
+        <v>114</v>
+      </c>
+      <c r="X239" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y239" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z239" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA239" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB239" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC239" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD239" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE239" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF239" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG239" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH239" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI239" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ239" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK239" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL239" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM239" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN239" t="s">
+        <v>2999</v>
+      </c>
+      <c r="AO239" t="s">
+        <v>3000</v>
+      </c>
+      <c r="AP239" t="s">
+        <v>3001</v>
+      </c>
+      <c r="AQ239" t="s">
+        <v>3002</v>
+      </c>
+      <c r="AR239" t="s">
+        <v>3001</v>
+      </c>
+      <c r="AS239" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT239" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU239" t="s">
+        <v>3003</v>
+      </c>
+      <c r="AV239" t="s">
+        <v>3004</v>
+      </c>
+      <c r="AW239" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX239" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY239" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ239" t="s">
+        <v>3005</v>
+      </c>
+      <c r="BA239" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB239" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC239" t="s">
+        <v>463</v>
+      </c>
+      <c r="BD239" t="s">
+        <v>3006</v>
+      </c>
+      <c r="BE239" t="s">
+        <v>3007</v>
+      </c>
+      <c r="BF239" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG239" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH239" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI239" t="s">
+        <v>3008</v>
+      </c>
+      <c r="BJ239" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK239" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL239" t="s">
+        <v>104</v>
+      </c>
+      <c r="BM239" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN239" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO239" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP239" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ239" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR239" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS239" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT239" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU239" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV239" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW239" t="s">
+        <v>1231</v>
+      </c>
+      <c r="BX239" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY239" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ239" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA239" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB239" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC239" t="s">
+        <v>3009</v>
+      </c>
+      <c r="CD239" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE239" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF239" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG239" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH239" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI239" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ239" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK239" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL239" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM239" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN239" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO239" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP239" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="240" spans="1:94">
+      <c r="A240" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B240" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C240" t="s">
+        <v>2982</v>
+      </c>
+      <c r="D240" t="s">
+        <v>469</v>
+      </c>
+      <c r="E240" t="s">
+        <v>99</v>
+      </c>
+      <c r="F240" t="s">
+        <v>98</v>
+      </c>
+      <c r="G240" t="s">
+        <v>139</v>
+      </c>
+      <c r="H240" t="s">
+        <v>950</v>
+      </c>
+      <c r="I240" t="s">
+        <v>114</v>
+      </c>
+      <c r="J240" t="s">
+        <v>259</v>
+      </c>
+      <c r="K240" t="s">
+        <v>104</v>
+      </c>
+      <c r="L240" t="s">
+        <v>105</v>
+      </c>
+      <c r="M240" t="s">
+        <v>106</v>
+      </c>
+      <c r="N240" t="s">
+        <v>104</v>
+      </c>
+      <c r="O240" t="s">
+        <v>3012</v>
+      </c>
+      <c r="P240" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>3013</v>
+      </c>
+      <c r="R240" t="s">
+        <v>110</v>
+      </c>
+      <c r="S240" t="s">
+        <v>111</v>
+      </c>
+      <c r="T240" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U240" t="s">
+        <v>3014</v>
+      </c>
+      <c r="V240" t="s">
+        <v>104</v>
+      </c>
+      <c r="W240" t="s">
+        <v>114</v>
+      </c>
+      <c r="X240" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y240" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z240" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA240" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB240" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC240" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD240" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE240" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF240" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG240" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH240" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI240" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ240" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK240" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL240" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM240" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN240" t="s">
+        <v>3015</v>
+      </c>
+      <c r="AO240" t="s">
+        <v>3016</v>
+      </c>
+      <c r="AP240" t="s">
+        <v>3017</v>
+      </c>
+      <c r="AQ240" t="s">
+        <v>3018</v>
+      </c>
+      <c r="AR240" t="s">
+        <v>3017</v>
+      </c>
+      <c r="AS240" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT240" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU240" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV240" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW240" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX240" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY240" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ240" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA240" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB240" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC240" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD240" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE240" t="s">
+        <v>3019</v>
+      </c>
+      <c r="BF240" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG240" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH240" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI240" t="s">
+        <v>3020</v>
+      </c>
+      <c r="BJ240" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK240" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL240" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM240" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN240" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO240" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP240" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ240" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR240" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS240" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT240" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU240" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV240" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW240" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX240" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY240" t="s">
+        <v>892</v>
+      </c>
+      <c r="BZ240" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA240" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB240" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC240" t="s">
+        <v>3021</v>
+      </c>
+      <c r="CD240" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE240" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF240" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG240" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH240" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI240" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ240" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK240" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL240" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM240" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN240" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO240" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP240" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="241" spans="1:94">
+      <c r="A241" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B241" t="s">
+        <v>3023</v>
+      </c>
+      <c r="C241" t="s">
+        <v>3024</v>
+      </c>
+      <c r="D241" t="s">
+        <v>97</v>
+      </c>
+      <c r="E241" t="s">
+        <v>99</v>
+      </c>
+      <c r="F241" t="s">
+        <v>98</v>
+      </c>
+      <c r="G241" t="s">
+        <v>712</v>
+      </c>
+      <c r="H241" t="s">
+        <v>683</v>
+      </c>
+      <c r="I241" t="s">
+        <v>114</v>
+      </c>
+      <c r="J241" t="s">
+        <v>259</v>
+      </c>
+      <c r="K241" t="s">
+        <v>104</v>
+      </c>
+      <c r="L241" t="s">
+        <v>105</v>
+      </c>
+      <c r="M241" t="s">
+        <v>106</v>
+      </c>
+      <c r="N241" t="s">
+        <v>104</v>
+      </c>
+      <c r="O241" t="s">
+        <v>3025</v>
+      </c>
+      <c r="P241" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q241" t="s">
+        <v>3026</v>
+      </c>
+      <c r="R241" t="s">
+        <v>110</v>
+      </c>
+      <c r="S241" t="s">
+        <v>179</v>
+      </c>
+      <c r="T241" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U241" t="s">
+        <v>3027</v>
+      </c>
+      <c r="V241" t="s">
+        <v>104</v>
+      </c>
+      <c r="W241" t="s">
+        <v>114</v>
+      </c>
+      <c r="X241" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y241" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z241" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA241" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB241" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC241" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD241" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE241" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF241" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG241" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH241" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI241" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ241" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK241" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL241" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM241" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN241" t="s">
+        <v>3028</v>
+      </c>
+      <c r="AO241" t="s">
+        <v>3029</v>
+      </c>
+      <c r="AP241" t="s">
+        <v>3030</v>
+      </c>
+      <c r="AQ241" t="s">
+        <v>3031</v>
+      </c>
+      <c r="AR241" t="s">
+        <v>3030</v>
+      </c>
+      <c r="AS241" t="s">
+        <v>720</v>
+      </c>
+      <c r="AT241" t="s">
+        <v>712</v>
+      </c>
+      <c r="AU241" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV241" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW241" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX241" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY241" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ241" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA241" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB241" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC241" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD241" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE241" t="s">
+        <v>3032</v>
+      </c>
+      <c r="BF241" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG241" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH241" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI241" t="s">
+        <v>3033</v>
+      </c>
+      <c r="BJ241" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK241" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL241" t="s">
+        <v>891</v>
+      </c>
+      <c r="BM241" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN241" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO241" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP241" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ241" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR241" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS241" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT241" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU241" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV241" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW241" t="s">
+        <v>386</v>
+      </c>
+      <c r="BX241" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY241" t="s">
+        <v>892</v>
+      </c>
+      <c r="BZ241" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA241" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB241" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC241" t="s">
+        <v>3034</v>
+      </c>
+      <c r="CD241" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE241" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF241" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG241" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH241" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI241" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ241" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK241" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL241" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM241" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN241" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO241" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP241" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="242" spans="1:94">
+      <c r="A242" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B242" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C242" t="s">
+        <v>3037</v>
+      </c>
+      <c r="D242" t="s">
+        <v>157</v>
+      </c>
+      <c r="E242" t="s">
+        <v>99</v>
+      </c>
+      <c r="F242" t="s">
+        <v>98</v>
+      </c>
+      <c r="G242" t="s">
+        <v>139</v>
+      </c>
+      <c r="H242" t="s">
+        <v>101</v>
+      </c>
+      <c r="I242" t="s">
+        <v>108</v>
+      </c>
+      <c r="J242" t="s">
+        <v>103</v>
+      </c>
+      <c r="K242" t="s">
+        <v>104</v>
+      </c>
+      <c r="L242" t="s">
+        <v>105</v>
+      </c>
+      <c r="M242" t="s">
+        <v>106</v>
+      </c>
+      <c r="N242" t="s">
+        <v>104</v>
+      </c>
+      <c r="O242" t="s">
+        <v>3038</v>
+      </c>
+      <c r="P242" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>3039</v>
+      </c>
+      <c r="R242" t="s">
+        <v>110</v>
+      </c>
+      <c r="S242" t="s">
+        <v>111</v>
+      </c>
+      <c r="T242" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U242" t="s">
+        <v>3040</v>
+      </c>
+      <c r="V242" t="s">
+        <v>104</v>
+      </c>
+      <c r="W242" t="s">
+        <v>114</v>
+      </c>
+      <c r="X242" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y242" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z242" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA242" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB242" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC242" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD242" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE242" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF242" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG242" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH242" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI242" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ242" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK242" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL242" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM242" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN242" t="s">
+        <v>3041</v>
+      </c>
+      <c r="AO242" t="s">
+        <v>3042</v>
+      </c>
+      <c r="AP242" t="s">
+        <v>3043</v>
+      </c>
+      <c r="AQ242" t="s">
+        <v>3044</v>
+      </c>
+      <c r="AR242" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS242" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT242" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU242" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV242" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW242" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX242" t="s">
+        <v>3045</v>
+      </c>
+      <c r="AY242" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ242" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA242" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB242" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC242" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD242" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE242" t="s">
+        <v>3046</v>
+      </c>
+      <c r="BF242" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG242" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH242" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI242" t="s">
+        <v>3047</v>
+      </c>
+      <c r="BJ242" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK242" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL242" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM242" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN242" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO242" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP242" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ242" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR242" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS242" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT242" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU242" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV242" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW242" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX242" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY242" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ242" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA242" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB242" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC242" t="s">
+        <v>3048</v>
+      </c>
+      <c r="CD242" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE242" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF242" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG242" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH242" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI242" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ242" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK242" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL242" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM242" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN242" t="s">
+        <v>3048</v>
+      </c>
+      <c r="CO242" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP242" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="243" spans="1:94">
+      <c r="A243" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B243" t="s">
+        <v>3050</v>
+      </c>
+      <c r="C243" t="s">
+        <v>2982</v>
+      </c>
+      <c r="D243" t="s">
+        <v>796</v>
+      </c>
+      <c r="E243" t="s">
+        <v>98</v>
+      </c>
+      <c r="F243" t="s">
+        <v>99</v>
+      </c>
+      <c r="G243" t="s">
+        <v>274</v>
+      </c>
+      <c r="H243" t="s">
+        <v>206</v>
+      </c>
+      <c r="I243" t="s">
+        <v>108</v>
+      </c>
+      <c r="J243" t="s">
+        <v>103</v>
+      </c>
+      <c r="K243" t="s">
+        <v>104</v>
+      </c>
+      <c r="L243" t="s">
+        <v>105</v>
+      </c>
+      <c r="M243" t="s">
+        <v>106</v>
+      </c>
+      <c r="N243" t="s">
+        <v>104</v>
+      </c>
+      <c r="O243" t="s">
+        <v>3051</v>
+      </c>
+      <c r="P243" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q243" t="s">
+        <v>3052</v>
+      </c>
+      <c r="R243" t="s">
+        <v>110</v>
+      </c>
+      <c r="S243" t="s">
+        <v>2300</v>
+      </c>
+      <c r="T243" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U243" t="s">
+        <v>3053</v>
+      </c>
+      <c r="V243" t="s">
+        <v>104</v>
+      </c>
+      <c r="W243" t="s">
+        <v>114</v>
+      </c>
+      <c r="X243" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y243" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z243" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA243" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB243" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC243" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD243" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE243" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF243" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG243" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH243" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI243" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ243" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK243" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL243" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM243" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN243" t="s">
+        <v>3054</v>
+      </c>
+      <c r="AO243">
+        <v>93114730142</v>
+      </c>
+      <c r="AP243" t="s">
+        <v>3055</v>
+      </c>
+      <c r="AQ243" t="s">
+        <v>3056</v>
+      </c>
+      <c r="AR243" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS243" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT243" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU243" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV243" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW243" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX243" t="s">
+        <v>3057</v>
+      </c>
+      <c r="AY243" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ243" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA243" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB243" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC243" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD243" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE243" t="s">
+        <v>3058</v>
+      </c>
+      <c r="BF243" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG243" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH243" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI243" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ243" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK243" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL243" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM243" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN243" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO243" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP243" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ243" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR243" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS243" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT243" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU243" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV243" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW243" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX243" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY243" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ243" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA243" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB243" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC243" t="s">
+        <v>3059</v>
+      </c>
+      <c r="CD243" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE243" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF243" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG243" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH243" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI243" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ243" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK243" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL243" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM243" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN243" t="s">
+        <v>3059</v>
+      </c>
+      <c r="CO243" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP243" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="244" spans="1:94">
+      <c r="A244" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B244" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C244" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D244" t="s">
+        <v>230</v>
+      </c>
+      <c r="E244" t="s">
+        <v>98</v>
+      </c>
+      <c r="F244" t="s">
+        <v>99</v>
+      </c>
+      <c r="G244" t="s">
+        <v>258</v>
+      </c>
+      <c r="H244" t="s">
+        <v>206</v>
+      </c>
+      <c r="I244" t="s">
+        <v>114</v>
+      </c>
+      <c r="J244" t="s">
+        <v>259</v>
+      </c>
+      <c r="K244" t="s">
+        <v>104</v>
+      </c>
+      <c r="L244" t="s">
+        <v>105</v>
+      </c>
+      <c r="M244" t="s">
+        <v>106</v>
+      </c>
+      <c r="N244" t="s">
+        <v>104</v>
+      </c>
+      <c r="O244" t="s">
+        <v>3063</v>
+      </c>
+      <c r="P244" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>3064</v>
+      </c>
+      <c r="R244" t="s">
+        <v>110</v>
+      </c>
+      <c r="S244" t="s">
+        <v>179</v>
+      </c>
+      <c r="T244" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U244" t="s">
+        <v>3065</v>
+      </c>
+      <c r="V244" t="s">
+        <v>104</v>
+      </c>
+      <c r="W244" t="s">
+        <v>114</v>
+      </c>
+      <c r="X244" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y244" t="s">
+        <v>3066</v>
+      </c>
+      <c r="Z244" t="s">
+        <v>554</v>
+      </c>
+      <c r="AA244" t="s">
+        <v>3066</v>
+      </c>
+      <c r="AB244" t="s">
+        <v>555</v>
+      </c>
+      <c r="AC244" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD244" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE244" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF244" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG244" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH244" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI244" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ244" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK244" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL244" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM244" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN244" t="s">
+        <v>3067</v>
+      </c>
+      <c r="AO244" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AP244" t="s">
+        <v>3068</v>
+      </c>
+      <c r="AQ244" t="s">
+        <v>3069</v>
+      </c>
+      <c r="AR244" t="s">
+        <v>3068</v>
+      </c>
+      <c r="AS244" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT244" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU244" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV244" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW244" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX244" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY244" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ244" t="s">
+        <v>479</v>
+      </c>
+      <c r="BA244" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB244" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC244" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD244" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE244" t="s">
+        <v>3070</v>
+      </c>
+      <c r="BF244" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG244" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH244" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI244" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ244" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK244" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL244" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM244" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN244" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO244" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP244" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ244" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR244" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS244" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT244" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU244" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV244" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW244" t="s">
+        <v>3071</v>
+      </c>
+      <c r="BX244" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY244" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ244" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA244" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB244" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC244" t="s">
+        <v>3072</v>
+      </c>
+      <c r="CD244" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE244" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF244" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG244" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH244" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI244" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ244" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK244" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL244" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM244" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN244" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO244" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP244" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="245" spans="1:94">
+      <c r="A245" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B245" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C245" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D245" t="s">
+        <v>157</v>
+      </c>
+      <c r="E245" t="s">
+        <v>98</v>
+      </c>
+      <c r="F245" t="s">
+        <v>99</v>
+      </c>
+      <c r="G245" t="s">
+        <v>231</v>
+      </c>
+      <c r="H245" t="s">
+        <v>101</v>
+      </c>
+      <c r="I245" t="s">
+        <v>108</v>
+      </c>
+      <c r="J245" t="s">
+        <v>103</v>
+      </c>
+      <c r="K245" t="s">
+        <v>104</v>
+      </c>
+      <c r="L245" t="s">
+        <v>105</v>
+      </c>
+      <c r="M245" t="s">
+        <v>106</v>
+      </c>
+      <c r="N245" t="s">
+        <v>104</v>
+      </c>
+      <c r="O245" t="s">
+        <v>3064</v>
+      </c>
+      <c r="P245" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>2809</v>
+      </c>
+      <c r="R245" t="s">
+        <v>110</v>
+      </c>
+      <c r="S245" t="s">
+        <v>2300</v>
+      </c>
+      <c r="T245" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U245" t="s">
+        <v>3075</v>
+      </c>
+      <c r="V245" t="s">
+        <v>104</v>
+      </c>
+      <c r="W245" t="s">
+        <v>114</v>
+      </c>
+      <c r="X245" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y245" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z245" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA245" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB245" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC245" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD245" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE245" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF245" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG245" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH245" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI245" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ245" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK245" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL245" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM245" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN245" t="s">
+        <v>3076</v>
+      </c>
+      <c r="AO245" t="s">
+        <v>3077</v>
+      </c>
+      <c r="AP245" t="s">
+        <v>3078</v>
+      </c>
+      <c r="AQ245" t="s">
+        <v>3079</v>
+      </c>
+      <c r="AR245" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS245" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT245" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU245" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV245" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW245" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX245" t="s">
+        <v>3080</v>
+      </c>
+      <c r="AY245" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ245" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA245" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB245" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC245" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD245" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE245" t="s">
+        <v>3081</v>
+      </c>
+      <c r="BF245" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG245" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH245" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI245" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ245" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK245" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL245" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM245" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN245" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO245" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP245" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ245" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR245" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS245" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT245" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU245" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV245" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW245" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX245" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY245" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ245" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA245" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB245" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC245" t="s">
+        <v>3082</v>
+      </c>
+      <c r="CD245" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE245" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF245" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG245" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH245" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI245" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ245" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK245" t="s">
+        <v>3083</v>
+      </c>
+      <c r="CL245" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM245" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN245" t="s">
+        <v>3082</v>
+      </c>
+      <c r="CO245" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP245" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="246" spans="1:94">
+      <c r="A246" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B246" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C246" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D246" t="s">
+        <v>97</v>
+      </c>
+      <c r="E246" t="s">
+        <v>98</v>
+      </c>
+      <c r="F246" t="s">
+        <v>99</v>
+      </c>
+      <c r="G246" t="s">
+        <v>274</v>
+      </c>
+      <c r="H246" t="s">
+        <v>101</v>
+      </c>
+      <c r="I246" t="s">
+        <v>114</v>
+      </c>
+      <c r="J246" t="s">
+        <v>103</v>
+      </c>
+      <c r="K246" t="s">
+        <v>104</v>
+      </c>
+      <c r="L246" t="s">
+        <v>105</v>
+      </c>
+      <c r="M246" t="s">
+        <v>106</v>
+      </c>
+      <c r="N246" t="s">
+        <v>104</v>
+      </c>
+      <c r="O246" t="s">
+        <v>3063</v>
+      </c>
+      <c r="P246" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>3086</v>
+      </c>
+      <c r="R246" t="s">
+        <v>110</v>
+      </c>
+      <c r="S246" t="s">
+        <v>366</v>
+      </c>
+      <c r="T246" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U246" t="s">
+        <v>3087</v>
+      </c>
+      <c r="V246" t="s">
+        <v>104</v>
+      </c>
+      <c r="W246" t="s">
+        <v>114</v>
+      </c>
+      <c r="X246" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y246" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z246" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA246" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC246" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD246" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE246" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF246" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG246" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH246" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI246" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ246" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK246" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL246" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM246" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN246" t="s">
+        <v>3088</v>
+      </c>
+      <c r="AO246" t="s">
+        <v>3089</v>
+      </c>
+      <c r="AP246" t="s">
+        <v>3090</v>
+      </c>
+      <c r="AQ246" t="s">
+        <v>3091</v>
+      </c>
+      <c r="AR246" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS246" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT246" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU246" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV246" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW246" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX246" t="s">
+        <v>3092</v>
+      </c>
+      <c r="AY246" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ246" t="s">
+        <v>670</v>
+      </c>
+      <c r="BA246" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB246" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC246" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD246" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE246" t="s">
+        <v>3093</v>
+      </c>
+      <c r="BF246" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG246" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH246" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI246" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ246" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK246" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL246" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM246" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN246" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO246" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP246" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ246" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR246" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS246" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT246" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU246" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV246" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW246" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX246" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY246" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ246" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA246" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB246" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC246" t="s">
+        <v>3094</v>
+      </c>
+      <c r="CD246" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE246" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF246" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG246" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH246" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI246" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ246" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK246" t="s">
+        <v>3095</v>
+      </c>
+      <c r="CL246" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM246" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN246" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO246" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP246" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="247" spans="1:94">
+      <c r="A247" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B247" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C247" t="s">
+        <v>3024</v>
+      </c>
+      <c r="D247" t="s">
+        <v>97</v>
+      </c>
+      <c r="E247" t="s">
+        <v>98</v>
+      </c>
+      <c r="F247" t="s">
+        <v>99</v>
+      </c>
+      <c r="G247" t="s">
+        <v>470</v>
+      </c>
+      <c r="H247" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I247" t="s">
+        <v>114</v>
+      </c>
+      <c r="J247" t="s">
+        <v>259</v>
+      </c>
+      <c r="K247" t="s">
+        <v>104</v>
+      </c>
+      <c r="L247" t="s">
+        <v>105</v>
+      </c>
+      <c r="M247" t="s">
+        <v>106</v>
+      </c>
+      <c r="N247" t="s">
+        <v>104</v>
+      </c>
+      <c r="O247" t="s">
+        <v>3098</v>
+      </c>
+      <c r="P247" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>3099</v>
+      </c>
+      <c r="R247" t="s">
+        <v>110</v>
+      </c>
+      <c r="S247" t="s">
+        <v>536</v>
+      </c>
+      <c r="T247" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U247" t="s">
+        <v>3100</v>
+      </c>
+      <c r="V247" t="s">
+        <v>104</v>
+      </c>
+      <c r="W247" t="s">
+        <v>114</v>
+      </c>
+      <c r="X247" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y247" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z247" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA247" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB247" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC247" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD247" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE247" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF247" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG247" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH247" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI247" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ247" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK247" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL247" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM247" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN247" t="s">
+        <v>3101</v>
+      </c>
+      <c r="AO247" t="s">
+        <v>3102</v>
+      </c>
+      <c r="AP247" t="s">
+        <v>3001</v>
+      </c>
+      <c r="AQ247" t="s">
+        <v>3103</v>
+      </c>
+      <c r="AR247" t="s">
+        <v>3001</v>
+      </c>
+      <c r="AS247" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT247" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU247" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV247" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW247" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX247" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY247" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ247" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA247" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB247" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC247" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD247" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE247" t="s">
+        <v>3104</v>
+      </c>
+      <c r="BF247" t="s">
+        <v>796</v>
+      </c>
+      <c r="BG247" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH247" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI247" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ247" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK247" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL247" t="s">
+        <v>450</v>
+      </c>
+      <c r="BM247" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN247" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO247" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP247" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ247" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR247" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS247" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT247" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU247" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV247" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW247" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX247" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY247" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ247" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA247" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB247" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC247" t="s">
+        <v>3105</v>
+      </c>
+      <c r="CD247" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE247" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF247" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG247" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH247" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI247" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ247" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK247" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL247" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM247" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN247" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO247" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP247" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="248" spans="1:94">
+      <c r="A248" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B248" t="s">
+        <v>3107</v>
+      </c>
+      <c r="C248" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D248" t="s">
+        <v>469</v>
+      </c>
+      <c r="E248" t="s">
+        <v>98</v>
+      </c>
+      <c r="F248" t="s">
+        <v>99</v>
+      </c>
+      <c r="G248" t="s">
+        <v>324</v>
+      </c>
+      <c r="H248" t="s">
+        <v>101</v>
+      </c>
+      <c r="I248" t="s">
+        <v>102</v>
+      </c>
+      <c r="J248" t="s">
+        <v>103</v>
+      </c>
+      <c r="K248" t="s">
+        <v>104</v>
+      </c>
+      <c r="L248" t="s">
+        <v>105</v>
+      </c>
+      <c r="M248" t="s">
+        <v>106</v>
+      </c>
+      <c r="N248" t="s">
+        <v>104</v>
+      </c>
+      <c r="O248" t="s">
+        <v>3109</v>
+      </c>
+      <c r="P248" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>3110</v>
+      </c>
+      <c r="R248" t="s">
+        <v>110</v>
+      </c>
+      <c r="S248" t="s">
+        <v>536</v>
+      </c>
+      <c r="T248" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U248" t="s">
+        <v>3111</v>
+      </c>
+      <c r="V248" t="s">
+        <v>104</v>
+      </c>
+      <c r="W248" t="s">
+        <v>114</v>
+      </c>
+      <c r="X248" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y248" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z248" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA248" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB248" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC248" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD248" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE248" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF248" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG248" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH248" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI248" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ248" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK248" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL248" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM248" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN248" t="s">
+        <v>3112</v>
+      </c>
+      <c r="AO248" t="s">
+        <v>3113</v>
+      </c>
+      <c r="AP248" t="s">
+        <v>3114</v>
+      </c>
+      <c r="AQ248" t="s">
+        <v>3115</v>
+      </c>
+      <c r="AR248" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS248" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT248" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU248" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV248" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW248" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX248" t="s">
+        <v>3116</v>
+      </c>
+      <c r="AY248" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ248" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA248" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB248" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC248" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD248" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE248" t="s">
+        <v>3117</v>
+      </c>
+      <c r="BF248" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG248" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH248" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI248" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ248" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK248" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL248" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM248" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN248" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO248" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP248" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ248" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR248" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS248" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT248" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU248" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV248" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW248" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX248" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY248" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ248" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA248" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB248" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC248" t="s">
+        <v>3118</v>
+      </c>
+      <c r="CD248" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE248" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF248" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG248" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH248" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI248" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ248" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK248" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL248" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM248" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN248" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO248" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP248" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="249" spans="1:94">
+      <c r="A249" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B249" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C249" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D249" t="s">
+        <v>97</v>
+      </c>
+      <c r="E249" t="s">
+        <v>98</v>
+      </c>
+      <c r="F249" t="s">
+        <v>99</v>
+      </c>
+      <c r="G249" t="s">
+        <v>274</v>
+      </c>
+      <c r="H249" t="s">
+        <v>206</v>
+      </c>
+      <c r="I249" t="s">
+        <v>320</v>
+      </c>
+      <c r="J249" t="s">
+        <v>103</v>
+      </c>
+      <c r="K249" t="s">
+        <v>104</v>
+      </c>
+      <c r="L249" t="s">
+        <v>105</v>
+      </c>
+      <c r="M249" t="s">
+        <v>106</v>
+      </c>
+      <c r="N249" t="s">
+        <v>104</v>
+      </c>
+      <c r="O249" t="s">
+        <v>3121</v>
+      </c>
+      <c r="P249" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>3122</v>
+      </c>
+      <c r="R249" t="s">
+        <v>110</v>
+      </c>
+      <c r="S249" t="s">
+        <v>179</v>
+      </c>
+      <c r="T249" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U249" t="s">
+        <v>3053</v>
+      </c>
+      <c r="V249" t="s">
+        <v>104</v>
+      </c>
+      <c r="W249" t="s">
+        <v>114</v>
+      </c>
+      <c r="X249" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y249" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z249" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA249" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB249" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC249" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD249" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE249" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF249" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG249" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH249" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI249" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ249" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK249" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL249" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM249" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN249" t="s">
+        <v>3054</v>
+      </c>
+      <c r="AO249">
+        <v>93114730142</v>
+      </c>
+      <c r="AP249" t="s">
+        <v>3123</v>
+      </c>
+      <c r="AQ249" t="s">
+        <v>3124</v>
+      </c>
+      <c r="AR249" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS249" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT249" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU249" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV249" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW249" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX249" t="s">
+        <v>3057</v>
+      </c>
+      <c r="AY249" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ249" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA249" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB249" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC249" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD249" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE249" t="s">
+        <v>3125</v>
+      </c>
+      <c r="BF249" t="s">
+        <v>796</v>
+      </c>
+      <c r="BG249" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH249" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI249" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ249" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK249" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL249" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM249" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN249" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO249" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP249" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ249" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR249" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS249" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT249" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU249" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV249" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW249" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX249" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY249" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ249" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA249" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB249" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC249" t="s">
+        <v>3126</v>
+      </c>
+      <c r="CD249" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE249" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF249" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG249" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH249" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI249" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ249" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK249" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL249" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM249" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN249" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO249" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP249" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="250" spans="1:94">
+      <c r="A250" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B250" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C250" t="s">
+        <v>3037</v>
+      </c>
+      <c r="D250" t="s">
+        <v>157</v>
+      </c>
+      <c r="E250" t="s">
+        <v>98</v>
+      </c>
+      <c r="F250" t="s">
+        <v>99</v>
+      </c>
+      <c r="G250" t="s">
+        <v>231</v>
+      </c>
+      <c r="H250" t="s">
+        <v>101</v>
+      </c>
+      <c r="I250" t="s">
+        <v>160</v>
+      </c>
+      <c r="J250" t="s">
+        <v>103</v>
+      </c>
+      <c r="K250" t="s">
+        <v>104</v>
+      </c>
+      <c r="L250" t="s">
+        <v>105</v>
+      </c>
+      <c r="M250" t="s">
+        <v>106</v>
+      </c>
+      <c r="N250" t="s">
+        <v>104</v>
+      </c>
+      <c r="O250" t="s">
+        <v>3129</v>
+      </c>
+      <c r="P250" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>3130</v>
+      </c>
+      <c r="R250" t="s">
+        <v>110</v>
+      </c>
+      <c r="S250" t="s">
+        <v>179</v>
+      </c>
+      <c r="T250" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U250" t="s">
+        <v>3075</v>
+      </c>
+      <c r="V250" t="s">
+        <v>104</v>
+      </c>
+      <c r="W250" t="s">
+        <v>114</v>
+      </c>
+      <c r="X250" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y250" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z250" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA250" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB250" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC250" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD250" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE250" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF250" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG250" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH250" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI250" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ250" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK250" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL250" t="s">
+        <v>883</v>
+      </c>
+      <c r="AM250" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN250" t="s">
+        <v>3076</v>
+      </c>
+      <c r="AO250" t="s">
+        <v>3077</v>
+      </c>
+      <c r="AP250" t="s">
+        <v>3078</v>
+      </c>
+      <c r="AQ250" t="s">
+        <v>3131</v>
+      </c>
+      <c r="AR250" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS250" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT250" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU250" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV250" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW250" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX250" t="s">
+        <v>3132</v>
+      </c>
+      <c r="AY250" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ250" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA250" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB250" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC250" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD250" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE250" t="s">
+        <v>3133</v>
+      </c>
+      <c r="BF250" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG250" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH250" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI250" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ250" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK250" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL250" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM250" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN250" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO250" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP250" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ250" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR250" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS250" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT250" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU250" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV250" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW250" t="s">
+        <v>160</v>
+      </c>
+      <c r="BX250" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY250" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ250" t="s">
+        <v>108</v>
+      </c>
+      <c r="CA250" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB250" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC250" t="s">
+        <v>3134</v>
+      </c>
+      <c r="CD250" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE250" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF250" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG250" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH250" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI250" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ250" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK250" t="s">
+        <v>3083</v>
+      </c>
+      <c r="CL250" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM250" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN250" t="s">
+        <v>3134</v>
+      </c>
+      <c r="CO250" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP250" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="251" spans="1:94">
+      <c r="A251" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B251" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C251" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D251" t="s">
+        <v>97</v>
+      </c>
+      <c r="E251" t="s">
+        <v>98</v>
+      </c>
+      <c r="F251" t="s">
+        <v>99</v>
+      </c>
+      <c r="G251" t="s">
+        <v>470</v>
+      </c>
+      <c r="H251" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I251" t="s">
+        <v>114</v>
+      </c>
+      <c r="J251" t="s">
+        <v>259</v>
+      </c>
+      <c r="K251" t="s">
+        <v>104</v>
+      </c>
+      <c r="L251" t="s">
+        <v>105</v>
+      </c>
+      <c r="M251" t="s">
+        <v>106</v>
+      </c>
+      <c r="N251" t="s">
+        <v>104</v>
+      </c>
+      <c r="O251" t="s">
+        <v>3121</v>
+      </c>
+      <c r="P251" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>3122</v>
+      </c>
+      <c r="R251" t="s">
+        <v>110</v>
+      </c>
+      <c r="S251" t="s">
+        <v>536</v>
+      </c>
+      <c r="T251" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U251" t="s">
+        <v>3100</v>
+      </c>
+      <c r="V251" t="s">
+        <v>104</v>
+      </c>
+      <c r="W251" t="s">
+        <v>114</v>
+      </c>
+      <c r="X251" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y251" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z251" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA251" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB251" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC251" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD251" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE251" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF251" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG251" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH251" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI251" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ251" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK251" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL251" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM251" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN251" t="s">
+        <v>3101</v>
+      </c>
+      <c r="AO251" t="s">
+        <v>3102</v>
+      </c>
+      <c r="AP251" t="s">
+        <v>3137</v>
+      </c>
+      <c r="AQ251" t="s">
+        <v>3124</v>
+      </c>
+      <c r="AR251" t="s">
+        <v>3137</v>
+      </c>
+      <c r="AS251" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT251" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU251" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV251" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW251" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX251" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY251" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ251" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA251" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB251" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC251" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD251" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE251" t="s">
+        <v>3138</v>
+      </c>
+      <c r="BF251" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG251" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH251" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI251" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ251" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK251" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL251" t="s">
+        <v>450</v>
+      </c>
+      <c r="BM251" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN251" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO251" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP251" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ251" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR251" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS251" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT251" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU251" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV251" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW251" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX251" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY251" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC251" t="s">
+        <v>3139</v>
+      </c>
+      <c r="CD251" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI251" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP251" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="257" spans="19:19">
+      <c r="S257" s="3" t="s">
         <v>2979</v>
-      </c>
-      <c r="CD237" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CE237" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CF237" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CG237" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CH237" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CI237" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="CJ237" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CK237" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CL237" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CM237" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CN237" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CO237" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CP237" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="241" spans="19:19">
-      <c r="S241" s="3" t="s">
-        <v>2708</v>
       </c>
     </row>
   </sheetData>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23555" uniqueCount="3140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24493" uniqueCount="3234">
   <si>
     <t>Codice</t>
   </si>
@@ -8958,9 +8958,6 @@
     <t>Sostituita prima presa eseguita prova in sede utente codice collaudo tk202512190070938175</t>
   </si>
   <si>
-    <t>#data esec al 29/12</t>
-  </si>
-  <si>
     <t>TT1005217206</t>
   </si>
   <si>
@@ -9439,6 +9436,291 @@
   </si>
   <si>
     <t xml:space="preserve">Riparato al box eseguita prova telefonica Codice Collaudo: tk202512240071024396 </t>
+  </si>
+  <si>
+    <t>#data esec al 04/01</t>
+  </si>
+  <si>
+    <t>TT1005255437</t>
+  </si>
+  <si>
+    <t>95775894</t>
+  </si>
+  <si>
+    <t>03/01/2026</t>
+  </si>
+  <si>
+    <t>03/01/2026 12:00</t>
+  </si>
+  <si>
+    <t>03/01/2026 12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENERINA VACCARELLA </t>
+  </si>
+  <si>
+    <t>CRV001042340965</t>
+  </si>
+  <si>
+    <t>0931962543</t>
+  </si>
+  <si>
+    <t>05/01/2026 00:01</t>
+  </si>
+  <si>
+    <t>03/01/2026 14:21</t>
+  </si>
+  <si>
+    <t>03/01/2026 09:30</t>
+  </si>
+  <si>
+    <t>95458369</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202601030071178966 Sostituito coppia di secondaria zona 2.32 box 32 cp 1 new 7 old Allineamento stabilità servizi ok provato con il cliente</t>
+  </si>
+  <si>
+    <t>TT1005238325</t>
+  </si>
+  <si>
+    <t>95641791</t>
+  </si>
+  <si>
+    <t>30/12/2025</t>
+  </si>
+  <si>
+    <t>30/12/2025 09:00</t>
+  </si>
+  <si>
+    <t>30/12/2025 09:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.D. </t>
+  </si>
+  <si>
+    <t>CBV001041882892</t>
+  </si>
+  <si>
+    <t>0931813111</t>
+  </si>
+  <si>
+    <t>31/12/2025 23:59</t>
+  </si>
+  <si>
+    <t>30/12/2025 12:27</t>
+  </si>
+  <si>
+    <t>28/12/2025 09:04</t>
+  </si>
+  <si>
+    <t>non riscontrato Codice collaudo: tk202512280071044953</t>
+  </si>
+  <si>
+    <t>TT1005247486</t>
+  </si>
+  <si>
+    <t>95695002</t>
+  </si>
+  <si>
+    <t>31/12/2025</t>
+  </si>
+  <si>
+    <t>31/12/2025 13:30</t>
+  </si>
+  <si>
+    <t>31/12/2025 14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025122806193988 </t>
+  </si>
+  <si>
+    <t>SWADW5042142545</t>
+  </si>
+  <si>
+    <t>093113773490</t>
+  </si>
+  <si>
+    <t>05/01/2026 17:16</t>
+  </si>
+  <si>
+    <t>31/12/2025 14:14</t>
+  </si>
+  <si>
+    <t>30/12/2025 14:40</t>
+  </si>
+  <si>
+    <t>30/12/2025 19:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non riscontrato. Codice collaudo: tk202512300071098117 </t>
+  </si>
+  <si>
+    <t>ASSENZA RANDOMICA DI PORTANTE **CPE_SN:S172V33001527**</t>
+  </si>
+  <si>
+    <t>TT1005250072</t>
+  </si>
+  <si>
+    <t>95714974</t>
+  </si>
+  <si>
+    <t>02/01/2026</t>
+  </si>
+  <si>
+    <t>02/01/2026 17:00</t>
+  </si>
+  <si>
+    <t>02/01/2026 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025123106691082 </t>
+  </si>
+  <si>
+    <t>SWADW5042154770</t>
+  </si>
+  <si>
+    <t>093114747702</t>
+  </si>
+  <si>
+    <t>01/01/2026 15:42</t>
+  </si>
+  <si>
+    <t>02/01/2026 09:25</t>
+  </si>
+  <si>
+    <t>31/12/2025 16:04</t>
+  </si>
+  <si>
+    <t>Guasto non riscontrato. Linea perfettamente funzionante. Codice collaudo: tk202601010071122955</t>
+  </si>
+  <si>
+    <t>TT1005256134</t>
+  </si>
+  <si>
+    <t>95779944</t>
+  </si>
+  <si>
+    <t>03/01/2026 14:00</t>
+  </si>
+  <si>
+    <t>03/01/2026 14:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026010206914540 </t>
+  </si>
+  <si>
+    <t>SWADW6042160728</t>
+  </si>
+  <si>
+    <t>093114727064</t>
+  </si>
+  <si>
+    <t>10/01/2026 08:54</t>
+  </si>
+  <si>
+    <t>03/01/2026 14:23</t>
+  </si>
+  <si>
+    <t>04/01/2026 15:24</t>
+  </si>
+  <si>
+    <t>03/01/2026 13:20</t>
+  </si>
+  <si>
+    <t>riparato al box Codice collaudo: tk202601030071183013</t>
+  </si>
+  <si>
+    <t>TT1005242863</t>
+  </si>
+  <si>
+    <t>95667094</t>
+  </si>
+  <si>
+    <t>30/12/2025 12:00</t>
+  </si>
+  <si>
+    <t>30/12/2025 12:30</t>
+  </si>
+  <si>
+    <t>CRV001042026135</t>
+  </si>
+  <si>
+    <t>30/12/2025 23:59</t>
+  </si>
+  <si>
+    <t>30/12/2025 14:03</t>
+  </si>
+  <si>
+    <t>29/12/2025 18:06</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202512290071070236 Sostituito cpe tim hub + in garanzia allineamento stabilità servizi ok provato con il cliente</t>
+  </si>
+  <si>
+    <t>TT1005251035</t>
+  </si>
+  <si>
+    <t>95719854</t>
+  </si>
+  <si>
+    <t>02/01/2026 18:00</t>
+  </si>
+  <si>
+    <t>02/01/2026 18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025123106663984 </t>
+  </si>
+  <si>
+    <t>SWADW5042154041</t>
+  </si>
+  <si>
+    <t>02/01/2026 23:59</t>
+  </si>
+  <si>
+    <t>02/01/2026 10:01</t>
+  </si>
+  <si>
+    <t>01/01/2026 12:34</t>
+  </si>
+  <si>
+    <t>01/01/2026 11:46</t>
+  </si>
+  <si>
+    <t>95493505</t>
+  </si>
+  <si>
+    <t>TT1005253804</t>
+  </si>
+  <si>
+    <t>95767582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIOVANNA DIMARTINO </t>
+  </si>
+  <si>
+    <t>CRH001042324804</t>
+  </si>
+  <si>
+    <t>0931593554</t>
+  </si>
+  <si>
+    <t>03/01/2026 23:59</t>
+  </si>
+  <si>
+    <t>03/01/2026 12:16</t>
+  </si>
+  <si>
+    <t>02/01/2026 16:46</t>
+  </si>
+  <si>
+    <t>95493518</t>
+  </si>
+  <si>
+    <t>rifatta giunzione in borchia ottica eseguita prova in sede utente Codice collaudo: tk202601020071170659</t>
+  </si>
+  <si>
+    <t>Quadarella Andrea</t>
   </si>
 </sst>
 </file>
@@ -9798,10 +10080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP257"/>
+  <dimension ref="A1:CP269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="F257" sqref="F257"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="S269" sqref="S269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -77121,13 +77403,13 @@
     </row>
     <row r="238" spans="1:94">
       <c r="A238" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B238" t="s">
         <v>2980</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>2981</v>
-      </c>
-      <c r="C238" t="s">
-        <v>2982</v>
       </c>
       <c r="D238" t="s">
         <v>97</v>
@@ -77163,13 +77445,13 @@
         <v>104</v>
       </c>
       <c r="O238" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="P238" t="s">
         <v>108</v>
       </c>
       <c r="Q238" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="R238" t="s">
         <v>110</v>
@@ -77181,7 +77463,7 @@
         <v>112</v>
       </c>
       <c r="U238" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="V238" t="s">
         <v>104</v>
@@ -77238,16 +77520,16 @@
         <v>108</v>
       </c>
       <c r="AN238" t="s">
+        <v>2985</v>
+      </c>
+      <c r="AO238" t="s">
         <v>2986</v>
       </c>
-      <c r="AO238" t="s">
+      <c r="AP238" t="s">
         <v>2987</v>
       </c>
-      <c r="AP238" t="s">
+      <c r="AQ238" t="s">
         <v>2988</v>
-      </c>
-      <c r="AQ238" t="s">
-        <v>2989</v>
       </c>
       <c r="AR238" t="s">
         <v>104</v>
@@ -77268,7 +77550,7 @@
         <v>173</v>
       </c>
       <c r="AX238" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="AY238" t="s">
         <v>104</v>
@@ -77289,19 +77571,19 @@
         <v>129</v>
       </c>
       <c r="BE238" t="s">
+        <v>2990</v>
+      </c>
+      <c r="BF238" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG238" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH238" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI238" t="s">
         <v>2991</v>
-      </c>
-      <c r="BF238" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG238" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH238" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI238" t="s">
-        <v>2992</v>
       </c>
       <c r="BJ238" t="s">
         <v>110</v>
@@ -77361,7 +77643,7 @@
         <v>104</v>
       </c>
       <c r="CC238" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="CD238" t="s">
         <v>99</v>
@@ -77405,13 +77687,13 @@
     </row>
     <row r="239" spans="1:94">
       <c r="A239" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B239" t="s">
         <v>2994</v>
       </c>
-      <c r="B239" t="s">
-        <v>2995</v>
-      </c>
       <c r="C239" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="D239" t="s">
         <v>97</v>
@@ -77426,7 +77708,7 @@
         <v>324</v>
       </c>
       <c r="H239" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="I239" t="s">
         <v>114</v>
@@ -77447,13 +77729,13 @@
         <v>104</v>
       </c>
       <c r="O239" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="P239" t="s">
         <v>208</v>
       </c>
       <c r="Q239" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="R239" t="s">
         <v>110</v>
@@ -77465,7 +77747,7 @@
         <v>262</v>
       </c>
       <c r="U239" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="V239" t="s">
         <v>104</v>
@@ -77522,19 +77804,19 @@
         <v>108</v>
       </c>
       <c r="AN239" t="s">
+        <v>2998</v>
+      </c>
+      <c r="AO239" t="s">
         <v>2999</v>
       </c>
-      <c r="AO239" t="s">
+      <c r="AP239" t="s">
         <v>3000</v>
       </c>
-      <c r="AP239" t="s">
+      <c r="AQ239" t="s">
         <v>3001</v>
       </c>
-      <c r="AQ239" t="s">
-        <v>3002</v>
-      </c>
       <c r="AR239" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="AS239" t="s">
         <v>331</v>
@@ -77543,22 +77825,22 @@
         <v>324</v>
       </c>
       <c r="AU239" t="s">
+        <v>3002</v>
+      </c>
+      <c r="AV239" t="s">
         <v>3003</v>
       </c>
-      <c r="AV239" t="s">
+      <c r="AW239" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX239" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY239" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ239" t="s">
         <v>3004</v>
-      </c>
-      <c r="AW239" t="s">
-        <v>104</v>
-      </c>
-      <c r="AX239" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY239" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ239" t="s">
-        <v>3005</v>
       </c>
       <c r="BA239" t="s">
         <v>127</v>
@@ -77570,22 +77852,22 @@
         <v>463</v>
       </c>
       <c r="BD239" t="s">
+        <v>3005</v>
+      </c>
+      <c r="BE239" t="s">
         <v>3006</v>
       </c>
-      <c r="BE239" t="s">
+      <c r="BF239" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG239" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH239" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI239" t="s">
         <v>3007</v>
-      </c>
-      <c r="BF239" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG239" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH239" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI239" t="s">
-        <v>3008</v>
       </c>
       <c r="BJ239" t="s">
         <v>110</v>
@@ -77645,7 +77927,7 @@
         <v>104</v>
       </c>
       <c r="CC239" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="CD239" t="s">
         <v>99</v>
@@ -77689,13 +77971,13 @@
     </row>
     <row r="240" spans="1:94">
       <c r="A240" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B240" t="s">
         <v>3010</v>
       </c>
-      <c r="B240" t="s">
-        <v>3011</v>
-      </c>
       <c r="C240" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="D240" t="s">
         <v>469</v>
@@ -77731,13 +78013,13 @@
         <v>104</v>
       </c>
       <c r="O240" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="P240" t="s">
         <v>108</v>
       </c>
       <c r="Q240" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="R240" t="s">
         <v>110</v>
@@ -77749,7 +78031,7 @@
         <v>360</v>
       </c>
       <c r="U240" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="V240" t="s">
         <v>104</v>
@@ -77806,19 +78088,19 @@
         <v>108</v>
       </c>
       <c r="AN240" t="s">
+        <v>3014</v>
+      </c>
+      <c r="AO240" t="s">
         <v>3015</v>
       </c>
-      <c r="AO240" t="s">
+      <c r="AP240" t="s">
         <v>3016</v>
       </c>
-      <c r="AP240" t="s">
+      <c r="AQ240" t="s">
         <v>3017</v>
       </c>
-      <c r="AQ240" t="s">
-        <v>3018</v>
-      </c>
       <c r="AR240" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="AS240" t="s">
         <v>150</v>
@@ -77857,19 +78139,19 @@
         <v>104</v>
       </c>
       <c r="BE240" t="s">
+        <v>3018</v>
+      </c>
+      <c r="BF240" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG240" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH240" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI240" t="s">
         <v>3019</v>
-      </c>
-      <c r="BF240" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG240" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH240" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI240" t="s">
-        <v>3020</v>
       </c>
       <c r="BJ240" t="s">
         <v>110</v>
@@ -77929,7 +78211,7 @@
         <v>104</v>
       </c>
       <c r="CC240" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="CD240" t="s">
         <v>99</v>
@@ -77973,13 +78255,13 @@
     </row>
     <row r="241" spans="1:94">
       <c r="A241" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B241" t="s">
         <v>3022</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" t="s">
         <v>3023</v>
-      </c>
-      <c r="C241" t="s">
-        <v>3024</v>
       </c>
       <c r="D241" t="s">
         <v>97</v>
@@ -78015,13 +78297,13 @@
         <v>104</v>
       </c>
       <c r="O241" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="P241" t="s">
         <v>108</v>
       </c>
       <c r="Q241" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="R241" t="s">
         <v>110</v>
@@ -78033,7 +78315,7 @@
         <v>262</v>
       </c>
       <c r="U241" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="V241" t="s">
         <v>104</v>
@@ -78090,19 +78372,19 @@
         <v>108</v>
       </c>
       <c r="AN241" t="s">
+        <v>3027</v>
+      </c>
+      <c r="AO241" t="s">
         <v>3028</v>
       </c>
-      <c r="AO241" t="s">
+      <c r="AP241" t="s">
         <v>3029</v>
       </c>
-      <c r="AP241" t="s">
+      <c r="AQ241" t="s">
         <v>3030</v>
       </c>
-      <c r="AQ241" t="s">
-        <v>3031</v>
-      </c>
       <c r="AR241" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="AS241" t="s">
         <v>720</v>
@@ -78141,19 +78423,19 @@
         <v>104</v>
       </c>
       <c r="BE241" t="s">
+        <v>3031</v>
+      </c>
+      <c r="BF241" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG241" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH241" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI241" t="s">
         <v>3032</v>
-      </c>
-      <c r="BF241" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG241" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH241" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI241" t="s">
-        <v>3033</v>
       </c>
       <c r="BJ241" t="s">
         <v>110</v>
@@ -78213,7 +78495,7 @@
         <v>104</v>
       </c>
       <c r="CC241" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="CD241" t="s">
         <v>99</v>
@@ -78257,13 +78539,13 @@
     </row>
     <row r="242" spans="1:94">
       <c r="A242" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B242" t="s">
         <v>3035</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" t="s">
         <v>3036</v>
-      </c>
-      <c r="C242" t="s">
-        <v>3037</v>
       </c>
       <c r="D242" t="s">
         <v>157</v>
@@ -78299,13 +78581,13 @@
         <v>104</v>
       </c>
       <c r="O242" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="P242" t="s">
         <v>108</v>
       </c>
       <c r="Q242" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="R242" t="s">
         <v>110</v>
@@ -78317,7 +78599,7 @@
         <v>112</v>
       </c>
       <c r="U242" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="V242" t="s">
         <v>104</v>
@@ -78374,16 +78656,16 @@
         <v>108</v>
       </c>
       <c r="AN242" t="s">
+        <v>3040</v>
+      </c>
+      <c r="AO242" t="s">
         <v>3041</v>
       </c>
-      <c r="AO242" t="s">
+      <c r="AP242" t="s">
         <v>3042</v>
       </c>
-      <c r="AP242" t="s">
+      <c r="AQ242" t="s">
         <v>3043</v>
-      </c>
-      <c r="AQ242" t="s">
-        <v>3044</v>
       </c>
       <c r="AR242" t="s">
         <v>104</v>
@@ -78404,7 +78686,7 @@
         <v>173</v>
       </c>
       <c r="AX242" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="AY242" t="s">
         <v>104</v>
@@ -78425,19 +78707,19 @@
         <v>129</v>
       </c>
       <c r="BE242" t="s">
+        <v>3045</v>
+      </c>
+      <c r="BF242" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG242" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH242" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI242" t="s">
         <v>3046</v>
-      </c>
-      <c r="BF242" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG242" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH242" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI242" t="s">
-        <v>3047</v>
       </c>
       <c r="BJ242" t="s">
         <v>110</v>
@@ -78497,7 +78779,7 @@
         <v>104</v>
       </c>
       <c r="CC242" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="CD242" t="s">
         <v>99</v>
@@ -78530,7 +78812,7 @@
         <v>226</v>
       </c>
       <c r="CN242" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="CO242" t="s">
         <v>104</v>
@@ -78541,13 +78823,13 @@
     </row>
     <row r="243" spans="1:94">
       <c r="A243" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B243" t="s">
         <v>3049</v>
       </c>
-      <c r="B243" t="s">
-        <v>3050</v>
-      </c>
       <c r="C243" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="D243" t="s">
         <v>796</v>
@@ -78583,13 +78865,13 @@
         <v>104</v>
       </c>
       <c r="O243" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="P243" t="s">
         <v>102</v>
       </c>
       <c r="Q243" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="R243" t="s">
         <v>110</v>
@@ -78601,7 +78883,7 @@
         <v>537</v>
       </c>
       <c r="U243" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="V243" t="s">
         <v>104</v>
@@ -78658,16 +78940,16 @@
         <v>108</v>
       </c>
       <c r="AN243" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="AO243">
         <v>93114730142</v>
       </c>
       <c r="AP243" t="s">
+        <v>3054</v>
+      </c>
+      <c r="AQ243" t="s">
         <v>3055</v>
-      </c>
-      <c r="AQ243" t="s">
-        <v>3056</v>
       </c>
       <c r="AR243" t="s">
         <v>104</v>
@@ -78688,7 +78970,7 @@
         <v>125</v>
       </c>
       <c r="AX243" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="AY243" t="s">
         <v>104</v>
@@ -78709,7 +78991,7 @@
         <v>221</v>
       </c>
       <c r="BE243" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="BF243" t="s">
         <v>97</v>
@@ -78781,7 +79063,7 @@
         <v>104</v>
       </c>
       <c r="CC243" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="CD243" t="s">
         <v>99</v>
@@ -78814,7 +79096,7 @@
         <v>104</v>
       </c>
       <c r="CN243" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="CO243" t="s">
         <v>104</v>
@@ -78825,13 +79107,13 @@
     </row>
     <row r="244" spans="1:94">
       <c r="A244" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B244" t="s">
         <v>3060</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" t="s">
         <v>3061</v>
-      </c>
-      <c r="C244" t="s">
-        <v>3062</v>
       </c>
       <c r="D244" t="s">
         <v>230</v>
@@ -78867,13 +79149,13 @@
         <v>104</v>
       </c>
       <c r="O244" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="P244" t="s">
         <v>108</v>
       </c>
       <c r="Q244" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="R244" t="s">
         <v>110</v>
@@ -78885,7 +79167,7 @@
         <v>537</v>
       </c>
       <c r="U244" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="V244" t="s">
         <v>104</v>
@@ -78897,13 +79179,13 @@
         <v>115</v>
       </c>
       <c r="Y244" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="Z244" t="s">
         <v>554</v>
       </c>
       <c r="AA244" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="AB244" t="s">
         <v>555</v>
@@ -78942,19 +79224,19 @@
         <v>108</v>
       </c>
       <c r="AN244" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="AO244" t="s">
         <v>1228</v>
       </c>
       <c r="AP244" t="s">
+        <v>3067</v>
+      </c>
+      <c r="AQ244" t="s">
         <v>3068</v>
       </c>
-      <c r="AQ244" t="s">
-        <v>3069</v>
-      </c>
       <c r="AR244" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="AS244" t="s">
         <v>268</v>
@@ -78993,7 +79275,7 @@
         <v>221</v>
       </c>
       <c r="BE244" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="BF244" t="s">
         <v>157</v>
@@ -79047,7 +79329,7 @@
         <v>114</v>
       </c>
       <c r="BW244" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="BX244" t="s">
         <v>104</v>
@@ -79065,7 +79347,7 @@
         <v>104</v>
       </c>
       <c r="CC244" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="CD244" t="s">
         <v>98</v>
@@ -79109,13 +79391,13 @@
     </row>
     <row r="245" spans="1:94">
       <c r="A245" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B245" t="s">
         <v>3073</v>
       </c>
-      <c r="B245" t="s">
-        <v>3074</v>
-      </c>
       <c r="C245" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="D245" t="s">
         <v>157</v>
@@ -79151,7 +79433,7 @@
         <v>104</v>
       </c>
       <c r="O245" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="P245" t="s">
         <v>102</v>
@@ -79169,7 +79451,7 @@
         <v>262</v>
       </c>
       <c r="U245" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="V245" t="s">
         <v>104</v>
@@ -79226,16 +79508,16 @@
         <v>108</v>
       </c>
       <c r="AN245" t="s">
+        <v>3075</v>
+      </c>
+      <c r="AO245" t="s">
         <v>3076</v>
       </c>
-      <c r="AO245" t="s">
+      <c r="AP245" t="s">
         <v>3077</v>
       </c>
-      <c r="AP245" t="s">
+      <c r="AQ245" t="s">
         <v>3078</v>
-      </c>
-      <c r="AQ245" t="s">
-        <v>3079</v>
       </c>
       <c r="AR245" t="s">
         <v>104</v>
@@ -79256,7 +79538,7 @@
         <v>217</v>
       </c>
       <c r="AX245" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="AY245" t="s">
         <v>104</v>
@@ -79277,7 +79559,7 @@
         <v>129</v>
       </c>
       <c r="BE245" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="BF245" t="s">
         <v>157</v>
@@ -79349,7 +79631,7 @@
         <v>104</v>
       </c>
       <c r="CC245" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="CD245" t="s">
         <v>99</v>
@@ -79373,7 +79655,7 @@
         <v>114</v>
       </c>
       <c r="CK245" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="CL245" t="s">
         <v>104</v>
@@ -79382,7 +79664,7 @@
         <v>104</v>
       </c>
       <c r="CN245" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="CO245" t="s">
         <v>104</v>
@@ -79393,13 +79675,13 @@
     </row>
     <row r="246" spans="1:94">
       <c r="A246" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B246" t="s">
         <v>3084</v>
       </c>
-      <c r="B246" t="s">
-        <v>3085</v>
-      </c>
       <c r="C246" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="D246" t="s">
         <v>97</v>
@@ -79435,13 +79717,13 @@
         <v>104</v>
       </c>
       <c r="O246" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="P246" t="s">
         <v>108</v>
       </c>
       <c r="Q246" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="R246" t="s">
         <v>110</v>
@@ -79453,7 +79735,7 @@
         <v>236</v>
       </c>
       <c r="U246" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="V246" t="s">
         <v>104</v>
@@ -79510,16 +79792,16 @@
         <v>108</v>
       </c>
       <c r="AN246" t="s">
+        <v>3087</v>
+      </c>
+      <c r="AO246" t="s">
         <v>3088</v>
       </c>
-      <c r="AO246" t="s">
+      <c r="AP246" t="s">
         <v>3089</v>
       </c>
-      <c r="AP246" t="s">
+      <c r="AQ246" t="s">
         <v>3090</v>
-      </c>
-      <c r="AQ246" t="s">
-        <v>3091</v>
       </c>
       <c r="AR246" t="s">
         <v>104</v>
@@ -79540,7 +79822,7 @@
         <v>217</v>
       </c>
       <c r="AX246" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="AY246" t="s">
         <v>104</v>
@@ -79561,7 +79843,7 @@
         <v>129</v>
       </c>
       <c r="BE246" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="BF246" t="s">
         <v>97</v>
@@ -79633,7 +79915,7 @@
         <v>104</v>
       </c>
       <c r="CC246" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="CD246" t="s">
         <v>99</v>
@@ -79657,7 +79939,7 @@
         <v>114</v>
       </c>
       <c r="CK246" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="CL246" t="s">
         <v>104</v>
@@ -79677,13 +79959,13 @@
     </row>
     <row r="247" spans="1:94">
       <c r="A247" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B247" t="s">
         <v>3096</v>
       </c>
-      <c r="B247" t="s">
-        <v>3097</v>
-      </c>
       <c r="C247" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="D247" t="s">
         <v>97</v>
@@ -79719,13 +80001,13 @@
         <v>104</v>
       </c>
       <c r="O247" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="P247" t="s">
         <v>108</v>
       </c>
       <c r="Q247" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="R247" t="s">
         <v>110</v>
@@ -79737,7 +80019,7 @@
         <v>227</v>
       </c>
       <c r="U247" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="V247" t="s">
         <v>104</v>
@@ -79794,19 +80076,19 @@
         <v>108</v>
       </c>
       <c r="AN247" t="s">
+        <v>3100</v>
+      </c>
+      <c r="AO247" t="s">
         <v>3101</v>
       </c>
-      <c r="AO247" t="s">
+      <c r="AP247" t="s">
+        <v>3000</v>
+      </c>
+      <c r="AQ247" t="s">
         <v>3102</v>
       </c>
-      <c r="AP247" t="s">
-        <v>3001</v>
-      </c>
-      <c r="AQ247" t="s">
-        <v>3103</v>
-      </c>
       <c r="AR247" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="AS247" t="s">
         <v>478</v>
@@ -79845,7 +80127,7 @@
         <v>104</v>
       </c>
       <c r="BE247" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="BF247" t="s">
         <v>796</v>
@@ -79917,7 +80199,7 @@
         <v>104</v>
       </c>
       <c r="CC247" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="CD247" t="s">
         <v>99</v>
@@ -79961,13 +80243,13 @@
     </row>
     <row r="248" spans="1:94">
       <c r="A248" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B248" t="s">
         <v>3106</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" t="s">
         <v>3107</v>
-      </c>
-      <c r="C248" t="s">
-        <v>3108</v>
       </c>
       <c r="D248" t="s">
         <v>469</v>
@@ -80003,13 +80285,13 @@
         <v>104</v>
       </c>
       <c r="O248" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="P248" t="s">
         <v>208</v>
       </c>
       <c r="Q248" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="R248" t="s">
         <v>110</v>
@@ -80021,7 +80303,7 @@
         <v>262</v>
       </c>
       <c r="U248" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="V248" t="s">
         <v>104</v>
@@ -80078,16 +80360,16 @@
         <v>108</v>
       </c>
       <c r="AN248" t="s">
+        <v>3111</v>
+      </c>
+      <c r="AO248" t="s">
         <v>3112</v>
       </c>
-      <c r="AO248" t="s">
+      <c r="AP248" t="s">
         <v>3113</v>
       </c>
-      <c r="AP248" t="s">
+      <c r="AQ248" t="s">
         <v>3114</v>
-      </c>
-      <c r="AQ248" t="s">
-        <v>3115</v>
       </c>
       <c r="AR248" t="s">
         <v>104</v>
@@ -80108,7 +80390,7 @@
         <v>173</v>
       </c>
       <c r="AX248" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="AY248" t="s">
         <v>104</v>
@@ -80129,7 +80411,7 @@
         <v>129</v>
       </c>
       <c r="BE248" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="BF248" t="s">
         <v>104</v>
@@ -80201,7 +80483,7 @@
         <v>104</v>
       </c>
       <c r="CC248" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="CD248" t="s">
         <v>99</v>
@@ -80245,13 +80527,13 @@
     </row>
     <row r="249" spans="1:94">
       <c r="A249" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B249" t="s">
         <v>3119</v>
       </c>
-      <c r="B249" t="s">
-        <v>3120</v>
-      </c>
       <c r="C249" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="D249" t="s">
         <v>97</v>
@@ -80287,13 +80569,13 @@
         <v>104</v>
       </c>
       <c r="O249" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="P249" t="s">
         <v>108</v>
       </c>
       <c r="Q249" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="R249" t="s">
         <v>110</v>
@@ -80305,7 +80587,7 @@
         <v>537</v>
       </c>
       <c r="U249" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="V249" t="s">
         <v>104</v>
@@ -80362,16 +80644,16 @@
         <v>108</v>
       </c>
       <c r="AN249" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="AO249">
         <v>93114730142</v>
       </c>
       <c r="AP249" t="s">
+        <v>3122</v>
+      </c>
+      <c r="AQ249" t="s">
         <v>3123</v>
-      </c>
-      <c r="AQ249" t="s">
-        <v>3124</v>
       </c>
       <c r="AR249" t="s">
         <v>104</v>
@@ -80392,7 +80674,7 @@
         <v>125</v>
       </c>
       <c r="AX249" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="AY249" t="s">
         <v>104</v>
@@ -80413,7 +80695,7 @@
         <v>221</v>
       </c>
       <c r="BE249" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="BF249" t="s">
         <v>796</v>
@@ -80485,7 +80767,7 @@
         <v>104</v>
       </c>
       <c r="CC249" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="CD249" t="s">
         <v>98</v>
@@ -80529,13 +80811,13 @@
     </row>
     <row r="250" spans="1:94">
       <c r="A250" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B250" t="s">
         <v>3127</v>
       </c>
-      <c r="B250" t="s">
-        <v>3128</v>
-      </c>
       <c r="C250" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="D250" t="s">
         <v>157</v>
@@ -80571,13 +80853,13 @@
         <v>104</v>
       </c>
       <c r="O250" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="P250" t="s">
         <v>108</v>
       </c>
       <c r="Q250" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="R250" t="s">
         <v>110</v>
@@ -80589,7 +80871,7 @@
         <v>236</v>
       </c>
       <c r="U250" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="V250" t="s">
         <v>104</v>
@@ -80646,16 +80928,16 @@
         <v>108</v>
       </c>
       <c r="AN250" t="s">
+        <v>3075</v>
+      </c>
+      <c r="AO250" t="s">
         <v>3076</v>
       </c>
-      <c r="AO250" t="s">
+      <c r="AP250" t="s">
         <v>3077</v>
       </c>
-      <c r="AP250" t="s">
-        <v>3078</v>
-      </c>
       <c r="AQ250" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="AR250" t="s">
         <v>104</v>
@@ -80676,7 +80958,7 @@
         <v>217</v>
       </c>
       <c r="AX250" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="AY250" t="s">
         <v>104</v>
@@ -80697,7 +80979,7 @@
         <v>129</v>
       </c>
       <c r="BE250" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="BF250" t="s">
         <v>157</v>
@@ -80769,7 +81051,7 @@
         <v>104</v>
       </c>
       <c r="CC250" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="CD250" t="s">
         <v>98</v>
@@ -80793,7 +81075,7 @@
         <v>114</v>
       </c>
       <c r="CK250" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="CL250" t="s">
         <v>104</v>
@@ -80802,7 +81084,7 @@
         <v>104</v>
       </c>
       <c r="CN250" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="CO250" t="s">
         <v>104</v>
@@ -80813,13 +81095,13 @@
     </row>
     <row r="251" spans="1:94">
       <c r="A251" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B251" t="s">
         <v>3135</v>
       </c>
-      <c r="B251" t="s">
-        <v>3136</v>
-      </c>
       <c r="C251" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="D251" t="s">
         <v>97</v>
@@ -80855,13 +81137,13 @@
         <v>104</v>
       </c>
       <c r="O251" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="P251" t="s">
         <v>108</v>
       </c>
       <c r="Q251" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="R251" t="s">
         <v>110</v>
@@ -80873,7 +81155,7 @@
         <v>537</v>
       </c>
       <c r="U251" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="V251" t="s">
         <v>104</v>
@@ -80930,19 +81212,19 @@
         <v>108</v>
       </c>
       <c r="AN251" t="s">
+        <v>3100</v>
+      </c>
+      <c r="AO251" t="s">
         <v>3101</v>
       </c>
-      <c r="AO251" t="s">
-        <v>3102</v>
-      </c>
       <c r="AP251" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="AQ251" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="AR251" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="AS251" t="s">
         <v>478</v>
@@ -80981,7 +81263,7 @@
         <v>104</v>
       </c>
       <c r="BE251" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="BF251" t="s">
         <v>97</v>
@@ -81053,51 +81335,2891 @@
         <v>104</v>
       </c>
       <c r="CC251" t="s">
+        <v>3138</v>
+      </c>
+      <c r="CD251" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI251" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO251" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP251" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="252" spans="1:94">
+      <c r="A252" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B252" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C252" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D252" t="s">
+        <v>230</v>
+      </c>
+      <c r="E252" t="s">
+        <v>98</v>
+      </c>
+      <c r="F252" t="s">
+        <v>98</v>
+      </c>
+      <c r="G252" t="s">
+        <v>274</v>
+      </c>
+      <c r="H252" t="s">
+        <v>101</v>
+      </c>
+      <c r="I252" t="s">
+        <v>114</v>
+      </c>
+      <c r="J252" t="s">
+        <v>259</v>
+      </c>
+      <c r="K252" t="s">
+        <v>104</v>
+      </c>
+      <c r="L252" t="s">
+        <v>105</v>
+      </c>
+      <c r="M252" t="s">
+        <v>106</v>
+      </c>
+      <c r="N252" t="s">
+        <v>104</v>
+      </c>
+      <c r="O252" t="s">
+        <v>3143</v>
+      </c>
+      <c r="P252" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>3144</v>
+      </c>
+      <c r="R252" t="s">
+        <v>110</v>
+      </c>
+      <c r="S252" t="s">
+        <v>235</v>
+      </c>
+      <c r="T252" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U252" t="s">
+        <v>3145</v>
+      </c>
+      <c r="V252" t="s">
+        <v>104</v>
+      </c>
+      <c r="W252" t="s">
+        <v>114</v>
+      </c>
+      <c r="X252" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y252" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z252" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA252" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB252" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC252" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD252" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE252" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF252" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG252" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH252" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI252" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ252" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK252" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL252" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM252" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN252" t="s">
+        <v>3146</v>
+      </c>
+      <c r="AO252" t="s">
+        <v>3147</v>
+      </c>
+      <c r="AP252" t="s">
+        <v>3148</v>
+      </c>
+      <c r="AQ252" t="s">
+        <v>3149</v>
+      </c>
+      <c r="AR252" t="s">
+        <v>3148</v>
+      </c>
+      <c r="AS252" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT252" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU252" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV252" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW252" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX252" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY252" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ252" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA252" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB252" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC252" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD252" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE252" t="s">
+        <v>3150</v>
+      </c>
+      <c r="BF252" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG252" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH252" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI252" t="s">
+        <v>3151</v>
+      </c>
+      <c r="BJ252" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK252" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL252" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM252" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN252" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO252" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP252" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ252" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR252" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS252" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT252" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU252" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV252" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW252" t="s">
+        <v>1231</v>
+      </c>
+      <c r="BX252" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY252" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ252" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA252" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB252" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC252" t="s">
+        <v>3152</v>
+      </c>
+      <c r="CD252" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE252" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF252" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG252" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH252" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI252" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ252" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK252" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL252" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM252" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN252" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO252" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP252" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="253" spans="1:94">
+      <c r="A253" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B253" t="s">
+        <v>3127</v>
+      </c>
+      <c r="C253" t="s">
+        <v>3036</v>
+      </c>
+      <c r="D253" t="s">
+        <v>157</v>
+      </c>
+      <c r="E253" t="s">
+        <v>98</v>
+      </c>
+      <c r="F253" t="s">
+        <v>99</v>
+      </c>
+      <c r="G253" t="s">
+        <v>231</v>
+      </c>
+      <c r="H253" t="s">
+        <v>101</v>
+      </c>
+      <c r="I253" t="s">
+        <v>160</v>
+      </c>
+      <c r="J253" t="s">
+        <v>103</v>
+      </c>
+      <c r="K253" t="s">
+        <v>104</v>
+      </c>
+      <c r="L253" t="s">
+        <v>105</v>
+      </c>
+      <c r="M253" t="s">
+        <v>106</v>
+      </c>
+      <c r="N253" t="s">
+        <v>104</v>
+      </c>
+      <c r="O253" t="s">
+        <v>3128</v>
+      </c>
+      <c r="P253" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>3129</v>
+      </c>
+      <c r="R253" t="s">
+        <v>110</v>
+      </c>
+      <c r="S253" t="s">
+        <v>179</v>
+      </c>
+      <c r="T253" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U253" t="s">
+        <v>3074</v>
+      </c>
+      <c r="V253" t="s">
+        <v>104</v>
+      </c>
+      <c r="W253" t="s">
+        <v>114</v>
+      </c>
+      <c r="X253" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y253" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z253" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA253" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB253" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC253" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD253" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE253" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF253" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG253" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH253" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI253" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ253" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK253" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL253" t="s">
+        <v>883</v>
+      </c>
+      <c r="AM253" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN253" t="s">
+        <v>3075</v>
+      </c>
+      <c r="AO253" t="s">
+        <v>3076</v>
+      </c>
+      <c r="AP253" t="s">
+        <v>3077</v>
+      </c>
+      <c r="AQ253" t="s">
+        <v>3130</v>
+      </c>
+      <c r="AR253" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS253" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT253" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU253" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV253" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW253" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX253" t="s">
+        <v>3131</v>
+      </c>
+      <c r="AY253" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ253" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA253" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB253" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC253" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD253" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE253" t="s">
+        <v>3132</v>
+      </c>
+      <c r="BF253" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG253" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH253" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI253" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ253" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK253" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL253" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM253" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN253" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO253" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP253" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ253" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR253" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS253" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT253" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU253" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV253" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW253" t="s">
+        <v>160</v>
+      </c>
+      <c r="BX253" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY253" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ253" t="s">
+        <v>108</v>
+      </c>
+      <c r="CA253" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB253" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC253" t="s">
+        <v>3133</v>
+      </c>
+      <c r="CD253" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE253" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF253" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG253" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH253" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI253" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ253" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK253" t="s">
+        <v>3082</v>
+      </c>
+      <c r="CL253" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM253" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN253" t="s">
+        <v>3133</v>
+      </c>
+      <c r="CO253" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP253" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="254" spans="1:94">
+      <c r="A254" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B254" t="s">
+        <v>3154</v>
+      </c>
+      <c r="C254" t="s">
+        <v>3155</v>
+      </c>
+      <c r="D254" t="s">
+        <v>796</v>
+      </c>
+      <c r="E254" t="s">
+        <v>98</v>
+      </c>
+      <c r="F254" t="s">
+        <v>99</v>
+      </c>
+      <c r="G254" t="s">
+        <v>569</v>
+      </c>
+      <c r="H254" t="s">
+        <v>101</v>
+      </c>
+      <c r="I254" t="s">
+        <v>114</v>
+      </c>
+      <c r="J254" t="s">
+        <v>259</v>
+      </c>
+      <c r="K254" t="s">
+        <v>104</v>
+      </c>
+      <c r="L254" t="s">
+        <v>105</v>
+      </c>
+      <c r="M254" t="s">
+        <v>106</v>
+      </c>
+      <c r="N254" t="s">
+        <v>104</v>
+      </c>
+      <c r="O254" t="s">
+        <v>3156</v>
+      </c>
+      <c r="P254" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>3157</v>
+      </c>
+      <c r="R254" t="s">
+        <v>110</v>
+      </c>
+      <c r="S254" t="s">
+        <v>2300</v>
+      </c>
+      <c r="T254" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U254" t="s">
+        <v>3158</v>
+      </c>
+      <c r="V254" t="s">
+        <v>104</v>
+      </c>
+      <c r="W254" t="s">
+        <v>114</v>
+      </c>
+      <c r="X254" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y254" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z254" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA254" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB254" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC254" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD254" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE254" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF254" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG254" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH254" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI254" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ254" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK254" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL254" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM254" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN254" t="s">
+        <v>3159</v>
+      </c>
+      <c r="AO254" t="s">
+        <v>3160</v>
+      </c>
+      <c r="AP254" t="s">
+        <v>3161</v>
+      </c>
+      <c r="AQ254" t="s">
+        <v>3162</v>
+      </c>
+      <c r="AR254" t="s">
+        <v>3161</v>
+      </c>
+      <c r="AS254" t="s">
+        <v>577</v>
+      </c>
+      <c r="AT254" t="s">
+        <v>569</v>
+      </c>
+      <c r="AU254" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV254" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW254" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX254" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY254" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ254" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA254" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB254" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC254" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD254" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE254" t="s">
+        <v>3163</v>
+      </c>
+      <c r="BF254" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG254" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH254" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI254" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ254" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK254" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL254" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM254" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN254" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO254" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP254" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ254" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR254" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS254" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT254" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU254" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV254" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW254" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX254" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY254" t="s">
+        <v>1178</v>
+      </c>
+      <c r="BZ254" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA254" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB254" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC254" t="s">
+        <v>3164</v>
+      </c>
+      <c r="CD254" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE254" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF254" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG254" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH254" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI254" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ254" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK254" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL254" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM254" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN254" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO254" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP254" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="255" spans="1:94">
+      <c r="A255" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B255" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C255" t="s">
+        <v>3167</v>
+      </c>
+      <c r="D255" t="s">
+        <v>796</v>
+      </c>
+      <c r="E255" t="s">
+        <v>98</v>
+      </c>
+      <c r="F255" t="s">
+        <v>99</v>
+      </c>
+      <c r="G255" t="s">
+        <v>712</v>
+      </c>
+      <c r="H255" t="s">
+        <v>206</v>
+      </c>
+      <c r="I255" t="s">
+        <v>108</v>
+      </c>
+      <c r="J255" t="s">
+        <v>103</v>
+      </c>
+      <c r="K255" t="s">
+        <v>104</v>
+      </c>
+      <c r="L255" t="s">
+        <v>105</v>
+      </c>
+      <c r="M255" t="s">
+        <v>106</v>
+      </c>
+      <c r="N255" t="s">
+        <v>104</v>
+      </c>
+      <c r="O255" t="s">
+        <v>3168</v>
+      </c>
+      <c r="P255" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>3169</v>
+      </c>
+      <c r="R255" t="s">
+        <v>110</v>
+      </c>
+      <c r="S255" t="s">
+        <v>536</v>
+      </c>
+      <c r="T255" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U255" t="s">
+        <v>3170</v>
+      </c>
+      <c r="V255" t="s">
+        <v>104</v>
+      </c>
+      <c r="W255" t="s">
+        <v>114</v>
+      </c>
+      <c r="X255" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y255" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z255" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA255" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB255" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC255" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD255" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE255" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF255" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG255" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH255" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI255" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ255" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK255" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL255" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM255" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN255" t="s">
+        <v>3171</v>
+      </c>
+      <c r="AO255" t="s">
+        <v>3172</v>
+      </c>
+      <c r="AP255" t="s">
+        <v>3173</v>
+      </c>
+      <c r="AQ255" t="s">
+        <v>3174</v>
+      </c>
+      <c r="AR255" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS255" t="s">
+        <v>720</v>
+      </c>
+      <c r="AT255" t="s">
+        <v>712</v>
+      </c>
+      <c r="AU255" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV255" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW255" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX255" t="s">
+        <v>3175</v>
+      </c>
+      <c r="AY255" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ255" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA255" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB255" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC255" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD255" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE255" t="s">
+        <v>3176</v>
+      </c>
+      <c r="BF255" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG255" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH255" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI255" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ255" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK255" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL255" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM255" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN255" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO255" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP255" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ255" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR255" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS255" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT255" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU255" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV255" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW255" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX255" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY255" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ255" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA255" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB255" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC255" t="s">
+        <v>3177</v>
+      </c>
+      <c r="CD255" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE255" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF255" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG255" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH255" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI255" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ255" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK255" t="s">
+        <v>3178</v>
+      </c>
+      <c r="CL255" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM255" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN255" t="s">
+        <v>3177</v>
+      </c>
+      <c r="CO255" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP255" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="256" spans="1:94">
+      <c r="A256" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B256" t="s">
+        <v>3180</v>
+      </c>
+      <c r="C256" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D256" t="s">
+        <v>796</v>
+      </c>
+      <c r="E256" t="s">
+        <v>98</v>
+      </c>
+      <c r="F256" t="s">
+        <v>99</v>
+      </c>
+      <c r="G256" t="s">
+        <v>879</v>
+      </c>
+      <c r="H256" t="s">
+        <v>232</v>
+      </c>
+      <c r="I256" t="s">
+        <v>114</v>
+      </c>
+      <c r="J256" t="s">
+        <v>259</v>
+      </c>
+      <c r="K256" t="s">
+        <v>104</v>
+      </c>
+      <c r="L256" t="s">
+        <v>105</v>
+      </c>
+      <c r="M256" t="s">
+        <v>106</v>
+      </c>
+      <c r="N256" t="s">
+        <v>104</v>
+      </c>
+      <c r="O256" t="s">
+        <v>3182</v>
+      </c>
+      <c r="P256" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q256" t="s">
+        <v>3183</v>
+      </c>
+      <c r="R256" t="s">
+        <v>110</v>
+      </c>
+      <c r="S256" t="s">
+        <v>179</v>
+      </c>
+      <c r="T256" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U256" t="s">
+        <v>3184</v>
+      </c>
+      <c r="V256" t="s">
+        <v>104</v>
+      </c>
+      <c r="W256" t="s">
+        <v>114</v>
+      </c>
+      <c r="X256" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y256" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z256" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA256" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB256" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC256" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD256" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE256" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF256" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG256" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH256" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI256" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ256" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK256" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL256" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM256" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN256" t="s">
+        <v>3185</v>
+      </c>
+      <c r="AO256" t="s">
+        <v>3186</v>
+      </c>
+      <c r="AP256" t="s">
+        <v>3187</v>
+      </c>
+      <c r="AQ256" t="s">
+        <v>3188</v>
+      </c>
+      <c r="AR256" t="s">
+        <v>3187</v>
+      </c>
+      <c r="AS256" t="s">
+        <v>889</v>
+      </c>
+      <c r="AT256" t="s">
+        <v>879</v>
+      </c>
+      <c r="AU256" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV256" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AW256" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX256" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY256" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ256" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA256" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB256" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC256" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD256" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE256" t="s">
+        <v>3189</v>
+      </c>
+      <c r="BF256" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG256" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH256" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI256" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ256" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK256" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL256" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM256" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN256" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO256" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP256" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ256" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR256" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS256" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT256" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU256" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV256" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW256" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX256" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY256" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ256" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA256" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB256" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC256" t="s">
+        <v>3190</v>
+      </c>
+      <c r="CD256" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE256" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF256" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG256" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH256" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI256" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ256" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK256" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL256" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM256" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN256" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO256" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP256" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="257" spans="1:94">
+      <c r="A257" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B257" t="s">
+        <v>3192</v>
+      </c>
+      <c r="C257" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D257" t="s">
+        <v>97</v>
+      </c>
+      <c r="E257" t="s">
+        <v>98</v>
+      </c>
+      <c r="F257" t="s">
+        <v>99</v>
+      </c>
+      <c r="G257" t="s">
+        <v>274</v>
+      </c>
+      <c r="H257" t="s">
+        <v>206</v>
+      </c>
+      <c r="I257" t="s">
+        <v>102</v>
+      </c>
+      <c r="J257" t="s">
+        <v>103</v>
+      </c>
+      <c r="K257" t="s">
+        <v>104</v>
+      </c>
+      <c r="L257" t="s">
+        <v>105</v>
+      </c>
+      <c r="M257" t="s">
+        <v>106</v>
+      </c>
+      <c r="N257" t="s">
+        <v>104</v>
+      </c>
+      <c r="O257" t="s">
+        <v>3193</v>
+      </c>
+      <c r="P257" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>3194</v>
+      </c>
+      <c r="R257" t="s">
+        <v>110</v>
+      </c>
+      <c r="S257" t="s">
+        <v>235</v>
+      </c>
+      <c r="T257" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U257" t="s">
+        <v>3195</v>
+      </c>
+      <c r="V257" t="s">
+        <v>104</v>
+      </c>
+      <c r="W257" t="s">
+        <v>114</v>
+      </c>
+      <c r="X257" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y257" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z257" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA257" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB257" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC257" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD257" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE257" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF257" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG257" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH257" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI257" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ257" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK257" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL257" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM257" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN257" t="s">
+        <v>3196</v>
+      </c>
+      <c r="AO257" t="s">
+        <v>3197</v>
+      </c>
+      <c r="AP257" t="s">
+        <v>3198</v>
+      </c>
+      <c r="AQ257" t="s">
+        <v>3199</v>
+      </c>
+      <c r="AR257" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS257" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT257" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU257" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV257" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW257" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX257" t="s">
+        <v>3200</v>
+      </c>
+      <c r="AY257" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ257" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA257" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB257" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC257" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD257" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE257" t="s">
+        <v>3201</v>
+      </c>
+      <c r="BF257" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG257" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH257" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI257" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ257" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK257" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL257" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM257" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN257" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO257" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP257" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ257" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR257" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS257" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT257" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU257" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV257" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW257" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX257" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY257" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ257" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA257" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB257" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC257" t="s">
+        <v>3202</v>
+      </c>
+      <c r="CD257" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE257" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF257" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG257" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH257" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI257" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ257" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK257" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL257" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM257" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN257" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO257" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP257" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="258" spans="1:94">
+      <c r="A258" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B258" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C258" t="s">
+        <v>3036</v>
+      </c>
+      <c r="D258" t="s">
+        <v>157</v>
+      </c>
+      <c r="E258" t="s">
+        <v>99</v>
+      </c>
+      <c r="F258" t="s">
+        <v>98</v>
+      </c>
+      <c r="G258" t="s">
+        <v>139</v>
+      </c>
+      <c r="H258" t="s">
+        <v>101</v>
+      </c>
+      <c r="I258" t="s">
+        <v>108</v>
+      </c>
+      <c r="J258" t="s">
+        <v>103</v>
+      </c>
+      <c r="K258" t="s">
+        <v>104</v>
+      </c>
+      <c r="L258" t="s">
+        <v>105</v>
+      </c>
+      <c r="M258" t="s">
+        <v>106</v>
+      </c>
+      <c r="N258" t="s">
+        <v>104</v>
+      </c>
+      <c r="O258" t="s">
+        <v>3037</v>
+      </c>
+      <c r="P258" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>3038</v>
+      </c>
+      <c r="R258" t="s">
+        <v>110</v>
+      </c>
+      <c r="S258" t="s">
+        <v>111</v>
+      </c>
+      <c r="T258" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U258" t="s">
+        <v>3039</v>
+      </c>
+      <c r="V258" t="s">
+        <v>104</v>
+      </c>
+      <c r="W258" t="s">
+        <v>114</v>
+      </c>
+      <c r="X258" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y258" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z258" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA258" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB258" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC258" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD258" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE258" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF258" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG258" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH258" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI258" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ258" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK258" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL258" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM258" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN258" t="s">
+        <v>3040</v>
+      </c>
+      <c r="AO258">
+        <v>93114727535</v>
+      </c>
+      <c r="AP258" t="s">
+        <v>3042</v>
+      </c>
+      <c r="AQ258" t="s">
+        <v>3043</v>
+      </c>
+      <c r="AR258" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS258" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT258" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU258" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV258" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW258" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX258" t="s">
+        <v>3044</v>
+      </c>
+      <c r="AY258" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ258" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA258" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB258" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC258" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD258" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE258" t="s">
+        <v>3045</v>
+      </c>
+      <c r="BF258" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG258" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH258" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI258" t="s">
+        <v>3046</v>
+      </c>
+      <c r="BJ258" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK258" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL258" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM258" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN258" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO258" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP258" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ258" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR258" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS258" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT258" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU258" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV258" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW258" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX258" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY258" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ258" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA258" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB258" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC258" t="s">
+        <v>3047</v>
+      </c>
+      <c r="CD258" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE258" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF258" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG258" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH258" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI258" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ258" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK258" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL258" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM258" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN258" t="s">
+        <v>3047</v>
+      </c>
+      <c r="CO258" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP258" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="259" spans="1:94">
+      <c r="A259" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B259" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C259" t="s">
+        <v>3155</v>
+      </c>
+      <c r="D259" t="s">
+        <v>102</v>
+      </c>
+      <c r="E259" t="s">
+        <v>99</v>
+      </c>
+      <c r="F259" t="s">
+        <v>98</v>
+      </c>
+      <c r="G259" t="s">
+        <v>274</v>
+      </c>
+      <c r="H259" t="s">
+        <v>101</v>
+      </c>
+      <c r="I259" t="s">
+        <v>114</v>
+      </c>
+      <c r="J259" t="s">
+        <v>259</v>
+      </c>
+      <c r="K259" t="s">
+        <v>104</v>
+      </c>
+      <c r="L259" t="s">
+        <v>105</v>
+      </c>
+      <c r="M259" t="s">
+        <v>106</v>
+      </c>
+      <c r="N259" t="s">
+        <v>104</v>
+      </c>
+      <c r="O259" t="s">
+        <v>3205</v>
+      </c>
+      <c r="P259" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>3206</v>
+      </c>
+      <c r="R259" t="s">
+        <v>110</v>
+      </c>
+      <c r="S259" t="s">
+        <v>235</v>
+      </c>
+      <c r="T259" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U259" t="s">
+        <v>3145</v>
+      </c>
+      <c r="V259" t="s">
+        <v>104</v>
+      </c>
+      <c r="W259" t="s">
+        <v>114</v>
+      </c>
+      <c r="X259" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y259" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z259" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA259" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB259" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC259" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD259" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE259" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF259" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG259" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH259" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI259" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ259" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK259" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL259" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM259" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN259" t="s">
+        <v>3207</v>
+      </c>
+      <c r="AO259" t="s">
+        <v>3147</v>
+      </c>
+      <c r="AP259" t="s">
+        <v>3208</v>
+      </c>
+      <c r="AQ259" t="s">
+        <v>3209</v>
+      </c>
+      <c r="AR259" t="s">
+        <v>3208</v>
+      </c>
+      <c r="AS259" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT259" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU259" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV259" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW259" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX259" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY259" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ259" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA259" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB259" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC259" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD259" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE259" t="s">
+        <v>3210</v>
+      </c>
+      <c r="BF259" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG259" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH259" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI259" t="s">
+        <v>3151</v>
+      </c>
+      <c r="BJ259" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK259" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL259" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM259" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN259" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO259" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP259" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ259" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR259" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS259" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT259" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU259" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV259" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW259" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX259" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY259" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ259" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA259" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB259" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC259" t="s">
+        <v>3211</v>
+      </c>
+      <c r="CD259" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE259" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF259" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG259" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH259" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI259" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ259" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK259" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL259" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM259" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN259" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO259" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP259" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="260" spans="1:94">
+      <c r="A260" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B260" t="s">
+        <v>3213</v>
+      </c>
+      <c r="C260" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D260" t="s">
+        <v>796</v>
+      </c>
+      <c r="E260" t="s">
+        <v>99</v>
+      </c>
+      <c r="F260" t="s">
+        <v>98</v>
+      </c>
+      <c r="G260" t="s">
+        <v>324</v>
+      </c>
+      <c r="H260" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I260" t="s">
+        <v>114</v>
+      </c>
+      <c r="J260" t="s">
+        <v>259</v>
+      </c>
+      <c r="K260" t="s">
+        <v>104</v>
+      </c>
+      <c r="L260" t="s">
+        <v>105</v>
+      </c>
+      <c r="M260" t="s">
+        <v>106</v>
+      </c>
+      <c r="N260" t="s">
+        <v>104</v>
+      </c>
+      <c r="O260" t="s">
+        <v>3214</v>
+      </c>
+      <c r="P260" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>3215</v>
+      </c>
+      <c r="R260" t="s">
+        <v>110</v>
+      </c>
+      <c r="S260" t="s">
+        <v>536</v>
+      </c>
+      <c r="T260" s="2" t="s">
+        <v>3233</v>
+      </c>
+      <c r="U260" t="s">
+        <v>3216</v>
+      </c>
+      <c r="V260" t="s">
+        <v>104</v>
+      </c>
+      <c r="W260" t="s">
+        <v>114</v>
+      </c>
+      <c r="X260" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y260" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z260" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA260" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB260" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC260" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD260" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE260" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF260" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG260" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH260" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI260" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ260" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK260" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL260" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM260" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN260" t="s">
+        <v>3217</v>
+      </c>
+      <c r="AO260">
+        <v>93114760401</v>
+      </c>
+      <c r="AP260" t="s">
+        <v>3218</v>
+      </c>
+      <c r="AQ260" t="s">
+        <v>3219</v>
+      </c>
+      <c r="AR260" t="s">
+        <v>3220</v>
+      </c>
+      <c r="AS260" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT260" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU260" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV260" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW260" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX260" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY260" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ260" t="s">
+        <v>872</v>
+      </c>
+      <c r="BA260" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB260" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC260" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD260" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE260" t="s">
+        <v>3221</v>
+      </c>
+      <c r="BF260" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG260" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH260" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI260" t="s">
+        <v>3222</v>
+      </c>
+      <c r="BJ260" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK260" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL260" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM260" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN260" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO260" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP260" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ260" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR260" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS260" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT260" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU260" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV260" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW260" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX260" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY260" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ260" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA260" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB260" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC260" t="s">
+        <v>3190</v>
+      </c>
+      <c r="CD260" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE260" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF260" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG260" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH260" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI260" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ260" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK260" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL260" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM260" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN260" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO260" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP260" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="261" spans="1:94">
+      <c r="A261" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B261" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C261" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D261" t="s">
+        <v>97</v>
+      </c>
+      <c r="E261" t="s">
+        <v>99</v>
+      </c>
+      <c r="F261" t="s">
+        <v>98</v>
+      </c>
+      <c r="G261" t="s">
+        <v>139</v>
+      </c>
+      <c r="H261" t="s">
+        <v>683</v>
+      </c>
+      <c r="I261" t="s">
+        <v>114</v>
+      </c>
+      <c r="J261" t="s">
+        <v>259</v>
+      </c>
+      <c r="K261" t="s">
+        <v>104</v>
+      </c>
+      <c r="L261" t="s">
+        <v>105</v>
+      </c>
+      <c r="M261" t="s">
+        <v>106</v>
+      </c>
+      <c r="N261" t="s">
+        <v>104</v>
+      </c>
+      <c r="O261" t="s">
+        <v>3143</v>
+      </c>
+      <c r="P261" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q261" t="s">
+        <v>3144</v>
+      </c>
+      <c r="R261" t="s">
+        <v>110</v>
+      </c>
+      <c r="S261" t="s">
+        <v>1564</v>
+      </c>
+      <c r="T261" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U261" t="s">
+        <v>3225</v>
+      </c>
+      <c r="V261" t="s">
+        <v>104</v>
+      </c>
+      <c r="W261" t="s">
+        <v>114</v>
+      </c>
+      <c r="X261" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y261" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z261" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA261" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB261" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC261" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD261" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE261" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF261" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG261" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH261" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI261" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ261" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK261" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL261" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM261" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN261" t="s">
+        <v>3226</v>
+      </c>
+      <c r="AO261" t="s">
+        <v>3227</v>
+      </c>
+      <c r="AP261" t="s">
+        <v>3228</v>
+      </c>
+      <c r="AQ261" t="s">
+        <v>3229</v>
+      </c>
+      <c r="AR261" t="s">
+        <v>3228</v>
+      </c>
+      <c r="AS261" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT261" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU261" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV261" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW261" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX261" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY261" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ261" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA261" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB261" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC261" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD261" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE261" t="s">
+        <v>3230</v>
+      </c>
+      <c r="BF261" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG261" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH261" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI261" t="s">
+        <v>3231</v>
+      </c>
+      <c r="BJ261" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK261" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL261" t="s">
+        <v>891</v>
+      </c>
+      <c r="BM261" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN261" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO261" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP261" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ261" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR261" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS261" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT261" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU261" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV261" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW261" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX261" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY261" t="s">
+        <v>892</v>
+      </c>
+      <c r="BZ261" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA261" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB261" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC261" t="s">
+        <v>3232</v>
+      </c>
+      <c r="CD261" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE261" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF261" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG261" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH261" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI261" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ261" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK261" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL261" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM261" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN261" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO261" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP261" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="269" spans="1:94">
+      <c r="S269" s="3" t="s">
         <v>3139</v>
-      </c>
-      <c r="CD251" t="s">
-        <v>99</v>
-      </c>
-      <c r="CE251" t="s">
-        <v>104</v>
-      </c>
-      <c r="CF251" t="s">
-        <v>104</v>
-      </c>
-      <c r="CG251" t="s">
-        <v>104</v>
-      </c>
-      <c r="CH251" t="s">
-        <v>104</v>
-      </c>
-      <c r="CI251" t="s">
-        <v>114</v>
-      </c>
-      <c r="CJ251" t="s">
-        <v>104</v>
-      </c>
-      <c r="CK251" t="s">
-        <v>104</v>
-      </c>
-      <c r="CL251" t="s">
-        <v>104</v>
-      </c>
-      <c r="CM251" t="s">
-        <v>104</v>
-      </c>
-      <c r="CN251" t="s">
-        <v>104</v>
-      </c>
-      <c r="CO251" t="s">
-        <v>104</v>
-      </c>
-      <c r="CP251" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="257" spans="19:19">
-      <c r="S257" s="3" t="s">
-        <v>2979</v>
       </c>
     </row>
   </sheetData>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24493" uniqueCount="3234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25715" uniqueCount="3377">
   <si>
     <t>Codice</t>
   </si>
@@ -9438,9 +9438,6 @@
     <t xml:space="preserve">Riparato al box eseguita prova telefonica Codice Collaudo: tk202512240071024396 </t>
   </si>
   <si>
-    <t>#data esec al 04/01</t>
-  </si>
-  <si>
     <t>TT1005255437</t>
   </si>
   <si>
@@ -9721,6 +9718,438 @@
   </si>
   <si>
     <t>Quadarella Andrea</t>
+  </si>
+  <si>
+    <t>#data esec al 11/01</t>
+  </si>
+  <si>
+    <t>TT1005257934</t>
+  </si>
+  <si>
+    <t>95789495</t>
+  </si>
+  <si>
+    <t>05/01/2026</t>
+  </si>
+  <si>
+    <t>05/01/2026 13:00</t>
+  </si>
+  <si>
+    <t>05/01/2026 13:30</t>
+  </si>
+  <si>
+    <t>CBV001042480083</t>
+  </si>
+  <si>
+    <t>08/01/2026 23:59</t>
+  </si>
+  <si>
+    <t>05/01/2026 14:02</t>
+  </si>
+  <si>
+    <t>04/01/2026 15:56</t>
+  </si>
+  <si>
+    <t>riparato in armadio eseguita prova telefonica Codice collaudo: tk202601040071192562</t>
+  </si>
+  <si>
+    <t>TT1005258093</t>
+  </si>
+  <si>
+    <t>95790234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026010407175374 </t>
+  </si>
+  <si>
+    <t>SWADW6042167178</t>
+  </si>
+  <si>
+    <t>093114755126</t>
+  </si>
+  <si>
+    <t>06/01/2026 01:24</t>
+  </si>
+  <si>
+    <t>05/01/2026 16:00</t>
+  </si>
+  <si>
+    <t>05/01/2026 18:36</t>
+  </si>
+  <si>
+    <t>04/01/2026 18:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sostituita porta ONU. Zona 3.05 box 1 coppia 3. Vecchia c1 62 nuova c1 56 utente manterrà MODEM SPENTO in quanto non in sede Codice collaudo: tk202601040071193301 </t>
+  </si>
+  <si>
+    <t>TT1005259384</t>
+  </si>
+  <si>
+    <t>95798899</t>
+  </si>
+  <si>
+    <t>08/01/2026</t>
+  </si>
+  <si>
+    <t>08/01/2026 13:00</t>
+  </si>
+  <si>
+    <t>08/01/2026 14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCO MADDALONI </t>
+  </si>
+  <si>
+    <t>CRR001042383478</t>
+  </si>
+  <si>
+    <t>0931594203</t>
+  </si>
+  <si>
+    <t>08/01/2026 00:00</t>
+  </si>
+  <si>
+    <t>08/01/2026 12:38</t>
+  </si>
+  <si>
+    <t>08/01/2026 03:16</t>
+  </si>
+  <si>
+    <t>HD - Mancata connessione</t>
+  </si>
+  <si>
+    <t>05/01/2026 11:02</t>
+  </si>
+  <si>
+    <t>Eseguita riparazione al permutatore, Montante 10 Livello 7 porta RTG 65/81, Adsl 502 E 27/28 Codice Collaudo: tk202601050071201951</t>
+  </si>
+  <si>
+    <t>TT1005259806</t>
+  </si>
+  <si>
+    <t>95802418</t>
+  </si>
+  <si>
+    <t>07/01/2026</t>
+  </si>
+  <si>
+    <t>07/01/2026 11:00</t>
+  </si>
+  <si>
+    <t>07/01/2026 11:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEBASTIANO ALOTA </t>
+  </si>
+  <si>
+    <t>CRV001042342178</t>
+  </si>
+  <si>
+    <t>0931453029</t>
+  </si>
+  <si>
+    <t>12/01/2026 02:14</t>
+  </si>
+  <si>
+    <t>07/01/2026 11:06</t>
+  </si>
+  <si>
+    <t>05/01/2026 12:10</t>
+  </si>
+  <si>
+    <t>Riparato al box Codice collaudo: tk202601050071205460</t>
+  </si>
+  <si>
+    <t>TT1005261722</t>
+  </si>
+  <si>
+    <t>95818814</t>
+  </si>
+  <si>
+    <t>08/01/2026 13:30</t>
+  </si>
+  <si>
+    <t>09/01/2026 03:40</t>
+  </si>
+  <si>
+    <t>08/01/2026 15:14</t>
+  </si>
+  <si>
+    <t>05/01/2026 17:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box eseguita prova telefonica Codice collaudo: tk202601050071221844 </t>
+  </si>
+  <si>
+    <t>TT1005263198</t>
+  </si>
+  <si>
+    <t>95826202</t>
+  </si>
+  <si>
+    <t>07/01/2026 16:00</t>
+  </si>
+  <si>
+    <t>07/01/2026 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026010507242076 </t>
+  </si>
+  <si>
+    <t>SWADW6042168614</t>
+  </si>
+  <si>
+    <t>093114726133</t>
+  </si>
+  <si>
+    <t>07/01/2026 04:29</t>
+  </si>
+  <si>
+    <t>07/01/2026 16:54</t>
+  </si>
+  <si>
+    <t>06/01/2026 10:46</t>
+  </si>
+  <si>
+    <t>06/01/2026 12:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box eseguita prova telefonica Codice collaudo tk202601060071229231 </t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:S182V44005261**</t>
+  </si>
+  <si>
+    <t>TT1005264182</t>
+  </si>
+  <si>
+    <t>95833153</t>
+  </si>
+  <si>
+    <t>07/01/2026 15:00</t>
+  </si>
+  <si>
+    <t>07/01/2026 15:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026010206895028 </t>
+  </si>
+  <si>
+    <t>SWADW6042160046</t>
+  </si>
+  <si>
+    <t>093114751401</t>
+  </si>
+  <si>
+    <t>12/01/2026 22:32</t>
+  </si>
+  <si>
+    <t>07/01/2026 14:58</t>
+  </si>
+  <si>
+    <t>07/01/2026 08:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sostituita secondaria zona 9.26 box 9 vecchia coppia 5 nuova 1 testato con l'utente codice collaudo tk202601070071236181 </t>
+  </si>
+  <si>
+    <t>TT1005265778</t>
+  </si>
+  <si>
+    <t>95849660</t>
+  </si>
+  <si>
+    <t>07/01/2026 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026010707570725 </t>
+  </si>
+  <si>
+    <t>SWADW6042180555</t>
+  </si>
+  <si>
+    <t>08/01/2026 12:37</t>
+  </si>
+  <si>
+    <t>07/01/2026 16:58</t>
+  </si>
+  <si>
+    <t>07/01/2026 13:00</t>
+  </si>
+  <si>
+    <t>Sostituita prima presa Codice collaudo: tk202601070071252664</t>
+  </si>
+  <si>
+    <t>ERRATA PERMUTA **CPE_SN:S172V33001527**</t>
+  </si>
+  <si>
+    <t>TT1005267758</t>
+  </si>
+  <si>
+    <t>95865780</t>
+  </si>
+  <si>
+    <t>08/01/2026 16:30</t>
+  </si>
+  <si>
+    <t>08/01/2026 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026010707632229 </t>
+  </si>
+  <si>
+    <t>SWADW6042183241</t>
+  </si>
+  <si>
+    <t>093114729148</t>
+  </si>
+  <si>
+    <t>09/01/2026 00:50</t>
+  </si>
+  <si>
+    <t>08/01/2026 15:55</t>
+  </si>
+  <si>
+    <t>07/01/2026 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eseguito reset porta. Ok test cliente. Collaudo tk202601070071268761  </t>
+  </si>
+  <si>
+    <t>TT1005268985</t>
+  </si>
+  <si>
+    <t>95871445</t>
+  </si>
+  <si>
+    <t>08/01/2026 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025122806194213 </t>
+  </si>
+  <si>
+    <t>SWADW5042142556</t>
+  </si>
+  <si>
+    <t>093114731090</t>
+  </si>
+  <si>
+    <t>12/01/2026 06:31</t>
+  </si>
+  <si>
+    <t>08/01/2026 16:36</t>
+  </si>
+  <si>
+    <t>04/01/2026 07:06</t>
+  </si>
+  <si>
+    <t>08/01/2026 06:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato in armadio . Codice collaudo: tk202601080071274424 PIN 319 Certificato con Tommaso La Torre . </t>
+  </si>
+  <si>
+    <t>TT1005268989</t>
+  </si>
+  <si>
+    <t>95871456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025122906270773 </t>
+  </si>
+  <si>
+    <t>SWADW5042144289</t>
+  </si>
+  <si>
+    <t>093114741924</t>
+  </si>
+  <si>
+    <t>13/01/2026 03:52</t>
+  </si>
+  <si>
+    <t>08/01/2026 17:19</t>
+  </si>
+  <si>
+    <t>04/01/2026 07:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box , rifatti puntali . Codice collaudo: tk202601080071274435 pin940 </t>
+  </si>
+  <si>
+    <t>TT1005270539</t>
+  </si>
+  <si>
+    <t>95887257</t>
+  </si>
+  <si>
+    <t>09/01/2026</t>
+  </si>
+  <si>
+    <t>09/01/2026 16:30</t>
+  </si>
+  <si>
+    <t>09/01/2026 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026010407181038 </t>
+  </si>
+  <si>
+    <t>SWADW6042167366</t>
+  </si>
+  <si>
+    <t>093114757210</t>
+  </si>
+  <si>
+    <t>11/01/2026 18:47</t>
+  </si>
+  <si>
+    <t>09/01/2026 16:31</t>
+  </si>
+  <si>
+    <t>05/01/2026 21:00</t>
+  </si>
+  <si>
+    <t>08/01/2026 13:06</t>
+  </si>
+  <si>
+    <t>Riparato in armadio . Certificato con Teresa PIN: 4726 Codice collaudo: tk202601080071290220</t>
+  </si>
+  <si>
+    <t>TT1005261098</t>
+  </si>
+  <si>
+    <t>95812938</t>
+  </si>
+  <si>
+    <t>05/01/2026 16:30</t>
+  </si>
+  <si>
+    <t>05/01/2026 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIUSEPPE CATAUDELLA </t>
+  </si>
+  <si>
+    <t>CRH001042587092</t>
+  </si>
+  <si>
+    <t>0931832559</t>
+  </si>
+  <si>
+    <t>07/01/2026 23:59</t>
+  </si>
+  <si>
+    <t>05/01/2026 17:20</t>
+  </si>
+  <si>
+    <t>05/01/2026 15:40</t>
+  </si>
+  <si>
+    <t>95682478</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202601050071215977 eseguito reset manuale ont segnale ottico servizi ok provato con il cliente</t>
   </si>
 </sst>
 </file>
@@ -10080,10 +10509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP269"/>
+  <dimension ref="A1:CP304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="S269" sqref="S269"/>
+    <sheetView tabSelected="1" topLeftCell="S252" workbookViewId="0">
+      <selection activeCell="V267" sqref="V267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -81379,13 +81808,13 @@
     </row>
     <row r="252" spans="1:94">
       <c r="A252" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B252" t="s">
         <v>3140</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C252" t="s">
         <v>3141</v>
-      </c>
-      <c r="C252" t="s">
-        <v>3142</v>
       </c>
       <c r="D252" t="s">
         <v>230</v>
@@ -81421,13 +81850,13 @@
         <v>104</v>
       </c>
       <c r="O252" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="P252" t="s">
         <v>108</v>
       </c>
       <c r="Q252" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="R252" t="s">
         <v>110</v>
@@ -81439,7 +81868,7 @@
         <v>236</v>
       </c>
       <c r="U252" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="V252" t="s">
         <v>104</v>
@@ -81496,19 +81925,19 @@
         <v>108</v>
       </c>
       <c r="AN252" t="s">
+        <v>3145</v>
+      </c>
+      <c r="AO252" t="s">
         <v>3146</v>
       </c>
-      <c r="AO252" t="s">
+      <c r="AP252" t="s">
         <v>3147</v>
       </c>
-      <c r="AP252" t="s">
+      <c r="AQ252" t="s">
         <v>3148</v>
       </c>
-      <c r="AQ252" t="s">
-        <v>3149</v>
-      </c>
       <c r="AR252" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="AS252" t="s">
         <v>282</v>
@@ -81547,7 +81976,7 @@
         <v>104</v>
       </c>
       <c r="BE252" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="BF252" t="s">
         <v>102</v>
@@ -81559,7 +81988,7 @@
         <v>104</v>
       </c>
       <c r="BI252" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="BJ252" t="s">
         <v>110</v>
@@ -81619,7 +82048,7 @@
         <v>104</v>
       </c>
       <c r="CC252" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="CD252" t="s">
         <v>99</v>
@@ -81947,13 +82376,13 @@
     </row>
     <row r="254" spans="1:94">
       <c r="A254" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B254" t="s">
         <v>3153</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C254" t="s">
         <v>3154</v>
-      </c>
-      <c r="C254" t="s">
-        <v>3155</v>
       </c>
       <c r="D254" t="s">
         <v>796</v>
@@ -81989,13 +82418,13 @@
         <v>104</v>
       </c>
       <c r="O254" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="P254" t="s">
         <v>102</v>
       </c>
       <c r="Q254" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="R254" t="s">
         <v>110</v>
@@ -82007,7 +82436,7 @@
         <v>360</v>
       </c>
       <c r="U254" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="V254" t="s">
         <v>104</v>
@@ -82064,19 +82493,19 @@
         <v>108</v>
       </c>
       <c r="AN254" t="s">
+        <v>3158</v>
+      </c>
+      <c r="AO254" t="s">
         <v>3159</v>
       </c>
-      <c r="AO254" t="s">
+      <c r="AP254" t="s">
         <v>3160</v>
       </c>
-      <c r="AP254" t="s">
+      <c r="AQ254" t="s">
         <v>3161</v>
       </c>
-      <c r="AQ254" t="s">
-        <v>3162</v>
-      </c>
       <c r="AR254" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="AS254" t="s">
         <v>577</v>
@@ -82115,7 +82544,7 @@
         <v>104</v>
       </c>
       <c r="BE254" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="BF254" t="s">
         <v>230</v>
@@ -82187,7 +82616,7 @@
         <v>104</v>
       </c>
       <c r="CC254" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="CD254" t="s">
         <v>98</v>
@@ -82231,13 +82660,13 @@
     </row>
     <row r="255" spans="1:94">
       <c r="A255" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B255" t="s">
         <v>3165</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
         <v>3166</v>
-      </c>
-      <c r="C255" t="s">
-        <v>3167</v>
       </c>
       <c r="D255" t="s">
         <v>796</v>
@@ -82273,13 +82702,13 @@
         <v>104</v>
       </c>
       <c r="O255" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="P255" t="s">
         <v>108</v>
       </c>
       <c r="Q255" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="R255" t="s">
         <v>110</v>
@@ -82291,7 +82720,7 @@
         <v>537</v>
       </c>
       <c r="U255" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="V255" t="s">
         <v>104</v>
@@ -82348,16 +82777,16 @@
         <v>108</v>
       </c>
       <c r="AN255" t="s">
+        <v>3170</v>
+      </c>
+      <c r="AO255" t="s">
         <v>3171</v>
       </c>
-      <c r="AO255" t="s">
+      <c r="AP255" t="s">
         <v>3172</v>
       </c>
-      <c r="AP255" t="s">
+      <c r="AQ255" t="s">
         <v>3173</v>
-      </c>
-      <c r="AQ255" t="s">
-        <v>3174</v>
       </c>
       <c r="AR255" t="s">
         <v>104</v>
@@ -82378,7 +82807,7 @@
         <v>217</v>
       </c>
       <c r="AX255" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="AY255" t="s">
         <v>104</v>
@@ -82399,7 +82828,7 @@
         <v>221</v>
       </c>
       <c r="BE255" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="BF255" t="s">
         <v>97</v>
@@ -82471,7 +82900,7 @@
         <v>104</v>
       </c>
       <c r="CC255" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="CD255" t="s">
         <v>99</v>
@@ -82495,7 +82924,7 @@
         <v>114</v>
       </c>
       <c r="CK255" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="CL255" t="s">
         <v>104</v>
@@ -82504,7 +82933,7 @@
         <v>104</v>
       </c>
       <c r="CN255" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="CO255" t="s">
         <v>104</v>
@@ -82515,13 +82944,13 @@
     </row>
     <row r="256" spans="1:94">
       <c r="A256" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B256" t="s">
         <v>3179</v>
       </c>
-      <c r="B256" t="s">
+      <c r="C256" t="s">
         <v>3180</v>
-      </c>
-      <c r="C256" t="s">
-        <v>3181</v>
       </c>
       <c r="D256" t="s">
         <v>796</v>
@@ -82557,13 +82986,13 @@
         <v>104</v>
       </c>
       <c r="O256" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="P256" t="s">
         <v>108</v>
       </c>
       <c r="Q256" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="R256" t="s">
         <v>110</v>
@@ -82575,7 +83004,7 @@
         <v>262</v>
       </c>
       <c r="U256" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="V256" t="s">
         <v>104</v>
@@ -82632,19 +83061,19 @@
         <v>108</v>
       </c>
       <c r="AN256" t="s">
+        <v>3184</v>
+      </c>
+      <c r="AO256" t="s">
         <v>3185</v>
       </c>
-      <c r="AO256" t="s">
+      <c r="AP256" t="s">
         <v>3186</v>
       </c>
-      <c r="AP256" t="s">
+      <c r="AQ256" t="s">
         <v>3187</v>
       </c>
-      <c r="AQ256" t="s">
-        <v>3188</v>
-      </c>
       <c r="AR256" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="AS256" t="s">
         <v>889</v>
@@ -82683,7 +83112,7 @@
         <v>129</v>
       </c>
       <c r="BE256" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="BF256" t="s">
         <v>97</v>
@@ -82755,7 +83184,7 @@
         <v>104</v>
       </c>
       <c r="CC256" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="CD256" t="s">
         <v>99</v>
@@ -82799,13 +83228,13 @@
     </row>
     <row r="257" spans="1:94">
       <c r="A257" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B257" t="s">
         <v>3191</v>
       </c>
-      <c r="B257" t="s">
-        <v>3192</v>
-      </c>
       <c r="C257" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="D257" t="s">
         <v>97</v>
@@ -82841,13 +83270,13 @@
         <v>104</v>
       </c>
       <c r="O257" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="P257" t="s">
         <v>102</v>
       </c>
       <c r="Q257" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="R257" t="s">
         <v>110</v>
@@ -82859,7 +83288,7 @@
         <v>236</v>
       </c>
       <c r="U257" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="V257" t="s">
         <v>104</v>
@@ -82916,16 +83345,16 @@
         <v>108</v>
       </c>
       <c r="AN257" t="s">
+        <v>3195</v>
+      </c>
+      <c r="AO257" t="s">
         <v>3196</v>
       </c>
-      <c r="AO257" t="s">
+      <c r="AP257" t="s">
         <v>3197</v>
       </c>
-      <c r="AP257" t="s">
+      <c r="AQ257" t="s">
         <v>3198</v>
-      </c>
-      <c r="AQ257" t="s">
-        <v>3199</v>
       </c>
       <c r="AR257" t="s">
         <v>104</v>
@@ -82946,7 +83375,7 @@
         <v>125</v>
       </c>
       <c r="AX257" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="AY257" t="s">
         <v>104</v>
@@ -82967,7 +83396,7 @@
         <v>221</v>
       </c>
       <c r="BE257" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="BF257" t="s">
         <v>469</v>
@@ -83039,7 +83468,7 @@
         <v>104</v>
       </c>
       <c r="CC257" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="CD257" t="s">
         <v>98</v>
@@ -83367,13 +83796,13 @@
     </row>
     <row r="259" spans="1:94">
       <c r="A259" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B259" t="s">
         <v>3203</v>
       </c>
-      <c r="B259" t="s">
-        <v>3204</v>
-      </c>
       <c r="C259" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="D259" t="s">
         <v>102</v>
@@ -83409,13 +83838,13 @@
         <v>104</v>
       </c>
       <c r="O259" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="P259" t="s">
         <v>108</v>
       </c>
       <c r="Q259" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="R259" t="s">
         <v>110</v>
@@ -83427,7 +83856,7 @@
         <v>360</v>
       </c>
       <c r="U259" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="V259" t="s">
         <v>104</v>
@@ -83484,19 +83913,19 @@
         <v>108</v>
       </c>
       <c r="AN259" t="s">
+        <v>3206</v>
+      </c>
+      <c r="AO259" t="s">
+        <v>3146</v>
+      </c>
+      <c r="AP259" t="s">
         <v>3207</v>
       </c>
-      <c r="AO259" t="s">
-        <v>3147</v>
-      </c>
-      <c r="AP259" t="s">
+      <c r="AQ259" t="s">
         <v>3208</v>
       </c>
-      <c r="AQ259" t="s">
-        <v>3209</v>
-      </c>
       <c r="AR259" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="AS259" t="s">
         <v>282</v>
@@ -83535,7 +83964,7 @@
         <v>104</v>
       </c>
       <c r="BE259" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="BF259" t="s">
         <v>104</v>
@@ -83547,7 +83976,7 @@
         <v>104</v>
       </c>
       <c r="BI259" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="BJ259" t="s">
         <v>110</v>
@@ -83607,7 +84036,7 @@
         <v>104</v>
       </c>
       <c r="CC259" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="CD259" t="s">
         <v>99</v>
@@ -83651,13 +84080,13 @@
     </row>
     <row r="260" spans="1:94">
       <c r="A260" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B260" t="s">
         <v>3212</v>
       </c>
-      <c r="B260" t="s">
-        <v>3213</v>
-      </c>
       <c r="C260" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="D260" t="s">
         <v>796</v>
@@ -83693,13 +84122,13 @@
         <v>104</v>
       </c>
       <c r="O260" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="P260" t="s">
         <v>320</v>
       </c>
       <c r="Q260" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="R260" t="s">
         <v>110</v>
@@ -83708,10 +84137,10 @@
         <v>536</v>
       </c>
       <c r="T260" s="2" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
       <c r="U260" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="V260" t="s">
         <v>104</v>
@@ -83768,19 +84197,19 @@
         <v>108</v>
       </c>
       <c r="AN260" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="AO260">
         <v>93114760401</v>
       </c>
       <c r="AP260" t="s">
+        <v>3217</v>
+      </c>
+      <c r="AQ260" t="s">
         <v>3218</v>
       </c>
-      <c r="AQ260" t="s">
+      <c r="AR260" t="s">
         <v>3219</v>
-      </c>
-      <c r="AR260" t="s">
-        <v>3220</v>
       </c>
       <c r="AS260" t="s">
         <v>331</v>
@@ -83819,19 +84248,19 @@
         <v>693</v>
       </c>
       <c r="BE260" t="s">
+        <v>3220</v>
+      </c>
+      <c r="BF260" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG260" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH260" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI260" t="s">
         <v>3221</v>
-      </c>
-      <c r="BF260" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG260" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH260" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI260" t="s">
-        <v>3222</v>
       </c>
       <c r="BJ260" t="s">
         <v>110</v>
@@ -83891,7 +84320,7 @@
         <v>104</v>
       </c>
       <c r="CC260" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="CD260" t="s">
         <v>99</v>
@@ -83935,13 +84364,13 @@
     </row>
     <row r="261" spans="1:94">
       <c r="A261" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B261" t="s">
         <v>3223</v>
       </c>
-      <c r="B261" t="s">
-        <v>3224</v>
-      </c>
       <c r="C261" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="D261" t="s">
         <v>97</v>
@@ -83977,13 +84406,13 @@
         <v>104</v>
       </c>
       <c r="O261" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="P261" t="s">
         <v>108</v>
       </c>
       <c r="Q261" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="R261" t="s">
         <v>110</v>
@@ -83995,7 +84424,7 @@
         <v>427</v>
       </c>
       <c r="U261" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="V261" t="s">
         <v>104</v>
@@ -84052,19 +84481,19 @@
         <v>108</v>
       </c>
       <c r="AN261" t="s">
+        <v>3225</v>
+      </c>
+      <c r="AO261" t="s">
         <v>3226</v>
       </c>
-      <c r="AO261" t="s">
+      <c r="AP261" t="s">
         <v>3227</v>
       </c>
-      <c r="AP261" t="s">
+      <c r="AQ261" t="s">
         <v>3228</v>
       </c>
-      <c r="AQ261" t="s">
-        <v>3229</v>
-      </c>
       <c r="AR261" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="AS261" t="s">
         <v>150</v>
@@ -84103,19 +84532,19 @@
         <v>104</v>
       </c>
       <c r="BE261" t="s">
+        <v>3229</v>
+      </c>
+      <c r="BF261" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG261" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH261" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI261" t="s">
         <v>3230</v>
-      </c>
-      <c r="BF261" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG261" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH261" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI261" t="s">
-        <v>3231</v>
       </c>
       <c r="BJ261" t="s">
         <v>110</v>
@@ -84175,7 +84604,7 @@
         <v>104</v>
       </c>
       <c r="CC261" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="CD261" t="s">
         <v>99</v>
@@ -84214,12 +84643,3704 @@
         <v>104</v>
       </c>
       <c r="CP261" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="262" spans="1:94">
+      <c r="A262" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B262" t="s">
+        <v>3235</v>
+      </c>
+      <c r="C262" t="s">
+        <v>3236</v>
+      </c>
+      <c r="D262" t="s">
+        <v>97</v>
+      </c>
+      <c r="E262" t="s">
+        <v>98</v>
+      </c>
+      <c r="F262" t="s">
+        <v>99</v>
+      </c>
+      <c r="G262" t="s">
+        <v>569</v>
+      </c>
+      <c r="H262" t="s">
+        <v>101</v>
+      </c>
+      <c r="I262" t="s">
+        <v>114</v>
+      </c>
+      <c r="J262" t="s">
+        <v>259</v>
+      </c>
+      <c r="K262" t="s">
+        <v>104</v>
+      </c>
+      <c r="L262" t="s">
+        <v>105</v>
+      </c>
+      <c r="M262" t="s">
+        <v>106</v>
+      </c>
+      <c r="N262" t="s">
+        <v>104</v>
+      </c>
+      <c r="O262" t="s">
+        <v>3237</v>
+      </c>
+      <c r="P262" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>3238</v>
+      </c>
+      <c r="R262" t="s">
+        <v>110</v>
+      </c>
+      <c r="S262" t="s">
+        <v>375</v>
+      </c>
+      <c r="T262" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U262" t="s">
+        <v>3157</v>
+      </c>
+      <c r="V262" t="s">
+        <v>104</v>
+      </c>
+      <c r="W262" t="s">
+        <v>114</v>
+      </c>
+      <c r="X262" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y262" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z262" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA262" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB262" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC262" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD262" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE262" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF262" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG262" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH262" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI262" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ262" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK262" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL262" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM262" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN262" t="s">
+        <v>3239</v>
+      </c>
+      <c r="AO262" t="s">
+        <v>3159</v>
+      </c>
+      <c r="AP262" t="s">
+        <v>3240</v>
+      </c>
+      <c r="AQ262" t="s">
+        <v>3241</v>
+      </c>
+      <c r="AR262" t="s">
+        <v>3240</v>
+      </c>
+      <c r="AS262" t="s">
+        <v>577</v>
+      </c>
+      <c r="AT262" t="s">
+        <v>569</v>
+      </c>
+      <c r="AU262" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV262" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW262" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX262" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY262" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ262" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA262" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB262" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC262" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD262" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE262" t="s">
+        <v>3242</v>
+      </c>
+      <c r="BF262" t="s">
+        <v>796</v>
+      </c>
+      <c r="BG262" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH262" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI262" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ262" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK262" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL262" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM262" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN262" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO262" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP262" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ262" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR262" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS262" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT262" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU262" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV262" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW262" t="s">
+        <v>386</v>
+      </c>
+      <c r="BX262" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY262" t="s">
+        <v>1178</v>
+      </c>
+      <c r="BZ262" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA262" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB262" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC262" t="s">
+        <v>3243</v>
+      </c>
+      <c r="CD262" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE262" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF262" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG262" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH262" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI262" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ262" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK262" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL262" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM262" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN262" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO262" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP262" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="263" spans="1:94">
+      <c r="A263" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B263" t="s">
+        <v>3245</v>
+      </c>
+      <c r="C263" t="s">
+        <v>3236</v>
+      </c>
+      <c r="D263" t="s">
+        <v>469</v>
+      </c>
+      <c r="E263" t="s">
+        <v>98</v>
+      </c>
+      <c r="F263" t="s">
+        <v>99</v>
+      </c>
+      <c r="G263" t="s">
+        <v>424</v>
+      </c>
+      <c r="H263" t="s">
+        <v>101</v>
+      </c>
+      <c r="I263" t="s">
+        <v>114</v>
+      </c>
+      <c r="J263" t="s">
+        <v>103</v>
+      </c>
+      <c r="K263" t="s">
+        <v>104</v>
+      </c>
+      <c r="L263" t="s">
+        <v>105</v>
+      </c>
+      <c r="M263" t="s">
+        <v>106</v>
+      </c>
+      <c r="N263" t="s">
+        <v>104</v>
+      </c>
+      <c r="O263" t="s">
+        <v>3237</v>
+      </c>
+      <c r="P263" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>3238</v>
+      </c>
+      <c r="R263" t="s">
+        <v>110</v>
+      </c>
+      <c r="S263" t="s">
+        <v>179</v>
+      </c>
+      <c r="T263" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U263" t="s">
+        <v>3246</v>
+      </c>
+      <c r="V263" t="s">
+        <v>104</v>
+      </c>
+      <c r="W263" t="s">
+        <v>114</v>
+      </c>
+      <c r="X263" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y263" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z263" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA263" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB263" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC263" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD263" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE263" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF263" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG263" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH263" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI263" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ263" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK263" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL263" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM263" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN263" t="s">
+        <v>3247</v>
+      </c>
+      <c r="AO263" t="s">
+        <v>3248</v>
+      </c>
+      <c r="AP263" t="s">
+        <v>3249</v>
+      </c>
+      <c r="AQ263" t="s">
+        <v>3250</v>
+      </c>
+      <c r="AR263" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS263" t="s">
+        <v>433</v>
+      </c>
+      <c r="AT263" t="s">
+        <v>424</v>
+      </c>
+      <c r="AU263" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV263" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW263" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX263" t="s">
+        <v>3251</v>
+      </c>
+      <c r="AY263" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ263" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA263" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB263" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC263" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD263" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE263" t="s">
+        <v>3252</v>
+      </c>
+      <c r="BF263" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG263" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH263" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI263" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ263" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK263" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL263" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM263" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN263" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO263" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP263" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ263" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR263" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS263" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT263" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU263" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV263" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW263" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX263" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY263" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ263" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA263" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB263" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC263" t="s">
+        <v>3253</v>
+      </c>
+      <c r="CD263" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE263" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF263" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG263" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH263" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI263" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ263" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK263" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL263" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM263" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN263" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO263" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP263" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="264" spans="1:94">
+      <c r="A264" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B264" t="s">
+        <v>3255</v>
+      </c>
+      <c r="C264" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D264" t="s">
+        <v>97</v>
+      </c>
+      <c r="E264" t="s">
+        <v>98</v>
+      </c>
+      <c r="F264" t="s">
+        <v>99</v>
+      </c>
+      <c r="G264" t="s">
+        <v>139</v>
+      </c>
+      <c r="H264" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I264" t="s">
+        <v>114</v>
+      </c>
+      <c r="J264" t="s">
+        <v>259</v>
+      </c>
+      <c r="K264" t="s">
+        <v>104</v>
+      </c>
+      <c r="L264" t="s">
+        <v>105</v>
+      </c>
+      <c r="M264" t="s">
+        <v>106</v>
+      </c>
+      <c r="N264" t="s">
+        <v>104</v>
+      </c>
+      <c r="O264" t="s">
+        <v>3257</v>
+      </c>
+      <c r="P264" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q264" t="s">
+        <v>3258</v>
+      </c>
+      <c r="R264" t="s">
+        <v>110</v>
+      </c>
+      <c r="S264" t="s">
+        <v>111</v>
+      </c>
+      <c r="T264" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U264" t="s">
+        <v>3259</v>
+      </c>
+      <c r="V264" t="s">
+        <v>104</v>
+      </c>
+      <c r="W264" t="s">
+        <v>114</v>
+      </c>
+      <c r="X264" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y264" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z264" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA264" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB264" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC264" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD264" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE264" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF264" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG264" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH264" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI264" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ264" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK264" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL264" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM264" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN264" t="s">
+        <v>3260</v>
+      </c>
+      <c r="AO264" t="s">
+        <v>3261</v>
+      </c>
+      <c r="AP264" t="s">
+        <v>3262</v>
+      </c>
+      <c r="AQ264" t="s">
+        <v>3263</v>
+      </c>
+      <c r="AR264" t="s">
+        <v>3264</v>
+      </c>
+      <c r="AS264" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT264" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU264" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV264" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW264" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX264" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY264" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ264" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA264" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB264" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC264" t="s">
+        <v>3265</v>
+      </c>
+      <c r="BD264" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE264" t="s">
+        <v>3266</v>
+      </c>
+      <c r="BF264" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG264" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH264" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI264" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ264" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK264" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL264" t="s">
+        <v>317</v>
+      </c>
+      <c r="BM264" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN264" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO264" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP264" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ264" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR264" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS264" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT264" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU264" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV264" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW264" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX264" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY264" t="s">
+        <v>935</v>
+      </c>
+      <c r="BZ264" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA264" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB264" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC264" t="s">
+        <v>3267</v>
+      </c>
+      <c r="CD264" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE264" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF264" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG264" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH264" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI264" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ264" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK264" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL264" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM264" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN264" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO264" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP264" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="265" spans="1:94">
+      <c r="A265" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B265" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C265" t="s">
+        <v>3270</v>
+      </c>
+      <c r="D265" t="s">
+        <v>97</v>
+      </c>
+      <c r="E265" t="s">
+        <v>98</v>
+      </c>
+      <c r="F265" t="s">
+        <v>99</v>
+      </c>
+      <c r="G265" t="s">
+        <v>470</v>
+      </c>
+      <c r="H265" t="s">
+        <v>206</v>
+      </c>
+      <c r="I265" t="s">
+        <v>114</v>
+      </c>
+      <c r="J265" t="s">
+        <v>259</v>
+      </c>
+      <c r="K265" t="s">
+        <v>104</v>
+      </c>
+      <c r="L265" t="s">
+        <v>105</v>
+      </c>
+      <c r="M265" t="s">
+        <v>106</v>
+      </c>
+      <c r="N265" t="s">
+        <v>104</v>
+      </c>
+      <c r="O265" t="s">
+        <v>3271</v>
+      </c>
+      <c r="P265" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q265" t="s">
+        <v>3272</v>
+      </c>
+      <c r="R265" t="s">
+        <v>110</v>
+      </c>
+      <c r="S265" t="s">
+        <v>179</v>
+      </c>
+      <c r="T265" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U265" t="s">
+        <v>3273</v>
+      </c>
+      <c r="V265" t="s">
+        <v>104</v>
+      </c>
+      <c r="W265" t="s">
+        <v>114</v>
+      </c>
+      <c r="X265" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y265" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z265" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA265" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB265" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC265" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD265" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE265" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF265" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG265" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH265" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI265" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ265" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK265" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL265" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM265" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN265" t="s">
+        <v>3274</v>
+      </c>
+      <c r="AO265" t="s">
+        <v>3275</v>
+      </c>
+      <c r="AP265" t="s">
+        <v>3276</v>
+      </c>
+      <c r="AQ265" t="s">
+        <v>3277</v>
+      </c>
+      <c r="AR265" t="s">
+        <v>3276</v>
+      </c>
+      <c r="AS265" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT265" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU265" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV265" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW265" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX265" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY265" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ265" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA265" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB265" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC265" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD265" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE265" t="s">
+        <v>3278</v>
+      </c>
+      <c r="BF265" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG265" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH265" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI265" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ265" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK265" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL265" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM265" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN265" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO265" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP265" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ265" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR265" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS265" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT265" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU265" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV265" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW265" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX265" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY265" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ265" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA265" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB265" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC265" t="s">
+        <v>3279</v>
+      </c>
+      <c r="CD265" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE265" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF265" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG265" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH265" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI265" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ265" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK265" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL265" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM265" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN265" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO265" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP265" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="266" spans="1:94">
+      <c r="A266" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B266" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C266" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D266" t="s">
+        <v>97</v>
+      </c>
+      <c r="E266" t="s">
+        <v>98</v>
+      </c>
+      <c r="F266" t="s">
+        <v>99</v>
+      </c>
+      <c r="G266" t="s">
+        <v>569</v>
+      </c>
+      <c r="H266" t="s">
+        <v>101</v>
+      </c>
+      <c r="I266" t="s">
+        <v>114</v>
+      </c>
+      <c r="J266" t="s">
+        <v>259</v>
+      </c>
+      <c r="K266" t="s">
+        <v>104</v>
+      </c>
+      <c r="L266" t="s">
+        <v>105</v>
+      </c>
+      <c r="M266" t="s">
+        <v>106</v>
+      </c>
+      <c r="N266" t="s">
+        <v>104</v>
+      </c>
+      <c r="O266" t="s">
+        <v>3282</v>
+      </c>
+      <c r="P266" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>3258</v>
+      </c>
+      <c r="R266" t="s">
+        <v>110</v>
+      </c>
+      <c r="S266" t="s">
+        <v>375</v>
+      </c>
+      <c r="T266" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U266" t="s">
+        <v>3157</v>
+      </c>
+      <c r="V266" t="s">
+        <v>104</v>
+      </c>
+      <c r="W266" t="s">
+        <v>114</v>
+      </c>
+      <c r="X266" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y266" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z266" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA266" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB266" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC266" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD266" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE266" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF266" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG266" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH266" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI266" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ266" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK266" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL266" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM266" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN266" t="s">
+        <v>3239</v>
+      </c>
+      <c r="AO266" t="s">
+        <v>3159</v>
+      </c>
+      <c r="AP266" t="s">
+        <v>3283</v>
+      </c>
+      <c r="AQ266" t="s">
+        <v>3284</v>
+      </c>
+      <c r="AR266" t="s">
+        <v>3283</v>
+      </c>
+      <c r="AS266" t="s">
+        <v>577</v>
+      </c>
+      <c r="AT266" t="s">
+        <v>569</v>
+      </c>
+      <c r="AU266" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV266" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW266" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX266" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY266" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ266" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA266" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB266" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC266" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD266" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE266" t="s">
+        <v>3285</v>
+      </c>
+      <c r="BF266" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG266" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH266" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI266" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ266" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK266" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL266" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM266" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN266" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO266" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP266" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ266" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR266" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS266" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT266" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU266" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV266" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW266" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX266" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY266" t="s">
+        <v>1178</v>
+      </c>
+      <c r="BZ266" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA266" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB266" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC266" t="s">
+        <v>3286</v>
+      </c>
+      <c r="CD266" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE266" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF266" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG266" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH266" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI266" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ266" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK266" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL266" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM266" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN266" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO266" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP266" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="267" spans="1:94">
+      <c r="A267" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B267" t="s">
+        <v>3288</v>
+      </c>
+      <c r="C267" t="s">
+        <v>3270</v>
+      </c>
+      <c r="D267" t="s">
+        <v>97</v>
+      </c>
+      <c r="E267" t="s">
+        <v>98</v>
+      </c>
+      <c r="F267" t="s">
+        <v>99</v>
+      </c>
+      <c r="G267" t="s">
+        <v>139</v>
+      </c>
+      <c r="H267" t="s">
+        <v>101</v>
+      </c>
+      <c r="I267" t="s">
+        <v>102</v>
+      </c>
+      <c r="J267" t="s">
+        <v>103</v>
+      </c>
+      <c r="K267" t="s">
+        <v>104</v>
+      </c>
+      <c r="L267" t="s">
+        <v>105</v>
+      </c>
+      <c r="M267" t="s">
+        <v>106</v>
+      </c>
+      <c r="N267" t="s">
+        <v>104</v>
+      </c>
+      <c r="O267" t="s">
+        <v>3289</v>
+      </c>
+      <c r="P267" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>3290</v>
+      </c>
+      <c r="R267" t="s">
+        <v>110</v>
+      </c>
+      <c r="S267" t="s">
+        <v>111</v>
+      </c>
+      <c r="T267" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U267" t="s">
+        <v>3291</v>
+      </c>
+      <c r="V267" t="s">
+        <v>104</v>
+      </c>
+      <c r="W267" t="s">
+        <v>114</v>
+      </c>
+      <c r="X267" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y267" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z267" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA267" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB267" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC267" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD267" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE267" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF267" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG267" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH267" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI267" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ267" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK267" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL267" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM267" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN267" t="s">
+        <v>3292</v>
+      </c>
+      <c r="AO267" t="s">
+        <v>3293</v>
+      </c>
+      <c r="AP267" t="s">
+        <v>3294</v>
+      </c>
+      <c r="AQ267" t="s">
+        <v>3295</v>
+      </c>
+      <c r="AR267" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS267" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT267" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU267" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV267" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW267" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX267" t="s">
+        <v>3296</v>
+      </c>
+      <c r="AY267" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ267" t="s">
+        <v>2341</v>
+      </c>
+      <c r="BA267" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB267" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC267" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD267" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE267" t="s">
+        <v>3297</v>
+      </c>
+      <c r="BF267" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG267" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH267" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI267" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ267" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK267" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL267" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM267" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN267" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO267" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP267" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ267" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR267" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS267" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT267" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU267" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV267" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW267" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX267" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY267" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ267" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA267" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB267" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC267" t="s">
+        <v>3298</v>
+      </c>
+      <c r="CD267" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE267" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF267" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG267" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH267" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI267" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ267" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK267" t="s">
+        <v>3299</v>
+      </c>
+      <c r="CL267" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM267" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN267" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO267" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP267" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="268" spans="1:94">
+      <c r="A268" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B268" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C268" t="s">
+        <v>3270</v>
+      </c>
+      <c r="D268" t="s">
+        <v>230</v>
+      </c>
+      <c r="E268" t="s">
+        <v>98</v>
+      </c>
+      <c r="F268" t="s">
+        <v>99</v>
+      </c>
+      <c r="G268" t="s">
+        <v>470</v>
+      </c>
+      <c r="H268" t="s">
+        <v>206</v>
+      </c>
+      <c r="I268" t="s">
+        <v>114</v>
+      </c>
+      <c r="J268" t="s">
+        <v>259</v>
+      </c>
+      <c r="K268" t="s">
+        <v>104</v>
+      </c>
+      <c r="L268" t="s">
+        <v>105</v>
+      </c>
+      <c r="M268" t="s">
+        <v>106</v>
+      </c>
+      <c r="N268" t="s">
+        <v>104</v>
+      </c>
+      <c r="O268" t="s">
+        <v>3302</v>
+      </c>
+      <c r="P268" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>3303</v>
+      </c>
+      <c r="R268" t="s">
+        <v>110</v>
+      </c>
+      <c r="S268" t="s">
+        <v>366</v>
+      </c>
+      <c r="T268" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U268" t="s">
+        <v>3304</v>
+      </c>
+      <c r="V268" t="s">
+        <v>104</v>
+      </c>
+      <c r="W268" t="s">
+        <v>114</v>
+      </c>
+      <c r="X268" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y268" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z268" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA268" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB268" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC268" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD268" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE268" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF268" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG268" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH268" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI268" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ268" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK268" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL268" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM268" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN268" t="s">
+        <v>3305</v>
+      </c>
+      <c r="AO268" t="s">
+        <v>3306</v>
+      </c>
+      <c r="AP268" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AQ268" t="s">
+        <v>3308</v>
+      </c>
+      <c r="AR268" t="s">
+        <v>3307</v>
+      </c>
+      <c r="AS268" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT268" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU268" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV268" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW268" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX268" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY268" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ268" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA268" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB268" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC268" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD268" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE268" t="s">
+        <v>3309</v>
+      </c>
+      <c r="BF268" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG268" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH268" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI268" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ268" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK268" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL268" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM268" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN268" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO268" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP268" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ268" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR268" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS268" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT268" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU268" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV268" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW268" t="s">
+        <v>1231</v>
+      </c>
+      <c r="BX268" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY268" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ268" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA268" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB268" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC268" t="s">
+        <v>3310</v>
+      </c>
+      <c r="CD268" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE268" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF268" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG268" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH268" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI268" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ268" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK268" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL268" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM268" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN268" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO268" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP268" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="269" spans="1:94">
-      <c r="S269" s="3" t="s">
-        <v>3139</v>
+      <c r="A269" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B269" t="s">
+        <v>3312</v>
+      </c>
+      <c r="C269" t="s">
+        <v>3270</v>
+      </c>
+      <c r="D269" t="s">
+        <v>97</v>
+      </c>
+      <c r="E269" t="s">
+        <v>98</v>
+      </c>
+      <c r="F269" t="s">
+        <v>99</v>
+      </c>
+      <c r="G269" t="s">
+        <v>712</v>
+      </c>
+      <c r="H269" t="s">
+        <v>232</v>
+      </c>
+      <c r="I269" t="s">
+        <v>114</v>
+      </c>
+      <c r="J269" t="s">
+        <v>103</v>
+      </c>
+      <c r="K269" t="s">
+        <v>104</v>
+      </c>
+      <c r="L269" t="s">
+        <v>105</v>
+      </c>
+      <c r="M269" t="s">
+        <v>106</v>
+      </c>
+      <c r="N269" t="s">
+        <v>104</v>
+      </c>
+      <c r="O269" t="s">
+        <v>3290</v>
+      </c>
+      <c r="P269" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>3313</v>
+      </c>
+      <c r="R269" t="s">
+        <v>110</v>
+      </c>
+      <c r="S269" t="s">
+        <v>179</v>
+      </c>
+      <c r="T269" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U269" t="s">
+        <v>3314</v>
+      </c>
+      <c r="V269" t="s">
+        <v>104</v>
+      </c>
+      <c r="W269" t="s">
+        <v>114</v>
+      </c>
+      <c r="X269" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y269" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z269" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA269" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB269" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC269" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD269" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE269" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF269" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG269" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH269" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI269" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ269" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK269" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL269" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM269" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN269" t="s">
+        <v>3315</v>
+      </c>
+      <c r="AO269" t="s">
+        <v>3171</v>
+      </c>
+      <c r="AP269" t="s">
+        <v>3316</v>
+      </c>
+      <c r="AQ269" t="s">
+        <v>3317</v>
+      </c>
+      <c r="AR269" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS269" t="s">
+        <v>720</v>
+      </c>
+      <c r="AT269" t="s">
+        <v>712</v>
+      </c>
+      <c r="AU269" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV269" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW269" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX269" t="s">
+        <v>3257</v>
+      </c>
+      <c r="AY269" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ269" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA269" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB269" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC269" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD269" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE269" t="s">
+        <v>3318</v>
+      </c>
+      <c r="BF269" t="s">
+        <v>796</v>
+      </c>
+      <c r="BG269" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH269" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI269" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ269" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK269" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL269" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM269" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN269" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO269" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP269" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ269" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR269" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS269" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT269" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU269" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV269" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW269" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX269" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY269" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ269" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA269" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB269" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC269" t="s">
+        <v>3319</v>
+      </c>
+      <c r="CD269" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE269" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF269" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG269" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH269" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI269" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ269" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK269" t="s">
+        <v>3320</v>
+      </c>
+      <c r="CL269" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM269" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN269" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO269" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP269" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="270" spans="1:94">
+      <c r="A270" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B270" t="s">
+        <v>3322</v>
+      </c>
+      <c r="C270" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D270" t="s">
+        <v>469</v>
+      </c>
+      <c r="E270" t="s">
+        <v>98</v>
+      </c>
+      <c r="F270" t="s">
+        <v>99</v>
+      </c>
+      <c r="G270" t="s">
+        <v>324</v>
+      </c>
+      <c r="H270" t="s">
+        <v>101</v>
+      </c>
+      <c r="I270" t="s">
+        <v>102</v>
+      </c>
+      <c r="J270" t="s">
+        <v>103</v>
+      </c>
+      <c r="K270" t="s">
+        <v>104</v>
+      </c>
+      <c r="L270" t="s">
+        <v>105</v>
+      </c>
+      <c r="M270" t="s">
+        <v>106</v>
+      </c>
+      <c r="N270" t="s">
+        <v>104</v>
+      </c>
+      <c r="O270" t="s">
+        <v>3323</v>
+      </c>
+      <c r="P270" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>3324</v>
+      </c>
+      <c r="R270" t="s">
+        <v>110</v>
+      </c>
+      <c r="S270" t="s">
+        <v>2300</v>
+      </c>
+      <c r="T270" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U270" t="s">
+        <v>3325</v>
+      </c>
+      <c r="V270" t="s">
+        <v>104</v>
+      </c>
+      <c r="W270" t="s">
+        <v>114</v>
+      </c>
+      <c r="X270" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y270" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z270" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA270" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB270" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC270" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD270" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE270" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF270" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG270" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH270" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI270" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ270" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK270" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL270" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM270" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN270" t="s">
+        <v>3326</v>
+      </c>
+      <c r="AO270" t="s">
+        <v>3327</v>
+      </c>
+      <c r="AP270" t="s">
+        <v>3328</v>
+      </c>
+      <c r="AQ270" t="s">
+        <v>3329</v>
+      </c>
+      <c r="AR270" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS270" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT270" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU270" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV270" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW270" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX270" t="s">
+        <v>3257</v>
+      </c>
+      <c r="AY270" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ270" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA270" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB270" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC270" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD270" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE270" t="s">
+        <v>3330</v>
+      </c>
+      <c r="BF270" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG270" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH270" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI270" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ270" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK270" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL270" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM270" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN270" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO270" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP270" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ270" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR270" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS270" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT270" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU270" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV270" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW270" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX270" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY270" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ270" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA270" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB270" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC270" t="s">
+        <v>3331</v>
+      </c>
+      <c r="CD270" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE270" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF270" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG270" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH270" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI270" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ270" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK270" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL270" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM270" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN270" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO270" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP270" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="271" spans="1:94">
+      <c r="A271" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B271" t="s">
+        <v>3333</v>
+      </c>
+      <c r="C271" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D271" t="s">
+        <v>97</v>
+      </c>
+      <c r="E271" t="s">
+        <v>98</v>
+      </c>
+      <c r="F271" t="s">
+        <v>99</v>
+      </c>
+      <c r="G271" t="s">
+        <v>324</v>
+      </c>
+      <c r="H271" t="s">
+        <v>206</v>
+      </c>
+      <c r="I271" t="s">
+        <v>102</v>
+      </c>
+      <c r="J271" t="s">
+        <v>103</v>
+      </c>
+      <c r="K271" t="s">
+        <v>104</v>
+      </c>
+      <c r="L271" t="s">
+        <v>105</v>
+      </c>
+      <c r="M271" t="s">
+        <v>106</v>
+      </c>
+      <c r="N271" t="s">
+        <v>104</v>
+      </c>
+      <c r="O271" t="s">
+        <v>3324</v>
+      </c>
+      <c r="P271" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>3334</v>
+      </c>
+      <c r="R271" t="s">
+        <v>110</v>
+      </c>
+      <c r="S271" t="s">
+        <v>536</v>
+      </c>
+      <c r="T271" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U271" t="s">
+        <v>3335</v>
+      </c>
+      <c r="V271" t="s">
+        <v>104</v>
+      </c>
+      <c r="W271" t="s">
+        <v>114</v>
+      </c>
+      <c r="X271" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y271" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z271" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA271" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB271" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC271" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD271" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE271" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF271" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG271" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH271" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI271" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ271" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK271" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL271" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM271" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN271" t="s">
+        <v>3336</v>
+      </c>
+      <c r="AO271" t="s">
+        <v>3337</v>
+      </c>
+      <c r="AP271" t="s">
+        <v>3338</v>
+      </c>
+      <c r="AQ271" t="s">
+        <v>3339</v>
+      </c>
+      <c r="AR271" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS271" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT271" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU271" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV271" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW271" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX271" t="s">
+        <v>3340</v>
+      </c>
+      <c r="AY271" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ271" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA271" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB271" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC271" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD271" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE271" t="s">
+        <v>3341</v>
+      </c>
+      <c r="BF271" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG271" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH271" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI271" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ271" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK271" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL271" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM271" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN271" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO271" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP271" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ271" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR271" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS271" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT271" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU271" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV271" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW271" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX271" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY271" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ271" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA271" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB271" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC271" t="s">
+        <v>3342</v>
+      </c>
+      <c r="CD271" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE271" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF271" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG271" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH271" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI271" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ271" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK271" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL271" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM271" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN271" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO271" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP271" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="272" spans="1:94">
+      <c r="A272" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B272" t="s">
+        <v>3344</v>
+      </c>
+      <c r="C272" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D272" t="s">
+        <v>97</v>
+      </c>
+      <c r="E272" t="s">
+        <v>98</v>
+      </c>
+      <c r="F272" t="s">
+        <v>99</v>
+      </c>
+      <c r="G272" t="s">
+        <v>324</v>
+      </c>
+      <c r="H272" t="s">
+        <v>206</v>
+      </c>
+      <c r="I272" t="s">
+        <v>102</v>
+      </c>
+      <c r="J272" t="s">
+        <v>103</v>
+      </c>
+      <c r="K272" t="s">
+        <v>104</v>
+      </c>
+      <c r="L272" t="s">
+        <v>105</v>
+      </c>
+      <c r="M272" t="s">
+        <v>106</v>
+      </c>
+      <c r="N272" t="s">
+        <v>104</v>
+      </c>
+      <c r="O272" t="s">
+        <v>3324</v>
+      </c>
+      <c r="P272" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q272" t="s">
+        <v>3334</v>
+      </c>
+      <c r="R272" t="s">
+        <v>110</v>
+      </c>
+      <c r="S272" t="s">
+        <v>536</v>
+      </c>
+      <c r="T272" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U272" t="s">
+        <v>3345</v>
+      </c>
+      <c r="V272" t="s">
+        <v>104</v>
+      </c>
+      <c r="W272" t="s">
+        <v>114</v>
+      </c>
+      <c r="X272" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y272" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z272" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA272" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB272" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC272" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD272" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE272" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF272" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG272" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH272" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI272" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ272" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK272" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL272" t="s">
+        <v>883</v>
+      </c>
+      <c r="AM272" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN272" t="s">
+        <v>3346</v>
+      </c>
+      <c r="AO272" t="s">
+        <v>3347</v>
+      </c>
+      <c r="AP272" t="s">
+        <v>3348</v>
+      </c>
+      <c r="AQ272" t="s">
+        <v>3349</v>
+      </c>
+      <c r="AR272" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS272" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT272" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU272" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV272" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW272" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX272" t="s">
+        <v>3350</v>
+      </c>
+      <c r="AY272" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ272" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA272" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB272" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC272" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD272" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE272" t="s">
+        <v>3341</v>
+      </c>
+      <c r="BF272" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG272" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH272" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI272" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ272" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK272" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL272" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM272" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN272" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO272" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP272" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ272" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR272" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS272" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT272" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU272" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV272" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW272" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX272" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY272" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ272" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA272" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB272" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC272" t="s">
+        <v>3351</v>
+      </c>
+      <c r="CD272" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE272" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF272" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG272" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH272" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI272" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ272" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK272" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL272" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM272" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN272" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO272" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP272" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="273" spans="1:94">
+      <c r="A273" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B273" t="s">
+        <v>3353</v>
+      </c>
+      <c r="C273" t="s">
+        <v>3354</v>
+      </c>
+      <c r="D273" t="s">
+        <v>97</v>
+      </c>
+      <c r="E273" t="s">
+        <v>98</v>
+      </c>
+      <c r="F273" t="s">
+        <v>99</v>
+      </c>
+      <c r="G273" t="s">
+        <v>324</v>
+      </c>
+      <c r="H273" t="s">
+        <v>101</v>
+      </c>
+      <c r="I273" t="s">
+        <v>208</v>
+      </c>
+      <c r="J273" t="s">
+        <v>103</v>
+      </c>
+      <c r="K273" t="s">
+        <v>104</v>
+      </c>
+      <c r="L273" t="s">
+        <v>105</v>
+      </c>
+      <c r="M273" t="s">
+        <v>106</v>
+      </c>
+      <c r="N273" t="s">
+        <v>104</v>
+      </c>
+      <c r="O273" t="s">
+        <v>3355</v>
+      </c>
+      <c r="P273" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q273" t="s">
+        <v>3356</v>
+      </c>
+      <c r="R273" t="s">
+        <v>110</v>
+      </c>
+      <c r="S273" t="s">
+        <v>536</v>
+      </c>
+      <c r="T273" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U273" t="s">
+        <v>3357</v>
+      </c>
+      <c r="V273" t="s">
+        <v>104</v>
+      </c>
+      <c r="W273" t="s">
+        <v>114</v>
+      </c>
+      <c r="X273" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y273" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z273" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA273" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB273" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC273" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD273" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE273" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF273" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG273" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH273" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI273" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ273" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK273" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL273" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM273" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN273" t="s">
+        <v>3358</v>
+      </c>
+      <c r="AO273" t="s">
+        <v>3359</v>
+      </c>
+      <c r="AP273" t="s">
+        <v>3360</v>
+      </c>
+      <c r="AQ273" t="s">
+        <v>3361</v>
+      </c>
+      <c r="AR273" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS273" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT273" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU273" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV273" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW273" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX273" t="s">
+        <v>3362</v>
+      </c>
+      <c r="AY273" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ273" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA273" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB273" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC273" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD273" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE273" t="s">
+        <v>3363</v>
+      </c>
+      <c r="BF273" t="s">
+        <v>160</v>
+      </c>
+      <c r="BG273" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH273" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI273" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ273" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK273" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL273" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM273" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN273" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO273" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP273" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ273" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR273" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS273" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT273" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU273" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV273" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW273" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX273" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY273" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ273" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA273" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB273" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC273" t="s">
+        <v>3364</v>
+      </c>
+      <c r="CD273" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE273" t="s">
+        <v>160</v>
+      </c>
+      <c r="CF273" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG273" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH273" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI273" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ273" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK273" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL273" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM273" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN273" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO273" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP273" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="274" spans="1:94">
+      <c r="A274" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B274" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C274" t="s">
+        <v>3236</v>
+      </c>
+      <c r="D274" t="s">
+        <v>469</v>
+      </c>
+      <c r="E274" t="s">
+        <v>99</v>
+      </c>
+      <c r="F274" t="s">
+        <v>98</v>
+      </c>
+      <c r="G274" t="s">
+        <v>231</v>
+      </c>
+      <c r="H274" t="s">
+        <v>683</v>
+      </c>
+      <c r="I274" t="s">
+        <v>114</v>
+      </c>
+      <c r="J274" t="s">
+        <v>259</v>
+      </c>
+      <c r="K274" t="s">
+        <v>104</v>
+      </c>
+      <c r="L274" t="s">
+        <v>105</v>
+      </c>
+      <c r="M274" t="s">
+        <v>106</v>
+      </c>
+      <c r="N274" t="s">
+        <v>104</v>
+      </c>
+      <c r="O274" t="s">
+        <v>3367</v>
+      </c>
+      <c r="P274" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q274" t="s">
+        <v>3368</v>
+      </c>
+      <c r="R274" t="s">
+        <v>110</v>
+      </c>
+      <c r="S274" t="s">
+        <v>235</v>
+      </c>
+      <c r="T274" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U274" t="s">
+        <v>3369</v>
+      </c>
+      <c r="V274" t="s">
+        <v>104</v>
+      </c>
+      <c r="W274" t="s">
+        <v>114</v>
+      </c>
+      <c r="X274" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y274" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z274" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA274" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB274" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC274" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD274" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE274" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF274" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG274" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH274" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI274" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ274" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK274" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL274" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM274" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN274" t="s">
+        <v>3370</v>
+      </c>
+      <c r="AO274" t="s">
+        <v>3371</v>
+      </c>
+      <c r="AP274" t="s">
+        <v>3372</v>
+      </c>
+      <c r="AQ274" t="s">
+        <v>3373</v>
+      </c>
+      <c r="AR274" t="s">
+        <v>3372</v>
+      </c>
+      <c r="AS274" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT274" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU274" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV274" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW274" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX274" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY274" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ274" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA274" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB274" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC274" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD274" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE274" t="s">
+        <v>3374</v>
+      </c>
+      <c r="BF274" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG274" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH274" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI274" t="s">
+        <v>3375</v>
+      </c>
+      <c r="BJ274" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK274" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL274" t="s">
+        <v>891</v>
+      </c>
+      <c r="BM274" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN274" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO274" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP274" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ274" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR274" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS274" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT274" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU274" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV274" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW274" t="s">
+        <v>1231</v>
+      </c>
+      <c r="BX274" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY274" t="s">
+        <v>892</v>
+      </c>
+      <c r="BZ274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC274" t="s">
+        <v>3376</v>
+      </c>
+      <c r="CD274" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI274" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP274" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="304" spans="19:19">
+      <c r="S304" s="3" t="s">
+        <v>3233</v>
       </c>
     </row>
   </sheetData>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25715" uniqueCount="3377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27124" uniqueCount="3544">
   <si>
     <t>Codice</t>
   </si>
@@ -9720,9 +9720,6 @@
     <t>Quadarella Andrea</t>
   </si>
   <si>
-    <t>#data esec al 11/01</t>
-  </si>
-  <si>
     <t>TT1005257934</t>
   </si>
   <si>
@@ -10150,6 +10147,510 @@
   </si>
   <si>
     <t>Codice collaudo: tk202601050071215977 eseguito reset manuale ont segnale ottico servizi ok provato con il cliente</t>
+  </si>
+  <si>
+    <t>#data esec al 18/01</t>
+  </si>
+  <si>
+    <t>TT1005282106</t>
+  </si>
+  <si>
+    <t>95997099</t>
+  </si>
+  <si>
+    <t>12/01/2026</t>
+  </si>
+  <si>
+    <t>12/01/2026 09:30</t>
+  </si>
+  <si>
+    <t>12/01/2026 10:30</t>
+  </si>
+  <si>
+    <t>15/01/2026 09:55</t>
+  </si>
+  <si>
+    <t>12/01/2026 09:20</t>
+  </si>
+  <si>
+    <t>09/01/2026 07:06</t>
+  </si>
+  <si>
+    <t>11/01/2026 06:06</t>
+  </si>
+  <si>
+    <t>Riparato in armadio. Certificato con Debora Ballini PIN 940 Codice collaudo: tk202601110071400003</t>
+  </si>
+  <si>
+    <t>TT1005282306</t>
+  </si>
+  <si>
+    <t>95998490</t>
+  </si>
+  <si>
+    <t>13/01/2026</t>
+  </si>
+  <si>
+    <t>13/01/2026 16:30</t>
+  </si>
+  <si>
+    <t>13/01/2026 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026011108268304 </t>
+  </si>
+  <si>
+    <t>14/01/2026 00:00</t>
+  </si>
+  <si>
+    <t>SWADW6042202613</t>
+  </si>
+  <si>
+    <t>093114722286</t>
+  </si>
+  <si>
+    <t>15/01/2026 00:00</t>
+  </si>
+  <si>
+    <t>13/01/2026 16:26</t>
+  </si>
+  <si>
+    <t>14/01/2026 01:35</t>
+  </si>
+  <si>
+    <t>11/01/2026 10:52</t>
+  </si>
+  <si>
+    <t>utente irreperibile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato su prima presa codice collaudo tk202601110071401394 </t>
+  </si>
+  <si>
+    <t>TT1005288052</t>
+  </si>
+  <si>
+    <t>96041220</t>
+  </si>
+  <si>
+    <t>14/01/2026</t>
+  </si>
+  <si>
+    <t>14/01/2026 10:00</t>
+  </si>
+  <si>
+    <t>14/01/2026 10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026011208417065 </t>
+  </si>
+  <si>
+    <t>SWRTW6042207244</t>
+  </si>
+  <si>
+    <t>U609083802</t>
+  </si>
+  <si>
+    <t>13/01/2026 03:03</t>
+  </si>
+  <si>
+    <t>14/01/2026 09:44</t>
+  </si>
+  <si>
+    <t>12/01/2026 19:10</t>
+  </si>
+  <si>
+    <t>Si riscontra nella centrale di pachino diversi guasti ULL VODAFONE dove tutti gli utenti sono allineati con navigazione ko. certificato supporto Angela pin 04226 si riscontra ko salo olo</t>
+  </si>
+  <si>
+    <t>TT1005288054</t>
+  </si>
+  <si>
+    <t>96041226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026011108317678 </t>
+  </si>
+  <si>
+    <t>SWRTW6042204425</t>
+  </si>
+  <si>
+    <t>0931973660</t>
+  </si>
+  <si>
+    <t>13/01/2026 16:32</t>
+  </si>
+  <si>
+    <t>12/01/2026 19:12</t>
+  </si>
+  <si>
+    <t>TT1005289209</t>
+  </si>
+  <si>
+    <t>96046524</t>
+  </si>
+  <si>
+    <t>15/01/2026</t>
+  </si>
+  <si>
+    <t>15/01/2026 16:00</t>
+  </si>
+  <si>
+    <t>15/01/2026 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALVATORE MAGNANO </t>
+  </si>
+  <si>
+    <t>CRH001043262120</t>
+  </si>
+  <si>
+    <t>0931316366</t>
+  </si>
+  <si>
+    <t>16/01/2026 09:04</t>
+  </si>
+  <si>
+    <t>15/01/2026 16:28</t>
+  </si>
+  <si>
+    <t>13/01/2026 08:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codice collaudo: tk202601130071449387 Rifatto connettore su borchia ottica allineamento segnale ottico ok provato con il cliente </t>
+  </si>
+  <si>
+    <t>TT1005290328</t>
+  </si>
+  <si>
+    <t>96058275</t>
+  </si>
+  <si>
+    <t>16/01/2026</t>
+  </si>
+  <si>
+    <t>16/01/2026 14:30</t>
+  </si>
+  <si>
+    <t>16/01/2026 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026011308604028 </t>
+  </si>
+  <si>
+    <t>SWRTW6042214897</t>
+  </si>
+  <si>
+    <t>0931562625</t>
+  </si>
+  <si>
+    <t>13/01/2026 23:59</t>
+  </si>
+  <si>
+    <t>16/01/2026 14:56</t>
+  </si>
+  <si>
+    <t>13/01/2026 11:46</t>
+  </si>
+  <si>
+    <t>Sostituito coppia di secondaria zona 2.51 box 3 cp 1 old cp 5 new fonia ok provato con il cliente</t>
+  </si>
+  <si>
+    <t>TT1005291379</t>
+  </si>
+  <si>
+    <t>96065733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026011108312139 </t>
+  </si>
+  <si>
+    <t>SWRTW6042204234</t>
+  </si>
+  <si>
+    <t>U612744465</t>
+  </si>
+  <si>
+    <t>15/01/2026 06:37</t>
+  </si>
+  <si>
+    <t>13/01/2026 14:14</t>
+  </si>
+  <si>
+    <t>TT1005298717</t>
+  </si>
+  <si>
+    <t>96114026</t>
+  </si>
+  <si>
+    <t>15/01/2026 11:00</t>
+  </si>
+  <si>
+    <t>15/01/2026 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026011408850300 </t>
+  </si>
+  <si>
+    <t>SWADW6042223934</t>
+  </si>
+  <si>
+    <t>21/01/2026 15:16</t>
+  </si>
+  <si>
+    <t>15/01/2026 11:14</t>
+  </si>
+  <si>
+    <t>15/01/2026 21:02</t>
+  </si>
+  <si>
+    <t>14/01/2026 20:02</t>
+  </si>
+  <si>
+    <t>riparato al box testato con l'utente codice collaudo tk202601140071516847 ok certifica su Oracle</t>
+  </si>
+  <si>
+    <t>TT1005299097</t>
+  </si>
+  <si>
+    <t>96115524</t>
+  </si>
+  <si>
+    <t>16/01/2026 13:30</t>
+  </si>
+  <si>
+    <t>16/01/2026 14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026011208480951 </t>
+  </si>
+  <si>
+    <t>SWADW6042210360</t>
+  </si>
+  <si>
+    <t>093114723868</t>
+  </si>
+  <si>
+    <t>19/01/2026 19:35</t>
+  </si>
+  <si>
+    <t>16/01/2026 15:45</t>
+  </si>
+  <si>
+    <t>14/01/2026 18:40</t>
+  </si>
+  <si>
+    <t>14/01/2026 23:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box. Ok test cliente. Collaudo tk202601140071518345  </t>
+  </si>
+  <si>
+    <t>TT1005301501</t>
+  </si>
+  <si>
+    <t>96133965</t>
+  </si>
+  <si>
+    <t>15/01/2026 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANIERI SANTAROSA </t>
+  </si>
+  <si>
+    <t>CRV001043680950</t>
+  </si>
+  <si>
+    <t>0931812397</t>
+  </si>
+  <si>
+    <t>16/01/2026 23:59</t>
+  </si>
+  <si>
+    <t>15/01/2026 17:10</t>
+  </si>
+  <si>
+    <t>15/01/2026 13:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eseguito cambio porta onu. Zona 3.02 box 2 coppia 9. Vecchia porta c1 31 nuova porta c1 57 Codice collaudo: tk202601150071536780 </t>
+  </si>
+  <si>
+    <t>TT1005307376</t>
+  </si>
+  <si>
+    <t>96174603</t>
+  </si>
+  <si>
+    <t>17/01/2026</t>
+  </si>
+  <si>
+    <t>17/01/2026 15:00</t>
+  </si>
+  <si>
+    <t>17/01/2026 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026011609237357 </t>
+  </si>
+  <si>
+    <t>SWADW6042235320</t>
+  </si>
+  <si>
+    <t>093114743845</t>
+  </si>
+  <si>
+    <t>17/01/2026 14:24</t>
+  </si>
+  <si>
+    <t>17/01/2026 14:57</t>
+  </si>
+  <si>
+    <t>17/01/2026 10:46</t>
+  </si>
+  <si>
+    <t>16/01/2026 15:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riparato al box codice collaudo: tk202601160071577397 </t>
+  </si>
+  <si>
+    <t>TT1005309216</t>
+  </si>
+  <si>
+    <t>96184333</t>
+  </si>
+  <si>
+    <t>17/01/2026 14:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026011408825407 </t>
+  </si>
+  <si>
+    <t>SWADW6042222953</t>
+  </si>
+  <si>
+    <t>093114752995</t>
+  </si>
+  <si>
+    <t>15/01/2026 13:19</t>
+  </si>
+  <si>
+    <t>17/01/2026 14:25</t>
+  </si>
+  <si>
+    <t>15/01/2026 13:56</t>
+  </si>
+  <si>
+    <t>16/01/2026 23:00</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>codice M zona 1.11 tutta la piastra 4 guasta certificato con supporto Tim</t>
+  </si>
+  <si>
+    <t>TT1005288379</t>
+  </si>
+  <si>
+    <t>96042769</t>
+  </si>
+  <si>
+    <t>15/01/2026 22:00</t>
+  </si>
+  <si>
+    <t>15/01/2026 22:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026011208514993 </t>
+  </si>
+  <si>
+    <t>SWADW6042212034</t>
+  </si>
+  <si>
+    <t>093114741593</t>
+  </si>
+  <si>
+    <t>14/01/2026 04:40</t>
+  </si>
+  <si>
+    <t>15/01/2026 11:44</t>
+  </si>
+  <si>
+    <t>12/01/2026 20:44</t>
+  </si>
+  <si>
+    <t>95639617</t>
+  </si>
+  <si>
+    <t>@roditori Codice collaudo: tk202601120071445636 Riparato al roe rifatto connettore allineamento segnale ottico servizi ok provato con il cliente</t>
+  </si>
+  <si>
+    <t>TT1005299457</t>
+  </si>
+  <si>
+    <t>96117595</t>
+  </si>
+  <si>
+    <t>15/01/2026 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026011408903402 </t>
+  </si>
+  <si>
+    <t>SWADW6042225660</t>
+  </si>
+  <si>
+    <t>093114746941</t>
+  </si>
+  <si>
+    <t>16/01/2026 03:33</t>
+  </si>
+  <si>
+    <t>15/01/2026 08:36</t>
+  </si>
+  <si>
+    <t>95648991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sostituita bretella ottica in armadio eseguita prova telefonica certificato con supporto Fw Codice collaudo: tk202601150071520416 </t>
+  </si>
+  <si>
+    <t>TT1005307153</t>
+  </si>
+  <si>
+    <t>96173102</t>
+  </si>
+  <si>
+    <t>17/01/2026 08:30</t>
+  </si>
+  <si>
+    <t>17/01/2026 13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026011609243356 </t>
+  </si>
+  <si>
+    <t>17/01/2026 00:00</t>
+  </si>
+  <si>
+    <t>SWADW6042235868</t>
+  </si>
+  <si>
+    <t>18/01/2026 12:43</t>
+  </si>
+  <si>
+    <t>17/01/2026 10:02</t>
+  </si>
+  <si>
+    <t>16/01/2026 15:16</t>
+  </si>
+  <si>
+    <t>95222607</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202601160071575896 Sostituito bretella ottica masticata dal cane del cliente, segnale ottico servizi ok provato con il cliente e certificato con supporto pin 713 Marco</t>
   </si>
 </sst>
 </file>
@@ -10509,10 +11010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP304"/>
+  <dimension ref="A1:CP294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S252" workbookViewId="0">
-      <selection activeCell="V267" sqref="V267"/>
+    <sheetView tabSelected="1" topLeftCell="Q267" workbookViewId="0">
+      <selection activeCell="V281" sqref="V281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -84648,13 +85149,13 @@
     </row>
     <row r="262" spans="1:94">
       <c r="A262" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B262" t="s">
         <v>3234</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" t="s">
         <v>3235</v>
-      </c>
-      <c r="C262" t="s">
-        <v>3236</v>
       </c>
       <c r="D262" t="s">
         <v>97</v>
@@ -84690,13 +85191,13 @@
         <v>104</v>
       </c>
       <c r="O262" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="P262" t="s">
         <v>108</v>
       </c>
       <c r="Q262" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="R262" t="s">
         <v>110</v>
@@ -84765,19 +85266,19 @@
         <v>108</v>
       </c>
       <c r="AN262" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="AO262" t="s">
         <v>3159</v>
       </c>
       <c r="AP262" t="s">
+        <v>3239</v>
+      </c>
+      <c r="AQ262" t="s">
         <v>3240</v>
       </c>
-      <c r="AQ262" t="s">
-        <v>3241</v>
-      </c>
       <c r="AR262" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="AS262" t="s">
         <v>577</v>
@@ -84816,7 +85317,7 @@
         <v>104</v>
       </c>
       <c r="BE262" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="BF262" t="s">
         <v>796</v>
@@ -84888,7 +85389,7 @@
         <v>104</v>
       </c>
       <c r="CC262" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="CD262" t="s">
         <v>99</v>
@@ -84932,13 +85433,13 @@
     </row>
     <row r="263" spans="1:94">
       <c r="A263" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B263" t="s">
         <v>3244</v>
       </c>
-      <c r="B263" t="s">
-        <v>3245</v>
-      </c>
       <c r="C263" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="D263" t="s">
         <v>469</v>
@@ -84974,13 +85475,13 @@
         <v>104</v>
       </c>
       <c r="O263" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="P263" t="s">
         <v>208</v>
       </c>
       <c r="Q263" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="R263" t="s">
         <v>110</v>
@@ -84992,7 +85493,7 @@
         <v>112</v>
       </c>
       <c r="U263" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="V263" t="s">
         <v>104</v>
@@ -85049,16 +85550,16 @@
         <v>108</v>
       </c>
       <c r="AN263" t="s">
+        <v>3246</v>
+      </c>
+      <c r="AO263" t="s">
         <v>3247</v>
       </c>
-      <c r="AO263" t="s">
+      <c r="AP263" t="s">
         <v>3248</v>
       </c>
-      <c r="AP263" t="s">
+      <c r="AQ263" t="s">
         <v>3249</v>
-      </c>
-      <c r="AQ263" t="s">
-        <v>3250</v>
       </c>
       <c r="AR263" t="s">
         <v>104</v>
@@ -85079,7 +85580,7 @@
         <v>125</v>
       </c>
       <c r="AX263" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="AY263" t="s">
         <v>104</v>
@@ -85100,7 +85601,7 @@
         <v>129</v>
       </c>
       <c r="BE263" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="BF263" t="s">
         <v>157</v>
@@ -85172,7 +85673,7 @@
         <v>104</v>
       </c>
       <c r="CC263" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="CD263" t="s">
         <v>99</v>
@@ -85216,13 +85717,13 @@
     </row>
     <row r="264" spans="1:94">
       <c r="A264" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B264" t="s">
         <v>3254</v>
       </c>
-      <c r="B264" t="s">
+      <c r="C264" t="s">
         <v>3255</v>
-      </c>
-      <c r="C264" t="s">
-        <v>3256</v>
       </c>
       <c r="D264" t="s">
         <v>97</v>
@@ -85258,13 +85759,13 @@
         <v>104</v>
       </c>
       <c r="O264" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="P264" t="s">
         <v>320</v>
       </c>
       <c r="Q264" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="R264" t="s">
         <v>110</v>
@@ -85276,7 +85777,7 @@
         <v>427</v>
       </c>
       <c r="U264" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="V264" t="s">
         <v>104</v>
@@ -85333,19 +85834,19 @@
         <v>108</v>
       </c>
       <c r="AN264" t="s">
+        <v>3259</v>
+      </c>
+      <c r="AO264" t="s">
         <v>3260</v>
       </c>
-      <c r="AO264" t="s">
+      <c r="AP264" t="s">
         <v>3261</v>
       </c>
-      <c r="AP264" t="s">
+      <c r="AQ264" t="s">
         <v>3262</v>
       </c>
-      <c r="AQ264" t="s">
+      <c r="AR264" t="s">
         <v>3263</v>
-      </c>
-      <c r="AR264" t="s">
-        <v>3264</v>
       </c>
       <c r="AS264" t="s">
         <v>150</v>
@@ -85378,13 +85879,13 @@
         <v>104</v>
       </c>
       <c r="BC264" t="s">
+        <v>3264</v>
+      </c>
+      <c r="BD264" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE264" t="s">
         <v>3265</v>
-      </c>
-      <c r="BD264" t="s">
-        <v>104</v>
-      </c>
-      <c r="BE264" t="s">
-        <v>3266</v>
       </c>
       <c r="BF264" t="s">
         <v>469</v>
@@ -85456,7 +85957,7 @@
         <v>104</v>
       </c>
       <c r="CC264" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="CD264" t="s">
         <v>99</v>
@@ -85500,13 +86001,13 @@
     </row>
     <row r="265" spans="1:94">
       <c r="A265" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B265" t="s">
         <v>3268</v>
       </c>
-      <c r="B265" t="s">
+      <c r="C265" t="s">
         <v>3269</v>
-      </c>
-      <c r="C265" t="s">
-        <v>3270</v>
       </c>
       <c r="D265" t="s">
         <v>97</v>
@@ -85542,13 +86043,13 @@
         <v>104</v>
       </c>
       <c r="O265" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="P265" t="s">
         <v>108</v>
       </c>
       <c r="Q265" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="R265" t="s">
         <v>110</v>
@@ -85560,7 +86061,7 @@
         <v>236</v>
       </c>
       <c r="U265" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="V265" t="s">
         <v>104</v>
@@ -85617,19 +86118,19 @@
         <v>108</v>
       </c>
       <c r="AN265" t="s">
+        <v>3273</v>
+      </c>
+      <c r="AO265" t="s">
         <v>3274</v>
       </c>
-      <c r="AO265" t="s">
+      <c r="AP265" t="s">
         <v>3275</v>
       </c>
-      <c r="AP265" t="s">
+      <c r="AQ265" t="s">
         <v>3276</v>
       </c>
-      <c r="AQ265" t="s">
-        <v>3277</v>
-      </c>
       <c r="AR265" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="AS265" t="s">
         <v>478</v>
@@ -85668,7 +86169,7 @@
         <v>104</v>
       </c>
       <c r="BE265" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="BF265" t="s">
         <v>97</v>
@@ -85740,7 +86241,7 @@
         <v>104</v>
       </c>
       <c r="CC265" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="CD265" t="s">
         <v>99</v>
@@ -85784,13 +86285,13 @@
     </row>
     <row r="266" spans="1:94">
       <c r="A266" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B266" t="s">
         <v>3280</v>
       </c>
-      <c r="B266" t="s">
-        <v>3281</v>
-      </c>
       <c r="C266" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="D266" t="s">
         <v>97</v>
@@ -85826,13 +86327,13 @@
         <v>104</v>
       </c>
       <c r="O266" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="P266" t="s">
         <v>108</v>
       </c>
       <c r="Q266" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="R266" t="s">
         <v>110</v>
@@ -85901,19 +86402,19 @@
         <v>108</v>
       </c>
       <c r="AN266" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="AO266" t="s">
         <v>3159</v>
       </c>
       <c r="AP266" t="s">
+        <v>3282</v>
+      </c>
+      <c r="AQ266" t="s">
         <v>3283</v>
       </c>
-      <c r="AQ266" t="s">
-        <v>3284</v>
-      </c>
       <c r="AR266" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="AS266" t="s">
         <v>577</v>
@@ -85952,7 +86453,7 @@
         <v>104</v>
       </c>
       <c r="BE266" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="BF266" t="s">
         <v>97</v>
@@ -86024,7 +86525,7 @@
         <v>104</v>
       </c>
       <c r="CC266" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="CD266" t="s">
         <v>99</v>
@@ -86068,13 +86569,13 @@
     </row>
     <row r="267" spans="1:94">
       <c r="A267" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B267" t="s">
         <v>3287</v>
       </c>
-      <c r="B267" t="s">
-        <v>3288</v>
-      </c>
       <c r="C267" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="D267" t="s">
         <v>97</v>
@@ -86110,13 +86611,13 @@
         <v>104</v>
       </c>
       <c r="O267" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="P267" t="s">
         <v>108</v>
       </c>
       <c r="Q267" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="R267" t="s">
         <v>110</v>
@@ -86128,7 +86629,7 @@
         <v>227</v>
       </c>
       <c r="U267" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="V267" t="s">
         <v>104</v>
@@ -86185,16 +86686,16 @@
         <v>108</v>
       </c>
       <c r="AN267" t="s">
+        <v>3291</v>
+      </c>
+      <c r="AO267" t="s">
         <v>3292</v>
       </c>
-      <c r="AO267" t="s">
+      <c r="AP267" t="s">
         <v>3293</v>
       </c>
-      <c r="AP267" t="s">
+      <c r="AQ267" t="s">
         <v>3294</v>
-      </c>
-      <c r="AQ267" t="s">
-        <v>3295</v>
       </c>
       <c r="AR267" t="s">
         <v>104</v>
@@ -86215,7 +86716,7 @@
         <v>217</v>
       </c>
       <c r="AX267" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="AY267" t="s">
         <v>104</v>
@@ -86236,7 +86737,7 @@
         <v>129</v>
       </c>
       <c r="BE267" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="BF267" t="s">
         <v>97</v>
@@ -86308,7 +86809,7 @@
         <v>104</v>
       </c>
       <c r="CC267" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="CD267" t="s">
         <v>99</v>
@@ -86332,7 +86833,7 @@
         <v>114</v>
       </c>
       <c r="CK267" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="CL267" t="s">
         <v>104</v>
@@ -86352,13 +86853,13 @@
     </row>
     <row r="268" spans="1:94">
       <c r="A268" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B268" t="s">
         <v>3300</v>
       </c>
-      <c r="B268" t="s">
-        <v>3301</v>
-      </c>
       <c r="C268" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="D268" t="s">
         <v>230</v>
@@ -86394,13 +86895,13 @@
         <v>104</v>
       </c>
       <c r="O268" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="P268" t="s">
         <v>108</v>
       </c>
       <c r="Q268" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="R268" t="s">
         <v>110</v>
@@ -86412,7 +86913,7 @@
         <v>236</v>
       </c>
       <c r="U268" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="V268" t="s">
         <v>104</v>
@@ -86469,19 +86970,19 @@
         <v>108</v>
       </c>
       <c r="AN268" t="s">
+        <v>3304</v>
+      </c>
+      <c r="AO268" t="s">
         <v>3305</v>
       </c>
-      <c r="AO268" t="s">
+      <c r="AP268" t="s">
         <v>3306</v>
       </c>
-      <c r="AP268" t="s">
+      <c r="AQ268" t="s">
         <v>3307</v>
       </c>
-      <c r="AQ268" t="s">
-        <v>3308</v>
-      </c>
       <c r="AR268" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="AS268" t="s">
         <v>478</v>
@@ -86520,7 +87021,7 @@
         <v>221</v>
       </c>
       <c r="BE268" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="BF268" t="s">
         <v>469</v>
@@ -86592,7 +87093,7 @@
         <v>104</v>
       </c>
       <c r="CC268" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="CD268" t="s">
         <v>99</v>
@@ -86636,13 +87137,13 @@
     </row>
     <row r="269" spans="1:94">
       <c r="A269" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B269" t="s">
         <v>3311</v>
       </c>
-      <c r="B269" t="s">
-        <v>3312</v>
-      </c>
       <c r="C269" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="D269" t="s">
         <v>97</v>
@@ -86678,13 +87179,13 @@
         <v>104</v>
       </c>
       <c r="O269" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="P269" t="s">
         <v>108</v>
       </c>
       <c r="Q269" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="R269" t="s">
         <v>110</v>
@@ -86696,7 +87197,7 @@
         <v>537</v>
       </c>
       <c r="U269" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="V269" t="s">
         <v>104</v>
@@ -86753,16 +87254,16 @@
         <v>108</v>
       </c>
       <c r="AN269" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="AO269" t="s">
         <v>3171</v>
       </c>
       <c r="AP269" t="s">
+        <v>3315</v>
+      </c>
+      <c r="AQ269" t="s">
         <v>3316</v>
-      </c>
-      <c r="AQ269" t="s">
-        <v>3317</v>
       </c>
       <c r="AR269" t="s">
         <v>104</v>
@@ -86783,7 +87284,7 @@
         <v>217</v>
       </c>
       <c r="AX269" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="AY269" t="s">
         <v>104</v>
@@ -86804,7 +87305,7 @@
         <v>129</v>
       </c>
       <c r="BE269" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="BF269" t="s">
         <v>796</v>
@@ -86876,7 +87377,7 @@
         <v>104</v>
       </c>
       <c r="CC269" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="CD269" t="s">
         <v>99</v>
@@ -86900,7 +87401,7 @@
         <v>114</v>
       </c>
       <c r="CK269" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="CL269" t="s">
         <v>104</v>
@@ -86920,13 +87421,13 @@
     </row>
     <row r="270" spans="1:94">
       <c r="A270" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B270" t="s">
         <v>3321</v>
       </c>
-      <c r="B270" t="s">
-        <v>3322</v>
-      </c>
       <c r="C270" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="D270" t="s">
         <v>469</v>
@@ -86962,13 +87463,13 @@
         <v>104</v>
       </c>
       <c r="O270" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="P270" t="s">
         <v>102</v>
       </c>
       <c r="Q270" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="R270" t="s">
         <v>110</v>
@@ -86980,7 +87481,7 @@
         <v>360</v>
       </c>
       <c r="U270" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="V270" t="s">
         <v>104</v>
@@ -87037,16 +87538,16 @@
         <v>108</v>
       </c>
       <c r="AN270" t="s">
+        <v>3325</v>
+      </c>
+      <c r="AO270" t="s">
         <v>3326</v>
       </c>
-      <c r="AO270" t="s">
+      <c r="AP270" t="s">
         <v>3327</v>
       </c>
-      <c r="AP270" t="s">
+      <c r="AQ270" t="s">
         <v>3328</v>
-      </c>
-      <c r="AQ270" t="s">
-        <v>3329</v>
       </c>
       <c r="AR270" t="s">
         <v>104</v>
@@ -87067,7 +87568,7 @@
         <v>173</v>
       </c>
       <c r="AX270" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="AY270" t="s">
         <v>104</v>
@@ -87088,7 +87589,7 @@
         <v>129</v>
       </c>
       <c r="BE270" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="BF270" t="s">
         <v>97</v>
@@ -87160,7 +87661,7 @@
         <v>104</v>
       </c>
       <c r="CC270" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="CD270" t="s">
         <v>99</v>
@@ -87204,13 +87705,13 @@
     </row>
     <row r="271" spans="1:94">
       <c r="A271" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B271" t="s">
         <v>3332</v>
       </c>
-      <c r="B271" t="s">
-        <v>3333</v>
-      </c>
       <c r="C271" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="D271" t="s">
         <v>97</v>
@@ -87246,13 +87747,13 @@
         <v>104</v>
       </c>
       <c r="O271" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="P271" t="s">
         <v>320</v>
       </c>
       <c r="Q271" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="R271" t="s">
         <v>110</v>
@@ -87264,7 +87765,7 @@
         <v>227</v>
       </c>
       <c r="U271" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="V271" t="s">
         <v>104</v>
@@ -87321,16 +87822,16 @@
         <v>108</v>
       </c>
       <c r="AN271" t="s">
+        <v>3335</v>
+      </c>
+      <c r="AO271" t="s">
         <v>3336</v>
       </c>
-      <c r="AO271" t="s">
+      <c r="AP271" t="s">
         <v>3337</v>
       </c>
-      <c r="AP271" t="s">
+      <c r="AQ271" t="s">
         <v>3338</v>
-      </c>
-      <c r="AQ271" t="s">
-        <v>3339</v>
       </c>
       <c r="AR271" t="s">
         <v>104</v>
@@ -87351,7 +87852,7 @@
         <v>173</v>
       </c>
       <c r="AX271" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="AY271" t="s">
         <v>104</v>
@@ -87372,7 +87873,7 @@
         <v>221</v>
       </c>
       <c r="BE271" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="BF271" t="s">
         <v>97</v>
@@ -87444,7 +87945,7 @@
         <v>104</v>
       </c>
       <c r="CC271" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="CD271" t="s">
         <v>99</v>
@@ -87488,13 +87989,13 @@
     </row>
     <row r="272" spans="1:94">
       <c r="A272" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B272" t="s">
         <v>3343</v>
       </c>
-      <c r="B272" t="s">
-        <v>3344</v>
-      </c>
       <c r="C272" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="D272" t="s">
         <v>97</v>
@@ -87530,13 +88031,13 @@
         <v>104</v>
       </c>
       <c r="O272" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="P272" t="s">
         <v>320</v>
       </c>
       <c r="Q272" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="R272" t="s">
         <v>110</v>
@@ -87548,7 +88049,7 @@
         <v>227</v>
       </c>
       <c r="U272" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="V272" t="s">
         <v>104</v>
@@ -87605,16 +88106,16 @@
         <v>108</v>
       </c>
       <c r="AN272" t="s">
+        <v>3345</v>
+      </c>
+      <c r="AO272" t="s">
         <v>3346</v>
       </c>
-      <c r="AO272" t="s">
+      <c r="AP272" t="s">
         <v>3347</v>
       </c>
-      <c r="AP272" t="s">
+      <c r="AQ272" t="s">
         <v>3348</v>
-      </c>
-      <c r="AQ272" t="s">
-        <v>3349</v>
       </c>
       <c r="AR272" t="s">
         <v>104</v>
@@ -87635,7 +88136,7 @@
         <v>173</v>
       </c>
       <c r="AX272" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="AY272" t="s">
         <v>104</v>
@@ -87656,7 +88157,7 @@
         <v>221</v>
       </c>
       <c r="BE272" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="BF272" t="s">
         <v>97</v>
@@ -87728,7 +88229,7 @@
         <v>104</v>
       </c>
       <c r="CC272" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="CD272" t="s">
         <v>99</v>
@@ -87772,13 +88273,13 @@
     </row>
     <row r="273" spans="1:94">
       <c r="A273" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B273" t="s">
         <v>3352</v>
       </c>
-      <c r="B273" t="s">
+      <c r="C273" t="s">
         <v>3353</v>
-      </c>
-      <c r="C273" t="s">
-        <v>3354</v>
       </c>
       <c r="D273" t="s">
         <v>97</v>
@@ -87814,13 +88315,13 @@
         <v>104</v>
       </c>
       <c r="O273" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="P273" t="s">
         <v>108</v>
       </c>
       <c r="Q273" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="R273" t="s">
         <v>110</v>
@@ -87832,7 +88333,7 @@
         <v>537</v>
       </c>
       <c r="U273" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="V273" t="s">
         <v>104</v>
@@ -87889,16 +88390,16 @@
         <v>108</v>
       </c>
       <c r="AN273" t="s">
+        <v>3357</v>
+      </c>
+      <c r="AO273" t="s">
         <v>3358</v>
       </c>
-      <c r="AO273" t="s">
+      <c r="AP273" t="s">
         <v>3359</v>
       </c>
-      <c r="AP273" t="s">
+      <c r="AQ273" t="s">
         <v>3360</v>
-      </c>
-      <c r="AQ273" t="s">
-        <v>3361</v>
       </c>
       <c r="AR273" t="s">
         <v>104</v>
@@ -87919,7 +88420,7 @@
         <v>173</v>
       </c>
       <c r="AX273" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="AY273" t="s">
         <v>104</v>
@@ -87940,7 +88441,7 @@
         <v>221</v>
       </c>
       <c r="BE273" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="BF273" t="s">
         <v>160</v>
@@ -88012,7 +88513,7 @@
         <v>104</v>
       </c>
       <c r="CC273" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="CD273" t="s">
         <v>98</v>
@@ -88056,13 +88557,13 @@
     </row>
     <row r="274" spans="1:94">
       <c r="A274" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B274" t="s">
         <v>3365</v>
       </c>
-      <c r="B274" t="s">
-        <v>3366</v>
-      </c>
       <c r="C274" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="D274" t="s">
         <v>469</v>
@@ -88098,13 +88599,13 @@
         <v>104</v>
       </c>
       <c r="O274" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="P274" t="s">
         <v>108</v>
       </c>
       <c r="Q274" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="R274" t="s">
         <v>110</v>
@@ -88116,7 +88617,7 @@
         <v>262</v>
       </c>
       <c r="U274" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="V274" t="s">
         <v>104</v>
@@ -88173,19 +88674,19 @@
         <v>108</v>
       </c>
       <c r="AN274" t="s">
+        <v>3369</v>
+      </c>
+      <c r="AO274" t="s">
         <v>3370</v>
       </c>
-      <c r="AO274" t="s">
+      <c r="AP274" t="s">
         <v>3371</v>
       </c>
-      <c r="AP274" t="s">
+      <c r="AQ274" t="s">
         <v>3372</v>
       </c>
-      <c r="AQ274" t="s">
-        <v>3373</v>
-      </c>
       <c r="AR274" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="AS274" t="s">
         <v>246</v>
@@ -88224,19 +88725,19 @@
         <v>104</v>
       </c>
       <c r="BE274" t="s">
+        <v>3373</v>
+      </c>
+      <c r="BF274" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG274" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH274" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI274" t="s">
         <v>3374</v>
-      </c>
-      <c r="BF274" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG274" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH274" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI274" t="s">
-        <v>3375</v>
       </c>
       <c r="BJ274" t="s">
         <v>110</v>
@@ -88296,51 +88797,4311 @@
         <v>104</v>
       </c>
       <c r="CC274" t="s">
+        <v>3375</v>
+      </c>
+      <c r="CD274" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI274" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO274" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP274" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="275" spans="1:94">
+      <c r="A275" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B275" t="s">
+        <v>3378</v>
+      </c>
+      <c r="C275" t="s">
+        <v>3379</v>
+      </c>
+      <c r="D275" t="s">
+        <v>97</v>
+      </c>
+      <c r="E275" t="s">
+        <v>98</v>
+      </c>
+      <c r="F275" t="s">
+        <v>99</v>
+      </c>
+      <c r="G275" t="s">
+        <v>324</v>
+      </c>
+      <c r="H275" t="s">
+        <v>206</v>
+      </c>
+      <c r="I275" t="s">
+        <v>108</v>
+      </c>
+      <c r="J275" t="s">
+        <v>103</v>
+      </c>
+      <c r="K275" t="s">
+        <v>104</v>
+      </c>
+      <c r="L275" t="s">
+        <v>105</v>
+      </c>
+      <c r="M275" t="s">
+        <v>106</v>
+      </c>
+      <c r="N275" t="s">
+        <v>104</v>
+      </c>
+      <c r="O275" t="s">
+        <v>3380</v>
+      </c>
+      <c r="P275" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q275" t="s">
+        <v>3381</v>
+      </c>
+      <c r="R275" t="s">
+        <v>110</v>
+      </c>
+      <c r="S275" t="s">
+        <v>536</v>
+      </c>
+      <c r="T275" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U275" t="s">
+        <v>3344</v>
+      </c>
+      <c r="V275" t="s">
+        <v>104</v>
+      </c>
+      <c r="W275" t="s">
+        <v>114</v>
+      </c>
+      <c r="X275" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y275" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z275" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA275" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB275" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC275" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD275" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE275" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF275" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG275" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH275" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI275" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ275" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK275" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL275" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AM275" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN275" t="s">
+        <v>3345</v>
+      </c>
+      <c r="AO275" t="s">
+        <v>3346</v>
+      </c>
+      <c r="AP275" t="s">
+        <v>3382</v>
+      </c>
+      <c r="AQ275" t="s">
+        <v>3383</v>
+      </c>
+      <c r="AR275" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS275" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT275" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU275" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV275" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW275" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX275" t="s">
+        <v>3384</v>
+      </c>
+      <c r="AY275" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ275" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA275" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB275" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC275" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD275" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE275" t="s">
+        <v>3385</v>
+      </c>
+      <c r="BF275" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG275" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH275" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI275" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ275" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK275" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL275" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM275" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN275" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO275" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP275" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ275" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR275" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS275" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT275" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU275" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV275" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW275" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX275" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY275" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ275" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA275" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB275" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC275" t="s">
+        <v>3386</v>
+      </c>
+      <c r="CD275" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE275" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF275" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG275" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH275" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI275" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ275" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK275" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL275" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM275" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN275" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO275" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP275" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="276" spans="1:94">
+      <c r="A276" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B276" t="s">
+        <v>3388</v>
+      </c>
+      <c r="C276" t="s">
+        <v>3389</v>
+      </c>
+      <c r="D276" t="s">
+        <v>97</v>
+      </c>
+      <c r="E276" t="s">
+        <v>98</v>
+      </c>
+      <c r="F276" t="s">
+        <v>99</v>
+      </c>
+      <c r="G276" t="s">
+        <v>712</v>
+      </c>
+      <c r="H276" t="s">
+        <v>683</v>
+      </c>
+      <c r="I276" t="s">
+        <v>114</v>
+      </c>
+      <c r="J276" t="s">
+        <v>259</v>
+      </c>
+      <c r="K276" t="s">
+        <v>104</v>
+      </c>
+      <c r="L276" t="s">
+        <v>105</v>
+      </c>
+      <c r="M276" t="s">
+        <v>106</v>
+      </c>
+      <c r="N276" t="s">
+        <v>104</v>
+      </c>
+      <c r="O276" t="s">
+        <v>3390</v>
+      </c>
+      <c r="P276" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q276" t="s">
+        <v>3391</v>
+      </c>
+      <c r="R276" t="s">
+        <v>110</v>
+      </c>
+      <c r="S276" t="s">
+        <v>165</v>
+      </c>
+      <c r="T276" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U276" t="s">
+        <v>3392</v>
+      </c>
+      <c r="V276" t="s">
+        <v>104</v>
+      </c>
+      <c r="W276" t="s">
+        <v>114</v>
+      </c>
+      <c r="X276" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y276" t="s">
+        <v>3393</v>
+      </c>
+      <c r="Z276" t="s">
+        <v>934</v>
+      </c>
+      <c r="AA276" t="s">
+        <v>3393</v>
+      </c>
+      <c r="AB276" t="s">
+        <v>1590</v>
+      </c>
+      <c r="AC276" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD276" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE276" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF276" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG276" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH276" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI276" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ276" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK276" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL276" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM276" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN276" t="s">
+        <v>3394</v>
+      </c>
+      <c r="AO276" t="s">
+        <v>3395</v>
+      </c>
+      <c r="AP276" t="s">
+        <v>3396</v>
+      </c>
+      <c r="AQ276" t="s">
+        <v>3397</v>
+      </c>
+      <c r="AR276" t="s">
+        <v>3398</v>
+      </c>
+      <c r="AS276" t="s">
+        <v>720</v>
+      </c>
+      <c r="AT276" t="s">
+        <v>712</v>
+      </c>
+      <c r="AU276" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV276" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW276" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX276" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY276" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ276" t="s">
+        <v>1693</v>
+      </c>
+      <c r="BA276" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB276" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC276" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD276" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE276" t="s">
+        <v>3399</v>
+      </c>
+      <c r="BF276" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG276" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH276" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI276" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ276" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK276" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL276" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM276" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN276" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO276" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP276" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ276" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR276" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS276" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT276" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU276" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV276" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW276" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX276" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY276" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ276" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA276" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB276" t="s">
+        <v>3400</v>
+      </c>
+      <c r="CC276" t="s">
+        <v>3401</v>
+      </c>
+      <c r="CD276" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE276" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF276" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG276" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH276" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI276" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ276" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK276" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL276" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM276" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN276" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO276" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP276" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="277" spans="1:94">
+      <c r="A277" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B277" t="s">
+        <v>3403</v>
+      </c>
+      <c r="C277" t="s">
+        <v>3404</v>
+      </c>
+      <c r="D277" t="s">
+        <v>157</v>
+      </c>
+      <c r="E277" t="s">
+        <v>98</v>
+      </c>
+      <c r="F277" t="s">
+        <v>99</v>
+      </c>
+      <c r="G277" t="s">
+        <v>139</v>
+      </c>
+      <c r="H277" t="s">
+        <v>140</v>
+      </c>
+      <c r="I277" t="s">
+        <v>108</v>
+      </c>
+      <c r="J277" t="s">
+        <v>103</v>
+      </c>
+      <c r="K277" t="s">
+        <v>104</v>
+      </c>
+      <c r="L277" t="s">
+        <v>105</v>
+      </c>
+      <c r="M277" t="s">
+        <v>106</v>
+      </c>
+      <c r="N277" t="s">
+        <v>104</v>
+      </c>
+      <c r="O277" t="s">
+        <v>3405</v>
+      </c>
+      <c r="P277" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>3406</v>
+      </c>
+      <c r="R277" t="s">
+        <v>110</v>
+      </c>
+      <c r="S277" t="s">
+        <v>2300</v>
+      </c>
+      <c r="T277" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U277" t="s">
+        <v>3407</v>
+      </c>
+      <c r="V277" t="s">
+        <v>104</v>
+      </c>
+      <c r="W277" t="s">
+        <v>114</v>
+      </c>
+      <c r="X277" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y277" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z277" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA277" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB277" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC277" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD277" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE277" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF277" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG277" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH277" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI277" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ277" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK277" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL277" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM277" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN277" t="s">
+        <v>3408</v>
+      </c>
+      <c r="AO277" t="s">
+        <v>3409</v>
+      </c>
+      <c r="AP277" t="s">
+        <v>3410</v>
+      </c>
+      <c r="AQ277" t="s">
+        <v>3411</v>
+      </c>
+      <c r="AR277" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS277" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT277" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU277" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV277" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW277" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX277" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY277" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ277" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA277" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB277" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC277" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD277" t="s">
+        <v>2291</v>
+      </c>
+      <c r="BE277" t="s">
+        <v>3412</v>
+      </c>
+      <c r="BF277" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG277" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH277" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI277" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ277" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK277" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL277" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM277" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN277" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO277" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP277" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ277" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR277" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS277" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT277" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU277" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV277" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW277" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX277" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY277" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ277" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA277" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB277" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC277" t="s">
+        <v>3413</v>
+      </c>
+      <c r="CD277" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE277" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF277" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG277" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH277" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI277" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ277" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK277" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL277" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM277" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN277" t="s">
+        <v>3413</v>
+      </c>
+      <c r="CO277" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP277" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="278" spans="1:94">
+      <c r="A278" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B278" t="s">
+        <v>3415</v>
+      </c>
+      <c r="C278" t="s">
+        <v>3404</v>
+      </c>
+      <c r="D278" t="s">
+        <v>157</v>
+      </c>
+      <c r="E278" t="s">
+        <v>98</v>
+      </c>
+      <c r="F278" t="s">
+        <v>99</v>
+      </c>
+      <c r="G278" t="s">
+        <v>139</v>
+      </c>
+      <c r="H278" t="s">
+        <v>140</v>
+      </c>
+      <c r="I278" t="s">
+        <v>108</v>
+      </c>
+      <c r="J278" t="s">
+        <v>103</v>
+      </c>
+      <c r="K278" t="s">
+        <v>104</v>
+      </c>
+      <c r="L278" t="s">
+        <v>105</v>
+      </c>
+      <c r="M278" t="s">
+        <v>106</v>
+      </c>
+      <c r="N278" t="s">
+        <v>104</v>
+      </c>
+      <c r="O278" t="s">
+        <v>3405</v>
+      </c>
+      <c r="P278" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q278" t="s">
+        <v>3406</v>
+      </c>
+      <c r="R278" t="s">
+        <v>110</v>
+      </c>
+      <c r="S278" t="s">
+        <v>2300</v>
+      </c>
+      <c r="T278" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U278" t="s">
+        <v>3416</v>
+      </c>
+      <c r="V278" t="s">
+        <v>104</v>
+      </c>
+      <c r="W278" t="s">
+        <v>114</v>
+      </c>
+      <c r="X278" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y278" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z278" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA278" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB278" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC278" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD278" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE278" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF278" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG278" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH278" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI278" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ278" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK278" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL278" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM278" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN278" t="s">
+        <v>3417</v>
+      </c>
+      <c r="AO278" t="s">
+        <v>3418</v>
+      </c>
+      <c r="AP278" t="s">
+        <v>3419</v>
+      </c>
+      <c r="AQ278" t="s">
+        <v>3411</v>
+      </c>
+      <c r="AR278" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS278" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT278" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU278" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV278" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW278" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX278" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY278" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ278" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA278" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB278" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC278" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD278" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE278" t="s">
+        <v>3420</v>
+      </c>
+      <c r="BF278" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG278" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH278" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI278" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ278" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK278" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL278" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM278" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN278" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO278" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP278" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ278" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR278" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS278" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT278" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU278" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV278" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW278" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX278" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY278" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ278" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA278" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB278" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC278" t="s">
+        <v>3413</v>
+      </c>
+      <c r="CD278" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE278" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF278" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG278" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH278" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI278" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ278" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK278" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL278" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM278" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN278" t="s">
+        <v>3413</v>
+      </c>
+      <c r="CO278" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP278" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="279" spans="1:94">
+      <c r="A279" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B279" t="s">
+        <v>3422</v>
+      </c>
+      <c r="C279" t="s">
+        <v>3423</v>
+      </c>
+      <c r="D279" t="s">
+        <v>97</v>
+      </c>
+      <c r="E279" t="s">
+        <v>98</v>
+      </c>
+      <c r="F279" t="s">
+        <v>99</v>
+      </c>
+      <c r="G279" t="s">
+        <v>470</v>
+      </c>
+      <c r="H279" t="s">
+        <v>683</v>
+      </c>
+      <c r="I279" t="s">
+        <v>114</v>
+      </c>
+      <c r="J279" t="s">
+        <v>259</v>
+      </c>
+      <c r="K279" t="s">
+        <v>104</v>
+      </c>
+      <c r="L279" t="s">
+        <v>105</v>
+      </c>
+      <c r="M279" t="s">
+        <v>106</v>
+      </c>
+      <c r="N279" t="s">
+        <v>104</v>
+      </c>
+      <c r="O279" t="s">
+        <v>3424</v>
+      </c>
+      <c r="P279" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>3425</v>
+      </c>
+      <c r="R279" t="s">
+        <v>110</v>
+      </c>
+      <c r="S279" t="s">
+        <v>235</v>
+      </c>
+      <c r="T279" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U279" t="s">
+        <v>3426</v>
+      </c>
+      <c r="V279" t="s">
+        <v>104</v>
+      </c>
+      <c r="W279" t="s">
+        <v>114</v>
+      </c>
+      <c r="X279" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y279" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z279" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA279" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB279" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC279" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD279" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE279" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF279" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG279" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH279" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI279" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ279" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK279" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL279" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM279" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN279" t="s">
+        <v>3427</v>
+      </c>
+      <c r="AO279" t="s">
+        <v>3428</v>
+      </c>
+      <c r="AP279" t="s">
+        <v>3429</v>
+      </c>
+      <c r="AQ279" t="s">
+        <v>3430</v>
+      </c>
+      <c r="AR279" t="s">
+        <v>3429</v>
+      </c>
+      <c r="AS279" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT279" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU279" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV279" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW279" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX279" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY279" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ279" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA279" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB279" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC279" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD279" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE279" t="s">
+        <v>3431</v>
+      </c>
+      <c r="BF279" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG279" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH279" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI279" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ279" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK279" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL279" t="s">
+        <v>891</v>
+      </c>
+      <c r="BM279" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN279" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO279" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP279" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ279" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR279" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS279" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT279" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU279" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV279" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW279" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX279" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY279" t="s">
+        <v>892</v>
+      </c>
+      <c r="BZ279" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA279" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB279" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC279" t="s">
+        <v>3432</v>
+      </c>
+      <c r="CD279" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE279" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF279" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG279" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH279" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI279" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ279" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK279" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL279" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM279" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN279" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO279" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP279" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="280" spans="1:94">
+      <c r="A280" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B280" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C280" t="s">
+        <v>3435</v>
+      </c>
+      <c r="D280" t="s">
+        <v>230</v>
+      </c>
+      <c r="E280" t="s">
+        <v>98</v>
+      </c>
+      <c r="F280" t="s">
+        <v>99</v>
+      </c>
+      <c r="G280" t="s">
+        <v>274</v>
+      </c>
+      <c r="H280" t="s">
+        <v>140</v>
+      </c>
+      <c r="I280" t="s">
+        <v>208</v>
+      </c>
+      <c r="J280" t="s">
+        <v>103</v>
+      </c>
+      <c r="K280" t="s">
+        <v>104</v>
+      </c>
+      <c r="L280" t="s">
+        <v>105</v>
+      </c>
+      <c r="M280" t="s">
+        <v>106</v>
+      </c>
+      <c r="N280" t="s">
+        <v>104</v>
+      </c>
+      <c r="O280" t="s">
+        <v>3436</v>
+      </c>
+      <c r="P280" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q280" t="s">
+        <v>3437</v>
+      </c>
+      <c r="R280" t="s">
+        <v>110</v>
+      </c>
+      <c r="S280" t="s">
+        <v>235</v>
+      </c>
+      <c r="T280" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U280" t="s">
+        <v>3438</v>
+      </c>
+      <c r="V280" t="s">
+        <v>104</v>
+      </c>
+      <c r="W280" t="s">
+        <v>114</v>
+      </c>
+      <c r="X280" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y280" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z280" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA280" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB280" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC280" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD280" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE280" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF280" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG280" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH280" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI280" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ280" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK280" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL280" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM280" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN280" t="s">
+        <v>3439</v>
+      </c>
+      <c r="AO280" t="s">
+        <v>3440</v>
+      </c>
+      <c r="AP280" t="s">
+        <v>3441</v>
+      </c>
+      <c r="AQ280" t="s">
+        <v>3442</v>
+      </c>
+      <c r="AR280" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS280" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT280" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU280" t="s">
+        <v>315</v>
+      </c>
+      <c r="AV280" t="s">
+        <v>316</v>
+      </c>
+      <c r="AW280" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX280" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY280" t="s">
+        <v>317</v>
+      </c>
+      <c r="AZ280" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA280" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB280" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC280" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD280" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE280" t="s">
+        <v>3443</v>
+      </c>
+      <c r="BF280" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG280" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH280" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI280" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ280" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK280" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL280" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM280" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN280" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO280" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP280" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ280" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR280" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS280" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT280" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU280" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV280" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW280" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX280" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY280" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ280" t="s">
+        <v>208</v>
+      </c>
+      <c r="CA280" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB280" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC280" t="s">
+        <v>3444</v>
+      </c>
+      <c r="CD280" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE280" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF280" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG280" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH280" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI280" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ280" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK280" t="s">
+        <v>321</v>
+      </c>
+      <c r="CL280" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM280" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN280" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO280" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP280" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="281" spans="1:94">
+      <c r="A281" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B281" t="s">
+        <v>3446</v>
+      </c>
+      <c r="C281" t="s">
+        <v>3404</v>
+      </c>
+      <c r="D281" t="s">
+        <v>157</v>
+      </c>
+      <c r="E281" t="s">
+        <v>98</v>
+      </c>
+      <c r="F281" t="s">
+        <v>99</v>
+      </c>
+      <c r="G281" t="s">
+        <v>139</v>
+      </c>
+      <c r="H281" t="s">
+        <v>140</v>
+      </c>
+      <c r="I281" t="s">
+        <v>108</v>
+      </c>
+      <c r="J281" t="s">
+        <v>103</v>
+      </c>
+      <c r="K281" t="s">
+        <v>104</v>
+      </c>
+      <c r="L281" t="s">
+        <v>105</v>
+      </c>
+      <c r="M281" t="s">
+        <v>106</v>
+      </c>
+      <c r="N281" t="s">
+        <v>104</v>
+      </c>
+      <c r="O281" t="s">
+        <v>3405</v>
+      </c>
+      <c r="P281" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q281" t="s">
+        <v>3406</v>
+      </c>
+      <c r="R281" t="s">
+        <v>110</v>
+      </c>
+      <c r="S281" t="s">
+        <v>2300</v>
+      </c>
+      <c r="T281" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U281" t="s">
+        <v>3447</v>
+      </c>
+      <c r="V281" t="s">
+        <v>104</v>
+      </c>
+      <c r="W281" t="s">
+        <v>114</v>
+      </c>
+      <c r="X281" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y281" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z281" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA281" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB281" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC281" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD281" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE281" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF281" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG281" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH281" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI281" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ281" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK281" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL281" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM281" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN281" t="s">
+        <v>3448</v>
+      </c>
+      <c r="AO281" t="s">
+        <v>3449</v>
+      </c>
+      <c r="AP281" t="s">
+        <v>3450</v>
+      </c>
+      <c r="AQ281" t="s">
+        <v>3411</v>
+      </c>
+      <c r="AR281" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS281" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT281" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU281" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV281" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW281" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX281" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY281" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ281" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA281" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB281" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC281" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD281" t="s">
+        <v>2291</v>
+      </c>
+      <c r="BE281" t="s">
+        <v>3451</v>
+      </c>
+      <c r="BF281" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG281" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH281" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI281" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ281" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK281" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL281" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM281" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN281" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO281" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP281" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ281" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR281" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS281" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT281" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU281" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV281" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW281" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX281" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY281" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ281" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA281" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB281" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC281" t="s">
+        <v>3413</v>
+      </c>
+      <c r="CD281" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE281" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF281" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG281" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH281" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI281" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ281" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK281" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL281" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM281" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN281" t="s">
+        <v>3413</v>
+      </c>
+      <c r="CO281" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP281" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="282" spans="1:94">
+      <c r="A282" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B282" t="s">
+        <v>3453</v>
+      </c>
+      <c r="C282" t="s">
+        <v>3423</v>
+      </c>
+      <c r="D282" t="s">
+        <v>97</v>
+      </c>
+      <c r="E282" t="s">
+        <v>98</v>
+      </c>
+      <c r="F282" t="s">
+        <v>99</v>
+      </c>
+      <c r="G282" t="s">
+        <v>324</v>
+      </c>
+      <c r="H282" t="s">
+        <v>206</v>
+      </c>
+      <c r="I282" t="s">
+        <v>102</v>
+      </c>
+      <c r="J282" t="s">
+        <v>103</v>
+      </c>
+      <c r="K282" t="s">
+        <v>104</v>
+      </c>
+      <c r="L282" t="s">
+        <v>105</v>
+      </c>
+      <c r="M282" t="s">
+        <v>106</v>
+      </c>
+      <c r="N282" t="s">
+        <v>104</v>
+      </c>
+      <c r="O282" t="s">
+        <v>3454</v>
+      </c>
+      <c r="P282" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q282" t="s">
+        <v>3455</v>
+      </c>
+      <c r="R282" t="s">
+        <v>110</v>
+      </c>
+      <c r="S282" t="s">
+        <v>366</v>
+      </c>
+      <c r="T282" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U282" t="s">
+        <v>3456</v>
+      </c>
+      <c r="V282" t="s">
+        <v>104</v>
+      </c>
+      <c r="W282" t="s">
+        <v>114</v>
+      </c>
+      <c r="X282" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y282" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z282" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA282" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB282" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC282" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD282" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE282" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF282" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG282" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH282" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI282" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ282" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK282" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL282" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM282" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN282" t="s">
+        <v>3457</v>
+      </c>
+      <c r="AO282" t="s">
+        <v>2786</v>
+      </c>
+      <c r="AP282" t="s">
+        <v>3458</v>
+      </c>
+      <c r="AQ282" t="s">
+        <v>3459</v>
+      </c>
+      <c r="AR282" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS282" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT282" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU282" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV282" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW282" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX282" t="s">
+        <v>3460</v>
+      </c>
+      <c r="AY282" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ282" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA282" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB282" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC282" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD282" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE282" t="s">
+        <v>3461</v>
+      </c>
+      <c r="BF282" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG282" t="s">
+        <v>1787</v>
+      </c>
+      <c r="BH282" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI282" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ282" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK282" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL282" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM282" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN282" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO282" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP282" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ282" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR282" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS282" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT282" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU282" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV282" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW282" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX282" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY282" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ282" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA282" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB282" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC282" t="s">
+        <v>3462</v>
+      </c>
+      <c r="CD282" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE282" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF282" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG282" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH282" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI282" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ282" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK282" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL282" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM282" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN282" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO282" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP282" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="283" spans="1:94">
+      <c r="A283" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B283" t="s">
+        <v>3464</v>
+      </c>
+      <c r="C283" t="s">
+        <v>3435</v>
+      </c>
+      <c r="D283" t="s">
+        <v>97</v>
+      </c>
+      <c r="E283" t="s">
+        <v>98</v>
+      </c>
+      <c r="F283" t="s">
+        <v>99</v>
+      </c>
+      <c r="G283" t="s">
+        <v>324</v>
+      </c>
+      <c r="H283" t="s">
+        <v>206</v>
+      </c>
+      <c r="I283" t="s">
+        <v>320</v>
+      </c>
+      <c r="J283" t="s">
+        <v>103</v>
+      </c>
+      <c r="K283" t="s">
+        <v>104</v>
+      </c>
+      <c r="L283" t="s">
+        <v>105</v>
+      </c>
+      <c r="M283" t="s">
+        <v>106</v>
+      </c>
+      <c r="N283" t="s">
+        <v>104</v>
+      </c>
+      <c r="O283" t="s">
+        <v>3465</v>
+      </c>
+      <c r="P283" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>3466</v>
+      </c>
+      <c r="R283" t="s">
+        <v>110</v>
+      </c>
+      <c r="S283" t="s">
+        <v>2300</v>
+      </c>
+      <c r="T283" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U283" t="s">
+        <v>3467</v>
+      </c>
+      <c r="V283" t="s">
+        <v>104</v>
+      </c>
+      <c r="W283" t="s">
+        <v>114</v>
+      </c>
+      <c r="X283" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y283" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z283" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA283" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB283" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC283" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD283" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE283" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF283" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG283" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH283" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI283" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ283" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK283" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL283" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM283" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN283" t="s">
+        <v>3468</v>
+      </c>
+      <c r="AO283" t="s">
+        <v>3469</v>
+      </c>
+      <c r="AP283" t="s">
+        <v>3470</v>
+      </c>
+      <c r="AQ283" t="s">
+        <v>3471</v>
+      </c>
+      <c r="AR283" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS283" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT283" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU283" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV283" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW283" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX283" t="s">
+        <v>3472</v>
+      </c>
+      <c r="AY283" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ283" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA283" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB283" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC283" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD283" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE283" t="s">
+        <v>3473</v>
+      </c>
+      <c r="BF283" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG283" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH283" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI283" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ283" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK283" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL283" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM283" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN283" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO283" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP283" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ283" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR283" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS283" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT283" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU283" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV283" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW283" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX283" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY283" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ283" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA283" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB283" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC283" t="s">
+        <v>3474</v>
+      </c>
+      <c r="CD283" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE283" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF283" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG283" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH283" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI283" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ283" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK283" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL283" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM283" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN283" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO283" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP283" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="284" spans="1:94">
+      <c r="A284" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B284" t="s">
+        <v>3476</v>
+      </c>
+      <c r="C284" t="s">
+        <v>3423</v>
+      </c>
+      <c r="D284" t="s">
+        <v>469</v>
+      </c>
+      <c r="E284" t="s">
+        <v>98</v>
+      </c>
+      <c r="F284" t="s">
+        <v>99</v>
+      </c>
+      <c r="G284" t="s">
+        <v>424</v>
+      </c>
+      <c r="H284" t="s">
+        <v>101</v>
+      </c>
+      <c r="I284" t="s">
+        <v>114</v>
+      </c>
+      <c r="J284" t="s">
+        <v>259</v>
+      </c>
+      <c r="K284" t="s">
+        <v>104</v>
+      </c>
+      <c r="L284" t="s">
+        <v>105</v>
+      </c>
+      <c r="M284" t="s">
+        <v>106</v>
+      </c>
+      <c r="N284" t="s">
+        <v>104</v>
+      </c>
+      <c r="O284" t="s">
+        <v>3425</v>
+      </c>
+      <c r="P284" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q284" t="s">
+        <v>3477</v>
+      </c>
+      <c r="R284" t="s">
+        <v>110</v>
+      </c>
+      <c r="S284" t="s">
+        <v>179</v>
+      </c>
+      <c r="T284" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U284" t="s">
+        <v>3478</v>
+      </c>
+      <c r="V284" t="s">
+        <v>104</v>
+      </c>
+      <c r="W284" t="s">
+        <v>114</v>
+      </c>
+      <c r="X284" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y284" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z284" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA284" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB284" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC284" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD284" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE284" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF284" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG284" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH284" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI284" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ284" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK284" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL284" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM284" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN284" t="s">
+        <v>3479</v>
+      </c>
+      <c r="AO284" t="s">
+        <v>3480</v>
+      </c>
+      <c r="AP284" t="s">
+        <v>3481</v>
+      </c>
+      <c r="AQ284" t="s">
+        <v>3482</v>
+      </c>
+      <c r="AR284" t="s">
+        <v>3481</v>
+      </c>
+      <c r="AS284" t="s">
+        <v>433</v>
+      </c>
+      <c r="AT284" t="s">
+        <v>424</v>
+      </c>
+      <c r="AU284" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV284" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW284" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX284" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY284" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ284" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA284" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB284" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC284" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD284" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE284" t="s">
+        <v>3483</v>
+      </c>
+      <c r="BF284" t="s">
+        <v>469</v>
+      </c>
+      <c r="BG284" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH284" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI284" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ284" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK284" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL284" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM284" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN284" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO284" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP284" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ284" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR284" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS284" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT284" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU284" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV284" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW284" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX284" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY284" t="s">
+        <v>270</v>
+      </c>
+      <c r="BZ284" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA284" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB284" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC284" t="s">
+        <v>3484</v>
+      </c>
+      <c r="CD284" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE284" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF284" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG284" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH284" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI284" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ284" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK284" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL284" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM284" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN284" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO284" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP284" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="285" spans="1:94">
+      <c r="A285" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B285" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C285" t="s">
+        <v>3487</v>
+      </c>
+      <c r="D285" t="s">
+        <v>97</v>
+      </c>
+      <c r="E285" t="s">
+        <v>98</v>
+      </c>
+      <c r="F285" t="s">
+        <v>99</v>
+      </c>
+      <c r="G285" t="s">
+        <v>100</v>
+      </c>
+      <c r="H285" t="s">
+        <v>101</v>
+      </c>
+      <c r="I285" t="s">
+        <v>102</v>
+      </c>
+      <c r="J285" t="s">
+        <v>103</v>
+      </c>
+      <c r="K285" t="s">
+        <v>104</v>
+      </c>
+      <c r="L285" t="s">
+        <v>105</v>
+      </c>
+      <c r="M285" t="s">
+        <v>106</v>
+      </c>
+      <c r="N285" t="s">
+        <v>104</v>
+      </c>
+      <c r="O285" t="s">
+        <v>3488</v>
+      </c>
+      <c r="P285" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q285" t="s">
+        <v>3489</v>
+      </c>
+      <c r="R285" t="s">
+        <v>110</v>
+      </c>
+      <c r="S285" t="s">
+        <v>2300</v>
+      </c>
+      <c r="T285" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U285" t="s">
+        <v>3490</v>
+      </c>
+      <c r="V285" t="s">
+        <v>104</v>
+      </c>
+      <c r="W285" t="s">
+        <v>114</v>
+      </c>
+      <c r="X285" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y285" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z285" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA285" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB285" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC285" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD285" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE285" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF285" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG285" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH285" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI285" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ285" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK285" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL285" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM285" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN285" t="s">
+        <v>3491</v>
+      </c>
+      <c r="AO285" t="s">
+        <v>3492</v>
+      </c>
+      <c r="AP285" t="s">
+        <v>3493</v>
+      </c>
+      <c r="AQ285" t="s">
+        <v>3494</v>
+      </c>
+      <c r="AR285" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS285" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT285" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU285" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV285" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW285" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX285" t="s">
+        <v>3495</v>
+      </c>
+      <c r="AY285" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ285" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA285" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB285" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC285" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD285" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE285" t="s">
+        <v>3496</v>
+      </c>
+      <c r="BF285" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG285" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH285" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI285" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ285" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK285" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL285" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM285" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN285" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO285" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP285" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ285" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR285" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS285" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT285" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU285" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV285" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW285" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX285" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY285" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ285" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA285" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB285" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC285" t="s">
+        <v>3497</v>
+      </c>
+      <c r="CD285" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE285" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF285" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG285" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH285" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI285" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ285" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK285" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL285" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM285" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN285" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO285" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP285" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="286" spans="1:94">
+      <c r="A286" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B286" t="s">
+        <v>3499</v>
+      </c>
+      <c r="C286" t="s">
+        <v>3487</v>
+      </c>
+      <c r="D286" t="s">
+        <v>739</v>
+      </c>
+      <c r="E286" t="s">
+        <v>98</v>
+      </c>
+      <c r="F286" t="s">
+        <v>99</v>
+      </c>
+      <c r="G286" t="s">
+        <v>324</v>
+      </c>
+      <c r="H286" t="s">
+        <v>101</v>
+      </c>
+      <c r="I286" t="s">
+        <v>208</v>
+      </c>
+      <c r="J286" t="s">
+        <v>103</v>
+      </c>
+      <c r="K286" t="s">
+        <v>104</v>
+      </c>
+      <c r="L286" t="s">
+        <v>105</v>
+      </c>
+      <c r="M286" t="s">
+        <v>106</v>
+      </c>
+      <c r="N286" t="s">
+        <v>104</v>
+      </c>
+      <c r="O286" t="s">
+        <v>3500</v>
+      </c>
+      <c r="P286" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q286" t="s">
+        <v>3488</v>
+      </c>
+      <c r="R286" t="s">
+        <v>110</v>
+      </c>
+      <c r="S286" t="s">
+        <v>165</v>
+      </c>
+      <c r="T286" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U286" t="s">
+        <v>3501</v>
+      </c>
+      <c r="V286" t="s">
+        <v>104</v>
+      </c>
+      <c r="W286" t="s">
+        <v>114</v>
+      </c>
+      <c r="X286" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y286" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z286" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA286" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB286" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC286" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD286" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE286" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF286" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG286" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH286" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI286" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ286" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK286" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL286" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM286" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN286" t="s">
+        <v>3502</v>
+      </c>
+      <c r="AO286" t="s">
+        <v>3503</v>
+      </c>
+      <c r="AP286" t="s">
+        <v>3504</v>
+      </c>
+      <c r="AQ286" t="s">
+        <v>3505</v>
+      </c>
+      <c r="AR286" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS286" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT286" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU286" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV286" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW286" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX286" t="s">
+        <v>3506</v>
+      </c>
+      <c r="AY286" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ286" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA286" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB286" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC286" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD286" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE286" t="s">
+        <v>3507</v>
+      </c>
+      <c r="BF286" t="s">
+        <v>3508</v>
+      </c>
+      <c r="BG286" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH286" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI286" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ286" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK286" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL286" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM286" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN286" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO286" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP286" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ286" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR286" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS286" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT286" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU286" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV286" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW286" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX286" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY286" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ286" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA286" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB286" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC286" t="s">
+        <v>3509</v>
+      </c>
+      <c r="CD286" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE286" t="s">
+        <v>320</v>
+      </c>
+      <c r="CF286" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG286" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH286" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI286" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ286" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK286" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL286" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM286" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN286" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO286" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP286" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="287" spans="1:94">
+      <c r="A287" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B287" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C287" t="s">
+        <v>3423</v>
+      </c>
+      <c r="D287" t="s">
+        <v>97</v>
+      </c>
+      <c r="E287" t="s">
+        <v>99</v>
+      </c>
+      <c r="F287" t="s">
+        <v>98</v>
+      </c>
+      <c r="G287" t="s">
+        <v>274</v>
+      </c>
+      <c r="H287" t="s">
+        <v>683</v>
+      </c>
+      <c r="I287" t="s">
+        <v>114</v>
+      </c>
+      <c r="J287" t="s">
+        <v>259</v>
+      </c>
+      <c r="K287" t="s">
+        <v>104</v>
+      </c>
+      <c r="L287" t="s">
+        <v>105</v>
+      </c>
+      <c r="M287" t="s">
+        <v>106</v>
+      </c>
+      <c r="N287" t="s">
+        <v>104</v>
+      </c>
+      <c r="O287" t="s">
+        <v>3512</v>
+      </c>
+      <c r="P287" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q287" t="s">
+        <v>3513</v>
+      </c>
+      <c r="R287" t="s">
+        <v>110</v>
+      </c>
+      <c r="S287" t="s">
+        <v>235</v>
+      </c>
+      <c r="T287" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U287" t="s">
+        <v>3514</v>
+      </c>
+      <c r="V287" t="s">
+        <v>104</v>
+      </c>
+      <c r="W287" t="s">
+        <v>114</v>
+      </c>
+      <c r="X287" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y287" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z287" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA287" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB287" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC287" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD287" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE287" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF287" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG287" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH287" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI287" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ287" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK287" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL287" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM287" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN287" t="s">
+        <v>3515</v>
+      </c>
+      <c r="AO287" t="s">
+        <v>3516</v>
+      </c>
+      <c r="AP287" t="s">
+        <v>3517</v>
+      </c>
+      <c r="AQ287" t="s">
+        <v>3518</v>
+      </c>
+      <c r="AR287" t="s">
+        <v>3517</v>
+      </c>
+      <c r="AS287" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT287" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU287" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV287" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW287" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX287" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY287" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ287" t="s">
+        <v>691</v>
+      </c>
+      <c r="BA287" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB287" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC287" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD287" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE287" t="s">
+        <v>3519</v>
+      </c>
+      <c r="BF287" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG287" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH287" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI287" t="s">
+        <v>3520</v>
+      </c>
+      <c r="BJ287" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK287" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL287" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM287" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN287" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO287" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP287" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ287" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR287" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS287" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT287" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU287" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV287" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW287" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX287" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY287" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ287" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA287" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB287" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC287" t="s">
+        <v>3521</v>
+      </c>
+      <c r="CD287" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE287" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF287" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG287" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH287" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI287" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ287" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK287" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL287" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM287" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN287" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO287" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP287" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="288" spans="1:94">
+      <c r="A288" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B288" t="s">
+        <v>3523</v>
+      </c>
+      <c r="C288" t="s">
+        <v>3423</v>
+      </c>
+      <c r="D288" t="s">
+        <v>97</v>
+      </c>
+      <c r="E288" t="s">
+        <v>99</v>
+      </c>
+      <c r="F288" t="s">
+        <v>98</v>
+      </c>
+      <c r="G288" t="s">
+        <v>163</v>
+      </c>
+      <c r="H288" t="s">
+        <v>683</v>
+      </c>
+      <c r="I288" t="s">
+        <v>114</v>
+      </c>
+      <c r="J288" t="s">
+        <v>259</v>
+      </c>
+      <c r="K288" t="s">
+        <v>104</v>
+      </c>
+      <c r="L288" t="s">
+        <v>105</v>
+      </c>
+      <c r="M288" t="s">
+        <v>106</v>
+      </c>
+      <c r="N288" t="s">
+        <v>104</v>
+      </c>
+      <c r="O288" t="s">
+        <v>3477</v>
+      </c>
+      <c r="P288" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q288" t="s">
+        <v>3524</v>
+      </c>
+      <c r="R288" t="s">
+        <v>110</v>
+      </c>
+      <c r="S288" t="s">
+        <v>375</v>
+      </c>
+      <c r="T288" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U288" t="s">
+        <v>3525</v>
+      </c>
+      <c r="V288" t="s">
+        <v>104</v>
+      </c>
+      <c r="W288" t="s">
+        <v>114</v>
+      </c>
+      <c r="X288" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y288" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z288" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA288" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB288" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC288" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD288" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE288" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF288" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG288" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH288" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI288" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ288" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK288" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL288" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM288" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN288" t="s">
+        <v>3526</v>
+      </c>
+      <c r="AO288" t="s">
+        <v>3527</v>
+      </c>
+      <c r="AP288" t="s">
+        <v>3528</v>
+      </c>
+      <c r="AQ288" t="s">
+        <v>3482</v>
+      </c>
+      <c r="AR288" t="s">
+        <v>3528</v>
+      </c>
+      <c r="AS288" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT288" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU288" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV288" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW288" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX288" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY288" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ288" t="s">
+        <v>1667</v>
+      </c>
+      <c r="BA288" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB288" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC288" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD288" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE288" t="s">
+        <v>3529</v>
+      </c>
+      <c r="BF288" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG288" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH288" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI288" t="s">
+        <v>3530</v>
+      </c>
+      <c r="BJ288" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK288" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL288" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM288" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN288" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO288" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP288" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ288" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR288" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS288" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT288" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU288" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV288" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW288" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX288" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY288" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ288" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA288" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB288" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC288" t="s">
+        <v>3531</v>
+      </c>
+      <c r="CD288" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE288" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF288" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG288" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH288" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI288" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ288" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK288" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL288" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM288" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN288" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO288" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP288" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="289" spans="1:94">
+      <c r="A289" t="s">
+        <v>3532</v>
+      </c>
+      <c r="B289" t="s">
+        <v>3533</v>
+      </c>
+      <c r="C289" t="s">
+        <v>3487</v>
+      </c>
+      <c r="D289" t="s">
+        <v>97</v>
+      </c>
+      <c r="E289" t="s">
+        <v>99</v>
+      </c>
+      <c r="F289" t="s">
+        <v>98</v>
+      </c>
+      <c r="G289" t="s">
+        <v>231</v>
+      </c>
+      <c r="H289" t="s">
+        <v>683</v>
+      </c>
+      <c r="I289" t="s">
+        <v>114</v>
+      </c>
+      <c r="J289" t="s">
+        <v>259</v>
+      </c>
+      <c r="K289" t="s">
+        <v>104</v>
+      </c>
+      <c r="L289" t="s">
+        <v>105</v>
+      </c>
+      <c r="M289" t="s">
+        <v>106</v>
+      </c>
+      <c r="N289" t="s">
+        <v>104</v>
+      </c>
+      <c r="O289" t="s">
+        <v>3534</v>
+      </c>
+      <c r="P289" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q289" t="s">
+        <v>3535</v>
+      </c>
+      <c r="R289" t="s">
+        <v>110</v>
+      </c>
+      <c r="S289" t="s">
+        <v>235</v>
+      </c>
+      <c r="T289" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U289" t="s">
+        <v>3536</v>
+      </c>
+      <c r="V289" t="s">
+        <v>104</v>
+      </c>
+      <c r="W289" t="s">
+        <v>114</v>
+      </c>
+      <c r="X289" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y289" t="s">
+        <v>3537</v>
+      </c>
+      <c r="Z289" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AA289" t="s">
+        <v>3537</v>
+      </c>
+      <c r="AB289" t="s">
+        <v>554</v>
+      </c>
+      <c r="AC289" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD289" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE289" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF289" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG289" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH289" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI289" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ289" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK289" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL289" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM289" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN289" t="s">
+        <v>3538</v>
+      </c>
+      <c r="AO289">
+        <v>93114752962</v>
+      </c>
+      <c r="AP289" t="s">
+        <v>3539</v>
+      </c>
+      <c r="AQ289" t="s">
+        <v>3540</v>
+      </c>
+      <c r="AR289" t="s">
+        <v>3539</v>
+      </c>
+      <c r="AS289" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT289" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU289" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV289" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW289" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX289" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY289" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ289" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA289" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB289" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC289" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD289" t="s">
+        <v>693</v>
+      </c>
+      <c r="BE289" t="s">
+        <v>3541</v>
+      </c>
+      <c r="BF289" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG289" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH289" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI289" t="s">
+        <v>3542</v>
+      </c>
+      <c r="BJ289" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK289" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL289" t="s">
+        <v>696</v>
+      </c>
+      <c r="BM289" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN289" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO289" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP289" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ289" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR289" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS289" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT289" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU289" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV289" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW289" t="s">
+        <v>650</v>
+      </c>
+      <c r="BX289" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY289" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC289" t="s">
+        <v>3543</v>
+      </c>
+      <c r="CD289" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI289" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP289" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="294" spans="1:94">
+      <c r="S294" s="3" t="s">
         <v>3376</v>
-      </c>
-      <c r="CD274" t="s">
-        <v>99</v>
-      </c>
-      <c r="CE274" t="s">
-        <v>104</v>
-      </c>
-      <c r="CF274" t="s">
-        <v>104</v>
-      </c>
-      <c r="CG274" t="s">
-        <v>104</v>
-      </c>
-      <c r="CH274" t="s">
-        <v>104</v>
-      </c>
-      <c r="CI274" t="s">
-        <v>114</v>
-      </c>
-      <c r="CJ274" t="s">
-        <v>104</v>
-      </c>
-      <c r="CK274" t="s">
-        <v>104</v>
-      </c>
-      <c r="CL274" t="s">
-        <v>104</v>
-      </c>
-      <c r="CM274" t="s">
-        <v>104</v>
-      </c>
-      <c r="CN274" t="s">
-        <v>104</v>
-      </c>
-      <c r="CO274" t="s">
-        <v>104</v>
-      </c>
-      <c r="CP274" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="304" spans="19:19">
-      <c r="S304" s="3" t="s">
-        <v>3233</v>
       </c>
     </row>
   </sheetData>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27124" uniqueCount="3544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28157" uniqueCount="3682">
   <si>
     <t>Codice</t>
   </si>
@@ -10149,9 +10149,6 @@
     <t>Codice collaudo: tk202601050071215977 eseguito reset manuale ont segnale ottico servizi ok provato con il cliente</t>
   </si>
   <si>
-    <t>#data esec al 18/01</t>
-  </si>
-  <si>
     <t>TT1005282106</t>
   </si>
   <si>
@@ -10651,6 +10648,423 @@
   </si>
   <si>
     <t>Codice collaudo: tk202601160071575896 Sostituito bretella ottica masticata dal cane del cliente, segnale ottico servizi ok provato con il cliente e certificato con supporto pin 713 Marco</t>
+  </si>
+  <si>
+    <t>TT1005310822</t>
+  </si>
+  <si>
+    <t>96194527</t>
+  </si>
+  <si>
+    <t>19/01/2026</t>
+  </si>
+  <si>
+    <t>19/01/2026 08:30</t>
+  </si>
+  <si>
+    <t>19/01/2026 13:00</t>
+  </si>
+  <si>
+    <t>19/01/2026 00:00</t>
+  </si>
+  <si>
+    <t>19/01/2026 10:07</t>
+  </si>
+  <si>
+    <t>18/01/2026 15:02</t>
+  </si>
+  <si>
+    <t>17/01/2026 15:46</t>
+  </si>
+  <si>
+    <t>codice g zona 1.11 tutta la piastra 4 guasta certificato con supporto Tim</t>
+  </si>
+  <si>
+    <t>TT1005314469</t>
+  </si>
+  <si>
+    <t>96221536</t>
+  </si>
+  <si>
+    <t>21/01/2026</t>
+  </si>
+  <si>
+    <t>21/01/2026 11:30</t>
+  </si>
+  <si>
+    <t>21/01/2026 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026011909627798 </t>
+  </si>
+  <si>
+    <t>SWRTW6042246197</t>
+  </si>
+  <si>
+    <t>19/01/2026 23:59</t>
+  </si>
+  <si>
+    <t>21/01/2026 11:49</t>
+  </si>
+  <si>
+    <t>19/01/2026 13:02</t>
+  </si>
+  <si>
+    <t>Guasto non riscontrato valori di isolamento a+b a+t b+t &gt; 500mohm linea funzionante testata in conversazione con la signora nané</t>
+  </si>
+  <si>
+    <t>TT1005324558</t>
+  </si>
+  <si>
+    <t>96293994</t>
+  </si>
+  <si>
+    <t>23/01/2026</t>
+  </si>
+  <si>
+    <t>23/01/2026 08:00</t>
+  </si>
+  <si>
+    <t>23/01/2026 09:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026012109978358 </t>
+  </si>
+  <si>
+    <t>22/01/2026 00:00</t>
+  </si>
+  <si>
+    <t>SWADW6042257766</t>
+  </si>
+  <si>
+    <t>23/01/2026 16:11</t>
+  </si>
+  <si>
+    <t>23/01/2026 12:06</t>
+  </si>
+  <si>
+    <t>TECH SUPPORT VF</t>
+  </si>
+  <si>
+    <t>22/01/2026 11:18</t>
+  </si>
+  <si>
+    <t>21/01/2026 11:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eseguita sostituzione modem Vodafone station Wifi 6 . Codice collaudo: tk202601210071696664 </t>
+  </si>
+  <si>
+    <t>TT1005327705</t>
+  </si>
+  <si>
+    <t>96315100</t>
+  </si>
+  <si>
+    <t>23/01/2026 12:30</t>
+  </si>
+  <si>
+    <t>23/01/2026 13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026012110095974 </t>
+  </si>
+  <si>
+    <t>SWADW6042263818</t>
+  </si>
+  <si>
+    <t>093114735630</t>
+  </si>
+  <si>
+    <t>23/01/2026 01:24</t>
+  </si>
+  <si>
+    <t>23/01/2026 13:05</t>
+  </si>
+  <si>
+    <t>22/01/2026 13:36</t>
+  </si>
+  <si>
+    <t>21/01/2026 18:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box . Rifatti puntali al box . Codice collaudo: tk202601210071717674 </t>
+  </si>
+  <si>
+    <t>22/01/2026</t>
+  </si>
+  <si>
+    <t>TT1005330283</t>
+  </si>
+  <si>
+    <t>96332381</t>
+  </si>
+  <si>
+    <t>24/01/2026</t>
+  </si>
+  <si>
+    <t>24/01/2026 19:00</t>
+  </si>
+  <si>
+    <t>24/01/2026 19:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALVATORE LOREFICE </t>
+  </si>
+  <si>
+    <t>04/02/2026 00:00</t>
+  </si>
+  <si>
+    <t>CRR001044037991</t>
+  </si>
+  <si>
+    <t>0931851044</t>
+  </si>
+  <si>
+    <t>06/02/2026 00:00</t>
+  </si>
+  <si>
+    <t>24/01/2026 10:42</t>
+  </si>
+  <si>
+    <t>22/01/2026 20:31</t>
+  </si>
+  <si>
+    <t>22/01/2026 12:22</t>
+  </si>
+  <si>
+    <t>l'utente deve parlare con il vicino perché non permette di farci accedere nel proprio terreno per controllare e nel caso sostituire il PTH in palifica. Ok al box.</t>
+  </si>
+  <si>
+    <t>TT1005335627</t>
+  </si>
+  <si>
+    <t>96372017</t>
+  </si>
+  <si>
+    <t>23/01/2026 16:30</t>
+  </si>
+  <si>
+    <t>23/01/2026 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026012110095844 </t>
+  </si>
+  <si>
+    <t>SWRTW6042263809</t>
+  </si>
+  <si>
+    <t>0931718466</t>
+  </si>
+  <si>
+    <t>24/01/2026 00:47</t>
+  </si>
+  <si>
+    <t>FASTWEB</t>
+  </si>
+  <si>
+    <t>FW OPERATION PA</t>
+  </si>
+  <si>
+    <t>CONSIP FW</t>
+  </si>
+  <si>
+    <t>POTS</t>
+  </si>
+  <si>
+    <t>DISSERVIZIO WLR</t>
+  </si>
+  <si>
+    <t>23/01/2026 12:36</t>
+  </si>
+  <si>
+    <t>RTG_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guasto non riscontrato Codice Collaudo: tk202601230071774567 </t>
+  </si>
+  <si>
+    <t>TT1005318937</t>
+  </si>
+  <si>
+    <t>96254956</t>
+  </si>
+  <si>
+    <t>21/01/2026 13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RADIO AUDIZIONI MEDITERRANEA </t>
+  </si>
+  <si>
+    <t>CBH001044106971</t>
+  </si>
+  <si>
+    <t>0931857370</t>
+  </si>
+  <si>
+    <t>21/01/2026 23:59</t>
+  </si>
+  <si>
+    <t>21/01/2026 12:11</t>
+  </si>
+  <si>
+    <t>20/01/2026 10:54</t>
+  </si>
+  <si>
+    <t>95608625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rifatto giunto alla borchia Codice collaudo: tk202601200071657719 </t>
+  </si>
+  <si>
+    <t>TT1005329512</t>
+  </si>
+  <si>
+    <t>96325474</t>
+  </si>
+  <si>
+    <t>22/01/2026 17:00</t>
+  </si>
+  <si>
+    <t>22/01/2026 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026012210187401 </t>
+  </si>
+  <si>
+    <t>SWADW6042266039</t>
+  </si>
+  <si>
+    <t>093114735406</t>
+  </si>
+  <si>
+    <t>23/01/2026 09:05</t>
+  </si>
+  <si>
+    <t>22/01/2026 17:47</t>
+  </si>
+  <si>
+    <t>23/01/2026 05:16</t>
+  </si>
+  <si>
+    <t>22/01/2026 10:16</t>
+  </si>
+  <si>
+    <t>96141914</t>
+  </si>
+  <si>
+    <t>riparato al box testato con l'utente codice collaudo tk202601220071728040</t>
+  </si>
+  <si>
+    <t>TT1005332455</t>
+  </si>
+  <si>
+    <t>96347340</t>
+  </si>
+  <si>
+    <t>23/01/2026 15:00</t>
+  </si>
+  <si>
+    <t>23/01/2026 15:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026012210280403 </t>
+  </si>
+  <si>
+    <t>SWADW6042269586</t>
+  </si>
+  <si>
+    <t>24/01/2026 00:09</t>
+  </si>
+  <si>
+    <t>23/01/2026 15:06</t>
+  </si>
+  <si>
+    <t>23/01/2026 12:20</t>
+  </si>
+  <si>
+    <t>22/01/2026 17:20</t>
+  </si>
+  <si>
+    <t>96135234</t>
+  </si>
+  <si>
+    <t>si riscontra guasto cavo di secondaria zona 2.40 box 18 cp 4 cliente tutte le coppie sono in corto</t>
+  </si>
+  <si>
+    <t>TT1005337396</t>
+  </si>
+  <si>
+    <t>96386532</t>
+  </si>
+  <si>
+    <t>24/01/2026 12:30</t>
+  </si>
+  <si>
+    <t>24/01/2026 13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIULIA COTTONARO </t>
+  </si>
+  <si>
+    <t>CRA001044329828</t>
+  </si>
+  <si>
+    <t>0931969892</t>
+  </si>
+  <si>
+    <t>28/01/2026 20:49</t>
+  </si>
+  <si>
+    <t>24/01/2026 12:08</t>
+  </si>
+  <si>
+    <t>23/01/2026 16:24</t>
+  </si>
+  <si>
+    <t>96164296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rifatti puntali ossidati al box eseguita prova telefonica Codice Collaudo: tk202601230071789077 </t>
+  </si>
+  <si>
+    <t>TT1005340448</t>
+  </si>
+  <si>
+    <t>96403936</t>
+  </si>
+  <si>
+    <t>24/01/2026 17:00</t>
+  </si>
+  <si>
+    <t>24/01/2026 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORRADO FALCO </t>
+  </si>
+  <si>
+    <t>CRH001044656538</t>
+  </si>
+  <si>
+    <t>0931501755</t>
+  </si>
+  <si>
+    <t>26/01/2026 23:59</t>
+  </si>
+  <si>
+    <t>24/01/2026 16:32</t>
+  </si>
+  <si>
+    <t>24/01/2026 14:56</t>
+  </si>
+  <si>
+    <t>96104829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rifatto giunto al roe eseguita prova telefonica Codice collaudo: tk202601240071806468 </t>
+  </si>
+  <si>
+    <t>#data esec al 25/01</t>
   </si>
 </sst>
 </file>
@@ -11010,10 +11424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP294"/>
+  <dimension ref="A1:CP305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q267" workbookViewId="0">
-      <selection activeCell="V281" sqref="V281"/>
+    <sheetView tabSelected="1" topLeftCell="Q273" workbookViewId="0">
+      <selection activeCell="T298" sqref="T298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -88841,13 +89255,13 @@
     </row>
     <row r="275" spans="1:94">
       <c r="A275" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B275" t="s">
         <v>3377</v>
       </c>
-      <c r="B275" t="s">
+      <c r="C275" t="s">
         <v>3378</v>
-      </c>
-      <c r="C275" t="s">
-        <v>3379</v>
       </c>
       <c r="D275" t="s">
         <v>97</v>
@@ -88883,13 +89297,13 @@
         <v>104</v>
       </c>
       <c r="O275" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="P275" t="s">
         <v>320</v>
       </c>
       <c r="Q275" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="R275" t="s">
         <v>110</v>
@@ -88964,10 +89378,10 @@
         <v>3346</v>
       </c>
       <c r="AP275" t="s">
+        <v>3381</v>
+      </c>
+      <c r="AQ275" t="s">
         <v>3382</v>
-      </c>
-      <c r="AQ275" t="s">
-        <v>3383</v>
       </c>
       <c r="AR275" t="s">
         <v>104</v>
@@ -88988,7 +89402,7 @@
         <v>173</v>
       </c>
       <c r="AX275" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AY275" t="s">
         <v>104</v>
@@ -89009,7 +89423,7 @@
         <v>221</v>
       </c>
       <c r="BE275" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="BF275" t="s">
         <v>97</v>
@@ -89081,7 +89495,7 @@
         <v>104</v>
       </c>
       <c r="CC275" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="CD275" t="s">
         <v>98</v>
@@ -89125,13 +89539,13 @@
     </row>
     <row r="276" spans="1:94">
       <c r="A276" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B276" t="s">
         <v>3387</v>
       </c>
-      <c r="B276" t="s">
+      <c r="C276" t="s">
         <v>3388</v>
-      </c>
-      <c r="C276" t="s">
-        <v>3389</v>
       </c>
       <c r="D276" t="s">
         <v>97</v>
@@ -89167,13 +89581,13 @@
         <v>104</v>
       </c>
       <c r="O276" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="P276" t="s">
         <v>320</v>
       </c>
       <c r="Q276" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="R276" t="s">
         <v>110</v>
@@ -89185,7 +89599,7 @@
         <v>262</v>
       </c>
       <c r="U276" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="V276" t="s">
         <v>104</v>
@@ -89197,13 +89611,13 @@
         <v>115</v>
       </c>
       <c r="Y276" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="Z276" t="s">
         <v>934</v>
       </c>
       <c r="AA276" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="AB276" t="s">
         <v>1590</v>
@@ -89242,19 +89656,19 @@
         <v>108</v>
       </c>
       <c r="AN276" t="s">
+        <v>3393</v>
+      </c>
+      <c r="AO276" t="s">
         <v>3394</v>
       </c>
-      <c r="AO276" t="s">
+      <c r="AP276" t="s">
         <v>3395</v>
       </c>
-      <c r="AP276" t="s">
+      <c r="AQ276" t="s">
         <v>3396</v>
       </c>
-      <c r="AQ276" t="s">
+      <c r="AR276" t="s">
         <v>3397</v>
-      </c>
-      <c r="AR276" t="s">
-        <v>3398</v>
       </c>
       <c r="AS276" t="s">
         <v>720</v>
@@ -89293,7 +89707,7 @@
         <v>693</v>
       </c>
       <c r="BE276" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="BF276" t="s">
         <v>97</v>
@@ -89362,10 +89776,10 @@
         <v>104</v>
       </c>
       <c r="CB276" t="s">
+        <v>3399</v>
+      </c>
+      <c r="CC276" t="s">
         <v>3400</v>
-      </c>
-      <c r="CC276" t="s">
-        <v>3401</v>
       </c>
       <c r="CD276" t="s">
         <v>99</v>
@@ -89409,13 +89823,13 @@
     </row>
     <row r="277" spans="1:94">
       <c r="A277" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B277" t="s">
         <v>3402</v>
       </c>
-      <c r="B277" t="s">
+      <c r="C277" t="s">
         <v>3403</v>
-      </c>
-      <c r="C277" t="s">
-        <v>3404</v>
       </c>
       <c r="D277" t="s">
         <v>157</v>
@@ -89451,13 +89865,13 @@
         <v>104</v>
       </c>
       <c r="O277" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="P277" t="s">
         <v>108</v>
       </c>
       <c r="Q277" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="R277" t="s">
         <v>110</v>
@@ -89469,7 +89883,7 @@
         <v>427</v>
       </c>
       <c r="U277" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="V277" t="s">
         <v>104</v>
@@ -89526,16 +89940,16 @@
         <v>108</v>
       </c>
       <c r="AN277" t="s">
+        <v>3407</v>
+      </c>
+      <c r="AO277" t="s">
         <v>3408</v>
       </c>
-      <c r="AO277" t="s">
+      <c r="AP277" t="s">
         <v>3409</v>
       </c>
-      <c r="AP277" t="s">
+      <c r="AQ277" t="s">
         <v>3410</v>
-      </c>
-      <c r="AQ277" t="s">
-        <v>3411</v>
       </c>
       <c r="AR277" t="s">
         <v>104</v>
@@ -89577,7 +89991,7 @@
         <v>2291</v>
       </c>
       <c r="BE277" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="BF277" t="s">
         <v>157</v>
@@ -89649,7 +90063,7 @@
         <v>104</v>
       </c>
       <c r="CC277" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="CD277" t="s">
         <v>99</v>
@@ -89682,7 +90096,7 @@
         <v>104</v>
       </c>
       <c r="CN277" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="CO277" t="s">
         <v>104</v>
@@ -89693,13 +90107,13 @@
     </row>
     <row r="278" spans="1:94">
       <c r="A278" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B278" t="s">
         <v>3414</v>
       </c>
-      <c r="B278" t="s">
-        <v>3415</v>
-      </c>
       <c r="C278" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="D278" t="s">
         <v>157</v>
@@ -89735,13 +90149,13 @@
         <v>104</v>
       </c>
       <c r="O278" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="P278" t="s">
         <v>108</v>
       </c>
       <c r="Q278" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="R278" t="s">
         <v>110</v>
@@ -89753,7 +90167,7 @@
         <v>427</v>
       </c>
       <c r="U278" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="V278" t="s">
         <v>104</v>
@@ -89810,16 +90224,16 @@
         <v>108</v>
       </c>
       <c r="AN278" t="s">
+        <v>3416</v>
+      </c>
+      <c r="AO278" t="s">
         <v>3417</v>
       </c>
-      <c r="AO278" t="s">
+      <c r="AP278" t="s">
         <v>3418</v>
       </c>
-      <c r="AP278" t="s">
-        <v>3419</v>
-      </c>
       <c r="AQ278" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="AR278" t="s">
         <v>104</v>
@@ -89861,7 +90275,7 @@
         <v>155</v>
       </c>
       <c r="BE278" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="BF278" t="s">
         <v>157</v>
@@ -89933,7 +90347,7 @@
         <v>104</v>
       </c>
       <c r="CC278" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="CD278" t="s">
         <v>99</v>
@@ -89966,7 +90380,7 @@
         <v>104</v>
       </c>
       <c r="CN278" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="CO278" t="s">
         <v>104</v>
@@ -89977,13 +90391,13 @@
     </row>
     <row r="279" spans="1:94">
       <c r="A279" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B279" t="s">
         <v>3421</v>
       </c>
-      <c r="B279" t="s">
+      <c r="C279" t="s">
         <v>3422</v>
-      </c>
-      <c r="C279" t="s">
-        <v>3423</v>
       </c>
       <c r="D279" t="s">
         <v>97</v>
@@ -90019,13 +90433,13 @@
         <v>104</v>
       </c>
       <c r="O279" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="P279" t="s">
         <v>108</v>
       </c>
       <c r="Q279" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="R279" t="s">
         <v>110</v>
@@ -90037,7 +90451,7 @@
         <v>360</v>
       </c>
       <c r="U279" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="V279" t="s">
         <v>104</v>
@@ -90094,19 +90508,19 @@
         <v>108</v>
       </c>
       <c r="AN279" t="s">
+        <v>3426</v>
+      </c>
+      <c r="AO279" t="s">
         <v>3427</v>
       </c>
-      <c r="AO279" t="s">
+      <c r="AP279" t="s">
         <v>3428</v>
       </c>
-      <c r="AP279" t="s">
+      <c r="AQ279" t="s">
         <v>3429</v>
       </c>
-      <c r="AQ279" t="s">
-        <v>3430</v>
-      </c>
       <c r="AR279" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="AS279" t="s">
         <v>478</v>
@@ -90145,7 +90559,7 @@
         <v>104</v>
       </c>
       <c r="BE279" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="BF279" t="s">
         <v>97</v>
@@ -90217,7 +90631,7 @@
         <v>104</v>
       </c>
       <c r="CC279" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="CD279" t="s">
         <v>99</v>
@@ -90261,13 +90675,13 @@
     </row>
     <row r="280" spans="1:94">
       <c r="A280" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B280" t="s">
         <v>3433</v>
       </c>
-      <c r="B280" t="s">
+      <c r="C280" t="s">
         <v>3434</v>
-      </c>
-      <c r="C280" t="s">
-        <v>3435</v>
       </c>
       <c r="D280" t="s">
         <v>230</v>
@@ -90303,13 +90717,13 @@
         <v>104</v>
       </c>
       <c r="O280" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="P280" t="s">
         <v>108</v>
       </c>
       <c r="Q280" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="R280" t="s">
         <v>110</v>
@@ -90321,7 +90735,7 @@
         <v>112</v>
       </c>
       <c r="U280" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="V280" t="s">
         <v>104</v>
@@ -90378,16 +90792,16 @@
         <v>108</v>
       </c>
       <c r="AN280" t="s">
+        <v>3438</v>
+      </c>
+      <c r="AO280" t="s">
         <v>3439</v>
       </c>
-      <c r="AO280" t="s">
+      <c r="AP280" t="s">
         <v>3440</v>
       </c>
-      <c r="AP280" t="s">
+      <c r="AQ280" t="s">
         <v>3441</v>
-      </c>
-      <c r="AQ280" t="s">
-        <v>3442</v>
       </c>
       <c r="AR280" t="s">
         <v>104</v>
@@ -90429,7 +90843,7 @@
         <v>155</v>
       </c>
       <c r="BE280" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="BF280" t="s">
         <v>97</v>
@@ -90501,7 +90915,7 @@
         <v>104</v>
       </c>
       <c r="CC280" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="CD280" t="s">
         <v>99</v>
@@ -90545,13 +90959,13 @@
     </row>
     <row r="281" spans="1:94">
       <c r="A281" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B281" t="s">
         <v>3445</v>
       </c>
-      <c r="B281" t="s">
-        <v>3446</v>
-      </c>
       <c r="C281" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="D281" t="s">
         <v>157</v>
@@ -90587,13 +91001,13 @@
         <v>104</v>
       </c>
       <c r="O281" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="P281" t="s">
         <v>108</v>
       </c>
       <c r="Q281" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="R281" t="s">
         <v>110</v>
@@ -90605,7 +91019,7 @@
         <v>427</v>
       </c>
       <c r="U281" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="V281" t="s">
         <v>104</v>
@@ -90662,16 +91076,16 @@
         <v>108</v>
       </c>
       <c r="AN281" t="s">
+        <v>3447</v>
+      </c>
+      <c r="AO281" t="s">
         <v>3448</v>
       </c>
-      <c r="AO281" t="s">
+      <c r="AP281" t="s">
         <v>3449</v>
       </c>
-      <c r="AP281" t="s">
-        <v>3450</v>
-      </c>
       <c r="AQ281" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="AR281" t="s">
         <v>104</v>
@@ -90713,7 +91127,7 @@
         <v>2291</v>
       </c>
       <c r="BE281" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="BF281" t="s">
         <v>157</v>
@@ -90785,7 +91199,7 @@
         <v>104</v>
       </c>
       <c r="CC281" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="CD281" t="s">
         <v>99</v>
@@ -90818,7 +91232,7 @@
         <v>104</v>
       </c>
       <c r="CN281" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="CO281" t="s">
         <v>104</v>
@@ -90829,13 +91243,13 @@
     </row>
     <row r="282" spans="1:94">
       <c r="A282" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B282" t="s">
         <v>3452</v>
       </c>
-      <c r="B282" t="s">
-        <v>3453</v>
-      </c>
       <c r="C282" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="D282" t="s">
         <v>97</v>
@@ -90871,13 +91285,13 @@
         <v>104</v>
       </c>
       <c r="O282" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="P282" t="s">
         <v>108</v>
       </c>
       <c r="Q282" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="R282" t="s">
         <v>110</v>
@@ -90889,7 +91303,7 @@
         <v>537</v>
       </c>
       <c r="U282" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="V282" t="s">
         <v>104</v>
@@ -90946,16 +91360,16 @@
         <v>108</v>
       </c>
       <c r="AN282" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="AO282" t="s">
         <v>2786</v>
       </c>
       <c r="AP282" t="s">
+        <v>3457</v>
+      </c>
+      <c r="AQ282" t="s">
         <v>3458</v>
-      </c>
-      <c r="AQ282" t="s">
-        <v>3459</v>
       </c>
       <c r="AR282" t="s">
         <v>104</v>
@@ -90976,7 +91390,7 @@
         <v>173</v>
       </c>
       <c r="AX282" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="AY282" t="s">
         <v>104</v>
@@ -90997,7 +91411,7 @@
         <v>221</v>
       </c>
       <c r="BE282" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="BF282" t="s">
         <v>97</v>
@@ -91069,7 +91483,7 @@
         <v>104</v>
       </c>
       <c r="CC282" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="CD282" t="s">
         <v>98</v>
@@ -91113,13 +91527,13 @@
     </row>
     <row r="283" spans="1:94">
       <c r="A283" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B283" t="s">
         <v>3463</v>
       </c>
-      <c r="B283" t="s">
-        <v>3464</v>
-      </c>
       <c r="C283" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="D283" t="s">
         <v>97</v>
@@ -91155,13 +91569,13 @@
         <v>104</v>
       </c>
       <c r="O283" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="P283" t="s">
         <v>102</v>
       </c>
       <c r="Q283" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="R283" t="s">
         <v>110</v>
@@ -91173,7 +91587,7 @@
         <v>537</v>
       </c>
       <c r="U283" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="V283" t="s">
         <v>104</v>
@@ -91230,16 +91644,16 @@
         <v>108</v>
       </c>
       <c r="AN283" t="s">
+        <v>3467</v>
+      </c>
+      <c r="AO283" t="s">
         <v>3468</v>
       </c>
-      <c r="AO283" t="s">
+      <c r="AP283" t="s">
         <v>3469</v>
       </c>
-      <c r="AP283" t="s">
+      <c r="AQ283" t="s">
         <v>3470</v>
-      </c>
-      <c r="AQ283" t="s">
-        <v>3471</v>
       </c>
       <c r="AR283" t="s">
         <v>104</v>
@@ -91260,7 +91674,7 @@
         <v>125</v>
       </c>
       <c r="AX283" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="AY283" t="s">
         <v>104</v>
@@ -91281,7 +91695,7 @@
         <v>221</v>
       </c>
       <c r="BE283" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="BF283" t="s">
         <v>97</v>
@@ -91353,7 +91767,7 @@
         <v>104</v>
       </c>
       <c r="CC283" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="CD283" t="s">
         <v>99</v>
@@ -91397,13 +91811,13 @@
     </row>
     <row r="284" spans="1:94">
       <c r="A284" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B284" t="s">
         <v>3475</v>
       </c>
-      <c r="B284" t="s">
-        <v>3476</v>
-      </c>
       <c r="C284" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="D284" t="s">
         <v>469</v>
@@ -91439,13 +91853,13 @@
         <v>104</v>
       </c>
       <c r="O284" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="P284" t="s">
         <v>108</v>
       </c>
       <c r="Q284" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="R284" t="s">
         <v>110</v>
@@ -91457,7 +91871,7 @@
         <v>112</v>
       </c>
       <c r="U284" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="V284" t="s">
         <v>104</v>
@@ -91514,19 +91928,19 @@
         <v>108</v>
       </c>
       <c r="AN284" t="s">
+        <v>3478</v>
+      </c>
+      <c r="AO284" t="s">
         <v>3479</v>
       </c>
-      <c r="AO284" t="s">
+      <c r="AP284" t="s">
         <v>3480</v>
       </c>
-      <c r="AP284" t="s">
+      <c r="AQ284" t="s">
         <v>3481</v>
       </c>
-      <c r="AQ284" t="s">
-        <v>3482</v>
-      </c>
       <c r="AR284" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="AS284" t="s">
         <v>433</v>
@@ -91565,7 +91979,7 @@
         <v>104</v>
       </c>
       <c r="BE284" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="BF284" t="s">
         <v>469</v>
@@ -91637,7 +92051,7 @@
         <v>104</v>
       </c>
       <c r="CC284" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="CD284" t="s">
         <v>99</v>
@@ -91681,13 +92095,13 @@
     </row>
     <row r="285" spans="1:94">
       <c r="A285" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B285" t="s">
         <v>3485</v>
       </c>
-      <c r="B285" t="s">
+      <c r="C285" t="s">
         <v>3486</v>
-      </c>
-      <c r="C285" t="s">
-        <v>3487</v>
       </c>
       <c r="D285" t="s">
         <v>97</v>
@@ -91723,13 +92137,13 @@
         <v>104</v>
       </c>
       <c r="O285" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="P285" t="s">
         <v>102</v>
       </c>
       <c r="Q285" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="R285" t="s">
         <v>110</v>
@@ -91741,7 +92155,7 @@
         <v>227</v>
       </c>
       <c r="U285" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="V285" t="s">
         <v>104</v>
@@ -91798,16 +92212,16 @@
         <v>108</v>
       </c>
       <c r="AN285" t="s">
+        <v>3490</v>
+      </c>
+      <c r="AO285" t="s">
         <v>3491</v>
       </c>
-      <c r="AO285" t="s">
+      <c r="AP285" t="s">
         <v>3492</v>
       </c>
-      <c r="AP285" t="s">
+      <c r="AQ285" t="s">
         <v>3493</v>
-      </c>
-      <c r="AQ285" t="s">
-        <v>3494</v>
       </c>
       <c r="AR285" t="s">
         <v>104</v>
@@ -91828,7 +92242,7 @@
         <v>173</v>
       </c>
       <c r="AX285" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="AY285" t="s">
         <v>104</v>
@@ -91849,7 +92263,7 @@
         <v>129</v>
       </c>
       <c r="BE285" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="BF285" t="s">
         <v>97</v>
@@ -91921,7 +92335,7 @@
         <v>104</v>
       </c>
       <c r="CC285" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="CD285" t="s">
         <v>99</v>
@@ -91965,13 +92379,13 @@
     </row>
     <row r="286" spans="1:94">
       <c r="A286" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B286" t="s">
         <v>3498</v>
       </c>
-      <c r="B286" t="s">
-        <v>3499</v>
-      </c>
       <c r="C286" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="D286" t="s">
         <v>739</v>
@@ -92007,13 +92421,13 @@
         <v>104</v>
       </c>
       <c r="O286" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="P286" t="s">
         <v>108</v>
       </c>
       <c r="Q286" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="R286" t="s">
         <v>110</v>
@@ -92025,7 +92439,7 @@
         <v>360</v>
       </c>
       <c r="U286" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="V286" t="s">
         <v>104</v>
@@ -92082,16 +92496,16 @@
         <v>108</v>
       </c>
       <c r="AN286" t="s">
+        <v>3501</v>
+      </c>
+      <c r="AO286" t="s">
         <v>3502</v>
       </c>
-      <c r="AO286" t="s">
+      <c r="AP286" t="s">
         <v>3503</v>
       </c>
-      <c r="AP286" t="s">
+      <c r="AQ286" t="s">
         <v>3504</v>
-      </c>
-      <c r="AQ286" t="s">
-        <v>3505</v>
       </c>
       <c r="AR286" t="s">
         <v>104</v>
@@ -92112,7 +92526,7 @@
         <v>125</v>
       </c>
       <c r="AX286" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="AY286" t="s">
         <v>104</v>
@@ -92133,10 +92547,10 @@
         <v>129</v>
       </c>
       <c r="BE286" t="s">
+        <v>3506</v>
+      </c>
+      <c r="BF286" t="s">
         <v>3507</v>
-      </c>
-      <c r="BF286" t="s">
-        <v>3508</v>
       </c>
       <c r="BG286" t="s">
         <v>110</v>
@@ -92205,7 +92619,7 @@
         <v>104</v>
       </c>
       <c r="CC286" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="CD286" t="s">
         <v>99</v>
@@ -92249,13 +92663,13 @@
     </row>
     <row r="287" spans="1:94">
       <c r="A287" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B287" t="s">
         <v>3510</v>
       </c>
-      <c r="B287" t="s">
-        <v>3511</v>
-      </c>
       <c r="C287" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="D287" t="s">
         <v>97</v>
@@ -92291,13 +92705,13 @@
         <v>104</v>
       </c>
       <c r="O287" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="P287" t="s">
         <v>108</v>
       </c>
       <c r="Q287" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="R287" t="s">
         <v>110</v>
@@ -92309,7 +92723,7 @@
         <v>112</v>
       </c>
       <c r="U287" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="V287" t="s">
         <v>104</v>
@@ -92366,19 +92780,19 @@
         <v>108</v>
       </c>
       <c r="AN287" t="s">
+        <v>3514</v>
+      </c>
+      <c r="AO287" t="s">
         <v>3515</v>
       </c>
-      <c r="AO287" t="s">
+      <c r="AP287" t="s">
         <v>3516</v>
       </c>
-      <c r="AP287" t="s">
+      <c r="AQ287" t="s">
         <v>3517</v>
       </c>
-      <c r="AQ287" t="s">
-        <v>3518</v>
-      </c>
       <c r="AR287" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="AS287" t="s">
         <v>282</v>
@@ -92417,19 +92831,19 @@
         <v>693</v>
       </c>
       <c r="BE287" t="s">
+        <v>3518</v>
+      </c>
+      <c r="BF287" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG287" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH287" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI287" t="s">
         <v>3519</v>
-      </c>
-      <c r="BF287" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG287" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH287" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI287" t="s">
-        <v>3520</v>
       </c>
       <c r="BJ287" t="s">
         <v>110</v>
@@ -92489,7 +92903,7 @@
         <v>104</v>
       </c>
       <c r="CC287" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="CD287" t="s">
         <v>99</v>
@@ -92533,13 +92947,13 @@
     </row>
     <row r="288" spans="1:94">
       <c r="A288" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B288" t="s">
         <v>3522</v>
       </c>
-      <c r="B288" t="s">
-        <v>3523</v>
-      </c>
       <c r="C288" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="D288" t="s">
         <v>97</v>
@@ -92575,13 +92989,13 @@
         <v>104</v>
       </c>
       <c r="O288" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="P288" t="s">
         <v>108</v>
       </c>
       <c r="Q288" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="R288" t="s">
         <v>110</v>
@@ -92593,7 +93007,7 @@
         <v>427</v>
       </c>
       <c r="U288" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="V288" t="s">
         <v>104</v>
@@ -92650,19 +93064,19 @@
         <v>108</v>
       </c>
       <c r="AN288" t="s">
+        <v>3525</v>
+      </c>
+      <c r="AO288" t="s">
         <v>3526</v>
       </c>
-      <c r="AO288" t="s">
+      <c r="AP288" t="s">
         <v>3527</v>
       </c>
-      <c r="AP288" t="s">
-        <v>3528</v>
-      </c>
       <c r="AQ288" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="AR288" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="AS288" t="s">
         <v>170</v>
@@ -92701,19 +93115,19 @@
         <v>693</v>
       </c>
       <c r="BE288" t="s">
+        <v>3528</v>
+      </c>
+      <c r="BF288" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG288" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH288" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI288" t="s">
         <v>3529</v>
-      </c>
-      <c r="BF288" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG288" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH288" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI288" t="s">
-        <v>3530</v>
       </c>
       <c r="BJ288" t="s">
         <v>110</v>
@@ -92773,7 +93187,7 @@
         <v>104</v>
       </c>
       <c r="CC288" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="CD288" t="s">
         <v>99</v>
@@ -92817,13 +93231,13 @@
     </row>
     <row r="289" spans="1:94">
       <c r="A289" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B289" t="s">
         <v>3532</v>
       </c>
-      <c r="B289" t="s">
-        <v>3533</v>
-      </c>
       <c r="C289" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="D289" t="s">
         <v>97</v>
@@ -92859,13 +93273,13 @@
         <v>104</v>
       </c>
       <c r="O289" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="P289" t="s">
         <v>108</v>
       </c>
       <c r="Q289" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="R289" t="s">
         <v>110</v>
@@ -92877,7 +93291,7 @@
         <v>236</v>
       </c>
       <c r="U289" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="V289" t="s">
         <v>104</v>
@@ -92889,13 +93303,13 @@
         <v>115</v>
       </c>
       <c r="Y289" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="Z289" t="s">
         <v>1718</v>
       </c>
       <c r="AA289" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="AB289" t="s">
         <v>554</v>
@@ -92934,19 +93348,19 @@
         <v>108</v>
       </c>
       <c r="AN289" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="AO289">
         <v>93114752962</v>
       </c>
       <c r="AP289" t="s">
+        <v>3538</v>
+      </c>
+      <c r="AQ289" t="s">
         <v>3539</v>
       </c>
-      <c r="AQ289" t="s">
-        <v>3540</v>
-      </c>
       <c r="AR289" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="AS289" t="s">
         <v>246</v>
@@ -92985,19 +93399,19 @@
         <v>693</v>
       </c>
       <c r="BE289" t="s">
+        <v>3540</v>
+      </c>
+      <c r="BF289" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG289" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH289" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI289" t="s">
         <v>3541</v>
-      </c>
-      <c r="BF289" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG289" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH289" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI289" t="s">
-        <v>3542</v>
       </c>
       <c r="BJ289" t="s">
         <v>110</v>
@@ -93057,51 +93471,3175 @@
         <v>104</v>
       </c>
       <c r="CC289" t="s">
+        <v>3542</v>
+      </c>
+      <c r="CD289" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI289" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO289" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP289" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="290" spans="1:94">
+      <c r="A290" t="s">
         <v>3543</v>
       </c>
-      <c r="CD289" t="s">
-        <v>99</v>
-      </c>
-      <c r="CE289" t="s">
-        <v>104</v>
-      </c>
-      <c r="CF289" t="s">
-        <v>104</v>
-      </c>
-      <c r="CG289" t="s">
-        <v>104</v>
-      </c>
-      <c r="CH289" t="s">
-        <v>104</v>
-      </c>
-      <c r="CI289" t="s">
-        <v>114</v>
-      </c>
-      <c r="CJ289" t="s">
-        <v>104</v>
-      </c>
-      <c r="CK289" t="s">
-        <v>104</v>
-      </c>
-      <c r="CL289" t="s">
-        <v>104</v>
-      </c>
-      <c r="CM289" t="s">
-        <v>104</v>
-      </c>
-      <c r="CN289" t="s">
-        <v>104</v>
-      </c>
-      <c r="CO289" t="s">
-        <v>104</v>
-      </c>
-      <c r="CP289" t="s">
+      <c r="B290" t="s">
+        <v>3544</v>
+      </c>
+      <c r="C290" t="s">
+        <v>3545</v>
+      </c>
+      <c r="D290" t="s">
+        <v>3507</v>
+      </c>
+      <c r="E290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F290" t="s">
+        <v>99</v>
+      </c>
+      <c r="G290" t="s">
+        <v>324</v>
+      </c>
+      <c r="H290" t="s">
+        <v>101</v>
+      </c>
+      <c r="I290" t="s">
+        <v>320</v>
+      </c>
+      <c r="J290" t="s">
+        <v>103</v>
+      </c>
+      <c r="K290" t="s">
+        <v>104</v>
+      </c>
+      <c r="L290" t="s">
+        <v>105</v>
+      </c>
+      <c r="M290" t="s">
+        <v>106</v>
+      </c>
+      <c r="N290" t="s">
+        <v>104</v>
+      </c>
+      <c r="O290" t="s">
+        <v>3546</v>
+      </c>
+      <c r="P290" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q290" t="s">
+        <v>3547</v>
+      </c>
+      <c r="R290" t="s">
+        <v>110</v>
+      </c>
+      <c r="S290" t="s">
+        <v>179</v>
+      </c>
+      <c r="T290" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U290" t="s">
+        <v>3500</v>
+      </c>
+      <c r="V290" t="s">
+        <v>104</v>
+      </c>
+      <c r="W290" t="s">
+        <v>114</v>
+      </c>
+      <c r="X290" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y290" t="s">
+        <v>3548</v>
+      </c>
+      <c r="Z290" t="s">
+        <v>1718</v>
+      </c>
+      <c r="AA290" t="s">
+        <v>3548</v>
+      </c>
+      <c r="AB290" t="s">
+        <v>554</v>
+      </c>
+      <c r="AC290" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD290" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE290" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF290" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG290" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH290" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI290" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ290" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK290" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL290" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM290" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN290" t="s">
+        <v>3501</v>
+      </c>
+      <c r="AO290" t="s">
+        <v>3502</v>
+      </c>
+      <c r="AP290" t="s">
+        <v>3503</v>
+      </c>
+      <c r="AQ290" t="s">
+        <v>3549</v>
+      </c>
+      <c r="AR290" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS290" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT290" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU290" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV290" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW290" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX290" t="s">
+        <v>3550</v>
+      </c>
+      <c r="AY290" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ290" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA290" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB290" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC290" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD290" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE290" t="s">
+        <v>3551</v>
+      </c>
+      <c r="BF290" t="s">
+        <v>739</v>
+      </c>
+      <c r="BG290" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH290" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI290" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ290" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK290" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL290" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM290" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN290" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO290" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP290" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ290" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR290" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS290" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT290" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU290" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV290" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW290" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX290" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY290" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ290" t="s">
+        <v>114</v>
+      </c>
+      <c r="CA290" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB290" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC290" t="s">
+        <v>3552</v>
+      </c>
+      <c r="CD290" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE290" t="s">
+        <v>157</v>
+      </c>
+      <c r="CF290" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG290" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH290" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI290" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ290" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK290" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL290" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM290" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN290" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO290" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP290" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="291" spans="1:94">
+      <c r="A291" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B291" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C291" t="s">
+        <v>3555</v>
+      </c>
+      <c r="D291" t="s">
+        <v>796</v>
+      </c>
+      <c r="E291" t="s">
+        <v>98</v>
+      </c>
+      <c r="F291" t="s">
+        <v>99</v>
+      </c>
+      <c r="G291" t="s">
+        <v>274</v>
+      </c>
+      <c r="H291" t="s">
+        <v>140</v>
+      </c>
+      <c r="I291" t="s">
+        <v>108</v>
+      </c>
+      <c r="J291" t="s">
+        <v>103</v>
+      </c>
+      <c r="K291" t="s">
+        <v>104</v>
+      </c>
+      <c r="L291" t="s">
+        <v>105</v>
+      </c>
+      <c r="M291" t="s">
+        <v>106</v>
+      </c>
+      <c r="N291" t="s">
+        <v>104</v>
+      </c>
+      <c r="O291" t="s">
+        <v>3556</v>
+      </c>
+      <c r="P291" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q291" t="s">
+        <v>3557</v>
+      </c>
+      <c r="R291" t="s">
+        <v>110</v>
+      </c>
+      <c r="S291" t="s">
+        <v>235</v>
+      </c>
+      <c r="T291" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U291" t="s">
+        <v>3558</v>
+      </c>
+      <c r="V291" t="s">
+        <v>104</v>
+      </c>
+      <c r="W291" t="s">
+        <v>114</v>
+      </c>
+      <c r="X291" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y291" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z291" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA291" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB291" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC291" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD291" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE291" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF291" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG291" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH291" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI291" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ291" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK291" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL291" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM291" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN291" t="s">
+        <v>3559</v>
+      </c>
+      <c r="AO291" t="s">
+        <v>3439</v>
+      </c>
+      <c r="AP291" t="s">
+        <v>3560</v>
+      </c>
+      <c r="AQ291" t="s">
+        <v>3561</v>
+      </c>
+      <c r="AR291" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS291" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT291" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU291" t="s">
+        <v>315</v>
+      </c>
+      <c r="AV291" t="s">
+        <v>316</v>
+      </c>
+      <c r="AW291" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX291" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY291" t="s">
+        <v>317</v>
+      </c>
+      <c r="AZ291" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA291" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB291" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC291" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD291" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE291" t="s">
+        <v>3562</v>
+      </c>
+      <c r="BF291" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG291" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH291" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI291" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ291" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK291" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL291" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM291" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN291" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO291" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP291" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ291" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR291" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS291" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT291" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU291" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV291" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW291" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX291" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY291" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ291" t="s">
+        <v>108</v>
+      </c>
+      <c r="CA291" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB291" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC291" t="s">
+        <v>3563</v>
+      </c>
+      <c r="CD291" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE291" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF291" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG291" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH291" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI291" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ291" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK291" t="s">
+        <v>321</v>
+      </c>
+      <c r="CL291" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM291" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN291" t="s">
+        <v>3563</v>
+      </c>
+      <c r="CO291" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP291" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="292" spans="1:94">
+      <c r="A292" t="s">
+        <v>3564</v>
+      </c>
+      <c r="B292" t="s">
+        <v>3565</v>
+      </c>
+      <c r="C292" t="s">
+        <v>3566</v>
+      </c>
+      <c r="D292" t="s">
+        <v>157</v>
+      </c>
+      <c r="E292" t="s">
+        <v>98</v>
+      </c>
+      <c r="F292" t="s">
+        <v>99</v>
+      </c>
+      <c r="G292" t="s">
+        <v>324</v>
+      </c>
+      <c r="H292" t="s">
+        <v>101</v>
+      </c>
+      <c r="I292" t="s">
+        <v>108</v>
+      </c>
+      <c r="J292" t="s">
+        <v>103</v>
+      </c>
+      <c r="K292" t="s">
+        <v>104</v>
+      </c>
+      <c r="L292" t="s">
+        <v>105</v>
+      </c>
+      <c r="M292" t="s">
+        <v>106</v>
+      </c>
+      <c r="N292" t="s">
+        <v>104</v>
+      </c>
+      <c r="O292" t="s">
+        <v>3567</v>
+      </c>
+      <c r="P292" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>3568</v>
+      </c>
+      <c r="R292" t="s">
+        <v>110</v>
+      </c>
+      <c r="S292" t="s">
+        <v>536</v>
+      </c>
+      <c r="T292" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U292" t="s">
+        <v>3569</v>
+      </c>
+      <c r="V292" t="s">
+        <v>104</v>
+      </c>
+      <c r="W292" t="s">
+        <v>114</v>
+      </c>
+      <c r="X292" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y292" t="s">
+        <v>3570</v>
+      </c>
+      <c r="Z292" t="s">
+        <v>554</v>
+      </c>
+      <c r="AA292" t="s">
+        <v>3570</v>
+      </c>
+      <c r="AB292" t="s">
+        <v>555</v>
+      </c>
+      <c r="AC292" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD292" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE292" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF292" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG292" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH292" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI292" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ292" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK292" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL292" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM292" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN292" t="s">
+        <v>3571</v>
+      </c>
+      <c r="AO292" t="s">
+        <v>3502</v>
+      </c>
+      <c r="AP292" t="s">
+        <v>3572</v>
+      </c>
+      <c r="AQ292" t="s">
+        <v>3573</v>
+      </c>
+      <c r="AR292" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS292" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT292" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU292" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV292" t="s">
+        <v>3574</v>
+      </c>
+      <c r="AW292" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX292" t="s">
+        <v>3575</v>
+      </c>
+      <c r="AY292" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ292" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA292" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB292" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC292" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD292" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE292" t="s">
+        <v>3576</v>
+      </c>
+      <c r="BF292" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG292" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH292" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI292" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ292" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK292" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL292" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM292" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN292" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO292" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP292" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ292" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR292" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS292" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT292" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU292" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV292" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW292" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX292" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY292" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ292" t="s">
+        <v>108</v>
+      </c>
+      <c r="CA292" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB292" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC292" t="s">
+        <v>3577</v>
+      </c>
+      <c r="CD292" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE292" t="s">
+        <v>241</v>
+      </c>
+      <c r="CF292" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG292" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH292" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI292" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ292" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK292" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL292" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM292" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN292" t="s">
+        <v>3577</v>
+      </c>
+      <c r="CO292" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP292" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="293" spans="1:94">
+      <c r="A293" t="s">
+        <v>3578</v>
+      </c>
+      <c r="B293" t="s">
+        <v>3579</v>
+      </c>
+      <c r="C293" t="s">
+        <v>3566</v>
+      </c>
+      <c r="D293" t="s">
+        <v>97</v>
+      </c>
+      <c r="E293" t="s">
+        <v>98</v>
+      </c>
+      <c r="F293" t="s">
+        <v>99</v>
+      </c>
+      <c r="G293" t="s">
+        <v>324</v>
+      </c>
+      <c r="H293" t="s">
+        <v>101</v>
+      </c>
+      <c r="I293" t="s">
+        <v>108</v>
+      </c>
+      <c r="J293" t="s">
+        <v>103</v>
+      </c>
+      <c r="K293" t="s">
+        <v>104</v>
+      </c>
+      <c r="L293" t="s">
+        <v>105</v>
+      </c>
+      <c r="M293" t="s">
+        <v>106</v>
+      </c>
+      <c r="N293" t="s">
+        <v>104</v>
+      </c>
+      <c r="O293" t="s">
+        <v>3580</v>
+      </c>
+      <c r="P293" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q293" t="s">
+        <v>3581</v>
+      </c>
+      <c r="R293" t="s">
+        <v>110</v>
+      </c>
+      <c r="S293" t="s">
+        <v>536</v>
+      </c>
+      <c r="T293" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U293" t="s">
+        <v>3582</v>
+      </c>
+      <c r="V293" t="s">
+        <v>104</v>
+      </c>
+      <c r="W293" t="s">
+        <v>114</v>
+      </c>
+      <c r="X293" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y293" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z293" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA293" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB293" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC293" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD293" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE293" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF293" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG293" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH293" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI293" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ293" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK293" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL293" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM293" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN293" t="s">
+        <v>3583</v>
+      </c>
+      <c r="AO293" t="s">
+        <v>3584</v>
+      </c>
+      <c r="AP293" t="s">
+        <v>3585</v>
+      </c>
+      <c r="AQ293" t="s">
+        <v>3586</v>
+      </c>
+      <c r="AR293" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS293" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT293" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU293" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV293" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW293" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX293" t="s">
+        <v>3587</v>
+      </c>
+      <c r="AY293" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ293" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA293" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB293" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC293" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD293" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE293" t="s">
+        <v>3588</v>
+      </c>
+      <c r="BF293" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG293" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH293" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI293" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ293" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK293" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL293" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM293" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN293" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO293" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP293" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ293" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR293" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS293" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT293" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU293" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV293" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW293" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX293" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY293" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ293" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA293" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB293" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC293" t="s">
+        <v>3589</v>
+      </c>
+      <c r="CD293" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE293" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF293" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG293" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH293" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI293" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ293" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK293" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL293" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM293" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN293" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO293" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP293" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="294" spans="1:94">
-      <c r="S294" s="3" t="s">
-        <v>3376</v>
+      <c r="A294" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B294" t="s">
+        <v>3592</v>
+      </c>
+      <c r="C294" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D294" t="s">
+        <v>2768</v>
+      </c>
+      <c r="E294" t="s">
+        <v>98</v>
+      </c>
+      <c r="F294" t="s">
+        <v>99</v>
+      </c>
+      <c r="G294" t="s">
+        <v>100</v>
+      </c>
+      <c r="H294" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I294" t="s">
+        <v>114</v>
+      </c>
+      <c r="J294" t="s">
+        <v>259</v>
+      </c>
+      <c r="K294" t="s">
+        <v>104</v>
+      </c>
+      <c r="L294" t="s">
+        <v>105</v>
+      </c>
+      <c r="M294" t="s">
+        <v>106</v>
+      </c>
+      <c r="N294" t="s">
+        <v>104</v>
+      </c>
+      <c r="O294" t="s">
+        <v>3594</v>
+      </c>
+      <c r="P294" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q294" t="s">
+        <v>3595</v>
+      </c>
+      <c r="R294" t="s">
+        <v>110</v>
+      </c>
+      <c r="S294" t="s">
+        <v>111</v>
+      </c>
+      <c r="T294" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U294" t="s">
+        <v>3596</v>
+      </c>
+      <c r="V294" t="s">
+        <v>104</v>
+      </c>
+      <c r="W294" t="s">
+        <v>114</v>
+      </c>
+      <c r="X294" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y294" t="s">
+        <v>3597</v>
+      </c>
+      <c r="Z294" t="s">
+        <v>934</v>
+      </c>
+      <c r="AA294" t="s">
+        <v>3597</v>
+      </c>
+      <c r="AB294" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AC294" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD294" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE294" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF294" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG294" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH294" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI294" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ294" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK294" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL294" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM294" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN294" t="s">
+        <v>3598</v>
+      </c>
+      <c r="AO294" t="s">
+        <v>3599</v>
+      </c>
+      <c r="AP294" t="s">
+        <v>3600</v>
+      </c>
+      <c r="AQ294" t="s">
+        <v>3601</v>
+      </c>
+      <c r="AR294" t="s">
+        <v>3602</v>
+      </c>
+      <c r="AS294" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT294" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU294" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV294" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW294" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX294" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY294" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ294" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA294" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB294" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC294" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD294" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE294" t="s">
+        <v>3603</v>
+      </c>
+      <c r="BF294" t="s">
+        <v>2768</v>
+      </c>
+      <c r="BG294" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH294" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI294" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ294" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK294" t="s">
+        <v>1413</v>
+      </c>
+      <c r="BL294" t="s">
+        <v>450</v>
+      </c>
+      <c r="BM294" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN294" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO294" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP294" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ294" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR294" t="s">
+        <v>98</v>
+      </c>
+      <c r="BS294" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT294" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU294" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV294" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW294" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX294" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY294" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ294" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA294" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB294" t="s">
+        <v>1953</v>
+      </c>
+      <c r="CC294" t="s">
+        <v>3604</v>
+      </c>
+      <c r="CD294" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE294" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF294" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG294" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH294" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI294" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ294" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK294" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL294" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM294" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN294" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO294" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP294" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="295" spans="1:94">
+      <c r="A295" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B295" t="s">
+        <v>3606</v>
+      </c>
+      <c r="C295" t="s">
+        <v>3566</v>
+      </c>
+      <c r="D295" t="s">
+        <v>796</v>
+      </c>
+      <c r="E295" t="s">
+        <v>98</v>
+      </c>
+      <c r="F295" t="s">
+        <v>99</v>
+      </c>
+      <c r="G295" t="s">
+        <v>879</v>
+      </c>
+      <c r="H295" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I295" t="s">
+        <v>114</v>
+      </c>
+      <c r="J295" t="s">
+        <v>259</v>
+      </c>
+      <c r="K295" t="s">
+        <v>104</v>
+      </c>
+      <c r="L295" t="s">
+        <v>105</v>
+      </c>
+      <c r="M295" t="s">
+        <v>106</v>
+      </c>
+      <c r="N295" t="s">
+        <v>104</v>
+      </c>
+      <c r="O295" t="s">
+        <v>3607</v>
+      </c>
+      <c r="P295" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q295" t="s">
+        <v>3608</v>
+      </c>
+      <c r="R295" t="s">
+        <v>110</v>
+      </c>
+      <c r="S295" t="s">
+        <v>2300</v>
+      </c>
+      <c r="T295" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U295" t="s">
+        <v>3609</v>
+      </c>
+      <c r="V295" t="s">
+        <v>104</v>
+      </c>
+      <c r="W295" t="s">
+        <v>114</v>
+      </c>
+      <c r="X295" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y295" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z295" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA295" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB295" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC295" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD295" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE295" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF295" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG295" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH295" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI295" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ295" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK295" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL295" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM295" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN295" t="s">
+        <v>3610</v>
+      </c>
+      <c r="AO295" t="s">
+        <v>3611</v>
+      </c>
+      <c r="AP295" t="s">
+        <v>3612</v>
+      </c>
+      <c r="AQ295" t="s">
+        <v>3607</v>
+      </c>
+      <c r="AR295" t="s">
+        <v>3612</v>
+      </c>
+      <c r="AS295" t="s">
+        <v>889</v>
+      </c>
+      <c r="AT295" t="s">
+        <v>879</v>
+      </c>
+      <c r="AU295" t="s">
+        <v>3613</v>
+      </c>
+      <c r="AV295" t="s">
+        <v>3614</v>
+      </c>
+      <c r="AW295" t="s">
+        <v>3615</v>
+      </c>
+      <c r="AX295" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY295" t="s">
+        <v>3616</v>
+      </c>
+      <c r="AZ295" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA295" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB295" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC295" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD295" t="s">
+        <v>3617</v>
+      </c>
+      <c r="BE295" t="s">
+        <v>3618</v>
+      </c>
+      <c r="BF295" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG295" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH295" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI295" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ295" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK295" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL295" t="s">
+        <v>3619</v>
+      </c>
+      <c r="BM295" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN295" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO295" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP295" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ295" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR295" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS295" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT295" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU295" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV295" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW295" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX295" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY295" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ295" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA295" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB295" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC295" t="s">
+        <v>3620</v>
+      </c>
+      <c r="CD295" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE295" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF295" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG295" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH295" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI295" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ295" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK295" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL295" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM295" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN295" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO295" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP295" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="296" spans="1:94">
+      <c r="A296" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B296" t="s">
+        <v>3622</v>
+      </c>
+      <c r="C296" t="s">
+        <v>3555</v>
+      </c>
+      <c r="D296" t="s">
+        <v>97</v>
+      </c>
+      <c r="E296" t="s">
+        <v>99</v>
+      </c>
+      <c r="F296" t="s">
+        <v>98</v>
+      </c>
+      <c r="G296" t="s">
+        <v>100</v>
+      </c>
+      <c r="H296" t="s">
+        <v>683</v>
+      </c>
+      <c r="I296" t="s">
+        <v>114</v>
+      </c>
+      <c r="J296" t="s">
+        <v>259</v>
+      </c>
+      <c r="K296" t="s">
+        <v>104</v>
+      </c>
+      <c r="L296" t="s">
+        <v>105</v>
+      </c>
+      <c r="M296" t="s">
+        <v>106</v>
+      </c>
+      <c r="N296" t="s">
+        <v>104</v>
+      </c>
+      <c r="O296" t="s">
+        <v>3557</v>
+      </c>
+      <c r="P296" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q296" t="s">
+        <v>3623</v>
+      </c>
+      <c r="R296" t="s">
+        <v>110</v>
+      </c>
+      <c r="S296" t="s">
+        <v>111</v>
+      </c>
+      <c r="T296" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U296" t="s">
+        <v>3624</v>
+      </c>
+      <c r="V296" t="s">
+        <v>104</v>
+      </c>
+      <c r="W296" t="s">
+        <v>114</v>
+      </c>
+      <c r="X296" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y296" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z296" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA296" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB296" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC296" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD296" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE296" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF296" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG296" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH296" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI296" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ296" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK296" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL296" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM296" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN296" t="s">
+        <v>3625</v>
+      </c>
+      <c r="AO296" t="s">
+        <v>3626</v>
+      </c>
+      <c r="AP296" t="s">
+        <v>3627</v>
+      </c>
+      <c r="AQ296" t="s">
+        <v>3628</v>
+      </c>
+      <c r="AR296" t="s">
+        <v>3627</v>
+      </c>
+      <c r="AS296" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT296" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU296" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV296" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW296" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX296" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY296" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ296" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA296" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB296" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC296" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD296" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE296" t="s">
+        <v>3629</v>
+      </c>
+      <c r="BF296" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG296" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH296" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI296" t="s">
+        <v>3630</v>
+      </c>
+      <c r="BJ296" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK296" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL296" t="s">
+        <v>891</v>
+      </c>
+      <c r="BM296" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN296" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO296" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP296" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ296" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR296" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS296" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT296" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU296" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV296" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW296" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX296" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY296" t="s">
+        <v>2028</v>
+      </c>
+      <c r="BZ296" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA296" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB296" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC296" t="s">
+        <v>3631</v>
+      </c>
+      <c r="CD296" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE296" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF296" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG296" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH296" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI296" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ296" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK296" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL296" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM296" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN296" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO296" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP296" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="297" spans="1:94">
+      <c r="A297" t="s">
+        <v>3632</v>
+      </c>
+      <c r="B297" t="s">
+        <v>3633</v>
+      </c>
+      <c r="C297" t="s">
+        <v>3590</v>
+      </c>
+      <c r="D297" t="s">
+        <v>97</v>
+      </c>
+      <c r="E297" t="s">
+        <v>99</v>
+      </c>
+      <c r="F297" t="s">
+        <v>98</v>
+      </c>
+      <c r="G297" t="s">
+        <v>324</v>
+      </c>
+      <c r="H297" t="s">
+        <v>101</v>
+      </c>
+      <c r="I297" t="s">
+        <v>114</v>
+      </c>
+      <c r="J297" t="s">
+        <v>103</v>
+      </c>
+      <c r="K297" t="s">
+        <v>104</v>
+      </c>
+      <c r="L297" t="s">
+        <v>105</v>
+      </c>
+      <c r="M297" t="s">
+        <v>106</v>
+      </c>
+      <c r="N297" t="s">
+        <v>104</v>
+      </c>
+      <c r="O297" t="s">
+        <v>3634</v>
+      </c>
+      <c r="P297" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q297" t="s">
+        <v>3635</v>
+      </c>
+      <c r="R297" t="s">
+        <v>110</v>
+      </c>
+      <c r="S297" t="s">
+        <v>366</v>
+      </c>
+      <c r="T297" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U297" t="s">
+        <v>3636</v>
+      </c>
+      <c r="V297" t="s">
+        <v>104</v>
+      </c>
+      <c r="W297" t="s">
+        <v>114</v>
+      </c>
+      <c r="X297" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y297" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z297" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA297" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB297" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC297" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD297" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE297" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF297" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG297" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH297" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI297" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ297" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK297" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL297" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM297" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN297" t="s">
+        <v>3637</v>
+      </c>
+      <c r="AO297" t="s">
+        <v>3638</v>
+      </c>
+      <c r="AP297" t="s">
+        <v>3639</v>
+      </c>
+      <c r="AQ297" t="s">
+        <v>3640</v>
+      </c>
+      <c r="AR297" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS297" t="s">
+        <v>331</v>
+      </c>
+      <c r="AT297" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU297" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV297" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW297" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX297" t="s">
+        <v>3641</v>
+      </c>
+      <c r="AY297" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ297" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA297" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB297" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC297" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD297" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE297" t="s">
+        <v>3642</v>
+      </c>
+      <c r="BF297" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG297" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH297" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI297" t="s">
+        <v>3643</v>
+      </c>
+      <c r="BJ297" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK297" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL297" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM297" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN297" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO297" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP297" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ297" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR297" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS297" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT297" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU297" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV297" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW297" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX297" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY297" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ297" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA297" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB297" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC297" t="s">
+        <v>3644</v>
+      </c>
+      <c r="CD297" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE297" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF297" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG297" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH297" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI297" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ297" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK297" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL297" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM297" t="s">
+        <v>202</v>
+      </c>
+      <c r="CN297" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO297" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP297" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="298" spans="1:94">
+      <c r="A298" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B298" t="s">
+        <v>3646</v>
+      </c>
+      <c r="C298" t="s">
+        <v>3566</v>
+      </c>
+      <c r="D298" t="s">
+        <v>289</v>
+      </c>
+      <c r="E298" t="s">
+        <v>99</v>
+      </c>
+      <c r="F298" t="s">
+        <v>98</v>
+      </c>
+      <c r="G298" t="s">
+        <v>274</v>
+      </c>
+      <c r="H298" t="s">
+        <v>101</v>
+      </c>
+      <c r="I298" t="s">
+        <v>102</v>
+      </c>
+      <c r="J298" t="s">
+        <v>103</v>
+      </c>
+      <c r="K298" t="s">
+        <v>104</v>
+      </c>
+      <c r="L298" t="s">
+        <v>105</v>
+      </c>
+      <c r="M298" t="s">
+        <v>106</v>
+      </c>
+      <c r="N298" t="s">
+        <v>104</v>
+      </c>
+      <c r="O298" t="s">
+        <v>3647</v>
+      </c>
+      <c r="P298" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q298" t="s">
+        <v>3648</v>
+      </c>
+      <c r="R298" t="s">
+        <v>110</v>
+      </c>
+      <c r="S298" t="s">
+        <v>235</v>
+      </c>
+      <c r="T298" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="U298" t="s">
+        <v>3649</v>
+      </c>
+      <c r="V298" t="s">
+        <v>104</v>
+      </c>
+      <c r="W298" t="s">
+        <v>114</v>
+      </c>
+      <c r="X298" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y298" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z298" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA298" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB298" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC298" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD298" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE298" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF298" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG298" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH298" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI298" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ298" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK298" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL298" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM298" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN298" t="s">
+        <v>3650</v>
+      </c>
+      <c r="AO298">
+        <v>93114729451</v>
+      </c>
+      <c r="AP298" t="s">
+        <v>3651</v>
+      </c>
+      <c r="AQ298" t="s">
+        <v>3652</v>
+      </c>
+      <c r="AR298" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS298" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT298" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU298" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV298" t="s">
+        <v>2218</v>
+      </c>
+      <c r="AW298" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX298" t="s">
+        <v>3653</v>
+      </c>
+      <c r="AY298" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ298" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA298" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB298" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC298" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD298" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE298" t="s">
+        <v>3654</v>
+      </c>
+      <c r="BF298" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG298" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH298" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI298" t="s">
+        <v>3655</v>
+      </c>
+      <c r="BJ298" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK298" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL298" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM298" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN298" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO298" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP298" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ298" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR298" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS298" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT298" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU298" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV298" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW298" t="s">
+        <v>102</v>
+      </c>
+      <c r="BX298" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY298" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ298" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA298" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB298" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC298" t="s">
+        <v>3656</v>
+      </c>
+      <c r="CD298" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE298" t="s">
+        <v>114</v>
+      </c>
+      <c r="CF298" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG298" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH298" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI298" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ298" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK298" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL298" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM298" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN298" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO298" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP298" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="299" spans="1:94">
+      <c r="A299" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B299" t="s">
+        <v>3658</v>
+      </c>
+      <c r="C299" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D299" t="s">
+        <v>97</v>
+      </c>
+      <c r="E299" t="s">
+        <v>99</v>
+      </c>
+      <c r="F299" t="s">
+        <v>98</v>
+      </c>
+      <c r="G299" t="s">
+        <v>100</v>
+      </c>
+      <c r="H299" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I299" t="s">
+        <v>114</v>
+      </c>
+      <c r="J299" t="s">
+        <v>259</v>
+      </c>
+      <c r="K299" t="s">
+        <v>104</v>
+      </c>
+      <c r="L299" t="s">
+        <v>105</v>
+      </c>
+      <c r="M299" t="s">
+        <v>106</v>
+      </c>
+      <c r="N299" t="s">
+        <v>104</v>
+      </c>
+      <c r="O299" t="s">
+        <v>3659</v>
+      </c>
+      <c r="P299" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q299" t="s">
+        <v>3660</v>
+      </c>
+      <c r="R299" t="s">
+        <v>110</v>
+      </c>
+      <c r="S299" t="s">
+        <v>111</v>
+      </c>
+      <c r="T299" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U299" t="s">
+        <v>3661</v>
+      </c>
+      <c r="V299" t="s">
+        <v>104</v>
+      </c>
+      <c r="W299" t="s">
+        <v>114</v>
+      </c>
+      <c r="X299" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y299" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z299" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA299" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB299" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC299" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD299" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE299" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF299" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG299" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH299" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI299" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ299" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK299" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL299" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM299" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN299" t="s">
+        <v>3662</v>
+      </c>
+      <c r="AO299" t="s">
+        <v>3663</v>
+      </c>
+      <c r="AP299" t="s">
+        <v>3664</v>
+      </c>
+      <c r="AQ299" t="s">
+        <v>3665</v>
+      </c>
+      <c r="AR299" t="s">
+        <v>3664</v>
+      </c>
+      <c r="AS299" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT299" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU299" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV299" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW299" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX299" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY299" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ299" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA299" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB299" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC299" t="s">
+        <v>3264</v>
+      </c>
+      <c r="BD299" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE299" t="s">
+        <v>3666</v>
+      </c>
+      <c r="BF299" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG299" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH299" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI299" t="s">
+        <v>3667</v>
+      </c>
+      <c r="BJ299" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK299" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL299" t="s">
+        <v>317</v>
+      </c>
+      <c r="BM299" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN299" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO299" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP299" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ299" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR299" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS299" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT299" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU299" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV299" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW299" t="s">
+        <v>1526</v>
+      </c>
+      <c r="BX299" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY299" t="s">
+        <v>935</v>
+      </c>
+      <c r="BZ299" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA299" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB299" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC299" t="s">
+        <v>3668</v>
+      </c>
+      <c r="CD299" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE299" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF299" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG299" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH299" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI299" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ299" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK299" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL299" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM299" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN299" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO299" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP299" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="300" spans="1:94">
+      <c r="A300" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B300" t="s">
+        <v>3670</v>
+      </c>
+      <c r="C300" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D300" t="s">
+        <v>97</v>
+      </c>
+      <c r="E300" t="s">
+        <v>99</v>
+      </c>
+      <c r="F300" t="s">
+        <v>98</v>
+      </c>
+      <c r="G300" t="s">
+        <v>100</v>
+      </c>
+      <c r="H300" t="s">
+        <v>683</v>
+      </c>
+      <c r="I300" t="s">
+        <v>114</v>
+      </c>
+      <c r="J300" t="s">
+        <v>259</v>
+      </c>
+      <c r="K300" t="s">
+        <v>104</v>
+      </c>
+      <c r="L300" t="s">
+        <v>105</v>
+      </c>
+      <c r="M300" t="s">
+        <v>106</v>
+      </c>
+      <c r="N300" t="s">
+        <v>104</v>
+      </c>
+      <c r="O300" t="s">
+        <v>3671</v>
+      </c>
+      <c r="P300" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q300" t="s">
+        <v>3672</v>
+      </c>
+      <c r="R300" t="s">
+        <v>110</v>
+      </c>
+      <c r="S300" t="s">
+        <v>111</v>
+      </c>
+      <c r="T300" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U300" t="s">
+        <v>3673</v>
+      </c>
+      <c r="V300" t="s">
+        <v>104</v>
+      </c>
+      <c r="W300" t="s">
+        <v>114</v>
+      </c>
+      <c r="X300" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y300" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z300" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA300" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB300" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC300" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD300" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE300" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF300" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG300" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH300" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI300" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ300" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK300" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL300" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM300" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN300" t="s">
+        <v>3674</v>
+      </c>
+      <c r="AO300" t="s">
+        <v>3675</v>
+      </c>
+      <c r="AP300" t="s">
+        <v>3676</v>
+      </c>
+      <c r="AQ300" t="s">
+        <v>3677</v>
+      </c>
+      <c r="AR300" t="s">
+        <v>3676</v>
+      </c>
+      <c r="AS300" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT300" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU300" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV300" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW300" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX300" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY300" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ300" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA300" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB300" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC300" t="s">
+        <v>692</v>
+      </c>
+      <c r="BD300" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE300" t="s">
+        <v>3678</v>
+      </c>
+      <c r="BF300" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG300" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH300" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI300" t="s">
+        <v>3679</v>
+      </c>
+      <c r="BJ300" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK300" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL300" t="s">
+        <v>891</v>
+      </c>
+      <c r="BM300" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN300" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO300" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP300" t="s">
+        <v>99</v>
+      </c>
+      <c r="BQ300" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR300" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS300" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT300" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU300" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV300" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW300" t="s">
+        <v>1231</v>
+      </c>
+      <c r="BX300" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY300" t="s">
+        <v>892</v>
+      </c>
+      <c r="BZ300" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA300" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB300" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC300" t="s">
+        <v>3680</v>
+      </c>
+      <c r="CD300" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE300" t="s">
+        <v>104</v>
+      </c>
+      <c r="CF300" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG300" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH300" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI300" t="s">
+        <v>114</v>
+      </c>
+      <c r="CJ300" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK300" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL300" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM300" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN300" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO300" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP300" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="305" spans="19:19">
+      <c r="S305" s="3" t="s">
+        <v>3681</v>
       </c>
     </row>
   </sheetData>

--- a/reworkpd.xlsx
+++ b/reworkpd.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28157" uniqueCount="3682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28909" uniqueCount="3785">
   <si>
     <t>Codice</t>
   </si>
@@ -11064,7 +11064,316 @@
     <t xml:space="preserve">Rifatto giunto al roe eseguita prova telefonica Codice collaudo: tk202601240071806468 </t>
   </si>
   <si>
-    <t>#data esec al 25/01</t>
+    <t>#data esec al 01/03</t>
+  </si>
+  <si>
+    <t>TT1005325476</t>
+  </si>
+  <si>
+    <t>96300541</t>
+  </si>
+  <si>
+    <t>29/01/2026</t>
+  </si>
+  <si>
+    <t>s:ServiceOptimization.ErrorNumbers.55001-È necessario effettuare la Certificazione del Percorso di Rete mediante l’applicazione NAVWEB oppure dichiarare la causa della mancata Certificazione PdR (tramite l’apposito campo). Eseguire l’operazione richiesta per poter procedere alla chiusura della WR.</t>
+  </si>
+  <si>
+    <t>29/01/2026 15:30</t>
+  </si>
+  <si>
+    <t>29/01/2026 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026012110021434 </t>
+  </si>
+  <si>
+    <t>SWADW6042259604</t>
+  </si>
+  <si>
+    <t>093114744297</t>
+  </si>
+  <si>
+    <t>22/01/2026 12:10</t>
+  </si>
+  <si>
+    <t>29/01/2026 18:35</t>
+  </si>
+  <si>
+    <t>22/01/2026 13:20</t>
+  </si>
+  <si>
+    <t>21/01/2026 13:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sostituita coppia di secondaria, fatte prove in sede, nuova 5 vecchia 4,zona 2/42 box 54.collaudo: tk202601210071703207 </t>
+  </si>
+  <si>
+    <t>TT1005340803</t>
+  </si>
+  <si>
+    <t>96406088</t>
+  </si>
+  <si>
+    <t>26/01/2026</t>
+  </si>
+  <si>
+    <t>26/01/2026 10:00</t>
+  </si>
+  <si>
+    <t>26/01/2026 10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026012210272911 </t>
+  </si>
+  <si>
+    <t>SWADW6042269350</t>
+  </si>
+  <si>
+    <t>093114734078</t>
+  </si>
+  <si>
+    <t>29/01/2026 17:39</t>
+  </si>
+  <si>
+    <t>26/01/2026 12:05</t>
+  </si>
+  <si>
+    <t>25/01/2026 17:56</t>
+  </si>
+  <si>
+    <t>24/01/2026 16:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato in armadio eseguita prova telefonica certificato con supporto Fastweb pin 3176 collaudo tk202601240071808621 </t>
+  </si>
+  <si>
+    <t>27/01/2026</t>
+  </si>
+  <si>
+    <t>27/01/2026 15:30</t>
+  </si>
+  <si>
+    <t>27/01/2026 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026012410573709 </t>
+  </si>
+  <si>
+    <t>SWADW6042277809</t>
+  </si>
+  <si>
+    <t>093114737381</t>
+  </si>
+  <si>
+    <t>ASSENZA RANDOMICA DI PORTANTE **CPE_SN:S194107003075**</t>
+  </si>
+  <si>
+    <t>TT1005350540</t>
+  </si>
+  <si>
+    <t>96473667</t>
+  </si>
+  <si>
+    <t>28/01/2026</t>
+  </si>
+  <si>
+    <t>28/01/2026 11:00</t>
+  </si>
+  <si>
+    <t>28/01/2026 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026012510762216 </t>
+  </si>
+  <si>
+    <t>SWADW6042283340</t>
+  </si>
+  <si>
+    <t>093113772873</t>
+  </si>
+  <si>
+    <t>02/02/2026 16:37</t>
+  </si>
+  <si>
+    <t>28/01/2026 10:49</t>
+  </si>
+  <si>
+    <t>27/01/2026 20:34</t>
+  </si>
+  <si>
+    <t>27/01/2026 13:46</t>
+  </si>
+  <si>
+    <t>GUASTO RIPARATO AL BOX,FATTE PROVE CON IL CLIENTE collaudo: tk202601270071876170</t>
+  </si>
+  <si>
+    <t>ASSENZA RANDOMICA DI PORTANTE **CPE_SN:S182V34036862**</t>
+  </si>
+  <si>
+    <t>TT1005351067</t>
+  </si>
+  <si>
+    <t>96477838</t>
+  </si>
+  <si>
+    <t>29/01/2026 13:00</t>
+  </si>
+  <si>
+    <t>29/01/2026 13:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026012711085266 </t>
+  </si>
+  <si>
+    <t>SWADW6042293478</t>
+  </si>
+  <si>
+    <t>093114741177</t>
+  </si>
+  <si>
+    <t>03/02/2026 13:51</t>
+  </si>
+  <si>
+    <t>29/01/2026 13:03</t>
+  </si>
+  <si>
+    <t>28/01/2026 16:00</t>
+  </si>
+  <si>
+    <t>27/01/2026 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rifatti puntali ossidati al box eseguita prova telefonica Codice collaudo: tk202601270071880339 </t>
+  </si>
+  <si>
+    <t>30/01/2026</t>
+  </si>
+  <si>
+    <t>30/01/2026 12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERDIANA TINE' </t>
+  </si>
+  <si>
+    <t>CRV001045080850</t>
+  </si>
+  <si>
+    <t>0931586113</t>
+  </si>
+  <si>
+    <t>TT1005357820</t>
+  </si>
+  <si>
+    <t>96522498</t>
+  </si>
+  <si>
+    <t>30/01/2026 11:00</t>
+  </si>
+  <si>
+    <t>04/02/2026 02:36</t>
+  </si>
+  <si>
+    <t>30/01/2026 11:01</t>
+  </si>
+  <si>
+    <t>29/01/2026 09:58</t>
+  </si>
+  <si>
+    <t>28/01/2026 18:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rifatti puntali ossidati al box  Codice collaudo: tk202601280071924981  </t>
+  </si>
+  <si>
+    <t>TT1005369692</t>
+  </si>
+  <si>
+    <t>96598960</t>
+  </si>
+  <si>
+    <t>31/01/2026</t>
+  </si>
+  <si>
+    <t>31/01/2026 18:00</t>
+  </si>
+  <si>
+    <t>31/01/2026 18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELA ANNA PAPPALARDO </t>
+  </si>
+  <si>
+    <t>20/02/2026 00:00</t>
+  </si>
+  <si>
+    <t>CRV001045047564</t>
+  </si>
+  <si>
+    <t>0931316481</t>
+  </si>
+  <si>
+    <t>24/02/2026 00:00</t>
+  </si>
+  <si>
+    <t>31/01/2026 16:48</t>
+  </si>
+  <si>
+    <t>31/01/2026 17:41</t>
+  </si>
+  <si>
+    <t>31/01/2026 11:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box, cc tk202601310072001414  </t>
+  </si>
+  <si>
+    <t>TT1005369822</t>
+  </si>
+  <si>
+    <t>96599579</t>
+  </si>
+  <si>
+    <t>04/02/2026 00:35</t>
+  </si>
+  <si>
+    <t>31/01/2026 16:50</t>
+  </si>
+  <si>
+    <t>31/01/2026 12:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box, Codice collaudo: tk202601310072002033 </t>
+  </si>
+  <si>
+    <t>TT1005349560</t>
+  </si>
+  <si>
+    <t>96466176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2026012711047094 </t>
+  </si>
+  <si>
+    <t>SWADW6042291972</t>
+  </si>
+  <si>
+    <t>093114724097</t>
+  </si>
+  <si>
+    <t>28/01/2026 11:11</t>
+  </si>
+  <si>
+    <t>27/01/2026 16:43</t>
+  </si>
+  <si>
+    <t>27/01/2026 11:28</t>
+  </si>
+  <si>
+    <t>95982066</t>
+  </si>
+  <si>
+    <t>Rifatto giunto al pte eseguita prova in sede utente Codice collaudo: tk202601270071868684</t>
   </si>
 </sst>
 </file>
@@ -11424,10 +11733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP305"/>
+  <dimension ref="A1:CP315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q273" workbookViewId="0">
-      <selection activeCell="T298" sqref="T298"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="T308" sqref="T308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -96637,8 +96946,2280 @@
         <v>104</v>
       </c>
     </row>
-    <row r="305" spans="19:19">
-      <c r="S305" s="3" t="s">
+    <row r="301" spans="1:94">
+      <c r="A301" t="s">
+        <v>3682</v>
+      </c>
+      <c r="B301" t="s">
+        <v>3683</v>
+      </c>
+      <c r="C301" t="s">
+        <v>3684</v>
+      </c>
+      <c r="D301" t="s">
+        <v>230</v>
+      </c>
+      <c r="E301" t="s">
+        <v>98</v>
+      </c>
+      <c r="F301" t="s">
+        <v>99</v>
+      </c>
+      <c r="G301" t="s">
+        <v>274</v>
+      </c>
+      <c r="H301" t="s">
+        <v>101</v>
+      </c>
+      <c r="I301" t="s">
+        <v>344</v>
+      </c>
+      <c r="J301" t="s">
+        <v>103</v>
+      </c>
+      <c r="K301" t="s">
+        <v>3685</v>
+      </c>
+      <c r="L301" t="s">
+        <v>105</v>
+      </c>
+      <c r="M301" t="s">
+        <v>106</v>
+      </c>
+      <c r="N301" t="s">
+        <v>104</v>
+      </c>
+      <c r="O301" t="s">
+        <v>3686</v>
+      </c>
+      <c r="P301" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q301" t="s">
+        <v>3687</v>
+      </c>
+      <c r="R301" t="s">
+        <v>110</v>
+      </c>
+      <c r="S301" t="s">
+        <v>235</v>
+      </c>
+      <c r="T301" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U301" t="s">
+        <v>3688</v>
+      </c>
+      <c r="V301" t="s">
+        <v>104</v>
+      </c>
+      <c r="W301" t="s">
+        <v>114</v>
+      </c>
+      <c r="X301" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y301" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z301" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA301" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB301" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC301" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD301" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE301" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF301" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG301" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH301" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI301" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ301" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK301" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL301" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM301" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN301" t="s">
+        <v>3689</v>
+      </c>
+      <c r="AO301" t="s">
+        <v>3690</v>
+      </c>
+      <c r="AP301" t="s">
+        <v>3691</v>
+      </c>
+      <c r="AQ301" t="s">
+        <v>3692</v>
+      </c>
+      <c r="AR301" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS301" t="s">
+        <v>282</v>
+      </c>
+      <c r="AT301" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU301" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV301" t="s">
+        <v>1473</v>
+      </c>
+      <c r="AW301" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX301" t="s">
+        <v>3693</v>
+      </c>
+      <c r="AY301" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ301" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA301" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB301" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC301" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD301" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE301" t="s">
+        <v>3694</v>
+      </c>
+      <c r="BF301" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG301" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH301" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI301" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ301" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK301" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL301" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM301" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN301" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO301" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP301" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ301" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR301" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS301" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT301" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU301" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV301" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW301" t="s">
+        <v>344</v>
+      </c>
+      <c r="BX301" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY301" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ301" t="s">
+        <v>157</v>
+      </c>
+      <c r="CA301" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB301" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC301" t="s">
+        <v>3695</v>
+      </c>
+      <c r="CD301" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE301" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF301" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG301" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH301" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI301" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ301" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK301" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL301" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM301" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN301" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO301" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP301" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="302" spans="1:94">
+      <c r="A302" t="s">
+        <v>3696</v>
+      </c>
+      <c r="B302" t="s">
+        <v>3697</v>
+      </c>
+      <c r="C302" t="s">
+        <v>3698</v>
+      </c>
+      <c r="D302" t="s">
+        <v>97</v>
+      </c>
+      <c r="E302" t="s">
+        <v>98</v>
+      </c>
+      <c r="F302" t="s">
+        <v>99</v>
+      </c>
+      <c r="G302" t="s">
+        <v>163</v>
+      </c>
+      <c r="H302" t="s">
+        <v>206</v>
+      </c>
+      <c r="I302" t="s">
+        <v>208</v>
+      </c>
+      <c r="J302" t="s">
+        <v>103</v>
+      </c>
+      <c r="K302" t="s">
+        <v>104</v>
+      </c>
+      <c r="L302" t="s">
+        <v>105</v>
+      </c>
+      <c r="M302" t="s">
+        <v>106</v>
+      </c>
+      <c r="N302" t="s">
+        <v>104</v>
+      </c>
+      <c r="O302" t="s">
+        <v>3699</v>
+      </c>
+      <c r="P302" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q302" t="s">
+        <v>3700</v>
+      </c>
+      <c r="R302" t="s">
+        <v>110</v>
+      </c>
+      <c r="S302" t="s">
+        <v>375</v>
+      </c>
+      <c r="T302" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="U302" t="s">
+        <v>3701</v>
+      </c>
+      <c r="V302" t="s">
+        <v>104</v>
+      </c>
+      <c r="W302" t="s">
+        <v>114</v>
+      </c>
+      <c r="X302" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y302" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z302" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA302" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB302" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC302" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD302" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE302" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF302" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG302" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH302" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI302" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ302" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK302" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL302" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM302" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN302" t="s">
+        <v>3702</v>
+      </c>
+      <c r="AO302" t="s">
+        <v>3703</v>
+      </c>
+      <c r="AP302" t="s">
+        <v>3704</v>
+      </c>
+      <c r="AQ302" t="s">
+        <v>3705</v>
+      </c>
+      <c r="AR302" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS302" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT302" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU302" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV302" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW302" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX302" t="s">
+        <v>3706</v>
+      </c>
+      <c r="AY302" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ302" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA302" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB302" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC302" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD302" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE302" t="s">
+        <v>3707</v>
+      </c>
+      <c r="BF302" t="s">
+        <v>289</v>
+      </c>
+      <c r="BG302" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH302" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI302" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ302" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK302" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL302" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM302" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN302" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO302" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP302" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ302" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR302" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS302" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT302" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU302" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV302" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW302" t="s">
+        <v>208</v>
+      </c>
+      <c r="BX302" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY302" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ302" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA302" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB302" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC302" t="s">
+        <v>3708</v>
+      </c>
+      <c r="CD302" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE302" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF302" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG302" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH302" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI302" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ302" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK302" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL302" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM302" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN302" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO302" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP302" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="303" spans="1:94">
+      <c r="A303" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B303" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C303" t="s">
+        <v>3718</v>
+      </c>
+      <c r="D303" t="s">
+        <v>97</v>
+      </c>
+      <c r="E303" t="s">
+        <v>98</v>
+      </c>
+      <c r="F303" t="s">
+        <v>99</v>
+      </c>
+      <c r="G303" t="s">
+        <v>178</v>
+      </c>
+      <c r="H303" t="s">
+        <v>206</v>
+      </c>
+      <c r="I303" t="s">
+        <v>108</v>
+      </c>
+      <c r="J303" t="s">
+        <v>103</v>
+      </c>
+      <c r="K303" t="s">
+        <v>104</v>
+      </c>
+      <c r="L303" t="s">
+        <v>105</v>
+      </c>
+      <c r="M303" t="s">
+        <v>106</v>
+      </c>
+      <c r="N303" t="s">
+        <v>104</v>
+      </c>
+      <c r="O303" t="s">
+        <v>3719</v>
+      </c>
+      <c r="P303" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q303" t="s">
+        <v>3720</v>
+      </c>
+      <c r="R303" t="s">
+        <v>110</v>
+      </c>
+      <c r="S303" t="s">
+        <v>366</v>
+      </c>
+      <c r="T303" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="U303" t="s">
+        <v>3721</v>
+      </c>
+      <c r="V303" t="s">
+        <v>104</v>
+      </c>
+      <c r="W303" t="s">
+        <v>114</v>
+      </c>
+      <c r="X303" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y303" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z303" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA303" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB303" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC303" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD303" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE303" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF303" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG303" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH303" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI303" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ303" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK303" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL303" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM303" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN303" t="s">
+        <v>3722</v>
+      </c>
+      <c r="AO303" t="s">
+        <v>3723</v>
+      </c>
+      <c r="AP303" t="s">
+        <v>3724</v>
+      </c>
+      <c r="AQ303" t="s">
+        <v>3725</v>
+      </c>
+      <c r="AR303" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS303" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT303" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU303" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV303" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW303" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX303" t="s">
+        <v>3726</v>
+      </c>
+      <c r="AY303" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ303" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA303" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB303" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC303" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD303" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE303" t="s">
+        <v>3727</v>
+      </c>
+      <c r="BF303" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG303" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH303" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI303" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ303" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK303" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL303" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM303" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN303" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO303" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP303" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ303" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR303" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS303" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT303" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU303" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV303" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW303" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX303" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY303" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ303" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA303" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB303" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC303" t="s">
+        <v>3728</v>
+      </c>
+      <c r="CD303" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE303" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF303" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG303" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH303" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI303" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ303" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK303" t="s">
+        <v>3729</v>
+      </c>
+      <c r="CL303" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM303" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN303" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO303" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP303" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="304" spans="1:94">
+      <c r="A304" t="s">
+        <v>3730</v>
+      </c>
+      <c r="B304" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C304" t="s">
+        <v>3684</v>
+      </c>
+      <c r="D304" t="s">
+        <v>97</v>
+      </c>
+      <c r="E304" t="s">
+        <v>98</v>
+      </c>
+      <c r="F304" t="s">
+        <v>99</v>
+      </c>
+      <c r="G304" t="s">
+        <v>768</v>
+      </c>
+      <c r="H304" t="s">
+        <v>206</v>
+      </c>
+      <c r="I304" t="s">
+        <v>108</v>
+      </c>
+      <c r="J304" t="s">
+        <v>103</v>
+      </c>
+      <c r="K304" t="s">
+        <v>104</v>
+      </c>
+      <c r="L304" t="s">
+        <v>105</v>
+      </c>
+      <c r="M304" t="s">
+        <v>106</v>
+      </c>
+      <c r="N304" t="s">
+        <v>104</v>
+      </c>
+      <c r="O304" t="s">
+        <v>3732</v>
+      </c>
+      <c r="P304" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q304" t="s">
+        <v>3733</v>
+      </c>
+      <c r="R304" t="s">
+        <v>110</v>
+      </c>
+      <c r="S304" t="s">
+        <v>111</v>
+      </c>
+      <c r="T304" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U304" t="s">
+        <v>3734</v>
+      </c>
+      <c r="V304" t="s">
+        <v>104</v>
+      </c>
+      <c r="W304" t="s">
+        <v>114</v>
+      </c>
+      <c r="X304" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y304" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z304" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA304" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB304" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC304" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD304" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE304" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF304" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG304" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH304" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI304" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ304" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK304" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL304" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM304" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN304" t="s">
+        <v>3735</v>
+      </c>
+      <c r="AO304" t="s">
+        <v>3736</v>
+      </c>
+      <c r="AP304" t="s">
+        <v>3737</v>
+      </c>
+      <c r="AQ304" t="s">
+        <v>3738</v>
+      </c>
+      <c r="AR304" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS304" t="s">
+        <v>776</v>
+      </c>
+      <c r="AT304" t="s">
+        <v>768</v>
+      </c>
+      <c r="AU304" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV304" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW304" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX304" t="s">
+        <v>3739</v>
+      </c>
+      <c r="AY304" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ304" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA304" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB304" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC304" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD304" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE304" t="s">
+        <v>3740</v>
+      </c>
+      <c r="BF304" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG304" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH304" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI304" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ304" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK304" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL304" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM304" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN304" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO304" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP304" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ304" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR304" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS304" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT304" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU304" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV304" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW304" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX304" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY304" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ304" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA304" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB304" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC304" t="s">
+        <v>3741</v>
+      </c>
+      <c r="CD304" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE304" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF304" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG304" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH304" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI304" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ304" t="s">
+        <v>104</v>
+      </c>
+      <c r="CK304" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL304" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM304" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN304" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO304" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP304" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="305" spans="1:94">
+      <c r="A305" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B305" t="s">
+        <v>3748</v>
+      </c>
+      <c r="C305" t="s">
+        <v>3742</v>
+      </c>
+      <c r="D305" t="s">
+        <v>97</v>
+      </c>
+      <c r="E305" t="s">
+        <v>98</v>
+      </c>
+      <c r="F305" t="s">
+        <v>99</v>
+      </c>
+      <c r="G305" t="s">
+        <v>231</v>
+      </c>
+      <c r="H305" t="s">
+        <v>206</v>
+      </c>
+      <c r="I305" t="s">
+        <v>320</v>
+      </c>
+      <c r="J305" t="s">
+        <v>103</v>
+      </c>
+      <c r="K305" t="s">
+        <v>104</v>
+      </c>
+      <c r="L305" t="s">
+        <v>105</v>
+      </c>
+      <c r="M305" t="s">
+        <v>106</v>
+      </c>
+      <c r="N305" t="s">
+        <v>104</v>
+      </c>
+      <c r="O305" t="s">
+        <v>3749</v>
+      </c>
+      <c r="P305" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q305" t="s">
+        <v>3743</v>
+      </c>
+      <c r="R305" t="s">
+        <v>110</v>
+      </c>
+      <c r="S305" t="s">
+        <v>2300</v>
+      </c>
+      <c r="T305" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U305" t="s">
+        <v>3712</v>
+      </c>
+      <c r="V305" t="s">
+        <v>104</v>
+      </c>
+      <c r="W305" t="s">
+        <v>114</v>
+      </c>
+      <c r="X305" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y305" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z305" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA305" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB305" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC305" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD305" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE305" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF305" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG305" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH305" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI305" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ305" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK305" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL305" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM305" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN305" t="s">
+        <v>3713</v>
+      </c>
+      <c r="AO305" t="s">
+        <v>3714</v>
+      </c>
+      <c r="AP305" t="s">
+        <v>3750</v>
+      </c>
+      <c r="AQ305" t="s">
+        <v>3751</v>
+      </c>
+      <c r="AR305" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS305" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT305" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU305" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV305" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW305" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX305" t="s">
+        <v>3752</v>
+      </c>
+      <c r="AY305" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ305" t="s">
+        <v>670</v>
+      </c>
+      <c r="BA305" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB305" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC305" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD305" t="s">
+        <v>221</v>
+      </c>
+      <c r="BE305" t="s">
+        <v>3753</v>
+      </c>
+      <c r="BF305" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG305" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH305" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI305" t="s">
+        <v>104</v>
+      </c>
+      <c r="BJ305" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK305" t="s">
+        <v>104</v>
+      </c>
+      <c r="BL305" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM305" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN305" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO305" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP305" t="s">
+        <v>98</v>
+      </c>
+      <c r="BQ305" t="s">
+        <v>132</v>
+      </c>
+      <c r="BR305" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS305" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT305" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU305" t="s">
+        <v>133</v>
+      </c>
+      <c r="BV305" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW305" t="s">
+        <v>320</v>
+      </c>
+      <c r="BX305" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY305" t="s">
+        <v>223</v>
+      </c>
+      <c r="BZ305" t="s">
+        <v>102</v>
+      </c>
+      <c r="CA305" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB305" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC305" t="s">
+        <v>3754</v>
+      </c>
+      <c r="CD305" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE305" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF305" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG305" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH305" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI305" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ305" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK305" t="s">
+        <v>3715</v>
+      </c>
+      <c r="CL305" t="s">
+        <v>104</v>
+      </c>
+      <c r="CM305" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN305" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO305" t="s">
+        <v>104</v>
+      </c>
+      <c r="CP305" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="306" spans="1:94">
+      <c r="A306" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B306" t="s">
+        <v>3756</v>
+      </c>
+      <c r="C306" t="s">
+        <v>3757</v>
+      </c>
+      <c r="D306" t="s">
+        <v>97</v>
+      </c>
+      <c r="E306" t="s">
+        <v>98</v>
+      </c>
+      <c r="F306" t="s">
+        <v>99</v>
+      </c>
+      <c r="G306" t="s">
+        <v>470</v>
+      </c>
+      <c r="H306" t="s">
+        <v>101</v>
+      </c>
+      <c r="I306" t="s">
+        <v>114</v>
+      </c>
+      <c r="J306" t="s">
+        <v>259</v>
+      </c>
+      <c r="K306" t="s">
+        <v>104</v>
+      </c>
+      <c r="L306" t="s">
+        <v>105</v>
+      </c>
+      <c r="M306" t="s">
+        <v>106</v>
+      </c>
+      <c r="N306" t="s">
+        <v>104</v>
+      </c>
+      <c r="O306" t="s">
+        <v>3758</v>
+      </c>
+      <c r="P306" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q306" t="s">
+        <v>3759</v>
+      </c>
+      <c r="R306" t="s">
+        <v>110</v>
+      </c>
+      <c r="S306" t="s">
+        <v>235</v>
+      </c>
+      <c r="T306" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U306" t="s">
+        <v>3760</v>
+      </c>
+      <c r="V306" t="s">
+        <v>104</v>
+      </c>
+      <c r="W306" t="s">
+        <v>114</v>
+      </c>
+      <c r="X306" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y306" t="s">
+        <v>3761</v>
+      </c>
+      <c r="Z306" t="s">
+        <v>934</v>
+      </c>
+      <c r="AA306" t="s">
+        <v>3761</v>
+      </c>
+      <c r="AB306" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AC306" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD306" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE306" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF306" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG306" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH306" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI306" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ306" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK306" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL306" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM306" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN306" t="s">
+        <v>3762</v>
+      </c>
+      <c r="AO306" t="s">
+        <v>3763</v>
+      </c>
+      <c r="AP306" t="s">
+        <v>3764</v>
+      </c>
+      <c r="AQ306" t="s">
+        <v>3765</v>
+      </c>
+      <c r="AR306" t="s">
+        <v>3766</v>
+      </c>
+      <c r="AS306" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT306" t="s">
+        <v>470</v>
+      </c>
+      <c r="AU306" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV306" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW306" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX306" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY306" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ306" t="s">
+        <v>104</v>
+      </c>
+      <c r="BA306" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB306" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC306" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD306" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE306" t="s">
+        <v>3767</v>
+      </c>
+      <c r="BF306" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG306" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH306" t="s">
+        <v>104</v>
+ 